--- a/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA+ve/Flaviviridae-GLUE/tabular/virus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A13A50-6897-9440-A651-E2AA8D3C90AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893ECF99-F517-FA49-A1AC-1DCBB7B03907}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="460" windowWidth="34680" windowHeight="20940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4693,8 +4693,8 @@
   <dimension ref="A1:N166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10314"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/core/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893ECF99-F517-FA49-A1AC-1DCBB7B03907}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CDA841-E16A-BE41-80CC-1AE6085333DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="460" windowWidth="34680" windowHeight="20940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11360" yWindow="500" windowWidth="34680" windowHeight="20940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flavi.txt" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="823">
   <si>
     <t>AY632538</t>
   </si>
@@ -517,9 +517,6 @@
     <t>Simian pegivirus</t>
   </si>
   <si>
-    <t>Piliocolobus tephrosceles (red colobus monkey)</t>
-  </si>
-  <si>
     <t>Lammi virus</t>
   </si>
   <si>
@@ -1747,9 +1744,6 @@
     <t>Jingmen tick virus</t>
   </si>
   <si>
-    <t>JMTV</t>
-  </si>
-  <si>
     <t xml:space="preserve">Guaico Culex virus </t>
   </si>
   <si>
@@ -1840,18 +1834,6 @@
     <t>EPgV</t>
   </si>
   <si>
-    <t>Guaico</t>
-  </si>
-  <si>
-    <t>Changjiang</t>
-  </si>
-  <si>
-    <t>Alongshan</t>
-  </si>
-  <si>
-    <t>WuhanAphid</t>
-  </si>
-  <si>
     <t>LFLV</t>
   </si>
   <si>
@@ -1987,12 +1969,6 @@
     <t>Drosophila</t>
   </si>
   <si>
-    <t>Daflv</t>
-  </si>
-  <si>
-    <t>Siv7</t>
-  </si>
-  <si>
     <t>J</t>
   </si>
   <si>
@@ -2486,13 +2462,49 @@
   </si>
   <si>
     <t>JMTV_CONCAT</t>
+  </si>
+  <si>
+    <t>JMTV_Seg1</t>
+  </si>
+  <si>
+    <t>JMTV_Seg3</t>
+  </si>
+  <si>
+    <t>Changjiang_Seg3</t>
+  </si>
+  <si>
+    <t>Guaico_Seg3</t>
+  </si>
+  <si>
+    <t>WuhanAphid_Seg3</t>
+  </si>
+  <si>
+    <t>Siv7_Seg1</t>
+  </si>
+  <si>
+    <t>WuhanAphid_Seg1</t>
+  </si>
+  <si>
+    <t>Daflv_Seg1</t>
+  </si>
+  <si>
+    <t>Changjiang_Seg1</t>
+  </si>
+  <si>
+    <t>Alongshan_Seg1</t>
+  </si>
+  <si>
+    <t>Guaico_Seg1</t>
+  </si>
+  <si>
+    <t>Piliocolobus tephrosceles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2557,13 +2569,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -2586,7 +2591,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2743,6 +2748,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3587,13 +3598,12 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3602,8 +3612,8 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3614,12 +3624,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3627,6 +3637,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="725">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4693,8 +4704,8 @@
   <dimension ref="A1:N166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H74" sqref="H74"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N154" sqref="A1:N165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4710,13 +4721,13 @@
     <col min="10" max="10" width="16.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="20" style="1" customWidth="1"/>
     <col min="12" max="12" width="17" style="1" customWidth="1"/>
-    <col min="13" max="13" width="23.6640625" customWidth="1"/>
-    <col min="14" max="14" width="31.83203125" customWidth="1"/>
+    <col min="13" max="13" width="1.83203125" customWidth="1"/>
+    <col min="14" max="14" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>63</v>
@@ -4725,10 +4736,10 @@
         <v>62</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>64</v>
@@ -4737,64 +4748,64 @@
         <v>65</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>620</v>
-      </c>
-      <c r="L1" s="61" t="s">
-        <v>504</v>
-      </c>
-      <c r="M1" s="62" t="s">
-        <v>474</v>
-      </c>
-      <c r="N1" s="62" t="s">
-        <v>612</v>
+        <v>614</v>
+      </c>
+      <c r="L1" s="60" t="s">
+        <v>503</v>
+      </c>
+      <c r="M1" s="61" t="s">
+        <v>473</v>
+      </c>
+      <c r="N1" s="61" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>137</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N2" s="16" t="s">
         <v>138</v>
@@ -4802,86 +4813,86 @@
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>99</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>125</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4889,38 +4900,38 @@
         <v>9</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L5" s="15">
         <v>178</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N5" s="16" t="s">
         <v>76</v>
@@ -4934,119 +4945,119 @@
         <v>79</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>1</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L7" s="15" t="s">
         <v>23</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N7" s="16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L8" s="15" t="s">
         <v>50</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N8" s="16" t="s">
         <v>160</v>
@@ -5054,41 +5065,41 @@
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>145</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L9" s="15" t="s">
         <v>31</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N9" s="16" t="s">
         <v>146</v>
@@ -5096,44 +5107,44 @@
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>75</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N10" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5144,35 +5155,35 @@
         <v>159</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L11" s="15" t="s">
         <v>37</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N11" s="16" t="s">
         <v>160</v>
@@ -5186,35 +5197,35 @@
         <v>83</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L12" s="15">
         <v>56</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N12" s="16" t="s">
         <v>84</v>
@@ -5222,83 +5233,83 @@
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L13" s="15" t="s">
         <v>49</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N13" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>133</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L14" s="15" t="s">
         <v>25</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N14" s="16" t="s">
         <v>134</v>
@@ -5306,35 +5317,35 @@
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L15" s="15" t="s">
         <v>1</v>
@@ -5347,200 +5358,200 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="63" t="s">
-        <v>761</v>
-      </c>
-      <c r="B16" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="C16" s="64" t="s">
+      <c r="A16" s="62" t="s">
+        <v>753</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>751</v>
+      </c>
+      <c r="C16" s="63" t="s">
+        <v>763</v>
+      </c>
+      <c r="D16" s="63" t="s">
+        <v>739</v>
+      </c>
+      <c r="E16" s="63" t="s">
+        <v>662</v>
+      </c>
+      <c r="F16" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="G16" s="63" t="s">
+        <v>766</v>
+      </c>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63" t="s">
+        <v>767</v>
+      </c>
+      <c r="J16" s="63" t="s">
+        <v>769</v>
+      </c>
+      <c r="K16" s="63"/>
+      <c r="L16" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N16" s="16" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="62" t="s">
+        <v>754</v>
+      </c>
+      <c r="B17" s="63" t="s">
+        <v>758</v>
+      </c>
+      <c r="C17" s="63" t="s">
+        <v>764</v>
+      </c>
+      <c r="D17" s="63" t="s">
+        <v>739</v>
+      </c>
+      <c r="E17" s="63" t="s">
+        <v>662</v>
+      </c>
+      <c r="F17" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="G17" s="63" t="s">
+        <v>766</v>
+      </c>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63" t="s">
+        <v>768</v>
+      </c>
+      <c r="J17" s="63" t="s">
+        <v>769</v>
+      </c>
+      <c r="K17" s="63"/>
+      <c r="L17" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N17" s="16" t="s">
         <v>771</v>
       </c>
-      <c r="D16" s="64" t="s">
-        <v>747</v>
-      </c>
-      <c r="E16" s="64" t="s">
-        <v>670</v>
-      </c>
-      <c r="F16" s="64" t="s">
-        <v>191</v>
-      </c>
-      <c r="G16" s="64" t="s">
-        <v>774</v>
-      </c>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64" t="s">
-        <v>775</v>
-      </c>
-      <c r="J16" s="64" t="s">
-        <v>777</v>
-      </c>
-      <c r="K16" s="64"/>
-      <c r="L16" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="M16" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="N16" s="16" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="63" t="s">
-        <v>762</v>
-      </c>
-      <c r="B17" s="64" t="s">
+    </row>
+    <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="62" t="s">
+        <v>756</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>760</v>
+      </c>
+      <c r="C18" s="63" t="s">
+        <v>765</v>
+      </c>
+      <c r="D18" s="63" t="s">
+        <v>739</v>
+      </c>
+      <c r="E18" s="63" t="s">
+        <v>662</v>
+      </c>
+      <c r="F18" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="G18" s="63" t="s">
         <v>766</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="H18" s="63"/>
+      <c r="I18" s="63" t="s">
+        <v>767</v>
+      </c>
+      <c r="J18" s="63" t="s">
+        <v>769</v>
+      </c>
+      <c r="K18" s="63"/>
+      <c r="L18" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M18" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N18" s="16" t="s">
         <v>772</v>
       </c>
-      <c r="D17" s="64" t="s">
-        <v>747</v>
-      </c>
-      <c r="E17" s="64" t="s">
-        <v>670</v>
-      </c>
-      <c r="F17" s="64" t="s">
-        <v>191</v>
-      </c>
-      <c r="G17" s="64" t="s">
-        <v>774</v>
-      </c>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64" t="s">
-        <v>776</v>
-      </c>
-      <c r="J17" s="64" t="s">
-        <v>777</v>
-      </c>
-      <c r="K17" s="64"/>
-      <c r="L17" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="M17" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="N17" s="16" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="63" t="s">
-        <v>764</v>
-      </c>
-      <c r="B18" s="64" t="s">
-        <v>768</v>
-      </c>
-      <c r="C18" s="64" t="s">
-        <v>773</v>
-      </c>
-      <c r="D18" s="64" t="s">
-        <v>747</v>
-      </c>
-      <c r="E18" s="64" t="s">
-        <v>670</v>
-      </c>
-      <c r="F18" s="64" t="s">
-        <v>191</v>
-      </c>
-      <c r="G18" s="64" t="s">
-        <v>774</v>
-      </c>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64" t="s">
-        <v>775</v>
-      </c>
-      <c r="J18" s="64" t="s">
-        <v>777</v>
-      </c>
-      <c r="K18" s="64"/>
-      <c r="L18" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="M18" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="N18" s="16" t="s">
-        <v>780</v>
-      </c>
     </row>
     <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="71" t="s">
-        <v>802</v>
-      </c>
-      <c r="B19" s="70" t="s">
-        <v>796</v>
-      </c>
-      <c r="C19" s="70" t="s">
-        <v>797</v>
-      </c>
-      <c r="D19" s="70" t="s">
-        <v>747</v>
-      </c>
-      <c r="E19" s="70" t="s">
-        <v>670</v>
-      </c>
-      <c r="F19" s="70" t="s">
-        <v>191</v>
-      </c>
-      <c r="G19" s="70" t="s">
-        <v>798</v>
-      </c>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70" t="s">
-        <v>799</v>
-      </c>
-      <c r="J19" s="70" t="s">
-        <v>800</v>
-      </c>
-      <c r="K19" s="70" t="s">
-        <v>800</v>
+      <c r="A19" s="70" t="s">
+        <v>794</v>
+      </c>
+      <c r="B19" s="69" t="s">
+        <v>788</v>
+      </c>
+      <c r="C19" s="69" t="s">
+        <v>789</v>
+      </c>
+      <c r="D19" s="69" t="s">
+        <v>739</v>
+      </c>
+      <c r="E19" s="69" t="s">
+        <v>662</v>
+      </c>
+      <c r="F19" s="69" t="s">
+        <v>190</v>
+      </c>
+      <c r="G19" s="69" t="s">
+        <v>790</v>
+      </c>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69" t="s">
+        <v>791</v>
+      </c>
+      <c r="J19" s="69" t="s">
+        <v>792</v>
+      </c>
+      <c r="K19" s="69" t="s">
+        <v>792</v>
       </c>
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
       <c r="N19" s="16" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H20" s="20"/>
       <c r="I20" s="20" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L20" s="15" t="s">
         <v>18</v>
       </c>
       <c r="M20" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N20" s="16" t="s">
         <v>90</v>
@@ -5554,35 +5565,35 @@
         <v>88</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H21" s="20"/>
       <c r="I21" s="20" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M21" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N21" s="16" t="s">
         <v>89</v>
@@ -5596,35 +5607,35 @@
         <v>81</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="H22" s="20"/>
       <c r="I22" s="20" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L22" s="15" t="s">
         <v>12</v>
       </c>
       <c r="M22" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N22" s="16" t="s">
         <v>82</v>
@@ -5638,35 +5649,35 @@
         <v>156</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="H23" s="23"/>
       <c r="I23" s="23" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N23" s="16" t="s">
         <v>157</v>
@@ -5674,44 +5685,44 @@
     </row>
     <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B24" s="22" t="s">
         <v>141</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="H24" s="23"/>
       <c r="I24" s="23" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L24" s="15" t="s">
         <v>28</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N24" s="16" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5722,35 +5733,35 @@
         <v>140</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="H25" s="20"/>
       <c r="I25" s="23" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L25" s="15" t="s">
         <v>27</v>
       </c>
       <c r="M25" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N25" s="16" t="s">
         <v>86</v>
@@ -5761,41 +5772,41 @@
         <v>39</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="H26" s="23"/>
       <c r="I26" s="23" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L26" s="15" t="s">
         <v>40</v>
       </c>
       <c r="M26" s="13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N26" s="16" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5803,41 +5814,41 @@
         <v>41</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="H27" s="23"/>
       <c r="I27" s="23" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L27" s="15" t="s">
         <v>42</v>
       </c>
       <c r="M27" s="13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N27" s="16" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5848,80 +5859,80 @@
         <v>91</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G28" s="26" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H28" s="26"/>
       <c r="I28" s="26" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L28" s="15" t="s">
         <v>20</v>
       </c>
       <c r="M28" s="13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N28" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G29" s="26" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H29" s="26"/>
       <c r="I29" s="26" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L29" s="15" t="s">
         <v>52</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N29" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5932,80 +5943,80 @@
         <v>68</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J30" s="31" t="s">
         <v>80</v>
       </c>
       <c r="K30" s="31" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="L30" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N30" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B31" s="33" t="s">
         <v>132</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J31" s="31" t="s">
         <v>80</v>
       </c>
       <c r="K31" s="31" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="L31" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N31" s="16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6013,38 +6024,38 @@
         <v>15</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J32" s="34" t="s">
         <v>80</v>
       </c>
       <c r="K32" s="34" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="L32" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N32" s="16" t="s">
         <v>86</v>
@@ -6052,125 +6063,125 @@
     </row>
     <row r="33" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B33" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>393</v>
-      </c>
       <c r="D33" s="7" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J33" s="31" t="s">
         <v>80</v>
       </c>
       <c r="K33" s="31" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="L33" s="15" t="s">
         <v>24</v>
       </c>
       <c r="M33" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N33" s="16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="32" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J34" s="31" t="s">
         <v>80</v>
       </c>
       <c r="K34" s="31" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="L34" s="15" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="M34" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N34" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B35" s="33" t="s">
         <v>97</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J35" s="31" t="s">
         <v>80</v>
       </c>
       <c r="K35" s="31" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="L35" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M35" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N35" s="16" t="s">
         <v>1</v>
@@ -6178,41 +6189,41 @@
     </row>
     <row r="36" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B36" s="33" t="s">
         <v>95</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J36" s="31" t="s">
         <v>80</v>
       </c>
       <c r="K36" s="31" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="L36" s="15">
         <v>16681</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N36" s="16" t="s">
         <v>119</v>
@@ -6220,41 +6231,41 @@
     </row>
     <row r="37" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B37" s="33" t="s">
         <v>96</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J37" s="31" t="s">
         <v>80</v>
       </c>
       <c r="K37" s="31" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="L37" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M37" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N37" s="16" t="s">
         <v>1</v>
@@ -6262,41 +6273,41 @@
     </row>
     <row r="38" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B38" s="33" t="s">
         <v>106</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J38" s="31" t="s">
         <v>80</v>
       </c>
       <c r="K38" s="31" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="L38" s="15" t="s">
         <v>1</v>
       </c>
       <c r="M38" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N38" s="16" t="s">
         <v>1</v>
@@ -6310,117 +6321,117 @@
         <v>66</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J39" s="34" t="s">
         <v>80</v>
       </c>
       <c r="K39" s="31" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="L39" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M39" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N39" s="16" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B40" s="33" t="s">
         <v>128</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J40" s="31" t="s">
         <v>80</v>
       </c>
       <c r="K40" s="31" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="L40" s="15" t="s">
         <v>1</v>
       </c>
       <c r="M40" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N40" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B41" s="33" t="s">
         <v>93</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J41" s="31" t="s">
         <v>80</v>
       </c>
       <c r="K41" s="31" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="L41" s="15"/>
       <c r="M41" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N41" s="16" t="s">
         <v>119</v>
@@ -6428,44 +6439,44 @@
     </row>
     <row r="42" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B42" s="33" t="s">
         <v>131</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J42" s="31" t="s">
         <v>80</v>
       </c>
       <c r="K42" s="31" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="L42" s="15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M42" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N42" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6476,77 +6487,77 @@
         <v>72</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J43" s="31" t="s">
         <v>80</v>
       </c>
       <c r="K43" s="31" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="L43" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M43" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N43" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B44" s="33" t="s">
         <v>92</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J44" s="31" t="s">
         <v>80</v>
       </c>
       <c r="K44" s="31" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="L44" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M44" s="13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N44" s="16" t="s">
         <v>119</v>
@@ -6554,44 +6565,44 @@
     </row>
     <row r="45" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B45" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>445</v>
-      </c>
       <c r="D45" s="7" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J45" s="31" t="s">
         <v>80</v>
       </c>
       <c r="K45" s="31" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="L45" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="M45" s="13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N45" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6602,35 +6613,35 @@
         <v>73</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F46" s="30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G46" s="30" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H46" s="30"/>
       <c r="I46" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J46" s="34" t="s">
         <v>80</v>
       </c>
       <c r="K46" s="34" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="L46" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M46" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N46" s="16" t="s">
         <v>74</v>
@@ -6638,41 +6649,41 @@
     </row>
     <row r="47" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B47" s="33" t="s">
         <v>142</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J47" s="31" t="s">
         <v>80</v>
       </c>
       <c r="K47" s="31" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="L47" s="15" t="s">
         <v>29</v>
       </c>
       <c r="M47" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N47" s="16" t="s">
         <v>1</v>
@@ -6686,35 +6697,35 @@
         <v>67</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H48" s="7"/>
       <c r="I48" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J48" s="34" t="s">
         <v>80</v>
       </c>
       <c r="K48" s="34" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="L48" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M48" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N48" s="16" t="s">
         <v>119</v>
@@ -6722,83 +6733,83 @@
     </row>
     <row r="49" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J49" s="31" t="s">
         <v>80</v>
       </c>
       <c r="K49" s="31" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="L49" s="15" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="M49" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N49" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="32" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J50" s="31" t="s">
         <v>80</v>
       </c>
       <c r="K50" s="31" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="L50" s="15" t="s">
         <v>1</v>
       </c>
       <c r="M50" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N50" s="16" t="s">
         <v>119</v>
@@ -6812,80 +6823,80 @@
         <v>85</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J51" s="34" t="s">
         <v>80</v>
       </c>
       <c r="K51" s="34" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="L51" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M51" s="13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N51" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B52" s="33" t="s">
         <v>139</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J52" s="31" t="s">
         <v>80</v>
       </c>
       <c r="K52" s="31" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="L52" s="15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M52" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N52" s="16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6896,35 +6907,35 @@
         <v>87</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J53" s="34" t="s">
         <v>80</v>
       </c>
       <c r="K53" s="34" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="L53" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M53" s="13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N53" s="16" t="s">
         <v>138</v>
@@ -6932,83 +6943,83 @@
     </row>
     <row r="54" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B54" s="33" t="s">
         <v>123</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J54" s="31" t="s">
         <v>80</v>
       </c>
       <c r="K54" s="34" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="L54" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M54" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N54" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="32" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B55" s="33" t="s">
         <v>98</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J55" s="31" t="s">
         <v>80</v>
       </c>
       <c r="K55" s="34" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="L55" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M55" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N55" s="16" t="s">
         <v>119</v>
@@ -7022,77 +7033,77 @@
         <v>71</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H56" s="7"/>
       <c r="I56" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J56" s="31" t="s">
         <v>80</v>
       </c>
       <c r="K56" s="34" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="L56" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M56" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N56" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B57" s="33" t="s">
         <v>129</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H57" s="7"/>
       <c r="I57" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J57" s="31" t="s">
         <v>80</v>
       </c>
       <c r="K57" s="31" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="L57" s="15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M57" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N57" s="16" t="s">
         <v>130</v>
@@ -7100,38 +7111,38 @@
     </row>
     <row r="58" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="32" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="B58" s="33" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="C58" s="33" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="D58" s="33" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E58" s="33" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F58" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G58" s="33" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H58" s="33"/>
       <c r="I58" s="33" t="s">
-        <v>403</v>
-      </c>
-      <c r="J58" s="59" t="s">
+        <v>402</v>
+      </c>
+      <c r="J58" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="K58" s="59" t="s">
-        <v>629</v>
-      </c>
-      <c r="L58" s="59" t="s">
-        <v>731</v>
+      <c r="K58" s="58" t="s">
+        <v>623</v>
+      </c>
+      <c r="L58" s="58" t="s">
+        <v>723</v>
       </c>
       <c r="M58" s="13" t="s">
         <v>1</v>
@@ -7142,253 +7153,253 @@
     </row>
     <row r="59" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="32" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="C59" s="33" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E59" s="33" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F59" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G59" s="33" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H59" s="33"/>
       <c r="I59" s="33" t="s">
-        <v>403</v>
-      </c>
-      <c r="J59" s="59" t="s">
+        <v>402</v>
+      </c>
+      <c r="J59" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="K59" s="59" t="s">
-        <v>629</v>
-      </c>
-      <c r="L59" s="59" t="s">
-        <v>732</v>
+      <c r="K59" s="58" t="s">
+        <v>623</v>
+      </c>
+      <c r="L59" s="58" t="s">
+        <v>724</v>
       </c>
       <c r="M59" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="N59" s="59" t="s">
-        <v>739</v>
+      <c r="N59" s="58" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="32" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="B60" s="33" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="C60" s="33" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="D60" s="33" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E60" s="33" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F60" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G60" s="33" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H60" s="33"/>
       <c r="I60" s="33" t="s">
-        <v>403</v>
-      </c>
-      <c r="J60" s="59" t="s">
+        <v>402</v>
+      </c>
+      <c r="J60" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="K60" s="59" t="s">
-        <v>629</v>
-      </c>
-      <c r="L60" s="59" t="s">
+      <c r="K60" s="58" t="s">
+        <v>623</v>
+      </c>
+      <c r="L60" s="58" t="s">
         <v>1</v>
       </c>
       <c r="M60" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="N60" s="59" t="s">
+      <c r="N60" s="58" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="32" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="B61" s="33" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="C61" s="33" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E61" s="33" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F61" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G61" s="33" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H61" s="33"/>
       <c r="I61" s="33" t="s">
-        <v>403</v>
-      </c>
-      <c r="J61" s="59" t="s">
+        <v>402</v>
+      </c>
+      <c r="J61" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="K61" s="59" t="s">
-        <v>629</v>
-      </c>
-      <c r="L61" s="59" t="s">
+      <c r="K61" s="58" t="s">
+        <v>623</v>
+      </c>
+      <c r="L61" s="58" t="s">
         <v>1</v>
       </c>
       <c r="M61" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="N61" s="59" t="s">
-        <v>740</v>
+      <c r="N61" s="58" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="B62" s="33" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="C62" s="33" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="D62" s="33" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E62" s="33" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F62" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G62" s="33" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H62" s="33"/>
       <c r="I62" s="33" t="s">
-        <v>403</v>
-      </c>
-      <c r="J62" s="59" t="s">
+        <v>402</v>
+      </c>
+      <c r="J62" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="K62" s="59" t="s">
-        <v>630</v>
-      </c>
-      <c r="L62" s="60">
+      <c r="K62" s="58" t="s">
+        <v>624</v>
+      </c>
+      <c r="L62" s="59">
         <v>25008</v>
       </c>
       <c r="M62" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="N62" s="59" t="s">
-        <v>741</v>
+      <c r="N62" s="58" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="32" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="C63" s="33" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E63" s="33" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F63" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G63" s="33" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H63" s="33"/>
       <c r="I63" s="33" t="s">
-        <v>403</v>
-      </c>
-      <c r="J63" s="59" t="s">
+        <v>402</v>
+      </c>
+      <c r="J63" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="K63" s="59" t="s">
-        <v>630</v>
-      </c>
-      <c r="L63" s="59" t="s">
-        <v>735</v>
+      <c r="K63" s="58" t="s">
+        <v>624</v>
+      </c>
+      <c r="L63" s="58" t="s">
+        <v>727</v>
       </c>
       <c r="M63" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="N63" s="59" t="s">
+      <c r="N63" s="58" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="32" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="B64" s="33" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="C64" s="33" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E64" s="33" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F64" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G64" s="33" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H64" s="33"/>
       <c r="I64" s="33" t="s">
-        <v>403</v>
-      </c>
-      <c r="J64" s="59" t="s">
+        <v>402</v>
+      </c>
+      <c r="J64" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="K64" s="59" t="s">
-        <v>629</v>
-      </c>
-      <c r="L64" s="59" t="s">
-        <v>738</v>
+      <c r="K64" s="58" t="s">
+        <v>623</v>
+      </c>
+      <c r="L64" s="58" t="s">
+        <v>730</v>
       </c>
       <c r="M64" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="N64" s="59" t="s">
+      <c r="N64" s="58" t="s">
         <v>1</v>
       </c>
     </row>
@@ -7400,35 +7411,35 @@
         <v>70</v>
       </c>
       <c r="C65" s="36" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D65" s="36" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E65" s="36" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F65" s="36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G65" s="36" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H65" s="36"/>
       <c r="I65" s="36" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J65" s="31" t="s">
         <v>80</v>
       </c>
       <c r="K65" s="31" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="L65" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M65" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N65" s="16" t="s">
         <v>119</v>
@@ -7439,41 +7450,41 @@
         <v>54</v>
       </c>
       <c r="B66" s="36" t="s">
+        <v>446</v>
+      </c>
+      <c r="C66" s="36" t="s">
         <v>447</v>
       </c>
-      <c r="C66" s="36" t="s">
-        <v>448</v>
-      </c>
       <c r="D66" s="36" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E66" s="36" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F66" s="36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G66" s="36" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H66" s="36"/>
       <c r="I66" s="36" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J66" s="31" t="s">
         <v>80</v>
       </c>
       <c r="K66" s="31" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="L66" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="M66" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N66" s="16" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7481,41 +7492,41 @@
         <v>53</v>
       </c>
       <c r="B67" s="36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C67" s="36" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D67" s="36" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E67" s="36" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F67" s="36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G67" s="36" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H67" s="36"/>
       <c r="I67" s="36" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J67" s="34" t="s">
         <v>80</v>
       </c>
       <c r="K67" s="31" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="L67" s="15" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="M67" s="13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N67" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7523,41 +7534,41 @@
         <v>57</v>
       </c>
       <c r="B68" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C68" s="36" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D68" s="36" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E68" s="36" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F68" s="36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G68" s="36" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H68" s="36"/>
       <c r="I68" s="36" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J68" s="31" t="s">
         <v>80</v>
       </c>
       <c r="K68" s="31" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="L68" s="15" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M68" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N68" s="16" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7565,83 +7576,83 @@
         <v>55</v>
       </c>
       <c r="B69" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C69" s="36" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D69" s="36" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E69" s="36" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F69" s="36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G69" s="36" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H69" s="36"/>
       <c r="I69" s="36" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J69" s="31" t="s">
         <v>80</v>
       </c>
       <c r="K69" s="31" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="L69" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M69" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N69" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B70" s="36" t="s">
         <v>127</v>
       </c>
       <c r="C70" s="36" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D70" s="36" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E70" s="36" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F70" s="36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G70" s="36" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H70" s="36"/>
       <c r="I70" s="36" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J70" s="31" t="s">
         <v>80</v>
       </c>
       <c r="K70" s="31" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="L70" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M70" s="13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N70" s="16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7649,290 +7660,290 @@
         <v>56</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C71" s="36" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D71" s="36" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E71" s="36" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F71" s="36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G71" s="36" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H71" s="36"/>
       <c r="I71" s="36" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J71" s="31" t="s">
         <v>80</v>
       </c>
       <c r="K71" s="31" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="L71" s="15" t="s">
         <v>1</v>
       </c>
       <c r="M71" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N71" s="16" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="35" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B72" s="36" t="s">
         <v>135</v>
       </c>
       <c r="C72" s="36" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D72" s="36" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E72" s="36" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F72" s="36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G72" s="36" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H72" s="36"/>
       <c r="I72" s="36" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J72" s="31" t="s">
         <v>80</v>
       </c>
       <c r="K72" s="31" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="L72" s="15" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M72" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N72" s="16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="35" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B73" s="36" t="s">
         <v>104</v>
       </c>
       <c r="C73" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D73" s="36" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E73" s="36" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F73" s="36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G73" s="36" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H73" s="36"/>
       <c r="I73" s="36" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J73" s="31" t="s">
         <v>80</v>
       </c>
       <c r="K73" s="31" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="L73" s="15" t="s">
         <v>1</v>
       </c>
       <c r="M73" s="13" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="N73" s="16" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="35" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="B74" s="36" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="C74" s="36" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="D74" s="36" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E74" s="36" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F74" s="36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G74" s="36" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H74" s="36"/>
       <c r="I74" s="36" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J74" s="31" t="s">
         <v>80</v>
       </c>
       <c r="K74" s="31" t="s">
-        <v>630</v>
-      </c>
-      <c r="L74" s="59" t="s">
-        <v>737</v>
+        <v>624</v>
+      </c>
+      <c r="L74" s="58" t="s">
+        <v>729</v>
       </c>
       <c r="M74" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="N74" s="59" t="s">
+      <c r="N74" s="58" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B75" s="38" t="s">
         <v>110</v>
       </c>
       <c r="C75" s="38" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D75" s="38" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E75" s="38" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F75" s="38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G75" s="38" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H75" s="38"/>
       <c r="I75" s="38" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J75" s="38" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="K75" s="38" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="L75" s="15" t="s">
         <v>1</v>
       </c>
       <c r="M75" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N75" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="37" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B76" s="38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C76" s="38" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D76" s="38" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E76" s="38" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F76" s="38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G76" s="38" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H76" s="38"/>
       <c r="I76" s="38" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J76" s="38" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="K76" s="38" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="L76" s="15" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M76" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N76" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="37" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B77" s="38" t="s">
         <v>108</v>
       </c>
       <c r="C77" s="38" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D77" s="38" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E77" s="38" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F77" s="38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G77" s="38" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H77" s="38"/>
       <c r="I77" s="38" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J77" s="38" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="K77" s="38" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="L77" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M77" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N77" s="16" t="s">
         <v>148</v>
@@ -7940,119 +7951,119 @@
     </row>
     <row r="78" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B78" s="38" t="s">
         <v>117</v>
       </c>
       <c r="C78" s="38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D78" s="38" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E78" s="38" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F78" s="38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G78" s="38" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H78" s="38"/>
       <c r="I78" s="38" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J78" s="38" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="K78" s="38" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="L78" s="15" t="s">
         <v>1</v>
       </c>
       <c r="M78" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N78" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="37" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B79" s="38" t="s">
         <v>109</v>
       </c>
       <c r="C79" s="38" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D79" s="38" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E79" s="38" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F79" s="38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G79" s="38" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H79" s="38"/>
       <c r="I79" s="38" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J79" s="38" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="K79" s="38" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="L79" s="15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M79" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N79" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="37" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="B80" s="38" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="C80" s="38" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="D80" s="38" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E80" s="38" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F80" s="38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G80" s="38" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H80" s="38"/>
       <c r="I80" s="38" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="J80" s="38" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="K80" s="38" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="L80" s="15" t="s">
         <v>1</v>
@@ -8066,109 +8077,109 @@
     </row>
     <row r="81" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="40" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B81" s="41" t="s">
         <v>126</v>
       </c>
       <c r="C81" s="41" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D81" s="41" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E81" s="41" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F81" s="41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G81" s="41" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H81" s="41"/>
       <c r="I81" s="41" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="J81" s="41" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="K81" s="41" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="L81" s="15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M81" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N81" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="40" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B82" s="41" t="s">
+        <v>429</v>
+      </c>
+      <c r="C82" s="41" t="s">
         <v>430</v>
       </c>
-      <c r="C82" s="41" t="s">
-        <v>431</v>
-      </c>
       <c r="D82" s="41" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E82" s="41" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F82" s="41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G82" s="41" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H82" s="41"/>
       <c r="I82" s="41" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="J82" s="41" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="K82" s="41" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="L82" s="15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M82" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N82" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B83" s="41" t="s">
         <v>120</v>
       </c>
       <c r="C83" s="41" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D83" s="41" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E83" s="41" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F83" s="41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G83" s="41" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H83" s="41"/>
       <c r="I83" s="41" t="s">
@@ -8178,58 +8189,58 @@
         <v>80</v>
       </c>
       <c r="K83" s="41" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="L83" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M83" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N83" s="16" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A84" s="73" t="s">
-        <v>817</v>
-      </c>
-      <c r="B84" s="72" t="s">
-        <v>816</v>
-      </c>
-      <c r="C84" s="72" t="s">
-        <v>438</v>
-      </c>
-      <c r="D84" s="72" t="s">
-        <v>747</v>
-      </c>
-      <c r="E84" s="72" t="s">
-        <v>670</v>
-      </c>
-      <c r="F84" s="72" t="s">
-        <v>191</v>
-      </c>
-      <c r="G84" s="72" t="s">
-        <v>814</v>
-      </c>
-      <c r="H84" s="72"/>
-      <c r="I84" s="72" t="s">
-        <v>815</v>
-      </c>
-      <c r="J84" s="72" t="s">
-        <v>626</v>
-      </c>
-      <c r="K84" s="72" t="s">
-        <v>626</v>
+      <c r="A84" s="72" t="s">
+        <v>809</v>
+      </c>
+      <c r="B84" s="71" t="s">
+        <v>808</v>
+      </c>
+      <c r="C84" s="71" t="s">
+        <v>437</v>
+      </c>
+      <c r="D84" s="71" t="s">
+        <v>739</v>
+      </c>
+      <c r="E84" s="71" t="s">
+        <v>662</v>
+      </c>
+      <c r="F84" s="71" t="s">
+        <v>190</v>
+      </c>
+      <c r="G84" s="71" t="s">
+        <v>806</v>
+      </c>
+      <c r="H84" s="71"/>
+      <c r="I84" s="71" t="s">
+        <v>807</v>
+      </c>
+      <c r="J84" s="71" t="s">
+        <v>620</v>
+      </c>
+      <c r="K84" s="71" t="s">
+        <v>620</v>
       </c>
       <c r="L84" s="16" t="s">
         <v>52</v>
       </c>
       <c r="M84" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N84" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -8237,38 +8248,38 @@
         <v>59</v>
       </c>
       <c r="B85" s="43" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C85" s="43" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D85" s="43" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E85" s="43" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F85" s="43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G85" s="43" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H85" s="43"/>
       <c r="I85" s="43" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J85" s="44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K85" s="44" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="L85" s="16" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M85" s="16" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N85" s="16" t="s">
         <v>153</v>
@@ -8279,80 +8290,80 @@
         <v>60</v>
       </c>
       <c r="B86" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="C86" s="43" t="s">
+        <v>462</v>
+      </c>
+      <c r="D86" s="43" t="s">
+        <v>739</v>
+      </c>
+      <c r="E86" s="43" t="s">
+        <v>662</v>
+      </c>
+      <c r="F86" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="C86" s="43" t="s">
-        <v>463</v>
-      </c>
-      <c r="D86" s="43" t="s">
-        <v>747</v>
-      </c>
-      <c r="E86" s="43" t="s">
-        <v>670</v>
-      </c>
-      <c r="F86" s="43" t="s">
-        <v>191</v>
-      </c>
       <c r="G86" s="43" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H86" s="43"/>
       <c r="I86" s="43" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J86" s="44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K86" s="44" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="L86" s="15" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M86" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N86" s="16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A87" s="42" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B87" s="43" t="s">
         <v>154</v>
       </c>
       <c r="C87" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D87" s="43" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E87" s="43" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F87" s="43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G87" s="43" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H87" s="43"/>
       <c r="I87" s="43" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J87" s="44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K87" s="44" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="L87" s="15" t="s">
         <v>1</v>
       </c>
       <c r="M87" s="13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N87" s="16" t="s">
         <v>155</v>
@@ -8360,41 +8371,41 @@
     </row>
     <row r="88" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A88" s="42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B88" s="43" t="s">
         <v>77</v>
       </c>
       <c r="C88" s="43" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D88" s="43" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E88" s="43" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F88" s="43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G88" s="43" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H88" s="43"/>
       <c r="I88" s="43" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="J88" s="44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K88" s="44" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="L88" s="15" t="s">
         <v>1</v>
       </c>
       <c r="M88" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N88" s="16" t="s">
         <v>78</v>
@@ -8402,86 +8413,86 @@
     </row>
     <row r="89" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="42" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B89" s="43" t="s">
         <v>114</v>
       </c>
       <c r="C89" s="43" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D89" s="43" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E89" s="43" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F89" s="43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G89" s="43" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H89" s="43"/>
       <c r="I89" s="43" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J89" s="44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K89" s="44" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="L89" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M89" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N89" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B90" s="43" t="s">
         <v>102</v>
       </c>
       <c r="C90" s="43" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D90" s="43" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E90" s="43" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F90" s="43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G90" s="43" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H90" s="43"/>
       <c r="I90" s="43" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J90" s="44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K90" s="44" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="L90" s="15" t="s">
         <v>1</v>
       </c>
       <c r="M90" s="13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N90" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8489,80 +8500,80 @@
         <v>58</v>
       </c>
       <c r="B91" s="43" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C91" s="43" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D91" s="43" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E91" s="43" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F91" s="43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G91" s="43" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H91" s="43"/>
       <c r="I91" s="43" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="J91" s="44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K91" s="44" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="L91" s="15" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M91" s="13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N91" s="16" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B92" s="43" t="s">
         <v>121</v>
       </c>
       <c r="C92" s="43" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D92" s="43" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E92" s="43" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F92" s="43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G92" s="43" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H92" s="43"/>
       <c r="I92" s="43" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J92" s="44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K92" s="44" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="L92" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M92" s="13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N92" s="16" t="s">
         <v>119</v>
@@ -8570,41 +8581,41 @@
     </row>
     <row r="93" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A93" s="42" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B93" s="43" t="s">
         <v>113</v>
       </c>
       <c r="C93" s="43" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D93" s="43" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E93" s="43" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F93" s="43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G93" s="43" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H93" s="43"/>
       <c r="I93" s="43" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J93" s="44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K93" s="44" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="L93" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="M93" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N93" s="16" t="s">
         <v>119</v>
@@ -8612,44 +8623,44 @@
     </row>
     <row r="94" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A94" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B94" s="43" t="s">
         <v>69</v>
       </c>
       <c r="C94" s="43" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D94" s="43" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E94" s="43" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F94" s="43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G94" s="43" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H94" s="43"/>
       <c r="I94" s="43" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="J94" s="44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K94" s="44" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="L94" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M94" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N94" s="45" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -8657,122 +8668,122 @@
         <v>61</v>
       </c>
       <c r="B95" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C95" s="43" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D95" s="43" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E95" s="43" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F95" s="43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G95" s="43" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H95" s="43"/>
       <c r="I95" s="43" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="J95" s="44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K95" s="44" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="L95" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="M95" s="13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N95" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A96" s="42" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B96" s="43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C96" s="43" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D96" s="43" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E96" s="43" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F96" s="43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G96" s="43" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H96" s="43"/>
       <c r="I96" s="43" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J96" s="44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K96" s="44" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="L96" s="15" t="s">
         <v>48</v>
       </c>
       <c r="M96" s="13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N96" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A97" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B97" s="43" t="s">
         <v>100</v>
       </c>
       <c r="C97" s="43" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D97" s="43" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E97" s="43" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F97" s="43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G97" s="43" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H97" s="43"/>
       <c r="I97" s="43" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J97" s="44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K97" s="44" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="L97" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M97" s="13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N97" s="16" t="s">
         <v>1</v>
@@ -8783,38 +8794,38 @@
         <v>4</v>
       </c>
       <c r="B98" s="43" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C98" s="43" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D98" s="43" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E98" s="43" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F98" s="43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G98" s="43" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H98" s="43"/>
       <c r="I98" s="43" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J98" s="46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K98" s="44" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="L98" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M98" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N98" s="16" t="s">
         <v>1</v>
@@ -8822,77 +8833,77 @@
     </row>
     <row r="99" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A99" s="42" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B99" s="43" t="s">
         <v>152</v>
       </c>
       <c r="C99" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D99" s="43" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E99" s="43" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F99" s="43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G99" s="43" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H99" s="43"/>
       <c r="I99" s="43" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J99" s="44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K99" s="44" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="L99" s="15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="M99" s="13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N99" s="16" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="100" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A100" s="55" t="s">
-        <v>218</v>
-      </c>
-      <c r="B100" s="56" t="s">
+      <c r="A100" s="54" t="s">
+        <v>217</v>
+      </c>
+      <c r="B100" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="C100" s="57" t="s">
-        <v>335</v>
-      </c>
-      <c r="D100" s="57" t="s">
-        <v>747</v>
-      </c>
-      <c r="E100" s="57" t="s">
-        <v>670</v>
-      </c>
-      <c r="F100" s="57" t="s">
-        <v>325</v>
-      </c>
-      <c r="G100" s="57" t="s">
-        <v>545</v>
-      </c>
-      <c r="H100" s="57"/>
-      <c r="I100" s="57" t="s">
-        <v>522</v>
+      <c r="C100" s="56" t="s">
+        <v>334</v>
+      </c>
+      <c r="D100" s="56" t="s">
+        <v>739</v>
+      </c>
+      <c r="E100" s="56" t="s">
+        <v>662</v>
+      </c>
+      <c r="F100" s="56" t="s">
+        <v>324</v>
+      </c>
+      <c r="G100" s="56" t="s">
+        <v>544</v>
+      </c>
+      <c r="H100" s="56"/>
+      <c r="I100" s="56" t="s">
+        <v>521</v>
       </c>
       <c r="J100" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K100" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L100" s="15" t="s">
         <v>1</v>
@@ -8905,414 +8916,414 @@
       </c>
     </row>
     <row r="101" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A101" s="55" t="s">
-        <v>225</v>
-      </c>
-      <c r="B101" s="56" t="s">
+      <c r="A101" s="54" t="s">
+        <v>224</v>
+      </c>
+      <c r="B101" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="C101" s="57" t="s">
+      <c r="C101" s="56" t="s">
+        <v>348</v>
+      </c>
+      <c r="D101" s="56" t="s">
+        <v>739</v>
+      </c>
+      <c r="E101" s="56" t="s">
+        <v>662</v>
+      </c>
+      <c r="F101" s="56" t="s">
+        <v>324</v>
+      </c>
+      <c r="G101" s="56" t="s">
+        <v>545</v>
+      </c>
+      <c r="H101" s="56"/>
+      <c r="I101" s="56" t="s">
+        <v>521</v>
+      </c>
+      <c r="J101" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="K101" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="L101" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="D101" s="57" t="s">
-        <v>747</v>
-      </c>
-      <c r="E101" s="57" t="s">
-        <v>670</v>
-      </c>
-      <c r="F101" s="57" t="s">
-        <v>325</v>
-      </c>
-      <c r="G101" s="57" t="s">
-        <v>546</v>
-      </c>
-      <c r="H101" s="57"/>
-      <c r="I101" s="57" t="s">
-        <v>522</v>
-      </c>
-      <c r="J101" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="K101" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="L101" s="15" t="s">
-        <v>350</v>
-      </c>
       <c r="M101" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N101" s="16" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A102" s="55" t="s">
-        <v>227</v>
-      </c>
-      <c r="B102" s="56" t="s">
+      <c r="A102" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="B102" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="C102" s="57" t="s">
+      <c r="C102" s="56" t="s">
+        <v>350</v>
+      </c>
+      <c r="D102" s="56" t="s">
+        <v>739</v>
+      </c>
+      <c r="E102" s="56" t="s">
+        <v>662</v>
+      </c>
+      <c r="F102" s="56" t="s">
+        <v>324</v>
+      </c>
+      <c r="G102" s="56" t="s">
+        <v>547</v>
+      </c>
+      <c r="H102" s="56"/>
+      <c r="I102" s="56" t="s">
+        <v>526</v>
+      </c>
+      <c r="J102" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="K102" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="L102" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="D102" s="57" t="s">
-        <v>747</v>
-      </c>
-      <c r="E102" s="57" t="s">
-        <v>670</v>
-      </c>
-      <c r="F102" s="57" t="s">
-        <v>325</v>
-      </c>
-      <c r="G102" s="57" t="s">
-        <v>548</v>
-      </c>
-      <c r="H102" s="57"/>
-      <c r="I102" s="57" t="s">
-        <v>527</v>
-      </c>
-      <c r="J102" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="K102" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="L102" s="15" t="s">
-        <v>352</v>
-      </c>
       <c r="M102" s="13" t="s">
         <v>1</v>
       </c>
       <c r="N102" s="16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A103" s="55" t="s">
-        <v>232</v>
-      </c>
-      <c r="B103" s="56" t="s">
+      <c r="A103" s="54" t="s">
+        <v>231</v>
+      </c>
+      <c r="B103" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="C103" s="57" t="s">
-        <v>594</v>
-      </c>
-      <c r="D103" s="57" t="s">
-        <v>747</v>
-      </c>
-      <c r="E103" s="57" t="s">
-        <v>670</v>
-      </c>
-      <c r="F103" s="57" t="s">
-        <v>325</v>
-      </c>
-      <c r="G103" s="57" t="s">
-        <v>544</v>
-      </c>
-      <c r="H103" s="57"/>
-      <c r="I103" s="57" t="s">
-        <v>521</v>
+      <c r="C103" s="56" t="s">
+        <v>592</v>
+      </c>
+      <c r="D103" s="56" t="s">
+        <v>739</v>
+      </c>
+      <c r="E103" s="56" t="s">
+        <v>662</v>
+      </c>
+      <c r="F103" s="56" t="s">
+        <v>324</v>
+      </c>
+      <c r="G103" s="56" t="s">
+        <v>543</v>
+      </c>
+      <c r="H103" s="56"/>
+      <c r="I103" s="56" t="s">
+        <v>520</v>
       </c>
       <c r="J103" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K103" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L103" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M103" s="13" t="s">
         <v>1</v>
       </c>
       <c r="N103" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A104" s="55" t="s">
-        <v>286</v>
-      </c>
-      <c r="B104" s="56" t="s">
+      <c r="A104" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="B104" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="C104" s="57" t="s">
-        <v>422</v>
-      </c>
-      <c r="D104" s="57" t="s">
-        <v>747</v>
-      </c>
-      <c r="E104" s="57" t="s">
-        <v>670</v>
-      </c>
-      <c r="F104" s="57" t="s">
-        <v>325</v>
-      </c>
-      <c r="G104" s="57" t="s">
-        <v>552</v>
-      </c>
-      <c r="H104" s="57"/>
-      <c r="I104" s="57" t="s">
-        <v>529</v>
+      <c r="C104" s="56" t="s">
+        <v>421</v>
+      </c>
+      <c r="D104" s="56" t="s">
+        <v>739</v>
+      </c>
+      <c r="E104" s="56" t="s">
+        <v>662</v>
+      </c>
+      <c r="F104" s="56" t="s">
+        <v>324</v>
+      </c>
+      <c r="G104" s="56" t="s">
+        <v>551</v>
+      </c>
+      <c r="H104" s="56"/>
+      <c r="I104" s="56" t="s">
+        <v>528</v>
       </c>
       <c r="J104" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K104" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L104" s="15" t="s">
         <v>1</v>
       </c>
       <c r="M104" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N104" s="16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A105" s="55" t="s">
-        <v>258</v>
-      </c>
-      <c r="B105" s="56" t="s">
+      <c r="A105" s="54" t="s">
+        <v>257</v>
+      </c>
+      <c r="B105" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="C105" s="57" t="s">
-        <v>595</v>
-      </c>
-      <c r="D105" s="57" t="s">
-        <v>747</v>
-      </c>
-      <c r="E105" s="57" t="s">
-        <v>670</v>
-      </c>
-      <c r="F105" s="57" t="s">
-        <v>325</v>
-      </c>
-      <c r="G105" s="57" t="s">
-        <v>551</v>
-      </c>
-      <c r="H105" s="57"/>
-      <c r="I105" s="57" t="s">
-        <v>527</v>
+      <c r="C105" s="56" t="s">
+        <v>593</v>
+      </c>
+      <c r="D105" s="56" t="s">
+        <v>739</v>
+      </c>
+      <c r="E105" s="56" t="s">
+        <v>662</v>
+      </c>
+      <c r="F105" s="56" t="s">
+        <v>324</v>
+      </c>
+      <c r="G105" s="56" t="s">
+        <v>550</v>
+      </c>
+      <c r="H105" s="56"/>
+      <c r="I105" s="56" t="s">
+        <v>526</v>
       </c>
       <c r="J105" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K105" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L105" s="15" t="s">
         <v>34</v>
       </c>
       <c r="M105" s="13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N105" s="16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="B106" s="56" t="s">
-        <v>198</v>
-      </c>
-      <c r="C106" s="57" t="s">
-        <v>598</v>
-      </c>
-      <c r="D106" s="57" t="s">
-        <v>747</v>
-      </c>
-      <c r="E106" s="57" t="s">
-        <v>670</v>
-      </c>
-      <c r="F106" s="57" t="s">
-        <v>325</v>
-      </c>
-      <c r="G106" s="57" t="s">
-        <v>549</v>
-      </c>
-      <c r="H106" s="57"/>
-      <c r="I106" s="57" t="s">
-        <v>528</v>
+      <c r="A106" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="B106" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="C106" s="56" t="s">
+        <v>596</v>
+      </c>
+      <c r="D106" s="56" t="s">
+        <v>739</v>
+      </c>
+      <c r="E106" s="56" t="s">
+        <v>662</v>
+      </c>
+      <c r="F106" s="56" t="s">
+        <v>324</v>
+      </c>
+      <c r="G106" s="56" t="s">
+        <v>548</v>
+      </c>
+      <c r="H106" s="56"/>
+      <c r="I106" s="56" t="s">
+        <v>527</v>
       </c>
       <c r="J106" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K106" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L106" s="15" t="s">
         <v>21</v>
       </c>
       <c r="M106" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N106" s="16" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="55" t="s">
-        <v>250</v>
-      </c>
-      <c r="B107" s="56" t="s">
-        <v>201</v>
-      </c>
-      <c r="C107" s="57" t="s">
-        <v>409</v>
-      </c>
-      <c r="D107" s="57" t="s">
-        <v>747</v>
-      </c>
-      <c r="E107" s="57" t="s">
-        <v>670</v>
-      </c>
-      <c r="F107" s="57" t="s">
-        <v>325</v>
-      </c>
-      <c r="G107" s="57" t="s">
-        <v>547</v>
-      </c>
-      <c r="H107" s="57"/>
-      <c r="I107" s="57" t="s">
-        <v>522</v>
+      <c r="A107" s="54" t="s">
+        <v>249</v>
+      </c>
+      <c r="B107" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="C107" s="56" t="s">
+        <v>408</v>
+      </c>
+      <c r="D107" s="56" t="s">
+        <v>739</v>
+      </c>
+      <c r="E107" s="56" t="s">
+        <v>662</v>
+      </c>
+      <c r="F107" s="56" t="s">
+        <v>324</v>
+      </c>
+      <c r="G107" s="56" t="s">
+        <v>546</v>
+      </c>
+      <c r="H107" s="56"/>
+      <c r="I107" s="56" t="s">
+        <v>521</v>
       </c>
       <c r="J107" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K107" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L107" s="15" t="s">
         <v>1</v>
       </c>
       <c r="M107" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N107" s="16" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A108" s="55" t="s">
-        <v>253</v>
-      </c>
-      <c r="B108" s="56" t="s">
+      <c r="A108" s="54" t="s">
+        <v>252</v>
+      </c>
+      <c r="B108" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="C108" s="57" t="s">
-        <v>596</v>
-      </c>
-      <c r="D108" s="57" t="s">
-        <v>747</v>
-      </c>
-      <c r="E108" s="57" t="s">
-        <v>670</v>
-      </c>
-      <c r="F108" s="57" t="s">
-        <v>325</v>
-      </c>
-      <c r="G108" s="57" t="s">
-        <v>550</v>
-      </c>
-      <c r="H108" s="57"/>
-      <c r="I108" s="57" t="s">
-        <v>521</v>
+      <c r="C108" s="56" t="s">
+        <v>594</v>
+      </c>
+      <c r="D108" s="56" t="s">
+        <v>739</v>
+      </c>
+      <c r="E108" s="56" t="s">
+        <v>662</v>
+      </c>
+      <c r="F108" s="56" t="s">
+        <v>324</v>
+      </c>
+      <c r="G108" s="56" t="s">
+        <v>549</v>
+      </c>
+      <c r="H108" s="56"/>
+      <c r="I108" s="56" t="s">
+        <v>520</v>
       </c>
       <c r="J108" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K108" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L108" s="15" t="s">
         <v>1</v>
       </c>
       <c r="M108" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N108" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A109" s="55" t="s">
-        <v>265</v>
-      </c>
-      <c r="B109" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="C109" s="57" t="s">
-        <v>597</v>
-      </c>
-      <c r="D109" s="57" t="s">
-        <v>747</v>
-      </c>
-      <c r="E109" s="57" t="s">
-        <v>670</v>
-      </c>
-      <c r="F109" s="57" t="s">
-        <v>325</v>
-      </c>
-      <c r="G109" s="57" t="s">
-        <v>654</v>
-      </c>
-      <c r="H109" s="57"/>
-      <c r="I109" s="57" t="s">
-        <v>524</v>
+      <c r="A109" s="54" t="s">
+        <v>264</v>
+      </c>
+      <c r="B109" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="C109" s="56" t="s">
+        <v>595</v>
+      </c>
+      <c r="D109" s="56" t="s">
+        <v>739</v>
+      </c>
+      <c r="E109" s="56" t="s">
+        <v>662</v>
+      </c>
+      <c r="F109" s="56" t="s">
+        <v>324</v>
+      </c>
+      <c r="G109" s="56" t="s">
+        <v>646</v>
+      </c>
+      <c r="H109" s="56"/>
+      <c r="I109" s="56" t="s">
+        <v>523</v>
       </c>
       <c r="J109" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K109" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L109" s="15" t="s">
         <v>45</v>
       </c>
       <c r="M109" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N109" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A110" s="55" t="s">
-        <v>655</v>
-      </c>
-      <c r="B110" s="57" t="s">
-        <v>656</v>
-      </c>
-      <c r="C110" s="57" t="s">
-        <v>657</v>
-      </c>
-      <c r="D110" s="57" t="s">
-        <v>747</v>
-      </c>
-      <c r="E110" s="57" t="s">
-        <v>670</v>
-      </c>
-      <c r="F110" s="57" t="s">
-        <v>325</v>
-      </c>
-      <c r="G110" s="57" t="s">
-        <v>658</v>
-      </c>
-      <c r="H110" s="57"/>
-      <c r="I110" s="57" t="s">
-        <v>527</v>
+      <c r="A110" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="B110" s="56" t="s">
+        <v>648</v>
+      </c>
+      <c r="C110" s="56" t="s">
+        <v>649</v>
+      </c>
+      <c r="D110" s="56" t="s">
+        <v>739</v>
+      </c>
+      <c r="E110" s="56" t="s">
+        <v>662</v>
+      </c>
+      <c r="F110" s="56" t="s">
+        <v>324</v>
+      </c>
+      <c r="G110" s="56" t="s">
+        <v>650</v>
+      </c>
+      <c r="H110" s="56"/>
+      <c r="I110" s="56" t="s">
+        <v>526</v>
       </c>
       <c r="J110" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K110" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L110" s="15" t="s">
         <v>1</v>
@@ -9325,587 +9336,587 @@
       </c>
     </row>
     <row r="111" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A111" s="55" t="s">
-        <v>667</v>
-      </c>
-      <c r="B111" s="57" t="s">
-        <v>634</v>
-      </c>
-      <c r="C111" s="57" t="s">
+      <c r="A111" s="54" t="s">
         <v>659</v>
       </c>
-      <c r="D111" s="57" t="s">
-        <v>747</v>
-      </c>
-      <c r="E111" s="57" t="s">
-        <v>670</v>
-      </c>
-      <c r="F111" s="57" t="s">
-        <v>325</v>
-      </c>
-      <c r="G111" s="57"/>
-      <c r="H111" s="57"/>
-      <c r="I111" s="57" t="s">
+      <c r="B111" s="56" t="s">
+        <v>628</v>
+      </c>
+      <c r="C111" s="56" t="s">
+        <v>651</v>
+      </c>
+      <c r="D111" s="56" t="s">
+        <v>739</v>
+      </c>
+      <c r="E111" s="56" t="s">
+        <v>662</v>
+      </c>
+      <c r="F111" s="56" t="s">
+        <v>324</v>
+      </c>
+      <c r="G111" s="56"/>
+      <c r="H111" s="56"/>
+      <c r="I111" s="56" t="s">
+        <v>620</v>
+      </c>
+      <c r="J111" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="K111" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="L111" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M111" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="N111" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A112" s="54" t="s">
+        <v>553</v>
+      </c>
+      <c r="B112" s="55" t="s">
+        <v>556</v>
+      </c>
+      <c r="C112" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="D112" s="65" t="s">
+        <v>739</v>
+      </c>
+      <c r="E112" s="65" t="s">
+        <v>662</v>
+      </c>
+      <c r="F112" s="65" t="s">
+        <v>482</v>
+      </c>
+      <c r="G112" s="65" t="s">
+        <v>784</v>
+      </c>
+      <c r="H112" s="64"/>
+      <c r="I112" s="64" t="s">
+        <v>561</v>
+      </c>
+      <c r="J112" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="K112" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="L112" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M112" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N112" s="16" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A113" s="54" t="s">
+        <v>481</v>
+      </c>
+      <c r="B113" s="55" t="s">
+        <v>488</v>
+      </c>
+      <c r="C113" s="64" t="s">
+        <v>485</v>
+      </c>
+      <c r="D113" s="64" t="s">
+        <v>739</v>
+      </c>
+      <c r="E113" s="65" t="s">
+        <v>662</v>
+      </c>
+      <c r="F113" s="65" t="s">
+        <v>482</v>
+      </c>
+      <c r="G113" s="65" t="s">
+        <v>784</v>
+      </c>
+      <c r="H113" s="64"/>
+      <c r="I113" s="64" t="s">
+        <v>540</v>
+      </c>
+      <c r="J113" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="K113" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="L113" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M113" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N113" s="53" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A114" s="54" t="s">
+        <v>486</v>
+      </c>
+      <c r="B114" s="55" t="s">
+        <v>483</v>
+      </c>
+      <c r="C114" s="64" t="s">
+        <v>484</v>
+      </c>
+      <c r="D114" s="64" t="s">
+        <v>739</v>
+      </c>
+      <c r="E114" s="65" t="s">
+        <v>662</v>
+      </c>
+      <c r="F114" s="65" t="s">
+        <v>482</v>
+      </c>
+      <c r="G114" s="65" t="s">
+        <v>784</v>
+      </c>
+      <c r="H114" s="64"/>
+      <c r="I114" s="64" t="s">
+        <v>538</v>
+      </c>
+      <c r="J114" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="K114" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="L114" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M114" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N114" s="53" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A115" s="54" t="s">
+        <v>625</v>
+      </c>
+      <c r="B115" s="55" t="s">
         <v>626</v>
       </c>
-      <c r="J111" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="K111" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="L111" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="M111" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="N111" s="16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A112" s="55" t="s">
-        <v>554</v>
-      </c>
-      <c r="B112" s="56" t="s">
-        <v>557</v>
-      </c>
-      <c r="C112" s="66" t="s">
+      <c r="C115" s="64" t="s">
+        <v>799</v>
+      </c>
+      <c r="D115" s="64" t="s">
+        <v>739</v>
+      </c>
+      <c r="E115" s="65" t="s">
+        <v>662</v>
+      </c>
+      <c r="F115" s="65" t="s">
+        <v>482</v>
+      </c>
+      <c r="G115" s="65" t="s">
+        <v>784</v>
+      </c>
+      <c r="H115" s="64"/>
+      <c r="I115" s="64" t="s">
+        <v>627</v>
+      </c>
+      <c r="J115" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="K115" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="L115" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M115" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N115" s="53"/>
+    </row>
+    <row r="116" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A116" s="54" t="s">
+        <v>774</v>
+      </c>
+      <c r="B116" s="55" t="s">
+        <v>775</v>
+      </c>
+      <c r="C116" s="64" t="s">
+        <v>800</v>
+      </c>
+      <c r="D116" s="64" t="s">
+        <v>739</v>
+      </c>
+      <c r="E116" s="65" t="s">
+        <v>662</v>
+      </c>
+      <c r="F116" s="65" t="s">
+        <v>482</v>
+      </c>
+      <c r="G116" s="65" t="s">
+        <v>784</v>
+      </c>
+      <c r="H116" s="64"/>
+      <c r="I116" s="64"/>
+      <c r="J116" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="K116" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A117" s="54" t="s">
+        <v>776</v>
+      </c>
+      <c r="B117" s="55" t="s">
+        <v>777</v>
+      </c>
+      <c r="C117" s="64" t="s">
+        <v>798</v>
+      </c>
+      <c r="D117" s="64" t="s">
+        <v>739</v>
+      </c>
+      <c r="E117" s="65" t="s">
+        <v>662</v>
+      </c>
+      <c r="F117" s="65" t="s">
+        <v>482</v>
+      </c>
+      <c r="G117" s="65" t="s">
+        <v>784</v>
+      </c>
+      <c r="H117" s="64"/>
+      <c r="I117" s="64"/>
+      <c r="J117" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="K117" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A118" s="54" t="s">
+        <v>780</v>
+      </c>
+      <c r="B118" s="55" t="s">
+        <v>781</v>
+      </c>
+      <c r="C118" s="64" t="s">
+        <v>801</v>
+      </c>
+      <c r="D118" s="64" t="s">
+        <v>739</v>
+      </c>
+      <c r="E118" s="65" t="s">
+        <v>662</v>
+      </c>
+      <c r="F118" s="65" t="s">
+        <v>482</v>
+      </c>
+      <c r="G118" s="65" t="s">
+        <v>784</v>
+      </c>
+      <c r="H118" s="64"/>
+      <c r="I118" s="64"/>
+      <c r="J118" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="K118" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A119" s="54" t="s">
+        <v>782</v>
+      </c>
+      <c r="B119" s="55" t="s">
+        <v>783</v>
+      </c>
+      <c r="C119" s="64" t="s">
+        <v>802</v>
+      </c>
+      <c r="D119" s="64" t="s">
+        <v>739</v>
+      </c>
+      <c r="E119" s="65" t="s">
+        <v>662</v>
+      </c>
+      <c r="F119" s="65" t="s">
+        <v>482</v>
+      </c>
+      <c r="G119" s="65" t="s">
+        <v>784</v>
+      </c>
+      <c r="H119" s="64"/>
+      <c r="I119" s="64"/>
+      <c r="J119" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="K119" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="N119" s="53" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A120" s="54" t="s">
         <v>609</v>
       </c>
-      <c r="D112" s="66" t="s">
-        <v>747</v>
-      </c>
-      <c r="E112" s="66" t="s">
-        <v>670</v>
-      </c>
-      <c r="F112" s="66" t="s">
-        <v>483</v>
-      </c>
-      <c r="G112" s="66" t="s">
-        <v>792</v>
-      </c>
-      <c r="H112" s="65"/>
-      <c r="I112" s="65" t="s">
-        <v>562</v>
-      </c>
-      <c r="J112" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="K112" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="L112" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="M112" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="N112" s="16" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A113" s="55" t="s">
+      <c r="B120" s="55" t="s">
+        <v>487</v>
+      </c>
+      <c r="C120" s="51" t="s">
+        <v>604</v>
+      </c>
+      <c r="D120" s="51" t="s">
+        <v>739</v>
+      </c>
+      <c r="E120" s="52" t="s">
+        <v>662</v>
+      </c>
+      <c r="F120" s="52" t="s">
         <v>482</v>
       </c>
-      <c r="B113" s="56" t="s">
+      <c r="G120" s="52" t="s">
+        <v>785</v>
+      </c>
+      <c r="H120" s="51"/>
+      <c r="I120" s="51" t="s">
+        <v>529</v>
+      </c>
+      <c r="J120" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="K120" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="L120" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M120" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N120" s="53" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A121" s="54" t="s">
+        <v>610</v>
+      </c>
+      <c r="B121" s="55" t="s">
         <v>489</v>
       </c>
-      <c r="C113" s="65" t="s">
-        <v>486</v>
-      </c>
-      <c r="D113" s="65" t="s">
-        <v>747</v>
-      </c>
-      <c r="E113" s="66" t="s">
-        <v>670</v>
-      </c>
-      <c r="F113" s="66" t="s">
-        <v>483</v>
-      </c>
-      <c r="G113" s="66" t="s">
-        <v>792</v>
-      </c>
-      <c r="H113" s="65"/>
-      <c r="I113" s="65" t="s">
-        <v>541</v>
-      </c>
-      <c r="J113" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="K113" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="L113" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="M113" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="N113" s="54" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A114" s="55" t="s">
-        <v>487</v>
-      </c>
-      <c r="B114" s="56" t="s">
-        <v>484</v>
-      </c>
-      <c r="C114" s="65" t="s">
-        <v>485</v>
-      </c>
-      <c r="D114" s="65" t="s">
-        <v>747</v>
-      </c>
-      <c r="E114" s="66" t="s">
-        <v>670</v>
-      </c>
-      <c r="F114" s="66" t="s">
-        <v>483</v>
-      </c>
-      <c r="G114" s="66" t="s">
-        <v>792</v>
-      </c>
-      <c r="H114" s="65"/>
-      <c r="I114" s="65" t="s">
-        <v>539</v>
-      </c>
-      <c r="J114" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="K114" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="L114" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="M114" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="N114" s="54" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A115" s="55" t="s">
-        <v>631</v>
-      </c>
-      <c r="B115" s="56" t="s">
-        <v>632</v>
-      </c>
-      <c r="C115" s="65" t="s">
-        <v>807</v>
-      </c>
-      <c r="D115" s="65" t="s">
-        <v>747</v>
-      </c>
-      <c r="E115" s="66" t="s">
-        <v>670</v>
-      </c>
-      <c r="F115" s="66" t="s">
-        <v>483</v>
-      </c>
-      <c r="G115" s="66" t="s">
-        <v>792</v>
-      </c>
-      <c r="H115" s="65"/>
-      <c r="I115" s="65" t="s">
-        <v>633</v>
-      </c>
-      <c r="J115" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="K115" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="L115" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="M115" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="N115" s="54"/>
-    </row>
-    <row r="116" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A116" s="55" t="s">
-        <v>782</v>
-      </c>
-      <c r="B116" s="56" t="s">
-        <v>783</v>
-      </c>
-      <c r="C116" s="65" t="s">
-        <v>808</v>
-      </c>
-      <c r="D116" s="65" t="s">
-        <v>747</v>
-      </c>
-      <c r="E116" s="66" t="s">
-        <v>670</v>
-      </c>
-      <c r="F116" s="66" t="s">
-        <v>483</v>
-      </c>
-      <c r="G116" s="66" t="s">
-        <v>792</v>
-      </c>
-      <c r="H116" s="65"/>
-      <c r="I116" s="65"/>
-      <c r="J116" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="K116" s="14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A117" s="55" t="s">
-        <v>784</v>
-      </c>
-      <c r="B117" s="56" t="s">
+      <c r="C121" s="50" t="s">
+        <v>663</v>
+      </c>
+      <c r="D121" s="51" t="s">
+        <v>739</v>
+      </c>
+      <c r="E121" s="52" t="s">
+        <v>662</v>
+      </c>
+      <c r="F121" s="52" t="s">
+        <v>482</v>
+      </c>
+      <c r="G121" s="52" t="s">
         <v>785</v>
       </c>
-      <c r="C117" s="65" t="s">
-        <v>806</v>
-      </c>
-      <c r="D117" s="65" t="s">
-        <v>747</v>
-      </c>
-      <c r="E117" s="66" t="s">
-        <v>670</v>
-      </c>
-      <c r="F117" s="66" t="s">
-        <v>483</v>
-      </c>
-      <c r="G117" s="66" t="s">
-        <v>792</v>
-      </c>
-      <c r="H117" s="65"/>
-      <c r="I117" s="65"/>
-      <c r="J117" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="K117" s="14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A118" s="55" t="s">
-        <v>788</v>
-      </c>
-      <c r="B118" s="56" t="s">
-        <v>789</v>
-      </c>
-      <c r="C118" s="65" t="s">
-        <v>809</v>
-      </c>
-      <c r="D118" s="65" t="s">
-        <v>747</v>
-      </c>
-      <c r="E118" s="66" t="s">
-        <v>670</v>
-      </c>
-      <c r="F118" s="66" t="s">
-        <v>483</v>
-      </c>
-      <c r="G118" s="66" t="s">
-        <v>792</v>
-      </c>
-      <c r="H118" s="65"/>
-      <c r="I118" s="65"/>
-      <c r="J118" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="K118" s="14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A119" s="55" t="s">
-        <v>790</v>
-      </c>
-      <c r="B119" s="56" t="s">
-        <v>791</v>
-      </c>
-      <c r="C119" s="65" t="s">
-        <v>810</v>
-      </c>
-      <c r="D119" s="65" t="s">
-        <v>747</v>
-      </c>
-      <c r="E119" s="66" t="s">
-        <v>670</v>
-      </c>
-      <c r="F119" s="66" t="s">
-        <v>483</v>
-      </c>
-      <c r="G119" s="66" t="s">
-        <v>792</v>
-      </c>
-      <c r="H119" s="65"/>
-      <c r="I119" s="65"/>
-      <c r="J119" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="K119" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="N119" s="54" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A120" s="55" t="s">
-        <v>615</v>
-      </c>
-      <c r="B120" s="56" t="s">
-        <v>488</v>
-      </c>
-      <c r="C120" s="52" t="s">
-        <v>610</v>
-      </c>
-      <c r="D120" s="52" t="s">
-        <v>747</v>
-      </c>
-      <c r="E120" s="53" t="s">
-        <v>670</v>
-      </c>
-      <c r="F120" s="53" t="s">
-        <v>483</v>
-      </c>
-      <c r="G120" s="53" t="s">
-        <v>793</v>
-      </c>
-      <c r="H120" s="52"/>
-      <c r="I120" s="52" t="s">
+      <c r="H121" s="51"/>
+      <c r="I121" s="51" t="s">
         <v>530</v>
       </c>
-      <c r="J120" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="K120" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="L120" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="M120" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="N120" s="54" t="s">
+      <c r="J121" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="K121" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="L121" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M121" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N121" s="53" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A121" s="55" t="s">
-        <v>616</v>
-      </c>
-      <c r="B121" s="56" t="s">
-        <v>490</v>
-      </c>
-      <c r="C121" s="51" t="s">
-        <v>671</v>
-      </c>
-      <c r="D121" s="52" t="s">
-        <v>747</v>
-      </c>
-      <c r="E121" s="53" t="s">
-        <v>670</v>
-      </c>
-      <c r="F121" s="53" t="s">
-        <v>483</v>
-      </c>
-      <c r="G121" s="53" t="s">
-        <v>793</v>
-      </c>
-      <c r="H121" s="52"/>
-      <c r="I121" s="52" t="s">
-        <v>531</v>
-      </c>
-      <c r="J121" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="K121" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="L121" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="M121" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="N121" s="54" t="s">
-        <v>492</v>
-      </c>
-    </row>
     <row r="122" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A122" s="55" t="s">
-        <v>786</v>
-      </c>
-      <c r="B122" s="56" t="s">
-        <v>787</v>
-      </c>
-      <c r="C122" s="52" t="s">
-        <v>805</v>
-      </c>
-      <c r="D122" s="52" t="s">
-        <v>747</v>
-      </c>
-      <c r="E122" s="53" t="s">
-        <v>670</v>
-      </c>
-      <c r="F122" s="53" t="s">
-        <v>483</v>
-      </c>
-      <c r="G122" s="53" t="s">
-        <v>793</v>
-      </c>
-      <c r="H122" s="52"/>
-      <c r="I122" s="52"/>
+      <c r="A122" s="54" t="s">
+        <v>778</v>
+      </c>
+      <c r="B122" s="55" t="s">
+        <v>779</v>
+      </c>
+      <c r="C122" s="51" t="s">
+        <v>797</v>
+      </c>
+      <c r="D122" s="51" t="s">
+        <v>739</v>
+      </c>
+      <c r="E122" s="52" t="s">
+        <v>662</v>
+      </c>
+      <c r="F122" s="52" t="s">
+        <v>482</v>
+      </c>
+      <c r="G122" s="52" t="s">
+        <v>785</v>
+      </c>
+      <c r="H122" s="51"/>
+      <c r="I122" s="51"/>
       <c r="J122" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K122" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="123" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A123" s="55" t="s">
-        <v>760</v>
-      </c>
-      <c r="B123" s="56" t="s">
-        <v>765</v>
+      <c r="A123" s="54" t="s">
+        <v>752</v>
+      </c>
+      <c r="B123" s="55" t="s">
+        <v>757</v>
       </c>
       <c r="C123" s="47" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="D123" s="47" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E123" s="47" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F123" s="47" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="G123" s="47" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="H123" s="47"/>
       <c r="I123" s="47"/>
       <c r="J123" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K123" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="L123" s="59"/>
+        <v>196</v>
+      </c>
+      <c r="L123" s="58"/>
     </row>
     <row r="124" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A124" s="55" t="s">
-        <v>763</v>
-      </c>
-      <c r="B124" s="56" t="s">
-        <v>767</v>
+      <c r="A124" s="54" t="s">
+        <v>755</v>
+      </c>
+      <c r="B124" s="55" t="s">
+        <v>759</v>
       </c>
       <c r="C124" s="47" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D124" s="47" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E124" s="47" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F124" s="47" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="G124" s="47" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="H124" s="47"/>
       <c r="I124" s="47"/>
       <c r="J124" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K124" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="125" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A125" s="55" t="s">
-        <v>235</v>
-      </c>
-      <c r="B125" s="56" t="s">
+      <c r="A125" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="B125" s="55" t="s">
         <v>115</v>
       </c>
       <c r="C125" s="47" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D125" s="47" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E125" s="47" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F125" s="47" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="G125" s="47" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H125" s="47"/>
       <c r="I125" s="47" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J125" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K125" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L125" s="15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M125" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N125" s="16" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="126" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A126" s="55" t="s">
-        <v>497</v>
-      </c>
-      <c r="B126" s="56" t="s">
-        <v>502</v>
+      <c r="A126" s="54" t="s">
+        <v>496</v>
+      </c>
+      <c r="B126" s="55" t="s">
+        <v>501</v>
       </c>
       <c r="C126" s="47" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="D126" s="47" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E126" s="47" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F126" s="47" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="G126" s="47"/>
       <c r="H126" s="47"/>
       <c r="I126" s="47" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J126" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K126" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L126" s="15" t="s">
         <v>1</v>
@@ -9914,38 +9925,38 @@
         <v>1</v>
       </c>
       <c r="N126" s="16" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="127" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A127" s="55" t="s">
-        <v>495</v>
-      </c>
-      <c r="B127" s="56" t="s">
-        <v>498</v>
+      <c r="A127" s="54" t="s">
+        <v>494</v>
+      </c>
+      <c r="B127" s="55" t="s">
+        <v>497</v>
       </c>
       <c r="C127" s="47" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="D127" s="47" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E127" s="47" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F127" s="47" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="G127" s="47"/>
       <c r="H127" s="47"/>
       <c r="I127" s="47" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J127" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K127" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L127" s="15" t="s">
         <v>1</v>
@@ -9954,38 +9965,38 @@
         <v>1</v>
       </c>
       <c r="N127" s="16" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="128" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A128" s="55" t="s">
-        <v>496</v>
-      </c>
-      <c r="B128" s="56" t="s">
-        <v>499</v>
+      <c r="A128" s="54" t="s">
+        <v>495</v>
+      </c>
+      <c r="B128" s="55" t="s">
+        <v>498</v>
       </c>
       <c r="C128" s="47" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="D128" s="47" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E128" s="47" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F128" s="47" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="G128" s="47"/>
       <c r="H128" s="47"/>
       <c r="I128" s="47" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J128" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K128" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L128" s="15" t="s">
         <v>1</v>
@@ -9994,40 +10005,40 @@
         <v>1</v>
       </c>
       <c r="N128" s="16" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="129" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A129" s="55" t="s">
+      <c r="A129" s="54" t="s">
+        <v>554</v>
+      </c>
+      <c r="B129" s="55" t="s">
         <v>555</v>
       </c>
-      <c r="B129" s="56" t="s">
-        <v>556</v>
-      </c>
-      <c r="C129" s="67" t="s">
-        <v>611</v>
-      </c>
-      <c r="D129" s="68" t="s">
-        <v>747</v>
-      </c>
-      <c r="E129" s="69" t="s">
-        <v>670</v>
-      </c>
-      <c r="F129" s="69" t="s">
-        <v>483</v>
-      </c>
-      <c r="G129" s="69" t="s">
-        <v>794</v>
-      </c>
-      <c r="H129" s="67"/>
-      <c r="I129" s="67" t="s">
-        <v>564</v>
+      <c r="C129" s="66" t="s">
+        <v>605</v>
+      </c>
+      <c r="D129" s="67" t="s">
+        <v>739</v>
+      </c>
+      <c r="E129" s="68" t="s">
+        <v>662</v>
+      </c>
+      <c r="F129" s="68" t="s">
+        <v>482</v>
+      </c>
+      <c r="G129" s="68" t="s">
+        <v>786</v>
+      </c>
+      <c r="H129" s="66"/>
+      <c r="I129" s="66" t="s">
+        <v>563</v>
       </c>
       <c r="J129" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K129" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L129" s="15" t="s">
         <v>1</v>
@@ -10036,82 +10047,82 @@
         <v>1</v>
       </c>
       <c r="N129" s="16" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="130" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A130" s="55" t="s">
-        <v>553</v>
-      </c>
-      <c r="B130" s="56" t="s">
+      <c r="A130" s="54" t="s">
+        <v>552</v>
+      </c>
+      <c r="B130" s="55" t="s">
+        <v>557</v>
+      </c>
+      <c r="C130" s="66" t="s">
+        <v>602</v>
+      </c>
+      <c r="D130" s="67" t="s">
+        <v>739</v>
+      </c>
+      <c r="E130" s="68" t="s">
+        <v>662</v>
+      </c>
+      <c r="F130" s="68" t="s">
+        <v>482</v>
+      </c>
+      <c r="G130" s="68" t="s">
+        <v>786</v>
+      </c>
+      <c r="H130" s="66"/>
+      <c r="I130" s="66" t="s">
+        <v>559</v>
+      </c>
+      <c r="J130" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="K130" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="L130" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M130" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N130" s="16" t="s">
         <v>558</v>
-      </c>
-      <c r="C130" s="67" t="s">
-        <v>608</v>
-      </c>
-      <c r="D130" s="68" t="s">
-        <v>747</v>
-      </c>
-      <c r="E130" s="69" t="s">
-        <v>670</v>
-      </c>
-      <c r="F130" s="69" t="s">
-        <v>483</v>
-      </c>
-      <c r="G130" s="69" t="s">
-        <v>794</v>
-      </c>
-      <c r="H130" s="67"/>
-      <c r="I130" s="67" t="s">
-        <v>560</v>
-      </c>
-      <c r="J130" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="K130" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="L130" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="M130" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="N130" s="16" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="131" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A131" s="27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B131" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C131" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D131" s="26" t="s">
+        <v>739</v>
+      </c>
+      <c r="E131" s="26" t="s">
+        <v>750</v>
+      </c>
+      <c r="F131" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="G131" s="26" t="s">
         <v>207</v>
-      </c>
-      <c r="D131" s="26" t="s">
-        <v>747</v>
-      </c>
-      <c r="E131" s="26" t="s">
-        <v>758</v>
-      </c>
-      <c r="F131" s="26" t="s">
-        <v>368</v>
-      </c>
-      <c r="G131" s="26" t="s">
-        <v>208</v>
       </c>
       <c r="H131" s="26"/>
       <c r="I131" s="26" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="J131" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K131" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L131" s="15" t="s">
         <v>22</v>
@@ -10123,39 +10134,39 @@
     </row>
     <row r="132" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A132" s="27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B132" s="28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C132" s="26" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D132" s="26" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E132" s="26" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="F132" s="26" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G132" s="26"/>
       <c r="H132" s="26"/>
       <c r="I132" s="26" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J132" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K132" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L132" s="15" t="s">
         <v>47</v>
       </c>
       <c r="M132" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N132" s="16" t="s">
         <v>136</v>
@@ -10163,127 +10174,127 @@
     </row>
     <row r="133" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A133" s="27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B133" s="28" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="C133" s="26" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D133" s="26" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E133" s="26" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="F133" s="26" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G133" s="26"/>
       <c r="H133" s="26"/>
       <c r="I133" s="26" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J133" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K133" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="L133" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="M133" s="13" t="s">
-        <v>475</v>
+        <v>196</v>
+      </c>
+      <c r="L133" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="M133" s="73" t="s">
+        <v>474</v>
       </c>
       <c r="N133" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="134" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A134" s="27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B134" s="28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C134" s="26" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D134" s="26" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E134" s="26" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="F134" s="26" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G134" s="26"/>
       <c r="H134" s="26"/>
       <c r="I134" s="26" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="J134" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K134" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="L134" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="L134" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="M134" s="13" t="s">
-        <v>476</v>
+      <c r="M134" s="73" t="s">
+        <v>475</v>
       </c>
       <c r="N134" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="135" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A135" s="27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B135" s="28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C135" s="26" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D135" s="26" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E135" s="26" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="F135" s="26" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G135" s="26"/>
       <c r="H135" s="26"/>
       <c r="I135" s="26" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="J135" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K135" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="L135" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="L135" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="M135" s="13" t="s">
-        <v>476</v>
+      <c r="M135" s="73" t="s">
+        <v>475</v>
       </c>
       <c r="N135" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="136" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A136" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B136" s="28" t="s">
         <v>147</v>
@@ -10292,30 +10303,30 @@
         <v>32</v>
       </c>
       <c r="D136" s="26" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E136" s="26" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="F136" s="26" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G136" s="26"/>
       <c r="H136" s="26"/>
       <c r="I136" s="26" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J136" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K136" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="L136" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="L136" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="M136" s="13" t="s">
-        <v>476</v>
+      <c r="M136" s="73" t="s">
+        <v>475</v>
       </c>
       <c r="N136" s="16" t="s">
         <v>148</v>
@@ -10323,334 +10334,339 @@
     </row>
     <row r="137" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A137" s="27" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="B137" s="28" t="s">
         <v>147</v>
       </c>
       <c r="C137" s="28" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="D137" s="26" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E137" s="26" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="F137" s="28" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G137" s="28"/>
       <c r="H137" s="28"/>
       <c r="I137" s="28" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="J137" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K137" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="L137" s="59" t="s">
-        <v>722</v>
-      </c>
-      <c r="M137" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="L137" s="73" t="s">
+        <v>714</v>
+      </c>
+      <c r="M137" s="73" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A138" s="27" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="B138" s="28" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="C138" s="28" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="D138" s="26" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E138" s="26" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="F138" s="28" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G138" s="28"/>
       <c r="H138" s="28"/>
       <c r="I138" s="28" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="J138" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K138" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="L138" s="59" t="s">
-        <v>721</v>
-      </c>
-      <c r="M138" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="L138" s="73" t="s">
+        <v>713</v>
+      </c>
+      <c r="M138" s="73" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A139" s="27" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="B139" s="28" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="C139" s="28" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="D139" s="26" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E139" s="26" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="F139" s="28" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G139" s="28"/>
       <c r="H139" s="28"/>
       <c r="I139" s="28" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="J139" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K139" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="L139" s="59" t="s">
-        <v>726</v>
-      </c>
-      <c r="M139" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="L139" s="73" t="s">
+        <v>718</v>
+      </c>
+      <c r="M139" s="73" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A140" s="27" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="B140" s="28" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="C140" s="28" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="D140" s="26" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E140" s="26" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="F140" s="28" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G140" s="28"/>
       <c r="H140" s="28"/>
       <c r="I140" s="28" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="J140" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K140" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="L140" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="M140" s="13" t="s">
-        <v>1</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="L140" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="M140" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="N140" s="16"/>
     </row>
     <row r="141" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A141" s="27" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="B141" s="28" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="C141" s="28" t="s">
+        <v>742</v>
+      </c>
+      <c r="D141" s="26" t="s">
+        <v>739</v>
+      </c>
+      <c r="E141" s="26" t="s">
         <v>750</v>
       </c>
-      <c r="D141" s="26" t="s">
-        <v>747</v>
-      </c>
-      <c r="E141" s="26" t="s">
-        <v>758</v>
-      </c>
       <c r="F141" s="28" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G141" s="28"/>
       <c r="H141" s="28"/>
       <c r="I141" s="28" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="J141" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K141" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="L141" s="59" t="s">
-        <v>728</v>
-      </c>
-      <c r="M141" s="13" t="s">
-        <v>1</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="L141" s="73" t="s">
+        <v>720</v>
+      </c>
+      <c r="M141" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="N141" s="16"/>
     </row>
     <row r="142" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A142" s="27" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="B142" s="28" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="C142" s="28" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="D142" s="26" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E142" s="26" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="F142" s="28" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G142" s="28"/>
       <c r="H142" s="28"/>
       <c r="I142" s="28" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="J142" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K142" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="L142" s="59" t="s">
-        <v>729</v>
-      </c>
-      <c r="M142" s="13" t="s">
-        <v>1</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="L142" s="73" t="s">
+        <v>721</v>
+      </c>
+      <c r="M142" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="N142" s="16"/>
     </row>
     <row r="143" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A143" s="27" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="B143" s="28" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="C143" s="28" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="D143" s="26" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E143" s="26" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="F143" s="28" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G143" s="28"/>
       <c r="H143" s="28"/>
       <c r="I143" s="28" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="J143" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K143" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="L143" s="59" t="s">
-        <v>730</v>
-      </c>
-      <c r="M143" s="13" t="s">
-        <v>1</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="L143" s="73" t="s">
+        <v>722</v>
+      </c>
+      <c r="M143" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="N143" s="16"/>
     </row>
     <row r="144" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A144" s="27" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="B144" s="28" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="C144" s="28" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="D144" s="26" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E144" s="26" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="F144" s="28" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G144" s="28"/>
       <c r="H144" s="28"/>
       <c r="I144" s="28" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="J144" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K144" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="L144" s="59" t="s">
-        <v>719</v>
-      </c>
-      <c r="M144" s="13" t="s">
-        <v>1</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="L144" s="73" t="s">
+        <v>711</v>
+      </c>
+      <c r="M144" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="N144" s="16"/>
     </row>
     <row r="145" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A145" s="27" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="B145" s="28" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="C145" s="28" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="D145" s="26" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E145" s="26" t="s">
-        <v>758</v>
-      </c>
-      <c r="F145" s="58" t="s">
-        <v>416</v>
-      </c>
-      <c r="G145" s="58"/>
-      <c r="H145" s="58"/>
-      <c r="I145" s="58" t="s">
+        <v>750</v>
+      </c>
+      <c r="F145" s="57" t="s">
+        <v>415</v>
+      </c>
+      <c r="G145" s="57"/>
+      <c r="H145" s="57"/>
+      <c r="I145" s="57" t="s">
         <v>119</v>
       </c>
       <c r="J145" s="39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K145" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="L145" s="59" t="s">
-        <v>717</v>
-      </c>
-      <c r="M145" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="L145" s="73" t="s">
+        <v>709</v>
+      </c>
+      <c r="M145" s="73" t="s">
         <v>1</v>
       </c>
       <c r="N145" s="16" t="s">
@@ -10659,78 +10675,78 @@
     </row>
     <row r="146" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A146" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B146" s="28" t="s">
         <v>144</v>
       </c>
       <c r="C146" s="28" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D146" s="26" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E146" s="26" t="s">
-        <v>758</v>
-      </c>
-      <c r="F146" s="58" t="s">
-        <v>416</v>
-      </c>
-      <c r="G146" s="58"/>
-      <c r="H146" s="58"/>
-      <c r="I146" s="58" t="s">
-        <v>523</v>
-      </c>
-      <c r="J146" s="58" t="s">
-        <v>197</v>
-      </c>
-      <c r="K146" s="58" t="s">
-        <v>197</v>
-      </c>
-      <c r="L146" s="58" t="s">
+        <v>750</v>
+      </c>
+      <c r="F146" s="57" t="s">
+        <v>415</v>
+      </c>
+      <c r="G146" s="57"/>
+      <c r="H146" s="57"/>
+      <c r="I146" s="57" t="s">
+        <v>522</v>
+      </c>
+      <c r="J146" s="57" t="s">
+        <v>196</v>
+      </c>
+      <c r="K146" s="57" t="s">
+        <v>196</v>
+      </c>
+      <c r="L146" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="M146" s="58" t="s">
-        <v>476</v>
+      <c r="M146" s="73" t="s">
+        <v>475</v>
       </c>
       <c r="N146" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="147" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A147" s="27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B147" s="28" t="s">
         <v>101</v>
       </c>
       <c r="C147" s="28" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D147" s="26" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E147" s="26" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="F147" s="39" t="s">
-        <v>416</v>
-      </c>
-      <c r="G147" s="58"/>
-      <c r="H147" s="58"/>
-      <c r="I147" s="58" t="s">
-        <v>586</v>
-      </c>
-      <c r="J147" s="58" t="s">
-        <v>197</v>
-      </c>
-      <c r="K147" s="58" t="s">
-        <v>197</v>
-      </c>
-      <c r="L147" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="M147" s="58" t="s">
+        <v>415</v>
+      </c>
+      <c r="G147" s="57"/>
+      <c r="H147" s="57"/>
+      <c r="I147" s="57" t="s">
+        <v>584</v>
+      </c>
+      <c r="J147" s="57" t="s">
+        <v>196</v>
+      </c>
+      <c r="K147" s="57" t="s">
+        <v>196</v>
+      </c>
+      <c r="L147" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="M147" s="73" t="s">
         <v>1</v>
       </c>
       <c r="N147" s="16" t="s">
@@ -10739,39 +10755,39 @@
     </row>
     <row r="148" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A148" s="27" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B148" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C148" s="28" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D148" s="26" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E148" s="26" t="s">
-        <v>758</v>
-      </c>
-      <c r="F148" s="58" t="s">
-        <v>416</v>
-      </c>
-      <c r="G148" s="58"/>
-      <c r="H148" s="58"/>
-      <c r="I148" s="58" t="s">
-        <v>586</v>
-      </c>
-      <c r="J148" s="58" t="s">
-        <v>197</v>
-      </c>
-      <c r="K148" s="58" t="s">
-        <v>197</v>
-      </c>
-      <c r="L148" s="58" t="s">
+        <v>750</v>
+      </c>
+      <c r="F148" s="57" t="s">
+        <v>415</v>
+      </c>
+      <c r="G148" s="57"/>
+      <c r="H148" s="57"/>
+      <c r="I148" s="57" t="s">
+        <v>584</v>
+      </c>
+      <c r="J148" s="57" t="s">
+        <v>196</v>
+      </c>
+      <c r="K148" s="57" t="s">
+        <v>196</v>
+      </c>
+      <c r="L148" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="M148" s="58" t="s">
-        <v>476</v>
+      <c r="M148" s="73" t="s">
+        <v>475</v>
       </c>
       <c r="N148" s="16" t="s">
         <v>119</v>
@@ -10779,78 +10795,78 @@
     </row>
     <row r="149" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A149" s="27" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B149" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C149" s="28" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D149" s="26" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E149" s="26" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="F149" s="39" t="s">
-        <v>416</v>
-      </c>
-      <c r="G149" s="58"/>
-      <c r="H149" s="58"/>
-      <c r="I149" s="58" t="s">
-        <v>524</v>
-      </c>
-      <c r="J149" s="58" t="s">
-        <v>197</v>
-      </c>
-      <c r="K149" s="58" t="s">
-        <v>197</v>
-      </c>
-      <c r="L149" s="58" t="s">
+        <v>415</v>
+      </c>
+      <c r="G149" s="57"/>
+      <c r="H149" s="57"/>
+      <c r="I149" s="57" t="s">
+        <v>523</v>
+      </c>
+      <c r="J149" s="57" t="s">
+        <v>196</v>
+      </c>
+      <c r="K149" s="57" t="s">
+        <v>196</v>
+      </c>
+      <c r="L149" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="M149" s="58" t="s">
-        <v>476</v>
+      <c r="M149" s="73" t="s">
+        <v>475</v>
       </c>
       <c r="N149" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="150" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A150" s="27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B150" s="28" t="s">
         <v>103</v>
       </c>
       <c r="C150" s="28" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D150" s="26" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E150" s="26" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="F150" s="39" t="s">
-        <v>416</v>
-      </c>
-      <c r="G150" s="58"/>
-      <c r="H150" s="58"/>
-      <c r="I150" s="58" t="s">
-        <v>586</v>
-      </c>
-      <c r="J150" s="58" t="s">
-        <v>197</v>
-      </c>
-      <c r="K150" s="58" t="s">
-        <v>197</v>
-      </c>
-      <c r="L150" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="M150" s="58" t="s">
+        <v>415</v>
+      </c>
+      <c r="G150" s="57"/>
+      <c r="H150" s="57"/>
+      <c r="I150" s="57" t="s">
+        <v>584</v>
+      </c>
+      <c r="J150" s="57" t="s">
+        <v>196</v>
+      </c>
+      <c r="K150" s="57" t="s">
+        <v>196</v>
+      </c>
+      <c r="L150" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="M150" s="73" t="s">
         <v>1</v>
       </c>
       <c r="N150" s="16" t="s">
@@ -10859,39 +10875,39 @@
     </row>
     <row r="151" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A151" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B151" s="28" t="s">
         <v>149</v>
       </c>
       <c r="C151" s="28" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D151" s="26" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E151" s="26" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="F151" s="39" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G151" s="39"/>
       <c r="H151" s="39"/>
       <c r="I151" s="39" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J151" s="39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K151" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="L151" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="L151" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="M151" s="58" t="s">
-        <v>476</v>
+      <c r="M151" s="73" t="s">
+        <v>475</v>
       </c>
       <c r="N151" s="16" t="s">
         <v>150</v>
@@ -10899,384 +10915,384 @@
     </row>
     <row r="152" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A152" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B152" s="28" t="s">
         <v>161</v>
       </c>
       <c r="C152" s="28" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D152" s="26" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E152" s="26" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="F152" s="39" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G152" s="39"/>
       <c r="H152" s="39"/>
       <c r="I152" s="39" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J152" s="39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K152" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="L152" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="L152" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="M152" s="58" t="s">
-        <v>478</v>
+      <c r="M152" s="73" t="s">
+        <v>477</v>
       </c>
       <c r="N152" s="16" t="s">
-        <v>162</v>
+        <v>822</v>
       </c>
     </row>
     <row r="153" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A153" s="27" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="B153" s="28" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="C153" s="28" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="D153" s="26" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E153" s="26" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="F153" s="39" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G153" s="39"/>
       <c r="H153" s="39"/>
       <c r="I153" s="39" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="J153" s="39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K153" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="L153" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="M153" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="L153" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="M153" s="73" t="s">
         <v>1</v>
       </c>
       <c r="N153" s="16" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
     </row>
     <row r="154" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A154" s="48" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="B154" s="49" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C154" s="49" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="D154" s="49" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="E154" s="49" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F154" s="49" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="G154" s="49" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="H154" s="49"/>
       <c r="I154" s="49" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J154" s="14" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="K154" s="14" t="s">
-        <v>630</v>
-      </c>
-      <c r="L154" s="15" t="s">
-        <v>666</v>
-      </c>
-      <c r="M154" s="13" t="s">
+        <v>624</v>
+      </c>
+      <c r="L154" s="73" t="s">
+        <v>658</v>
+      </c>
+      <c r="M154" s="73" t="s">
         <v>1</v>
       </c>
       <c r="N154" s="16" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="155" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A155" s="48" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B155" s="49" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C155" s="49" t="s">
-        <v>605</v>
+        <v>820</v>
       </c>
       <c r="D155" s="49" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="E155" s="49" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F155" s="49" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="G155" s="49" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="H155" s="49">
         <v>1</v>
       </c>
       <c r="I155" s="49" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J155" s="14" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="K155" s="14" t="s">
-        <v>630</v>
-      </c>
-      <c r="L155" s="15" t="s">
-        <v>666</v>
-      </c>
-      <c r="M155" s="13" t="s">
+        <v>624</v>
+      </c>
+      <c r="L155" s="73" t="s">
+        <v>658</v>
+      </c>
+      <c r="M155" s="73" t="s">
         <v>1</v>
       </c>
       <c r="N155" s="16" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="156" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A156" s="48" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B156" s="49" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C156" s="49" t="s">
-        <v>604</v>
+        <v>819</v>
       </c>
       <c r="D156" s="49" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="E156" s="49" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F156" s="49" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="G156" s="49" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="H156" s="49">
         <v>1</v>
       </c>
       <c r="I156" s="49" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="J156" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K156" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="L156" s="15" t="s">
-        <v>665</v>
-      </c>
-      <c r="M156" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="L156" s="73" t="s">
+        <v>657</v>
+      </c>
+      <c r="M156" s="73" t="s">
         <v>1</v>
       </c>
       <c r="N156" s="16" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="157" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A157" s="48" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B157" s="49" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C157" s="49" t="s">
-        <v>603</v>
+        <v>821</v>
       </c>
       <c r="D157" s="49" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="E157" s="49" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F157" s="49" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="G157" s="49" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="H157" s="49">
         <v>1</v>
       </c>
       <c r="I157" s="49" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J157" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K157" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="L157" s="15" t="s">
-        <v>664</v>
-      </c>
-      <c r="M157" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="L157" s="73" t="s">
+        <v>656</v>
+      </c>
+      <c r="M157" s="73" t="s">
         <v>1</v>
       </c>
       <c r="N157" s="16" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="158" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A158" s="48" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="B158" s="49" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C158" s="49" t="s">
-        <v>572</v>
+        <v>811</v>
       </c>
       <c r="D158" s="49" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="E158" s="49" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F158" s="49" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="G158" s="49" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="H158" s="49">
         <v>1</v>
       </c>
       <c r="I158" s="49" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J158" s="14" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="K158" s="14" t="s">
-        <v>630</v>
-      </c>
-      <c r="L158" s="15" t="s">
-        <v>663</v>
-      </c>
-      <c r="M158" s="13" t="s">
+        <v>624</v>
+      </c>
+      <c r="L158" s="73" t="s">
+        <v>655</v>
+      </c>
+      <c r="M158" s="73" t="s">
         <v>1</v>
       </c>
       <c r="N158" s="16" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="159" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A159" s="48" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B159" s="49" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C159" s="49" t="s">
-        <v>606</v>
+        <v>817</v>
       </c>
       <c r="D159" s="49" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="E159" s="49" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F159" s="49" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="G159" s="49" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="H159" s="49">
         <v>1</v>
       </c>
       <c r="I159" s="49" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="J159" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K159" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="L159" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="M159" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="L159" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="M159" s="73" t="s">
         <v>1</v>
       </c>
       <c r="N159" s="16" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="160" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A160" s="48" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="B160" s="49" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C160" s="49" t="s">
-        <v>652</v>
+        <v>818</v>
       </c>
       <c r="D160" s="49" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="E160" s="49" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F160" s="49" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="G160" s="49" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="H160" s="49">
         <v>1</v>
       </c>
       <c r="I160" s="49" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="J160" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K160" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="L160" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="M160" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="L160" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="M160" s="73" t="s">
         <v>1</v>
       </c>
       <c r="N160" s="16" t="s">
@@ -11285,42 +11301,42 @@
     </row>
     <row r="161" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A161" s="48" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="B161" s="49" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="C161" s="49" t="s">
-        <v>653</v>
+        <v>816</v>
       </c>
       <c r="D161" s="49" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="E161" s="49" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F161" s="49" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="G161" s="49" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="H161" s="49">
         <v>1</v>
       </c>
       <c r="I161" s="49" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="J161" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K161" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="L161" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="M161" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="L161" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="M161" s="73" t="s">
         <v>1</v>
       </c>
       <c r="N161" s="16" t="s">
@@ -11329,169 +11345,172 @@
     </row>
     <row r="162" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A162" s="48" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="B162" s="49" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C162" s="49" t="s">
-        <v>572</v>
+        <v>812</v>
       </c>
       <c r="D162" s="49" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="E162" s="49" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F162" s="49" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="G162" s="49" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="H162" s="49">
         <v>3</v>
       </c>
       <c r="I162" s="49" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J162" s="14" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="K162" s="14" t="s">
-        <v>630</v>
-      </c>
-      <c r="L162" s="15" t="s">
-        <v>663</v>
-      </c>
-      <c r="M162" s="50" t="s">
+        <v>624</v>
+      </c>
+      <c r="L162" s="73" t="s">
+        <v>655</v>
+      </c>
+      <c r="M162" s="73" t="s">
         <v>1</v>
       </c>
       <c r="N162" s="16" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="163" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A163" s="48" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="B163" s="49" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C163" s="49" t="s">
-        <v>604</v>
+        <v>813</v>
       </c>
       <c r="D163" s="49" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="E163" s="49" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F163" s="49" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="G163" s="49" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="H163" s="49">
         <v>3</v>
       </c>
       <c r="I163" s="49" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="J163" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K163" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="L163" s="15" t="s">
-        <v>665</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="L163" s="73" t="s">
+        <v>657</v>
+      </c>
+      <c r="M163" s="73"/>
       <c r="N163" s="16" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="164" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A164" s="48" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="B164" s="49" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C164" s="49" t="s">
-        <v>606</v>
+        <v>815</v>
       </c>
       <c r="D164" s="49" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="E164" s="49" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F164" s="49" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="G164" s="49" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="H164" s="49">
         <v>3</v>
       </c>
       <c r="I164" s="49" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="J164" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K164" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="L164" s="15" t="s">
-        <v>1</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="L164" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="M164" s="73"/>
       <c r="N164" s="16" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="165" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A165" s="48" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="B165" s="49" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C165" s="49" t="s">
-        <v>603</v>
+        <v>814</v>
       </c>
       <c r="D165" s="49" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="E165" s="49" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F165" s="49" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="G165" s="49" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="H165" s="49">
         <v>3</v>
       </c>
       <c r="I165" s="49" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J165" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K165" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="L165" s="15" t="s">
-        <v>664</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="L165" s="73" t="s">
+        <v>656</v>
+      </c>
+      <c r="M165" s="73"/>
       <c r="N165" s="16" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
@@ -11529,76 +11548,76 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>118</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>119</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I1" s="4">
         <v>1176</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>124</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F2" s="43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G2" s="43" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H2" s="43"/>
       <c r="I2" s="43" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="J2" s="44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K2" s="44" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CDA841-E16A-BE41-80CC-1AE6085333DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29225434-037C-3348-A08A-BC9EE16E72EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11360" yWindow="500" windowWidth="34680" windowHeight="20940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4701,11 +4701,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N166"/>
+  <dimension ref="A1:N165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N154" sqref="A1:N165"/>
+      <selection pane="bottomLeft" activeCell="C152" sqref="C152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11257,13 +11257,13 @@
     </row>
     <row r="160" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A160" s="48" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="B160" s="49" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C160" s="49" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D160" s="49" t="s">
         <v>665</v>
@@ -11281,7 +11281,7 @@
         <v>1</v>
       </c>
       <c r="I160" s="49" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="J160" s="14" t="s">
         <v>196</v>
@@ -11301,13 +11301,13 @@
     </row>
     <row r="161" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A161" s="48" t="s">
-        <v>632</v>
+        <v>654</v>
       </c>
       <c r="B161" s="49" t="s">
-        <v>631</v>
+        <v>570</v>
       </c>
       <c r="C161" s="49" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="D161" s="49" t="s">
         <v>665</v>
@@ -11322,36 +11322,36 @@
         <v>665</v>
       </c>
       <c r="H161" s="49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I161" s="49" t="s">
-        <v>667</v>
+        <v>519</v>
       </c>
       <c r="J161" s="14" t="s">
-        <v>196</v>
+        <v>641</v>
       </c>
       <c r="K161" s="14" t="s">
-        <v>196</v>
+        <v>624</v>
       </c>
       <c r="L161" s="73" t="s">
-        <v>1</v>
+        <v>655</v>
       </c>
       <c r="M161" s="73" t="s">
         <v>1</v>
       </c>
       <c r="N161" s="16" t="s">
-        <v>1</v>
+        <v>581</v>
       </c>
     </row>
     <row r="162" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A162" s="48" t="s">
-        <v>654</v>
+        <v>803</v>
       </c>
       <c r="B162" s="49" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C162" s="49" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D162" s="49" t="s">
         <v>665</v>
@@ -11369,33 +11369,31 @@
         <v>3</v>
       </c>
       <c r="I162" s="49" t="s">
-        <v>519</v>
+        <v>576</v>
       </c>
       <c r="J162" s="14" t="s">
-        <v>641</v>
+        <v>196</v>
       </c>
       <c r="K162" s="14" t="s">
-        <v>624</v>
+        <v>196</v>
       </c>
       <c r="L162" s="73" t="s">
-        <v>655</v>
-      </c>
-      <c r="M162" s="73" t="s">
-        <v>1</v>
-      </c>
+        <v>657</v>
+      </c>
+      <c r="M162" s="73"/>
       <c r="N162" s="16" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="163" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A163" s="48" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B163" s="49" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C163" s="49" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="D163" s="49" t="s">
         <v>665</v>
@@ -11413,7 +11411,7 @@
         <v>3</v>
       </c>
       <c r="I163" s="49" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="J163" s="14" t="s">
         <v>196</v>
@@ -11422,22 +11420,22 @@
         <v>196</v>
       </c>
       <c r="L163" s="73" t="s">
-        <v>657</v>
+        <v>1</v>
       </c>
       <c r="M163" s="73"/>
       <c r="N163" s="16" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="164" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A164" s="48" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B164" s="49" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C164" s="49" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D164" s="49" t="s">
         <v>665</v>
@@ -11455,7 +11453,7 @@
         <v>3</v>
       </c>
       <c r="I164" s="49" t="s">
-        <v>578</v>
+        <v>402</v>
       </c>
       <c r="J164" s="14" t="s">
         <v>196</v>
@@ -11464,64 +11462,22 @@
         <v>196</v>
       </c>
       <c r="L164" s="73" t="s">
-        <v>1</v>
+        <v>656</v>
       </c>
       <c r="M164" s="73"/>
       <c r="N164" s="16" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A165" s="48" t="s">
-        <v>805</v>
-      </c>
-      <c r="B165" s="49" t="s">
-        <v>571</v>
-      </c>
-      <c r="C165" s="49" t="s">
-        <v>814</v>
-      </c>
-      <c r="D165" s="49" t="s">
-        <v>665</v>
-      </c>
-      <c r="E165" s="49" t="s">
-        <v>662</v>
-      </c>
-      <c r="F165" s="49" t="s">
-        <v>665</v>
-      </c>
-      <c r="G165" s="49" t="s">
-        <v>665</v>
-      </c>
-      <c r="H165" s="49">
-        <v>3</v>
-      </c>
-      <c r="I165" s="49" t="s">
-        <v>402</v>
-      </c>
-      <c r="J165" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="K165" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="L165" s="73" t="s">
-        <v>656</v>
-      </c>
-      <c r="M165" s="73"/>
-      <c r="N165" s="16" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A166" s="1"/>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A165" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N162">
-    <sortCondition ref="D2:D162"/>
-    <sortCondition ref="E2:E162"/>
-    <sortCondition ref="F2:F162"/>
-    <sortCondition ref="G2:G162"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N161">
+    <sortCondition ref="D2:D161"/>
+    <sortCondition ref="E2:E161"/>
+    <sortCondition ref="F2:F161"/>
+    <sortCondition ref="G2:G161"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="B61" r:id="rId1" display="https://it.wikipedia.org/wiki/Baiyangdian_virus" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -11538,10 +11494,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11618,6 +11574,50 @@
       </c>
       <c r="N2" s="16" t="s">
         <v>380</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
+        <v>629</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>630</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>818</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>665</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>662</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>665</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>665</v>
+      </c>
+      <c r="H7" s="49">
+        <v>1</v>
+      </c>
+      <c r="I7" s="49" t="s">
+        <v>645</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="L7" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29225434-037C-3348-A08A-BC9EE16E72EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5EB611-2D6A-9E4F-B547-63B6C79F62FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11360" yWindow="500" windowWidth="34680" windowHeight="20940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4704,8 +4704,8 @@
   <dimension ref="A1:N165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C152" sqref="C152"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5EB611-2D6A-9E4F-B547-63B6C79F62FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34319B42-76EF-2646-8996-B8CBBE417883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11360" yWindow="500" windowWidth="34680" windowHeight="20940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7800" yWindow="500" windowWidth="34680" windowHeight="20940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flavi.txt" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">flavi.txt!$A$1:$M$121</definedName>
   </definedNames>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -4705,7 +4714,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0032D91D-2622-2547-A688-A8C20BAB6337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2107D9-242F-D449-9172-BD7A19B08DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7800" yWindow="500" windowWidth="34680" windowHeight="20940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4705,7 +4705,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G34" sqref="A1:O164"/>
+      <selection pane="bottomLeft" activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7551,7 +7551,7 @@
       </c>
     </row>
     <row r="64" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="33" t="s">
         <v>272</v>
       </c>
       <c r="B64" s="34" t="s">

--- a/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10711"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2107D9-242F-D449-9172-BD7A19B08DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D197E81F-7A5A-2F40-A3B1-AC82485487E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="500" windowWidth="34680" windowHeight="20940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7780" yWindow="500" windowWidth="34680" windowHeight="20940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flavi.txt" sheetId="1" r:id="rId1"/>
@@ -2443,9 +2443,6 @@
     <t>KM521553</t>
   </si>
   <si>
-    <t>Sandfly</t>
-  </si>
-  <si>
     <t>sandfly</t>
   </si>
   <si>
@@ -2504,13 +2501,16 @@
   </si>
   <si>
     <t>NULL</t>
+  </si>
+  <si>
+    <t>TBFV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2575,13 +2575,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="14"/>
       <color rgb="FF000000"/>
@@ -2597,7 +2590,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="28">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2696,12 +2689,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFBFBFBF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
@@ -2721,18 +2708,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -3497,7 +3472,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3579,9 +3554,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3592,52 +3564,36 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="725">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4704,8 +4660,8 @@
   <dimension ref="A1:O165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D77" sqref="D77"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4745,10 +4701,10 @@
         <v>64</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>649</v>
@@ -4762,49 +4718,49 @@
       <c r="L1" s="8" t="s">
         <v>611</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="52" t="s">
         <v>500</v>
       </c>
-      <c r="N1" s="59" t="s">
+      <c r="N1" s="53" t="s">
         <v>470</v>
       </c>
-      <c r="O1" s="59" t="s">
+      <c r="O1" s="53" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="57" t="s">
         <v>789</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="56" t="s">
         <v>783</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="56" t="s">
         <v>784</v>
       </c>
-      <c r="D2" s="67" t="s">
-        <v>734</v>
-      </c>
-      <c r="E2" s="67" t="s">
-        <v>659</v>
-      </c>
-      <c r="F2" s="67" t="s">
+      <c r="D2" s="56" t="s">
+        <v>734</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>659</v>
+      </c>
+      <c r="F2" s="56" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="67" t="s">
+      <c r="G2" s="56" t="s">
         <v>785</v>
       </c>
-      <c r="H2" s="67" t="s">
-        <v>821</v>
-      </c>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67" t="s">
+      <c r="H2" s="56" t="s">
+        <v>820</v>
+      </c>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56" t="s">
         <v>786</v>
       </c>
-      <c r="K2" s="67" t="s">
+      <c r="K2" s="56" t="s">
         <v>787</v>
       </c>
-      <c r="L2" s="67" t="s">
+      <c r="L2" s="56" t="s">
         <v>787</v>
       </c>
       <c r="M2" s="15"/>
@@ -4836,7 +4792,7 @@
         <v>466</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12" t="s">
@@ -4881,7 +4837,7 @@
         <v>466</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12" t="s">
@@ -4926,7 +4882,7 @@
         <v>466</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12" t="s">
@@ -4971,7 +4927,7 @@
         <v>466</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="12" t="s">
@@ -5016,7 +4972,7 @@
         <v>466</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="12" t="s">
@@ -5061,7 +5017,7 @@
         <v>466</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="12" t="s">
@@ -5106,7 +5062,7 @@
         <v>466</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="12" t="s">
@@ -5151,7 +5107,7 @@
         <v>466</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12" t="s">
@@ -5196,7 +5152,7 @@
         <v>466</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="12" t="s">
@@ -5241,7 +5197,7 @@
         <v>466</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="12" t="s">
@@ -5286,7 +5242,7 @@
         <v>466</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12" t="s">
@@ -5331,7 +5287,7 @@
         <v>466</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="12" t="s">
@@ -5376,7 +5332,7 @@
         <v>466</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="12" t="s">
@@ -5421,7 +5377,7 @@
         <v>466</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="12" t="s">
@@ -5444,38 +5400,38 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="54" t="s">
         <v>748</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="55" t="s">
         <v>746</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="55" t="s">
         <v>758</v>
       </c>
-      <c r="D17" s="61" t="s">
-        <v>734</v>
-      </c>
-      <c r="E17" s="61" t="s">
-        <v>659</v>
-      </c>
-      <c r="F17" s="61" t="s">
+      <c r="D17" s="55" t="s">
+        <v>734</v>
+      </c>
+      <c r="E17" s="55" t="s">
+        <v>659</v>
+      </c>
+      <c r="F17" s="55" t="s">
         <v>189</v>
       </c>
-      <c r="G17" s="61" t="s">
+      <c r="G17" s="55" t="s">
         <v>761</v>
       </c>
-      <c r="H17" s="61" t="s">
-        <v>821</v>
-      </c>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61" t="s">
+      <c r="H17" s="55" t="s">
+        <v>820</v>
+      </c>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55" t="s">
         <v>762</v>
       </c>
-      <c r="K17" s="61" t="s">
+      <c r="K17" s="55" t="s">
         <v>764</v>
       </c>
-      <c r="L17" s="61"/>
+      <c r="L17" s="55"/>
       <c r="M17" s="15" t="s">
         <v>1</v>
       </c>
@@ -5487,38 +5443,38 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="54" t="s">
         <v>749</v>
       </c>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="55" t="s">
         <v>753</v>
       </c>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="55" t="s">
         <v>759</v>
       </c>
-      <c r="D18" s="61" t="s">
-        <v>734</v>
-      </c>
-      <c r="E18" s="61" t="s">
-        <v>659</v>
-      </c>
-      <c r="F18" s="61" t="s">
+      <c r="D18" s="55" t="s">
+        <v>734</v>
+      </c>
+      <c r="E18" s="55" t="s">
+        <v>659</v>
+      </c>
+      <c r="F18" s="55" t="s">
         <v>189</v>
       </c>
-      <c r="G18" s="61" t="s">
+      <c r="G18" s="55" t="s">
         <v>761</v>
       </c>
-      <c r="H18" s="61" t="s">
-        <v>821</v>
-      </c>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61" t="s">
+      <c r="H18" s="55" t="s">
+        <v>820</v>
+      </c>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55" t="s">
         <v>763</v>
       </c>
-      <c r="K18" s="61" t="s">
+      <c r="K18" s="55" t="s">
         <v>764</v>
       </c>
-      <c r="L18" s="61"/>
+      <c r="L18" s="55"/>
       <c r="M18" s="15" t="s">
         <v>1</v>
       </c>
@@ -5530,38 +5486,38 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="54" t="s">
         <v>751</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="55" t="s">
         <v>755</v>
       </c>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="55" t="s">
         <v>760</v>
       </c>
-      <c r="D19" s="61" t="s">
-        <v>734</v>
-      </c>
-      <c r="E19" s="61" t="s">
-        <v>659</v>
-      </c>
-      <c r="F19" s="61" t="s">
+      <c r="D19" s="55" t="s">
+        <v>734</v>
+      </c>
+      <c r="E19" s="55" t="s">
+        <v>659</v>
+      </c>
+      <c r="F19" s="55" t="s">
         <v>189</v>
       </c>
-      <c r="G19" s="61" t="s">
+      <c r="G19" s="55" t="s">
         <v>761</v>
       </c>
-      <c r="H19" s="61" t="s">
-        <v>821</v>
-      </c>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61" t="s">
+      <c r="H19" s="55" t="s">
+        <v>820</v>
+      </c>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55" t="s">
         <v>762</v>
       </c>
-      <c r="K19" s="61" t="s">
+      <c r="K19" s="55" t="s">
         <v>764</v>
       </c>
-      <c r="L19" s="61"/>
+      <c r="L19" s="55"/>
       <c r="M19" s="15" t="s">
         <v>1</v>
       </c>
@@ -5592,10 +5548,10 @@
         <v>189</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I20" s="20"/>
       <c r="J20" s="20" t="s">
@@ -5637,10 +5593,10 @@
         <v>189</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I21" s="20"/>
       <c r="J21" s="20" t="s">
@@ -5682,10 +5638,10 @@
         <v>189</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I22" s="20"/>
       <c r="J22" s="20" t="s">
@@ -5727,10 +5683,10 @@
         <v>189</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I23" s="23"/>
       <c r="J23" s="23" t="s">
@@ -5772,10 +5728,10 @@
         <v>189</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I24" s="23"/>
       <c r="J24" s="23" t="s">
@@ -5817,10 +5773,10 @@
         <v>189</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I25" s="20"/>
       <c r="J25" s="23" t="s">
@@ -5862,10 +5818,10 @@
         <v>189</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I26" s="23"/>
       <c r="J26" s="23" t="s">
@@ -5907,10 +5863,10 @@
         <v>189</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I27" s="23"/>
       <c r="J27" s="23" t="s">
@@ -5952,10 +5908,10 @@
         <v>189</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I28" s="23"/>
       <c r="J28" s="23" t="s">
@@ -6000,7 +5956,7 @@
         <v>538</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="7" t="s">
@@ -6045,7 +6001,7 @@
         <v>538</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="7" t="s">
@@ -6090,7 +6046,7 @@
         <v>538</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I31" s="7"/>
       <c r="J31" s="7" t="s">
@@ -6135,7 +6091,7 @@
         <v>538</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="7" t="s">
@@ -6180,7 +6136,7 @@
         <v>538</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I33" s="7"/>
       <c r="J33" s="7" t="s">
@@ -6225,7 +6181,7 @@
         <v>538</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I34" s="7"/>
       <c r="J34" s="7" t="s">
@@ -6270,7 +6226,7 @@
         <v>538</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I35" s="7"/>
       <c r="J35" s="7" t="s">
@@ -6315,7 +6271,7 @@
         <v>538</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="7" t="s">
@@ -6360,7 +6316,7 @@
         <v>538</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7" t="s">
@@ -6405,7 +6361,7 @@
         <v>538</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="7" t="s">
@@ -6450,7 +6406,7 @@
         <v>538</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="7" t="s">
@@ -6495,7 +6451,7 @@
         <v>538</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
@@ -6538,7 +6494,7 @@
         <v>538</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
@@ -6583,7 +6539,7 @@
         <v>538</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
@@ -6628,7 +6584,7 @@
         <v>538</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
@@ -6673,7 +6629,7 @@
         <v>538</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
@@ -6718,7 +6674,7 @@
         <v>538</v>
       </c>
       <c r="H45" s="28" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I45" s="28"/>
       <c r="J45" s="7" t="s">
@@ -6763,7 +6719,7 @@
         <v>538</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="7" t="s">
@@ -6808,7 +6764,7 @@
         <v>538</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I47" s="7"/>
       <c r="J47" s="7" t="s">
@@ -6853,7 +6809,7 @@
         <v>538</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I48" s="7"/>
       <c r="J48" s="7" t="s">
@@ -6898,7 +6854,7 @@
         <v>538</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="7" t="s">
@@ -6943,7 +6899,7 @@
         <v>538</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I50" s="7"/>
       <c r="J50" s="7" t="s">
@@ -6988,7 +6944,7 @@
         <v>538</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I51" s="7"/>
       <c r="J51" s="7" t="s">
@@ -7033,7 +6989,7 @@
         <v>538</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I52" s="7"/>
       <c r="J52" s="7" t="s">
@@ -7078,7 +7034,7 @@
         <v>538</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I53" s="7"/>
       <c r="J53" s="7" t="s">
@@ -7123,7 +7079,7 @@
         <v>538</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I54" s="7"/>
       <c r="J54" s="7" t="s">
@@ -7168,7 +7124,7 @@
         <v>538</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I55" s="7"/>
       <c r="J55" s="7" t="s">
@@ -7213,7 +7169,7 @@
         <v>538</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I56" s="7"/>
       <c r="J56" s="7" t="s">
@@ -7258,19 +7214,19 @@
         <v>538</v>
       </c>
       <c r="H57" s="31" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I57" s="31"/>
       <c r="J57" s="31" t="s">
         <v>401</v>
       </c>
-      <c r="K57" s="56" t="s">
+      <c r="K57" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="L57" s="56" t="s">
+      <c r="L57" s="50" t="s">
         <v>620</v>
       </c>
-      <c r="M57" s="56" t="s">
+      <c r="M57" s="50" t="s">
         <v>718</v>
       </c>
       <c r="N57" s="13" t="s">
@@ -7303,25 +7259,25 @@
         <v>538</v>
       </c>
       <c r="H58" s="31" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I58" s="31"/>
       <c r="J58" s="31" t="s">
         <v>401</v>
       </c>
-      <c r="K58" s="56" t="s">
+      <c r="K58" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="L58" s="56" t="s">
+      <c r="L58" s="50" t="s">
         <v>620</v>
       </c>
-      <c r="M58" s="56" t="s">
+      <c r="M58" s="50" t="s">
         <v>719</v>
       </c>
       <c r="N58" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="O58" s="56" t="s">
+      <c r="O58" s="50" t="s">
         <v>726</v>
       </c>
     </row>
@@ -7348,25 +7304,25 @@
         <v>538</v>
       </c>
       <c r="H59" s="31" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I59" s="31"/>
       <c r="J59" s="31" t="s">
         <v>401</v>
       </c>
-      <c r="K59" s="56" t="s">
+      <c r="K59" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="L59" s="56" t="s">
+      <c r="L59" s="50" t="s">
         <v>620</v>
       </c>
-      <c r="M59" s="56" t="s">
+      <c r="M59" s="50" t="s">
         <v>1</v>
       </c>
       <c r="N59" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="O59" s="56" t="s">
+      <c r="O59" s="50" t="s">
         <v>1</v>
       </c>
     </row>
@@ -7393,25 +7349,25 @@
         <v>538</v>
       </c>
       <c r="H60" s="31" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I60" s="31"/>
       <c r="J60" s="31" t="s">
         <v>401</v>
       </c>
-      <c r="K60" s="56" t="s">
+      <c r="K60" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="L60" s="56" t="s">
+      <c r="L60" s="50" t="s">
         <v>620</v>
       </c>
-      <c r="M60" s="56" t="s">
+      <c r="M60" s="50" t="s">
         <v>1</v>
       </c>
       <c r="N60" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="O60" s="56" t="s">
+      <c r="O60" s="50" t="s">
         <v>727</v>
       </c>
     </row>
@@ -7438,25 +7394,25 @@
         <v>538</v>
       </c>
       <c r="H61" s="31" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I61" s="31"/>
       <c r="J61" s="31" t="s">
         <v>401</v>
       </c>
-      <c r="K61" s="56" t="s">
+      <c r="K61" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="L61" s="56" t="s">
+      <c r="L61" s="50" t="s">
         <v>621</v>
       </c>
-      <c r="M61" s="57">
+      <c r="M61" s="51">
         <v>25008</v>
       </c>
       <c r="N61" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="O61" s="56" t="s">
+      <c r="O61" s="50" t="s">
         <v>728</v>
       </c>
     </row>
@@ -7483,25 +7439,25 @@
         <v>538</v>
       </c>
       <c r="H62" s="31" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I62" s="31"/>
       <c r="J62" s="31" t="s">
         <v>401</v>
       </c>
-      <c r="K62" s="56" t="s">
+      <c r="K62" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="L62" s="56" t="s">
+      <c r="L62" s="50" t="s">
         <v>621</v>
       </c>
-      <c r="M62" s="56" t="s">
+      <c r="M62" s="50" t="s">
         <v>722</v>
       </c>
       <c r="N62" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="O62" s="56" t="s">
+      <c r="O62" s="50" t="s">
         <v>1</v>
       </c>
     </row>
@@ -7528,25 +7484,25 @@
         <v>538</v>
       </c>
       <c r="H63" s="31" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I63" s="31"/>
       <c r="J63" s="31" t="s">
         <v>401</v>
       </c>
-      <c r="K63" s="56" t="s">
+      <c r="K63" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="L63" s="56" t="s">
+      <c r="L63" s="50" t="s">
         <v>620</v>
       </c>
-      <c r="M63" s="56" t="s">
+      <c r="M63" s="50" t="s">
         <v>725</v>
       </c>
       <c r="N63" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="O63" s="56" t="s">
+      <c r="O63" s="50" t="s">
         <v>1</v>
       </c>
     </row>
@@ -7573,7 +7529,7 @@
         <v>539</v>
       </c>
       <c r="H64" s="34" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I64" s="24"/>
       <c r="J64" s="24" t="s">
@@ -7618,7 +7574,7 @@
         <v>539</v>
       </c>
       <c r="H65" s="34" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I65" s="34"/>
       <c r="J65" s="34" t="s">
@@ -7663,7 +7619,7 @@
         <v>539</v>
       </c>
       <c r="H66" s="34" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I66" s="34"/>
       <c r="J66" s="34" t="s">
@@ -7708,7 +7664,7 @@
         <v>539</v>
       </c>
       <c r="H67" s="34" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I67" s="34"/>
       <c r="J67" s="34" t="s">
@@ -7753,7 +7709,7 @@
         <v>539</v>
       </c>
       <c r="H68" s="34" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I68" s="34"/>
       <c r="J68" s="34" t="s">
@@ -7798,7 +7754,7 @@
         <v>539</v>
       </c>
       <c r="H69" s="34" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I69" s="34"/>
       <c r="J69" s="34" t="s">
@@ -7843,7 +7799,7 @@
         <v>539</v>
       </c>
       <c r="H70" s="34" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I70" s="34"/>
       <c r="J70" s="34" t="s">
@@ -7888,7 +7844,7 @@
         <v>539</v>
       </c>
       <c r="H71" s="34" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I71" s="34"/>
       <c r="J71" s="34" t="s">
@@ -7933,7 +7889,7 @@
         <v>539</v>
       </c>
       <c r="H72" s="34" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I72" s="34"/>
       <c r="J72" s="34" t="s">
@@ -7978,7 +7934,7 @@
         <v>539</v>
       </c>
       <c r="H73" s="34" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I73" s="34"/>
       <c r="J73" s="34" t="s">
@@ -8023,7 +7979,7 @@
         <v>539</v>
       </c>
       <c r="H74" s="34" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I74" s="34"/>
       <c r="J74" s="34" t="s">
@@ -8035,70 +7991,70 @@
       <c r="L74" s="29" t="s">
         <v>621</v>
       </c>
-      <c r="M74" s="56" t="s">
+      <c r="M74" s="50" t="s">
         <v>724</v>
       </c>
       <c r="N74" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="O74" s="56" t="s">
+      <c r="O74" s="50" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="B75" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="C75" s="36" t="s">
-        <v>356</v>
-      </c>
-      <c r="D75" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="E75" s="36" t="s">
-        <v>659</v>
-      </c>
-      <c r="F75" s="36" t="s">
+      <c r="A75" s="33" t="s">
+        <v>803</v>
+      </c>
+      <c r="B75" s="34" t="s">
+        <v>802</v>
+      </c>
+      <c r="C75" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="D75" s="34" t="s">
+        <v>734</v>
+      </c>
+      <c r="E75" s="34" t="s">
+        <v>659</v>
+      </c>
+      <c r="F75" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="G75" s="36" t="s">
-        <v>467</v>
-      </c>
-      <c r="H75" s="36" t="s">
-        <v>821</v>
-      </c>
-      <c r="I75" s="36"/>
-      <c r="J75" s="36" t="s">
-        <v>506</v>
-      </c>
-      <c r="K75" s="36" t="s">
+      <c r="G75" s="34" t="s">
+        <v>539</v>
+      </c>
+      <c r="H75" s="34" t="s">
+        <v>820</v>
+      </c>
+      <c r="I75" s="58"/>
+      <c r="J75" s="58" t="s">
+        <v>801</v>
+      </c>
+      <c r="K75" s="58" t="s">
         <v>617</v>
       </c>
-      <c r="L75" s="36" t="s">
-        <v>615</v>
-      </c>
-      <c r="M75" s="15" t="s">
-        <v>1</v>
+      <c r="L75" s="58" t="s">
+        <v>617</v>
+      </c>
+      <c r="M75" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="N75" s="13" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O75" s="16" t="s">
-        <v>357</v>
+        <v>180</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="35" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="B76" s="36" t="s">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="C76" s="36" t="s">
-        <v>424</v>
+        <v>356</v>
       </c>
       <c r="D76" s="36" t="s">
         <v>734</v>
@@ -8113,11 +8069,11 @@
         <v>467</v>
       </c>
       <c r="H76" s="36" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I76" s="36"/>
       <c r="J76" s="36" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K76" s="36" t="s">
         <v>617</v>
@@ -8126,24 +8082,24 @@
         <v>615</v>
       </c>
       <c r="M76" s="15" t="s">
-        <v>425</v>
+        <v>1</v>
       </c>
       <c r="N76" s="13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O76" s="16" t="s">
-        <v>169</v>
+        <v>357</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="35" t="s">
-        <v>226</v>
+        <v>265</v>
       </c>
       <c r="B77" s="36" t="s">
-        <v>107</v>
+        <v>168</v>
       </c>
       <c r="C77" s="36" t="s">
-        <v>351</v>
+        <v>424</v>
       </c>
       <c r="D77" s="36" t="s">
         <v>734</v>
@@ -8158,11 +8114,11 @@
         <v>467</v>
       </c>
       <c r="H77" s="36" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I77" s="36"/>
       <c r="J77" s="36" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K77" s="36" t="s">
         <v>617</v>
@@ -8171,24 +8127,24 @@
         <v>615</v>
       </c>
       <c r="M77" s="15" t="s">
-        <v>352</v>
+        <v>425</v>
       </c>
       <c r="N77" s="13" t="s">
         <v>472</v>
       </c>
       <c r="O77" s="16" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="35" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B78" s="36" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C78" s="36" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="D78" s="36" t="s">
         <v>734</v>
@@ -8203,37 +8159,37 @@
         <v>467</v>
       </c>
       <c r="H78" s="36" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I78" s="36"/>
       <c r="J78" s="36" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K78" s="36" t="s">
         <v>617</v>
       </c>
       <c r="L78" s="36" t="s">
-        <v>639</v>
+        <v>615</v>
       </c>
       <c r="M78" s="15" t="s">
-        <v>1</v>
+        <v>352</v>
       </c>
       <c r="N78" s="13" t="s">
         <v>472</v>
       </c>
       <c r="O78" s="16" t="s">
-        <v>368</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="35" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B79" s="36" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C79" s="36" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="D79" s="36" t="s">
         <v>734</v>
@@ -8248,11 +8204,11 @@
         <v>467</v>
       </c>
       <c r="H79" s="36" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I79" s="36"/>
       <c r="J79" s="36" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K79" s="36" t="s">
         <v>617</v>
@@ -8261,24 +8217,24 @@
         <v>639</v>
       </c>
       <c r="M79" s="15" t="s">
-        <v>355</v>
+        <v>1</v>
       </c>
       <c r="N79" s="13" t="s">
         <v>472</v>
       </c>
       <c r="O79" s="16" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="35" t="s">
-        <v>635</v>
+        <v>227</v>
       </c>
       <c r="B80" s="36" t="s">
-        <v>634</v>
+        <v>108</v>
       </c>
       <c r="C80" s="36" t="s">
-        <v>637</v>
+        <v>353</v>
       </c>
       <c r="D80" s="36" t="s">
         <v>734</v>
@@ -8293,241 +8249,241 @@
         <v>467</v>
       </c>
       <c r="H80" s="36" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I80" s="36"/>
       <c r="J80" s="36" t="s">
-        <v>617</v>
+        <v>510</v>
       </c>
       <c r="K80" s="36" t="s">
         <v>617</v>
       </c>
       <c r="L80" s="36" t="s">
+        <v>639</v>
+      </c>
+      <c r="M80" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="N80" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="O80" s="16" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="35" t="s">
+        <v>635</v>
+      </c>
+      <c r="B81" s="36" t="s">
+        <v>634</v>
+      </c>
+      <c r="C81" s="36" t="s">
+        <v>637</v>
+      </c>
+      <c r="D81" s="36" t="s">
+        <v>734</v>
+      </c>
+      <c r="E81" s="36" t="s">
+        <v>659</v>
+      </c>
+      <c r="F81" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="G81" s="36" t="s">
+        <v>467</v>
+      </c>
+      <c r="H81" s="36" t="s">
+        <v>820</v>
+      </c>
+      <c r="I81" s="36"/>
+      <c r="J81" s="36" t="s">
         <v>617</v>
       </c>
-      <c r="M80" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="N80" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="O80" s="16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="38" t="s">
+      <c r="K81" s="36" t="s">
+        <v>617</v>
+      </c>
+      <c r="L81" s="36" t="s">
+        <v>617</v>
+      </c>
+      <c r="M81" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N81" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O81" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="37" t="s">
         <v>241</v>
       </c>
-      <c r="B81" s="39" t="s">
+      <c r="B82" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="C81" s="39" t="s">
+      <c r="C82" s="38" t="s">
         <v>384</v>
       </c>
-      <c r="D81" s="39" t="s">
-        <v>734</v>
-      </c>
-      <c r="E81" s="39" t="s">
-        <v>659</v>
-      </c>
-      <c r="F81" s="39" t="s">
+      <c r="D82" s="38" t="s">
+        <v>734</v>
+      </c>
+      <c r="E82" s="38" t="s">
+        <v>659</v>
+      </c>
+      <c r="F82" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="G81" s="39" t="s">
+      <c r="G82" s="38" t="s">
         <v>468</v>
       </c>
-      <c r="H81" s="39" t="s">
-        <v>821</v>
-      </c>
-      <c r="I81" s="39"/>
-      <c r="J81" s="39" t="s">
+      <c r="H82" s="38" t="s">
+        <v>820</v>
+      </c>
+      <c r="I82" s="38"/>
+      <c r="J82" s="38" t="s">
         <v>617</v>
       </c>
-      <c r="K81" s="39" t="s">
+      <c r="K82" s="38" t="s">
         <v>617</v>
       </c>
-      <c r="L81" s="39" t="s">
+      <c r="L82" s="38" t="s">
         <v>639</v>
       </c>
-      <c r="M81" s="15" t="s">
+      <c r="M82" s="15" t="s">
         <v>386</v>
       </c>
-      <c r="N81" s="13" t="s">
+      <c r="N82" s="13" t="s">
         <v>474</v>
       </c>
-      <c r="O81" s="16" t="s">
+      <c r="O82" s="16" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="38" t="s">
+    <row r="83" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A83" s="37" t="s">
         <v>267</v>
       </c>
-      <c r="B82" s="39" t="s">
+      <c r="B83" s="38" t="s">
         <v>428</v>
       </c>
-      <c r="C82" s="39" t="s">
+      <c r="C83" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="D82" s="39" t="s">
-        <v>734</v>
-      </c>
-      <c r="E82" s="39" t="s">
-        <v>659</v>
-      </c>
-      <c r="F82" s="39" t="s">
+      <c r="D83" s="38" t="s">
+        <v>734</v>
+      </c>
+      <c r="E83" s="38" t="s">
+        <v>659</v>
+      </c>
+      <c r="F83" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="G82" s="39" t="s">
+      <c r="G83" s="38" t="s">
         <v>468</v>
       </c>
-      <c r="H82" s="39" t="s">
-        <v>821</v>
-      </c>
-      <c r="I82" s="39"/>
-      <c r="J82" s="39" t="s">
+      <c r="H83" s="38" t="s">
+        <v>820</v>
+      </c>
+      <c r="I83" s="38"/>
+      <c r="J83" s="38" t="s">
         <v>638</v>
       </c>
-      <c r="K82" s="39" t="s">
+      <c r="K83" s="38" t="s">
         <v>638</v>
       </c>
-      <c r="L82" s="39" t="s">
+      <c r="L83" s="38" t="s">
         <v>639</v>
       </c>
-      <c r="M82" s="15" t="s">
+      <c r="M83" s="15" t="s">
         <v>430</v>
-      </c>
-      <c r="N82" s="13" t="s">
-        <v>471</v>
-      </c>
-      <c r="O82" s="16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A83" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="B83" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="C83" s="39" t="s">
-        <v>370</v>
-      </c>
-      <c r="D83" s="39" t="s">
-        <v>734</v>
-      </c>
-      <c r="E83" s="39" t="s">
-        <v>659</v>
-      </c>
-      <c r="F83" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="G83" s="39" t="s">
-        <v>468</v>
-      </c>
-      <c r="H83" s="39" t="s">
-        <v>821</v>
-      </c>
-      <c r="I83" s="39"/>
-      <c r="J83" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="K83" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="L83" s="39" t="s">
-        <v>639</v>
-      </c>
-      <c r="M83" s="15" t="s">
-        <v>371</v>
       </c>
       <c r="N83" s="13" t="s">
         <v>471</v>
       </c>
       <c r="O83" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A84" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="B84" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="C84" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="D84" s="38" t="s">
+        <v>734</v>
+      </c>
+      <c r="E84" s="38" t="s">
+        <v>659</v>
+      </c>
+      <c r="F84" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="G84" s="38" t="s">
+        <v>468</v>
+      </c>
+      <c r="H84" s="38" t="s">
+        <v>820</v>
+      </c>
+      <c r="I84" s="38"/>
+      <c r="J84" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="K84" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="L84" s="38" t="s">
+        <v>639</v>
+      </c>
+      <c r="M84" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="N84" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="O84" s="16" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A84" s="70" t="s">
-        <v>804</v>
-      </c>
-      <c r="B84" s="69" t="s">
-        <v>803</v>
-      </c>
-      <c r="C84" s="69" t="s">
-        <v>436</v>
-      </c>
-      <c r="D84" s="69" t="s">
-        <v>734</v>
-      </c>
-      <c r="E84" s="69" t="s">
-        <v>659</v>
-      </c>
-      <c r="F84" s="69" t="s">
+    <row r="85" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A85" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B85" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="C85" s="40" t="s">
+        <v>459</v>
+      </c>
+      <c r="D85" s="40" t="s">
+        <v>734</v>
+      </c>
+      <c r="E85" s="40" t="s">
+        <v>659</v>
+      </c>
+      <c r="F85" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="G84" s="69" t="s">
-        <v>801</v>
-      </c>
-      <c r="H84" s="69" t="s">
+      <c r="G85" s="40" t="s">
         <v>821</v>
       </c>
-      <c r="I84" s="69"/>
-      <c r="J84" s="69" t="s">
-        <v>802</v>
-      </c>
-      <c r="K84" s="69" t="s">
-        <v>617</v>
-      </c>
-      <c r="L84" s="69" t="s">
-        <v>617</v>
-      </c>
-      <c r="M84" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="N84" s="13" t="s">
-        <v>472</v>
-      </c>
-      <c r="O84" s="16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A85" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B85" s="41" t="s">
-        <v>187</v>
-      </c>
-      <c r="C85" s="41" t="s">
-        <v>459</v>
-      </c>
-      <c r="D85" s="41" t="s">
-        <v>734</v>
-      </c>
-      <c r="E85" s="41" t="s">
-        <v>659</v>
-      </c>
-      <c r="F85" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="G85" s="41" t="s">
-        <v>579</v>
-      </c>
-      <c r="H85" s="41" t="s">
-        <v>821</v>
-      </c>
-      <c r="I85" s="41"/>
-      <c r="J85" s="41" t="s">
+      <c r="H85" s="40" t="s">
+        <v>820</v>
+      </c>
+      <c r="I85" s="40"/>
+      <c r="J85" s="40" t="s">
         <v>515</v>
       </c>
-      <c r="K85" s="42" t="s">
+      <c r="K85" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="L85" s="42" t="s">
+      <c r="L85" s="40" t="s">
         <v>620</v>
       </c>
       <c r="M85" s="16" t="s">
@@ -8541,38 +8497,38 @@
       </c>
     </row>
     <row r="86" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A86" s="40" t="s">
+      <c r="A86" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B86" s="41" t="s">
+      <c r="B86" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="C86" s="41" t="s">
+      <c r="C86" s="40" t="s">
         <v>461</v>
       </c>
-      <c r="D86" s="41" t="s">
-        <v>734</v>
-      </c>
-      <c r="E86" s="41" t="s">
-        <v>659</v>
-      </c>
-      <c r="F86" s="41" t="s">
+      <c r="D86" s="40" t="s">
+        <v>734</v>
+      </c>
+      <c r="E86" s="40" t="s">
+        <v>659</v>
+      </c>
+      <c r="F86" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="G86" s="41" t="s">
-        <v>579</v>
-      </c>
-      <c r="H86" s="41" t="s">
+      <c r="G86" s="40" t="s">
         <v>821</v>
       </c>
-      <c r="I86" s="41"/>
-      <c r="J86" s="41" t="s">
+      <c r="H86" s="40" t="s">
+        <v>820</v>
+      </c>
+      <c r="I86" s="40"/>
+      <c r="J86" s="40" t="s">
         <v>516</v>
       </c>
-      <c r="K86" s="42" t="s">
+      <c r="K86" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="L86" s="42" t="s">
+      <c r="L86" s="40" t="s">
         <v>621</v>
       </c>
       <c r="M86" s="15" t="s">
@@ -8586,38 +8542,38 @@
       </c>
     </row>
     <row r="87" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A87" s="40" t="s">
+      <c r="A87" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="B87" s="41" t="s">
+      <c r="B87" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="C87" s="41" t="s">
+      <c r="C87" s="40" t="s">
         <v>417</v>
       </c>
-      <c r="D87" s="41" t="s">
-        <v>734</v>
-      </c>
-      <c r="E87" s="41" t="s">
-        <v>659</v>
-      </c>
-      <c r="F87" s="41" t="s">
+      <c r="D87" s="40" t="s">
+        <v>734</v>
+      </c>
+      <c r="E87" s="40" t="s">
+        <v>659</v>
+      </c>
+      <c r="F87" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="G87" s="41" t="s">
-        <v>579</v>
-      </c>
-      <c r="H87" s="41" t="s">
+      <c r="G87" s="40" t="s">
         <v>821</v>
       </c>
-      <c r="I87" s="41"/>
-      <c r="J87" s="41" t="s">
+      <c r="H87" s="40" t="s">
+        <v>820</v>
+      </c>
+      <c r="I87" s="40"/>
+      <c r="J87" s="40" t="s">
         <v>515</v>
       </c>
-      <c r="K87" s="42" t="s">
+      <c r="K87" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="L87" s="42" t="s">
+      <c r="L87" s="40" t="s">
         <v>620</v>
       </c>
       <c r="M87" s="15" t="s">
@@ -8631,38 +8587,38 @@
       </c>
     </row>
     <row r="88" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A88" s="40" t="s">
+      <c r="A88" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="B88" s="41" t="s">
+      <c r="B88" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="C88" s="41" t="s">
+      <c r="C88" s="40" t="s">
         <v>313</v>
       </c>
-      <c r="D88" s="41" t="s">
-        <v>734</v>
-      </c>
-      <c r="E88" s="41" t="s">
-        <v>659</v>
-      </c>
-      <c r="F88" s="41" t="s">
+      <c r="D88" s="40" t="s">
+        <v>734</v>
+      </c>
+      <c r="E88" s="40" t="s">
+        <v>659</v>
+      </c>
+      <c r="F88" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="G88" s="41" t="s">
-        <v>579</v>
-      </c>
-      <c r="H88" s="41" t="s">
+      <c r="G88" s="40" t="s">
         <v>821</v>
       </c>
-      <c r="I88" s="41"/>
-      <c r="J88" s="41" t="s">
+      <c r="H88" s="40" t="s">
+        <v>820</v>
+      </c>
+      <c r="I88" s="40"/>
+      <c r="J88" s="40" t="s">
         <v>640</v>
       </c>
-      <c r="K88" s="42" t="s">
+      <c r="K88" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="L88" s="42" t="s">
+      <c r="L88" s="40" t="s">
         <v>612</v>
       </c>
       <c r="M88" s="15" t="s">
@@ -8676,38 +8632,38 @@
       </c>
     </row>
     <row r="89" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="40" t="s">
+      <c r="A89" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="B89" s="41" t="s">
+      <c r="B89" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="C89" s="41" t="s">
+      <c r="C89" s="40" t="s">
         <v>361</v>
       </c>
-      <c r="D89" s="41" t="s">
-        <v>734</v>
-      </c>
-      <c r="E89" s="41" t="s">
-        <v>659</v>
-      </c>
-      <c r="F89" s="41" t="s">
+      <c r="D89" s="40" t="s">
+        <v>734</v>
+      </c>
+      <c r="E89" s="40" t="s">
+        <v>659</v>
+      </c>
+      <c r="F89" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="G89" s="41" t="s">
-        <v>579</v>
-      </c>
-      <c r="H89" s="41" t="s">
+      <c r="G89" s="40" t="s">
         <v>821</v>
       </c>
-      <c r="I89" s="41"/>
-      <c r="J89" s="41" t="s">
+      <c r="H89" s="40" t="s">
+        <v>820</v>
+      </c>
+      <c r="I89" s="40"/>
+      <c r="J89" s="40" t="s">
         <v>515</v>
       </c>
-      <c r="K89" s="42" t="s">
+      <c r="K89" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="L89" s="42" t="s">
+      <c r="L89" s="40" t="s">
         <v>612</v>
       </c>
       <c r="M89" s="15" t="s">
@@ -8721,38 +8677,38 @@
       </c>
     </row>
     <row r="90" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="40" t="s">
+      <c r="A90" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="B90" s="41" t="s">
+      <c r="B90" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="C90" s="41" t="s">
+      <c r="C90" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="D90" s="41" t="s">
-        <v>734</v>
-      </c>
-      <c r="E90" s="41" t="s">
-        <v>659</v>
-      </c>
-      <c r="F90" s="41" t="s">
+      <c r="D90" s="40" t="s">
+        <v>734</v>
+      </c>
+      <c r="E90" s="40" t="s">
+        <v>659</v>
+      </c>
+      <c r="F90" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="G90" s="41" t="s">
-        <v>579</v>
-      </c>
-      <c r="H90" s="41" t="s">
+      <c r="G90" s="40" t="s">
         <v>821</v>
       </c>
-      <c r="I90" s="41"/>
-      <c r="J90" s="41" t="s">
+      <c r="H90" s="40" t="s">
+        <v>820</v>
+      </c>
+      <c r="I90" s="40"/>
+      <c r="J90" s="40" t="s">
         <v>515</v>
       </c>
-      <c r="K90" s="42" t="s">
+      <c r="K90" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="L90" s="42" t="s">
+      <c r="L90" s="40" t="s">
         <v>641</v>
       </c>
       <c r="M90" s="15" t="s">
@@ -8766,38 +8722,38 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="40" t="s">
+      <c r="A91" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="B91" s="41" t="s">
+      <c r="B91" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="C91" s="41" t="s">
+      <c r="C91" s="40" t="s">
         <v>456</v>
       </c>
-      <c r="D91" s="41" t="s">
-        <v>734</v>
-      </c>
-      <c r="E91" s="41" t="s">
-        <v>659</v>
-      </c>
-      <c r="F91" s="41" t="s">
+      <c r="D91" s="40" t="s">
+        <v>734</v>
+      </c>
+      <c r="E91" s="40" t="s">
+        <v>659</v>
+      </c>
+      <c r="F91" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="G91" s="41" t="s">
-        <v>579</v>
-      </c>
-      <c r="H91" s="41" t="s">
+      <c r="G91" s="40" t="s">
         <v>821</v>
       </c>
-      <c r="I91" s="41"/>
-      <c r="J91" s="41" t="s">
+      <c r="H91" s="40" t="s">
+        <v>820</v>
+      </c>
+      <c r="I91" s="40"/>
+      <c r="J91" s="40" t="s">
         <v>618</v>
       </c>
-      <c r="K91" s="42" t="s">
+      <c r="K91" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="L91" s="42" t="s">
+      <c r="L91" s="40" t="s">
         <v>620</v>
       </c>
       <c r="M91" s="15" t="s">
@@ -8811,38 +8767,38 @@
       </c>
     </row>
     <row r="92" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="40" t="s">
+      <c r="A92" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="B92" s="41" t="s">
+      <c r="B92" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="C92" s="41" t="s">
+      <c r="C92" s="40" t="s">
         <v>372</v>
       </c>
-      <c r="D92" s="41" t="s">
-        <v>734</v>
-      </c>
-      <c r="E92" s="41" t="s">
-        <v>659</v>
-      </c>
-      <c r="F92" s="41" t="s">
+      <c r="D92" s="40" t="s">
+        <v>734</v>
+      </c>
+      <c r="E92" s="40" t="s">
+        <v>659</v>
+      </c>
+      <c r="F92" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="G92" s="41" t="s">
-        <v>579</v>
-      </c>
-      <c r="H92" s="41" t="s">
+      <c r="G92" s="40" t="s">
         <v>821</v>
       </c>
-      <c r="I92" s="41"/>
-      <c r="J92" s="41" t="s">
+      <c r="H92" s="40" t="s">
+        <v>820</v>
+      </c>
+      <c r="I92" s="40"/>
+      <c r="J92" s="40" t="s">
         <v>558</v>
       </c>
-      <c r="K92" s="42" t="s">
+      <c r="K92" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="L92" s="42" t="s">
+      <c r="L92" s="40" t="s">
         <v>612</v>
       </c>
       <c r="M92" s="15" t="s">
@@ -8856,38 +8812,38 @@
       </c>
     </row>
     <row r="93" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A93" s="40" t="s">
+      <c r="A93" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="B93" s="41" t="s">
+      <c r="B93" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="C93" s="41" t="s">
+      <c r="C93" s="40" t="s">
         <v>359</v>
       </c>
-      <c r="D93" s="41" t="s">
-        <v>734</v>
-      </c>
-      <c r="E93" s="41" t="s">
-        <v>659</v>
-      </c>
-      <c r="F93" s="41" t="s">
+      <c r="D93" s="40" t="s">
+        <v>734</v>
+      </c>
+      <c r="E93" s="40" t="s">
+        <v>659</v>
+      </c>
+      <c r="F93" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="G93" s="41" t="s">
-        <v>579</v>
-      </c>
-      <c r="H93" s="41" t="s">
+      <c r="G93" s="40" t="s">
         <v>821</v>
       </c>
-      <c r="I93" s="41"/>
-      <c r="J93" s="41" t="s">
+      <c r="H93" s="40" t="s">
+        <v>820</v>
+      </c>
+      <c r="I93" s="40"/>
+      <c r="J93" s="40" t="s">
         <v>515</v>
       </c>
-      <c r="K93" s="42" t="s">
+      <c r="K93" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="L93" s="42" t="s">
+      <c r="L93" s="40" t="s">
         <v>612</v>
       </c>
       <c r="M93" s="15" t="s">
@@ -8901,38 +8857,38 @@
       </c>
     </row>
     <row r="94" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A94" s="40" t="s">
+      <c r="A94" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="B94" s="41" t="s">
+      <c r="B94" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C94" s="41" t="s">
+      <c r="C94" s="40" t="s">
         <v>294</v>
       </c>
-      <c r="D94" s="41" t="s">
-        <v>734</v>
-      </c>
-      <c r="E94" s="41" t="s">
-        <v>659</v>
-      </c>
-      <c r="F94" s="41" t="s">
+      <c r="D94" s="40" t="s">
+        <v>734</v>
+      </c>
+      <c r="E94" s="40" t="s">
+        <v>659</v>
+      </c>
+      <c r="F94" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="G94" s="41" t="s">
-        <v>579</v>
-      </c>
-      <c r="H94" s="41" t="s">
+      <c r="G94" s="40" t="s">
         <v>821</v>
       </c>
-      <c r="I94" s="41"/>
-      <c r="J94" s="41" t="s">
+      <c r="H94" s="40" t="s">
+        <v>820</v>
+      </c>
+      <c r="I94" s="40"/>
+      <c r="J94" s="40" t="s">
         <v>619</v>
       </c>
-      <c r="K94" s="42" t="s">
+      <c r="K94" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="L94" s="42" t="s">
+      <c r="L94" s="40" t="s">
         <v>621</v>
       </c>
       <c r="M94" s="15" t="s">
@@ -8941,43 +8897,43 @@
       <c r="N94" s="13" t="s">
         <v>471</v>
       </c>
-      <c r="O94" s="43" t="s">
+      <c r="O94" s="42" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A95" s="40" t="s">
+      <c r="A95" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B95" s="41" t="s">
+      <c r="B95" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="C95" s="41" t="s">
+      <c r="C95" s="40" t="s">
         <v>464</v>
       </c>
-      <c r="D95" s="41" t="s">
-        <v>734</v>
-      </c>
-      <c r="E95" s="41" t="s">
-        <v>659</v>
-      </c>
-      <c r="F95" s="41" t="s">
+      <c r="D95" s="40" t="s">
+        <v>734</v>
+      </c>
+      <c r="E95" s="40" t="s">
+        <v>659</v>
+      </c>
+      <c r="F95" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="G95" s="41" t="s">
-        <v>579</v>
-      </c>
-      <c r="H95" s="41" t="s">
+      <c r="G95" s="40" t="s">
         <v>821</v>
       </c>
-      <c r="I95" s="41"/>
-      <c r="J95" s="41" t="s">
+      <c r="H95" s="40" t="s">
+        <v>820</v>
+      </c>
+      <c r="I95" s="40"/>
+      <c r="J95" s="40" t="s">
         <v>618</v>
       </c>
-      <c r="K95" s="42" t="s">
+      <c r="K95" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="L95" s="42" t="s">
+      <c r="L95" s="40" t="s">
         <v>620</v>
       </c>
       <c r="M95" s="15" t="s">
@@ -8991,38 +8947,38 @@
       </c>
     </row>
     <row r="96" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A96" s="40" t="s">
+      <c r="A96" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="B96" s="41" t="s">
+      <c r="B96" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C96" s="41" t="s">
+      <c r="C96" s="40" t="s">
         <v>431</v>
       </c>
-      <c r="D96" s="41" t="s">
-        <v>734</v>
-      </c>
-      <c r="E96" s="41" t="s">
-        <v>659</v>
-      </c>
-      <c r="F96" s="41" t="s">
+      <c r="D96" s="40" t="s">
+        <v>734</v>
+      </c>
+      <c r="E96" s="40" t="s">
+        <v>659</v>
+      </c>
+      <c r="F96" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="G96" s="41" t="s">
-        <v>579</v>
-      </c>
-      <c r="H96" s="41" t="s">
+      <c r="G96" s="40" t="s">
         <v>821</v>
       </c>
-      <c r="I96" s="41"/>
-      <c r="J96" s="41" t="s">
+      <c r="H96" s="40" t="s">
+        <v>820</v>
+      </c>
+      <c r="I96" s="40"/>
+      <c r="J96" s="40" t="s">
         <v>515</v>
       </c>
-      <c r="K96" s="42" t="s">
+      <c r="K96" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="L96" s="42" t="s">
+      <c r="L96" s="40" t="s">
         <v>616</v>
       </c>
       <c r="M96" s="15" t="s">
@@ -9036,38 +8992,38 @@
       </c>
     </row>
     <row r="97" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A97" s="40" t="s">
+      <c r="A97" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="B97" s="41" t="s">
+      <c r="B97" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="C97" s="41" t="s">
+      <c r="C97" s="40" t="s">
         <v>342</v>
       </c>
-      <c r="D97" s="41" t="s">
-        <v>734</v>
-      </c>
-      <c r="E97" s="41" t="s">
-        <v>659</v>
-      </c>
-      <c r="F97" s="41" t="s">
+      <c r="D97" s="40" t="s">
+        <v>734</v>
+      </c>
+      <c r="E97" s="40" t="s">
+        <v>659</v>
+      </c>
+      <c r="F97" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="G97" s="41" t="s">
-        <v>579</v>
-      </c>
-      <c r="H97" s="41" t="s">
+      <c r="G97" s="40" t="s">
         <v>821</v>
       </c>
-      <c r="I97" s="41"/>
-      <c r="J97" s="41" t="s">
+      <c r="H97" s="40" t="s">
+        <v>820</v>
+      </c>
+      <c r="I97" s="40"/>
+      <c r="J97" s="40" t="s">
         <v>515</v>
       </c>
-      <c r="K97" s="42" t="s">
+      <c r="K97" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="L97" s="42" t="s">
+      <c r="L97" s="40" t="s">
         <v>615</v>
       </c>
       <c r="M97" s="15" t="s">
@@ -9081,38 +9037,38 @@
       </c>
     </row>
     <row r="98" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A98" s="40" t="s">
+      <c r="A98" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B98" s="41" t="s">
+      <c r="B98" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="C98" s="41" t="s">
+      <c r="C98" s="40" t="s">
         <v>297</v>
       </c>
-      <c r="D98" s="41" t="s">
-        <v>734</v>
-      </c>
-      <c r="E98" s="41" t="s">
-        <v>659</v>
-      </c>
-      <c r="F98" s="41" t="s">
+      <c r="D98" s="40" t="s">
+        <v>734</v>
+      </c>
+      <c r="E98" s="40" t="s">
+        <v>659</v>
+      </c>
+      <c r="F98" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="G98" s="41" t="s">
-        <v>579</v>
-      </c>
-      <c r="H98" s="41" t="s">
+      <c r="G98" s="40" t="s">
         <v>821</v>
       </c>
-      <c r="I98" s="41"/>
-      <c r="J98" s="41" t="s">
+      <c r="H98" s="40" t="s">
+        <v>820</v>
+      </c>
+      <c r="I98" s="40"/>
+      <c r="J98" s="40" t="s">
         <v>515</v>
       </c>
-      <c r="K98" s="44" t="s">
+      <c r="K98" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="L98" s="42" t="s">
+      <c r="L98" s="40" t="s">
         <v>616</v>
       </c>
       <c r="M98" s="15" t="s">
@@ -9126,38 +9082,38 @@
       </c>
     </row>
     <row r="99" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A99" s="40" t="s">
+      <c r="A99" s="39" t="s">
         <v>257</v>
       </c>
-      <c r="B99" s="41" t="s">
+      <c r="B99" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="C99" s="41" t="s">
+      <c r="C99" s="40" t="s">
         <v>415</v>
       </c>
-      <c r="D99" s="41" t="s">
-        <v>734</v>
-      </c>
-      <c r="E99" s="41" t="s">
-        <v>659</v>
-      </c>
-      <c r="F99" s="41" t="s">
+      <c r="D99" s="40" t="s">
+        <v>734</v>
+      </c>
+      <c r="E99" s="40" t="s">
+        <v>659</v>
+      </c>
+      <c r="F99" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="G99" s="41" t="s">
-        <v>579</v>
-      </c>
-      <c r="H99" s="41" t="s">
+      <c r="G99" s="40" t="s">
         <v>821</v>
       </c>
-      <c r="I99" s="41"/>
-      <c r="J99" s="41" t="s">
+      <c r="H99" s="40" t="s">
+        <v>820</v>
+      </c>
+      <c r="I99" s="40"/>
+      <c r="J99" s="40" t="s">
         <v>515</v>
       </c>
-      <c r="K99" s="42" t="s">
+      <c r="K99" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="L99" s="42" t="s">
+      <c r="L99" s="40" t="s">
         <v>620</v>
       </c>
       <c r="M99" s="15" t="s">
@@ -9171,32 +9127,32 @@
       </c>
     </row>
     <row r="100" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A100" s="52" t="s">
+      <c r="A100" s="47" t="s">
         <v>550</v>
       </c>
-      <c r="B100" s="53" t="s">
+      <c r="B100" s="48" t="s">
         <v>553</v>
       </c>
-      <c r="C100" s="63" t="s">
+      <c r="C100" s="49" t="s">
         <v>600</v>
       </c>
-      <c r="D100" s="63" t="s">
-        <v>734</v>
-      </c>
-      <c r="E100" s="63" t="s">
-        <v>659</v>
-      </c>
-      <c r="F100" s="63" t="s">
+      <c r="D100" s="49" t="s">
+        <v>734</v>
+      </c>
+      <c r="E100" s="49" t="s">
+        <v>659</v>
+      </c>
+      <c r="F100" s="49" t="s">
         <v>479</v>
       </c>
-      <c r="G100" s="63" t="s">
+      <c r="G100" s="49" t="s">
         <v>779</v>
       </c>
-      <c r="H100" s="63" t="s">
-        <v>821</v>
-      </c>
-      <c r="I100" s="62"/>
-      <c r="J100" s="62" t="s">
+      <c r="H100" s="49" t="s">
+        <v>820</v>
+      </c>
+      <c r="I100" s="49"/>
+      <c r="J100" s="49" t="s">
         <v>558</v>
       </c>
       <c r="K100" s="14" t="s">
@@ -9216,32 +9172,32 @@
       </c>
     </row>
     <row r="101" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A101" s="52" t="s">
+      <c r="A101" s="47" t="s">
         <v>478</v>
       </c>
-      <c r="B101" s="53" t="s">
+      <c r="B101" s="48" t="s">
         <v>485</v>
       </c>
-      <c r="C101" s="62" t="s">
+      <c r="C101" s="49" t="s">
         <v>482</v>
       </c>
-      <c r="D101" s="62" t="s">
-        <v>734</v>
-      </c>
-      <c r="E101" s="63" t="s">
-        <v>659</v>
-      </c>
-      <c r="F101" s="63" t="s">
+      <c r="D101" s="49" t="s">
+        <v>734</v>
+      </c>
+      <c r="E101" s="49" t="s">
+        <v>659</v>
+      </c>
+      <c r="F101" s="49" t="s">
         <v>479</v>
       </c>
-      <c r="G101" s="63" t="s">
+      <c r="G101" s="49" t="s">
         <v>779</v>
       </c>
-      <c r="H101" s="63" t="s">
-        <v>821</v>
-      </c>
-      <c r="I101" s="62"/>
-      <c r="J101" s="62" t="s">
+      <c r="H101" s="49" t="s">
+        <v>820</v>
+      </c>
+      <c r="I101" s="49"/>
+      <c r="J101" s="49" t="s">
         <v>537</v>
       </c>
       <c r="K101" s="14" t="s">
@@ -9256,37 +9212,37 @@
       <c r="N101" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="O101" s="51" t="s">
+      <c r="O101" s="46" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A102" s="52" t="s">
+      <c r="A102" s="47" t="s">
         <v>483</v>
       </c>
-      <c r="B102" s="53" t="s">
+      <c r="B102" s="48" t="s">
         <v>480</v>
       </c>
-      <c r="C102" s="62" t="s">
+      <c r="C102" s="49" t="s">
         <v>481</v>
       </c>
-      <c r="D102" s="62" t="s">
-        <v>734</v>
-      </c>
-      <c r="E102" s="63" t="s">
-        <v>659</v>
-      </c>
-      <c r="F102" s="63" t="s">
+      <c r="D102" s="49" t="s">
+        <v>734</v>
+      </c>
+      <c r="E102" s="49" t="s">
+        <v>659</v>
+      </c>
+      <c r="F102" s="49" t="s">
         <v>479</v>
       </c>
-      <c r="G102" s="63" t="s">
+      <c r="G102" s="49" t="s">
         <v>779</v>
       </c>
-      <c r="H102" s="63" t="s">
-        <v>821</v>
-      </c>
-      <c r="I102" s="62"/>
-      <c r="J102" s="62" t="s">
+      <c r="H102" s="49" t="s">
+        <v>820</v>
+      </c>
+      <c r="I102" s="49"/>
+      <c r="J102" s="49" t="s">
         <v>535</v>
       </c>
       <c r="K102" s="14" t="s">
@@ -9301,37 +9257,37 @@
       <c r="N102" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="O102" s="51" t="s">
+      <c r="O102" s="46" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A103" s="52" t="s">
+      <c r="A103" s="47" t="s">
         <v>622</v>
       </c>
-      <c r="B103" s="53" t="s">
+      <c r="B103" s="48" t="s">
         <v>623</v>
       </c>
-      <c r="C103" s="62" t="s">
+      <c r="C103" s="49" t="s">
         <v>794</v>
       </c>
-      <c r="D103" s="62" t="s">
-        <v>734</v>
-      </c>
-      <c r="E103" s="63" t="s">
-        <v>659</v>
-      </c>
-      <c r="F103" s="63" t="s">
+      <c r="D103" s="49" t="s">
+        <v>734</v>
+      </c>
+      <c r="E103" s="49" t="s">
+        <v>659</v>
+      </c>
+      <c r="F103" s="49" t="s">
         <v>479</v>
       </c>
-      <c r="G103" s="63" t="s">
+      <c r="G103" s="49" t="s">
         <v>779</v>
       </c>
-      <c r="H103" s="63" t="s">
-        <v>821</v>
-      </c>
-      <c r="I103" s="62"/>
-      <c r="J103" s="62" t="s">
+      <c r="H103" s="49" t="s">
+        <v>820</v>
+      </c>
+      <c r="I103" s="49"/>
+      <c r="J103" s="49" t="s">
         <v>624</v>
       </c>
       <c r="K103" s="14" t="s">
@@ -9346,35 +9302,35 @@
       <c r="N103" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="O103" s="51"/>
+      <c r="O103" s="46"/>
     </row>
     <row r="104" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A104" s="52" t="s">
+      <c r="A104" s="47" t="s">
         <v>769</v>
       </c>
-      <c r="B104" s="53" t="s">
+      <c r="B104" s="48" t="s">
         <v>770</v>
       </c>
-      <c r="C104" s="62" t="s">
+      <c r="C104" s="49" t="s">
         <v>795</v>
       </c>
-      <c r="D104" s="62" t="s">
-        <v>734</v>
-      </c>
-      <c r="E104" s="63" t="s">
-        <v>659</v>
-      </c>
-      <c r="F104" s="63" t="s">
+      <c r="D104" s="49" t="s">
+        <v>734</v>
+      </c>
+      <c r="E104" s="49" t="s">
+        <v>659</v>
+      </c>
+      <c r="F104" s="49" t="s">
         <v>479</v>
       </c>
-      <c r="G104" s="63" t="s">
+      <c r="G104" s="49" t="s">
         <v>779</v>
       </c>
-      <c r="H104" s="63" t="s">
-        <v>821</v>
-      </c>
-      <c r="I104" s="62"/>
-      <c r="J104" s="62"/>
+      <c r="H104" s="49" t="s">
+        <v>820</v>
+      </c>
+      <c r="I104" s="49"/>
+      <c r="J104" s="49"/>
       <c r="K104" s="14" t="s">
         <v>195</v>
       </c>
@@ -9383,32 +9339,32 @@
       </c>
     </row>
     <row r="105" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A105" s="52" t="s">
+      <c r="A105" s="47" t="s">
         <v>771</v>
       </c>
-      <c r="B105" s="53" t="s">
+      <c r="B105" s="48" t="s">
         <v>772</v>
       </c>
-      <c r="C105" s="62" t="s">
+      <c r="C105" s="49" t="s">
         <v>793</v>
       </c>
-      <c r="D105" s="62" t="s">
-        <v>734</v>
-      </c>
-      <c r="E105" s="63" t="s">
-        <v>659</v>
-      </c>
-      <c r="F105" s="63" t="s">
+      <c r="D105" s="49" t="s">
+        <v>734</v>
+      </c>
+      <c r="E105" s="49" t="s">
+        <v>659</v>
+      </c>
+      <c r="F105" s="49" t="s">
         <v>479</v>
       </c>
-      <c r="G105" s="63" t="s">
+      <c r="G105" s="49" t="s">
         <v>779</v>
       </c>
-      <c r="H105" s="63" t="s">
-        <v>821</v>
-      </c>
-      <c r="I105" s="62"/>
-      <c r="J105" s="62"/>
+      <c r="H105" s="49" t="s">
+        <v>820</v>
+      </c>
+      <c r="I105" s="49"/>
+      <c r="J105" s="49"/>
       <c r="K105" s="14" t="s">
         <v>195</v>
       </c>
@@ -9417,32 +9373,32 @@
       </c>
     </row>
     <row r="106" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="52" t="s">
+      <c r="A106" s="47" t="s">
         <v>775</v>
       </c>
-      <c r="B106" s="53" t="s">
+      <c r="B106" s="48" t="s">
         <v>776</v>
       </c>
-      <c r="C106" s="62" t="s">
+      <c r="C106" s="49" t="s">
         <v>796</v>
       </c>
-      <c r="D106" s="62" t="s">
-        <v>734</v>
-      </c>
-      <c r="E106" s="63" t="s">
-        <v>659</v>
-      </c>
-      <c r="F106" s="63" t="s">
+      <c r="D106" s="49" t="s">
+        <v>734</v>
+      </c>
+      <c r="E106" s="49" t="s">
+        <v>659</v>
+      </c>
+      <c r="F106" s="49" t="s">
         <v>479</v>
       </c>
-      <c r="G106" s="63" t="s">
+      <c r="G106" s="49" t="s">
         <v>779</v>
       </c>
-      <c r="H106" s="63" t="s">
-        <v>821</v>
-      </c>
-      <c r="I106" s="62"/>
-      <c r="J106" s="62"/>
+      <c r="H106" s="49" t="s">
+        <v>820</v>
+      </c>
+      <c r="I106" s="49"/>
+      <c r="J106" s="49"/>
       <c r="K106" s="14" t="s">
         <v>195</v>
       </c>
@@ -9451,47 +9407,47 @@
       </c>
     </row>
     <row r="107" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="52" t="s">
+      <c r="A107" s="47" t="s">
         <v>777</v>
       </c>
-      <c r="B107" s="53" t="s">
+      <c r="B107" s="48" t="s">
         <v>778</v>
       </c>
-      <c r="C107" s="62" t="s">
+      <c r="C107" s="49" t="s">
         <v>797</v>
       </c>
-      <c r="D107" s="62" t="s">
-        <v>734</v>
-      </c>
-      <c r="E107" s="63" t="s">
-        <v>659</v>
-      </c>
-      <c r="F107" s="63" t="s">
+      <c r="D107" s="49" t="s">
+        <v>734</v>
+      </c>
+      <c r="E107" s="49" t="s">
+        <v>659</v>
+      </c>
+      <c r="F107" s="49" t="s">
         <v>479</v>
       </c>
-      <c r="G107" s="63" t="s">
+      <c r="G107" s="49" t="s">
         <v>779</v>
       </c>
-      <c r="H107" s="63" t="s">
-        <v>821</v>
-      </c>
-      <c r="I107" s="62"/>
-      <c r="J107" s="62"/>
+      <c r="H107" s="49" t="s">
+        <v>820</v>
+      </c>
+      <c r="I107" s="49"/>
+      <c r="J107" s="49"/>
       <c r="K107" s="14" t="s">
         <v>195</v>
       </c>
       <c r="L107" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="O107" s="51" t="s">
+      <c r="O107" s="46" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A108" s="52" t="s">
+      <c r="A108" s="47" t="s">
         <v>606</v>
       </c>
-      <c r="B108" s="53" t="s">
+      <c r="B108" s="48" t="s">
         <v>484</v>
       </c>
       <c r="C108" s="49" t="s">
@@ -9500,17 +9456,17 @@
       <c r="D108" s="49" t="s">
         <v>734</v>
       </c>
-      <c r="E108" s="50" t="s">
-        <v>659</v>
-      </c>
-      <c r="F108" s="50" t="s">
+      <c r="E108" s="49" t="s">
+        <v>659</v>
+      </c>
+      <c r="F108" s="49" t="s">
         <v>479</v>
       </c>
-      <c r="G108" s="50" t="s">
+      <c r="G108" s="49" t="s">
         <v>780</v>
       </c>
-      <c r="H108" s="50" t="s">
-        <v>821</v>
+      <c r="H108" s="49" t="s">
+        <v>820</v>
       </c>
       <c r="I108" s="49"/>
       <c r="J108" s="49" t="s">
@@ -9528,34 +9484,34 @@
       <c r="N108" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="O108" s="51" t="s">
+      <c r="O108" s="46" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A109" s="52" t="s">
+      <c r="A109" s="47" t="s">
         <v>607</v>
       </c>
-      <c r="B109" s="53" t="s">
+      <c r="B109" s="48" t="s">
         <v>486</v>
       </c>
-      <c r="C109" s="48" t="s">
+      <c r="C109" s="49" t="s">
         <v>660</v>
       </c>
       <c r="D109" s="49" t="s">
         <v>734</v>
       </c>
-      <c r="E109" s="50" t="s">
-        <v>659</v>
-      </c>
-      <c r="F109" s="50" t="s">
+      <c r="E109" s="49" t="s">
+        <v>659</v>
+      </c>
+      <c r="F109" s="49" t="s">
         <v>479</v>
       </c>
-      <c r="G109" s="50" t="s">
+      <c r="G109" s="49" t="s">
         <v>780</v>
       </c>
-      <c r="H109" s="50" t="s">
-        <v>821</v>
+      <c r="H109" s="49" t="s">
+        <v>820</v>
       </c>
       <c r="I109" s="49"/>
       <c r="J109" s="49" t="s">
@@ -9573,15 +9529,15 @@
       <c r="N109" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="O109" s="51" t="s">
+      <c r="O109" s="46" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A110" s="52" t="s">
+      <c r="A110" s="47" t="s">
         <v>773</v>
       </c>
-      <c r="B110" s="53" t="s">
+      <c r="B110" s="48" t="s">
         <v>774</v>
       </c>
       <c r="C110" s="49" t="s">
@@ -9590,17 +9546,17 @@
       <c r="D110" s="49" t="s">
         <v>734</v>
       </c>
-      <c r="E110" s="50" t="s">
-        <v>659</v>
-      </c>
-      <c r="F110" s="50" t="s">
+      <c r="E110" s="49" t="s">
+        <v>659</v>
+      </c>
+      <c r="F110" s="49" t="s">
         <v>479</v>
       </c>
-      <c r="G110" s="50" t="s">
+      <c r="G110" s="49" t="s">
         <v>780</v>
       </c>
-      <c r="H110" s="50" t="s">
-        <v>821</v>
+      <c r="H110" s="49" t="s">
+        <v>820</v>
       </c>
       <c r="I110" s="49"/>
       <c r="J110" s="49"/>
@@ -9612,32 +9568,32 @@
       </c>
     </row>
     <row r="111" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A111" s="52" t="s">
+      <c r="A111" s="47" t="s">
         <v>551</v>
       </c>
-      <c r="B111" s="53" t="s">
+      <c r="B111" s="48" t="s">
         <v>552</v>
       </c>
-      <c r="C111" s="64" t="s">
+      <c r="C111" s="49" t="s">
         <v>602</v>
       </c>
-      <c r="D111" s="65" t="s">
-        <v>734</v>
-      </c>
-      <c r="E111" s="66" t="s">
-        <v>659</v>
-      </c>
-      <c r="F111" s="66" t="s">
+      <c r="D111" s="49" t="s">
+        <v>734</v>
+      </c>
+      <c r="E111" s="49" t="s">
+        <v>659</v>
+      </c>
+      <c r="F111" s="49" t="s">
         <v>479</v>
       </c>
-      <c r="G111" s="66" t="s">
+      <c r="G111" s="49" t="s">
         <v>781</v>
       </c>
-      <c r="H111" s="66" t="s">
-        <v>821</v>
-      </c>
-      <c r="I111" s="64"/>
-      <c r="J111" s="64" t="s">
+      <c r="H111" s="49" t="s">
+        <v>820</v>
+      </c>
+      <c r="I111" s="49"/>
+      <c r="J111" s="49" t="s">
         <v>560</v>
       </c>
       <c r="K111" s="14" t="s">
@@ -9657,32 +9613,32 @@
       </c>
     </row>
     <row r="112" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A112" s="52" t="s">
+      <c r="A112" s="47" t="s">
         <v>549</v>
       </c>
-      <c r="B112" s="53" t="s">
+      <c r="B112" s="48" t="s">
         <v>554</v>
       </c>
-      <c r="C112" s="64" t="s">
+      <c r="C112" s="49" t="s">
         <v>599</v>
       </c>
-      <c r="D112" s="65" t="s">
-        <v>734</v>
-      </c>
-      <c r="E112" s="66" t="s">
-        <v>659</v>
-      </c>
-      <c r="F112" s="66" t="s">
+      <c r="D112" s="49" t="s">
+        <v>734</v>
+      </c>
+      <c r="E112" s="49" t="s">
+        <v>659</v>
+      </c>
+      <c r="F112" s="49" t="s">
         <v>479</v>
       </c>
-      <c r="G112" s="66" t="s">
+      <c r="G112" s="49" t="s">
         <v>781</v>
       </c>
-      <c r="H112" s="66" t="s">
-        <v>821</v>
-      </c>
-      <c r="I112" s="64"/>
-      <c r="J112" s="64" t="s">
+      <c r="H112" s="49" t="s">
+        <v>820</v>
+      </c>
+      <c r="I112" s="49"/>
+      <c r="J112" s="49" t="s">
         <v>556</v>
       </c>
       <c r="K112" s="14" t="s">
@@ -9702,32 +9658,32 @@
       </c>
     </row>
     <row r="113" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A113" s="52" t="s">
+      <c r="A113" s="47" t="s">
         <v>216</v>
       </c>
-      <c r="B113" s="53" t="s">
+      <c r="B113" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="C113" s="54" t="s">
+      <c r="C113" s="49" t="s">
         <v>333</v>
       </c>
-      <c r="D113" s="54" t="s">
-        <v>734</v>
-      </c>
-      <c r="E113" s="54" t="s">
-        <v>659</v>
-      </c>
-      <c r="F113" s="54" t="s">
+      <c r="D113" s="49" t="s">
+        <v>734</v>
+      </c>
+      <c r="E113" s="49" t="s">
+        <v>659</v>
+      </c>
+      <c r="F113" s="49" t="s">
         <v>323</v>
       </c>
-      <c r="G113" s="54" t="s">
+      <c r="G113" s="49" t="s">
         <v>541</v>
       </c>
-      <c r="H113" s="54" t="s">
-        <v>821</v>
-      </c>
-      <c r="I113" s="54"/>
-      <c r="J113" s="54" t="s">
+      <c r="H113" s="49" t="s">
+        <v>820</v>
+      </c>
+      <c r="I113" s="49"/>
+      <c r="J113" s="49" t="s">
         <v>518</v>
       </c>
       <c r="K113" s="14" t="s">
@@ -9747,32 +9703,32 @@
       </c>
     </row>
     <row r="114" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A114" s="52" t="s">
+      <c r="A114" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="B114" s="53" t="s">
+      <c r="B114" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="C114" s="54" t="s">
+      <c r="C114" s="49" t="s">
         <v>347</v>
       </c>
-      <c r="D114" s="54" t="s">
-        <v>734</v>
-      </c>
-      <c r="E114" s="54" t="s">
-        <v>659</v>
-      </c>
-      <c r="F114" s="54" t="s">
+      <c r="D114" s="49" t="s">
+        <v>734</v>
+      </c>
+      <c r="E114" s="49" t="s">
+        <v>659</v>
+      </c>
+      <c r="F114" s="49" t="s">
         <v>323</v>
       </c>
-      <c r="G114" s="54" t="s">
+      <c r="G114" s="49" t="s">
         <v>542</v>
       </c>
-      <c r="H114" s="54" t="s">
-        <v>821</v>
-      </c>
-      <c r="I114" s="54"/>
-      <c r="J114" s="54" t="s">
+      <c r="H114" s="49" t="s">
+        <v>820</v>
+      </c>
+      <c r="I114" s="49"/>
+      <c r="J114" s="49" t="s">
         <v>518</v>
       </c>
       <c r="K114" s="14" t="s">
@@ -9792,32 +9748,32 @@
       </c>
     </row>
     <row r="115" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A115" s="52" t="s">
+      <c r="A115" s="47" t="s">
         <v>225</v>
       </c>
-      <c r="B115" s="53" t="s">
+      <c r="B115" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="C115" s="54" t="s">
+      <c r="C115" s="49" t="s">
         <v>349</v>
       </c>
-      <c r="D115" s="54" t="s">
-        <v>734</v>
-      </c>
-      <c r="E115" s="54" t="s">
-        <v>659</v>
-      </c>
-      <c r="F115" s="54" t="s">
+      <c r="D115" s="49" t="s">
+        <v>734</v>
+      </c>
+      <c r="E115" s="49" t="s">
+        <v>659</v>
+      </c>
+      <c r="F115" s="49" t="s">
         <v>323</v>
       </c>
-      <c r="G115" s="54" t="s">
+      <c r="G115" s="49" t="s">
         <v>544</v>
       </c>
-      <c r="H115" s="54" t="s">
-        <v>821</v>
-      </c>
-      <c r="I115" s="54"/>
-      <c r="J115" s="54" t="s">
+      <c r="H115" s="49" t="s">
+        <v>820</v>
+      </c>
+      <c r="I115" s="49"/>
+      <c r="J115" s="49" t="s">
         <v>523</v>
       </c>
       <c r="K115" s="14" t="s">
@@ -9837,32 +9793,32 @@
       </c>
     </row>
     <row r="116" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A116" s="52" t="s">
+      <c r="A116" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="B116" s="53" t="s">
+      <c r="B116" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="C116" s="54" t="s">
+      <c r="C116" s="49" t="s">
         <v>589</v>
       </c>
-      <c r="D116" s="54" t="s">
-        <v>734</v>
-      </c>
-      <c r="E116" s="54" t="s">
-        <v>659</v>
-      </c>
-      <c r="F116" s="54" t="s">
+      <c r="D116" s="49" t="s">
+        <v>734</v>
+      </c>
+      <c r="E116" s="49" t="s">
+        <v>659</v>
+      </c>
+      <c r="F116" s="49" t="s">
         <v>323</v>
       </c>
-      <c r="G116" s="54" t="s">
+      <c r="G116" s="49" t="s">
         <v>540</v>
       </c>
-      <c r="H116" s="54" t="s">
-        <v>821</v>
-      </c>
-      <c r="I116" s="54"/>
-      <c r="J116" s="54" t="s">
+      <c r="H116" s="49" t="s">
+        <v>820</v>
+      </c>
+      <c r="I116" s="49"/>
+      <c r="J116" s="49" t="s">
         <v>517</v>
       </c>
       <c r="K116" s="14" t="s">
@@ -9882,32 +9838,32 @@
       </c>
     </row>
     <row r="117" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A117" s="52" t="s">
+      <c r="A117" s="47" t="s">
         <v>284</v>
       </c>
-      <c r="B117" s="53" t="s">
+      <c r="B117" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="C117" s="54" t="s">
+      <c r="C117" s="49" t="s">
         <v>420</v>
       </c>
-      <c r="D117" s="54" t="s">
-        <v>734</v>
-      </c>
-      <c r="E117" s="54" t="s">
-        <v>659</v>
-      </c>
-      <c r="F117" s="54" t="s">
+      <c r="D117" s="49" t="s">
+        <v>734</v>
+      </c>
+      <c r="E117" s="49" t="s">
+        <v>659</v>
+      </c>
+      <c r="F117" s="49" t="s">
         <v>323</v>
       </c>
-      <c r="G117" s="54" t="s">
+      <c r="G117" s="49" t="s">
         <v>548</v>
       </c>
-      <c r="H117" s="54" t="s">
-        <v>821</v>
-      </c>
-      <c r="I117" s="54"/>
-      <c r="J117" s="54" t="s">
+      <c r="H117" s="49" t="s">
+        <v>820</v>
+      </c>
+      <c r="I117" s="49"/>
+      <c r="J117" s="49" t="s">
         <v>525</v>
       </c>
       <c r="K117" s="14" t="s">
@@ -9927,32 +9883,32 @@
       </c>
     </row>
     <row r="118" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A118" s="52" t="s">
+      <c r="A118" s="47" t="s">
         <v>256</v>
       </c>
-      <c r="B118" s="53" t="s">
+      <c r="B118" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="C118" s="54" t="s">
+      <c r="C118" s="49" t="s">
         <v>590</v>
       </c>
-      <c r="D118" s="54" t="s">
-        <v>734</v>
-      </c>
-      <c r="E118" s="54" t="s">
-        <v>659</v>
-      </c>
-      <c r="F118" s="54" t="s">
+      <c r="D118" s="49" t="s">
+        <v>734</v>
+      </c>
+      <c r="E118" s="49" t="s">
+        <v>659</v>
+      </c>
+      <c r="F118" s="49" t="s">
         <v>323</v>
       </c>
-      <c r="G118" s="54" t="s">
+      <c r="G118" s="49" t="s">
         <v>547</v>
       </c>
-      <c r="H118" s="54" t="s">
-        <v>821</v>
-      </c>
-      <c r="I118" s="54"/>
-      <c r="J118" s="54" t="s">
+      <c r="H118" s="49" t="s">
+        <v>820</v>
+      </c>
+      <c r="I118" s="49"/>
+      <c r="J118" s="49" t="s">
         <v>523</v>
       </c>
       <c r="K118" s="14" t="s">
@@ -9972,32 +9928,32 @@
       </c>
     </row>
     <row r="119" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A119" s="52" t="s">
+      <c r="A119" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="B119" s="53" t="s">
+      <c r="B119" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="C119" s="54" t="s">
+      <c r="C119" s="49" t="s">
         <v>593</v>
       </c>
-      <c r="D119" s="54" t="s">
-        <v>734</v>
-      </c>
-      <c r="E119" s="54" t="s">
-        <v>659</v>
-      </c>
-      <c r="F119" s="54" t="s">
+      <c r="D119" s="49" t="s">
+        <v>734</v>
+      </c>
+      <c r="E119" s="49" t="s">
+        <v>659</v>
+      </c>
+      <c r="F119" s="49" t="s">
         <v>323</v>
       </c>
-      <c r="G119" s="54" t="s">
+      <c r="G119" s="49" t="s">
         <v>545</v>
       </c>
-      <c r="H119" s="54" t="s">
-        <v>821</v>
-      </c>
-      <c r="I119" s="54"/>
-      <c r="J119" s="54" t="s">
+      <c r="H119" s="49" t="s">
+        <v>820</v>
+      </c>
+      <c r="I119" s="49"/>
+      <c r="J119" s="49" t="s">
         <v>524</v>
       </c>
       <c r="K119" s="14" t="s">
@@ -10017,32 +9973,32 @@
       </c>
     </row>
     <row r="120" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A120" s="52" t="s">
+      <c r="A120" s="47" t="s">
         <v>248</v>
       </c>
-      <c r="B120" s="53" t="s">
+      <c r="B120" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="C120" s="54" t="s">
+      <c r="C120" s="49" t="s">
         <v>407</v>
       </c>
-      <c r="D120" s="54" t="s">
-        <v>734</v>
-      </c>
-      <c r="E120" s="54" t="s">
-        <v>659</v>
-      </c>
-      <c r="F120" s="54" t="s">
+      <c r="D120" s="49" t="s">
+        <v>734</v>
+      </c>
+      <c r="E120" s="49" t="s">
+        <v>659</v>
+      </c>
+      <c r="F120" s="49" t="s">
         <v>323</v>
       </c>
-      <c r="G120" s="54" t="s">
+      <c r="G120" s="49" t="s">
         <v>543</v>
       </c>
-      <c r="H120" s="54" t="s">
-        <v>821</v>
-      </c>
-      <c r="I120" s="54"/>
-      <c r="J120" s="54" t="s">
+      <c r="H120" s="49" t="s">
+        <v>820</v>
+      </c>
+      <c r="I120" s="49"/>
+      <c r="J120" s="49" t="s">
         <v>518</v>
       </c>
       <c r="K120" s="14" t="s">
@@ -10062,32 +10018,32 @@
       </c>
     </row>
     <row r="121" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A121" s="52" t="s">
+      <c r="A121" s="47" t="s">
         <v>251</v>
       </c>
-      <c r="B121" s="53" t="s">
+      <c r="B121" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="C121" s="54" t="s">
+      <c r="C121" s="49" t="s">
         <v>591</v>
       </c>
-      <c r="D121" s="54" t="s">
-        <v>734</v>
-      </c>
-      <c r="E121" s="54" t="s">
-        <v>659</v>
-      </c>
-      <c r="F121" s="54" t="s">
+      <c r="D121" s="49" t="s">
+        <v>734</v>
+      </c>
+      <c r="E121" s="49" t="s">
+        <v>659</v>
+      </c>
+      <c r="F121" s="49" t="s">
         <v>323</v>
       </c>
-      <c r="G121" s="54" t="s">
+      <c r="G121" s="49" t="s">
         <v>546</v>
       </c>
-      <c r="H121" s="54" t="s">
-        <v>821</v>
-      </c>
-      <c r="I121" s="54"/>
-      <c r="J121" s="54" t="s">
+      <c r="H121" s="49" t="s">
+        <v>820</v>
+      </c>
+      <c r="I121" s="49"/>
+      <c r="J121" s="49" t="s">
         <v>517</v>
       </c>
       <c r="K121" s="14" t="s">
@@ -10107,32 +10063,32 @@
       </c>
     </row>
     <row r="122" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A122" s="52" t="s">
+      <c r="A122" s="47" t="s">
         <v>263</v>
       </c>
-      <c r="B122" s="54" t="s">
+      <c r="B122" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="C122" s="54" t="s">
+      <c r="C122" s="49" t="s">
         <v>592</v>
       </c>
-      <c r="D122" s="54" t="s">
-        <v>734</v>
-      </c>
-      <c r="E122" s="54" t="s">
-        <v>659</v>
-      </c>
-      <c r="F122" s="54" t="s">
+      <c r="D122" s="49" t="s">
+        <v>734</v>
+      </c>
+      <c r="E122" s="49" t="s">
+        <v>659</v>
+      </c>
+      <c r="F122" s="49" t="s">
         <v>323</v>
       </c>
-      <c r="G122" s="54" t="s">
+      <c r="G122" s="49" t="s">
         <v>643</v>
       </c>
-      <c r="H122" s="54" t="s">
-        <v>821</v>
-      </c>
-      <c r="I122" s="54"/>
-      <c r="J122" s="54" t="s">
+      <c r="H122" s="49" t="s">
+        <v>820</v>
+      </c>
+      <c r="I122" s="49"/>
+      <c r="J122" s="49" t="s">
         <v>520</v>
       </c>
       <c r="K122" s="14" t="s">
@@ -10152,32 +10108,32 @@
       </c>
     </row>
     <row r="123" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A123" s="52" t="s">
+      <c r="A123" s="47" t="s">
         <v>644</v>
       </c>
-      <c r="B123" s="54" t="s">
+      <c r="B123" s="49" t="s">
         <v>645</v>
       </c>
-      <c r="C123" s="54" t="s">
+      <c r="C123" s="49" t="s">
         <v>646</v>
       </c>
-      <c r="D123" s="54" t="s">
-        <v>734</v>
-      </c>
-      <c r="E123" s="54" t="s">
-        <v>659</v>
-      </c>
-      <c r="F123" s="54" t="s">
+      <c r="D123" s="49" t="s">
+        <v>734</v>
+      </c>
+      <c r="E123" s="49" t="s">
+        <v>659</v>
+      </c>
+      <c r="F123" s="49" t="s">
         <v>323</v>
       </c>
-      <c r="G123" s="54" t="s">
+      <c r="G123" s="49" t="s">
         <v>647</v>
       </c>
-      <c r="H123" s="54" t="s">
-        <v>821</v>
-      </c>
-      <c r="I123" s="54"/>
-      <c r="J123" s="54" t="s">
+      <c r="H123" s="49" t="s">
+        <v>820</v>
+      </c>
+      <c r="I123" s="49"/>
+      <c r="J123" s="49" t="s">
         <v>523</v>
       </c>
       <c r="K123" s="14" t="s">
@@ -10197,30 +10153,30 @@
       </c>
     </row>
     <row r="124" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A124" s="52" t="s">
+      <c r="A124" s="47" t="s">
         <v>656</v>
       </c>
-      <c r="B124" s="54" t="s">
+      <c r="B124" s="49" t="s">
         <v>625</v>
       </c>
-      <c r="C124" s="54" t="s">
+      <c r="C124" s="49" t="s">
         <v>648</v>
       </c>
-      <c r="D124" s="54" t="s">
-        <v>734</v>
-      </c>
-      <c r="E124" s="54" t="s">
-        <v>659</v>
-      </c>
-      <c r="F124" s="54" t="s">
+      <c r="D124" s="49" t="s">
+        <v>734</v>
+      </c>
+      <c r="E124" s="49" t="s">
+        <v>659</v>
+      </c>
+      <c r="F124" s="49" t="s">
         <v>323</v>
       </c>
-      <c r="G124" s="54"/>
-      <c r="H124" s="54" t="s">
-        <v>821</v>
-      </c>
-      <c r="I124" s="54"/>
-      <c r="J124" s="54" t="s">
+      <c r="G124" s="49"/>
+      <c r="H124" s="49" t="s">
+        <v>820</v>
+      </c>
+      <c r="I124" s="49"/>
+      <c r="J124" s="49" t="s">
         <v>617</v>
       </c>
       <c r="K124" s="14" t="s">
@@ -10240,67 +10196,67 @@
       </c>
     </row>
     <row r="125" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A125" s="52" t="s">
+      <c r="A125" s="60" t="s">
         <v>747</v>
       </c>
-      <c r="B125" s="53" t="s">
+      <c r="B125" s="43" t="s">
         <v>752</v>
       </c>
-      <c r="C125" s="45" t="s">
+      <c r="C125" s="43" t="s">
         <v>756</v>
       </c>
-      <c r="D125" s="45" t="s">
-        <v>734</v>
-      </c>
-      <c r="E125" s="45" t="s">
-        <v>659</v>
-      </c>
-      <c r="F125" s="45" t="s">
+      <c r="D125" s="43" t="s">
+        <v>734</v>
+      </c>
+      <c r="E125" s="43" t="s">
+        <v>659</v>
+      </c>
+      <c r="F125" s="43" t="s">
         <v>609</v>
       </c>
-      <c r="G125" s="45" t="s">
+      <c r="G125" s="43" t="s">
         <v>768</v>
       </c>
-      <c r="H125" s="45" t="s">
-        <v>821</v>
-      </c>
-      <c r="I125" s="45"/>
-      <c r="J125" s="45"/>
+      <c r="H125" s="43" t="s">
+        <v>820</v>
+      </c>
+      <c r="I125" s="43"/>
+      <c r="J125" s="43"/>
       <c r="K125" s="14" t="s">
         <v>195</v>
       </c>
       <c r="L125" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M125" s="56"/>
+      <c r="M125" s="50"/>
     </row>
     <row r="126" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A126" s="52" t="s">
+      <c r="A126" s="60" t="s">
         <v>750</v>
       </c>
-      <c r="B126" s="53" t="s">
+      <c r="B126" s="43" t="s">
         <v>754</v>
       </c>
-      <c r="C126" s="45" t="s">
+      <c r="C126" s="43" t="s">
         <v>757</v>
       </c>
-      <c r="D126" s="45" t="s">
-        <v>734</v>
-      </c>
-      <c r="E126" s="45" t="s">
-        <v>659</v>
-      </c>
-      <c r="F126" s="45" t="s">
+      <c r="D126" s="43" t="s">
+        <v>734</v>
+      </c>
+      <c r="E126" s="43" t="s">
+        <v>659</v>
+      </c>
+      <c r="F126" s="43" t="s">
         <v>609</v>
       </c>
-      <c r="G126" s="45" t="s">
+      <c r="G126" s="43" t="s">
         <v>768</v>
       </c>
-      <c r="H126" s="45" t="s">
-        <v>821</v>
-      </c>
-      <c r="I126" s="45"/>
-      <c r="J126" s="45"/>
+      <c r="H126" s="43" t="s">
+        <v>820</v>
+      </c>
+      <c r="I126" s="43"/>
+      <c r="J126" s="43"/>
       <c r="K126" s="14" t="s">
         <v>195</v>
       </c>
@@ -10309,32 +10265,32 @@
       </c>
     </row>
     <row r="127" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A127" s="52" t="s">
+      <c r="A127" s="60" t="s">
         <v>233</v>
       </c>
-      <c r="B127" s="53" t="s">
+      <c r="B127" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="C127" s="45" t="s">
+      <c r="C127" s="43" t="s">
         <v>364</v>
       </c>
-      <c r="D127" s="45" t="s">
-        <v>734</v>
-      </c>
-      <c r="E127" s="45" t="s">
-        <v>659</v>
-      </c>
-      <c r="F127" s="45" t="s">
+      <c r="D127" s="43" t="s">
+        <v>734</v>
+      </c>
+      <c r="E127" s="43" t="s">
+        <v>659</v>
+      </c>
+      <c r="F127" s="43" t="s">
         <v>609</v>
       </c>
-      <c r="G127" s="45" t="s">
+      <c r="G127" s="43" t="s">
         <v>364</v>
       </c>
-      <c r="H127" s="45" t="s">
-        <v>821</v>
-      </c>
-      <c r="I127" s="45"/>
-      <c r="J127" s="45" t="s">
+      <c r="H127" s="43" t="s">
+        <v>820</v>
+      </c>
+      <c r="I127" s="43"/>
+      <c r="J127" s="43" t="s">
         <v>511</v>
       </c>
       <c r="K127" s="14" t="s">
@@ -10354,30 +10310,30 @@
       </c>
     </row>
     <row r="128" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A128" s="52" t="s">
+      <c r="A128" s="60" t="s">
         <v>493</v>
       </c>
-      <c r="B128" s="53" t="s">
+      <c r="B128" s="43" t="s">
         <v>498</v>
       </c>
-      <c r="C128" s="45" t="s">
+      <c r="C128" s="43" t="s">
         <v>598</v>
       </c>
-      <c r="D128" s="45" t="s">
-        <v>734</v>
-      </c>
-      <c r="E128" s="45" t="s">
-        <v>659</v>
-      </c>
-      <c r="F128" s="45" t="s">
+      <c r="D128" s="43" t="s">
+        <v>734</v>
+      </c>
+      <c r="E128" s="43" t="s">
+        <v>659</v>
+      </c>
+      <c r="F128" s="43" t="s">
         <v>609</v>
       </c>
-      <c r="G128" s="45"/>
-      <c r="H128" s="45" t="s">
-        <v>821</v>
-      </c>
-      <c r="I128" s="45"/>
-      <c r="J128" s="45" t="s">
+      <c r="G128" s="43"/>
+      <c r="H128" s="43" t="s">
+        <v>820</v>
+      </c>
+      <c r="I128" s="43"/>
+      <c r="J128" s="43" t="s">
         <v>514</v>
       </c>
       <c r="K128" s="14" t="s">
@@ -10397,30 +10353,30 @@
       </c>
     </row>
     <row r="129" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A129" s="52" t="s">
+      <c r="A129" s="60" t="s">
         <v>491</v>
       </c>
-      <c r="B129" s="53" t="s">
+      <c r="B129" s="43" t="s">
         <v>494</v>
       </c>
-      <c r="C129" s="45" t="s">
+      <c r="C129" s="43" t="s">
         <v>791</v>
       </c>
-      <c r="D129" s="45" t="s">
-        <v>734</v>
-      </c>
-      <c r="E129" s="45" t="s">
-        <v>659</v>
-      </c>
-      <c r="F129" s="45" t="s">
+      <c r="D129" s="43" t="s">
+        <v>734</v>
+      </c>
+      <c r="E129" s="43" t="s">
+        <v>659</v>
+      </c>
+      <c r="F129" s="43" t="s">
         <v>609</v>
       </c>
-      <c r="G129" s="45"/>
-      <c r="H129" s="45" t="s">
-        <v>821</v>
-      </c>
-      <c r="I129" s="45"/>
-      <c r="J129" s="45" t="s">
+      <c r="G129" s="43"/>
+      <c r="H129" s="43" t="s">
+        <v>820</v>
+      </c>
+      <c r="I129" s="43"/>
+      <c r="J129" s="43" t="s">
         <v>512</v>
       </c>
       <c r="K129" s="14" t="s">
@@ -10440,30 +10396,30 @@
       </c>
     </row>
     <row r="130" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A130" s="52" t="s">
+      <c r="A130" s="60" t="s">
         <v>492</v>
       </c>
-      <c r="B130" s="53" t="s">
+      <c r="B130" s="43" t="s">
         <v>495</v>
       </c>
-      <c r="C130" s="45" t="s">
+      <c r="C130" s="43" t="s">
         <v>790</v>
       </c>
-      <c r="D130" s="45" t="s">
-        <v>734</v>
-      </c>
-      <c r="E130" s="45" t="s">
-        <v>659</v>
-      </c>
-      <c r="F130" s="45" t="s">
+      <c r="D130" s="43" t="s">
+        <v>734</v>
+      </c>
+      <c r="E130" s="43" t="s">
+        <v>659</v>
+      </c>
+      <c r="F130" s="43" t="s">
         <v>609</v>
       </c>
-      <c r="G130" s="45"/>
-      <c r="H130" s="45" t="s">
-        <v>821</v>
-      </c>
-      <c r="I130" s="45"/>
-      <c r="J130" s="45" t="s">
+      <c r="G130" s="43"/>
+      <c r="H130" s="43" t="s">
+        <v>820</v>
+      </c>
+      <c r="I130" s="43"/>
+      <c r="J130" s="43" t="s">
         <v>513</v>
       </c>
       <c r="K130" s="14" t="s">
@@ -10505,7 +10461,7 @@
         <v>206</v>
       </c>
       <c r="H131" s="24" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I131" s="24"/>
       <c r="J131" s="24" t="s">
@@ -10546,7 +10502,7 @@
       </c>
       <c r="G132" s="24"/>
       <c r="H132" s="24" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I132" s="24"/>
       <c r="J132" s="24" t="s">
@@ -10589,7 +10545,7 @@
       </c>
       <c r="G133" s="24"/>
       <c r="H133" s="24" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I133" s="24"/>
       <c r="J133" s="24" t="s">
@@ -10601,10 +10557,10 @@
       <c r="L133" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M133" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="N133" s="71" t="s">
+      <c r="M133" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="N133" s="59" t="s">
         <v>471</v>
       </c>
       <c r="O133" s="16" t="s">
@@ -10632,7 +10588,7 @@
       </c>
       <c r="G134" s="24"/>
       <c r="H134" s="24" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I134" s="24"/>
       <c r="J134" s="24" t="s">
@@ -10644,10 +10600,10 @@
       <c r="L134" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M134" s="71" t="s">
+      <c r="M134" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="N134" s="71" t="s">
+      <c r="N134" s="59" t="s">
         <v>472</v>
       </c>
       <c r="O134" s="16" t="s">
@@ -10675,7 +10631,7 @@
       </c>
       <c r="G135" s="24"/>
       <c r="H135" s="24" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I135" s="24"/>
       <c r="J135" s="24" t="s">
@@ -10687,10 +10643,10 @@
       <c r="L135" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M135" s="71" t="s">
+      <c r="M135" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="N135" s="71" t="s">
+      <c r="N135" s="59" t="s">
         <v>472</v>
       </c>
       <c r="O135" s="16" t="s">
@@ -10718,7 +10674,7 @@
       </c>
       <c r="G136" s="24"/>
       <c r="H136" s="24" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I136" s="24"/>
       <c r="J136" s="24" t="s">
@@ -10730,10 +10686,10 @@
       <c r="L136" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M136" s="71" t="s">
+      <c r="M136" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="N136" s="71" t="s">
+      <c r="N136" s="59" t="s">
         <v>472</v>
       </c>
       <c r="O136" s="16" t="s">
@@ -10761,7 +10717,7 @@
       </c>
       <c r="G137" s="26"/>
       <c r="H137" s="26" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I137" s="26"/>
       <c r="J137" s="26" t="s">
@@ -10773,10 +10729,10 @@
       <c r="L137" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M137" s="71" t="s">
+      <c r="M137" s="59" t="s">
         <v>709</v>
       </c>
-      <c r="N137" s="71" t="s">
+      <c r="N137" s="59" t="s">
         <v>1</v>
       </c>
     </row>
@@ -10801,7 +10757,7 @@
       </c>
       <c r="G138" s="26"/>
       <c r="H138" s="26" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I138" s="26"/>
       <c r="J138" s="26" t="s">
@@ -10813,10 +10769,10 @@
       <c r="L138" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M138" s="71" t="s">
+      <c r="M138" s="59" t="s">
         <v>708</v>
       </c>
-      <c r="N138" s="71" t="s">
+      <c r="N138" s="59" t="s">
         <v>1</v>
       </c>
     </row>
@@ -10841,7 +10797,7 @@
       </c>
       <c r="G139" s="26"/>
       <c r="H139" s="26" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I139" s="26"/>
       <c r="J139" s="26" t="s">
@@ -10853,10 +10809,10 @@
       <c r="L139" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M139" s="71" t="s">
+      <c r="M139" s="59" t="s">
         <v>713</v>
       </c>
-      <c r="N139" s="71" t="s">
+      <c r="N139" s="59" t="s">
         <v>1</v>
       </c>
     </row>
@@ -10881,7 +10837,7 @@
       </c>
       <c r="G140" s="26"/>
       <c r="H140" s="26" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I140" s="26"/>
       <c r="J140" s="26" t="s">
@@ -10893,10 +10849,10 @@
       <c r="L140" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M140" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="N140" s="71" t="s">
+      <c r="M140" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="N140" s="59" t="s">
         <v>1</v>
       </c>
       <c r="O140" s="16"/>
@@ -10922,7 +10878,7 @@
       </c>
       <c r="G141" s="26"/>
       <c r="H141" s="26" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I141" s="26"/>
       <c r="J141" s="26" t="s">
@@ -10934,10 +10890,10 @@
       <c r="L141" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M141" s="71" t="s">
+      <c r="M141" s="59" t="s">
         <v>715</v>
       </c>
-      <c r="N141" s="71" t="s">
+      <c r="N141" s="59" t="s">
         <v>1</v>
       </c>
       <c r="O141" s="16"/>
@@ -10963,7 +10919,7 @@
       </c>
       <c r="G142" s="26"/>
       <c r="H142" s="26" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I142" s="26"/>
       <c r="J142" s="26" t="s">
@@ -10975,10 +10931,10 @@
       <c r="L142" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M142" s="71" t="s">
+      <c r="M142" s="59" t="s">
         <v>716</v>
       </c>
-      <c r="N142" s="71" t="s">
+      <c r="N142" s="59" t="s">
         <v>1</v>
       </c>
       <c r="O142" s="16"/>
@@ -11004,7 +10960,7 @@
       </c>
       <c r="G143" s="26"/>
       <c r="H143" s="26" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I143" s="26"/>
       <c r="J143" s="26" t="s">
@@ -11016,10 +10972,10 @@
       <c r="L143" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M143" s="71" t="s">
+      <c r="M143" s="59" t="s">
         <v>717</v>
       </c>
-      <c r="N143" s="71" t="s">
+      <c r="N143" s="59" t="s">
         <v>1</v>
       </c>
       <c r="O143" s="16"/>
@@ -11045,7 +11001,7 @@
       </c>
       <c r="G144" s="26"/>
       <c r="H144" s="26" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I144" s="26"/>
       <c r="J144" s="26" t="s">
@@ -11057,10 +11013,10 @@
       <c r="L144" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M144" s="71" t="s">
+      <c r="M144" s="59" t="s">
         <v>706</v>
       </c>
-      <c r="N144" s="71" t="s">
+      <c r="N144" s="59" t="s">
         <v>1</v>
       </c>
       <c r="O144" s="16"/>
@@ -11081,27 +11037,27 @@
       <c r="E145" s="24" t="s">
         <v>745</v>
       </c>
-      <c r="F145" s="55" t="s">
+      <c r="F145" s="26" t="s">
         <v>414</v>
       </c>
-      <c r="G145" s="55"/>
-      <c r="H145" s="55" t="s">
-        <v>821</v>
-      </c>
-      <c r="I145" s="55"/>
-      <c r="J145" s="55" t="s">
+      <c r="G145" s="26"/>
+      <c r="H145" s="26" t="s">
+        <v>820</v>
+      </c>
+      <c r="I145" s="26"/>
+      <c r="J145" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="K145" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="L145" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="M145" s="71" t="s">
+      <c r="K145" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="L145" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="M145" s="59" t="s">
         <v>704</v>
       </c>
-      <c r="N145" s="71" t="s">
+      <c r="N145" s="59" t="s">
         <v>1</v>
       </c>
       <c r="O145" s="16" t="s">
@@ -11124,27 +11080,27 @@
       <c r="E146" s="24" t="s">
         <v>745</v>
       </c>
-      <c r="F146" s="55" t="s">
+      <c r="F146" s="26" t="s">
         <v>414</v>
       </c>
-      <c r="G146" s="55"/>
-      <c r="H146" s="55" t="s">
-        <v>821</v>
-      </c>
-      <c r="I146" s="55"/>
-      <c r="J146" s="55" t="s">
+      <c r="G146" s="26"/>
+      <c r="H146" s="26" t="s">
+        <v>820</v>
+      </c>
+      <c r="I146" s="26"/>
+      <c r="J146" s="26" t="s">
         <v>519</v>
       </c>
-      <c r="K146" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="L146" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="M146" s="71" t="s">
+      <c r="K146" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="L146" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="M146" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="N146" s="71" t="s">
+      <c r="N146" s="59" t="s">
         <v>472</v>
       </c>
       <c r="O146" s="16" t="s">
@@ -11167,27 +11123,27 @@
       <c r="E147" s="24" t="s">
         <v>745</v>
       </c>
-      <c r="F147" s="37" t="s">
+      <c r="F147" s="26" t="s">
         <v>414</v>
       </c>
-      <c r="G147" s="55"/>
-      <c r="H147" s="55" t="s">
-        <v>821</v>
-      </c>
-      <c r="I147" s="55"/>
-      <c r="J147" s="55" t="s">
+      <c r="G147" s="26"/>
+      <c r="H147" s="26" t="s">
+        <v>820</v>
+      </c>
+      <c r="I147" s="26"/>
+      <c r="J147" s="26" t="s">
         <v>581</v>
       </c>
-      <c r="K147" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="L147" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="M147" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="N147" s="71" t="s">
+      <c r="K147" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="L147" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="M147" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="N147" s="59" t="s">
         <v>1</v>
       </c>
       <c r="O147" s="16" t="s">
@@ -11210,27 +11166,27 @@
       <c r="E148" s="24" t="s">
         <v>745</v>
       </c>
-      <c r="F148" s="55" t="s">
+      <c r="F148" s="26" t="s">
         <v>414</v>
       </c>
-      <c r="G148" s="55"/>
-      <c r="H148" s="55" t="s">
-        <v>821</v>
-      </c>
-      <c r="I148" s="55"/>
-      <c r="J148" s="55" t="s">
+      <c r="G148" s="26"/>
+      <c r="H148" s="26" t="s">
+        <v>820</v>
+      </c>
+      <c r="I148" s="26"/>
+      <c r="J148" s="26" t="s">
         <v>581</v>
       </c>
-      <c r="K148" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="L148" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="M148" s="71" t="s">
+      <c r="K148" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="L148" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="M148" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="N148" s="71" t="s">
+      <c r="N148" s="59" t="s">
         <v>472</v>
       </c>
       <c r="O148" s="16" t="s">
@@ -11253,27 +11209,27 @@
       <c r="E149" s="24" t="s">
         <v>745</v>
       </c>
-      <c r="F149" s="37" t="s">
+      <c r="F149" s="26" t="s">
         <v>414</v>
       </c>
-      <c r="G149" s="55"/>
-      <c r="H149" s="55" t="s">
-        <v>821</v>
-      </c>
-      <c r="I149" s="55"/>
-      <c r="J149" s="55" t="s">
+      <c r="G149" s="26"/>
+      <c r="H149" s="26" t="s">
+        <v>820</v>
+      </c>
+      <c r="I149" s="26"/>
+      <c r="J149" s="26" t="s">
         <v>520</v>
       </c>
-      <c r="K149" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="L149" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="M149" s="71" t="s">
+      <c r="K149" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="L149" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="M149" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="N149" s="71" t="s">
+      <c r="N149" s="59" t="s">
         <v>472</v>
       </c>
       <c r="O149" s="16" t="s">
@@ -11296,27 +11252,27 @@
       <c r="E150" s="24" t="s">
         <v>745</v>
       </c>
-      <c r="F150" s="37" t="s">
+      <c r="F150" s="26" t="s">
         <v>414</v>
       </c>
-      <c r="G150" s="55"/>
-      <c r="H150" s="55" t="s">
-        <v>821</v>
-      </c>
-      <c r="I150" s="55"/>
-      <c r="J150" s="55" t="s">
+      <c r="G150" s="26"/>
+      <c r="H150" s="26" t="s">
+        <v>820</v>
+      </c>
+      <c r="I150" s="26"/>
+      <c r="J150" s="26" t="s">
         <v>581</v>
       </c>
-      <c r="K150" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="L150" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="M150" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="N150" s="71" t="s">
+      <c r="K150" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="L150" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="M150" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="N150" s="59" t="s">
         <v>1</v>
       </c>
       <c r="O150" s="16" t="s">
@@ -11339,27 +11295,27 @@
       <c r="E151" s="24" t="s">
         <v>745</v>
       </c>
-      <c r="F151" s="37" t="s">
+      <c r="F151" s="26" t="s">
         <v>414</v>
       </c>
-      <c r="G151" s="37"/>
-      <c r="H151" s="37" t="s">
-        <v>821</v>
-      </c>
-      <c r="I151" s="37"/>
-      <c r="J151" s="37" t="s">
+      <c r="G151" s="26"/>
+      <c r="H151" s="26" t="s">
+        <v>820</v>
+      </c>
+      <c r="I151" s="26"/>
+      <c r="J151" s="26" t="s">
         <v>521</v>
       </c>
-      <c r="K151" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="L151" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="M151" s="71" t="s">
+      <c r="K151" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="L151" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="M151" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="N151" s="71" t="s">
+      <c r="N151" s="59" t="s">
         <v>472</v>
       </c>
       <c r="O151" s="16" t="s">
@@ -11382,31 +11338,31 @@
       <c r="E152" s="24" t="s">
         <v>745</v>
       </c>
-      <c r="F152" s="37" t="s">
+      <c r="F152" s="26" t="s">
         <v>414</v>
       </c>
-      <c r="G152" s="37"/>
-      <c r="H152" s="37" t="s">
-        <v>821</v>
-      </c>
-      <c r="I152" s="37"/>
-      <c r="J152" s="37" t="s">
+      <c r="G152" s="26"/>
+      <c r="H152" s="26" t="s">
+        <v>820</v>
+      </c>
+      <c r="I152" s="26"/>
+      <c r="J152" s="26" t="s">
         <v>522</v>
       </c>
-      <c r="K152" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="L152" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="M152" s="71" t="s">
+      <c r="K152" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="L152" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="M152" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="N152" s="71" t="s">
+      <c r="N152" s="59" t="s">
         <v>474</v>
       </c>
       <c r="O152" s="16" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="153" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -11425,27 +11381,27 @@
       <c r="E153" s="24" t="s">
         <v>745</v>
       </c>
-      <c r="F153" s="37" t="s">
+      <c r="F153" s="26" t="s">
         <v>414</v>
       </c>
-      <c r="G153" s="37"/>
-      <c r="H153" s="37" t="s">
-        <v>821</v>
-      </c>
-      <c r="I153" s="37"/>
-      <c r="J153" s="37" t="s">
+      <c r="G153" s="26"/>
+      <c r="H153" s="26" t="s">
+        <v>820</v>
+      </c>
+      <c r="I153" s="26"/>
+      <c r="J153" s="26" t="s">
         <v>730</v>
       </c>
-      <c r="K153" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="L153" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="M153" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="N153" s="71" t="s">
+      <c r="K153" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="L153" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="M153" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="N153" s="59" t="s">
         <v>1</v>
       </c>
       <c r="O153" s="16" t="s">
@@ -11453,32 +11409,32 @@
       </c>
     </row>
     <row r="154" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A154" s="46" t="s">
-        <v>805</v>
-      </c>
-      <c r="B154" s="47" t="s">
+      <c r="A154" s="44" t="s">
+        <v>804</v>
+      </c>
+      <c r="B154" s="45" t="s">
         <v>567</v>
       </c>
-      <c r="C154" s="47" t="s">
-        <v>805</v>
-      </c>
-      <c r="D154" s="47" t="s">
+      <c r="C154" s="45" t="s">
+        <v>804</v>
+      </c>
+      <c r="D154" s="45" t="s">
         <v>662</v>
       </c>
-      <c r="E154" s="47" t="s">
-        <v>659</v>
-      </c>
-      <c r="F154" s="47" t="s">
+      <c r="E154" s="45" t="s">
+        <v>659</v>
+      </c>
+      <c r="F154" s="45" t="s">
         <v>662</v>
       </c>
-      <c r="G154" s="47" t="s">
+      <c r="G154" s="45" t="s">
         <v>662</v>
       </c>
-      <c r="H154" s="47" t="s">
-        <v>821</v>
-      </c>
-      <c r="I154" s="47"/>
-      <c r="J154" s="47" t="s">
+      <c r="H154" s="45" t="s">
+        <v>820</v>
+      </c>
+      <c r="I154" s="45"/>
+      <c r="J154" s="45" t="s">
         <v>515</v>
       </c>
       <c r="K154" s="14" t="s">
@@ -11487,10 +11443,10 @@
       <c r="L154" s="14" t="s">
         <v>621</v>
       </c>
-      <c r="M154" s="71" t="s">
+      <c r="M154" s="59" t="s">
         <v>655</v>
       </c>
-      <c r="N154" s="71" t="s">
+      <c r="N154" s="59" t="s">
         <v>1</v>
       </c>
       <c r="O154" s="16" t="s">
@@ -11498,34 +11454,34 @@
       </c>
     </row>
     <row r="155" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A155" s="46" t="s">
+      <c r="A155" s="44" t="s">
         <v>566</v>
       </c>
-      <c r="B155" s="47" t="s">
+      <c r="B155" s="45" t="s">
         <v>571</v>
       </c>
-      <c r="C155" s="47" t="s">
-        <v>815</v>
-      </c>
-      <c r="D155" s="47" t="s">
+      <c r="C155" s="45" t="s">
+        <v>814</v>
+      </c>
+      <c r="D155" s="45" t="s">
         <v>662</v>
       </c>
-      <c r="E155" s="47" t="s">
-        <v>659</v>
-      </c>
-      <c r="F155" s="47" t="s">
+      <c r="E155" s="45" t="s">
+        <v>659</v>
+      </c>
+      <c r="F155" s="45" t="s">
         <v>662</v>
       </c>
-      <c r="G155" s="47" t="s">
+      <c r="G155" s="45" t="s">
         <v>662</v>
       </c>
-      <c r="H155" s="47" t="s">
-        <v>821</v>
-      </c>
-      <c r="I155" s="47">
-        <v>1</v>
-      </c>
-      <c r="J155" s="47" t="s">
+      <c r="H155" s="45" t="s">
+        <v>820</v>
+      </c>
+      <c r="I155" s="45">
+        <v>1</v>
+      </c>
+      <c r="J155" s="45" t="s">
         <v>515</v>
       </c>
       <c r="K155" s="14" t="s">
@@ -11534,10 +11490,10 @@
       <c r="L155" s="14" t="s">
         <v>621</v>
       </c>
-      <c r="M155" s="71" t="s">
+      <c r="M155" s="59" t="s">
         <v>655</v>
       </c>
-      <c r="N155" s="71" t="s">
+      <c r="N155" s="59" t="s">
         <v>1</v>
       </c>
       <c r="O155" s="16" t="s">
@@ -11545,34 +11501,34 @@
       </c>
     </row>
     <row r="156" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A156" s="46" t="s">
+      <c r="A156" s="44" t="s">
         <v>564</v>
       </c>
-      <c r="B156" s="47" t="s">
+      <c r="B156" s="45" t="s">
         <v>569</v>
       </c>
-      <c r="C156" s="47" t="s">
-        <v>814</v>
-      </c>
-      <c r="D156" s="47" t="s">
+      <c r="C156" s="45" t="s">
+        <v>813</v>
+      </c>
+      <c r="D156" s="45" t="s">
         <v>662</v>
       </c>
-      <c r="E156" s="47" t="s">
-        <v>659</v>
-      </c>
-      <c r="F156" s="47" t="s">
+      <c r="E156" s="45" t="s">
+        <v>659</v>
+      </c>
+      <c r="F156" s="45" t="s">
         <v>662</v>
       </c>
-      <c r="G156" s="47" t="s">
+      <c r="G156" s="45" t="s">
         <v>662</v>
       </c>
-      <c r="H156" s="47" t="s">
-        <v>821</v>
-      </c>
-      <c r="I156" s="47">
-        <v>1</v>
-      </c>
-      <c r="J156" s="47" t="s">
+      <c r="H156" s="45" t="s">
+        <v>820</v>
+      </c>
+      <c r="I156" s="45">
+        <v>1</v>
+      </c>
+      <c r="J156" s="45" t="s">
         <v>573</v>
       </c>
       <c r="K156" s="14" t="s">
@@ -11581,10 +11537,10 @@
       <c r="L156" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M156" s="71" t="s">
+      <c r="M156" s="59" t="s">
         <v>654</v>
       </c>
-      <c r="N156" s="71" t="s">
+      <c r="N156" s="59" t="s">
         <v>1</v>
       </c>
       <c r="O156" s="16" t="s">
@@ -11592,34 +11548,34 @@
       </c>
     </row>
     <row r="157" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A157" s="46" t="s">
+      <c r="A157" s="44" t="s">
         <v>563</v>
       </c>
-      <c r="B157" s="47" t="s">
+      <c r="B157" s="45" t="s">
         <v>568</v>
       </c>
-      <c r="C157" s="47" t="s">
-        <v>816</v>
-      </c>
-      <c r="D157" s="47" t="s">
+      <c r="C157" s="45" t="s">
+        <v>815</v>
+      </c>
+      <c r="D157" s="45" t="s">
         <v>662</v>
       </c>
-      <c r="E157" s="47" t="s">
-        <v>659</v>
-      </c>
-      <c r="F157" s="47" t="s">
+      <c r="E157" s="45" t="s">
+        <v>659</v>
+      </c>
+      <c r="F157" s="45" t="s">
         <v>662</v>
       </c>
-      <c r="G157" s="47" t="s">
+      <c r="G157" s="45" t="s">
         <v>662</v>
       </c>
-      <c r="H157" s="47" t="s">
-        <v>821</v>
-      </c>
-      <c r="I157" s="47">
-        <v>1</v>
-      </c>
-      <c r="J157" s="47" t="s">
+      <c r="H157" s="45" t="s">
+        <v>820</v>
+      </c>
+      <c r="I157" s="45">
+        <v>1</v>
+      </c>
+      <c r="J157" s="45" t="s">
         <v>401</v>
       </c>
       <c r="K157" s="14" t="s">
@@ -11628,10 +11584,10 @@
       <c r="L157" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M157" s="71" t="s">
+      <c r="M157" s="59" t="s">
         <v>653</v>
       </c>
-      <c r="N157" s="71" t="s">
+      <c r="N157" s="59" t="s">
         <v>1</v>
       </c>
       <c r="O157" s="16" t="s">
@@ -11639,34 +11595,34 @@
       </c>
     </row>
     <row r="158" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A158" s="46" t="s">
+      <c r="A158" s="44" t="s">
         <v>650</v>
       </c>
-      <c r="B158" s="47" t="s">
+      <c r="B158" s="45" t="s">
         <v>567</v>
       </c>
-      <c r="C158" s="47" t="s">
-        <v>806</v>
-      </c>
-      <c r="D158" s="47" t="s">
+      <c r="C158" s="45" t="s">
+        <v>805</v>
+      </c>
+      <c r="D158" s="45" t="s">
         <v>662</v>
       </c>
-      <c r="E158" s="47" t="s">
-        <v>659</v>
-      </c>
-      <c r="F158" s="47" t="s">
+      <c r="E158" s="45" t="s">
+        <v>659</v>
+      </c>
+      <c r="F158" s="45" t="s">
         <v>662</v>
       </c>
-      <c r="G158" s="47" t="s">
+      <c r="G158" s="45" t="s">
         <v>662</v>
       </c>
-      <c r="H158" s="47" t="s">
-        <v>821</v>
-      </c>
-      <c r="I158" s="47">
-        <v>1</v>
-      </c>
-      <c r="J158" s="47" t="s">
+      <c r="H158" s="45" t="s">
+        <v>820</v>
+      </c>
+      <c r="I158" s="45">
+        <v>1</v>
+      </c>
+      <c r="J158" s="45" t="s">
         <v>516</v>
       </c>
       <c r="K158" s="14" t="s">
@@ -11675,10 +11631,10 @@
       <c r="L158" s="14" t="s">
         <v>621</v>
       </c>
-      <c r="M158" s="71" t="s">
+      <c r="M158" s="59" t="s">
         <v>652</v>
       </c>
-      <c r="N158" s="71" t="s">
+      <c r="N158" s="59" t="s">
         <v>1</v>
       </c>
       <c r="O158" s="16" t="s">
@@ -11686,34 +11642,34 @@
       </c>
     </row>
     <row r="159" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A159" s="46" t="s">
+      <c r="A159" s="44" t="s">
         <v>565</v>
       </c>
-      <c r="B159" s="47" t="s">
+      <c r="B159" s="45" t="s">
         <v>570</v>
       </c>
-      <c r="C159" s="47" t="s">
-        <v>812</v>
-      </c>
-      <c r="D159" s="47" t="s">
+      <c r="C159" s="45" t="s">
+        <v>811</v>
+      </c>
+      <c r="D159" s="45" t="s">
         <v>662</v>
       </c>
-      <c r="E159" s="47" t="s">
-        <v>659</v>
-      </c>
-      <c r="F159" s="47" t="s">
+      <c r="E159" s="45" t="s">
+        <v>659</v>
+      </c>
+      <c r="F159" s="45" t="s">
         <v>662</v>
       </c>
-      <c r="G159" s="47" t="s">
+      <c r="G159" s="45" t="s">
         <v>662</v>
       </c>
-      <c r="H159" s="47" t="s">
-        <v>821</v>
-      </c>
-      <c r="I159" s="47">
-        <v>1</v>
-      </c>
-      <c r="J159" s="47" t="s">
+      <c r="H159" s="45" t="s">
+        <v>820</v>
+      </c>
+      <c r="I159" s="45">
+        <v>1</v>
+      </c>
+      <c r="J159" s="45" t="s">
         <v>575</v>
       </c>
       <c r="K159" s="14" t="s">
@@ -11722,10 +11678,10 @@
       <c r="L159" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M159" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="N159" s="71" t="s">
+      <c r="M159" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="N159" s="59" t="s">
         <v>1</v>
       </c>
       <c r="O159" s="16" t="s">
@@ -11733,34 +11689,34 @@
       </c>
     </row>
     <row r="160" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A160" s="46" t="s">
+      <c r="A160" s="44" t="s">
         <v>629</v>
       </c>
-      <c r="B160" s="47" t="s">
+      <c r="B160" s="45" t="s">
         <v>628</v>
       </c>
-      <c r="C160" s="47" t="s">
-        <v>811</v>
-      </c>
-      <c r="D160" s="47" t="s">
+      <c r="C160" s="45" t="s">
+        <v>810</v>
+      </c>
+      <c r="D160" s="45" t="s">
         <v>662</v>
       </c>
-      <c r="E160" s="47" t="s">
-        <v>659</v>
-      </c>
-      <c r="F160" s="47" t="s">
+      <c r="E160" s="45" t="s">
+        <v>659</v>
+      </c>
+      <c r="F160" s="45" t="s">
         <v>662</v>
       </c>
-      <c r="G160" s="47" t="s">
+      <c r="G160" s="45" t="s">
         <v>662</v>
       </c>
-      <c r="H160" s="47" t="s">
-        <v>821</v>
-      </c>
-      <c r="I160" s="47">
-        <v>1</v>
-      </c>
-      <c r="J160" s="47" t="s">
+      <c r="H160" s="45" t="s">
+        <v>820</v>
+      </c>
+      <c r="I160" s="45">
+        <v>1</v>
+      </c>
+      <c r="J160" s="45" t="s">
         <v>664</v>
       </c>
       <c r="K160" s="14" t="s">
@@ -11769,10 +11725,10 @@
       <c r="L160" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M160" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="N160" s="71" t="s">
+      <c r="M160" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="N160" s="59" t="s">
         <v>1</v>
       </c>
       <c r="O160" s="16" t="s">
@@ -11780,34 +11736,34 @@
       </c>
     </row>
     <row r="161" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A161" s="46" t="s">
+      <c r="A161" s="44" t="s">
         <v>651</v>
       </c>
-      <c r="B161" s="47" t="s">
+      <c r="B161" s="45" t="s">
         <v>567</v>
       </c>
-      <c r="C161" s="47" t="s">
-        <v>807</v>
-      </c>
-      <c r="D161" s="47" t="s">
+      <c r="C161" s="45" t="s">
+        <v>806</v>
+      </c>
+      <c r="D161" s="45" t="s">
         <v>662</v>
       </c>
-      <c r="E161" s="47" t="s">
-        <v>659</v>
-      </c>
-      <c r="F161" s="47" t="s">
+      <c r="E161" s="45" t="s">
+        <v>659</v>
+      </c>
+      <c r="F161" s="45" t="s">
         <v>662</v>
       </c>
-      <c r="G161" s="47" t="s">
+      <c r="G161" s="45" t="s">
         <v>662</v>
       </c>
-      <c r="H161" s="47" t="s">
-        <v>821</v>
-      </c>
-      <c r="I161" s="47">
+      <c r="H161" s="45" t="s">
+        <v>820</v>
+      </c>
+      <c r="I161" s="45">
         <v>3</v>
       </c>
-      <c r="J161" s="47" t="s">
+      <c r="J161" s="45" t="s">
         <v>516</v>
       </c>
       <c r="K161" s="14" t="s">
@@ -11816,10 +11772,10 @@
       <c r="L161" s="14" t="s">
         <v>621</v>
       </c>
-      <c r="M161" s="71" t="s">
+      <c r="M161" s="59" t="s">
         <v>652</v>
       </c>
-      <c r="N161" s="71" t="s">
+      <c r="N161" s="59" t="s">
         <v>1</v>
       </c>
       <c r="O161" s="16" t="s">
@@ -11827,34 +11783,34 @@
       </c>
     </row>
     <row r="162" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A162" s="46" t="s">
+      <c r="A162" s="44" t="s">
         <v>798</v>
       </c>
-      <c r="B162" s="47" t="s">
+      <c r="B162" s="45" t="s">
         <v>569</v>
       </c>
-      <c r="C162" s="47" t="s">
-        <v>808</v>
-      </c>
-      <c r="D162" s="47" t="s">
+      <c r="C162" s="45" t="s">
+        <v>807</v>
+      </c>
+      <c r="D162" s="45" t="s">
         <v>662</v>
       </c>
-      <c r="E162" s="47" t="s">
-        <v>659</v>
-      </c>
-      <c r="F162" s="47" t="s">
+      <c r="E162" s="45" t="s">
+        <v>659</v>
+      </c>
+      <c r="F162" s="45" t="s">
         <v>662</v>
       </c>
-      <c r="G162" s="47" t="s">
+      <c r="G162" s="45" t="s">
         <v>662</v>
       </c>
-      <c r="H162" s="47" t="s">
-        <v>821</v>
-      </c>
-      <c r="I162" s="47">
+      <c r="H162" s="45" t="s">
+        <v>820</v>
+      </c>
+      <c r="I162" s="45">
         <v>3</v>
       </c>
-      <c r="J162" s="47" t="s">
+      <c r="J162" s="45" t="s">
         <v>573</v>
       </c>
       <c r="K162" s="14" t="s">
@@ -11863,43 +11819,43 @@
       <c r="L162" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M162" s="71" t="s">
+      <c r="M162" s="59" t="s">
         <v>654</v>
       </c>
-      <c r="N162" s="71"/>
+      <c r="N162" s="59"/>
       <c r="O162" s="16" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="163" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A163" s="46" t="s">
+      <c r="A163" s="44" t="s">
         <v>799</v>
       </c>
-      <c r="B163" s="47" t="s">
+      <c r="B163" s="45" t="s">
         <v>570</v>
       </c>
-      <c r="C163" s="47" t="s">
-        <v>810</v>
-      </c>
-      <c r="D163" s="47" t="s">
+      <c r="C163" s="45" t="s">
+        <v>809</v>
+      </c>
+      <c r="D163" s="45" t="s">
         <v>662</v>
       </c>
-      <c r="E163" s="47" t="s">
-        <v>659</v>
-      </c>
-      <c r="F163" s="47" t="s">
+      <c r="E163" s="45" t="s">
+        <v>659</v>
+      </c>
+      <c r="F163" s="45" t="s">
         <v>662</v>
       </c>
-      <c r="G163" s="47" t="s">
+      <c r="G163" s="45" t="s">
         <v>662</v>
       </c>
-      <c r="H163" s="47" t="s">
-        <v>821</v>
-      </c>
-      <c r="I163" s="47">
+      <c r="H163" s="45" t="s">
+        <v>820</v>
+      </c>
+      <c r="I163" s="45">
         <v>3</v>
       </c>
-      <c r="J163" s="47" t="s">
+      <c r="J163" s="45" t="s">
         <v>575</v>
       </c>
       <c r="K163" s="14" t="s">
@@ -11908,43 +11864,43 @@
       <c r="L163" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M163" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="N163" s="71"/>
+      <c r="M163" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="N163" s="59"/>
       <c r="O163" s="16" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="164" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A164" s="46" t="s">
+      <c r="A164" s="44" t="s">
         <v>800</v>
       </c>
-      <c r="B164" s="47" t="s">
+      <c r="B164" s="45" t="s">
         <v>568</v>
       </c>
-      <c r="C164" s="47" t="s">
-        <v>809</v>
-      </c>
-      <c r="D164" s="47" t="s">
+      <c r="C164" s="45" t="s">
+        <v>808</v>
+      </c>
+      <c r="D164" s="45" t="s">
         <v>662</v>
       </c>
-      <c r="E164" s="47" t="s">
-        <v>659</v>
-      </c>
-      <c r="F164" s="47" t="s">
+      <c r="E164" s="45" t="s">
+        <v>659</v>
+      </c>
+      <c r="F164" s="45" t="s">
         <v>662</v>
       </c>
-      <c r="G164" s="47" t="s">
+      <c r="G164" s="45" t="s">
         <v>662</v>
       </c>
-      <c r="H164" s="47" t="s">
-        <v>821</v>
-      </c>
-      <c r="I164" s="47">
+      <c r="H164" s="45" t="s">
+        <v>820</v>
+      </c>
+      <c r="I164" s="45">
         <v>3</v>
       </c>
-      <c r="J164" s="47" t="s">
+      <c r="J164" s="45" t="s">
         <v>401</v>
       </c>
       <c r="K164" s="14" t="s">
@@ -11953,10 +11909,10 @@
       <c r="L164" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M164" s="71" t="s">
+      <c r="M164" s="59" t="s">
         <v>653</v>
       </c>
-      <c r="N164" s="71"/>
+      <c r="N164" s="59"/>
       <c r="O164" s="16" t="s">
         <v>572</v>
       </c>
@@ -12027,35 +11983,35 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="40" t="s">
         <v>378</v>
       </c>
-      <c r="D2" s="41" t="s">
-        <v>734</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>659</v>
-      </c>
-      <c r="F2" s="41" t="s">
+      <c r="D2" s="40" t="s">
+        <v>734</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>659</v>
+      </c>
+      <c r="F2" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="40" t="s">
         <v>579</v>
       </c>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41" t="s">
+      <c r="H2" s="40"/>
+      <c r="I2" s="40" t="s">
         <v>618</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="41" t="s">
         <v>620</v>
       </c>
       <c r="L2" s="15" t="s">
@@ -12069,31 +12025,31 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="45" t="s">
         <v>627</v>
       </c>
-      <c r="C7" s="47" t="s">
-        <v>813</v>
-      </c>
-      <c r="D7" s="47" t="s">
+      <c r="C7" s="45" t="s">
+        <v>812</v>
+      </c>
+      <c r="D7" s="45" t="s">
         <v>662</v>
       </c>
-      <c r="E7" s="47" t="s">
-        <v>659</v>
-      </c>
-      <c r="F7" s="47" t="s">
+      <c r="E7" s="45" t="s">
+        <v>659</v>
+      </c>
+      <c r="F7" s="45" t="s">
         <v>662</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="45" t="s">
         <v>662</v>
       </c>
-      <c r="H7" s="47">
-        <v>1</v>
-      </c>
-      <c r="I7" s="47" t="s">
+      <c r="H7" s="45">
+        <v>1</v>
+      </c>
+      <c r="I7" s="45" t="s">
         <v>642</v>
       </c>
       <c r="J7" s="14" t="s">
@@ -12102,10 +12058,10 @@
       <c r="K7" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="L7" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="M7" s="71" t="s">
+      <c r="L7" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="59" t="s">
         <v>1</v>
       </c>
       <c r="N7" s="16" t="s">

--- a/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D197E81F-7A5A-2F40-A3B1-AC82485487E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2436B5C8-EB2C-C445-8600-A3553B56AFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7780" yWindow="500" windowWidth="34680" windowHeight="20940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="520" yWindow="500" windowWidth="21080" windowHeight="23880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flavi.txt" sheetId="1" r:id="rId1"/>
@@ -4659,9 +4659,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H66" sqref="H66"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2436B5C8-EB2C-C445-8600-A3553B56AFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CBB099-D07B-924C-A206-1CE67AC7146A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="500" windowWidth="21080" windowHeight="23880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="520" yWindow="500" windowWidth="23260" windowHeight="24280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flavi.txt" sheetId="1" r:id="rId1"/>
@@ -4660,8 +4660,8 @@
   <dimension ref="A1:O165"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5956,7 +5956,7 @@
         <v>538</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>820</v>
+        <v>401</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="7" t="s">
@@ -6001,7 +6001,7 @@
         <v>538</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>820</v>
+        <v>401</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="7" t="s">
@@ -6046,7 +6046,7 @@
         <v>538</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>820</v>
+        <v>501</v>
       </c>
       <c r="I31" s="7"/>
       <c r="J31" s="7" t="s">
@@ -6091,7 +6091,7 @@
         <v>538</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>820</v>
+        <v>401</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="7" t="s">
@@ -6136,7 +6136,7 @@
         <v>538</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>820</v>
+        <v>401</v>
       </c>
       <c r="I33" s="7"/>
       <c r="J33" s="7" t="s">
@@ -6181,7 +6181,7 @@
         <v>538</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>820</v>
+        <v>501</v>
       </c>
       <c r="I34" s="7"/>
       <c r="J34" s="7" t="s">
@@ -6226,7 +6226,7 @@
         <v>538</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>820</v>
+        <v>501</v>
       </c>
       <c r="I35" s="7"/>
       <c r="J35" s="7" t="s">
@@ -6271,7 +6271,7 @@
         <v>538</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>820</v>
+        <v>501</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="7" t="s">
@@ -6316,7 +6316,7 @@
         <v>538</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>820</v>
+        <v>501</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7" t="s">
@@ -6361,7 +6361,7 @@
         <v>538</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>820</v>
+        <v>401</v>
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="7" t="s">
@@ -6406,7 +6406,7 @@
         <v>538</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>820</v>
+        <v>401</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="7" t="s">
@@ -6451,7 +6451,7 @@
         <v>538</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>820</v>
+        <v>401</v>
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
@@ -6494,7 +6494,7 @@
         <v>538</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>820</v>
+        <v>501</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
@@ -6539,7 +6539,7 @@
         <v>538</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>820</v>
+        <v>401</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
@@ -6584,7 +6584,7 @@
         <v>538</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>820</v>
+        <v>401</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
@@ -6629,7 +6629,7 @@
         <v>538</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>820</v>
+        <v>401</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
@@ -6673,8 +6673,8 @@
       <c r="G45" s="28" t="s">
         <v>538</v>
       </c>
-      <c r="H45" s="28" t="s">
-        <v>820</v>
+      <c r="H45" s="7" t="s">
+        <v>501</v>
       </c>
       <c r="I45" s="28"/>
       <c r="J45" s="7" t="s">
@@ -6719,7 +6719,7 @@
         <v>538</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>820</v>
+        <v>401</v>
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="7" t="s">
@@ -6764,7 +6764,7 @@
         <v>538</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>820</v>
+        <v>401</v>
       </c>
       <c r="I47" s="7"/>
       <c r="J47" s="7" t="s">
@@ -6809,7 +6809,7 @@
         <v>538</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>820</v>
+        <v>501</v>
       </c>
       <c r="I48" s="7"/>
       <c r="J48" s="7" t="s">
@@ -6854,7 +6854,7 @@
         <v>538</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>820</v>
+        <v>401</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="7" t="s">
@@ -6899,7 +6899,7 @@
         <v>538</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>820</v>
+        <v>401</v>
       </c>
       <c r="I50" s="7"/>
       <c r="J50" s="7" t="s">
@@ -6944,7 +6944,7 @@
         <v>538</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>820</v>
+        <v>401</v>
       </c>
       <c r="I51" s="7"/>
       <c r="J51" s="7" t="s">
@@ -6989,7 +6989,7 @@
         <v>538</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>820</v>
+        <v>401</v>
       </c>
       <c r="I52" s="7"/>
       <c r="J52" s="7" t="s">
@@ -7034,7 +7034,7 @@
         <v>538</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>820</v>
+        <v>401</v>
       </c>
       <c r="I53" s="7"/>
       <c r="J53" s="7" t="s">
@@ -7079,7 +7079,7 @@
         <v>538</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>820</v>
+        <v>401</v>
       </c>
       <c r="I54" s="7"/>
       <c r="J54" s="7" t="s">
@@ -7124,7 +7124,7 @@
         <v>538</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>820</v>
+        <v>401</v>
       </c>
       <c r="I55" s="7"/>
       <c r="J55" s="7" t="s">
@@ -7169,7 +7169,7 @@
         <v>538</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>820</v>
+        <v>501</v>
       </c>
       <c r="I56" s="7"/>
       <c r="J56" s="7" t="s">
@@ -7214,7 +7214,7 @@
         <v>538</v>
       </c>
       <c r="H57" s="31" t="s">
-        <v>820</v>
+        <v>401</v>
       </c>
       <c r="I57" s="31"/>
       <c r="J57" s="31" t="s">
@@ -7259,7 +7259,7 @@
         <v>538</v>
       </c>
       <c r="H58" s="31" t="s">
-        <v>820</v>
+        <v>401</v>
       </c>
       <c r="I58" s="31"/>
       <c r="J58" s="31" t="s">
@@ -7304,7 +7304,7 @@
         <v>538</v>
       </c>
       <c r="H59" s="31" t="s">
-        <v>820</v>
+        <v>401</v>
       </c>
       <c r="I59" s="31"/>
       <c r="J59" s="31" t="s">
@@ -7349,7 +7349,7 @@
         <v>538</v>
       </c>
       <c r="H60" s="31" t="s">
-        <v>820</v>
+        <v>401</v>
       </c>
       <c r="I60" s="31"/>
       <c r="J60" s="31" t="s">
@@ -7394,7 +7394,7 @@
         <v>538</v>
       </c>
       <c r="H61" s="31" t="s">
-        <v>820</v>
+        <v>401</v>
       </c>
       <c r="I61" s="31"/>
       <c r="J61" s="31" t="s">
@@ -7439,7 +7439,7 @@
         <v>538</v>
       </c>
       <c r="H62" s="31" t="s">
-        <v>820</v>
+        <v>401</v>
       </c>
       <c r="I62" s="31"/>
       <c r="J62" s="31" t="s">
@@ -7484,7 +7484,7 @@
         <v>538</v>
       </c>
       <c r="H63" s="31" t="s">
-        <v>820</v>
+        <v>401</v>
       </c>
       <c r="I63" s="31"/>
       <c r="J63" s="31" t="s">
@@ -7531,7 +7531,7 @@
       <c r="H64" s="34" t="s">
         <v>820</v>
       </c>
-      <c r="I64" s="24"/>
+      <c r="I64" s="34"/>
       <c r="J64" s="24" t="s">
         <v>505</v>
       </c>
@@ -8026,7 +8026,7 @@
       <c r="H75" s="34" t="s">
         <v>820</v>
       </c>
-      <c r="I75" s="58"/>
+      <c r="I75" s="34"/>
       <c r="J75" s="58" t="s">
         <v>801</v>
       </c>

--- a/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CBB099-D07B-924C-A206-1CE67AC7146A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93267EA0-9DC5-3D42-B441-AF8E29643F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="500" windowWidth="23260" windowHeight="24280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25120" yWindow="4180" windowWidth="23260" windowHeight="24280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flavi.txt" sheetId="1" r:id="rId1"/>
@@ -4660,8 +4660,8 @@
   <dimension ref="A1:O165"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C44" sqref="A1:O164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8388,10 +8388,10 @@
       </c>
       <c r="I83" s="38"/>
       <c r="J83" s="38" t="s">
-        <v>638</v>
+        <v>617</v>
       </c>
       <c r="K83" s="38" t="s">
-        <v>638</v>
+        <v>617</v>
       </c>
       <c r="L83" s="38" t="s">
         <v>639</v>
@@ -8433,10 +8433,10 @@
       </c>
       <c r="I84" s="38"/>
       <c r="J84" s="38" t="s">
-        <v>79</v>
+        <v>617</v>
       </c>
       <c r="K84" s="38" t="s">
-        <v>79</v>
+        <v>617</v>
       </c>
       <c r="L84" s="38" t="s">
         <v>639</v>

--- a/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93267EA0-9DC5-3D42-B441-AF8E29643F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7873995B-6236-DA41-BD79-73744ED5D2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25120" yWindow="4180" windowWidth="23260" windowHeight="24280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="removed" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">flavi.txt!$A$1:$N$121</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">flavi.txt!$A$1:$N$120</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2256" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2242" uniqueCount="819">
   <si>
     <t>AY632538</t>
   </si>
@@ -2441,15 +2441,6 @@
   </si>
   <si>
     <t>KM521553</t>
-  </si>
-  <si>
-    <t>sandfly</t>
-  </si>
-  <si>
-    <t>Ecuador Paraiso Escondido virus</t>
-  </si>
-  <si>
-    <t>KJ152564</t>
   </si>
   <si>
     <t>JMTV_CONCAT</t>
@@ -2590,7 +2581,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2725,12 +2716,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3472,7 +3457,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3591,8 +3576,7 @@
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="725">
@@ -4657,11 +4641,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O165"/>
+  <dimension ref="A1:O164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C44" sqref="A1:O164"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4701,10 +4685,10 @@
         <v>64</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>649</v>
@@ -4751,7 +4735,7 @@
         <v>785</v>
       </c>
       <c r="H2" s="56" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I2" s="56"/>
       <c r="J2" s="56" t="s">
@@ -4792,7 +4776,7 @@
         <v>466</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12" t="s">
@@ -4837,7 +4821,7 @@
         <v>466</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12" t="s">
@@ -4882,7 +4866,7 @@
         <v>466</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12" t="s">
@@ -4927,7 +4911,7 @@
         <v>466</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="12" t="s">
@@ -4972,7 +4956,7 @@
         <v>466</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="12" t="s">
@@ -5017,7 +5001,7 @@
         <v>466</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="12" t="s">
@@ -5062,7 +5046,7 @@
         <v>466</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="12" t="s">
@@ -5107,7 +5091,7 @@
         <v>466</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12" t="s">
@@ -5152,7 +5136,7 @@
         <v>466</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="12" t="s">
@@ -5197,7 +5181,7 @@
         <v>466</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="12" t="s">
@@ -5242,7 +5226,7 @@
         <v>466</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12" t="s">
@@ -5287,7 +5271,7 @@
         <v>466</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="12" t="s">
@@ -5332,7 +5316,7 @@
         <v>466</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="12" t="s">
@@ -5377,7 +5361,7 @@
         <v>466</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="12" t="s">
@@ -5422,7 +5406,7 @@
         <v>761</v>
       </c>
       <c r="H17" s="55" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I17" s="55"/>
       <c r="J17" s="55" t="s">
@@ -5465,7 +5449,7 @@
         <v>761</v>
       </c>
       <c r="H18" s="55" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I18" s="55"/>
       <c r="J18" s="55" t="s">
@@ -5508,7 +5492,7 @@
         <v>761</v>
       </c>
       <c r="H19" s="55" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I19" s="55"/>
       <c r="J19" s="55" t="s">
@@ -5548,10 +5532,10 @@
         <v>189</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I20" s="20"/>
       <c r="J20" s="20" t="s">
@@ -5593,10 +5577,10 @@
         <v>189</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I21" s="20"/>
       <c r="J21" s="20" t="s">
@@ -5638,10 +5622,10 @@
         <v>189</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I22" s="20"/>
       <c r="J22" s="20" t="s">
@@ -5683,10 +5667,10 @@
         <v>189</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I23" s="23"/>
       <c r="J23" s="23" t="s">
@@ -5728,10 +5712,10 @@
         <v>189</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I24" s="23"/>
       <c r="J24" s="23" t="s">
@@ -5773,10 +5757,10 @@
         <v>189</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I25" s="20"/>
       <c r="J25" s="23" t="s">
@@ -5818,10 +5802,10 @@
         <v>189</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I26" s="23"/>
       <c r="J26" s="23" t="s">
@@ -5863,10 +5847,10 @@
         <v>189</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I27" s="23"/>
       <c r="J27" s="23" t="s">
@@ -5908,10 +5892,10 @@
         <v>189</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I28" s="23"/>
       <c r="J28" s="23" t="s">
@@ -7529,7 +7513,7 @@
         <v>539</v>
       </c>
       <c r="H64" s="34" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I64" s="34"/>
       <c r="J64" s="24" t="s">
@@ -7574,7 +7558,7 @@
         <v>539</v>
       </c>
       <c r="H65" s="34" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I65" s="34"/>
       <c r="J65" s="34" t="s">
@@ -7619,7 +7603,7 @@
         <v>539</v>
       </c>
       <c r="H66" s="34" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I66" s="34"/>
       <c r="J66" s="34" t="s">
@@ -7664,7 +7648,7 @@
         <v>539</v>
       </c>
       <c r="H67" s="34" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I67" s="34"/>
       <c r="J67" s="34" t="s">
@@ -7709,7 +7693,7 @@
         <v>539</v>
       </c>
       <c r="H68" s="34" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I68" s="34"/>
       <c r="J68" s="34" t="s">
@@ -7754,7 +7738,7 @@
         <v>539</v>
       </c>
       <c r="H69" s="34" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I69" s="34"/>
       <c r="J69" s="34" t="s">
@@ -7799,7 +7783,7 @@
         <v>539</v>
       </c>
       <c r="H70" s="34" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I70" s="34"/>
       <c r="J70" s="34" t="s">
@@ -7844,7 +7828,7 @@
         <v>539</v>
       </c>
       <c r="H71" s="34" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I71" s="34"/>
       <c r="J71" s="34" t="s">
@@ -7889,7 +7873,7 @@
         <v>539</v>
       </c>
       <c r="H72" s="34" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I72" s="34"/>
       <c r="J72" s="34" t="s">
@@ -7934,7 +7918,7 @@
         <v>539</v>
       </c>
       <c r="H73" s="34" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I73" s="34"/>
       <c r="J73" s="34" t="s">
@@ -7979,7 +7963,7 @@
         <v>539</v>
       </c>
       <c r="H74" s="34" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I74" s="34"/>
       <c r="J74" s="34" t="s">
@@ -8002,59 +7986,59 @@
       </c>
     </row>
     <row r="75" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="33" t="s">
-        <v>803</v>
-      </c>
-      <c r="B75" s="34" t="s">
-        <v>802</v>
-      </c>
-      <c r="C75" s="34" t="s">
-        <v>436</v>
-      </c>
-      <c r="D75" s="34" t="s">
-        <v>734</v>
-      </c>
-      <c r="E75" s="34" t="s">
-        <v>659</v>
-      </c>
-      <c r="F75" s="34" t="s">
+      <c r="A75" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="B75" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C75" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="D75" s="36" t="s">
+        <v>734</v>
+      </c>
+      <c r="E75" s="36" t="s">
+        <v>659</v>
+      </c>
+      <c r="F75" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="G75" s="34" t="s">
-        <v>539</v>
-      </c>
-      <c r="H75" s="34" t="s">
-        <v>820</v>
-      </c>
-      <c r="I75" s="34"/>
-      <c r="J75" s="58" t="s">
-        <v>801</v>
-      </c>
-      <c r="K75" s="58" t="s">
+      <c r="G75" s="36" t="s">
+        <v>467</v>
+      </c>
+      <c r="H75" s="36" t="s">
+        <v>817</v>
+      </c>
+      <c r="I75" s="36"/>
+      <c r="J75" s="36" t="s">
+        <v>506</v>
+      </c>
+      <c r="K75" s="36" t="s">
         <v>617</v>
       </c>
-      <c r="L75" s="58" t="s">
-        <v>617</v>
-      </c>
-      <c r="M75" s="16" t="s">
-        <v>52</v>
+      <c r="L75" s="36" t="s">
+        <v>615</v>
+      </c>
+      <c r="M75" s="15" t="s">
+        <v>1</v>
       </c>
       <c r="N75" s="13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O75" s="16" t="s">
-        <v>180</v>
+        <v>357</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="35" t="s">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="B76" s="36" t="s">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="C76" s="36" t="s">
-        <v>356</v>
+        <v>424</v>
       </c>
       <c r="D76" s="36" t="s">
         <v>734</v>
@@ -8069,11 +8053,11 @@
         <v>467</v>
       </c>
       <c r="H76" s="36" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I76" s="36"/>
       <c r="J76" s="36" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="K76" s="36" t="s">
         <v>617</v>
@@ -8082,24 +8066,24 @@
         <v>615</v>
       </c>
       <c r="M76" s="15" t="s">
-        <v>1</v>
+        <v>425</v>
       </c>
       <c r="N76" s="13" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O76" s="16" t="s">
-        <v>357</v>
+        <v>169</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="35" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="B77" s="36" t="s">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="C77" s="36" t="s">
-        <v>424</v>
+        <v>351</v>
       </c>
       <c r="D77" s="36" t="s">
         <v>734</v>
@@ -8114,11 +8098,11 @@
         <v>467</v>
       </c>
       <c r="H77" s="36" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I77" s="36"/>
       <c r="J77" s="36" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="K77" s="36" t="s">
         <v>617</v>
@@ -8127,24 +8111,24 @@
         <v>615</v>
       </c>
       <c r="M77" s="15" t="s">
-        <v>425</v>
+        <v>352</v>
       </c>
       <c r="N77" s="13" t="s">
         <v>472</v>
       </c>
       <c r="O77" s="16" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="35" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="B78" s="36" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C78" s="36" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="D78" s="36" t="s">
         <v>734</v>
@@ -8159,37 +8143,37 @@
         <v>467</v>
       </c>
       <c r="H78" s="36" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I78" s="36"/>
       <c r="J78" s="36" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="K78" s="36" t="s">
         <v>617</v>
       </c>
       <c r="L78" s="36" t="s">
-        <v>615</v>
+        <v>639</v>
       </c>
       <c r="M78" s="15" t="s">
-        <v>352</v>
+        <v>1</v>
       </c>
       <c r="N78" s="13" t="s">
         <v>472</v>
       </c>
       <c r="O78" s="16" t="s">
-        <v>147</v>
+        <v>368</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="35" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B79" s="36" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C79" s="36" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="D79" s="36" t="s">
         <v>734</v>
@@ -8204,11 +8188,11 @@
         <v>467</v>
       </c>
       <c r="H79" s="36" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I79" s="36"/>
       <c r="J79" s="36" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K79" s="36" t="s">
         <v>617</v>
@@ -8217,24 +8201,24 @@
         <v>639</v>
       </c>
       <c r="M79" s="15" t="s">
-        <v>1</v>
+        <v>355</v>
       </c>
       <c r="N79" s="13" t="s">
         <v>472</v>
       </c>
       <c r="O79" s="16" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="35" t="s">
-        <v>227</v>
+        <v>635</v>
       </c>
       <c r="B80" s="36" t="s">
-        <v>108</v>
+        <v>634</v>
       </c>
       <c r="C80" s="36" t="s">
-        <v>353</v>
+        <v>637</v>
       </c>
       <c r="D80" s="36" t="s">
         <v>734</v>
@@ -8249,82 +8233,82 @@
         <v>467</v>
       </c>
       <c r="H80" s="36" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I80" s="36"/>
       <c r="J80" s="36" t="s">
-        <v>510</v>
+        <v>617</v>
       </c>
       <c r="K80" s="36" t="s">
         <v>617</v>
       </c>
       <c r="L80" s="36" t="s">
+        <v>617</v>
+      </c>
+      <c r="M80" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N80" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O80" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="B81" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="C81" s="38" t="s">
+        <v>384</v>
+      </c>
+      <c r="D81" s="38" t="s">
+        <v>734</v>
+      </c>
+      <c r="E81" s="38" t="s">
+        <v>659</v>
+      </c>
+      <c r="F81" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="G81" s="38" t="s">
+        <v>468</v>
+      </c>
+      <c r="H81" s="38" t="s">
+        <v>817</v>
+      </c>
+      <c r="I81" s="38"/>
+      <c r="J81" s="38" t="s">
+        <v>617</v>
+      </c>
+      <c r="K81" s="38" t="s">
+        <v>617</v>
+      </c>
+      <c r="L81" s="38" t="s">
         <v>639</v>
       </c>
-      <c r="M80" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="N80" s="13" t="s">
-        <v>472</v>
-      </c>
-      <c r="O80" s="16" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="35" t="s">
-        <v>635</v>
-      </c>
-      <c r="B81" s="36" t="s">
-        <v>634</v>
-      </c>
-      <c r="C81" s="36" t="s">
-        <v>637</v>
-      </c>
-      <c r="D81" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="E81" s="36" t="s">
-        <v>659</v>
-      </c>
-      <c r="F81" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="G81" s="36" t="s">
-        <v>467</v>
-      </c>
-      <c r="H81" s="36" t="s">
-        <v>820</v>
-      </c>
-      <c r="I81" s="36"/>
-      <c r="J81" s="36" t="s">
-        <v>617</v>
-      </c>
-      <c r="K81" s="36" t="s">
-        <v>617</v>
-      </c>
-      <c r="L81" s="36" t="s">
-        <v>617</v>
-      </c>
       <c r="M81" s="15" t="s">
-        <v>1</v>
+        <v>386</v>
       </c>
       <c r="N81" s="13" t="s">
-        <v>1</v>
+        <v>474</v>
       </c>
       <c r="O81" s="16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="37" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="B82" s="38" t="s">
-        <v>125</v>
+        <v>428</v>
       </c>
       <c r="C82" s="38" t="s">
-        <v>384</v>
+        <v>429</v>
       </c>
       <c r="D82" s="38" t="s">
         <v>734</v>
@@ -8339,7 +8323,7 @@
         <v>468</v>
       </c>
       <c r="H82" s="38" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I82" s="38"/>
       <c r="J82" s="38" t="s">
@@ -8352,24 +8336,24 @@
         <v>639</v>
       </c>
       <c r="M82" s="15" t="s">
-        <v>386</v>
+        <v>430</v>
       </c>
       <c r="N82" s="13" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="O82" s="16" t="s">
-        <v>385</v>
+        <v>172</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="37" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="B83" s="38" t="s">
-        <v>428</v>
+        <v>119</v>
       </c>
       <c r="C83" s="38" t="s">
-        <v>429</v>
+        <v>370</v>
       </c>
       <c r="D83" s="38" t="s">
         <v>734</v>
@@ -8384,7 +8368,7 @@
         <v>468</v>
       </c>
       <c r="H83" s="38" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I83" s="38"/>
       <c r="J83" s="38" t="s">
@@ -8397,69 +8381,69 @@
         <v>639</v>
       </c>
       <c r="M83" s="15" t="s">
-        <v>430</v>
+        <v>371</v>
       </c>
       <c r="N83" s="13" t="s">
         <v>471</v>
       </c>
       <c r="O83" s="16" t="s">
-        <v>172</v>
+        <v>533</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A84" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="B84" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="C84" s="38" t="s">
-        <v>370</v>
-      </c>
-      <c r="D84" s="38" t="s">
-        <v>734</v>
-      </c>
-      <c r="E84" s="38" t="s">
-        <v>659</v>
-      </c>
-      <c r="F84" s="38" t="s">
+      <c r="A84" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B84" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="C84" s="40" t="s">
+        <v>459</v>
+      </c>
+      <c r="D84" s="40" t="s">
+        <v>734</v>
+      </c>
+      <c r="E84" s="40" t="s">
+        <v>659</v>
+      </c>
+      <c r="F84" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="G84" s="38" t="s">
-        <v>468</v>
-      </c>
-      <c r="H84" s="38" t="s">
-        <v>820</v>
-      </c>
-      <c r="I84" s="38"/>
-      <c r="J84" s="38" t="s">
-        <v>617</v>
-      </c>
-      <c r="K84" s="38" t="s">
-        <v>617</v>
-      </c>
-      <c r="L84" s="38" t="s">
-        <v>639</v>
-      </c>
-      <c r="M84" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="N84" s="13" t="s">
-        <v>471</v>
+      <c r="G84" s="40" t="s">
+        <v>818</v>
+      </c>
+      <c r="H84" s="40" t="s">
+        <v>817</v>
+      </c>
+      <c r="I84" s="40"/>
+      <c r="J84" s="40" t="s">
+        <v>515</v>
+      </c>
+      <c r="K84" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="L84" s="40" t="s">
+        <v>620</v>
+      </c>
+      <c r="M84" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="N84" s="16" t="s">
+        <v>475</v>
       </c>
       <c r="O84" s="16" t="s">
-        <v>533</v>
+        <v>152</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A85" s="39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B85" s="40" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C85" s="40" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D85" s="40" t="s">
         <v>734</v>
@@ -8471,40 +8455,40 @@
         <v>189</v>
       </c>
       <c r="G85" s="40" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="H85" s="40" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I85" s="40"/>
       <c r="J85" s="40" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="K85" s="40" t="s">
         <v>190</v>
       </c>
       <c r="L85" s="40" t="s">
-        <v>620</v>
-      </c>
-      <c r="M85" s="16" t="s">
-        <v>460</v>
-      </c>
-      <c r="N85" s="16" t="s">
-        <v>475</v>
+        <v>621</v>
+      </c>
+      <c r="M85" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="N85" s="13" t="s">
+        <v>474</v>
       </c>
       <c r="O85" s="16" t="s">
-        <v>152</v>
+        <v>462</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A86" s="39" t="s">
-        <v>60</v>
+        <v>258</v>
       </c>
       <c r="B86" s="40" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="C86" s="40" t="s">
-        <v>461</v>
+        <v>417</v>
       </c>
       <c r="D86" s="40" t="s">
         <v>734</v>
@@ -8516,40 +8500,40 @@
         <v>189</v>
       </c>
       <c r="G86" s="40" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="H86" s="40" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I86" s="40"/>
       <c r="J86" s="40" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K86" s="40" t="s">
         <v>190</v>
       </c>
       <c r="L86" s="40" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="M86" s="15" t="s">
-        <v>463</v>
+        <v>1</v>
       </c>
       <c r="N86" s="13" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O86" s="16" t="s">
-        <v>462</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A87" s="39" t="s">
-        <v>258</v>
+        <v>213</v>
       </c>
       <c r="B87" s="40" t="s">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="C87" s="40" t="s">
-        <v>417</v>
+        <v>313</v>
       </c>
       <c r="D87" s="40" t="s">
         <v>734</v>
@@ -8561,40 +8545,40 @@
         <v>189</v>
       </c>
       <c r="G87" s="40" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="H87" s="40" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I87" s="40"/>
       <c r="J87" s="40" t="s">
-        <v>515</v>
+        <v>640</v>
       </c>
       <c r="K87" s="40" t="s">
         <v>190</v>
       </c>
       <c r="L87" s="40" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M87" s="15" t="s">
         <v>1</v>
       </c>
       <c r="N87" s="13" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="O87" s="16" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="39" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="B88" s="40" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="C88" s="40" t="s">
-        <v>313</v>
+        <v>361</v>
       </c>
       <c r="D88" s="40" t="s">
         <v>734</v>
@@ -8606,14 +8590,14 @@
         <v>189</v>
       </c>
       <c r="G88" s="40" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="H88" s="40" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I88" s="40"/>
       <c r="J88" s="40" t="s">
-        <v>640</v>
+        <v>515</v>
       </c>
       <c r="K88" s="40" t="s">
         <v>190</v>
@@ -8622,24 +8606,24 @@
         <v>612</v>
       </c>
       <c r="M88" s="15" t="s">
-        <v>1</v>
+        <v>363</v>
       </c>
       <c r="N88" s="13" t="s">
         <v>471</v>
       </c>
       <c r="O88" s="16" t="s">
-        <v>77</v>
+        <v>362</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="39" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="B89" s="40" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C89" s="40" t="s">
-        <v>361</v>
+        <v>202</v>
       </c>
       <c r="D89" s="40" t="s">
         <v>734</v>
@@ -8651,10 +8635,10 @@
         <v>189</v>
       </c>
       <c r="G89" s="40" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="H89" s="40" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I89" s="40"/>
       <c r="J89" s="40" t="s">
@@ -8664,27 +8648,27 @@
         <v>190</v>
       </c>
       <c r="L89" s="40" t="s">
-        <v>612</v>
+        <v>641</v>
       </c>
       <c r="M89" s="15" t="s">
-        <v>363</v>
+        <v>1</v>
       </c>
       <c r="N89" s="13" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="O89" s="16" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="39" t="s">
-        <v>220</v>
+        <v>58</v>
       </c>
       <c r="B90" s="40" t="s">
-        <v>101</v>
+        <v>186</v>
       </c>
       <c r="C90" s="40" t="s">
-        <v>202</v>
+        <v>456</v>
       </c>
       <c r="D90" s="40" t="s">
         <v>734</v>
@@ -8696,40 +8680,40 @@
         <v>189</v>
       </c>
       <c r="G90" s="40" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="H90" s="40" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I90" s="40"/>
       <c r="J90" s="40" t="s">
-        <v>515</v>
+        <v>618</v>
       </c>
       <c r="K90" s="40" t="s">
         <v>190</v>
       </c>
       <c r="L90" s="40" t="s">
-        <v>641</v>
+        <v>620</v>
       </c>
       <c r="M90" s="15" t="s">
-        <v>1</v>
+        <v>458</v>
       </c>
       <c r="N90" s="13" t="s">
         <v>473</v>
       </c>
       <c r="O90" s="16" t="s">
-        <v>345</v>
+        <v>457</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="39" t="s">
-        <v>58</v>
+        <v>237</v>
       </c>
       <c r="B91" s="40" t="s">
-        <v>186</v>
+        <v>120</v>
       </c>
       <c r="C91" s="40" t="s">
-        <v>456</v>
+        <v>372</v>
       </c>
       <c r="D91" s="40" t="s">
         <v>734</v>
@@ -8741,40 +8725,40 @@
         <v>189</v>
       </c>
       <c r="G91" s="40" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="H91" s="40" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I91" s="40"/>
       <c r="J91" s="40" t="s">
-        <v>618</v>
+        <v>558</v>
       </c>
       <c r="K91" s="40" t="s">
         <v>190</v>
       </c>
       <c r="L91" s="40" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M91" s="15" t="s">
-        <v>458</v>
+        <v>373</v>
       </c>
       <c r="N91" s="13" t="s">
         <v>473</v>
       </c>
       <c r="O91" s="16" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A92" s="39" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B92" s="40" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C92" s="40" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="D92" s="40" t="s">
         <v>734</v>
@@ -8786,14 +8770,14 @@
         <v>189</v>
       </c>
       <c r="G92" s="40" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="H92" s="40" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I92" s="40"/>
       <c r="J92" s="40" t="s">
-        <v>558</v>
+        <v>515</v>
       </c>
       <c r="K92" s="40" t="s">
         <v>190</v>
@@ -8802,10 +8786,10 @@
         <v>612</v>
       </c>
       <c r="M92" s="15" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="N92" s="13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="O92" s="16" t="s">
         <v>118</v>
@@ -8813,13 +8797,13 @@
     </row>
     <row r="93" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A93" s="39" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="B93" s="40" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="C93" s="40" t="s">
-        <v>359</v>
+        <v>294</v>
       </c>
       <c r="D93" s="40" t="s">
         <v>734</v>
@@ -8831,40 +8815,40 @@
         <v>189</v>
       </c>
       <c r="G93" s="40" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="H93" s="40" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I93" s="40"/>
       <c r="J93" s="40" t="s">
-        <v>515</v>
+        <v>619</v>
       </c>
       <c r="K93" s="40" t="s">
         <v>190</v>
       </c>
       <c r="L93" s="40" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="M93" s="15" t="s">
-        <v>360</v>
+        <v>296</v>
       </c>
       <c r="N93" s="13" t="s">
-        <v>472</v>
-      </c>
-      <c r="O93" s="16" t="s">
-        <v>118</v>
+        <v>471</v>
+      </c>
+      <c r="O93" s="42" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A94" s="39" t="s">
-        <v>212</v>
+        <v>61</v>
       </c>
       <c r="B94" s="40" t="s">
-        <v>68</v>
+        <v>200</v>
       </c>
       <c r="C94" s="40" t="s">
-        <v>294</v>
+        <v>464</v>
       </c>
       <c r="D94" s="40" t="s">
         <v>734</v>
@@ -8876,40 +8860,40 @@
         <v>189</v>
       </c>
       <c r="G94" s="40" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="H94" s="40" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I94" s="40"/>
       <c r="J94" s="40" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K94" s="40" t="s">
         <v>190</v>
       </c>
       <c r="L94" s="40" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="M94" s="15" t="s">
-        <v>296</v>
+        <v>465</v>
       </c>
       <c r="N94" s="13" t="s">
-        <v>471</v>
-      </c>
-      <c r="O94" s="42" t="s">
-        <v>295</v>
+        <v>475</v>
+      </c>
+      <c r="O94" s="16" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A95" s="39" t="s">
-        <v>61</v>
+        <v>269</v>
       </c>
       <c r="B95" s="40" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="C95" s="40" t="s">
-        <v>464</v>
+        <v>431</v>
       </c>
       <c r="D95" s="40" t="s">
         <v>734</v>
@@ -8921,40 +8905,40 @@
         <v>189</v>
       </c>
       <c r="G95" s="40" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="H95" s="40" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I95" s="40"/>
       <c r="J95" s="40" t="s">
-        <v>618</v>
+        <v>515</v>
       </c>
       <c r="K95" s="40" t="s">
         <v>190</v>
       </c>
       <c r="L95" s="40" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="M95" s="15" t="s">
-        <v>465</v>
+        <v>48</v>
       </c>
       <c r="N95" s="13" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="O95" s="16" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A96" s="39" t="s">
-        <v>269</v>
+        <v>218</v>
       </c>
       <c r="B96" s="40" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="C96" s="40" t="s">
-        <v>431</v>
+        <v>342</v>
       </c>
       <c r="D96" s="40" t="s">
         <v>734</v>
@@ -8966,10 +8950,10 @@
         <v>189</v>
       </c>
       <c r="G96" s="40" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="H96" s="40" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I96" s="40"/>
       <c r="J96" s="40" t="s">
@@ -8979,27 +8963,27 @@
         <v>190</v>
       </c>
       <c r="L96" s="40" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="M96" s="15" t="s">
-        <v>48</v>
+        <v>343</v>
       </c>
       <c r="N96" s="13" t="s">
         <v>473</v>
       </c>
       <c r="O96" s="16" t="s">
-        <v>175</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A97" s="39" t="s">
-        <v>218</v>
+        <v>4</v>
       </c>
       <c r="B97" s="40" t="s">
-        <v>99</v>
+        <v>191</v>
       </c>
       <c r="C97" s="40" t="s">
-        <v>342</v>
+        <v>297</v>
       </c>
       <c r="D97" s="40" t="s">
         <v>734</v>
@@ -9011,10 +8995,10 @@
         <v>189</v>
       </c>
       <c r="G97" s="40" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="H97" s="40" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I97" s="40"/>
       <c r="J97" s="40" t="s">
@@ -9024,13 +9008,13 @@
         <v>190</v>
       </c>
       <c r="L97" s="40" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M97" s="15" t="s">
-        <v>343</v>
+        <v>298</v>
       </c>
       <c r="N97" s="13" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="O97" s="16" t="s">
         <v>1</v>
@@ -9038,13 +9022,13 @@
     </row>
     <row r="98" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A98" s="39" t="s">
-        <v>4</v>
+        <v>257</v>
       </c>
       <c r="B98" s="40" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="C98" s="40" t="s">
-        <v>297</v>
+        <v>415</v>
       </c>
       <c r="D98" s="40" t="s">
         <v>734</v>
@@ -9056,10 +9040,10 @@
         <v>189</v>
       </c>
       <c r="G98" s="40" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="H98" s="40" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I98" s="40"/>
       <c r="J98" s="40" t="s">
@@ -9069,72 +9053,72 @@
         <v>190</v>
       </c>
       <c r="L98" s="40" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="M98" s="15" t="s">
-        <v>298</v>
+        <v>416</v>
       </c>
       <c r="N98" s="13" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="O98" s="16" t="s">
-        <v>1</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A99" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="B99" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="C99" s="40" t="s">
-        <v>415</v>
-      </c>
-      <c r="D99" s="40" t="s">
-        <v>734</v>
-      </c>
-      <c r="E99" s="40" t="s">
-        <v>659</v>
-      </c>
-      <c r="F99" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="G99" s="40" t="s">
-        <v>821</v>
-      </c>
-      <c r="H99" s="40" t="s">
-        <v>820</v>
-      </c>
-      <c r="I99" s="40"/>
-      <c r="J99" s="40" t="s">
-        <v>515</v>
-      </c>
-      <c r="K99" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="L99" s="40" t="s">
-        <v>620</v>
+      <c r="A99" s="47" t="s">
+        <v>550</v>
+      </c>
+      <c r="B99" s="48" t="s">
+        <v>553</v>
+      </c>
+      <c r="C99" s="49" t="s">
+        <v>600</v>
+      </c>
+      <c r="D99" s="49" t="s">
+        <v>734</v>
+      </c>
+      <c r="E99" s="49" t="s">
+        <v>659</v>
+      </c>
+      <c r="F99" s="49" t="s">
+        <v>479</v>
+      </c>
+      <c r="G99" s="49" t="s">
+        <v>779</v>
+      </c>
+      <c r="H99" s="49" t="s">
+        <v>817</v>
+      </c>
+      <c r="I99" s="49"/>
+      <c r="J99" s="49" t="s">
+        <v>558</v>
+      </c>
+      <c r="K99" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="L99" s="14" t="s">
+        <v>195</v>
       </c>
       <c r="M99" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="N99" s="13" t="s">
-        <v>473</v>
+        <v>1</v>
+      </c>
+      <c r="N99" s="15" t="s">
+        <v>1</v>
       </c>
       <c r="O99" s="16" t="s">
-        <v>152</v>
+        <v>557</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A100" s="47" t="s">
-        <v>550</v>
+        <v>478</v>
       </c>
       <c r="B100" s="48" t="s">
-        <v>553</v>
+        <v>485</v>
       </c>
       <c r="C100" s="49" t="s">
-        <v>600</v>
+        <v>482</v>
       </c>
       <c r="D100" s="49" t="s">
         <v>734</v>
@@ -9149,11 +9133,11 @@
         <v>779</v>
       </c>
       <c r="H100" s="49" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I100" s="49"/>
       <c r="J100" s="49" t="s">
-        <v>558</v>
+        <v>537</v>
       </c>
       <c r="K100" s="14" t="s">
         <v>195</v>
@@ -9167,19 +9151,19 @@
       <c r="N100" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="O100" s="16" t="s">
-        <v>557</v>
+      <c r="O100" s="46" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A101" s="47" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B101" s="48" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C101" s="49" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D101" s="49" t="s">
         <v>734</v>
@@ -9194,11 +9178,11 @@
         <v>779</v>
       </c>
       <c r="H101" s="49" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I101" s="49"/>
       <c r="J101" s="49" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="K101" s="14" t="s">
         <v>195</v>
@@ -9213,18 +9197,18 @@
         <v>1</v>
       </c>
       <c r="O101" s="46" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A102" s="47" t="s">
-        <v>483</v>
+        <v>622</v>
       </c>
       <c r="B102" s="48" t="s">
-        <v>480</v>
+        <v>623</v>
       </c>
       <c r="C102" s="49" t="s">
-        <v>481</v>
+        <v>794</v>
       </c>
       <c r="D102" s="49" t="s">
         <v>734</v>
@@ -9239,11 +9223,11 @@
         <v>779</v>
       </c>
       <c r="H102" s="49" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I102" s="49"/>
       <c r="J102" s="49" t="s">
-        <v>535</v>
+        <v>624</v>
       </c>
       <c r="K102" s="14" t="s">
         <v>195</v>
@@ -9257,19 +9241,17 @@
       <c r="N102" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="O102" s="46" t="s">
-        <v>534</v>
-      </c>
+      <c r="O102" s="46"/>
     </row>
     <row r="103" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A103" s="47" t="s">
-        <v>622</v>
+        <v>769</v>
       </c>
       <c r="B103" s="48" t="s">
-        <v>623</v>
+        <v>770</v>
       </c>
       <c r="C103" s="49" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D103" s="49" t="s">
         <v>734</v>
@@ -9284,35 +9266,26 @@
         <v>779</v>
       </c>
       <c r="H103" s="49" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I103" s="49"/>
-      <c r="J103" s="49" t="s">
-        <v>624</v>
-      </c>
+      <c r="J103" s="49"/>
       <c r="K103" s="14" t="s">
         <v>195</v>
       </c>
       <c r="L103" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M103" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="N103" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="O103" s="46"/>
     </row>
     <row r="104" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A104" s="47" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B104" s="48" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C104" s="49" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D104" s="49" t="s">
         <v>734</v>
@@ -9327,7 +9300,7 @@
         <v>779</v>
       </c>
       <c r="H104" s="49" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I104" s="49"/>
       <c r="J104" s="49"/>
@@ -9340,13 +9313,13 @@
     </row>
     <row r="105" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A105" s="47" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="B105" s="48" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="C105" s="49" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="D105" s="49" t="s">
         <v>734</v>
@@ -9361,7 +9334,7 @@
         <v>779</v>
       </c>
       <c r="H105" s="49" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I105" s="49"/>
       <c r="J105" s="49"/>
@@ -9374,13 +9347,13 @@
     </row>
     <row r="106" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A106" s="47" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B106" s="48" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C106" s="49" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D106" s="49" t="s">
         <v>734</v>
@@ -9395,7 +9368,7 @@
         <v>779</v>
       </c>
       <c r="H106" s="49" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I106" s="49"/>
       <c r="J106" s="49"/>
@@ -9405,16 +9378,19 @@
       <c r="L106" s="14" t="s">
         <v>195</v>
       </c>
+      <c r="O106" s="46" t="s">
+        <v>782</v>
+      </c>
     </row>
     <row r="107" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A107" s="47" t="s">
-        <v>777</v>
+        <v>606</v>
       </c>
       <c r="B107" s="48" t="s">
-        <v>778</v>
+        <v>484</v>
       </c>
       <c r="C107" s="49" t="s">
-        <v>797</v>
+        <v>601</v>
       </c>
       <c r="D107" s="49" t="s">
         <v>734</v>
@@ -9426,32 +9402,40 @@
         <v>479</v>
       </c>
       <c r="G107" s="49" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H107" s="49" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I107" s="49"/>
-      <c r="J107" s="49"/>
+      <c r="J107" s="49" t="s">
+        <v>526</v>
+      </c>
       <c r="K107" s="14" t="s">
         <v>195</v>
       </c>
       <c r="L107" s="14" t="s">
         <v>195</v>
       </c>
+      <c r="M107" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N107" s="15" t="s">
+        <v>1</v>
+      </c>
       <c r="O107" s="46" t="s">
-        <v>782</v>
+        <v>487</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A108" s="47" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B108" s="48" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C108" s="49" t="s">
-        <v>601</v>
+        <v>660</v>
       </c>
       <c r="D108" s="49" t="s">
         <v>734</v>
@@ -9466,11 +9450,11 @@
         <v>780</v>
       </c>
       <c r="H108" s="49" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I108" s="49"/>
       <c r="J108" s="49" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K108" s="14" t="s">
         <v>195</v>
@@ -9485,18 +9469,18 @@
         <v>1</v>
       </c>
       <c r="O108" s="46" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A109" s="47" t="s">
-        <v>607</v>
+        <v>773</v>
       </c>
       <c r="B109" s="48" t="s">
-        <v>486</v>
+        <v>774</v>
       </c>
       <c r="C109" s="49" t="s">
-        <v>660</v>
+        <v>792</v>
       </c>
       <c r="D109" s="49" t="s">
         <v>734</v>
@@ -9511,37 +9495,26 @@
         <v>780</v>
       </c>
       <c r="H109" s="49" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I109" s="49"/>
-      <c r="J109" s="49" t="s">
-        <v>527</v>
-      </c>
+      <c r="J109" s="49"/>
       <c r="K109" s="14" t="s">
         <v>195</v>
       </c>
       <c r="L109" s="14" t="s">
         <v>195</v>
-      </c>
-      <c r="M109" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="N109" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="O109" s="46" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A110" s="47" t="s">
-        <v>773</v>
+        <v>551</v>
       </c>
       <c r="B110" s="48" t="s">
-        <v>774</v>
+        <v>552</v>
       </c>
       <c r="C110" s="49" t="s">
-        <v>792</v>
+        <v>602</v>
       </c>
       <c r="D110" s="49" t="s">
         <v>734</v>
@@ -9553,29 +9526,40 @@
         <v>479</v>
       </c>
       <c r="G110" s="49" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H110" s="49" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I110" s="49"/>
-      <c r="J110" s="49"/>
+      <c r="J110" s="49" t="s">
+        <v>560</v>
+      </c>
       <c r="K110" s="14" t="s">
         <v>195</v>
       </c>
       <c r="L110" s="14" t="s">
         <v>195</v>
+      </c>
+      <c r="M110" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N110" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O110" s="16" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A111" s="47" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B111" s="48" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C111" s="49" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D111" s="49" t="s">
         <v>734</v>
@@ -9590,11 +9574,11 @@
         <v>781</v>
       </c>
       <c r="H111" s="49" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I111" s="49"/>
       <c r="J111" s="49" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="K111" s="14" t="s">
         <v>195</v>
@@ -9609,18 +9593,18 @@
         <v>1</v>
       </c>
       <c r="O111" s="16" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A112" s="47" t="s">
-        <v>549</v>
+        <v>216</v>
       </c>
       <c r="B112" s="48" t="s">
-        <v>554</v>
+        <v>93</v>
       </c>
       <c r="C112" s="49" t="s">
-        <v>599</v>
+        <v>333</v>
       </c>
       <c r="D112" s="49" t="s">
         <v>734</v>
@@ -9629,17 +9613,17 @@
         <v>659</v>
       </c>
       <c r="F112" s="49" t="s">
-        <v>479</v>
+        <v>323</v>
       </c>
       <c r="G112" s="49" t="s">
-        <v>781</v>
+        <v>541</v>
       </c>
       <c r="H112" s="49" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I112" s="49"/>
       <c r="J112" s="49" t="s">
-        <v>556</v>
+        <v>518</v>
       </c>
       <c r="K112" s="14" t="s">
         <v>195</v>
@@ -9654,18 +9638,18 @@
         <v>1</v>
       </c>
       <c r="O112" s="16" t="s">
-        <v>555</v>
+        <v>135</v>
       </c>
     </row>
     <row r="113" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A113" s="47" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="B113" s="48" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C113" s="49" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="D113" s="49" t="s">
         <v>734</v>
@@ -9677,10 +9661,10 @@
         <v>323</v>
       </c>
       <c r="G113" s="49" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H113" s="49" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I113" s="49"/>
       <c r="J113" s="49" t="s">
@@ -9693,10 +9677,10 @@
         <v>195</v>
       </c>
       <c r="M113" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="N113" s="15" t="s">
-        <v>1</v>
+        <v>348</v>
+      </c>
+      <c r="N113" s="13" t="s">
+        <v>472</v>
       </c>
       <c r="O113" s="16" t="s">
         <v>135</v>
@@ -9704,13 +9688,13 @@
     </row>
     <row r="114" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A114" s="47" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B114" s="48" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C114" s="49" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D114" s="49" t="s">
         <v>734</v>
@@ -9722,14 +9706,14 @@
         <v>323</v>
       </c>
       <c r="G114" s="49" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="H114" s="49" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I114" s="49"/>
       <c r="J114" s="49" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="K114" s="14" t="s">
         <v>195</v>
@@ -9738,24 +9722,24 @@
         <v>195</v>
       </c>
       <c r="M114" s="15" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="N114" s="13" t="s">
-        <v>472</v>
+        <v>1</v>
       </c>
       <c r="O114" s="16" t="s">
-        <v>135</v>
+        <v>490</v>
       </c>
     </row>
     <row r="115" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A115" s="47" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B115" s="48" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C115" s="49" t="s">
-        <v>349</v>
+        <v>589</v>
       </c>
       <c r="D115" s="49" t="s">
         <v>734</v>
@@ -9767,14 +9751,14 @@
         <v>323</v>
       </c>
       <c r="G115" s="49" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="H115" s="49" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I115" s="49"/>
       <c r="J115" s="49" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="K115" s="14" t="s">
         <v>195</v>
@@ -9783,24 +9767,24 @@
         <v>195</v>
       </c>
       <c r="M115" s="15" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="N115" s="13" t="s">
         <v>1</v>
       </c>
       <c r="O115" s="16" t="s">
-        <v>490</v>
+        <v>210</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A116" s="47" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c r="B116" s="48" t="s">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="C116" s="49" t="s">
-        <v>589</v>
+        <v>420</v>
       </c>
       <c r="D116" s="49" t="s">
         <v>734</v>
@@ -9812,14 +9796,14 @@
         <v>323</v>
       </c>
       <c r="G116" s="49" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="H116" s="49" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I116" s="49"/>
       <c r="J116" s="49" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="K116" s="14" t="s">
         <v>195</v>
@@ -9828,24 +9812,24 @@
         <v>195</v>
       </c>
       <c r="M116" s="15" t="s">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="N116" s="13" t="s">
-        <v>1</v>
+        <v>472</v>
       </c>
       <c r="O116" s="16" t="s">
-        <v>210</v>
+        <v>489</v>
       </c>
     </row>
     <row r="117" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A117" s="47" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="B117" s="48" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C117" s="49" t="s">
-        <v>420</v>
+        <v>590</v>
       </c>
       <c r="D117" s="49" t="s">
         <v>734</v>
@@ -9857,14 +9841,14 @@
         <v>323</v>
       </c>
       <c r="G117" s="49" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H117" s="49" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I117" s="49"/>
       <c r="J117" s="49" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="K117" s="14" t="s">
         <v>195</v>
@@ -9873,24 +9857,24 @@
         <v>195</v>
       </c>
       <c r="M117" s="15" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="N117" s="13" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="O117" s="16" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="118" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A118" s="47" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="B118" s="48" t="s">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="C118" s="49" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="D118" s="49" t="s">
         <v>734</v>
@@ -9902,14 +9886,14 @@
         <v>323</v>
       </c>
       <c r="G118" s="49" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H118" s="49" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I118" s="49"/>
       <c r="J118" s="49" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="K118" s="14" t="s">
         <v>195</v>
@@ -9918,24 +9902,24 @@
         <v>195</v>
       </c>
       <c r="M118" s="15" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="N118" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="O118" s="16" t="s">
-        <v>490</v>
+        <v>110</v>
       </c>
     </row>
     <row r="119" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A119" s="47" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="B119" s="48" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C119" s="49" t="s">
-        <v>593</v>
+        <v>407</v>
       </c>
       <c r="D119" s="49" t="s">
         <v>734</v>
@@ -9947,14 +9931,14 @@
         <v>323</v>
       </c>
       <c r="G119" s="49" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H119" s="49" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I119" s="49"/>
       <c r="J119" s="49" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="K119" s="14" t="s">
         <v>195</v>
@@ -9963,24 +9947,24 @@
         <v>195</v>
       </c>
       <c r="M119" s="15" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="N119" s="13" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="O119" s="16" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
     </row>
     <row r="120" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A120" s="47" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B120" s="48" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="C120" s="49" t="s">
-        <v>407</v>
+        <v>591</v>
       </c>
       <c r="D120" s="49" t="s">
         <v>734</v>
@@ -9992,14 +9976,14 @@
         <v>323</v>
       </c>
       <c r="G120" s="49" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="H120" s="49" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I120" s="49"/>
       <c r="J120" s="49" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K120" s="14" t="s">
         <v>195</v>
@@ -10014,18 +9998,18 @@
         <v>471</v>
       </c>
       <c r="O120" s="16" t="s">
-        <v>135</v>
+        <v>210</v>
       </c>
     </row>
     <row r="121" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A121" s="47" t="s">
-        <v>251</v>
-      </c>
-      <c r="B121" s="48" t="s">
-        <v>142</v>
+        <v>263</v>
+      </c>
+      <c r="B121" s="49" t="s">
+        <v>166</v>
       </c>
       <c r="C121" s="49" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D121" s="49" t="s">
         <v>734</v>
@@ -10037,14 +10021,14 @@
         <v>323</v>
       </c>
       <c r="G121" s="49" t="s">
-        <v>546</v>
+        <v>643</v>
       </c>
       <c r="H121" s="49" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I121" s="49"/>
       <c r="J121" s="49" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="K121" s="14" t="s">
         <v>195</v>
@@ -10053,24 +10037,24 @@
         <v>195</v>
       </c>
       <c r="M121" s="15" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="N121" s="13" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O121" s="16" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
     </row>
     <row r="122" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A122" s="47" t="s">
-        <v>263</v>
+        <v>644</v>
       </c>
       <c r="B122" s="49" t="s">
-        <v>166</v>
+        <v>645</v>
       </c>
       <c r="C122" s="49" t="s">
-        <v>592</v>
+        <v>646</v>
       </c>
       <c r="D122" s="49" t="s">
         <v>734</v>
@@ -10082,14 +10066,14 @@
         <v>323</v>
       </c>
       <c r="G122" s="49" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="H122" s="49" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I122" s="49"/>
       <c r="J122" s="49" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="K122" s="14" t="s">
         <v>195</v>
@@ -10098,24 +10082,24 @@
         <v>195</v>
       </c>
       <c r="M122" s="15" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="N122" s="13" t="s">
-        <v>472</v>
+        <v>1</v>
       </c>
       <c r="O122" s="16" t="s">
-        <v>164</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A123" s="47" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="B123" s="49" t="s">
-        <v>645</v>
+        <v>625</v>
       </c>
       <c r="C123" s="49" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D123" s="49" t="s">
         <v>734</v>
@@ -10126,15 +10110,13 @@
       <c r="F123" s="49" t="s">
         <v>323</v>
       </c>
-      <c r="G123" s="49" t="s">
-        <v>647</v>
-      </c>
+      <c r="G123" s="49"/>
       <c r="H123" s="49" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I123" s="49"/>
       <c r="J123" s="49" t="s">
-        <v>523</v>
+        <v>617</v>
       </c>
       <c r="K123" s="14" t="s">
         <v>195</v>
@@ -10153,57 +10135,49 @@
       </c>
     </row>
     <row r="124" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A124" s="47" t="s">
-        <v>656</v>
-      </c>
-      <c r="B124" s="49" t="s">
-        <v>625</v>
-      </c>
-      <c r="C124" s="49" t="s">
-        <v>648</v>
-      </c>
-      <c r="D124" s="49" t="s">
-        <v>734</v>
-      </c>
-      <c r="E124" s="49" t="s">
-        <v>659</v>
-      </c>
-      <c r="F124" s="49" t="s">
-        <v>323</v>
-      </c>
-      <c r="G124" s="49"/>
-      <c r="H124" s="49" t="s">
-        <v>820</v>
-      </c>
-      <c r="I124" s="49"/>
-      <c r="J124" s="49" t="s">
-        <v>617</v>
-      </c>
+      <c r="A124" s="59" t="s">
+        <v>747</v>
+      </c>
+      <c r="B124" s="43" t="s">
+        <v>752</v>
+      </c>
+      <c r="C124" s="43" t="s">
+        <v>756</v>
+      </c>
+      <c r="D124" s="43" t="s">
+        <v>734</v>
+      </c>
+      <c r="E124" s="43" t="s">
+        <v>659</v>
+      </c>
+      <c r="F124" s="43" t="s">
+        <v>609</v>
+      </c>
+      <c r="G124" s="43" t="s">
+        <v>768</v>
+      </c>
+      <c r="H124" s="43" t="s">
+        <v>817</v>
+      </c>
+      <c r="I124" s="43"/>
+      <c r="J124" s="43"/>
       <c r="K124" s="14" t="s">
         <v>195</v>
       </c>
       <c r="L124" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M124" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="N124" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="O124" s="16" t="s">
-        <v>1</v>
-      </c>
+      <c r="M124" s="50"/>
     </row>
     <row r="125" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A125" s="60" t="s">
-        <v>747</v>
+      <c r="A125" s="59" t="s">
+        <v>750</v>
       </c>
       <c r="B125" s="43" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="C125" s="43" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D125" s="43" t="s">
         <v>734</v>
@@ -10218,7 +10192,7 @@
         <v>768</v>
       </c>
       <c r="H125" s="43" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I125" s="43"/>
       <c r="J125" s="43"/>
@@ -10228,17 +10202,16 @@
       <c r="L125" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M125" s="50"/>
     </row>
     <row r="126" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A126" s="60" t="s">
-        <v>750</v>
+      <c r="A126" s="59" t="s">
+        <v>233</v>
       </c>
       <c r="B126" s="43" t="s">
-        <v>754</v>
+        <v>114</v>
       </c>
       <c r="C126" s="43" t="s">
-        <v>757</v>
+        <v>364</v>
       </c>
       <c r="D126" s="43" t="s">
         <v>734</v>
@@ -10250,29 +10223,40 @@
         <v>609</v>
       </c>
       <c r="G126" s="43" t="s">
-        <v>768</v>
+        <v>364</v>
       </c>
       <c r="H126" s="43" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I126" s="43"/>
-      <c r="J126" s="43"/>
+      <c r="J126" s="43" t="s">
+        <v>511</v>
+      </c>
       <c r="K126" s="14" t="s">
         <v>195</v>
       </c>
       <c r="L126" s="14" t="s">
         <v>195</v>
       </c>
+      <c r="M126" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="N126" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="O126" s="16" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="127" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A127" s="60" t="s">
-        <v>233</v>
+      <c r="A127" s="59" t="s">
+        <v>493</v>
       </c>
       <c r="B127" s="43" t="s">
-        <v>114</v>
+        <v>498</v>
       </c>
       <c r="C127" s="43" t="s">
-        <v>364</v>
+        <v>598</v>
       </c>
       <c r="D127" s="43" t="s">
         <v>734</v>
@@ -10283,15 +10267,13 @@
       <c r="F127" s="43" t="s">
         <v>609</v>
       </c>
-      <c r="G127" s="43" t="s">
-        <v>364</v>
-      </c>
+      <c r="G127" s="43"/>
       <c r="H127" s="43" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I127" s="43"/>
       <c r="J127" s="43" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="K127" s="14" t="s">
         <v>195</v>
@@ -10300,24 +10282,24 @@
         <v>195</v>
       </c>
       <c r="M127" s="15" t="s">
-        <v>365</v>
+        <v>1</v>
       </c>
       <c r="N127" s="13" t="s">
-        <v>472</v>
+        <v>1</v>
       </c>
       <c r="O127" s="16" t="s">
-        <v>115</v>
+        <v>499</v>
       </c>
     </row>
     <row r="128" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A128" s="60" t="s">
-        <v>493</v>
+      <c r="A128" s="59" t="s">
+        <v>491</v>
       </c>
       <c r="B128" s="43" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C128" s="43" t="s">
-        <v>598</v>
+        <v>791</v>
       </c>
       <c r="D128" s="43" t="s">
         <v>734</v>
@@ -10330,11 +10312,11 @@
       </c>
       <c r="G128" s="43"/>
       <c r="H128" s="43" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I128" s="43"/>
       <c r="J128" s="43" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K128" s="14" t="s">
         <v>195</v>
@@ -10349,18 +10331,18 @@
         <v>1</v>
       </c>
       <c r="O128" s="16" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="129" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A129" s="60" t="s">
-        <v>491</v>
+      <c r="A129" s="59" t="s">
+        <v>492</v>
       </c>
       <c r="B129" s="43" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C129" s="43" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D129" s="43" t="s">
         <v>734</v>
@@ -10373,11 +10355,11 @@
       </c>
       <c r="G129" s="43"/>
       <c r="H129" s="43" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I129" s="43"/>
       <c r="J129" s="43" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="K129" s="14" t="s">
         <v>195</v>
@@ -10392,35 +10374,37 @@
         <v>1</v>
       </c>
       <c r="O129" s="16" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="130" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A130" s="60" t="s">
-        <v>492</v>
-      </c>
-      <c r="B130" s="43" t="s">
-        <v>495</v>
-      </c>
-      <c r="C130" s="43" t="s">
-        <v>790</v>
-      </c>
-      <c r="D130" s="43" t="s">
-        <v>734</v>
-      </c>
-      <c r="E130" s="43" t="s">
-        <v>659</v>
-      </c>
-      <c r="F130" s="43" t="s">
-        <v>609</v>
-      </c>
-      <c r="G130" s="43"/>
-      <c r="H130" s="43" t="s">
-        <v>820</v>
-      </c>
-      <c r="I130" s="43"/>
-      <c r="J130" s="43" t="s">
-        <v>513</v>
+      <c r="A130" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="B130" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C130" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="D130" s="24" t="s">
+        <v>734</v>
+      </c>
+      <c r="E130" s="24" t="s">
+        <v>745</v>
+      </c>
+      <c r="F130" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="G130" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="H130" s="24" t="s">
+        <v>817</v>
+      </c>
+      <c r="I130" s="24"/>
+      <c r="J130" s="24" t="s">
+        <v>613</v>
       </c>
       <c r="K130" s="14" t="s">
         <v>195</v>
@@ -10429,24 +10413,22 @@
         <v>195</v>
       </c>
       <c r="M130" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="N130" s="13" t="s">
-        <v>1</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="N130" s="13"/>
       <c r="O130" s="16" t="s">
-        <v>496</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A131" s="25" t="s">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="B131" s="26" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="C131" s="24" t="s">
-        <v>205</v>
+        <v>585</v>
       </c>
       <c r="D131" s="24" t="s">
         <v>734</v>
@@ -10457,15 +10439,13 @@
       <c r="F131" s="24" t="s">
         <v>366</v>
       </c>
-      <c r="G131" s="24" t="s">
-        <v>206</v>
-      </c>
+      <c r="G131" s="24"/>
       <c r="H131" s="24" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I131" s="24"/>
       <c r="J131" s="24" t="s">
-        <v>613</v>
+        <v>518</v>
       </c>
       <c r="K131" s="14" t="s">
         <v>195</v>
@@ -10474,22 +10454,24 @@
         <v>195</v>
       </c>
       <c r="M131" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="N131" s="13"/>
+        <v>47</v>
+      </c>
+      <c r="N131" s="13" t="s">
+        <v>474</v>
+      </c>
       <c r="O131" s="16" t="s">
-        <v>1</v>
+        <v>135</v>
       </c>
     </row>
     <row r="132" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A132" s="25" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B132" s="26" t="s">
-        <v>173</v>
+        <v>604</v>
       </c>
       <c r="C132" s="24" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D132" s="24" t="s">
         <v>734</v>
@@ -10502,11 +10484,11 @@
       </c>
       <c r="G132" s="24"/>
       <c r="H132" s="24" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I132" s="24"/>
       <c r="J132" s="24" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="K132" s="14" t="s">
         <v>195</v>
@@ -10514,25 +10496,25 @@
       <c r="L132" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M132" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="N132" s="13" t="s">
-        <v>474</v>
+      <c r="M132" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="N132" s="58" t="s">
+        <v>471</v>
       </c>
       <c r="O132" s="16" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
     </row>
     <row r="133" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A133" s="25" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B133" s="26" t="s">
-        <v>604</v>
+        <v>163</v>
       </c>
       <c r="C133" s="24" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D133" s="24" t="s">
         <v>734</v>
@@ -10545,11 +10527,11 @@
       </c>
       <c r="G133" s="24"/>
       <c r="H133" s="24" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I133" s="24"/>
       <c r="J133" s="24" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="K133" s="14" t="s">
         <v>195</v>
@@ -10557,25 +10539,25 @@
       <c r="L133" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M133" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="N133" s="59" t="s">
-        <v>471</v>
+      <c r="M133" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="N133" s="58" t="s">
+        <v>472</v>
       </c>
       <c r="O133" s="16" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="134" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A134" s="25" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B134" s="26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C134" s="24" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D134" s="24" t="s">
         <v>734</v>
@@ -10588,7 +10570,7 @@
       </c>
       <c r="G134" s="24"/>
       <c r="H134" s="24" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I134" s="24"/>
       <c r="J134" s="24" t="s">
@@ -10600,10 +10582,10 @@
       <c r="L134" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M134" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="N134" s="59" t="s">
+      <c r="M134" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="N134" s="58" t="s">
         <v>472</v>
       </c>
       <c r="O134" s="16" t="s">
@@ -10612,13 +10594,13 @@
     </row>
     <row r="135" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A135" s="25" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B135" s="26" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="C135" s="24" t="s">
-        <v>588</v>
+        <v>32</v>
       </c>
       <c r="D135" s="24" t="s">
         <v>734</v>
@@ -10631,11 +10613,11 @@
       </c>
       <c r="G135" s="24"/>
       <c r="H135" s="24" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I135" s="24"/>
       <c r="J135" s="24" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="K135" s="14" t="s">
         <v>195</v>
@@ -10643,25 +10625,25 @@
       <c r="L135" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M135" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="N135" s="59" t="s">
+      <c r="M135" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="N135" s="58" t="s">
         <v>472</v>
       </c>
       <c r="O135" s="16" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="136" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A136" s="25" t="s">
-        <v>254</v>
+        <v>665</v>
       </c>
       <c r="B136" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="C136" s="24" t="s">
-        <v>32</v>
+      <c r="C136" s="26" t="s">
+        <v>661</v>
       </c>
       <c r="D136" s="24" t="s">
         <v>734</v>
@@ -10669,16 +10651,16 @@
       <c r="E136" s="24" t="s">
         <v>745</v>
       </c>
-      <c r="F136" s="24" t="s">
+      <c r="F136" s="26" t="s">
         <v>366</v>
       </c>
-      <c r="G136" s="24"/>
-      <c r="H136" s="24" t="s">
-        <v>820</v>
-      </c>
-      <c r="I136" s="24"/>
-      <c r="J136" s="24" t="s">
-        <v>508</v>
+      <c r="G136" s="26"/>
+      <c r="H136" s="26" t="s">
+        <v>817</v>
+      </c>
+      <c r="I136" s="26"/>
+      <c r="J136" s="26" t="s">
+        <v>710</v>
       </c>
       <c r="K136" s="14" t="s">
         <v>195</v>
@@ -10686,25 +10668,22 @@
       <c r="L136" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M136" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="N136" s="59" t="s">
-        <v>472</v>
-      </c>
-      <c r="O136" s="16" t="s">
-        <v>147</v>
+      <c r="M136" s="58" t="s">
+        <v>709</v>
+      </c>
+      <c r="N136" s="58" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A137" s="25" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B137" s="26" t="s">
-        <v>146</v>
+        <v>707</v>
       </c>
       <c r="C137" s="26" t="s">
-        <v>661</v>
+        <v>735</v>
       </c>
       <c r="D137" s="24" t="s">
         <v>734</v>
@@ -10717,11 +10696,11 @@
       </c>
       <c r="G137" s="26"/>
       <c r="H137" s="26" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I137" s="26"/>
       <c r="J137" s="26" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="K137" s="14" t="s">
         <v>195</v>
@@ -10729,22 +10708,22 @@
       <c r="L137" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M137" s="59" t="s">
-        <v>709</v>
-      </c>
-      <c r="N137" s="59" t="s">
+      <c r="M137" s="58" t="s">
+        <v>708</v>
+      </c>
+      <c r="N137" s="58" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A138" s="25" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B138" s="26" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="C138" s="26" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="D138" s="24" t="s">
         <v>734</v>
@@ -10757,11 +10736,11 @@
       </c>
       <c r="G138" s="26"/>
       <c r="H138" s="26" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I138" s="26"/>
       <c r="J138" s="26" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="K138" s="14" t="s">
         <v>195</v>
@@ -10769,22 +10748,22 @@
       <c r="L138" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M138" s="59" t="s">
-        <v>708</v>
-      </c>
-      <c r="N138" s="59" t="s">
+      <c r="M138" s="58" t="s">
+        <v>713</v>
+      </c>
+      <c r="N138" s="58" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A139" s="25" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B139" s="26" t="s">
-        <v>694</v>
+        <v>714</v>
       </c>
       <c r="C139" s="26" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="D139" s="24" t="s">
         <v>734</v>
@@ -10797,11 +10776,11 @@
       </c>
       <c r="G139" s="26"/>
       <c r="H139" s="26" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I139" s="26"/>
       <c r="J139" s="26" t="s">
-        <v>712</v>
+        <v>695</v>
       </c>
       <c r="K139" s="14" t="s">
         <v>195</v>
@@ -10809,22 +10788,23 @@
       <c r="L139" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M139" s="59" t="s">
-        <v>713</v>
-      </c>
-      <c r="N139" s="59" t="s">
-        <v>1</v>
-      </c>
+      <c r="M139" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="N139" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="O139" s="16"/>
     </row>
     <row r="140" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A140" s="25" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B140" s="26" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="C140" s="26" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D140" s="24" t="s">
         <v>734</v>
@@ -10837,11 +10817,11 @@
       </c>
       <c r="G140" s="26"/>
       <c r="H140" s="26" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I140" s="26"/>
       <c r="J140" s="26" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="K140" s="14" t="s">
         <v>195</v>
@@ -10849,23 +10829,23 @@
       <c r="L140" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M140" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="N140" s="59" t="s">
+      <c r="M140" s="58" t="s">
+        <v>715</v>
+      </c>
+      <c r="N140" s="58" t="s">
         <v>1</v>
       </c>
       <c r="O140" s="16"/>
     </row>
     <row r="141" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A141" s="25" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B141" s="26" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="C141" s="26" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D141" s="24" t="s">
         <v>734</v>
@@ -10878,11 +10858,11 @@
       </c>
       <c r="G141" s="26"/>
       <c r="H141" s="26" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I141" s="26"/>
       <c r="J141" s="26" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="K141" s="14" t="s">
         <v>195</v>
@@ -10890,23 +10870,23 @@
       <c r="L141" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M141" s="59" t="s">
-        <v>715</v>
-      </c>
-      <c r="N141" s="59" t="s">
+      <c r="M141" s="58" t="s">
+        <v>716</v>
+      </c>
+      <c r="N141" s="58" t="s">
         <v>1</v>
       </c>
       <c r="O141" s="16"/>
     </row>
     <row r="142" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A142" s="25" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B142" s="26" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C142" s="26" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D142" s="24" t="s">
         <v>734</v>
@@ -10919,11 +10899,11 @@
       </c>
       <c r="G142" s="26"/>
       <c r="H142" s="26" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I142" s="26"/>
       <c r="J142" s="26" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="K142" s="14" t="s">
         <v>195</v>
@@ -10931,23 +10911,23 @@
       <c r="L142" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M142" s="59" t="s">
-        <v>716</v>
-      </c>
-      <c r="N142" s="59" t="s">
+      <c r="M142" s="58" t="s">
+        <v>717</v>
+      </c>
+      <c r="N142" s="58" t="s">
         <v>1</v>
       </c>
       <c r="O142" s="16"/>
     </row>
     <row r="143" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A143" s="25" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="B143" s="26" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="C143" s="26" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D143" s="24" t="s">
         <v>734</v>
@@ -10960,11 +10940,11 @@
       </c>
       <c r="G143" s="26"/>
       <c r="H143" s="26" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I143" s="26"/>
       <c r="J143" s="26" t="s">
-        <v>701</v>
+        <v>731</v>
       </c>
       <c r="K143" s="14" t="s">
         <v>195</v>
@@ -10972,23 +10952,23 @@
       <c r="L143" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M143" s="59" t="s">
-        <v>717</v>
-      </c>
-      <c r="N143" s="59" t="s">
+      <c r="M143" s="58" t="s">
+        <v>706</v>
+      </c>
+      <c r="N143" s="58" t="s">
         <v>1</v>
       </c>
       <c r="O143" s="16"/>
     </row>
     <row r="144" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A144" s="25" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B144" s="26" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C144" s="26" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="D144" s="24" t="s">
         <v>734</v>
@@ -10997,15 +10977,15 @@
         <v>745</v>
       </c>
       <c r="F144" s="26" t="s">
-        <v>366</v>
+        <v>414</v>
       </c>
       <c r="G144" s="26"/>
       <c r="H144" s="26" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I144" s="26"/>
       <c r="J144" s="26" t="s">
-        <v>731</v>
+        <v>118</v>
       </c>
       <c r="K144" s="14" t="s">
         <v>195</v>
@@ -11013,23 +10993,25 @@
       <c r="L144" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M144" s="59" t="s">
-        <v>706</v>
-      </c>
-      <c r="N144" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="O144" s="16"/>
+      <c r="M144" s="58" t="s">
+        <v>704</v>
+      </c>
+      <c r="N144" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="O144" s="16" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="145" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A145" s="25" t="s">
-        <v>673</v>
+        <v>252</v>
       </c>
       <c r="B145" s="26" t="s">
-        <v>703</v>
+        <v>143</v>
       </c>
       <c r="C145" s="26" t="s">
-        <v>742</v>
+        <v>597</v>
       </c>
       <c r="D145" s="24" t="s">
         <v>734</v>
@@ -11042,11 +11024,11 @@
       </c>
       <c r="G145" s="26"/>
       <c r="H145" s="26" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I145" s="26"/>
       <c r="J145" s="26" t="s">
-        <v>118</v>
+        <v>519</v>
       </c>
       <c r="K145" s="14" t="s">
         <v>195</v>
@@ -11054,25 +11036,25 @@
       <c r="L145" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M145" s="59" t="s">
-        <v>704</v>
-      </c>
-      <c r="N145" s="59" t="s">
-        <v>1</v>
+      <c r="M145" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="N145" s="58" t="s">
+        <v>472</v>
       </c>
       <c r="O145" s="16" t="s">
-        <v>1</v>
+        <v>162</v>
       </c>
     </row>
     <row r="146" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A146" s="25" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="B146" s="26" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="C146" s="26" t="s">
-        <v>597</v>
+        <v>344</v>
       </c>
       <c r="D146" s="24" t="s">
         <v>734</v>
@@ -11085,11 +11067,11 @@
       </c>
       <c r="G146" s="26"/>
       <c r="H146" s="26" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I146" s="26"/>
       <c r="J146" s="26" t="s">
-        <v>519</v>
+        <v>581</v>
       </c>
       <c r="K146" s="14" t="s">
         <v>195</v>
@@ -11097,25 +11079,25 @@
       <c r="L146" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M146" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="N146" s="59" t="s">
-        <v>472</v>
+      <c r="M146" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="N146" s="58" t="s">
+        <v>1</v>
       </c>
       <c r="O146" s="16" t="s">
-        <v>162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A147" s="25" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="B147" s="26" t="s">
-        <v>100</v>
+        <v>178</v>
       </c>
       <c r="C147" s="26" t="s">
-        <v>344</v>
+        <v>435</v>
       </c>
       <c r="D147" s="24" t="s">
         <v>734</v>
@@ -11128,7 +11110,7 @@
       </c>
       <c r="G147" s="26"/>
       <c r="H147" s="26" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I147" s="26"/>
       <c r="J147" s="26" t="s">
@@ -11140,25 +11122,25 @@
       <c r="L147" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M147" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="N147" s="59" t="s">
-        <v>1</v>
+      <c r="M147" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="N147" s="58" t="s">
+        <v>472</v>
       </c>
       <c r="O147" s="16" t="s">
-        <v>1</v>
+        <v>118</v>
       </c>
     </row>
     <row r="148" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A148" s="25" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="B148" s="26" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C148" s="26" t="s">
-        <v>435</v>
+        <v>596</v>
       </c>
       <c r="D148" s="24" t="s">
         <v>734</v>
@@ -11171,11 +11153,11 @@
       </c>
       <c r="G148" s="26"/>
       <c r="H148" s="26" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I148" s="26"/>
       <c r="J148" s="26" t="s">
-        <v>581</v>
+        <v>520</v>
       </c>
       <c r="K148" s="14" t="s">
         <v>195</v>
@@ -11183,25 +11165,25 @@
       <c r="L148" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M148" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="N148" s="59" t="s">
+      <c r="M148" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="N148" s="58" t="s">
         <v>472</v>
       </c>
       <c r="O148" s="16" t="s">
-        <v>118</v>
+        <v>164</v>
       </c>
     </row>
     <row r="149" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A149" s="25" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="B149" s="26" t="s">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="C149" s="26" t="s">
-        <v>596</v>
+        <v>346</v>
       </c>
       <c r="D149" s="24" t="s">
         <v>734</v>
@@ -11214,11 +11196,11 @@
       </c>
       <c r="G149" s="26"/>
       <c r="H149" s="26" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I149" s="26"/>
       <c r="J149" s="26" t="s">
-        <v>520</v>
+        <v>581</v>
       </c>
       <c r="K149" s="14" t="s">
         <v>195</v>
@@ -11226,25 +11208,25 @@
       <c r="L149" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M149" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="N149" s="59" t="s">
-        <v>472</v>
+      <c r="M149" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="N149" s="58" t="s">
+        <v>1</v>
       </c>
       <c r="O149" s="16" t="s">
-        <v>164</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A150" s="25" t="s">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="B150" s="26" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="C150" s="26" t="s">
-        <v>346</v>
+        <v>595</v>
       </c>
       <c r="D150" s="24" t="s">
         <v>734</v>
@@ -11257,11 +11239,11 @@
       </c>
       <c r="G150" s="26"/>
       <c r="H150" s="26" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I150" s="26"/>
       <c r="J150" s="26" t="s">
-        <v>581</v>
+        <v>521</v>
       </c>
       <c r="K150" s="14" t="s">
         <v>195</v>
@@ -11269,25 +11251,25 @@
       <c r="L150" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M150" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="N150" s="59" t="s">
-        <v>1</v>
+      <c r="M150" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="N150" s="58" t="s">
+        <v>472</v>
       </c>
       <c r="O150" s="16" t="s">
-        <v>1</v>
+        <v>149</v>
       </c>
     </row>
     <row r="151" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A151" s="25" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B151" s="26" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C151" s="26" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D151" s="24" t="s">
         <v>734</v>
@@ -11300,11 +11282,11 @@
       </c>
       <c r="G151" s="26"/>
       <c r="H151" s="26" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I151" s="26"/>
       <c r="J151" s="26" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K151" s="14" t="s">
         <v>195</v>
@@ -11312,25 +11294,25 @@
       <c r="L151" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M151" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="N151" s="59" t="s">
-        <v>472</v>
+      <c r="M151" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="N151" s="58" t="s">
+        <v>474</v>
       </c>
       <c r="O151" s="16" t="s">
-        <v>149</v>
+        <v>813</v>
       </c>
     </row>
     <row r="152" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A152" s="25" t="s">
-        <v>259</v>
+        <v>672</v>
       </c>
       <c r="B152" s="26" t="s">
-        <v>160</v>
+        <v>702</v>
       </c>
       <c r="C152" s="26" t="s">
-        <v>594</v>
+        <v>741</v>
       </c>
       <c r="D152" s="24" t="s">
         <v>734</v>
@@ -11343,11 +11325,11 @@
       </c>
       <c r="G152" s="26"/>
       <c r="H152" s="26" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I152" s="26"/>
       <c r="J152" s="26" t="s">
-        <v>522</v>
+        <v>730</v>
       </c>
       <c r="K152" s="14" t="s">
         <v>195</v>
@@ -11355,68 +11337,70 @@
       <c r="L152" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M152" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="N152" s="59" t="s">
-        <v>474</v>
+      <c r="M152" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="N152" s="58" t="s">
+        <v>1</v>
       </c>
       <c r="O152" s="16" t="s">
-        <v>816</v>
+        <v>730</v>
       </c>
     </row>
     <row r="153" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A153" s="25" t="s">
-        <v>672</v>
-      </c>
-      <c r="B153" s="26" t="s">
-        <v>702</v>
-      </c>
-      <c r="C153" s="26" t="s">
-        <v>741</v>
-      </c>
-      <c r="D153" s="24" t="s">
-        <v>734</v>
-      </c>
-      <c r="E153" s="24" t="s">
-        <v>745</v>
-      </c>
-      <c r="F153" s="26" t="s">
-        <v>414</v>
-      </c>
-      <c r="G153" s="26"/>
-      <c r="H153" s="26" t="s">
-        <v>820</v>
-      </c>
-      <c r="I153" s="26"/>
-      <c r="J153" s="26" t="s">
-        <v>730</v>
+      <c r="A153" s="44" t="s">
+        <v>801</v>
+      </c>
+      <c r="B153" s="45" t="s">
+        <v>567</v>
+      </c>
+      <c r="C153" s="45" t="s">
+        <v>801</v>
+      </c>
+      <c r="D153" s="45" t="s">
+        <v>662</v>
+      </c>
+      <c r="E153" s="45" t="s">
+        <v>659</v>
+      </c>
+      <c r="F153" s="45" t="s">
+        <v>662</v>
+      </c>
+      <c r="G153" s="45" t="s">
+        <v>662</v>
+      </c>
+      <c r="H153" s="45" t="s">
+        <v>817</v>
+      </c>
+      <c r="I153" s="45"/>
+      <c r="J153" s="45" t="s">
+        <v>515</v>
       </c>
       <c r="K153" s="14" t="s">
-        <v>195</v>
+        <v>638</v>
       </c>
       <c r="L153" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="M153" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="N153" s="59" t="s">
+        <v>621</v>
+      </c>
+      <c r="M153" s="58" t="s">
+        <v>655</v>
+      </c>
+      <c r="N153" s="58" t="s">
         <v>1</v>
       </c>
       <c r="O153" s="16" t="s">
-        <v>730</v>
+        <v>578</v>
       </c>
     </row>
     <row r="154" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A154" s="44" t="s">
-        <v>804</v>
+        <v>566</v>
       </c>
       <c r="B154" s="45" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C154" s="45" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
       <c r="D154" s="45" t="s">
         <v>662</v>
@@ -11431,9 +11415,11 @@
         <v>662</v>
       </c>
       <c r="H154" s="45" t="s">
-        <v>820</v>
-      </c>
-      <c r="I154" s="45"/>
+        <v>817</v>
+      </c>
+      <c r="I154" s="45">
+        <v>1</v>
+      </c>
       <c r="J154" s="45" t="s">
         <v>515</v>
       </c>
@@ -11443,10 +11429,10 @@
       <c r="L154" s="14" t="s">
         <v>621</v>
       </c>
-      <c r="M154" s="59" t="s">
+      <c r="M154" s="58" t="s">
         <v>655</v>
       </c>
-      <c r="N154" s="59" t="s">
+      <c r="N154" s="58" t="s">
         <v>1</v>
       </c>
       <c r="O154" s="16" t="s">
@@ -11455,13 +11441,13 @@
     </row>
     <row r="155" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A155" s="44" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B155" s="45" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C155" s="45" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="D155" s="45" t="s">
         <v>662</v>
@@ -11476,39 +11462,39 @@
         <v>662</v>
       </c>
       <c r="H155" s="45" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I155" s="45">
         <v>1</v>
       </c>
       <c r="J155" s="45" t="s">
-        <v>515</v>
+        <v>573</v>
       </c>
       <c r="K155" s="14" t="s">
-        <v>638</v>
+        <v>195</v>
       </c>
       <c r="L155" s="14" t="s">
-        <v>621</v>
-      </c>
-      <c r="M155" s="59" t="s">
-        <v>655</v>
-      </c>
-      <c r="N155" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="M155" s="58" t="s">
+        <v>654</v>
+      </c>
+      <c r="N155" s="58" t="s">
         <v>1</v>
       </c>
       <c r="O155" s="16" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="156" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A156" s="44" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B156" s="45" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C156" s="45" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D156" s="45" t="s">
         <v>662</v>
@@ -11523,13 +11509,13 @@
         <v>662</v>
       </c>
       <c r="H156" s="45" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I156" s="45">
         <v>1</v>
       </c>
       <c r="J156" s="45" t="s">
-        <v>573</v>
+        <v>401</v>
       </c>
       <c r="K156" s="14" t="s">
         <v>195</v>
@@ -11537,25 +11523,25 @@
       <c r="L156" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M156" s="59" t="s">
-        <v>654</v>
-      </c>
-      <c r="N156" s="59" t="s">
+      <c r="M156" s="58" t="s">
+        <v>653</v>
+      </c>
+      <c r="N156" s="58" t="s">
         <v>1</v>
       </c>
       <c r="O156" s="16" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="157" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A157" s="44" t="s">
-        <v>563</v>
+        <v>650</v>
       </c>
       <c r="B157" s="45" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C157" s="45" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="D157" s="45" t="s">
         <v>662</v>
@@ -11570,39 +11556,39 @@
         <v>662</v>
       </c>
       <c r="H157" s="45" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I157" s="45">
         <v>1</v>
       </c>
       <c r="J157" s="45" t="s">
-        <v>401</v>
+        <v>516</v>
       </c>
       <c r="K157" s="14" t="s">
-        <v>195</v>
+        <v>638</v>
       </c>
       <c r="L157" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="M157" s="59" t="s">
-        <v>653</v>
-      </c>
-      <c r="N157" s="59" t="s">
+        <v>621</v>
+      </c>
+      <c r="M157" s="58" t="s">
+        <v>652</v>
+      </c>
+      <c r="N157" s="58" t="s">
         <v>1</v>
       </c>
       <c r="O157" s="16" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
     </row>
     <row r="158" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A158" s="44" t="s">
-        <v>650</v>
+        <v>565</v>
       </c>
       <c r="B158" s="45" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="C158" s="45" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="D158" s="45" t="s">
         <v>662</v>
@@ -11617,39 +11603,39 @@
         <v>662</v>
       </c>
       <c r="H158" s="45" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I158" s="45">
         <v>1</v>
       </c>
       <c r="J158" s="45" t="s">
-        <v>516</v>
+        <v>575</v>
       </c>
       <c r="K158" s="14" t="s">
-        <v>638</v>
+        <v>195</v>
       </c>
       <c r="L158" s="14" t="s">
-        <v>621</v>
-      </c>
-      <c r="M158" s="59" t="s">
-        <v>652</v>
-      </c>
-      <c r="N158" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="M158" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="N158" s="58" t="s">
         <v>1</v>
       </c>
       <c r="O158" s="16" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="159" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A159" s="44" t="s">
-        <v>565</v>
+        <v>629</v>
       </c>
       <c r="B159" s="45" t="s">
-        <v>570</v>
+        <v>628</v>
       </c>
       <c r="C159" s="45" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="D159" s="45" t="s">
         <v>662</v>
@@ -11664,13 +11650,13 @@
         <v>662</v>
       </c>
       <c r="H159" s="45" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I159" s="45">
         <v>1</v>
       </c>
       <c r="J159" s="45" t="s">
-        <v>575</v>
+        <v>664</v>
       </c>
       <c r="K159" s="14" t="s">
         <v>195</v>
@@ -11678,25 +11664,25 @@
       <c r="L159" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M159" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="N159" s="59" t="s">
+      <c r="M159" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="N159" s="58" t="s">
         <v>1</v>
       </c>
       <c r="O159" s="16" t="s">
-        <v>574</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A160" s="44" t="s">
-        <v>629</v>
+        <v>651</v>
       </c>
       <c r="B160" s="45" t="s">
-        <v>628</v>
+        <v>567</v>
       </c>
       <c r="C160" s="45" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="D160" s="45" t="s">
         <v>662</v>
@@ -11711,39 +11697,39 @@
         <v>662</v>
       </c>
       <c r="H160" s="45" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I160" s="45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J160" s="45" t="s">
-        <v>664</v>
+        <v>516</v>
       </c>
       <c r="K160" s="14" t="s">
-        <v>195</v>
+        <v>638</v>
       </c>
       <c r="L160" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="M160" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="N160" s="59" t="s">
+        <v>621</v>
+      </c>
+      <c r="M160" s="58" t="s">
+        <v>652</v>
+      </c>
+      <c r="N160" s="58" t="s">
         <v>1</v>
       </c>
       <c r="O160" s="16" t="s">
-        <v>1</v>
+        <v>578</v>
       </c>
     </row>
     <row r="161" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A161" s="44" t="s">
-        <v>651</v>
+        <v>798</v>
       </c>
       <c r="B161" s="45" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C161" s="45" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D161" s="45" t="s">
         <v>662</v>
@@ -11758,39 +11744,37 @@
         <v>662</v>
       </c>
       <c r="H161" s="45" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I161" s="45">
         <v>3</v>
       </c>
       <c r="J161" s="45" t="s">
-        <v>516</v>
+        <v>573</v>
       </c>
       <c r="K161" s="14" t="s">
-        <v>638</v>
+        <v>195</v>
       </c>
       <c r="L161" s="14" t="s">
-        <v>621</v>
-      </c>
-      <c r="M161" s="59" t="s">
-        <v>652</v>
-      </c>
-      <c r="N161" s="59" t="s">
-        <v>1</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="M161" s="58" t="s">
+        <v>654</v>
+      </c>
+      <c r="N161" s="58"/>
       <c r="O161" s="16" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="162" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A162" s="44" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B162" s="45" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C162" s="45" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D162" s="45" t="s">
         <v>662</v>
@@ -11805,13 +11789,13 @@
         <v>662</v>
       </c>
       <c r="H162" s="45" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I162" s="45">
         <v>3</v>
       </c>
       <c r="J162" s="45" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="K162" s="14" t="s">
         <v>195</v>
@@ -11819,23 +11803,23 @@
       <c r="L162" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M162" s="59" t="s">
-        <v>654</v>
-      </c>
-      <c r="N162" s="59"/>
+      <c r="M162" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="N162" s="58"/>
       <c r="O162" s="16" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="163" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A163" s="44" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B163" s="45" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C163" s="45" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="D163" s="45" t="s">
         <v>662</v>
@@ -11850,13 +11834,13 @@
         <v>662</v>
       </c>
       <c r="H163" s="45" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I163" s="45">
         <v>3</v>
       </c>
       <c r="J163" s="45" t="s">
-        <v>575</v>
+        <v>401</v>
       </c>
       <c r="K163" s="14" t="s">
         <v>195</v>
@@ -11864,68 +11848,23 @@
       <c r="L163" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M163" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="N163" s="59"/>
+      <c r="M163" s="58" t="s">
+        <v>653</v>
+      </c>
+      <c r="N163" s="58"/>
       <c r="O163" s="16" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A164" s="44" t="s">
-        <v>800</v>
-      </c>
-      <c r="B164" s="45" t="s">
-        <v>568</v>
-      </c>
-      <c r="C164" s="45" t="s">
-        <v>808</v>
-      </c>
-      <c r="D164" s="45" t="s">
-        <v>662</v>
-      </c>
-      <c r="E164" s="45" t="s">
-        <v>659</v>
-      </c>
-      <c r="F164" s="45" t="s">
-        <v>662</v>
-      </c>
-      <c r="G164" s="45" t="s">
-        <v>662</v>
-      </c>
-      <c r="H164" s="45" t="s">
-        <v>820</v>
-      </c>
-      <c r="I164" s="45">
-        <v>3</v>
-      </c>
-      <c r="J164" s="45" t="s">
-        <v>401</v>
-      </c>
-      <c r="K164" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="L164" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="M164" s="59" t="s">
-        <v>653</v>
-      </c>
-      <c r="N164" s="59"/>
-      <c r="O164" s="16" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A165" s="1"/>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A164" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O164">
-    <sortCondition ref="D2:D164"/>
-    <sortCondition ref="E2:E164"/>
-    <sortCondition ref="F2:F164"/>
-    <sortCondition ref="G2:G164"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O163">
+    <sortCondition ref="D2:D163"/>
+    <sortCondition ref="E2:E163"/>
+    <sortCondition ref="F2:F163"/>
+    <sortCondition ref="G2:G163"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="B60" r:id="rId1" display="https://it.wikipedia.org/wiki/Baiyangdian_virus" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -12032,7 +11971,7 @@
         <v>627</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D7" s="45" t="s">
         <v>662</v>
@@ -12058,10 +11997,10 @@
       <c r="K7" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="L7" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="M7" s="59" t="s">
+      <c r="L7" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="58" t="s">
         <v>1</v>
       </c>
       <c r="N7" s="16" t="s">

--- a/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7873995B-6236-DA41-BD79-73744ED5D2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A299F787-179B-9546-AE58-11F4D12BB499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25120" yWindow="4180" windowWidth="23260" windowHeight="24280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9920" yWindow="1560" windowWidth="23260" windowHeight="24280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flavi.txt" sheetId="1" r:id="rId1"/>
     <sheet name="removed" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">flavi.txt!$A$1:$N$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">flavi.txt!$A$1:$N$119</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4641,11 +4641,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O164"/>
+  <dimension ref="A1:O163"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B141" sqref="B141"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7941,59 +7941,59 @@
       </c>
     </row>
     <row r="74" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="33" t="s">
-        <v>681</v>
-      </c>
-      <c r="B74" s="34" t="s">
-        <v>723</v>
-      </c>
-      <c r="C74" s="34" t="s">
-        <v>729</v>
-      </c>
-      <c r="D74" s="34" t="s">
-        <v>734</v>
-      </c>
-      <c r="E74" s="34" t="s">
-        <v>659</v>
-      </c>
-      <c r="F74" s="34" t="s">
+      <c r="A74" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="B74" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C74" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="D74" s="36" t="s">
+        <v>734</v>
+      </c>
+      <c r="E74" s="36" t="s">
+        <v>659</v>
+      </c>
+      <c r="F74" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="G74" s="34" t="s">
-        <v>539</v>
-      </c>
-      <c r="H74" s="34" t="s">
-        <v>817</v>
-      </c>
-      <c r="I74" s="34"/>
-      <c r="J74" s="34" t="s">
-        <v>501</v>
-      </c>
-      <c r="K74" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="L74" s="29" t="s">
-        <v>621</v>
-      </c>
-      <c r="M74" s="50" t="s">
-        <v>724</v>
+      <c r="G74" s="36" t="s">
+        <v>467</v>
+      </c>
+      <c r="H74" s="36" t="s">
+        <v>817</v>
+      </c>
+      <c r="I74" s="36"/>
+      <c r="J74" s="36" t="s">
+        <v>506</v>
+      </c>
+      <c r="K74" s="36" t="s">
+        <v>617</v>
+      </c>
+      <c r="L74" s="36" t="s">
+        <v>615</v>
+      </c>
+      <c r="M74" s="15" t="s">
+        <v>1</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="O74" s="50" t="s">
-        <v>1</v>
+        <v>471</v>
+      </c>
+      <c r="O74" s="16" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="35" t="s">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="B75" s="36" t="s">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="C75" s="36" t="s">
-        <v>356</v>
+        <v>424</v>
       </c>
       <c r="D75" s="36" t="s">
         <v>734</v>
@@ -8012,7 +8012,7 @@
       </c>
       <c r="I75" s="36"/>
       <c r="J75" s="36" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="K75" s="36" t="s">
         <v>617</v>
@@ -8021,24 +8021,24 @@
         <v>615</v>
       </c>
       <c r="M75" s="15" t="s">
-        <v>1</v>
+        <v>425</v>
       </c>
       <c r="N75" s="13" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O75" s="16" t="s">
-        <v>357</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="35" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="B76" s="36" t="s">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="C76" s="36" t="s">
-        <v>424</v>
+        <v>351</v>
       </c>
       <c r="D76" s="36" t="s">
         <v>734</v>
@@ -8057,7 +8057,7 @@
       </c>
       <c r="I76" s="36"/>
       <c r="J76" s="36" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="K76" s="36" t="s">
         <v>617</v>
@@ -8066,24 +8066,24 @@
         <v>615</v>
       </c>
       <c r="M76" s="15" t="s">
-        <v>425</v>
+        <v>352</v>
       </c>
       <c r="N76" s="13" t="s">
         <v>472</v>
       </c>
       <c r="O76" s="16" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="35" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="B77" s="36" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C77" s="36" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="D77" s="36" t="s">
         <v>734</v>
@@ -8102,33 +8102,33 @@
       </c>
       <c r="I77" s="36"/>
       <c r="J77" s="36" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="K77" s="36" t="s">
         <v>617</v>
       </c>
       <c r="L77" s="36" t="s">
-        <v>615</v>
+        <v>639</v>
       </c>
       <c r="M77" s="15" t="s">
-        <v>352</v>
+        <v>1</v>
       </c>
       <c r="N77" s="13" t="s">
         <v>472</v>
       </c>
       <c r="O77" s="16" t="s">
-        <v>147</v>
+        <v>368</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="35" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B78" s="36" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C78" s="36" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="D78" s="36" t="s">
         <v>734</v>
@@ -8147,7 +8147,7 @@
       </c>
       <c r="I78" s="36"/>
       <c r="J78" s="36" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K78" s="36" t="s">
         <v>617</v>
@@ -8156,24 +8156,24 @@
         <v>639</v>
       </c>
       <c r="M78" s="15" t="s">
-        <v>1</v>
+        <v>355</v>
       </c>
       <c r="N78" s="13" t="s">
         <v>472</v>
       </c>
       <c r="O78" s="16" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="35" t="s">
-        <v>227</v>
+        <v>635</v>
       </c>
       <c r="B79" s="36" t="s">
-        <v>108</v>
+        <v>634</v>
       </c>
       <c r="C79" s="36" t="s">
-        <v>353</v>
+        <v>637</v>
       </c>
       <c r="D79" s="36" t="s">
         <v>734</v>
@@ -8192,78 +8192,78 @@
       </c>
       <c r="I79" s="36"/>
       <c r="J79" s="36" t="s">
-        <v>510</v>
+        <v>617</v>
       </c>
       <c r="K79" s="36" t="s">
         <v>617</v>
       </c>
       <c r="L79" s="36" t="s">
+        <v>617</v>
+      </c>
+      <c r="M79" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N79" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O79" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="B80" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="C80" s="38" t="s">
+        <v>384</v>
+      </c>
+      <c r="D80" s="38" t="s">
+        <v>734</v>
+      </c>
+      <c r="E80" s="38" t="s">
+        <v>659</v>
+      </c>
+      <c r="F80" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="G80" s="38" t="s">
+        <v>468</v>
+      </c>
+      <c r="H80" s="38" t="s">
+        <v>817</v>
+      </c>
+      <c r="I80" s="38"/>
+      <c r="J80" s="38" t="s">
+        <v>617</v>
+      </c>
+      <c r="K80" s="38" t="s">
+        <v>617</v>
+      </c>
+      <c r="L80" s="38" t="s">
         <v>639</v>
       </c>
-      <c r="M79" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="N79" s="13" t="s">
-        <v>472</v>
-      </c>
-      <c r="O79" s="16" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="35" t="s">
-        <v>635</v>
-      </c>
-      <c r="B80" s="36" t="s">
-        <v>634</v>
-      </c>
-      <c r="C80" s="36" t="s">
-        <v>637</v>
-      </c>
-      <c r="D80" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="E80" s="36" t="s">
-        <v>659</v>
-      </c>
-      <c r="F80" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="G80" s="36" t="s">
-        <v>467</v>
-      </c>
-      <c r="H80" s="36" t="s">
-        <v>817</v>
-      </c>
-      <c r="I80" s="36"/>
-      <c r="J80" s="36" t="s">
-        <v>617</v>
-      </c>
-      <c r="K80" s="36" t="s">
-        <v>617</v>
-      </c>
-      <c r="L80" s="36" t="s">
-        <v>617</v>
-      </c>
       <c r="M80" s="15" t="s">
-        <v>1</v>
+        <v>386</v>
       </c>
       <c r="N80" s="13" t="s">
-        <v>1</v>
+        <v>474</v>
       </c>
       <c r="O80" s="16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A81" s="37" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="B81" s="38" t="s">
-        <v>125</v>
+        <v>428</v>
       </c>
       <c r="C81" s="38" t="s">
-        <v>384</v>
+        <v>429</v>
       </c>
       <c r="D81" s="38" t="s">
         <v>734</v>
@@ -8291,24 +8291,24 @@
         <v>639</v>
       </c>
       <c r="M81" s="15" t="s">
-        <v>386</v>
+        <v>430</v>
       </c>
       <c r="N81" s="13" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="O81" s="16" t="s">
-        <v>385</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="37" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="B82" s="38" t="s">
-        <v>428</v>
+        <v>119</v>
       </c>
       <c r="C82" s="38" t="s">
-        <v>429</v>
+        <v>370</v>
       </c>
       <c r="D82" s="38" t="s">
         <v>734</v>
@@ -8336,69 +8336,69 @@
         <v>639</v>
       </c>
       <c r="M82" s="15" t="s">
-        <v>430</v>
+        <v>371</v>
       </c>
       <c r="N82" s="13" t="s">
         <v>471</v>
       </c>
       <c r="O82" s="16" t="s">
-        <v>172</v>
+        <v>533</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A83" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="B83" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="C83" s="38" t="s">
-        <v>370</v>
-      </c>
-      <c r="D83" s="38" t="s">
-        <v>734</v>
-      </c>
-      <c r="E83" s="38" t="s">
-        <v>659</v>
-      </c>
-      <c r="F83" s="38" t="s">
+      <c r="A83" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B83" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="C83" s="40" t="s">
+        <v>459</v>
+      </c>
+      <c r="D83" s="40" t="s">
+        <v>734</v>
+      </c>
+      <c r="E83" s="40" t="s">
+        <v>659</v>
+      </c>
+      <c r="F83" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="G83" s="38" t="s">
-        <v>468</v>
-      </c>
-      <c r="H83" s="38" t="s">
-        <v>817</v>
-      </c>
-      <c r="I83" s="38"/>
-      <c r="J83" s="38" t="s">
-        <v>617</v>
-      </c>
-      <c r="K83" s="38" t="s">
-        <v>617</v>
-      </c>
-      <c r="L83" s="38" t="s">
-        <v>639</v>
-      </c>
-      <c r="M83" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="N83" s="13" t="s">
-        <v>471</v>
+      <c r="G83" s="40" t="s">
+        <v>818</v>
+      </c>
+      <c r="H83" s="40" t="s">
+        <v>817</v>
+      </c>
+      <c r="I83" s="40"/>
+      <c r="J83" s="40" t="s">
+        <v>515</v>
+      </c>
+      <c r="K83" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="L83" s="40" t="s">
+        <v>620</v>
+      </c>
+      <c r="M83" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="N83" s="16" t="s">
+        <v>475</v>
       </c>
       <c r="O83" s="16" t="s">
-        <v>533</v>
+        <v>152</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B84" s="40" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C84" s="40" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D84" s="40" t="s">
         <v>734</v>
@@ -8417,33 +8417,33 @@
       </c>
       <c r="I84" s="40"/>
       <c r="J84" s="40" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="K84" s="40" t="s">
         <v>190</v>
       </c>
       <c r="L84" s="40" t="s">
-        <v>620</v>
-      </c>
-      <c r="M84" s="16" t="s">
-        <v>460</v>
-      </c>
-      <c r="N84" s="16" t="s">
-        <v>475</v>
+        <v>621</v>
+      </c>
+      <c r="M84" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="N84" s="13" t="s">
+        <v>474</v>
       </c>
       <c r="O84" s="16" t="s">
-        <v>152</v>
+        <v>462</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A85" s="39" t="s">
-        <v>60</v>
+        <v>258</v>
       </c>
       <c r="B85" s="40" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="C85" s="40" t="s">
-        <v>461</v>
+        <v>417</v>
       </c>
       <c r="D85" s="40" t="s">
         <v>734</v>
@@ -8462,33 +8462,33 @@
       </c>
       <c r="I85" s="40"/>
       <c r="J85" s="40" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K85" s="40" t="s">
         <v>190</v>
       </c>
       <c r="L85" s="40" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="M85" s="15" t="s">
-        <v>463</v>
+        <v>1</v>
       </c>
       <c r="N85" s="13" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O85" s="16" t="s">
-        <v>462</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A86" s="39" t="s">
-        <v>258</v>
+        <v>213</v>
       </c>
       <c r="B86" s="40" t="s">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="C86" s="40" t="s">
-        <v>417</v>
+        <v>313</v>
       </c>
       <c r="D86" s="40" t="s">
         <v>734</v>
@@ -8507,33 +8507,33 @@
       </c>
       <c r="I86" s="40"/>
       <c r="J86" s="40" t="s">
-        <v>515</v>
+        <v>640</v>
       </c>
       <c r="K86" s="40" t="s">
         <v>190</v>
       </c>
       <c r="L86" s="40" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M86" s="15" t="s">
         <v>1</v>
       </c>
       <c r="N86" s="13" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="O86" s="16" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="39" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="B87" s="40" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="C87" s="40" t="s">
-        <v>313</v>
+        <v>361</v>
       </c>
       <c r="D87" s="40" t="s">
         <v>734</v>
@@ -8552,7 +8552,7 @@
       </c>
       <c r="I87" s="40"/>
       <c r="J87" s="40" t="s">
-        <v>640</v>
+        <v>515</v>
       </c>
       <c r="K87" s="40" t="s">
         <v>190</v>
@@ -8561,24 +8561,24 @@
         <v>612</v>
       </c>
       <c r="M87" s="15" t="s">
-        <v>1</v>
+        <v>363</v>
       </c>
       <c r="N87" s="13" t="s">
         <v>471</v>
       </c>
       <c r="O87" s="16" t="s">
-        <v>77</v>
+        <v>362</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="39" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="B88" s="40" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C88" s="40" t="s">
-        <v>361</v>
+        <v>202</v>
       </c>
       <c r="D88" s="40" t="s">
         <v>734</v>
@@ -8603,27 +8603,27 @@
         <v>190</v>
       </c>
       <c r="L88" s="40" t="s">
-        <v>612</v>
+        <v>641</v>
       </c>
       <c r="M88" s="15" t="s">
-        <v>363</v>
+        <v>1</v>
       </c>
       <c r="N88" s="13" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="O88" s="16" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="39" t="s">
-        <v>220</v>
+        <v>58</v>
       </c>
       <c r="B89" s="40" t="s">
-        <v>101</v>
+        <v>186</v>
       </c>
       <c r="C89" s="40" t="s">
-        <v>202</v>
+        <v>456</v>
       </c>
       <c r="D89" s="40" t="s">
         <v>734</v>
@@ -8642,33 +8642,33 @@
       </c>
       <c r="I89" s="40"/>
       <c r="J89" s="40" t="s">
-        <v>515</v>
+        <v>618</v>
       </c>
       <c r="K89" s="40" t="s">
         <v>190</v>
       </c>
       <c r="L89" s="40" t="s">
-        <v>641</v>
+        <v>620</v>
       </c>
       <c r="M89" s="15" t="s">
-        <v>1</v>
+        <v>458</v>
       </c>
       <c r="N89" s="13" t="s">
         <v>473</v>
       </c>
       <c r="O89" s="16" t="s">
-        <v>345</v>
+        <v>457</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="39" t="s">
-        <v>58</v>
+        <v>237</v>
       </c>
       <c r="B90" s="40" t="s">
-        <v>186</v>
+        <v>120</v>
       </c>
       <c r="C90" s="40" t="s">
-        <v>456</v>
+        <v>372</v>
       </c>
       <c r="D90" s="40" t="s">
         <v>734</v>
@@ -8687,33 +8687,33 @@
       </c>
       <c r="I90" s="40"/>
       <c r="J90" s="40" t="s">
-        <v>618</v>
+        <v>558</v>
       </c>
       <c r="K90" s="40" t="s">
         <v>190</v>
       </c>
       <c r="L90" s="40" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M90" s="15" t="s">
-        <v>458</v>
+        <v>373</v>
       </c>
       <c r="N90" s="13" t="s">
         <v>473</v>
       </c>
       <c r="O90" s="16" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A91" s="39" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B91" s="40" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C91" s="40" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="D91" s="40" t="s">
         <v>734</v>
@@ -8732,7 +8732,7 @@
       </c>
       <c r="I91" s="40"/>
       <c r="J91" s="40" t="s">
-        <v>558</v>
+        <v>515</v>
       </c>
       <c r="K91" s="40" t="s">
         <v>190</v>
@@ -8741,10 +8741,10 @@
         <v>612</v>
       </c>
       <c r="M91" s="15" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="N91" s="13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="O91" s="16" t="s">
         <v>118</v>
@@ -8752,13 +8752,13 @@
     </row>
     <row r="92" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A92" s="39" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="B92" s="40" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="C92" s="40" t="s">
-        <v>359</v>
+        <v>294</v>
       </c>
       <c r="D92" s="40" t="s">
         <v>734</v>
@@ -8777,33 +8777,33 @@
       </c>
       <c r="I92" s="40"/>
       <c r="J92" s="40" t="s">
-        <v>515</v>
+        <v>619</v>
       </c>
       <c r="K92" s="40" t="s">
         <v>190</v>
       </c>
       <c r="L92" s="40" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="M92" s="15" t="s">
-        <v>360</v>
+        <v>296</v>
       </c>
       <c r="N92" s="13" t="s">
-        <v>472</v>
-      </c>
-      <c r="O92" s="16" t="s">
-        <v>118</v>
+        <v>471</v>
+      </c>
+      <c r="O92" s="42" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A93" s="39" t="s">
-        <v>212</v>
+        <v>61</v>
       </c>
       <c r="B93" s="40" t="s">
-        <v>68</v>
+        <v>200</v>
       </c>
       <c r="C93" s="40" t="s">
-        <v>294</v>
+        <v>464</v>
       </c>
       <c r="D93" s="40" t="s">
         <v>734</v>
@@ -8822,33 +8822,33 @@
       </c>
       <c r="I93" s="40"/>
       <c r="J93" s="40" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K93" s="40" t="s">
         <v>190</v>
       </c>
       <c r="L93" s="40" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="M93" s="15" t="s">
-        <v>296</v>
+        <v>465</v>
       </c>
       <c r="N93" s="13" t="s">
-        <v>471</v>
-      </c>
-      <c r="O93" s="42" t="s">
-        <v>295</v>
+        <v>475</v>
+      </c>
+      <c r="O93" s="16" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A94" s="39" t="s">
-        <v>61</v>
+        <v>269</v>
       </c>
       <c r="B94" s="40" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="C94" s="40" t="s">
-        <v>464</v>
+        <v>431</v>
       </c>
       <c r="D94" s="40" t="s">
         <v>734</v>
@@ -8867,33 +8867,33 @@
       </c>
       <c r="I94" s="40"/>
       <c r="J94" s="40" t="s">
-        <v>618</v>
+        <v>515</v>
       </c>
       <c r="K94" s="40" t="s">
         <v>190</v>
       </c>
       <c r="L94" s="40" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="M94" s="15" t="s">
-        <v>465</v>
+        <v>48</v>
       </c>
       <c r="N94" s="13" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="O94" s="16" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A95" s="39" t="s">
-        <v>269</v>
+        <v>218</v>
       </c>
       <c r="B95" s="40" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="C95" s="40" t="s">
-        <v>431</v>
+        <v>342</v>
       </c>
       <c r="D95" s="40" t="s">
         <v>734</v>
@@ -8918,27 +8918,27 @@
         <v>190</v>
       </c>
       <c r="L95" s="40" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="M95" s="15" t="s">
-        <v>48</v>
+        <v>343</v>
       </c>
       <c r="N95" s="13" t="s">
         <v>473</v>
       </c>
       <c r="O95" s="16" t="s">
-        <v>175</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A96" s="39" t="s">
-        <v>218</v>
+        <v>4</v>
       </c>
       <c r="B96" s="40" t="s">
-        <v>99</v>
+        <v>191</v>
       </c>
       <c r="C96" s="40" t="s">
-        <v>342</v>
+        <v>297</v>
       </c>
       <c r="D96" s="40" t="s">
         <v>734</v>
@@ -8963,13 +8963,13 @@
         <v>190</v>
       </c>
       <c r="L96" s="40" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M96" s="15" t="s">
-        <v>343</v>
+        <v>298</v>
       </c>
       <c r="N96" s="13" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="O96" s="16" t="s">
         <v>1</v>
@@ -8977,13 +8977,13 @@
     </row>
     <row r="97" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A97" s="39" t="s">
-        <v>4</v>
+        <v>257</v>
       </c>
       <c r="B97" s="40" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="C97" s="40" t="s">
-        <v>297</v>
+        <v>415</v>
       </c>
       <c r="D97" s="40" t="s">
         <v>734</v>
@@ -9008,72 +9008,72 @@
         <v>190</v>
       </c>
       <c r="L97" s="40" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="M97" s="15" t="s">
-        <v>298</v>
+        <v>416</v>
       </c>
       <c r="N97" s="13" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="O97" s="16" t="s">
-        <v>1</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A98" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="B98" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="C98" s="40" t="s">
-        <v>415</v>
-      </c>
-      <c r="D98" s="40" t="s">
-        <v>734</v>
-      </c>
-      <c r="E98" s="40" t="s">
-        <v>659</v>
-      </c>
-      <c r="F98" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="G98" s="40" t="s">
-        <v>818</v>
-      </c>
-      <c r="H98" s="40" t="s">
-        <v>817</v>
-      </c>
-      <c r="I98" s="40"/>
-      <c r="J98" s="40" t="s">
-        <v>515</v>
-      </c>
-      <c r="K98" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="L98" s="40" t="s">
-        <v>620</v>
+      <c r="A98" s="47" t="s">
+        <v>550</v>
+      </c>
+      <c r="B98" s="48" t="s">
+        <v>553</v>
+      </c>
+      <c r="C98" s="49" t="s">
+        <v>600</v>
+      </c>
+      <c r="D98" s="49" t="s">
+        <v>734</v>
+      </c>
+      <c r="E98" s="49" t="s">
+        <v>659</v>
+      </c>
+      <c r="F98" s="49" t="s">
+        <v>479</v>
+      </c>
+      <c r="G98" s="49" t="s">
+        <v>779</v>
+      </c>
+      <c r="H98" s="49" t="s">
+        <v>817</v>
+      </c>
+      <c r="I98" s="49"/>
+      <c r="J98" s="49" t="s">
+        <v>558</v>
+      </c>
+      <c r="K98" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="L98" s="14" t="s">
+        <v>195</v>
       </c>
       <c r="M98" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="N98" s="13" t="s">
-        <v>473</v>
+        <v>1</v>
+      </c>
+      <c r="N98" s="15" t="s">
+        <v>1</v>
       </c>
       <c r="O98" s="16" t="s">
-        <v>152</v>
+        <v>557</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A99" s="47" t="s">
-        <v>550</v>
+        <v>478</v>
       </c>
       <c r="B99" s="48" t="s">
-        <v>553</v>
+        <v>485</v>
       </c>
       <c r="C99" s="49" t="s">
-        <v>600</v>
+        <v>482</v>
       </c>
       <c r="D99" s="49" t="s">
         <v>734</v>
@@ -9092,7 +9092,7 @@
       </c>
       <c r="I99" s="49"/>
       <c r="J99" s="49" t="s">
-        <v>558</v>
+        <v>537</v>
       </c>
       <c r="K99" s="14" t="s">
         <v>195</v>
@@ -9106,19 +9106,19 @@
       <c r="N99" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="O99" s="16" t="s">
-        <v>557</v>
+      <c r="O99" s="46" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A100" s="47" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B100" s="48" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C100" s="49" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D100" s="49" t="s">
         <v>734</v>
@@ -9137,7 +9137,7 @@
       </c>
       <c r="I100" s="49"/>
       <c r="J100" s="49" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="K100" s="14" t="s">
         <v>195</v>
@@ -9152,18 +9152,18 @@
         <v>1</v>
       </c>
       <c r="O100" s="46" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A101" s="47" t="s">
-        <v>483</v>
+        <v>622</v>
       </c>
       <c r="B101" s="48" t="s">
-        <v>480</v>
+        <v>623</v>
       </c>
       <c r="C101" s="49" t="s">
-        <v>481</v>
+        <v>794</v>
       </c>
       <c r="D101" s="49" t="s">
         <v>734</v>
@@ -9182,7 +9182,7 @@
       </c>
       <c r="I101" s="49"/>
       <c r="J101" s="49" t="s">
-        <v>535</v>
+        <v>624</v>
       </c>
       <c r="K101" s="14" t="s">
         <v>195</v>
@@ -9196,19 +9196,17 @@
       <c r="N101" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="O101" s="46" t="s">
-        <v>534</v>
-      </c>
+      <c r="O101" s="46"/>
     </row>
     <row r="102" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A102" s="47" t="s">
-        <v>622</v>
+        <v>769</v>
       </c>
       <c r="B102" s="48" t="s">
-        <v>623</v>
+        <v>770</v>
       </c>
       <c r="C102" s="49" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D102" s="49" t="s">
         <v>734</v>
@@ -9226,32 +9224,23 @@
         <v>817</v>
       </c>
       <c r="I102" s="49"/>
-      <c r="J102" s="49" t="s">
-        <v>624</v>
-      </c>
+      <c r="J102" s="49"/>
       <c r="K102" s="14" t="s">
         <v>195</v>
       </c>
       <c r="L102" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M102" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="N102" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="O102" s="46"/>
     </row>
     <row r="103" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A103" s="47" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B103" s="48" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C103" s="49" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D103" s="49" t="s">
         <v>734</v>
@@ -9279,13 +9268,13 @@
     </row>
     <row r="104" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A104" s="47" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="B104" s="48" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="C104" s="49" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="D104" s="49" t="s">
         <v>734</v>
@@ -9313,13 +9302,13 @@
     </row>
     <row r="105" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A105" s="47" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B105" s="48" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C105" s="49" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D105" s="49" t="s">
         <v>734</v>
@@ -9344,16 +9333,19 @@
       <c r="L105" s="14" t="s">
         <v>195</v>
       </c>
+      <c r="O105" s="46" t="s">
+        <v>782</v>
+      </c>
     </row>
     <row r="106" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A106" s="47" t="s">
-        <v>777</v>
+        <v>606</v>
       </c>
       <c r="B106" s="48" t="s">
-        <v>778</v>
+        <v>484</v>
       </c>
       <c r="C106" s="49" t="s">
-        <v>797</v>
+        <v>601</v>
       </c>
       <c r="D106" s="49" t="s">
         <v>734</v>
@@ -9365,32 +9357,40 @@
         <v>479</v>
       </c>
       <c r="G106" s="49" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H106" s="49" t="s">
         <v>817</v>
       </c>
       <c r="I106" s="49"/>
-      <c r="J106" s="49"/>
+      <c r="J106" s="49" t="s">
+        <v>526</v>
+      </c>
       <c r="K106" s="14" t="s">
         <v>195</v>
       </c>
       <c r="L106" s="14" t="s">
         <v>195</v>
       </c>
+      <c r="M106" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N106" s="15" t="s">
+        <v>1</v>
+      </c>
       <c r="O106" s="46" t="s">
-        <v>782</v>
+        <v>487</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A107" s="47" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B107" s="48" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C107" s="49" t="s">
-        <v>601</v>
+        <v>660</v>
       </c>
       <c r="D107" s="49" t="s">
         <v>734</v>
@@ -9409,7 +9409,7 @@
       </c>
       <c r="I107" s="49"/>
       <c r="J107" s="49" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K107" s="14" t="s">
         <v>195</v>
@@ -9424,18 +9424,18 @@
         <v>1</v>
       </c>
       <c r="O107" s="46" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A108" s="47" t="s">
-        <v>607</v>
+        <v>773</v>
       </c>
       <c r="B108" s="48" t="s">
-        <v>486</v>
+        <v>774</v>
       </c>
       <c r="C108" s="49" t="s">
-        <v>660</v>
+        <v>792</v>
       </c>
       <c r="D108" s="49" t="s">
         <v>734</v>
@@ -9453,34 +9453,23 @@
         <v>817</v>
       </c>
       <c r="I108" s="49"/>
-      <c r="J108" s="49" t="s">
-        <v>527</v>
-      </c>
+      <c r="J108" s="49"/>
       <c r="K108" s="14" t="s">
         <v>195</v>
       </c>
       <c r="L108" s="14" t="s">
         <v>195</v>
-      </c>
-      <c r="M108" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="N108" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="O108" s="46" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A109" s="47" t="s">
-        <v>773</v>
+        <v>551</v>
       </c>
       <c r="B109" s="48" t="s">
-        <v>774</v>
+        <v>552</v>
       </c>
       <c r="C109" s="49" t="s">
-        <v>792</v>
+        <v>602</v>
       </c>
       <c r="D109" s="49" t="s">
         <v>734</v>
@@ -9492,29 +9481,40 @@
         <v>479</v>
       </c>
       <c r="G109" s="49" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H109" s="49" t="s">
         <v>817</v>
       </c>
       <c r="I109" s="49"/>
-      <c r="J109" s="49"/>
+      <c r="J109" s="49" t="s">
+        <v>560</v>
+      </c>
       <c r="K109" s="14" t="s">
         <v>195</v>
       </c>
       <c r="L109" s="14" t="s">
         <v>195</v>
+      </c>
+      <c r="M109" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N109" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O109" s="16" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A110" s="47" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B110" s="48" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C110" s="49" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D110" s="49" t="s">
         <v>734</v>
@@ -9533,7 +9533,7 @@
       </c>
       <c r="I110" s="49"/>
       <c r="J110" s="49" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="K110" s="14" t="s">
         <v>195</v>
@@ -9548,18 +9548,18 @@
         <v>1</v>
       </c>
       <c r="O110" s="16" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A111" s="47" t="s">
-        <v>549</v>
+        <v>216</v>
       </c>
       <c r="B111" s="48" t="s">
-        <v>554</v>
+        <v>93</v>
       </c>
       <c r="C111" s="49" t="s">
-        <v>599</v>
+        <v>333</v>
       </c>
       <c r="D111" s="49" t="s">
         <v>734</v>
@@ -9568,17 +9568,17 @@
         <v>659</v>
       </c>
       <c r="F111" s="49" t="s">
-        <v>479</v>
+        <v>323</v>
       </c>
       <c r="G111" s="49" t="s">
-        <v>781</v>
+        <v>541</v>
       </c>
       <c r="H111" s="49" t="s">
         <v>817</v>
       </c>
       <c r="I111" s="49"/>
       <c r="J111" s="49" t="s">
-        <v>556</v>
+        <v>518</v>
       </c>
       <c r="K111" s="14" t="s">
         <v>195</v>
@@ -9593,18 +9593,18 @@
         <v>1</v>
       </c>
       <c r="O111" s="16" t="s">
-        <v>555</v>
+        <v>135</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A112" s="47" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="B112" s="48" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C112" s="49" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="D112" s="49" t="s">
         <v>734</v>
@@ -9616,7 +9616,7 @@
         <v>323</v>
       </c>
       <c r="G112" s="49" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H112" s="49" t="s">
         <v>817</v>
@@ -9632,10 +9632,10 @@
         <v>195</v>
       </c>
       <c r="M112" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="N112" s="15" t="s">
-        <v>1</v>
+        <v>348</v>
+      </c>
+      <c r="N112" s="13" t="s">
+        <v>472</v>
       </c>
       <c r="O112" s="16" t="s">
         <v>135</v>
@@ -9643,13 +9643,13 @@
     </row>
     <row r="113" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A113" s="47" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B113" s="48" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C113" s="49" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D113" s="49" t="s">
         <v>734</v>
@@ -9661,14 +9661,14 @@
         <v>323</v>
       </c>
       <c r="G113" s="49" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="H113" s="49" t="s">
         <v>817</v>
       </c>
       <c r="I113" s="49"/>
       <c r="J113" s="49" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="K113" s="14" t="s">
         <v>195</v>
@@ -9677,24 +9677,24 @@
         <v>195</v>
       </c>
       <c r="M113" s="15" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="N113" s="13" t="s">
-        <v>472</v>
+        <v>1</v>
       </c>
       <c r="O113" s="16" t="s">
-        <v>135</v>
+        <v>490</v>
       </c>
     </row>
     <row r="114" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A114" s="47" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B114" s="48" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C114" s="49" t="s">
-        <v>349</v>
+        <v>589</v>
       </c>
       <c r="D114" s="49" t="s">
         <v>734</v>
@@ -9706,14 +9706,14 @@
         <v>323</v>
       </c>
       <c r="G114" s="49" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="H114" s="49" t="s">
         <v>817</v>
       </c>
       <c r="I114" s="49"/>
       <c r="J114" s="49" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="K114" s="14" t="s">
         <v>195</v>
@@ -9722,24 +9722,24 @@
         <v>195</v>
       </c>
       <c r="M114" s="15" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="N114" s="13" t="s">
         <v>1</v>
       </c>
       <c r="O114" s="16" t="s">
-        <v>490</v>
+        <v>210</v>
       </c>
     </row>
     <row r="115" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A115" s="47" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c r="B115" s="48" t="s">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="C115" s="49" t="s">
-        <v>589</v>
+        <v>420</v>
       </c>
       <c r="D115" s="49" t="s">
         <v>734</v>
@@ -9751,14 +9751,14 @@
         <v>323</v>
       </c>
       <c r="G115" s="49" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="H115" s="49" t="s">
         <v>817</v>
       </c>
       <c r="I115" s="49"/>
       <c r="J115" s="49" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="K115" s="14" t="s">
         <v>195</v>
@@ -9767,24 +9767,24 @@
         <v>195</v>
       </c>
       <c r="M115" s="15" t="s">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="N115" s="13" t="s">
-        <v>1</v>
+        <v>472</v>
       </c>
       <c r="O115" s="16" t="s">
-        <v>210</v>
+        <v>489</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A116" s="47" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="B116" s="48" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C116" s="49" t="s">
-        <v>420</v>
+        <v>590</v>
       </c>
       <c r="D116" s="49" t="s">
         <v>734</v>
@@ -9796,14 +9796,14 @@
         <v>323</v>
       </c>
       <c r="G116" s="49" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H116" s="49" t="s">
         <v>817</v>
       </c>
       <c r="I116" s="49"/>
       <c r="J116" s="49" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="K116" s="14" t="s">
         <v>195</v>
@@ -9812,24 +9812,24 @@
         <v>195</v>
       </c>
       <c r="M116" s="15" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="N116" s="13" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="O116" s="16" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="117" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A117" s="47" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="B117" s="48" t="s">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="C117" s="49" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="D117" s="49" t="s">
         <v>734</v>
@@ -9841,14 +9841,14 @@
         <v>323</v>
       </c>
       <c r="G117" s="49" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H117" s="49" t="s">
         <v>817</v>
       </c>
       <c r="I117" s="49"/>
       <c r="J117" s="49" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="K117" s="14" t="s">
         <v>195</v>
@@ -9857,24 +9857,24 @@
         <v>195</v>
       </c>
       <c r="M117" s="15" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="N117" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="O117" s="16" t="s">
-        <v>490</v>
+        <v>110</v>
       </c>
     </row>
     <row r="118" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A118" s="47" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="B118" s="48" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C118" s="49" t="s">
-        <v>593</v>
+        <v>407</v>
       </c>
       <c r="D118" s="49" t="s">
         <v>734</v>
@@ -9886,14 +9886,14 @@
         <v>323</v>
       </c>
       <c r="G118" s="49" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H118" s="49" t="s">
         <v>817</v>
       </c>
       <c r="I118" s="49"/>
       <c r="J118" s="49" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="K118" s="14" t="s">
         <v>195</v>
@@ -9902,24 +9902,24 @@
         <v>195</v>
       </c>
       <c r="M118" s="15" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="N118" s="13" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="O118" s="16" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
     </row>
     <row r="119" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A119" s="47" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B119" s="48" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="C119" s="49" t="s">
-        <v>407</v>
+        <v>591</v>
       </c>
       <c r="D119" s="49" t="s">
         <v>734</v>
@@ -9931,14 +9931,14 @@
         <v>323</v>
       </c>
       <c r="G119" s="49" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="H119" s="49" t="s">
         <v>817</v>
       </c>
       <c r="I119" s="49"/>
       <c r="J119" s="49" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K119" s="14" t="s">
         <v>195</v>
@@ -9953,18 +9953,18 @@
         <v>471</v>
       </c>
       <c r="O119" s="16" t="s">
-        <v>135</v>
+        <v>210</v>
       </c>
     </row>
     <row r="120" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A120" s="47" t="s">
-        <v>251</v>
-      </c>
-      <c r="B120" s="48" t="s">
-        <v>142</v>
+        <v>263</v>
+      </c>
+      <c r="B120" s="49" t="s">
+        <v>166</v>
       </c>
       <c r="C120" s="49" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D120" s="49" t="s">
         <v>734</v>
@@ -9976,14 +9976,14 @@
         <v>323</v>
       </c>
       <c r="G120" s="49" t="s">
-        <v>546</v>
+        <v>643</v>
       </c>
       <c r="H120" s="49" t="s">
         <v>817</v>
       </c>
       <c r="I120" s="49"/>
       <c r="J120" s="49" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="K120" s="14" t="s">
         <v>195</v>
@@ -9992,24 +9992,24 @@
         <v>195</v>
       </c>
       <c r="M120" s="15" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="N120" s="13" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O120" s="16" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
     </row>
     <row r="121" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A121" s="47" t="s">
-        <v>263</v>
+        <v>644</v>
       </c>
       <c r="B121" s="49" t="s">
-        <v>166</v>
+        <v>645</v>
       </c>
       <c r="C121" s="49" t="s">
-        <v>592</v>
+        <v>646</v>
       </c>
       <c r="D121" s="49" t="s">
         <v>734</v>
@@ -10021,14 +10021,14 @@
         <v>323</v>
       </c>
       <c r="G121" s="49" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="H121" s="49" t="s">
         <v>817</v>
       </c>
       <c r="I121" s="49"/>
       <c r="J121" s="49" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="K121" s="14" t="s">
         <v>195</v>
@@ -10037,24 +10037,24 @@
         <v>195</v>
       </c>
       <c r="M121" s="15" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="N121" s="13" t="s">
-        <v>472</v>
+        <v>1</v>
       </c>
       <c r="O121" s="16" t="s">
-        <v>164</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A122" s="47" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="B122" s="49" t="s">
-        <v>645</v>
+        <v>625</v>
       </c>
       <c r="C122" s="49" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D122" s="49" t="s">
         <v>734</v>
@@ -10065,15 +10065,13 @@
       <c r="F122" s="49" t="s">
         <v>323</v>
       </c>
-      <c r="G122" s="49" t="s">
-        <v>647</v>
-      </c>
+      <c r="G122" s="49"/>
       <c r="H122" s="49" t="s">
         <v>817</v>
       </c>
       <c r="I122" s="49"/>
       <c r="J122" s="49" t="s">
-        <v>523</v>
+        <v>617</v>
       </c>
       <c r="K122" s="14" t="s">
         <v>195</v>
@@ -10092,57 +10090,49 @@
       </c>
     </row>
     <row r="123" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A123" s="47" t="s">
-        <v>656</v>
-      </c>
-      <c r="B123" s="49" t="s">
-        <v>625</v>
-      </c>
-      <c r="C123" s="49" t="s">
-        <v>648</v>
-      </c>
-      <c r="D123" s="49" t="s">
-        <v>734</v>
-      </c>
-      <c r="E123" s="49" t="s">
-        <v>659</v>
-      </c>
-      <c r="F123" s="49" t="s">
-        <v>323</v>
-      </c>
-      <c r="G123" s="49"/>
-      <c r="H123" s="49" t="s">
-        <v>817</v>
-      </c>
-      <c r="I123" s="49"/>
-      <c r="J123" s="49" t="s">
-        <v>617</v>
-      </c>
+      <c r="A123" s="59" t="s">
+        <v>747</v>
+      </c>
+      <c r="B123" s="43" t="s">
+        <v>752</v>
+      </c>
+      <c r="C123" s="43" t="s">
+        <v>756</v>
+      </c>
+      <c r="D123" s="43" t="s">
+        <v>734</v>
+      </c>
+      <c r="E123" s="43" t="s">
+        <v>659</v>
+      </c>
+      <c r="F123" s="43" t="s">
+        <v>609</v>
+      </c>
+      <c r="G123" s="43" t="s">
+        <v>768</v>
+      </c>
+      <c r="H123" s="43" t="s">
+        <v>817</v>
+      </c>
+      <c r="I123" s="43"/>
+      <c r="J123" s="43"/>
       <c r="K123" s="14" t="s">
         <v>195</v>
       </c>
       <c r="L123" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M123" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="N123" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="O123" s="16" t="s">
-        <v>1</v>
-      </c>
+      <c r="M123" s="50"/>
     </row>
     <row r="124" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A124" s="59" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="B124" s="43" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="C124" s="43" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D124" s="43" t="s">
         <v>734</v>
@@ -10167,17 +10157,16 @@
       <c r="L124" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M124" s="50"/>
     </row>
     <row r="125" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A125" s="59" t="s">
-        <v>750</v>
+        <v>233</v>
       </c>
       <c r="B125" s="43" t="s">
-        <v>754</v>
+        <v>114</v>
       </c>
       <c r="C125" s="43" t="s">
-        <v>757</v>
+        <v>364</v>
       </c>
       <c r="D125" s="43" t="s">
         <v>734</v>
@@ -10189,29 +10178,40 @@
         <v>609</v>
       </c>
       <c r="G125" s="43" t="s">
-        <v>768</v>
+        <v>364</v>
       </c>
       <c r="H125" s="43" t="s">
         <v>817</v>
       </c>
       <c r="I125" s="43"/>
-      <c r="J125" s="43"/>
+      <c r="J125" s="43" t="s">
+        <v>511</v>
+      </c>
       <c r="K125" s="14" t="s">
         <v>195</v>
       </c>
       <c r="L125" s="14" t="s">
         <v>195</v>
+      </c>
+      <c r="M125" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="N125" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="O125" s="16" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="126" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A126" s="59" t="s">
-        <v>233</v>
+        <v>493</v>
       </c>
       <c r="B126" s="43" t="s">
-        <v>114</v>
+        <v>498</v>
       </c>
       <c r="C126" s="43" t="s">
-        <v>364</v>
+        <v>598</v>
       </c>
       <c r="D126" s="43" t="s">
         <v>734</v>
@@ -10222,15 +10222,13 @@
       <c r="F126" s="43" t="s">
         <v>609</v>
       </c>
-      <c r="G126" s="43" t="s">
-        <v>364</v>
-      </c>
+      <c r="G126" s="43"/>
       <c r="H126" s="43" t="s">
         <v>817</v>
       </c>
       <c r="I126" s="43"/>
       <c r="J126" s="43" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="K126" s="14" t="s">
         <v>195</v>
@@ -10239,24 +10237,24 @@
         <v>195</v>
       </c>
       <c r="M126" s="15" t="s">
-        <v>365</v>
+        <v>1</v>
       </c>
       <c r="N126" s="13" t="s">
-        <v>472</v>
+        <v>1</v>
       </c>
       <c r="O126" s="16" t="s">
-        <v>115</v>
+        <v>499</v>
       </c>
     </row>
     <row r="127" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A127" s="59" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B127" s="43" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C127" s="43" t="s">
-        <v>598</v>
+        <v>791</v>
       </c>
       <c r="D127" s="43" t="s">
         <v>734</v>
@@ -10273,7 +10271,7 @@
       </c>
       <c r="I127" s="43"/>
       <c r="J127" s="43" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K127" s="14" t="s">
         <v>195</v>
@@ -10288,18 +10286,18 @@
         <v>1</v>
       </c>
       <c r="O127" s="16" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="128" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A128" s="59" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B128" s="43" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C128" s="43" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D128" s="43" t="s">
         <v>734</v>
@@ -10316,7 +10314,7 @@
       </c>
       <c r="I128" s="43"/>
       <c r="J128" s="43" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="K128" s="14" t="s">
         <v>195</v>
@@ -10331,35 +10329,37 @@
         <v>1</v>
       </c>
       <c r="O128" s="16" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="129" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A129" s="59" t="s">
-        <v>492</v>
-      </c>
-      <c r="B129" s="43" t="s">
-        <v>495</v>
-      </c>
-      <c r="C129" s="43" t="s">
-        <v>790</v>
-      </c>
-      <c r="D129" s="43" t="s">
-        <v>734</v>
-      </c>
-      <c r="E129" s="43" t="s">
-        <v>659</v>
-      </c>
-      <c r="F129" s="43" t="s">
-        <v>609</v>
-      </c>
-      <c r="G129" s="43"/>
-      <c r="H129" s="43" t="s">
-        <v>817</v>
-      </c>
-      <c r="I129" s="43"/>
-      <c r="J129" s="43" t="s">
-        <v>513</v>
+      <c r="A129" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="B129" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C129" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="D129" s="24" t="s">
+        <v>734</v>
+      </c>
+      <c r="E129" s="24" t="s">
+        <v>745</v>
+      </c>
+      <c r="F129" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="G129" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="H129" s="24" t="s">
+        <v>817</v>
+      </c>
+      <c r="I129" s="24"/>
+      <c r="J129" s="24" t="s">
+        <v>613</v>
       </c>
       <c r="K129" s="14" t="s">
         <v>195</v>
@@ -10368,24 +10368,22 @@
         <v>195</v>
       </c>
       <c r="M129" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="N129" s="13" t="s">
-        <v>1</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="N129" s="13"/>
       <c r="O129" s="16" t="s">
-        <v>496</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A130" s="25" t="s">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="B130" s="26" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="C130" s="24" t="s">
-        <v>205</v>
+        <v>585</v>
       </c>
       <c r="D130" s="24" t="s">
         <v>734</v>
@@ -10396,15 +10394,13 @@
       <c r="F130" s="24" t="s">
         <v>366</v>
       </c>
-      <c r="G130" s="24" t="s">
-        <v>206</v>
-      </c>
+      <c r="G130" s="24"/>
       <c r="H130" s="24" t="s">
         <v>817</v>
       </c>
       <c r="I130" s="24"/>
       <c r="J130" s="24" t="s">
-        <v>613</v>
+        <v>518</v>
       </c>
       <c r="K130" s="14" t="s">
         <v>195</v>
@@ -10413,22 +10409,24 @@
         <v>195</v>
       </c>
       <c r="M130" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="N130" s="13"/>
+        <v>47</v>
+      </c>
+      <c r="N130" s="13" t="s">
+        <v>474</v>
+      </c>
       <c r="O130" s="16" t="s">
-        <v>1</v>
+        <v>135</v>
       </c>
     </row>
     <row r="131" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A131" s="25" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B131" s="26" t="s">
-        <v>173</v>
+        <v>604</v>
       </c>
       <c r="C131" s="24" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D131" s="24" t="s">
         <v>734</v>
@@ -10445,7 +10443,7 @@
       </c>
       <c r="I131" s="24"/>
       <c r="J131" s="24" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="K131" s="14" t="s">
         <v>195</v>
@@ -10453,25 +10451,25 @@
       <c r="L131" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M131" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="N131" s="13" t="s">
-        <v>474</v>
+      <c r="M131" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="N131" s="58" t="s">
+        <v>471</v>
       </c>
       <c r="O131" s="16" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
     </row>
     <row r="132" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A132" s="25" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B132" s="26" t="s">
-        <v>604</v>
+        <v>163</v>
       </c>
       <c r="C132" s="24" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D132" s="24" t="s">
         <v>734</v>
@@ -10488,7 +10486,7 @@
       </c>
       <c r="I132" s="24"/>
       <c r="J132" s="24" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="K132" s="14" t="s">
         <v>195</v>
@@ -10497,24 +10495,24 @@
         <v>195</v>
       </c>
       <c r="M132" s="58" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="N132" s="58" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O132" s="16" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="133" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A133" s="25" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B133" s="26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C133" s="24" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D133" s="24" t="s">
         <v>734</v>
@@ -10540,7 +10538,7 @@
         <v>195</v>
       </c>
       <c r="M133" s="58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N133" s="58" t="s">
         <v>472</v>
@@ -10551,13 +10549,13 @@
     </row>
     <row r="134" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A134" s="25" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B134" s="26" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="C134" s="24" t="s">
-        <v>588</v>
+        <v>32</v>
       </c>
       <c r="D134" s="24" t="s">
         <v>734</v>
@@ -10574,7 +10572,7 @@
       </c>
       <c r="I134" s="24"/>
       <c r="J134" s="24" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="K134" s="14" t="s">
         <v>195</v>
@@ -10583,24 +10581,24 @@
         <v>195</v>
       </c>
       <c r="M134" s="58" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="N134" s="58" t="s">
         <v>472</v>
       </c>
       <c r="O134" s="16" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A135" s="25" t="s">
-        <v>254</v>
+        <v>665</v>
       </c>
       <c r="B135" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="C135" s="24" t="s">
-        <v>32</v>
+      <c r="C135" s="26" t="s">
+        <v>661</v>
       </c>
       <c r="D135" s="24" t="s">
         <v>734</v>
@@ -10608,16 +10606,16 @@
       <c r="E135" s="24" t="s">
         <v>745</v>
       </c>
-      <c r="F135" s="24" t="s">
+      <c r="F135" s="26" t="s">
         <v>366</v>
       </c>
-      <c r="G135" s="24"/>
-      <c r="H135" s="24" t="s">
-        <v>817</v>
-      </c>
-      <c r="I135" s="24"/>
-      <c r="J135" s="24" t="s">
-        <v>508</v>
+      <c r="G135" s="26"/>
+      <c r="H135" s="26" t="s">
+        <v>817</v>
+      </c>
+      <c r="I135" s="26"/>
+      <c r="J135" s="26" t="s">
+        <v>710</v>
       </c>
       <c r="K135" s="14" t="s">
         <v>195</v>
@@ -10626,24 +10624,21 @@
         <v>195</v>
       </c>
       <c r="M135" s="58" t="s">
-        <v>32</v>
+        <v>709</v>
       </c>
       <c r="N135" s="58" t="s">
-        <v>472</v>
-      </c>
-      <c r="O135" s="16" t="s">
-        <v>147</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A136" s="25" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B136" s="26" t="s">
-        <v>146</v>
+        <v>707</v>
       </c>
       <c r="C136" s="26" t="s">
-        <v>661</v>
+        <v>735</v>
       </c>
       <c r="D136" s="24" t="s">
         <v>734</v>
@@ -10660,7 +10655,7 @@
       </c>
       <c r="I136" s="26"/>
       <c r="J136" s="26" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="K136" s="14" t="s">
         <v>195</v>
@@ -10669,7 +10664,7 @@
         <v>195</v>
       </c>
       <c r="M136" s="58" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="N136" s="58" t="s">
         <v>1</v>
@@ -10677,13 +10672,13 @@
     </row>
     <row r="137" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A137" s="25" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B137" s="26" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="C137" s="26" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="D137" s="24" t="s">
         <v>734</v>
@@ -10700,7 +10695,7 @@
       </c>
       <c r="I137" s="26"/>
       <c r="J137" s="26" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="K137" s="14" t="s">
         <v>195</v>
@@ -10709,7 +10704,7 @@
         <v>195</v>
       </c>
       <c r="M137" s="58" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="N137" s="58" t="s">
         <v>1</v>
@@ -10717,13 +10712,13 @@
     </row>
     <row r="138" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A138" s="25" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B138" s="26" t="s">
-        <v>694</v>
+        <v>714</v>
       </c>
       <c r="C138" s="26" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="D138" s="24" t="s">
         <v>734</v>
@@ -10740,7 +10735,7 @@
       </c>
       <c r="I138" s="26"/>
       <c r="J138" s="26" t="s">
-        <v>712</v>
+        <v>695</v>
       </c>
       <c r="K138" s="14" t="s">
         <v>195</v>
@@ -10749,21 +10744,22 @@
         <v>195</v>
       </c>
       <c r="M138" s="58" t="s">
-        <v>713</v>
+        <v>1</v>
       </c>
       <c r="N138" s="58" t="s">
         <v>1</v>
       </c>
+      <c r="O138" s="16"/>
     </row>
     <row r="139" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A139" s="25" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B139" s="26" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="C139" s="26" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D139" s="24" t="s">
         <v>734</v>
@@ -10780,7 +10776,7 @@
       </c>
       <c r="I139" s="26"/>
       <c r="J139" s="26" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="K139" s="14" t="s">
         <v>195</v>
@@ -10789,7 +10785,7 @@
         <v>195</v>
       </c>
       <c r="M139" s="58" t="s">
-        <v>1</v>
+        <v>715</v>
       </c>
       <c r="N139" s="58" t="s">
         <v>1</v>
@@ -10798,13 +10794,13 @@
     </row>
     <row r="140" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A140" s="25" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B140" s="26" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="C140" s="26" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D140" s="24" t="s">
         <v>734</v>
@@ -10821,7 +10817,7 @@
       </c>
       <c r="I140" s="26"/>
       <c r="J140" s="26" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="K140" s="14" t="s">
         <v>195</v>
@@ -10830,7 +10826,7 @@
         <v>195</v>
       </c>
       <c r="M140" s="58" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="N140" s="58" t="s">
         <v>1</v>
@@ -10839,13 +10835,13 @@
     </row>
     <row r="141" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A141" s="25" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B141" s="26" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C141" s="26" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D141" s="24" t="s">
         <v>734</v>
@@ -10862,7 +10858,7 @@
       </c>
       <c r="I141" s="26"/>
       <c r="J141" s="26" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="K141" s="14" t="s">
         <v>195</v>
@@ -10871,7 +10867,7 @@
         <v>195</v>
       </c>
       <c r="M141" s="58" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N141" s="58" t="s">
         <v>1</v>
@@ -10880,13 +10876,13 @@
     </row>
     <row r="142" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A142" s="25" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="B142" s="26" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="C142" s="26" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D142" s="24" t="s">
         <v>734</v>
@@ -10903,7 +10899,7 @@
       </c>
       <c r="I142" s="26"/>
       <c r="J142" s="26" t="s">
-        <v>701</v>
+        <v>731</v>
       </c>
       <c r="K142" s="14" t="s">
         <v>195</v>
@@ -10912,7 +10908,7 @@
         <v>195</v>
       </c>
       <c r="M142" s="58" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="N142" s="58" t="s">
         <v>1</v>
@@ -10921,13 +10917,13 @@
     </row>
     <row r="143" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A143" s="25" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B143" s="26" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C143" s="26" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="D143" s="24" t="s">
         <v>734</v>
@@ -10936,7 +10932,7 @@
         <v>745</v>
       </c>
       <c r="F143" s="26" t="s">
-        <v>366</v>
+        <v>414</v>
       </c>
       <c r="G143" s="26"/>
       <c r="H143" s="26" t="s">
@@ -10944,7 +10940,7 @@
       </c>
       <c r="I143" s="26"/>
       <c r="J143" s="26" t="s">
-        <v>731</v>
+        <v>118</v>
       </c>
       <c r="K143" s="14" t="s">
         <v>195</v>
@@ -10953,22 +10949,24 @@
         <v>195</v>
       </c>
       <c r="M143" s="58" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="N143" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="O143" s="16"/>
+      <c r="O143" s="16" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="144" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A144" s="25" t="s">
-        <v>673</v>
+        <v>252</v>
       </c>
       <c r="B144" s="26" t="s">
-        <v>703</v>
+        <v>143</v>
       </c>
       <c r="C144" s="26" t="s">
-        <v>742</v>
+        <v>597</v>
       </c>
       <c r="D144" s="24" t="s">
         <v>734</v>
@@ -10985,7 +10983,7 @@
       </c>
       <c r="I144" s="26"/>
       <c r="J144" s="26" t="s">
-        <v>118</v>
+        <v>519</v>
       </c>
       <c r="K144" s="14" t="s">
         <v>195</v>
@@ -10994,24 +10992,24 @@
         <v>195</v>
       </c>
       <c r="M144" s="58" t="s">
-        <v>704</v>
+        <v>30</v>
       </c>
       <c r="N144" s="58" t="s">
-        <v>1</v>
+        <v>472</v>
       </c>
       <c r="O144" s="16" t="s">
-        <v>1</v>
+        <v>162</v>
       </c>
     </row>
     <row r="145" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A145" s="25" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="B145" s="26" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="C145" s="26" t="s">
-        <v>597</v>
+        <v>344</v>
       </c>
       <c r="D145" s="24" t="s">
         <v>734</v>
@@ -11028,7 +11026,7 @@
       </c>
       <c r="I145" s="26"/>
       <c r="J145" s="26" t="s">
-        <v>519</v>
+        <v>581</v>
       </c>
       <c r="K145" s="14" t="s">
         <v>195</v>
@@ -11037,24 +11035,24 @@
         <v>195</v>
       </c>
       <c r="M145" s="58" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="N145" s="58" t="s">
-        <v>472</v>
+        <v>1</v>
       </c>
       <c r="O145" s="16" t="s">
-        <v>162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A146" s="25" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="B146" s="26" t="s">
-        <v>100</v>
+        <v>178</v>
       </c>
       <c r="C146" s="26" t="s">
-        <v>344</v>
+        <v>435</v>
       </c>
       <c r="D146" s="24" t="s">
         <v>734</v>
@@ -11080,24 +11078,24 @@
         <v>195</v>
       </c>
       <c r="M146" s="58" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="N146" s="58" t="s">
-        <v>1</v>
+        <v>472</v>
       </c>
       <c r="O146" s="16" t="s">
-        <v>1</v>
+        <v>118</v>
       </c>
     </row>
     <row r="147" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A147" s="25" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="B147" s="26" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C147" s="26" t="s">
-        <v>435</v>
+        <v>596</v>
       </c>
       <c r="D147" s="24" t="s">
         <v>734</v>
@@ -11114,7 +11112,7 @@
       </c>
       <c r="I147" s="26"/>
       <c r="J147" s="26" t="s">
-        <v>581</v>
+        <v>520</v>
       </c>
       <c r="K147" s="14" t="s">
         <v>195</v>
@@ -11123,24 +11121,24 @@
         <v>195</v>
       </c>
       <c r="M147" s="58" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N147" s="58" t="s">
         <v>472</v>
       </c>
       <c r="O147" s="16" t="s">
-        <v>118</v>
+        <v>164</v>
       </c>
     </row>
     <row r="148" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A148" s="25" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="B148" s="26" t="s">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="C148" s="26" t="s">
-        <v>596</v>
+        <v>346</v>
       </c>
       <c r="D148" s="24" t="s">
         <v>734</v>
@@ -11157,7 +11155,7 @@
       </c>
       <c r="I148" s="26"/>
       <c r="J148" s="26" t="s">
-        <v>520</v>
+        <v>581</v>
       </c>
       <c r="K148" s="14" t="s">
         <v>195</v>
@@ -11166,24 +11164,24 @@
         <v>195</v>
       </c>
       <c r="M148" s="58" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="N148" s="58" t="s">
-        <v>472</v>
+        <v>1</v>
       </c>
       <c r="O148" s="16" t="s">
-        <v>164</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A149" s="25" t="s">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="B149" s="26" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="C149" s="26" t="s">
-        <v>346</v>
+        <v>595</v>
       </c>
       <c r="D149" s="24" t="s">
         <v>734</v>
@@ -11200,7 +11198,7 @@
       </c>
       <c r="I149" s="26"/>
       <c r="J149" s="26" t="s">
-        <v>581</v>
+        <v>521</v>
       </c>
       <c r="K149" s="14" t="s">
         <v>195</v>
@@ -11209,24 +11207,24 @@
         <v>195</v>
       </c>
       <c r="M149" s="58" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="N149" s="58" t="s">
-        <v>1</v>
+        <v>472</v>
       </c>
       <c r="O149" s="16" t="s">
-        <v>1</v>
+        <v>149</v>
       </c>
     </row>
     <row r="150" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A150" s="25" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B150" s="26" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C150" s="26" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D150" s="24" t="s">
         <v>734</v>
@@ -11243,7 +11241,7 @@
       </c>
       <c r="I150" s="26"/>
       <c r="J150" s="26" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K150" s="14" t="s">
         <v>195</v>
@@ -11252,24 +11250,24 @@
         <v>195</v>
       </c>
       <c r="M150" s="58" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="N150" s="58" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="O150" s="16" t="s">
-        <v>149</v>
+        <v>813</v>
       </c>
     </row>
     <row r="151" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A151" s="25" t="s">
-        <v>259</v>
+        <v>672</v>
       </c>
       <c r="B151" s="26" t="s">
-        <v>160</v>
+        <v>702</v>
       </c>
       <c r="C151" s="26" t="s">
-        <v>594</v>
+        <v>741</v>
       </c>
       <c r="D151" s="24" t="s">
         <v>734</v>
@@ -11286,7 +11284,7 @@
       </c>
       <c r="I151" s="26"/>
       <c r="J151" s="26" t="s">
-        <v>522</v>
+        <v>730</v>
       </c>
       <c r="K151" s="14" t="s">
         <v>195</v>
@@ -11295,67 +11293,69 @@
         <v>195</v>
       </c>
       <c r="M151" s="58" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="N151" s="58" t="s">
-        <v>474</v>
+        <v>1</v>
       </c>
       <c r="O151" s="16" t="s">
-        <v>813</v>
+        <v>730</v>
       </c>
     </row>
     <row r="152" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A152" s="25" t="s">
-        <v>672</v>
-      </c>
-      <c r="B152" s="26" t="s">
-        <v>702</v>
-      </c>
-      <c r="C152" s="26" t="s">
-        <v>741</v>
-      </c>
-      <c r="D152" s="24" t="s">
-        <v>734</v>
-      </c>
-      <c r="E152" s="24" t="s">
-        <v>745</v>
-      </c>
-      <c r="F152" s="26" t="s">
-        <v>414</v>
-      </c>
-      <c r="G152" s="26"/>
-      <c r="H152" s="26" t="s">
-        <v>817</v>
-      </c>
-      <c r="I152" s="26"/>
-      <c r="J152" s="26" t="s">
-        <v>730</v>
+      <c r="A152" s="44" t="s">
+        <v>801</v>
+      </c>
+      <c r="B152" s="45" t="s">
+        <v>567</v>
+      </c>
+      <c r="C152" s="45" t="s">
+        <v>801</v>
+      </c>
+      <c r="D152" s="45" t="s">
+        <v>662</v>
+      </c>
+      <c r="E152" s="45" t="s">
+        <v>659</v>
+      </c>
+      <c r="F152" s="45" t="s">
+        <v>662</v>
+      </c>
+      <c r="G152" s="45" t="s">
+        <v>662</v>
+      </c>
+      <c r="H152" s="45" t="s">
+        <v>817</v>
+      </c>
+      <c r="I152" s="45"/>
+      <c r="J152" s="45" t="s">
+        <v>515</v>
       </c>
       <c r="K152" s="14" t="s">
-        <v>195</v>
+        <v>638</v>
       </c>
       <c r="L152" s="14" t="s">
-        <v>195</v>
+        <v>621</v>
       </c>
       <c r="M152" s="58" t="s">
-        <v>1</v>
+        <v>655</v>
       </c>
       <c r="N152" s="58" t="s">
         <v>1</v>
       </c>
       <c r="O152" s="16" t="s">
-        <v>730</v>
+        <v>578</v>
       </c>
     </row>
     <row r="153" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A153" s="44" t="s">
-        <v>801</v>
+        <v>566</v>
       </c>
       <c r="B153" s="45" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C153" s="45" t="s">
-        <v>801</v>
+        <v>811</v>
       </c>
       <c r="D153" s="45" t="s">
         <v>662</v>
@@ -11372,7 +11372,9 @@
       <c r="H153" s="45" t="s">
         <v>817</v>
       </c>
-      <c r="I153" s="45"/>
+      <c r="I153" s="45">
+        <v>1</v>
+      </c>
       <c r="J153" s="45" t="s">
         <v>515</v>
       </c>
@@ -11394,13 +11396,13 @@
     </row>
     <row r="154" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A154" s="44" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B154" s="45" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C154" s="45" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D154" s="45" t="s">
         <v>662</v>
@@ -11421,33 +11423,33 @@
         <v>1</v>
       </c>
       <c r="J154" s="45" t="s">
-        <v>515</v>
+        <v>573</v>
       </c>
       <c r="K154" s="14" t="s">
-        <v>638</v>
+        <v>195</v>
       </c>
       <c r="L154" s="14" t="s">
-        <v>621</v>
+        <v>195</v>
       </c>
       <c r="M154" s="58" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="N154" s="58" t="s">
         <v>1</v>
       </c>
       <c r="O154" s="16" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="155" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A155" s="44" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B155" s="45" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C155" s="45" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="D155" s="45" t="s">
         <v>662</v>
@@ -11468,7 +11470,7 @@
         <v>1</v>
       </c>
       <c r="J155" s="45" t="s">
-        <v>573</v>
+        <v>401</v>
       </c>
       <c r="K155" s="14" t="s">
         <v>195</v>
@@ -11477,24 +11479,24 @@
         <v>195</v>
       </c>
       <c r="M155" s="58" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="N155" s="58" t="s">
         <v>1</v>
       </c>
       <c r="O155" s="16" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="156" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A156" s="44" t="s">
-        <v>563</v>
+        <v>650</v>
       </c>
       <c r="B156" s="45" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C156" s="45" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="D156" s="45" t="s">
         <v>662</v>
@@ -11515,33 +11517,33 @@
         <v>1</v>
       </c>
       <c r="J156" s="45" t="s">
-        <v>401</v>
+        <v>516</v>
       </c>
       <c r="K156" s="14" t="s">
-        <v>195</v>
+        <v>638</v>
       </c>
       <c r="L156" s="14" t="s">
-        <v>195</v>
+        <v>621</v>
       </c>
       <c r="M156" s="58" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="N156" s="58" t="s">
         <v>1</v>
       </c>
       <c r="O156" s="16" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
     </row>
     <row r="157" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A157" s="44" t="s">
-        <v>650</v>
+        <v>565</v>
       </c>
       <c r="B157" s="45" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="C157" s="45" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="D157" s="45" t="s">
         <v>662</v>
@@ -11562,33 +11564,33 @@
         <v>1</v>
       </c>
       <c r="J157" s="45" t="s">
-        <v>516</v>
+        <v>575</v>
       </c>
       <c r="K157" s="14" t="s">
-        <v>638</v>
+        <v>195</v>
       </c>
       <c r="L157" s="14" t="s">
-        <v>621</v>
+        <v>195</v>
       </c>
       <c r="M157" s="58" t="s">
-        <v>652</v>
+        <v>1</v>
       </c>
       <c r="N157" s="58" t="s">
         <v>1</v>
       </c>
       <c r="O157" s="16" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="158" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A158" s="44" t="s">
-        <v>565</v>
+        <v>629</v>
       </c>
       <c r="B158" s="45" t="s">
-        <v>570</v>
+        <v>628</v>
       </c>
       <c r="C158" s="45" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D158" s="45" t="s">
         <v>662</v>
@@ -11609,7 +11611,7 @@
         <v>1</v>
       </c>
       <c r="J158" s="45" t="s">
-        <v>575</v>
+        <v>664</v>
       </c>
       <c r="K158" s="14" t="s">
         <v>195</v>
@@ -11624,18 +11626,18 @@
         <v>1</v>
       </c>
       <c r="O158" s="16" t="s">
-        <v>574</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A159" s="44" t="s">
-        <v>629</v>
+        <v>651</v>
       </c>
       <c r="B159" s="45" t="s">
-        <v>628</v>
+        <v>567</v>
       </c>
       <c r="C159" s="45" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="D159" s="45" t="s">
         <v>662</v>
@@ -11653,36 +11655,36 @@
         <v>817</v>
       </c>
       <c r="I159" s="45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J159" s="45" t="s">
-        <v>664</v>
+        <v>516</v>
       </c>
       <c r="K159" s="14" t="s">
-        <v>195</v>
+        <v>638</v>
       </c>
       <c r="L159" s="14" t="s">
-        <v>195</v>
+        <v>621</v>
       </c>
       <c r="M159" s="58" t="s">
-        <v>1</v>
+        <v>652</v>
       </c>
       <c r="N159" s="58" t="s">
         <v>1</v>
       </c>
       <c r="O159" s="16" t="s">
-        <v>1</v>
+        <v>578</v>
       </c>
     </row>
     <row r="160" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A160" s="44" t="s">
-        <v>651</v>
+        <v>798</v>
       </c>
       <c r="B160" s="45" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C160" s="45" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D160" s="45" t="s">
         <v>662</v>
@@ -11703,33 +11705,31 @@
         <v>3</v>
       </c>
       <c r="J160" s="45" t="s">
-        <v>516</v>
+        <v>573</v>
       </c>
       <c r="K160" s="14" t="s">
-        <v>638</v>
+        <v>195</v>
       </c>
       <c r="L160" s="14" t="s">
-        <v>621</v>
+        <v>195</v>
       </c>
       <c r="M160" s="58" t="s">
-        <v>652</v>
-      </c>
-      <c r="N160" s="58" t="s">
-        <v>1</v>
-      </c>
+        <v>654</v>
+      </c>
+      <c r="N160" s="58"/>
       <c r="O160" s="16" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="161" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A161" s="44" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B161" s="45" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C161" s="45" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="D161" s="45" t="s">
         <v>662</v>
@@ -11750,7 +11750,7 @@
         <v>3</v>
       </c>
       <c r="J161" s="45" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="K161" s="14" t="s">
         <v>195</v>
@@ -11759,22 +11759,22 @@
         <v>195</v>
       </c>
       <c r="M161" s="58" t="s">
-        <v>654</v>
+        <v>1</v>
       </c>
       <c r="N161" s="58"/>
       <c r="O161" s="16" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="162" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A162" s="44" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B162" s="45" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C162" s="45" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D162" s="45" t="s">
         <v>662</v>
@@ -11795,7 +11795,7 @@
         <v>3</v>
       </c>
       <c r="J162" s="45" t="s">
-        <v>575</v>
+        <v>401</v>
       </c>
       <c r="K162" s="14" t="s">
         <v>195</v>
@@ -11804,67 +11804,22 @@
         <v>195</v>
       </c>
       <c r="M162" s="58" t="s">
-        <v>1</v>
+        <v>653</v>
       </c>
       <c r="N162" s="58"/>
       <c r="O162" s="16" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A163" s="44" t="s">
-        <v>800</v>
-      </c>
-      <c r="B163" s="45" t="s">
-        <v>568</v>
-      </c>
-      <c r="C163" s="45" t="s">
-        <v>805</v>
-      </c>
-      <c r="D163" s="45" t="s">
-        <v>662</v>
-      </c>
-      <c r="E163" s="45" t="s">
-        <v>659</v>
-      </c>
-      <c r="F163" s="45" t="s">
-        <v>662</v>
-      </c>
-      <c r="G163" s="45" t="s">
-        <v>662</v>
-      </c>
-      <c r="H163" s="45" t="s">
-        <v>817</v>
-      </c>
-      <c r="I163" s="45">
-        <v>3</v>
-      </c>
-      <c r="J163" s="45" t="s">
-        <v>401</v>
-      </c>
-      <c r="K163" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="L163" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="M163" s="58" t="s">
-        <v>653</v>
-      </c>
-      <c r="N163" s="58"/>
-      <c r="O163" s="16" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A164" s="1"/>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A163" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O163">
-    <sortCondition ref="D2:D163"/>
-    <sortCondition ref="E2:E163"/>
-    <sortCondition ref="F2:F163"/>
-    <sortCondition ref="G2:G163"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O162">
+    <sortCondition ref="D2:D162"/>
+    <sortCondition ref="E2:E162"/>
+    <sortCondition ref="F2:F162"/>
+    <sortCondition ref="G2:G162"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="B60" r:id="rId1" display="https://it.wikipedia.org/wiki/Baiyangdian_virus" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -11881,15 +11836,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>608</v>
       </c>
@@ -11921,7 +11876,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>240</v>
       </c>
@@ -11963,7 +11918,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
         <v>626</v>
       </c>
@@ -12004,6 +11959,51 @@
         <v>1</v>
       </c>
       <c r="N7" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>681</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>723</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>729</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>734</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>659</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>539</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>817</v>
+      </c>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34" t="s">
+        <v>501</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="29" t="s">
+        <v>621</v>
+      </c>
+      <c r="M8" s="50" t="s">
+        <v>724</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" s="50" t="s">
         <v>1</v>
       </c>
     </row>

--- a/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A299F787-179B-9546-AE58-11F4D12BB499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27151FA5-30EC-4742-90DB-9A6970400EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9920" yWindow="1560" windowWidth="23260" windowHeight="24280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9920" yWindow="1540" windowWidth="23260" windowHeight="24280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flavi.txt" sheetId="1" r:id="rId1"/>
@@ -4644,8 +4644,8 @@
   <dimension ref="A1:O163"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20:L28"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27151FA5-30EC-4742-90DB-9A6970400EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D3B359-35FA-3548-8F64-FBF23F5F49BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9920" yWindow="1540" windowWidth="23260" windowHeight="24280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="removed" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">flavi.txt!$A$1:$N$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">flavi.txt!$A$1:$N$120</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2242" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2256" uniqueCount="824">
   <si>
     <t>AY632538</t>
   </si>
@@ -2495,6 +2495,21 @@
   </si>
   <si>
     <t>TBFV</t>
+  </si>
+  <si>
+    <t>LC582740</t>
+  </si>
+  <si>
+    <t>Mpulungu flavivirus</t>
+  </si>
+  <si>
+    <t>Mpulungu</t>
+  </si>
+  <si>
+    <t>Rhipicephalus muhsamae</t>
+  </si>
+  <si>
+    <t>ZT17-1078</t>
   </si>
 </sst>
 </file>
@@ -4641,11 +4656,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O163"/>
+  <dimension ref="A1:O164"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C139" sqref="C139"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4661,7 +4676,7 @@
     <col min="11" max="11" width="16.6640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="20" style="1" customWidth="1"/>
     <col min="13" max="13" width="17" style="1" customWidth="1"/>
-    <col min="14" max="14" width="1.83203125" customWidth="1"/>
+    <col min="14" max="14" width="19.1640625" customWidth="1"/>
     <col min="15" max="15" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8346,59 +8361,59 @@
       </c>
     </row>
     <row r="83" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A83" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="B83" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="C83" s="40" t="s">
-        <v>459</v>
-      </c>
-      <c r="D83" s="40" t="s">
-        <v>734</v>
-      </c>
-      <c r="E83" s="40" t="s">
-        <v>659</v>
-      </c>
-      <c r="F83" s="40" t="s">
+      <c r="A83" s="37" t="s">
+        <v>819</v>
+      </c>
+      <c r="B83" s="38" t="s">
+        <v>820</v>
+      </c>
+      <c r="C83" s="38" t="s">
+        <v>821</v>
+      </c>
+      <c r="D83" s="38" t="s">
+        <v>734</v>
+      </c>
+      <c r="E83" s="38" t="s">
+        <v>659</v>
+      </c>
+      <c r="F83" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="G83" s="40" t="s">
-        <v>818</v>
-      </c>
-      <c r="H83" s="40" t="s">
-        <v>817</v>
-      </c>
-      <c r="I83" s="40"/>
-      <c r="J83" s="40" t="s">
-        <v>515</v>
-      </c>
-      <c r="K83" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="L83" s="40" t="s">
-        <v>620</v>
-      </c>
-      <c r="M83" s="16" t="s">
-        <v>460</v>
-      </c>
-      <c r="N83" s="16" t="s">
-        <v>475</v>
+      <c r="G83" s="38" t="s">
+        <v>821</v>
+      </c>
+      <c r="H83" s="38" t="s">
+        <v>817</v>
+      </c>
+      <c r="I83" s="38"/>
+      <c r="J83" s="38" t="s">
+        <v>617</v>
+      </c>
+      <c r="K83" s="38" t="s">
+        <v>617</v>
+      </c>
+      <c r="L83" s="38" t="s">
+        <v>822</v>
+      </c>
+      <c r="M83" s="15" t="s">
+        <v>823</v>
+      </c>
+      <c r="N83" s="13" t="s">
+        <v>474</v>
       </c>
       <c r="O83" s="16" t="s">
-        <v>152</v>
+        <v>822</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B84" s="40" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C84" s="40" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D84" s="40" t="s">
         <v>734</v>
@@ -8417,33 +8432,33 @@
       </c>
       <c r="I84" s="40"/>
       <c r="J84" s="40" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K84" s="40" t="s">
         <v>190</v>
       </c>
       <c r="L84" s="40" t="s">
-        <v>621</v>
-      </c>
-      <c r="M84" s="15" t="s">
-        <v>463</v>
-      </c>
-      <c r="N84" s="13" t="s">
-        <v>474</v>
+        <v>620</v>
+      </c>
+      <c r="M84" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="N84" s="16" t="s">
+        <v>475</v>
       </c>
       <c r="O84" s="16" t="s">
-        <v>462</v>
+        <v>152</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A85" s="39" t="s">
-        <v>258</v>
+        <v>60</v>
       </c>
       <c r="B85" s="40" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="C85" s="40" t="s">
-        <v>417</v>
+        <v>461</v>
       </c>
       <c r="D85" s="40" t="s">
         <v>734</v>
@@ -8462,33 +8477,33 @@
       </c>
       <c r="I85" s="40"/>
       <c r="J85" s="40" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="K85" s="40" t="s">
         <v>190</v>
       </c>
       <c r="L85" s="40" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M85" s="15" t="s">
-        <v>1</v>
+        <v>463</v>
       </c>
       <c r="N85" s="13" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="O85" s="16" t="s">
-        <v>154</v>
+        <v>462</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A86" s="39" t="s">
-        <v>213</v>
+        <v>258</v>
       </c>
       <c r="B86" s="40" t="s">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="C86" s="40" t="s">
-        <v>313</v>
+        <v>417</v>
       </c>
       <c r="D86" s="40" t="s">
         <v>734</v>
@@ -8507,33 +8522,33 @@
       </c>
       <c r="I86" s="40"/>
       <c r="J86" s="40" t="s">
-        <v>640</v>
+        <v>515</v>
       </c>
       <c r="K86" s="40" t="s">
         <v>190</v>
       </c>
       <c r="L86" s="40" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="M86" s="15" t="s">
         <v>1</v>
       </c>
       <c r="N86" s="13" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="O86" s="16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A87" s="39" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="B87" s="40" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="C87" s="40" t="s">
-        <v>361</v>
+        <v>313</v>
       </c>
       <c r="D87" s="40" t="s">
         <v>734</v>
@@ -8552,7 +8567,7 @@
       </c>
       <c r="I87" s="40"/>
       <c r="J87" s="40" t="s">
-        <v>515</v>
+        <v>640</v>
       </c>
       <c r="K87" s="40" t="s">
         <v>190</v>
@@ -8561,24 +8576,24 @@
         <v>612</v>
       </c>
       <c r="M87" s="15" t="s">
-        <v>363</v>
+        <v>1</v>
       </c>
       <c r="N87" s="13" t="s">
         <v>471</v>
       </c>
       <c r="O87" s="16" t="s">
-        <v>362</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="39" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="B88" s="40" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C88" s="40" t="s">
-        <v>202</v>
+        <v>361</v>
       </c>
       <c r="D88" s="40" t="s">
         <v>734</v>
@@ -8603,27 +8618,27 @@
         <v>190</v>
       </c>
       <c r="L88" s="40" t="s">
-        <v>641</v>
+        <v>612</v>
       </c>
       <c r="M88" s="15" t="s">
-        <v>1</v>
+        <v>363</v>
       </c>
       <c r="N88" s="13" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="O88" s="16" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="39" t="s">
-        <v>58</v>
+        <v>220</v>
       </c>
       <c r="B89" s="40" t="s">
-        <v>186</v>
+        <v>101</v>
       </c>
       <c r="C89" s="40" t="s">
-        <v>456</v>
+        <v>202</v>
       </c>
       <c r="D89" s="40" t="s">
         <v>734</v>
@@ -8642,33 +8657,33 @@
       </c>
       <c r="I89" s="40"/>
       <c r="J89" s="40" t="s">
-        <v>618</v>
+        <v>515</v>
       </c>
       <c r="K89" s="40" t="s">
         <v>190</v>
       </c>
       <c r="L89" s="40" t="s">
-        <v>620</v>
+        <v>641</v>
       </c>
       <c r="M89" s="15" t="s">
-        <v>458</v>
+        <v>1</v>
       </c>
       <c r="N89" s="13" t="s">
         <v>473</v>
       </c>
       <c r="O89" s="16" t="s">
-        <v>457</v>
+        <v>345</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="39" t="s">
-        <v>237</v>
+        <v>58</v>
       </c>
       <c r="B90" s="40" t="s">
-        <v>120</v>
+        <v>186</v>
       </c>
       <c r="C90" s="40" t="s">
-        <v>372</v>
+        <v>456</v>
       </c>
       <c r="D90" s="40" t="s">
         <v>734</v>
@@ -8687,33 +8702,33 @@
       </c>
       <c r="I90" s="40"/>
       <c r="J90" s="40" t="s">
-        <v>558</v>
+        <v>618</v>
       </c>
       <c r="K90" s="40" t="s">
         <v>190</v>
       </c>
       <c r="L90" s="40" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="M90" s="15" t="s">
-        <v>373</v>
+        <v>458</v>
       </c>
       <c r="N90" s="13" t="s">
         <v>473</v>
       </c>
       <c r="O90" s="16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="39" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B91" s="40" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C91" s="40" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="D91" s="40" t="s">
         <v>734</v>
@@ -8732,7 +8747,7 @@
       </c>
       <c r="I91" s="40"/>
       <c r="J91" s="40" t="s">
-        <v>515</v>
+        <v>558</v>
       </c>
       <c r="K91" s="40" t="s">
         <v>190</v>
@@ -8741,10 +8756,10 @@
         <v>612</v>
       </c>
       <c r="M91" s="15" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="N91" s="13" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O91" s="16" t="s">
         <v>118</v>
@@ -8752,13 +8767,13 @@
     </row>
     <row r="92" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A92" s="39" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="B92" s="40" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="C92" s="40" t="s">
-        <v>294</v>
+        <v>359</v>
       </c>
       <c r="D92" s="40" t="s">
         <v>734</v>
@@ -8777,33 +8792,33 @@
       </c>
       <c r="I92" s="40"/>
       <c r="J92" s="40" t="s">
-        <v>619</v>
+        <v>515</v>
       </c>
       <c r="K92" s="40" t="s">
         <v>190</v>
       </c>
       <c r="L92" s="40" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="M92" s="15" t="s">
-        <v>296</v>
+        <v>360</v>
       </c>
       <c r="N92" s="13" t="s">
-        <v>471</v>
-      </c>
-      <c r="O92" s="42" t="s">
-        <v>295</v>
+        <v>472</v>
+      </c>
+      <c r="O92" s="16" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A93" s="39" t="s">
-        <v>61</v>
+        <v>212</v>
       </c>
       <c r="B93" s="40" t="s">
-        <v>200</v>
+        <v>68</v>
       </c>
       <c r="C93" s="40" t="s">
-        <v>464</v>
+        <v>294</v>
       </c>
       <c r="D93" s="40" t="s">
         <v>734</v>
@@ -8822,33 +8837,33 @@
       </c>
       <c r="I93" s="40"/>
       <c r="J93" s="40" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="K93" s="40" t="s">
         <v>190</v>
       </c>
       <c r="L93" s="40" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M93" s="15" t="s">
-        <v>465</v>
+        <v>296</v>
       </c>
       <c r="N93" s="13" t="s">
-        <v>475</v>
-      </c>
-      <c r="O93" s="16" t="s">
-        <v>208</v>
+        <v>471</v>
+      </c>
+      <c r="O93" s="42" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A94" s="39" t="s">
-        <v>269</v>
+        <v>61</v>
       </c>
       <c r="B94" s="40" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="C94" s="40" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="D94" s="40" t="s">
         <v>734</v>
@@ -8867,33 +8882,33 @@
       </c>
       <c r="I94" s="40"/>
       <c r="J94" s="40" t="s">
-        <v>515</v>
+        <v>618</v>
       </c>
       <c r="K94" s="40" t="s">
         <v>190</v>
       </c>
       <c r="L94" s="40" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="M94" s="15" t="s">
-        <v>48</v>
+        <v>465</v>
       </c>
       <c r="N94" s="13" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="O94" s="16" t="s">
-        <v>175</v>
+        <v>208</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A95" s="39" t="s">
-        <v>218</v>
+        <v>269</v>
       </c>
       <c r="B95" s="40" t="s">
-        <v>99</v>
+        <v>174</v>
       </c>
       <c r="C95" s="40" t="s">
-        <v>342</v>
+        <v>431</v>
       </c>
       <c r="D95" s="40" t="s">
         <v>734</v>
@@ -8918,27 +8933,27 @@
         <v>190</v>
       </c>
       <c r="L95" s="40" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M95" s="15" t="s">
-        <v>343</v>
+        <v>48</v>
       </c>
       <c r="N95" s="13" t="s">
         <v>473</v>
       </c>
       <c r="O95" s="16" t="s">
-        <v>1</v>
+        <v>175</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A96" s="39" t="s">
-        <v>4</v>
+        <v>218</v>
       </c>
       <c r="B96" s="40" t="s">
-        <v>191</v>
+        <v>99</v>
       </c>
       <c r="C96" s="40" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="D96" s="40" t="s">
         <v>734</v>
@@ -8963,13 +8978,13 @@
         <v>190</v>
       </c>
       <c r="L96" s="40" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="M96" s="15" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
       <c r="N96" s="13" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="O96" s="16" t="s">
         <v>1</v>
@@ -8977,13 +8992,13 @@
     </row>
     <row r="97" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A97" s="39" t="s">
-        <v>257</v>
+        <v>4</v>
       </c>
       <c r="B97" s="40" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="C97" s="40" t="s">
-        <v>415</v>
+        <v>297</v>
       </c>
       <c r="D97" s="40" t="s">
         <v>734</v>
@@ -9008,72 +9023,72 @@
         <v>190</v>
       </c>
       <c r="L97" s="40" t="s">
+        <v>616</v>
+      </c>
+      <c r="M97" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="N97" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="O97" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A98" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="B98" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="C98" s="40" t="s">
+        <v>415</v>
+      </c>
+      <c r="D98" s="40" t="s">
+        <v>734</v>
+      </c>
+      <c r="E98" s="40" t="s">
+        <v>659</v>
+      </c>
+      <c r="F98" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="G98" s="40" t="s">
+        <v>818</v>
+      </c>
+      <c r="H98" s="40" t="s">
+        <v>817</v>
+      </c>
+      <c r="I98" s="40"/>
+      <c r="J98" s="40" t="s">
+        <v>515</v>
+      </c>
+      <c r="K98" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="L98" s="40" t="s">
         <v>620</v>
       </c>
-      <c r="M97" s="15" t="s">
+      <c r="M98" s="15" t="s">
         <v>416</v>
       </c>
-      <c r="N97" s="13" t="s">
+      <c r="N98" s="13" t="s">
         <v>473</v>
       </c>
-      <c r="O97" s="16" t="s">
+      <c r="O98" s="16" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A98" s="47" t="s">
-        <v>550</v>
-      </c>
-      <c r="B98" s="48" t="s">
-        <v>553</v>
-      </c>
-      <c r="C98" s="49" t="s">
-        <v>600</v>
-      </c>
-      <c r="D98" s="49" t="s">
-        <v>734</v>
-      </c>
-      <c r="E98" s="49" t="s">
-        <v>659</v>
-      </c>
-      <c r="F98" s="49" t="s">
-        <v>479</v>
-      </c>
-      <c r="G98" s="49" t="s">
-        <v>779</v>
-      </c>
-      <c r="H98" s="49" t="s">
-        <v>817</v>
-      </c>
-      <c r="I98" s="49"/>
-      <c r="J98" s="49" t="s">
-        <v>558</v>
-      </c>
-      <c r="K98" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="L98" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="M98" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="N98" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="O98" s="16" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A99" s="47" t="s">
-        <v>478</v>
+        <v>550</v>
       </c>
       <c r="B99" s="48" t="s">
-        <v>485</v>
+        <v>553</v>
       </c>
       <c r="C99" s="49" t="s">
-        <v>482</v>
+        <v>600</v>
       </c>
       <c r="D99" s="49" t="s">
         <v>734</v>
@@ -9092,7 +9107,7 @@
       </c>
       <c r="I99" s="49"/>
       <c r="J99" s="49" t="s">
-        <v>537</v>
+        <v>558</v>
       </c>
       <c r="K99" s="14" t="s">
         <v>195</v>
@@ -9106,19 +9121,19 @@
       <c r="N99" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="O99" s="46" t="s">
-        <v>536</v>
+      <c r="O99" s="16" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A100" s="47" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B100" s="48" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="C100" s="49" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D100" s="49" t="s">
         <v>734</v>
@@ -9137,7 +9152,7 @@
       </c>
       <c r="I100" s="49"/>
       <c r="J100" s="49" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="K100" s="14" t="s">
         <v>195</v>
@@ -9152,18 +9167,18 @@
         <v>1</v>
       </c>
       <c r="O100" s="46" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A101" s="47" t="s">
-        <v>622</v>
+        <v>483</v>
       </c>
       <c r="B101" s="48" t="s">
-        <v>623</v>
+        <v>480</v>
       </c>
       <c r="C101" s="49" t="s">
-        <v>794</v>
+        <v>481</v>
       </c>
       <c r="D101" s="49" t="s">
         <v>734</v>
@@ -9182,7 +9197,7 @@
       </c>
       <c r="I101" s="49"/>
       <c r="J101" s="49" t="s">
-        <v>624</v>
+        <v>535</v>
       </c>
       <c r="K101" s="14" t="s">
         <v>195</v>
@@ -9196,17 +9211,19 @@
       <c r="N101" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="O101" s="46"/>
+      <c r="O101" s="46" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="102" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A102" s="47" t="s">
-        <v>769</v>
+        <v>622</v>
       </c>
       <c r="B102" s="48" t="s">
-        <v>770</v>
+        <v>623</v>
       </c>
       <c r="C102" s="49" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D102" s="49" t="s">
         <v>734</v>
@@ -9224,23 +9241,32 @@
         <v>817</v>
       </c>
       <c r="I102" s="49"/>
-      <c r="J102" s="49"/>
+      <c r="J102" s="49" t="s">
+        <v>624</v>
+      </c>
       <c r="K102" s="14" t="s">
         <v>195</v>
       </c>
       <c r="L102" s="14" t="s">
         <v>195</v>
       </c>
+      <c r="M102" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N102" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O102" s="46"/>
     </row>
     <row r="103" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A103" s="47" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B103" s="48" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C103" s="49" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="D103" s="49" t="s">
         <v>734</v>
@@ -9268,13 +9294,13 @@
     </row>
     <row r="104" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A104" s="47" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="B104" s="48" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C104" s="49" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="D104" s="49" t="s">
         <v>734</v>
@@ -9302,13 +9328,13 @@
     </row>
     <row r="105" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A105" s="47" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B105" s="48" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C105" s="49" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D105" s="49" t="s">
         <v>734</v>
@@ -9333,19 +9359,16 @@
       <c r="L105" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="O105" s="46" t="s">
-        <v>782</v>
-      </c>
     </row>
     <row r="106" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A106" s="47" t="s">
-        <v>606</v>
+        <v>777</v>
       </c>
       <c r="B106" s="48" t="s">
-        <v>484</v>
+        <v>778</v>
       </c>
       <c r="C106" s="49" t="s">
-        <v>601</v>
+        <v>797</v>
       </c>
       <c r="D106" s="49" t="s">
         <v>734</v>
@@ -9357,40 +9380,32 @@
         <v>479</v>
       </c>
       <c r="G106" s="49" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H106" s="49" t="s">
         <v>817</v>
       </c>
       <c r="I106" s="49"/>
-      <c r="J106" s="49" t="s">
-        <v>526</v>
-      </c>
+      <c r="J106" s="49"/>
       <c r="K106" s="14" t="s">
         <v>195</v>
       </c>
       <c r="L106" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M106" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="N106" s="15" t="s">
-        <v>1</v>
-      </c>
       <c r="O106" s="46" t="s">
-        <v>487</v>
+        <v>782</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A107" s="47" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B107" s="48" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C107" s="49" t="s">
-        <v>660</v>
+        <v>601</v>
       </c>
       <c r="D107" s="49" t="s">
         <v>734</v>
@@ -9409,7 +9424,7 @@
       </c>
       <c r="I107" s="49"/>
       <c r="J107" s="49" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K107" s="14" t="s">
         <v>195</v>
@@ -9424,18 +9439,18 @@
         <v>1</v>
       </c>
       <c r="O107" s="46" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A108" s="47" t="s">
-        <v>773</v>
+        <v>607</v>
       </c>
       <c r="B108" s="48" t="s">
-        <v>774</v>
+        <v>486</v>
       </c>
       <c r="C108" s="49" t="s">
-        <v>792</v>
+        <v>660</v>
       </c>
       <c r="D108" s="49" t="s">
         <v>734</v>
@@ -9453,23 +9468,34 @@
         <v>817</v>
       </c>
       <c r="I108" s="49"/>
-      <c r="J108" s="49"/>
+      <c r="J108" s="49" t="s">
+        <v>527</v>
+      </c>
       <c r="K108" s="14" t="s">
         <v>195</v>
       </c>
       <c r="L108" s="14" t="s">
         <v>195</v>
+      </c>
+      <c r="M108" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N108" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O108" s="46" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A109" s="47" t="s">
-        <v>551</v>
+        <v>773</v>
       </c>
       <c r="B109" s="48" t="s">
-        <v>552</v>
+        <v>774</v>
       </c>
       <c r="C109" s="49" t="s">
-        <v>602</v>
+        <v>792</v>
       </c>
       <c r="D109" s="49" t="s">
         <v>734</v>
@@ -9481,40 +9507,29 @@
         <v>479</v>
       </c>
       <c r="G109" s="49" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H109" s="49" t="s">
         <v>817</v>
       </c>
       <c r="I109" s="49"/>
-      <c r="J109" s="49" t="s">
-        <v>560</v>
-      </c>
+      <c r="J109" s="49"/>
       <c r="K109" s="14" t="s">
         <v>195</v>
       </c>
       <c r="L109" s="14" t="s">
         <v>195</v>
-      </c>
-      <c r="M109" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="N109" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="O109" s="16" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A110" s="47" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B110" s="48" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C110" s="49" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="D110" s="49" t="s">
         <v>734</v>
@@ -9533,7 +9548,7 @@
       </c>
       <c r="I110" s="49"/>
       <c r="J110" s="49" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="K110" s="14" t="s">
         <v>195</v>
@@ -9548,18 +9563,18 @@
         <v>1</v>
       </c>
       <c r="O110" s="16" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A111" s="47" t="s">
-        <v>216</v>
+        <v>549</v>
       </c>
       <c r="B111" s="48" t="s">
-        <v>93</v>
+        <v>554</v>
       </c>
       <c r="C111" s="49" t="s">
-        <v>333</v>
+        <v>599</v>
       </c>
       <c r="D111" s="49" t="s">
         <v>734</v>
@@ -9568,17 +9583,17 @@
         <v>659</v>
       </c>
       <c r="F111" s="49" t="s">
-        <v>323</v>
+        <v>479</v>
       </c>
       <c r="G111" s="49" t="s">
-        <v>541</v>
+        <v>781</v>
       </c>
       <c r="H111" s="49" t="s">
         <v>817</v>
       </c>
       <c r="I111" s="49"/>
       <c r="J111" s="49" t="s">
-        <v>518</v>
+        <v>556</v>
       </c>
       <c r="K111" s="14" t="s">
         <v>195</v>
@@ -9593,18 +9608,18 @@
         <v>1</v>
       </c>
       <c r="O111" s="16" t="s">
-        <v>135</v>
+        <v>555</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A112" s="47" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B112" s="48" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C112" s="49" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="D112" s="49" t="s">
         <v>734</v>
@@ -9616,7 +9631,7 @@
         <v>323</v>
       </c>
       <c r="G112" s="49" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H112" s="49" t="s">
         <v>817</v>
@@ -9632,10 +9647,10 @@
         <v>195</v>
       </c>
       <c r="M112" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="N112" s="13" t="s">
-        <v>472</v>
+        <v>1</v>
+      </c>
+      <c r="N112" s="15" t="s">
+        <v>1</v>
       </c>
       <c r="O112" s="16" t="s">
         <v>135</v>
@@ -9643,13 +9658,13 @@
     </row>
     <row r="113" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A113" s="47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B113" s="48" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C113" s="49" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D113" s="49" t="s">
         <v>734</v>
@@ -9661,14 +9676,14 @@
         <v>323</v>
       </c>
       <c r="G113" s="49" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H113" s="49" t="s">
         <v>817</v>
       </c>
       <c r="I113" s="49"/>
       <c r="J113" s="49" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="K113" s="14" t="s">
         <v>195</v>
@@ -9677,24 +9692,24 @@
         <v>195</v>
       </c>
       <c r="M113" s="15" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="N113" s="13" t="s">
-        <v>1</v>
+        <v>472</v>
       </c>
       <c r="O113" s="16" t="s">
-        <v>490</v>
+        <v>135</v>
       </c>
     </row>
     <row r="114" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A114" s="47" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B114" s="48" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C114" s="49" t="s">
-        <v>589</v>
+        <v>349</v>
       </c>
       <c r="D114" s="49" t="s">
         <v>734</v>
@@ -9706,14 +9721,14 @@
         <v>323</v>
       </c>
       <c r="G114" s="49" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="H114" s="49" t="s">
         <v>817</v>
       </c>
       <c r="I114" s="49"/>
       <c r="J114" s="49" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="K114" s="14" t="s">
         <v>195</v>
@@ -9722,24 +9737,24 @@
         <v>195</v>
       </c>
       <c r="M114" s="15" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="N114" s="13" t="s">
         <v>1</v>
       </c>
       <c r="O114" s="16" t="s">
-        <v>210</v>
+        <v>490</v>
       </c>
     </row>
     <row r="115" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A115" s="47" t="s">
-        <v>284</v>
+        <v>230</v>
       </c>
       <c r="B115" s="48" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="C115" s="49" t="s">
-        <v>420</v>
+        <v>589</v>
       </c>
       <c r="D115" s="49" t="s">
         <v>734</v>
@@ -9751,14 +9766,14 @@
         <v>323</v>
       </c>
       <c r="G115" s="49" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="H115" s="49" t="s">
         <v>817</v>
       </c>
       <c r="I115" s="49"/>
       <c r="J115" s="49" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="K115" s="14" t="s">
         <v>195</v>
@@ -9767,24 +9782,24 @@
         <v>195</v>
       </c>
       <c r="M115" s="15" t="s">
-        <v>1</v>
+        <v>358</v>
       </c>
       <c r="N115" s="13" t="s">
-        <v>472</v>
+        <v>1</v>
       </c>
       <c r="O115" s="16" t="s">
-        <v>489</v>
+        <v>210</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A116" s="47" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="B116" s="48" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C116" s="49" t="s">
-        <v>590</v>
+        <v>420</v>
       </c>
       <c r="D116" s="49" t="s">
         <v>734</v>
@@ -9796,14 +9811,14 @@
         <v>323</v>
       </c>
       <c r="G116" s="49" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H116" s="49" t="s">
         <v>817</v>
       </c>
       <c r="I116" s="49"/>
       <c r="J116" s="49" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="K116" s="14" t="s">
         <v>195</v>
@@ -9812,24 +9827,24 @@
         <v>195</v>
       </c>
       <c r="M116" s="15" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="N116" s="13" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="O116" s="16" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="117" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A117" s="47" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="B117" s="48" t="s">
-        <v>196</v>
+        <v>150</v>
       </c>
       <c r="C117" s="49" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D117" s="49" t="s">
         <v>734</v>
@@ -9841,14 +9856,14 @@
         <v>323</v>
       </c>
       <c r="G117" s="49" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="H117" s="49" t="s">
         <v>817</v>
       </c>
       <c r="I117" s="49"/>
       <c r="J117" s="49" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K117" s="14" t="s">
         <v>195</v>
@@ -9857,24 +9872,24 @@
         <v>195</v>
       </c>
       <c r="M117" s="15" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="N117" s="13" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O117" s="16" t="s">
-        <v>110</v>
+        <v>490</v>
       </c>
     </row>
     <row r="118" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A118" s="47" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="B118" s="48" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C118" s="49" t="s">
-        <v>407</v>
+        <v>593</v>
       </c>
       <c r="D118" s="49" t="s">
         <v>734</v>
@@ -9886,14 +9901,14 @@
         <v>323</v>
       </c>
       <c r="G118" s="49" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="H118" s="49" t="s">
         <v>817</v>
       </c>
       <c r="I118" s="49"/>
       <c r="J118" s="49" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="K118" s="14" t="s">
         <v>195</v>
@@ -9902,24 +9917,24 @@
         <v>195</v>
       </c>
       <c r="M118" s="15" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="N118" s="13" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="O118" s="16" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
     </row>
     <row r="119" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A119" s="47" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B119" s="48" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="C119" s="49" t="s">
-        <v>591</v>
+        <v>407</v>
       </c>
       <c r="D119" s="49" t="s">
         <v>734</v>
@@ -9931,14 +9946,14 @@
         <v>323</v>
       </c>
       <c r="G119" s="49" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="H119" s="49" t="s">
         <v>817</v>
       </c>
       <c r="I119" s="49"/>
       <c r="J119" s="49" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="K119" s="14" t="s">
         <v>195</v>
@@ -9953,18 +9968,18 @@
         <v>471</v>
       </c>
       <c r="O119" s="16" t="s">
-        <v>210</v>
+        <v>135</v>
       </c>
     </row>
     <row r="120" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A120" s="47" t="s">
-        <v>263</v>
-      </c>
-      <c r="B120" s="49" t="s">
-        <v>166</v>
+        <v>251</v>
+      </c>
+      <c r="B120" s="48" t="s">
+        <v>142</v>
       </c>
       <c r="C120" s="49" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D120" s="49" t="s">
         <v>734</v>
@@ -9976,14 +9991,14 @@
         <v>323</v>
       </c>
       <c r="G120" s="49" t="s">
-        <v>643</v>
+        <v>546</v>
       </c>
       <c r="H120" s="49" t="s">
         <v>817</v>
       </c>
       <c r="I120" s="49"/>
       <c r="J120" s="49" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K120" s="14" t="s">
         <v>195</v>
@@ -9992,24 +10007,24 @@
         <v>195</v>
       </c>
       <c r="M120" s="15" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="N120" s="13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O120" s="16" t="s">
-        <v>164</v>
+        <v>210</v>
       </c>
     </row>
     <row r="121" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A121" s="47" t="s">
-        <v>644</v>
+        <v>263</v>
       </c>
       <c r="B121" s="49" t="s">
-        <v>645</v>
+        <v>166</v>
       </c>
       <c r="C121" s="49" t="s">
-        <v>646</v>
+        <v>592</v>
       </c>
       <c r="D121" s="49" t="s">
         <v>734</v>
@@ -10021,14 +10036,14 @@
         <v>323</v>
       </c>
       <c r="G121" s="49" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="H121" s="49" t="s">
         <v>817</v>
       </c>
       <c r="I121" s="49"/>
       <c r="J121" s="49" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="K121" s="14" t="s">
         <v>195</v>
@@ -10037,24 +10052,24 @@
         <v>195</v>
       </c>
       <c r="M121" s="15" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="N121" s="13" t="s">
-        <v>1</v>
+        <v>472</v>
       </c>
       <c r="O121" s="16" t="s">
-        <v>1</v>
+        <v>164</v>
       </c>
     </row>
     <row r="122" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A122" s="47" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="B122" s="49" t="s">
-        <v>625</v>
+        <v>645</v>
       </c>
       <c r="C122" s="49" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D122" s="49" t="s">
         <v>734</v>
@@ -10065,74 +10080,84 @@
       <c r="F122" s="49" t="s">
         <v>323</v>
       </c>
-      <c r="G122" s="49"/>
+      <c r="G122" s="49" t="s">
+        <v>647</v>
+      </c>
       <c r="H122" s="49" t="s">
         <v>817</v>
       </c>
       <c r="I122" s="49"/>
       <c r="J122" s="49" t="s">
+        <v>523</v>
+      </c>
+      <c r="K122" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="L122" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="M122" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N122" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O122" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A123" s="47" t="s">
+        <v>656</v>
+      </c>
+      <c r="B123" s="49" t="s">
+        <v>625</v>
+      </c>
+      <c r="C123" s="49" t="s">
+        <v>648</v>
+      </c>
+      <c r="D123" s="49" t="s">
+        <v>734</v>
+      </c>
+      <c r="E123" s="49" t="s">
+        <v>659</v>
+      </c>
+      <c r="F123" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="G123" s="49"/>
+      <c r="H123" s="49" t="s">
+        <v>817</v>
+      </c>
+      <c r="I123" s="49"/>
+      <c r="J123" s="49" t="s">
         <v>617</v>
       </c>
-      <c r="K122" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="L122" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="M122" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="N122" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="O122" s="16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A123" s="59" t="s">
-        <v>747</v>
-      </c>
-      <c r="B123" s="43" t="s">
-        <v>752</v>
-      </c>
-      <c r="C123" s="43" t="s">
-        <v>756</v>
-      </c>
-      <c r="D123" s="43" t="s">
-        <v>734</v>
-      </c>
-      <c r="E123" s="43" t="s">
-        <v>659</v>
-      </c>
-      <c r="F123" s="43" t="s">
-        <v>609</v>
-      </c>
-      <c r="G123" s="43" t="s">
-        <v>768</v>
-      </c>
-      <c r="H123" s="43" t="s">
-        <v>817</v>
-      </c>
-      <c r="I123" s="43"/>
-      <c r="J123" s="43"/>
       <c r="K123" s="14" t="s">
         <v>195</v>
       </c>
       <c r="L123" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M123" s="50"/>
+      <c r="M123" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N123" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O123" s="16" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="124" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A124" s="59" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B124" s="43" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C124" s="43" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D124" s="43" t="s">
         <v>734</v>
@@ -10157,16 +10182,17 @@
       <c r="L124" s="14" t="s">
         <v>195</v>
       </c>
+      <c r="M124" s="50"/>
     </row>
     <row r="125" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A125" s="59" t="s">
-        <v>233</v>
+        <v>750</v>
       </c>
       <c r="B125" s="43" t="s">
-        <v>114</v>
+        <v>754</v>
       </c>
       <c r="C125" s="43" t="s">
-        <v>364</v>
+        <v>757</v>
       </c>
       <c r="D125" s="43" t="s">
         <v>734</v>
@@ -10178,40 +10204,29 @@
         <v>609</v>
       </c>
       <c r="G125" s="43" t="s">
-        <v>364</v>
+        <v>768</v>
       </c>
       <c r="H125" s="43" t="s">
         <v>817</v>
       </c>
       <c r="I125" s="43"/>
-      <c r="J125" s="43" t="s">
-        <v>511</v>
-      </c>
+      <c r="J125" s="43"/>
       <c r="K125" s="14" t="s">
         <v>195</v>
       </c>
       <c r="L125" s="14" t="s">
         <v>195</v>
-      </c>
-      <c r="M125" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="N125" s="13" t="s">
-        <v>472</v>
-      </c>
-      <c r="O125" s="16" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="126" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A126" s="59" t="s">
-        <v>493</v>
+        <v>233</v>
       </c>
       <c r="B126" s="43" t="s">
-        <v>498</v>
+        <v>114</v>
       </c>
       <c r="C126" s="43" t="s">
-        <v>598</v>
+        <v>364</v>
       </c>
       <c r="D126" s="43" t="s">
         <v>734</v>
@@ -10222,13 +10237,15 @@
       <c r="F126" s="43" t="s">
         <v>609</v>
       </c>
-      <c r="G126" s="43"/>
+      <c r="G126" s="43" t="s">
+        <v>364</v>
+      </c>
       <c r="H126" s="43" t="s">
         <v>817</v>
       </c>
       <c r="I126" s="43"/>
       <c r="J126" s="43" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="K126" s="14" t="s">
         <v>195</v>
@@ -10237,24 +10254,24 @@
         <v>195</v>
       </c>
       <c r="M126" s="15" t="s">
-        <v>1</v>
+        <v>365</v>
       </c>
       <c r="N126" s="13" t="s">
-        <v>1</v>
+        <v>472</v>
       </c>
       <c r="O126" s="16" t="s">
-        <v>499</v>
+        <v>115</v>
       </c>
     </row>
     <row r="127" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A127" s="59" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B127" s="43" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C127" s="43" t="s">
-        <v>791</v>
+        <v>598</v>
       </c>
       <c r="D127" s="43" t="s">
         <v>734</v>
@@ -10271,7 +10288,7 @@
       </c>
       <c r="I127" s="43"/>
       <c r="J127" s="43" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="K127" s="14" t="s">
         <v>195</v>
@@ -10286,18 +10303,18 @@
         <v>1</v>
       </c>
       <c r="O127" s="16" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="128" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A128" s="59" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B128" s="43" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C128" s="43" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D128" s="43" t="s">
         <v>734</v>
@@ -10314,76 +10331,76 @@
       </c>
       <c r="I128" s="43"/>
       <c r="J128" s="43" t="s">
+        <v>512</v>
+      </c>
+      <c r="K128" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="L128" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="M128" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N128" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O128" s="16" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A129" s="59" t="s">
+        <v>492</v>
+      </c>
+      <c r="B129" s="43" t="s">
+        <v>495</v>
+      </c>
+      <c r="C129" s="43" t="s">
+        <v>790</v>
+      </c>
+      <c r="D129" s="43" t="s">
+        <v>734</v>
+      </c>
+      <c r="E129" s="43" t="s">
+        <v>659</v>
+      </c>
+      <c r="F129" s="43" t="s">
+        <v>609</v>
+      </c>
+      <c r="G129" s="43"/>
+      <c r="H129" s="43" t="s">
+        <v>817</v>
+      </c>
+      <c r="I129" s="43"/>
+      <c r="J129" s="43" t="s">
         <v>513</v>
       </c>
-      <c r="K128" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="L128" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="M128" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="N128" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="O128" s="16" t="s">
+      <c r="K129" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="L129" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="M129" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N129" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O129" s="16" t="s">
         <v>496</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A129" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="B129" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="C129" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="D129" s="24" t="s">
-        <v>734</v>
-      </c>
-      <c r="E129" s="24" t="s">
-        <v>745</v>
-      </c>
-      <c r="F129" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="G129" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="H129" s="24" t="s">
-        <v>817</v>
-      </c>
-      <c r="I129" s="24"/>
-      <c r="J129" s="24" t="s">
-        <v>613</v>
-      </c>
-      <c r="K129" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="L129" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="M129" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="N129" s="13"/>
-      <c r="O129" s="16" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A130" s="25" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="B130" s="26" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="C130" s="24" t="s">
-        <v>585</v>
+        <v>205</v>
       </c>
       <c r="D130" s="24" t="s">
         <v>734</v>
@@ -10394,13 +10411,15 @@
       <c r="F130" s="24" t="s">
         <v>366</v>
       </c>
-      <c r="G130" s="24"/>
+      <c r="G130" s="24" t="s">
+        <v>206</v>
+      </c>
       <c r="H130" s="24" t="s">
         <v>817</v>
       </c>
       <c r="I130" s="24"/>
       <c r="J130" s="24" t="s">
-        <v>518</v>
+        <v>613</v>
       </c>
       <c r="K130" s="14" t="s">
         <v>195</v>
@@ -10409,24 +10428,22 @@
         <v>195</v>
       </c>
       <c r="M130" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="N130" s="13" t="s">
-        <v>474</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="N130" s="13"/>
       <c r="O130" s="16" t="s">
-        <v>135</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A131" s="25" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B131" s="26" t="s">
-        <v>604</v>
+        <v>173</v>
       </c>
       <c r="C131" s="24" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D131" s="24" t="s">
         <v>734</v>
@@ -10443,7 +10460,7 @@
       </c>
       <c r="I131" s="24"/>
       <c r="J131" s="24" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K131" s="14" t="s">
         <v>195</v>
@@ -10451,25 +10468,25 @@
       <c r="L131" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M131" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="N131" s="58" t="s">
-        <v>471</v>
+      <c r="M131" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N131" s="13" t="s">
+        <v>474</v>
       </c>
       <c r="O131" s="16" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
     </row>
     <row r="132" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A132" s="25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B132" s="26" t="s">
-        <v>163</v>
+        <v>604</v>
       </c>
       <c r="C132" s="24" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D132" s="24" t="s">
         <v>734</v>
@@ -10486,7 +10503,7 @@
       </c>
       <c r="I132" s="24"/>
       <c r="J132" s="24" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K132" s="14" t="s">
         <v>195</v>
@@ -10495,24 +10512,24 @@
         <v>195</v>
       </c>
       <c r="M132" s="58" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="N132" s="58" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O132" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="133" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A133" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B133" s="26" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C133" s="24" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D133" s="24" t="s">
         <v>734</v>
@@ -10538,7 +10555,7 @@
         <v>195</v>
       </c>
       <c r="M133" s="58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N133" s="58" t="s">
         <v>472</v>
@@ -10549,13 +10566,13 @@
     </row>
     <row r="134" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A134" s="25" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B134" s="26" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="C134" s="24" t="s">
-        <v>32</v>
+        <v>588</v>
       </c>
       <c r="D134" s="24" t="s">
         <v>734</v>
@@ -10572,7 +10589,7 @@
       </c>
       <c r="I134" s="24"/>
       <c r="J134" s="24" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="K134" s="14" t="s">
         <v>195</v>
@@ -10581,24 +10598,24 @@
         <v>195</v>
       </c>
       <c r="M134" s="58" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="N134" s="58" t="s">
         <v>472</v>
       </c>
       <c r="O134" s="16" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="135" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A135" s="25" t="s">
-        <v>665</v>
+        <v>254</v>
       </c>
       <c r="B135" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="C135" s="26" t="s">
-        <v>661</v>
+      <c r="C135" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="D135" s="24" t="s">
         <v>734</v>
@@ -10606,16 +10623,16 @@
       <c r="E135" s="24" t="s">
         <v>745</v>
       </c>
-      <c r="F135" s="26" t="s">
+      <c r="F135" s="24" t="s">
         <v>366</v>
       </c>
-      <c r="G135" s="26"/>
-      <c r="H135" s="26" t="s">
-        <v>817</v>
-      </c>
-      <c r="I135" s="26"/>
-      <c r="J135" s="26" t="s">
-        <v>710</v>
+      <c r="G135" s="24"/>
+      <c r="H135" s="24" t="s">
+        <v>817</v>
+      </c>
+      <c r="I135" s="24"/>
+      <c r="J135" s="24" t="s">
+        <v>508</v>
       </c>
       <c r="K135" s="14" t="s">
         <v>195</v>
@@ -10624,21 +10641,24 @@
         <v>195</v>
       </c>
       <c r="M135" s="58" t="s">
-        <v>709</v>
+        <v>32</v>
       </c>
       <c r="N135" s="58" t="s">
-        <v>1</v>
+        <v>472</v>
+      </c>
+      <c r="O135" s="16" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="136" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A136" s="25" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B136" s="26" t="s">
-        <v>707</v>
+        <v>146</v>
       </c>
       <c r="C136" s="26" t="s">
-        <v>735</v>
+        <v>661</v>
       </c>
       <c r="D136" s="24" t="s">
         <v>734</v>
@@ -10655,7 +10675,7 @@
       </c>
       <c r="I136" s="26"/>
       <c r="J136" s="26" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K136" s="14" t="s">
         <v>195</v>
@@ -10664,7 +10684,7 @@
         <v>195</v>
       </c>
       <c r="M136" s="58" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="N136" s="58" t="s">
         <v>1</v>
@@ -10672,13 +10692,13 @@
     </row>
     <row r="137" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A137" s="25" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B137" s="26" t="s">
-        <v>694</v>
+        <v>707</v>
       </c>
       <c r="C137" s="26" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="D137" s="24" t="s">
         <v>734</v>
@@ -10695,7 +10715,7 @@
       </c>
       <c r="I137" s="26"/>
       <c r="J137" s="26" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K137" s="14" t="s">
         <v>195</v>
@@ -10704,7 +10724,7 @@
         <v>195</v>
       </c>
       <c r="M137" s="58" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="N137" s="58" t="s">
         <v>1</v>
@@ -10712,13 +10732,13 @@
     </row>
     <row r="138" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A138" s="25" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B138" s="26" t="s">
-        <v>714</v>
+        <v>694</v>
       </c>
       <c r="C138" s="26" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="D138" s="24" t="s">
         <v>734</v>
@@ -10735,7 +10755,7 @@
       </c>
       <c r="I138" s="26"/>
       <c r="J138" s="26" t="s">
-        <v>695</v>
+        <v>712</v>
       </c>
       <c r="K138" s="14" t="s">
         <v>195</v>
@@ -10744,22 +10764,21 @@
         <v>195</v>
       </c>
       <c r="M138" s="58" t="s">
-        <v>1</v>
+        <v>713</v>
       </c>
       <c r="N138" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="O138" s="16"/>
     </row>
     <row r="139" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A139" s="25" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B139" s="26" t="s">
-        <v>696</v>
+        <v>714</v>
       </c>
       <c r="C139" s="26" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D139" s="24" t="s">
         <v>734</v>
@@ -10776,7 +10795,7 @@
       </c>
       <c r="I139" s="26"/>
       <c r="J139" s="26" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="K139" s="14" t="s">
         <v>195</v>
@@ -10785,7 +10804,7 @@
         <v>195</v>
       </c>
       <c r="M139" s="58" t="s">
-        <v>715</v>
+        <v>1</v>
       </c>
       <c r="N139" s="58" t="s">
         <v>1</v>
@@ -10794,13 +10813,13 @@
     </row>
     <row r="140" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A140" s="25" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B140" s="26" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C140" s="26" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D140" s="24" t="s">
         <v>734</v>
@@ -10817,7 +10836,7 @@
       </c>
       <c r="I140" s="26"/>
       <c r="J140" s="26" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="K140" s="14" t="s">
         <v>195</v>
@@ -10826,7 +10845,7 @@
         <v>195</v>
       </c>
       <c r="M140" s="58" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="N140" s="58" t="s">
         <v>1</v>
@@ -10835,13 +10854,13 @@
     </row>
     <row r="141" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A141" s="25" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B141" s="26" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C141" s="26" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D141" s="24" t="s">
         <v>734</v>
@@ -10858,7 +10877,7 @@
       </c>
       <c r="I141" s="26"/>
       <c r="J141" s="26" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="K141" s="14" t="s">
         <v>195</v>
@@ -10867,7 +10886,7 @@
         <v>195</v>
       </c>
       <c r="M141" s="58" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="N141" s="58" t="s">
         <v>1</v>
@@ -10876,13 +10895,13 @@
     </row>
     <row r="142" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A142" s="25" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B142" s="26" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="C142" s="26" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D142" s="24" t="s">
         <v>734</v>
@@ -10899,7 +10918,7 @@
       </c>
       <c r="I142" s="26"/>
       <c r="J142" s="26" t="s">
-        <v>731</v>
+        <v>701</v>
       </c>
       <c r="K142" s="14" t="s">
         <v>195</v>
@@ -10908,7 +10927,7 @@
         <v>195</v>
       </c>
       <c r="M142" s="58" t="s">
-        <v>706</v>
+        <v>717</v>
       </c>
       <c r="N142" s="58" t="s">
         <v>1</v>
@@ -10917,13 +10936,13 @@
     </row>
     <row r="143" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A143" s="25" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B143" s="26" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C143" s="26" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D143" s="24" t="s">
         <v>734</v>
@@ -10932,7 +10951,7 @@
         <v>745</v>
       </c>
       <c r="F143" s="26" t="s">
-        <v>414</v>
+        <v>366</v>
       </c>
       <c r="G143" s="26"/>
       <c r="H143" s="26" t="s">
@@ -10940,7 +10959,7 @@
       </c>
       <c r="I143" s="26"/>
       <c r="J143" s="26" t="s">
-        <v>118</v>
+        <v>731</v>
       </c>
       <c r="K143" s="14" t="s">
         <v>195</v>
@@ -10949,24 +10968,22 @@
         <v>195</v>
       </c>
       <c r="M143" s="58" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="N143" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="O143" s="16" t="s">
-        <v>1</v>
-      </c>
+      <c r="O143" s="16"/>
     </row>
     <row r="144" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A144" s="25" t="s">
-        <v>252</v>
+        <v>673</v>
       </c>
       <c r="B144" s="26" t="s">
-        <v>143</v>
+        <v>703</v>
       </c>
       <c r="C144" s="26" t="s">
-        <v>597</v>
+        <v>742</v>
       </c>
       <c r="D144" s="24" t="s">
         <v>734</v>
@@ -10983,7 +11000,7 @@
       </c>
       <c r="I144" s="26"/>
       <c r="J144" s="26" t="s">
-        <v>519</v>
+        <v>118</v>
       </c>
       <c r="K144" s="14" t="s">
         <v>195</v>
@@ -10992,24 +11009,24 @@
         <v>195</v>
       </c>
       <c r="M144" s="58" t="s">
-        <v>30</v>
+        <v>704</v>
       </c>
       <c r="N144" s="58" t="s">
-        <v>472</v>
+        <v>1</v>
       </c>
       <c r="O144" s="16" t="s">
-        <v>162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A145" s="25" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="B145" s="26" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="C145" s="26" t="s">
-        <v>344</v>
+        <v>597</v>
       </c>
       <c r="D145" s="24" t="s">
         <v>734</v>
@@ -11026,7 +11043,7 @@
       </c>
       <c r="I145" s="26"/>
       <c r="J145" s="26" t="s">
-        <v>581</v>
+        <v>519</v>
       </c>
       <c r="K145" s="14" t="s">
         <v>195</v>
@@ -11035,24 +11052,24 @@
         <v>195</v>
       </c>
       <c r="M145" s="58" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="N145" s="58" t="s">
-        <v>1</v>
+        <v>472</v>
       </c>
       <c r="O145" s="16" t="s">
-        <v>1</v>
+        <v>162</v>
       </c>
     </row>
     <row r="146" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A146" s="25" t="s">
-        <v>285</v>
+        <v>219</v>
       </c>
       <c r="B146" s="26" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="C146" s="26" t="s">
-        <v>435</v>
+        <v>344</v>
       </c>
       <c r="D146" s="24" t="s">
         <v>734</v>
@@ -11078,24 +11095,24 @@
         <v>195</v>
       </c>
       <c r="M146" s="58" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="N146" s="58" t="s">
-        <v>472</v>
+        <v>1</v>
       </c>
       <c r="O146" s="16" t="s">
-        <v>118</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A147" s="25" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="B147" s="26" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C147" s="26" t="s">
-        <v>596</v>
+        <v>435</v>
       </c>
       <c r="D147" s="24" t="s">
         <v>734</v>
@@ -11112,7 +11129,7 @@
       </c>
       <c r="I147" s="26"/>
       <c r="J147" s="26" t="s">
-        <v>520</v>
+        <v>581</v>
       </c>
       <c r="K147" s="14" t="s">
         <v>195</v>
@@ -11121,24 +11138,24 @@
         <v>195</v>
       </c>
       <c r="M147" s="58" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="N147" s="58" t="s">
         <v>472</v>
       </c>
       <c r="O147" s="16" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
     </row>
     <row r="148" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A148" s="25" t="s">
-        <v>221</v>
+        <v>264</v>
       </c>
       <c r="B148" s="26" t="s">
-        <v>102</v>
+        <v>167</v>
       </c>
       <c r="C148" s="26" t="s">
-        <v>346</v>
+        <v>596</v>
       </c>
       <c r="D148" s="24" t="s">
         <v>734</v>
@@ -11155,7 +11172,7 @@
       </c>
       <c r="I148" s="26"/>
       <c r="J148" s="26" t="s">
-        <v>581</v>
+        <v>520</v>
       </c>
       <c r="K148" s="14" t="s">
         <v>195</v>
@@ -11164,24 +11181,24 @@
         <v>195</v>
       </c>
       <c r="M148" s="58" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="N148" s="58" t="s">
-        <v>1</v>
+        <v>472</v>
       </c>
       <c r="O148" s="16" t="s">
-        <v>1</v>
+        <v>164</v>
       </c>
     </row>
     <row r="149" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A149" s="25" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="B149" s="26" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="C149" s="26" t="s">
-        <v>595</v>
+        <v>346</v>
       </c>
       <c r="D149" s="24" t="s">
         <v>734</v>
@@ -11198,7 +11215,7 @@
       </c>
       <c r="I149" s="26"/>
       <c r="J149" s="26" t="s">
-        <v>521</v>
+        <v>581</v>
       </c>
       <c r="K149" s="14" t="s">
         <v>195</v>
@@ -11207,24 +11224,24 @@
         <v>195</v>
       </c>
       <c r="M149" s="58" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="N149" s="58" t="s">
-        <v>472</v>
+        <v>1</v>
       </c>
       <c r="O149" s="16" t="s">
-        <v>149</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A150" s="25" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B150" s="26" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C150" s="26" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D150" s="24" t="s">
         <v>734</v>
@@ -11241,7 +11258,7 @@
       </c>
       <c r="I150" s="26"/>
       <c r="J150" s="26" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K150" s="14" t="s">
         <v>195</v>
@@ -11250,24 +11267,24 @@
         <v>195</v>
       </c>
       <c r="M150" s="58" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N150" s="58" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="O150" s="16" t="s">
-        <v>813</v>
+        <v>149</v>
       </c>
     </row>
     <row r="151" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A151" s="25" t="s">
-        <v>672</v>
+        <v>259</v>
       </c>
       <c r="B151" s="26" t="s">
-        <v>702</v>
+        <v>160</v>
       </c>
       <c r="C151" s="26" t="s">
-        <v>741</v>
+        <v>594</v>
       </c>
       <c r="D151" s="24" t="s">
         <v>734</v>
@@ -11284,78 +11301,76 @@
       </c>
       <c r="I151" s="26"/>
       <c r="J151" s="26" t="s">
+        <v>522</v>
+      </c>
+      <c r="K151" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="L151" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="M151" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="N151" s="58" t="s">
+        <v>474</v>
+      </c>
+      <c r="O151" s="16" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A152" s="25" t="s">
+        <v>672</v>
+      </c>
+      <c r="B152" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="C152" s="26" t="s">
+        <v>741</v>
+      </c>
+      <c r="D152" s="24" t="s">
+        <v>734</v>
+      </c>
+      <c r="E152" s="24" t="s">
+        <v>745</v>
+      </c>
+      <c r="F152" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="G152" s="26"/>
+      <c r="H152" s="26" t="s">
+        <v>817</v>
+      </c>
+      <c r="I152" s="26"/>
+      <c r="J152" s="26" t="s">
         <v>730</v>
       </c>
-      <c r="K151" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="L151" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="M151" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="N151" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="O151" s="16" t="s">
+      <c r="K152" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="L152" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="M152" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="N152" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="O152" s="16" t="s">
         <v>730</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A152" s="44" t="s">
-        <v>801</v>
-      </c>
-      <c r="B152" s="45" t="s">
-        <v>567</v>
-      </c>
-      <c r="C152" s="45" t="s">
-        <v>801</v>
-      </c>
-      <c r="D152" s="45" t="s">
-        <v>662</v>
-      </c>
-      <c r="E152" s="45" t="s">
-        <v>659</v>
-      </c>
-      <c r="F152" s="45" t="s">
-        <v>662</v>
-      </c>
-      <c r="G152" s="45" t="s">
-        <v>662</v>
-      </c>
-      <c r="H152" s="45" t="s">
-        <v>817</v>
-      </c>
-      <c r="I152" s="45"/>
-      <c r="J152" s="45" t="s">
-        <v>515</v>
-      </c>
-      <c r="K152" s="14" t="s">
-        <v>638</v>
-      </c>
-      <c r="L152" s="14" t="s">
-        <v>621</v>
-      </c>
-      <c r="M152" s="58" t="s">
-        <v>655</v>
-      </c>
-      <c r="N152" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="O152" s="16" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="153" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A153" s="44" t="s">
-        <v>566</v>
+        <v>801</v>
       </c>
       <c r="B153" s="45" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C153" s="45" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="D153" s="45" t="s">
         <v>662</v>
@@ -11372,9 +11387,7 @@
       <c r="H153" s="45" t="s">
         <v>817</v>
       </c>
-      <c r="I153" s="45">
-        <v>1</v>
-      </c>
+      <c r="I153" s="45"/>
       <c r="J153" s="45" t="s">
         <v>515</v>
       </c>
@@ -11396,13 +11409,13 @@
     </row>
     <row r="154" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A154" s="44" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B154" s="45" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C154" s="45" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D154" s="45" t="s">
         <v>662</v>
@@ -11423,33 +11436,33 @@
         <v>1</v>
       </c>
       <c r="J154" s="45" t="s">
-        <v>573</v>
+        <v>515</v>
       </c>
       <c r="K154" s="14" t="s">
-        <v>195</v>
+        <v>638</v>
       </c>
       <c r="L154" s="14" t="s">
-        <v>195</v>
+        <v>621</v>
       </c>
       <c r="M154" s="58" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="N154" s="58" t="s">
         <v>1</v>
       </c>
       <c r="O154" s="16" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="155" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A155" s="44" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B155" s="45" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C155" s="45" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D155" s="45" t="s">
         <v>662</v>
@@ -11470,7 +11483,7 @@
         <v>1</v>
       </c>
       <c r="J155" s="45" t="s">
-        <v>401</v>
+        <v>573</v>
       </c>
       <c r="K155" s="14" t="s">
         <v>195</v>
@@ -11479,24 +11492,24 @@
         <v>195</v>
       </c>
       <c r="M155" s="58" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="N155" s="58" t="s">
         <v>1</v>
       </c>
       <c r="O155" s="16" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="156" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A156" s="44" t="s">
-        <v>650</v>
+        <v>563</v>
       </c>
       <c r="B156" s="45" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C156" s="45" t="s">
-        <v>802</v>
+        <v>812</v>
       </c>
       <c r="D156" s="45" t="s">
         <v>662</v>
@@ -11517,33 +11530,33 @@
         <v>1</v>
       </c>
       <c r="J156" s="45" t="s">
-        <v>516</v>
+        <v>401</v>
       </c>
       <c r="K156" s="14" t="s">
-        <v>638</v>
+        <v>195</v>
       </c>
       <c r="L156" s="14" t="s">
-        <v>621</v>
+        <v>195</v>
       </c>
       <c r="M156" s="58" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="N156" s="58" t="s">
         <v>1</v>
       </c>
       <c r="O156" s="16" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="157" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A157" s="44" t="s">
-        <v>565</v>
+        <v>650</v>
       </c>
       <c r="B157" s="45" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C157" s="45" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="D157" s="45" t="s">
         <v>662</v>
@@ -11564,33 +11577,33 @@
         <v>1</v>
       </c>
       <c r="J157" s="45" t="s">
-        <v>575</v>
+        <v>516</v>
       </c>
       <c r="K157" s="14" t="s">
-        <v>195</v>
+        <v>638</v>
       </c>
       <c r="L157" s="14" t="s">
-        <v>195</v>
+        <v>621</v>
       </c>
       <c r="M157" s="58" t="s">
-        <v>1</v>
+        <v>652</v>
       </c>
       <c r="N157" s="58" t="s">
         <v>1</v>
       </c>
       <c r="O157" s="16" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="158" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A158" s="44" t="s">
-        <v>629</v>
+        <v>565</v>
       </c>
       <c r="B158" s="45" t="s">
-        <v>628</v>
+        <v>570</v>
       </c>
       <c r="C158" s="45" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D158" s="45" t="s">
         <v>662</v>
@@ -11611,7 +11624,7 @@
         <v>1</v>
       </c>
       <c r="J158" s="45" t="s">
-        <v>664</v>
+        <v>575</v>
       </c>
       <c r="K158" s="14" t="s">
         <v>195</v>
@@ -11626,18 +11639,18 @@
         <v>1</v>
       </c>
       <c r="O158" s="16" t="s">
-        <v>1</v>
+        <v>574</v>
       </c>
     </row>
     <row r="159" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A159" s="44" t="s">
-        <v>651</v>
+        <v>629</v>
       </c>
       <c r="B159" s="45" t="s">
-        <v>567</v>
+        <v>628</v>
       </c>
       <c r="C159" s="45" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="D159" s="45" t="s">
         <v>662</v>
@@ -11655,36 +11668,36 @@
         <v>817</v>
       </c>
       <c r="I159" s="45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J159" s="45" t="s">
-        <v>516</v>
+        <v>664</v>
       </c>
       <c r="K159" s="14" t="s">
-        <v>638</v>
+        <v>195</v>
       </c>
       <c r="L159" s="14" t="s">
-        <v>621</v>
+        <v>195</v>
       </c>
       <c r="M159" s="58" t="s">
-        <v>652</v>
+        <v>1</v>
       </c>
       <c r="N159" s="58" t="s">
         <v>1</v>
       </c>
       <c r="O159" s="16" t="s">
-        <v>578</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A160" s="44" t="s">
-        <v>798</v>
+        <v>651</v>
       </c>
       <c r="B160" s="45" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C160" s="45" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D160" s="45" t="s">
         <v>662</v>
@@ -11705,31 +11718,33 @@
         <v>3</v>
       </c>
       <c r="J160" s="45" t="s">
-        <v>573</v>
+        <v>516</v>
       </c>
       <c r="K160" s="14" t="s">
-        <v>195</v>
+        <v>638</v>
       </c>
       <c r="L160" s="14" t="s">
-        <v>195</v>
+        <v>621</v>
       </c>
       <c r="M160" s="58" t="s">
-        <v>654</v>
-      </c>
-      <c r="N160" s="58"/>
+        <v>652</v>
+      </c>
+      <c r="N160" s="58" t="s">
+        <v>1</v>
+      </c>
       <c r="O160" s="16" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="161" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A161" s="44" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B161" s="45" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C161" s="45" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D161" s="45" t="s">
         <v>662</v>
@@ -11750,7 +11765,7 @@
         <v>3</v>
       </c>
       <c r="J161" s="45" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="K161" s="14" t="s">
         <v>195</v>
@@ -11759,22 +11774,22 @@
         <v>195</v>
       </c>
       <c r="M161" s="58" t="s">
-        <v>1</v>
+        <v>654</v>
       </c>
       <c r="N161" s="58"/>
       <c r="O161" s="16" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="162" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A162" s="44" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B162" s="45" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C162" s="45" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D162" s="45" t="s">
         <v>662</v>
@@ -11795,7 +11810,7 @@
         <v>3</v>
       </c>
       <c r="J162" s="45" t="s">
-        <v>401</v>
+        <v>575</v>
       </c>
       <c r="K162" s="14" t="s">
         <v>195</v>
@@ -11804,22 +11819,67 @@
         <v>195</v>
       </c>
       <c r="M162" s="58" t="s">
-        <v>653</v>
+        <v>1</v>
       </c>
       <c r="N162" s="58"/>
       <c r="O162" s="16" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A163" s="44" t="s">
+        <v>800</v>
+      </c>
+      <c r="B163" s="45" t="s">
+        <v>568</v>
+      </c>
+      <c r="C163" s="45" t="s">
+        <v>805</v>
+      </c>
+      <c r="D163" s="45" t="s">
+        <v>662</v>
+      </c>
+      <c r="E163" s="45" t="s">
+        <v>659</v>
+      </c>
+      <c r="F163" s="45" t="s">
+        <v>662</v>
+      </c>
+      <c r="G163" s="45" t="s">
+        <v>662</v>
+      </c>
+      <c r="H163" s="45" t="s">
+        <v>817</v>
+      </c>
+      <c r="I163" s="45">
+        <v>3</v>
+      </c>
+      <c r="J163" s="45" t="s">
+        <v>401</v>
+      </c>
+      <c r="K163" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="L163" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="M163" s="58" t="s">
+        <v>653</v>
+      </c>
+      <c r="N163" s="58"/>
+      <c r="O163" s="16" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A163" s="1"/>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A164" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O162">
-    <sortCondition ref="D2:D162"/>
-    <sortCondition ref="E2:E162"/>
-    <sortCondition ref="F2:F162"/>
-    <sortCondition ref="G2:G162"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O163">
+    <sortCondition ref="D2:D163"/>
+    <sortCondition ref="E2:E163"/>
+    <sortCondition ref="F2:F163"/>
+    <sortCondition ref="G2:G163"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="B60" r:id="rId1" display="https://it.wikipedia.org/wiki/Baiyangdian_virus" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D3B359-35FA-3548-8F64-FBF23F5F49BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC5E011-8256-8949-9A47-FA8E06BC5299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9920" yWindow="1540" windowWidth="23260" windowHeight="24280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4656,11 +4656,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O164"/>
+  <dimension ref="A1:O165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J65" sqref="J65"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E122" sqref="E122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10307,57 +10307,31 @@
       </c>
     </row>
     <row r="128" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A128" s="59" t="s">
-        <v>491</v>
-      </c>
-      <c r="B128" s="43" t="s">
-        <v>494</v>
-      </c>
-      <c r="C128" s="43" t="s">
-        <v>791</v>
-      </c>
-      <c r="D128" s="43" t="s">
-        <v>734</v>
-      </c>
-      <c r="E128" s="43" t="s">
-        <v>659</v>
-      </c>
-      <c r="F128" s="43" t="s">
-        <v>609</v>
-      </c>
+      <c r="A128" s="59"/>
+      <c r="B128" s="43"/>
+      <c r="C128" s="43"/>
+      <c r="D128" s="43"/>
+      <c r="E128" s="43"/>
+      <c r="F128" s="43"/>
       <c r="G128" s="43"/>
-      <c r="H128" s="43" t="s">
-        <v>817</v>
-      </c>
+      <c r="H128" s="43"/>
       <c r="I128" s="43"/>
-      <c r="J128" s="43" t="s">
-        <v>512</v>
-      </c>
-      <c r="K128" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="L128" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="M128" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="N128" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="O128" s="16" t="s">
-        <v>497</v>
-      </c>
+      <c r="J128" s="43"/>
+      <c r="K128" s="14"/>
+      <c r="L128" s="14"/>
+      <c r="M128" s="15"/>
+      <c r="N128" s="13"/>
+      <c r="O128" s="16"/>
     </row>
     <row r="129" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A129" s="59" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B129" s="43" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C129" s="43" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D129" s="43" t="s">
         <v>734</v>
@@ -10374,76 +10348,76 @@
       </c>
       <c r="I129" s="43"/>
       <c r="J129" s="43" t="s">
+        <v>512</v>
+      </c>
+      <c r="K129" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="L129" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="M129" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N129" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O129" s="16" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A130" s="59" t="s">
+        <v>492</v>
+      </c>
+      <c r="B130" s="43" t="s">
+        <v>495</v>
+      </c>
+      <c r="C130" s="43" t="s">
+        <v>790</v>
+      </c>
+      <c r="D130" s="43" t="s">
+        <v>734</v>
+      </c>
+      <c r="E130" s="43" t="s">
+        <v>659</v>
+      </c>
+      <c r="F130" s="43" t="s">
+        <v>609</v>
+      </c>
+      <c r="G130" s="43"/>
+      <c r="H130" s="43" t="s">
+        <v>817</v>
+      </c>
+      <c r="I130" s="43"/>
+      <c r="J130" s="43" t="s">
         <v>513</v>
       </c>
-      <c r="K129" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="L129" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="M129" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="N129" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="O129" s="16" t="s">
+      <c r="K130" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="L130" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="M130" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N130" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O130" s="16" t="s">
         <v>496</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A130" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="B130" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="C130" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="D130" s="24" t="s">
-        <v>734</v>
-      </c>
-      <c r="E130" s="24" t="s">
-        <v>745</v>
-      </c>
-      <c r="F130" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="G130" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="H130" s="24" t="s">
-        <v>817</v>
-      </c>
-      <c r="I130" s="24"/>
-      <c r="J130" s="24" t="s">
-        <v>613</v>
-      </c>
-      <c r="K130" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="L130" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="M130" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="N130" s="13"/>
-      <c r="O130" s="16" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A131" s="25" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="B131" s="26" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="C131" s="24" t="s">
-        <v>585</v>
+        <v>205</v>
       </c>
       <c r="D131" s="24" t="s">
         <v>734</v>
@@ -10454,13 +10428,15 @@
       <c r="F131" s="24" t="s">
         <v>366</v>
       </c>
-      <c r="G131" s="24"/>
+      <c r="G131" s="24" t="s">
+        <v>206</v>
+      </c>
       <c r="H131" s="24" t="s">
         <v>817</v>
       </c>
       <c r="I131" s="24"/>
       <c r="J131" s="24" t="s">
-        <v>518</v>
+        <v>613</v>
       </c>
       <c r="K131" s="14" t="s">
         <v>195</v>
@@ -10469,24 +10445,22 @@
         <v>195</v>
       </c>
       <c r="M131" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="N131" s="13" t="s">
-        <v>474</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="N131" s="13"/>
       <c r="O131" s="16" t="s">
-        <v>135</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A132" s="25" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B132" s="26" t="s">
-        <v>604</v>
+        <v>173</v>
       </c>
       <c r="C132" s="24" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D132" s="24" t="s">
         <v>734</v>
@@ -10503,7 +10477,7 @@
       </c>
       <c r="I132" s="24"/>
       <c r="J132" s="24" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K132" s="14" t="s">
         <v>195</v>
@@ -10511,25 +10485,25 @@
       <c r="L132" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M132" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="N132" s="58" t="s">
-        <v>471</v>
+      <c r="M132" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N132" s="13" t="s">
+        <v>474</v>
       </c>
       <c r="O132" s="16" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
     </row>
     <row r="133" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A133" s="25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B133" s="26" t="s">
-        <v>163</v>
+        <v>604</v>
       </c>
       <c r="C133" s="24" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D133" s="24" t="s">
         <v>734</v>
@@ -10546,7 +10520,7 @@
       </c>
       <c r="I133" s="24"/>
       <c r="J133" s="24" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K133" s="14" t="s">
         <v>195</v>
@@ -10555,24 +10529,24 @@
         <v>195</v>
       </c>
       <c r="M133" s="58" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="N133" s="58" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O133" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="134" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A134" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B134" s="26" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C134" s="24" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D134" s="24" t="s">
         <v>734</v>
@@ -10598,7 +10572,7 @@
         <v>195</v>
       </c>
       <c r="M134" s="58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N134" s="58" t="s">
         <v>472</v>
@@ -10609,13 +10583,13 @@
     </row>
     <row r="135" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A135" s="25" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B135" s="26" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="C135" s="24" t="s">
-        <v>32</v>
+        <v>588</v>
       </c>
       <c r="D135" s="24" t="s">
         <v>734</v>
@@ -10632,7 +10606,7 @@
       </c>
       <c r="I135" s="24"/>
       <c r="J135" s="24" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="K135" s="14" t="s">
         <v>195</v>
@@ -10641,24 +10615,24 @@
         <v>195</v>
       </c>
       <c r="M135" s="58" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="N135" s="58" t="s">
         <v>472</v>
       </c>
       <c r="O135" s="16" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="136" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A136" s="25" t="s">
-        <v>665</v>
+        <v>254</v>
       </c>
       <c r="B136" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="C136" s="26" t="s">
-        <v>661</v>
+      <c r="C136" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="D136" s="24" t="s">
         <v>734</v>
@@ -10666,16 +10640,16 @@
       <c r="E136" s="24" t="s">
         <v>745</v>
       </c>
-      <c r="F136" s="26" t="s">
+      <c r="F136" s="24" t="s">
         <v>366</v>
       </c>
-      <c r="G136" s="26"/>
-      <c r="H136" s="26" t="s">
-        <v>817</v>
-      </c>
-      <c r="I136" s="26"/>
-      <c r="J136" s="26" t="s">
-        <v>710</v>
+      <c r="G136" s="24"/>
+      <c r="H136" s="24" t="s">
+        <v>817</v>
+      </c>
+      <c r="I136" s="24"/>
+      <c r="J136" s="24" t="s">
+        <v>508</v>
       </c>
       <c r="K136" s="14" t="s">
         <v>195</v>
@@ -10684,21 +10658,24 @@
         <v>195</v>
       </c>
       <c r="M136" s="58" t="s">
-        <v>709</v>
+        <v>32</v>
       </c>
       <c r="N136" s="58" t="s">
-        <v>1</v>
+        <v>472</v>
+      </c>
+      <c r="O136" s="16" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="137" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A137" s="25" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B137" s="26" t="s">
-        <v>707</v>
+        <v>146</v>
       </c>
       <c r="C137" s="26" t="s">
-        <v>735</v>
+        <v>661</v>
       </c>
       <c r="D137" s="24" t="s">
         <v>734</v>
@@ -10715,7 +10692,7 @@
       </c>
       <c r="I137" s="26"/>
       <c r="J137" s="26" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K137" s="14" t="s">
         <v>195</v>
@@ -10724,7 +10701,7 @@
         <v>195</v>
       </c>
       <c r="M137" s="58" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="N137" s="58" t="s">
         <v>1</v>
@@ -10732,13 +10709,13 @@
     </row>
     <row r="138" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A138" s="25" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B138" s="26" t="s">
-        <v>694</v>
+        <v>707</v>
       </c>
       <c r="C138" s="26" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="D138" s="24" t="s">
         <v>734</v>
@@ -10755,7 +10732,7 @@
       </c>
       <c r="I138" s="26"/>
       <c r="J138" s="26" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K138" s="14" t="s">
         <v>195</v>
@@ -10764,7 +10741,7 @@
         <v>195</v>
       </c>
       <c r="M138" s="58" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="N138" s="58" t="s">
         <v>1</v>
@@ -10772,13 +10749,13 @@
     </row>
     <row r="139" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A139" s="25" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B139" s="26" t="s">
-        <v>714</v>
+        <v>694</v>
       </c>
       <c r="C139" s="26" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="D139" s="24" t="s">
         <v>734</v>
@@ -10795,7 +10772,7 @@
       </c>
       <c r="I139" s="26"/>
       <c r="J139" s="26" t="s">
-        <v>695</v>
+        <v>712</v>
       </c>
       <c r="K139" s="14" t="s">
         <v>195</v>
@@ -10804,22 +10781,21 @@
         <v>195</v>
       </c>
       <c r="M139" s="58" t="s">
-        <v>1</v>
+        <v>713</v>
       </c>
       <c r="N139" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="O139" s="16"/>
     </row>
     <row r="140" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A140" s="25" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B140" s="26" t="s">
-        <v>696</v>
+        <v>714</v>
       </c>
       <c r="C140" s="26" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D140" s="24" t="s">
         <v>734</v>
@@ -10836,7 +10812,7 @@
       </c>
       <c r="I140" s="26"/>
       <c r="J140" s="26" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="K140" s="14" t="s">
         <v>195</v>
@@ -10845,7 +10821,7 @@
         <v>195</v>
       </c>
       <c r="M140" s="58" t="s">
-        <v>715</v>
+        <v>1</v>
       </c>
       <c r="N140" s="58" t="s">
         <v>1</v>
@@ -10854,13 +10830,13 @@
     </row>
     <row r="141" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A141" s="25" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B141" s="26" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C141" s="26" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D141" s="24" t="s">
         <v>734</v>
@@ -10877,7 +10853,7 @@
       </c>
       <c r="I141" s="26"/>
       <c r="J141" s="26" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="K141" s="14" t="s">
         <v>195</v>
@@ -10886,7 +10862,7 @@
         <v>195</v>
       </c>
       <c r="M141" s="58" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="N141" s="58" t="s">
         <v>1</v>
@@ -10895,13 +10871,13 @@
     </row>
     <row r="142" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A142" s="25" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B142" s="26" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C142" s="26" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D142" s="24" t="s">
         <v>734</v>
@@ -10918,7 +10894,7 @@
       </c>
       <c r="I142" s="26"/>
       <c r="J142" s="26" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="K142" s="14" t="s">
         <v>195</v>
@@ -10927,7 +10903,7 @@
         <v>195</v>
       </c>
       <c r="M142" s="58" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="N142" s="58" t="s">
         <v>1</v>
@@ -10936,13 +10912,13 @@
     </row>
     <row r="143" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A143" s="25" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B143" s="26" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="C143" s="26" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D143" s="24" t="s">
         <v>734</v>
@@ -10959,7 +10935,7 @@
       </c>
       <c r="I143" s="26"/>
       <c r="J143" s="26" t="s">
-        <v>731</v>
+        <v>701</v>
       </c>
       <c r="K143" s="14" t="s">
         <v>195</v>
@@ -10968,7 +10944,7 @@
         <v>195</v>
       </c>
       <c r="M143" s="58" t="s">
-        <v>706</v>
+        <v>717</v>
       </c>
       <c r="N143" s="58" t="s">
         <v>1</v>
@@ -10977,13 +10953,13 @@
     </row>
     <row r="144" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A144" s="25" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B144" s="26" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C144" s="26" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D144" s="24" t="s">
         <v>734</v>
@@ -10992,7 +10968,7 @@
         <v>745</v>
       </c>
       <c r="F144" s="26" t="s">
-        <v>414</v>
+        <v>366</v>
       </c>
       <c r="G144" s="26"/>
       <c r="H144" s="26" t="s">
@@ -11000,7 +10976,7 @@
       </c>
       <c r="I144" s="26"/>
       <c r="J144" s="26" t="s">
-        <v>118</v>
+        <v>731</v>
       </c>
       <c r="K144" s="14" t="s">
         <v>195</v>
@@ -11009,24 +10985,22 @@
         <v>195</v>
       </c>
       <c r="M144" s="58" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="N144" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="O144" s="16" t="s">
-        <v>1</v>
-      </c>
+      <c r="O144" s="16"/>
     </row>
     <row r="145" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A145" s="25" t="s">
-        <v>252</v>
+        <v>673</v>
       </c>
       <c r="B145" s="26" t="s">
-        <v>143</v>
+        <v>703</v>
       </c>
       <c r="C145" s="26" t="s">
-        <v>597</v>
+        <v>742</v>
       </c>
       <c r="D145" s="24" t="s">
         <v>734</v>
@@ -11043,7 +11017,7 @@
       </c>
       <c r="I145" s="26"/>
       <c r="J145" s="26" t="s">
-        <v>519</v>
+        <v>118</v>
       </c>
       <c r="K145" s="14" t="s">
         <v>195</v>
@@ -11052,24 +11026,24 @@
         <v>195</v>
       </c>
       <c r="M145" s="58" t="s">
-        <v>30</v>
+        <v>704</v>
       </c>
       <c r="N145" s="58" t="s">
-        <v>472</v>
+        <v>1</v>
       </c>
       <c r="O145" s="16" t="s">
-        <v>162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A146" s="25" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="B146" s="26" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="C146" s="26" t="s">
-        <v>344</v>
+        <v>597</v>
       </c>
       <c r="D146" s="24" t="s">
         <v>734</v>
@@ -11086,7 +11060,7 @@
       </c>
       <c r="I146" s="26"/>
       <c r="J146" s="26" t="s">
-        <v>581</v>
+        <v>519</v>
       </c>
       <c r="K146" s="14" t="s">
         <v>195</v>
@@ -11095,24 +11069,24 @@
         <v>195</v>
       </c>
       <c r="M146" s="58" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="N146" s="58" t="s">
-        <v>1</v>
+        <v>472</v>
       </c>
       <c r="O146" s="16" t="s">
-        <v>1</v>
+        <v>162</v>
       </c>
     </row>
     <row r="147" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A147" s="25" t="s">
-        <v>285</v>
+        <v>219</v>
       </c>
       <c r="B147" s="26" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="C147" s="26" t="s">
-        <v>435</v>
+        <v>344</v>
       </c>
       <c r="D147" s="24" t="s">
         <v>734</v>
@@ -11138,24 +11112,24 @@
         <v>195</v>
       </c>
       <c r="M147" s="58" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="N147" s="58" t="s">
-        <v>472</v>
+        <v>1</v>
       </c>
       <c r="O147" s="16" t="s">
-        <v>118</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A148" s="25" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="B148" s="26" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C148" s="26" t="s">
-        <v>596</v>
+        <v>435</v>
       </c>
       <c r="D148" s="24" t="s">
         <v>734</v>
@@ -11172,7 +11146,7 @@
       </c>
       <c r="I148" s="26"/>
       <c r="J148" s="26" t="s">
-        <v>520</v>
+        <v>581</v>
       </c>
       <c r="K148" s="14" t="s">
         <v>195</v>
@@ -11181,24 +11155,24 @@
         <v>195</v>
       </c>
       <c r="M148" s="58" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="N148" s="58" t="s">
         <v>472</v>
       </c>
       <c r="O148" s="16" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
     </row>
     <row r="149" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A149" s="25" t="s">
-        <v>221</v>
+        <v>264</v>
       </c>
       <c r="B149" s="26" t="s">
-        <v>102</v>
+        <v>167</v>
       </c>
       <c r="C149" s="26" t="s">
-        <v>346</v>
+        <v>596</v>
       </c>
       <c r="D149" s="24" t="s">
         <v>734</v>
@@ -11215,7 +11189,7 @@
       </c>
       <c r="I149" s="26"/>
       <c r="J149" s="26" t="s">
-        <v>581</v>
+        <v>520</v>
       </c>
       <c r="K149" s="14" t="s">
         <v>195</v>
@@ -11224,24 +11198,24 @@
         <v>195</v>
       </c>
       <c r="M149" s="58" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="N149" s="58" t="s">
-        <v>1</v>
+        <v>472</v>
       </c>
       <c r="O149" s="16" t="s">
-        <v>1</v>
+        <v>164</v>
       </c>
     </row>
     <row r="150" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A150" s="25" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="B150" s="26" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="C150" s="26" t="s">
-        <v>595</v>
+        <v>346</v>
       </c>
       <c r="D150" s="24" t="s">
         <v>734</v>
@@ -11258,7 +11232,7 @@
       </c>
       <c r="I150" s="26"/>
       <c r="J150" s="26" t="s">
-        <v>521</v>
+        <v>581</v>
       </c>
       <c r="K150" s="14" t="s">
         <v>195</v>
@@ -11267,24 +11241,24 @@
         <v>195</v>
       </c>
       <c r="M150" s="58" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="N150" s="58" t="s">
-        <v>472</v>
+        <v>1</v>
       </c>
       <c r="O150" s="16" t="s">
-        <v>149</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A151" s="25" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B151" s="26" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C151" s="26" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D151" s="24" t="s">
         <v>734</v>
@@ -11301,7 +11275,7 @@
       </c>
       <c r="I151" s="26"/>
       <c r="J151" s="26" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K151" s="14" t="s">
         <v>195</v>
@@ -11310,24 +11284,24 @@
         <v>195</v>
       </c>
       <c r="M151" s="58" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N151" s="58" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="O151" s="16" t="s">
-        <v>813</v>
+        <v>149</v>
       </c>
     </row>
     <row r="152" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A152" s="25" t="s">
-        <v>672</v>
+        <v>259</v>
       </c>
       <c r="B152" s="26" t="s">
-        <v>702</v>
+        <v>160</v>
       </c>
       <c r="C152" s="26" t="s">
-        <v>741</v>
+        <v>594</v>
       </c>
       <c r="D152" s="24" t="s">
         <v>734</v>
@@ -11344,78 +11318,76 @@
       </c>
       <c r="I152" s="26"/>
       <c r="J152" s="26" t="s">
+        <v>522</v>
+      </c>
+      <c r="K152" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="L152" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="M152" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="N152" s="58" t="s">
+        <v>474</v>
+      </c>
+      <c r="O152" s="16" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A153" s="25" t="s">
+        <v>672</v>
+      </c>
+      <c r="B153" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="C153" s="26" t="s">
+        <v>741</v>
+      </c>
+      <c r="D153" s="24" t="s">
+        <v>734</v>
+      </c>
+      <c r="E153" s="24" t="s">
+        <v>745</v>
+      </c>
+      <c r="F153" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="G153" s="26"/>
+      <c r="H153" s="26" t="s">
+        <v>817</v>
+      </c>
+      <c r="I153" s="26"/>
+      <c r="J153" s="26" t="s">
         <v>730</v>
       </c>
-      <c r="K152" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="L152" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="M152" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="N152" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="O152" s="16" t="s">
+      <c r="K153" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="L153" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="M153" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="N153" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="O153" s="16" t="s">
         <v>730</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A153" s="44" t="s">
-        <v>801</v>
-      </c>
-      <c r="B153" s="45" t="s">
-        <v>567</v>
-      </c>
-      <c r="C153" s="45" t="s">
-        <v>801</v>
-      </c>
-      <c r="D153" s="45" t="s">
-        <v>662</v>
-      </c>
-      <c r="E153" s="45" t="s">
-        <v>659</v>
-      </c>
-      <c r="F153" s="45" t="s">
-        <v>662</v>
-      </c>
-      <c r="G153" s="45" t="s">
-        <v>662</v>
-      </c>
-      <c r="H153" s="45" t="s">
-        <v>817</v>
-      </c>
-      <c r="I153" s="45"/>
-      <c r="J153" s="45" t="s">
-        <v>515</v>
-      </c>
-      <c r="K153" s="14" t="s">
-        <v>638</v>
-      </c>
-      <c r="L153" s="14" t="s">
-        <v>621</v>
-      </c>
-      <c r="M153" s="58" t="s">
-        <v>655</v>
-      </c>
-      <c r="N153" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="O153" s="16" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="154" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A154" s="44" t="s">
-        <v>566</v>
+        <v>801</v>
       </c>
       <c r="B154" s="45" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C154" s="45" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="D154" s="45" t="s">
         <v>662</v>
@@ -11432,9 +11404,7 @@
       <c r="H154" s="45" t="s">
         <v>817</v>
       </c>
-      <c r="I154" s="45">
-        <v>1</v>
-      </c>
+      <c r="I154" s="45"/>
       <c r="J154" s="45" t="s">
         <v>515</v>
       </c>
@@ -11456,13 +11426,13 @@
     </row>
     <row r="155" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A155" s="44" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B155" s="45" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C155" s="45" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D155" s="45" t="s">
         <v>662</v>
@@ -11483,33 +11453,33 @@
         <v>1</v>
       </c>
       <c r="J155" s="45" t="s">
-        <v>573</v>
+        <v>515</v>
       </c>
       <c r="K155" s="14" t="s">
-        <v>195</v>
+        <v>638</v>
       </c>
       <c r="L155" s="14" t="s">
-        <v>195</v>
+        <v>621</v>
       </c>
       <c r="M155" s="58" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="N155" s="58" t="s">
         <v>1</v>
       </c>
       <c r="O155" s="16" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="156" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A156" s="44" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B156" s="45" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C156" s="45" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D156" s="45" t="s">
         <v>662</v>
@@ -11530,7 +11500,7 @@
         <v>1</v>
       </c>
       <c r="J156" s="45" t="s">
-        <v>401</v>
+        <v>573</v>
       </c>
       <c r="K156" s="14" t="s">
         <v>195</v>
@@ -11539,24 +11509,24 @@
         <v>195</v>
       </c>
       <c r="M156" s="58" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="N156" s="58" t="s">
         <v>1</v>
       </c>
       <c r="O156" s="16" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="157" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A157" s="44" t="s">
-        <v>650</v>
+        <v>563</v>
       </c>
       <c r="B157" s="45" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C157" s="45" t="s">
-        <v>802</v>
+        <v>812</v>
       </c>
       <c r="D157" s="45" t="s">
         <v>662</v>
@@ -11577,33 +11547,33 @@
         <v>1</v>
       </c>
       <c r="J157" s="45" t="s">
-        <v>516</v>
+        <v>401</v>
       </c>
       <c r="K157" s="14" t="s">
-        <v>638</v>
+        <v>195</v>
       </c>
       <c r="L157" s="14" t="s">
-        <v>621</v>
+        <v>195</v>
       </c>
       <c r="M157" s="58" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="N157" s="58" t="s">
         <v>1</v>
       </c>
       <c r="O157" s="16" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="158" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A158" s="44" t="s">
-        <v>565</v>
+        <v>650</v>
       </c>
       <c r="B158" s="45" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C158" s="45" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="D158" s="45" t="s">
         <v>662</v>
@@ -11624,33 +11594,33 @@
         <v>1</v>
       </c>
       <c r="J158" s="45" t="s">
-        <v>575</v>
+        <v>516</v>
       </c>
       <c r="K158" s="14" t="s">
-        <v>195</v>
+        <v>638</v>
       </c>
       <c r="L158" s="14" t="s">
-        <v>195</v>
+        <v>621</v>
       </c>
       <c r="M158" s="58" t="s">
-        <v>1</v>
+        <v>652</v>
       </c>
       <c r="N158" s="58" t="s">
         <v>1</v>
       </c>
       <c r="O158" s="16" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="159" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A159" s="44" t="s">
-        <v>629</v>
+        <v>565</v>
       </c>
       <c r="B159" s="45" t="s">
-        <v>628</v>
+        <v>570</v>
       </c>
       <c r="C159" s="45" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D159" s="45" t="s">
         <v>662</v>
@@ -11671,7 +11641,7 @@
         <v>1</v>
       </c>
       <c r="J159" s="45" t="s">
-        <v>664</v>
+        <v>575</v>
       </c>
       <c r="K159" s="14" t="s">
         <v>195</v>
@@ -11686,18 +11656,18 @@
         <v>1</v>
       </c>
       <c r="O159" s="16" t="s">
-        <v>1</v>
+        <v>574</v>
       </c>
     </row>
     <row r="160" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A160" s="44" t="s">
-        <v>651</v>
+        <v>629</v>
       </c>
       <c r="B160" s="45" t="s">
-        <v>567</v>
+        <v>628</v>
       </c>
       <c r="C160" s="45" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="D160" s="45" t="s">
         <v>662</v>
@@ -11715,36 +11685,36 @@
         <v>817</v>
       </c>
       <c r="I160" s="45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J160" s="45" t="s">
-        <v>516</v>
+        <v>664</v>
       </c>
       <c r="K160" s="14" t="s">
-        <v>638</v>
+        <v>195</v>
       </c>
       <c r="L160" s="14" t="s">
-        <v>621</v>
+        <v>195</v>
       </c>
       <c r="M160" s="58" t="s">
-        <v>652</v>
+        <v>1</v>
       </c>
       <c r="N160" s="58" t="s">
         <v>1</v>
       </c>
       <c r="O160" s="16" t="s">
-        <v>578</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A161" s="44" t="s">
-        <v>798</v>
+        <v>651</v>
       </c>
       <c r="B161" s="45" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C161" s="45" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D161" s="45" t="s">
         <v>662</v>
@@ -11765,31 +11735,33 @@
         <v>3</v>
       </c>
       <c r="J161" s="45" t="s">
-        <v>573</v>
+        <v>516</v>
       </c>
       <c r="K161" s="14" t="s">
-        <v>195</v>
+        <v>638</v>
       </c>
       <c r="L161" s="14" t="s">
-        <v>195</v>
+        <v>621</v>
       </c>
       <c r="M161" s="58" t="s">
-        <v>654</v>
-      </c>
-      <c r="N161" s="58"/>
+        <v>652</v>
+      </c>
+      <c r="N161" s="58" t="s">
+        <v>1</v>
+      </c>
       <c r="O161" s="16" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="162" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A162" s="44" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B162" s="45" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C162" s="45" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D162" s="45" t="s">
         <v>662</v>
@@ -11810,7 +11782,7 @@
         <v>3</v>
       </c>
       <c r="J162" s="45" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="K162" s="14" t="s">
         <v>195</v>
@@ -11819,22 +11791,22 @@
         <v>195</v>
       </c>
       <c r="M162" s="58" t="s">
-        <v>1</v>
+        <v>654</v>
       </c>
       <c r="N162" s="58"/>
       <c r="O162" s="16" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="163" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A163" s="44" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B163" s="45" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C163" s="45" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D163" s="45" t="s">
         <v>662</v>
@@ -11855,7 +11827,7 @@
         <v>3</v>
       </c>
       <c r="J163" s="45" t="s">
-        <v>401</v>
+        <v>575</v>
       </c>
       <c r="K163" s="14" t="s">
         <v>195</v>
@@ -11864,22 +11836,67 @@
         <v>195</v>
       </c>
       <c r="M163" s="58" t="s">
-        <v>653</v>
+        <v>1</v>
       </c>
       <c r="N163" s="58"/>
       <c r="O163" s="16" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A164" s="44" t="s">
+        <v>800</v>
+      </c>
+      <c r="B164" s="45" t="s">
+        <v>568</v>
+      </c>
+      <c r="C164" s="45" t="s">
+        <v>805</v>
+      </c>
+      <c r="D164" s="45" t="s">
+        <v>662</v>
+      </c>
+      <c r="E164" s="45" t="s">
+        <v>659</v>
+      </c>
+      <c r="F164" s="45" t="s">
+        <v>662</v>
+      </c>
+      <c r="G164" s="45" t="s">
+        <v>662</v>
+      </c>
+      <c r="H164" s="45" t="s">
+        <v>817</v>
+      </c>
+      <c r="I164" s="45">
+        <v>3</v>
+      </c>
+      <c r="J164" s="45" t="s">
+        <v>401</v>
+      </c>
+      <c r="K164" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="L164" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="M164" s="58" t="s">
+        <v>653</v>
+      </c>
+      <c r="N164" s="58"/>
+      <c r="O164" s="16" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A164" s="1"/>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A165" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O163">
-    <sortCondition ref="D2:D163"/>
-    <sortCondition ref="E2:E163"/>
-    <sortCondition ref="F2:F163"/>
-    <sortCondition ref="G2:G163"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O164">
+    <sortCondition ref="D2:D164"/>
+    <sortCondition ref="E2:E164"/>
+    <sortCondition ref="F2:F164"/>
+    <sortCondition ref="G2:G164"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="B60" r:id="rId1" display="https://it.wikipedia.org/wiki/Baiyangdian_virus" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/core/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC5E011-8256-8949-9A47-FA8E06BC5299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5505F332-3964-7949-8674-8B93C9CF48E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9920" yWindow="1540" windowWidth="23260" windowHeight="24280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17640" yWindow="520" windowWidth="23260" windowHeight="24280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flavi.txt" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2256" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2306" uniqueCount="843">
   <si>
     <t>AY632538</t>
   </si>
@@ -2510,6 +2510,63 @@
   </si>
   <si>
     <t>ZT17-1078</t>
+  </si>
+  <si>
+    <t>MT075326</t>
+  </si>
+  <si>
+    <t>Salmon flavivirus</t>
+  </si>
+  <si>
+    <t>SFV</t>
+  </si>
+  <si>
+    <t>Oncorhynchus tshawytscha</t>
+  </si>
+  <si>
+    <t>DnFV</t>
+  </si>
+  <si>
+    <t>Dianemobius nigrofasciatus flavivirus</t>
+  </si>
+  <si>
+    <t>Dianemobius nigrofasciatus</t>
+  </si>
+  <si>
+    <t>MW208755</t>
+  </si>
+  <si>
+    <t>Coleopteran flavi-related virus</t>
+  </si>
+  <si>
+    <t>ColFlaV</t>
+  </si>
+  <si>
+    <t>MW208759</t>
+  </si>
+  <si>
+    <t>Embiopteran flavi-related virus</t>
+  </si>
+  <si>
+    <t>EmbFlaV</t>
+  </si>
+  <si>
+    <t>Plectopteran flavi-related virus</t>
+  </si>
+  <si>
+    <t>MW208760</t>
+  </si>
+  <si>
+    <t>PleFlaV</t>
+  </si>
+  <si>
+    <t>Perla marginata</t>
+  </si>
+  <si>
+    <t>Antipaluria urichi</t>
+  </si>
+  <si>
+    <t>Pempsamacra sp.</t>
   </si>
 </sst>
 </file>
@@ -4656,11 +4713,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O165"/>
+  <dimension ref="A1:O169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E122" sqref="E122"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I131" sqref="I131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10307,31 +10364,51 @@
       </c>
     </row>
     <row r="128" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A128" s="59"/>
-      <c r="B128" s="43"/>
-      <c r="C128" s="43"/>
-      <c r="D128" s="43"/>
-      <c r="E128" s="43"/>
-      <c r="F128" s="43"/>
+      <c r="A128" s="59" t="s">
+        <v>824</v>
+      </c>
+      <c r="B128" s="43" t="s">
+        <v>825</v>
+      </c>
+      <c r="C128" s="43" t="s">
+        <v>826</v>
+      </c>
+      <c r="D128" s="43" t="s">
+        <v>734</v>
+      </c>
+      <c r="E128" s="43" t="s">
+        <v>659</v>
+      </c>
+      <c r="F128" s="43" t="s">
+        <v>609</v>
+      </c>
       <c r="G128" s="43"/>
-      <c r="H128" s="43"/>
+      <c r="H128" s="43" t="s">
+        <v>817</v>
+      </c>
       <c r="I128" s="43"/>
       <c r="J128" s="43"/>
-      <c r="K128" s="14"/>
-      <c r="L128" s="14"/>
+      <c r="K128" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="L128" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="M128" s="15"/>
       <c r="N128" s="13"/>
-      <c r="O128" s="16"/>
+      <c r="O128" s="16" t="s">
+        <v>827</v>
+      </c>
     </row>
     <row r="129" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A129" s="59" t="s">
-        <v>491</v>
+        <v>828</v>
       </c>
       <c r="B129" s="43" t="s">
-        <v>494</v>
+        <v>829</v>
       </c>
       <c r="C129" s="43" t="s">
-        <v>791</v>
+        <v>828</v>
       </c>
       <c r="D129" s="43" t="s">
         <v>734</v>
@@ -10347,34 +10424,28 @@
         <v>817</v>
       </c>
       <c r="I129" s="43"/>
-      <c r="J129" s="43" t="s">
-        <v>512</v>
-      </c>
+      <c r="J129" s="43"/>
       <c r="K129" s="14" t="s">
         <v>195</v>
       </c>
       <c r="L129" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M129" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="N129" s="13" t="s">
-        <v>1</v>
-      </c>
+      <c r="M129" s="15"/>
+      <c r="N129" s="13"/>
       <c r="O129" s="16" t="s">
-        <v>497</v>
+        <v>830</v>
       </c>
     </row>
     <row r="130" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A130" s="59" t="s">
-        <v>492</v>
+        <v>831</v>
       </c>
       <c r="B130" s="43" t="s">
-        <v>495</v>
+        <v>832</v>
       </c>
       <c r="C130" s="43" t="s">
-        <v>790</v>
+        <v>833</v>
       </c>
       <c r="D130" s="43" t="s">
         <v>734</v>
@@ -10390,180 +10461,162 @@
         <v>817</v>
       </c>
       <c r="I130" s="43"/>
-      <c r="J130" s="43" t="s">
-        <v>513</v>
-      </c>
+      <c r="J130" s="43"/>
       <c r="K130" s="14" t="s">
         <v>195</v>
       </c>
       <c r="L130" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M130" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="N130" s="13" t="s">
-        <v>1</v>
-      </c>
+      <c r="M130" s="15"/>
+      <c r="N130" s="13"/>
       <c r="O130" s="16" t="s">
-        <v>496</v>
+        <v>842</v>
       </c>
     </row>
     <row r="131" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A131" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="B131" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="C131" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="D131" s="24" t="s">
-        <v>734</v>
-      </c>
-      <c r="E131" s="24" t="s">
-        <v>745</v>
-      </c>
-      <c r="F131" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="G131" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="H131" s="24" t="s">
-        <v>817</v>
-      </c>
-      <c r="I131" s="24"/>
-      <c r="J131" s="24" t="s">
-        <v>613</v>
-      </c>
+      <c r="A131" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="B131" s="43" t="s">
+        <v>837</v>
+      </c>
+      <c r="C131" s="43" t="s">
+        <v>839</v>
+      </c>
+      <c r="D131" s="43" t="s">
+        <v>734</v>
+      </c>
+      <c r="E131" s="43" t="s">
+        <v>659</v>
+      </c>
+      <c r="F131" s="43" t="s">
+        <v>609</v>
+      </c>
+      <c r="G131" s="43"/>
+      <c r="H131" s="43" t="s">
+        <v>817</v>
+      </c>
+      <c r="I131" s="43"/>
+      <c r="J131" s="43"/>
       <c r="K131" s="14" t="s">
         <v>195</v>
       </c>
       <c r="L131" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M131" s="15" t="s">
-        <v>22</v>
-      </c>
+      <c r="M131" s="15"/>
       <c r="N131" s="13"/>
       <c r="O131" s="16" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A132" s="59" t="s">
+        <v>834</v>
+      </c>
+      <c r="B132" s="43" t="s">
+        <v>835</v>
+      </c>
+      <c r="C132" s="43" t="s">
+        <v>836</v>
+      </c>
+      <c r="D132" s="43" t="s">
+        <v>734</v>
+      </c>
+      <c r="E132" s="43" t="s">
+        <v>659</v>
+      </c>
+      <c r="F132" s="43" t="s">
+        <v>609</v>
+      </c>
+      <c r="G132" s="43"/>
+      <c r="H132" s="43" t="s">
+        <v>817</v>
+      </c>
+      <c r="I132" s="43"/>
+      <c r="J132" s="43"/>
+      <c r="K132" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="L132" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="M132" s="15"/>
+      <c r="N132" s="13"/>
+      <c r="O132" s="16" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A133" s="59" t="s">
+        <v>491</v>
+      </c>
+      <c r="B133" s="43" t="s">
+        <v>494</v>
+      </c>
+      <c r="C133" s="43" t="s">
+        <v>791</v>
+      </c>
+      <c r="D133" s="43" t="s">
+        <v>734</v>
+      </c>
+      <c r="E133" s="43" t="s">
+        <v>659</v>
+      </c>
+      <c r="F133" s="43" t="s">
+        <v>609</v>
+      </c>
+      <c r="G133" s="43"/>
+      <c r="H133" s="43" t="s">
+        <v>817</v>
+      </c>
+      <c r="I133" s="43"/>
+      <c r="J133" s="43" t="s">
+        <v>512</v>
+      </c>
+      <c r="K133" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="L133" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="M133" s="15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A132" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="B132" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="C132" s="24" t="s">
-        <v>585</v>
-      </c>
-      <c r="D132" s="24" t="s">
-        <v>734</v>
-      </c>
-      <c r="E132" s="24" t="s">
-        <v>745</v>
-      </c>
-      <c r="F132" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="G132" s="24"/>
-      <c r="H132" s="24" t="s">
-        <v>817</v>
-      </c>
-      <c r="I132" s="24"/>
-      <c r="J132" s="24" t="s">
-        <v>518</v>
-      </c>
-      <c r="K132" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="L132" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="M132" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="N132" s="13" t="s">
-        <v>474</v>
-      </c>
-      <c r="O132" s="16" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A133" s="25" t="s">
-        <v>260</v>
-      </c>
-      <c r="B133" s="26" t="s">
-        <v>604</v>
-      </c>
-      <c r="C133" s="24" t="s">
-        <v>586</v>
-      </c>
-      <c r="D133" s="24" t="s">
-        <v>734</v>
-      </c>
-      <c r="E133" s="24" t="s">
-        <v>745</v>
-      </c>
-      <c r="F133" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="G133" s="24"/>
-      <c r="H133" s="24" t="s">
-        <v>817</v>
-      </c>
-      <c r="I133" s="24"/>
-      <c r="J133" s="24" t="s">
-        <v>519</v>
-      </c>
-      <c r="K133" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="L133" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="M133" s="58" t="s">
+      <c r="N133" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="N133" s="58" t="s">
-        <v>471</v>
-      </c>
       <c r="O133" s="16" t="s">
-        <v>162</v>
+        <v>497</v>
       </c>
     </row>
     <row r="134" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A134" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="B134" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="C134" s="24" t="s">
-        <v>587</v>
-      </c>
-      <c r="D134" s="24" t="s">
-        <v>734</v>
-      </c>
-      <c r="E134" s="24" t="s">
-        <v>745</v>
-      </c>
-      <c r="F134" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="G134" s="24"/>
-      <c r="H134" s="24" t="s">
-        <v>817</v>
-      </c>
-      <c r="I134" s="24"/>
-      <c r="J134" s="24" t="s">
-        <v>520</v>
+      <c r="A134" s="59" t="s">
+        <v>492</v>
+      </c>
+      <c r="B134" s="43" t="s">
+        <v>495</v>
+      </c>
+      <c r="C134" s="43" t="s">
+        <v>790</v>
+      </c>
+      <c r="D134" s="43" t="s">
+        <v>734</v>
+      </c>
+      <c r="E134" s="43" t="s">
+        <v>659</v>
+      </c>
+      <c r="F134" s="43" t="s">
+        <v>609</v>
+      </c>
+      <c r="G134" s="43"/>
+      <c r="H134" s="43" t="s">
+        <v>817</v>
+      </c>
+      <c r="I134" s="43"/>
+      <c r="J134" s="43" t="s">
+        <v>513</v>
       </c>
       <c r="K134" s="14" t="s">
         <v>195</v>
@@ -10571,25 +10624,25 @@
       <c r="L134" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M134" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="N134" s="58" t="s">
-        <v>472</v>
+      <c r="M134" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N134" s="13" t="s">
+        <v>1</v>
       </c>
       <c r="O134" s="16" t="s">
-        <v>164</v>
+        <v>496</v>
       </c>
     </row>
     <row r="135" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A135" s="25" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="B135" s="26" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="C135" s="24" t="s">
-        <v>588</v>
+        <v>205</v>
       </c>
       <c r="D135" s="24" t="s">
         <v>734</v>
@@ -10600,13 +10653,15 @@
       <c r="F135" s="24" t="s">
         <v>366</v>
       </c>
-      <c r="G135" s="24"/>
+      <c r="G135" s="24" t="s">
+        <v>206</v>
+      </c>
       <c r="H135" s="24" t="s">
         <v>817</v>
       </c>
       <c r="I135" s="24"/>
       <c r="J135" s="24" t="s">
-        <v>520</v>
+        <v>613</v>
       </c>
       <c r="K135" s="14" t="s">
         <v>195</v>
@@ -10614,25 +10669,23 @@
       <c r="L135" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M135" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="N135" s="58" t="s">
-        <v>472</v>
-      </c>
+      <c r="M135" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N135" s="13"/>
       <c r="O135" s="16" t="s">
-        <v>164</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A136" s="25" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="B136" s="26" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="C136" s="24" t="s">
-        <v>32</v>
+        <v>585</v>
       </c>
       <c r="D136" s="24" t="s">
         <v>734</v>
@@ -10649,7 +10702,7 @@
       </c>
       <c r="I136" s="24"/>
       <c r="J136" s="24" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="K136" s="14" t="s">
         <v>195</v>
@@ -10657,25 +10710,25 @@
       <c r="L136" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="M136" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="N136" s="58" t="s">
-        <v>472</v>
+      <c r="M136" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N136" s="13" t="s">
+        <v>474</v>
       </c>
       <c r="O136" s="16" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A137" s="25" t="s">
-        <v>665</v>
+        <v>260</v>
       </c>
       <c r="B137" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="C137" s="26" t="s">
-        <v>661</v>
+        <v>604</v>
+      </c>
+      <c r="C137" s="24" t="s">
+        <v>586</v>
       </c>
       <c r="D137" s="24" t="s">
         <v>734</v>
@@ -10683,16 +10736,16 @@
       <c r="E137" s="24" t="s">
         <v>745</v>
       </c>
-      <c r="F137" s="26" t="s">
+      <c r="F137" s="24" t="s">
         <v>366</v>
       </c>
-      <c r="G137" s="26"/>
-      <c r="H137" s="26" t="s">
-        <v>817</v>
-      </c>
-      <c r="I137" s="26"/>
-      <c r="J137" s="26" t="s">
-        <v>710</v>
+      <c r="G137" s="24"/>
+      <c r="H137" s="24" t="s">
+        <v>817</v>
+      </c>
+      <c r="I137" s="24"/>
+      <c r="J137" s="24" t="s">
+        <v>519</v>
       </c>
       <c r="K137" s="14" t="s">
         <v>195</v>
@@ -10701,21 +10754,24 @@
         <v>195</v>
       </c>
       <c r="M137" s="58" t="s">
-        <v>709</v>
+        <v>1</v>
       </c>
       <c r="N137" s="58" t="s">
-        <v>1</v>
+        <v>471</v>
+      </c>
+      <c r="O137" s="16" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="138" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A138" s="25" t="s">
-        <v>666</v>
+        <v>261</v>
       </c>
       <c r="B138" s="26" t="s">
-        <v>707</v>
-      </c>
-      <c r="C138" s="26" t="s">
-        <v>735</v>
+        <v>163</v>
+      </c>
+      <c r="C138" s="24" t="s">
+        <v>587</v>
       </c>
       <c r="D138" s="24" t="s">
         <v>734</v>
@@ -10723,16 +10779,16 @@
       <c r="E138" s="24" t="s">
         <v>745</v>
       </c>
-      <c r="F138" s="26" t="s">
+      <c r="F138" s="24" t="s">
         <v>366</v>
       </c>
-      <c r="G138" s="26"/>
-      <c r="H138" s="26" t="s">
-        <v>817</v>
-      </c>
-      <c r="I138" s="26"/>
-      <c r="J138" s="26" t="s">
-        <v>711</v>
+      <c r="G138" s="24"/>
+      <c r="H138" s="24" t="s">
+        <v>817</v>
+      </c>
+      <c r="I138" s="24"/>
+      <c r="J138" s="24" t="s">
+        <v>520</v>
       </c>
       <c r="K138" s="14" t="s">
         <v>195</v>
@@ -10741,21 +10797,24 @@
         <v>195</v>
       </c>
       <c r="M138" s="58" t="s">
-        <v>708</v>
+        <v>43</v>
       </c>
       <c r="N138" s="58" t="s">
-        <v>1</v>
+        <v>472</v>
+      </c>
+      <c r="O138" s="16" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="139" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A139" s="25" t="s">
-        <v>667</v>
+        <v>262</v>
       </c>
       <c r="B139" s="26" t="s">
-        <v>694</v>
-      </c>
-      <c r="C139" s="26" t="s">
-        <v>743</v>
+        <v>165</v>
+      </c>
+      <c r="C139" s="24" t="s">
+        <v>588</v>
       </c>
       <c r="D139" s="24" t="s">
         <v>734</v>
@@ -10763,16 +10822,16 @@
       <c r="E139" s="24" t="s">
         <v>745</v>
       </c>
-      <c r="F139" s="26" t="s">
+      <c r="F139" s="24" t="s">
         <v>366</v>
       </c>
-      <c r="G139" s="26"/>
-      <c r="H139" s="26" t="s">
-        <v>817</v>
-      </c>
-      <c r="I139" s="26"/>
-      <c r="J139" s="26" t="s">
-        <v>712</v>
+      <c r="G139" s="24"/>
+      <c r="H139" s="24" t="s">
+        <v>817</v>
+      </c>
+      <c r="I139" s="24"/>
+      <c r="J139" s="24" t="s">
+        <v>520</v>
       </c>
       <c r="K139" s="14" t="s">
         <v>195</v>
@@ -10781,21 +10840,24 @@
         <v>195</v>
       </c>
       <c r="M139" s="58" t="s">
-        <v>713</v>
+        <v>44</v>
       </c>
       <c r="N139" s="58" t="s">
-        <v>1</v>
+        <v>472</v>
+      </c>
+      <c r="O139" s="16" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="140" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A140" s="25" t="s">
-        <v>668</v>
+        <v>254</v>
       </c>
       <c r="B140" s="26" t="s">
-        <v>714</v>
-      </c>
-      <c r="C140" s="26" t="s">
-        <v>736</v>
+        <v>146</v>
+      </c>
+      <c r="C140" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="D140" s="24" t="s">
         <v>734</v>
@@ -10803,16 +10865,16 @@
       <c r="E140" s="24" t="s">
         <v>745</v>
       </c>
-      <c r="F140" s="26" t="s">
+      <c r="F140" s="24" t="s">
         <v>366</v>
       </c>
-      <c r="G140" s="26"/>
-      <c r="H140" s="26" t="s">
-        <v>817</v>
-      </c>
-      <c r="I140" s="26"/>
-      <c r="J140" s="26" t="s">
-        <v>695</v>
+      <c r="G140" s="24"/>
+      <c r="H140" s="24" t="s">
+        <v>817</v>
+      </c>
+      <c r="I140" s="24"/>
+      <c r="J140" s="24" t="s">
+        <v>508</v>
       </c>
       <c r="K140" s="14" t="s">
         <v>195</v>
@@ -10821,22 +10883,24 @@
         <v>195</v>
       </c>
       <c r="M140" s="58" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="N140" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="O140" s="16"/>
+        <v>472</v>
+      </c>
+      <c r="O140" s="16" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="141" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A141" s="25" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B141" s="26" t="s">
-        <v>696</v>
+        <v>146</v>
       </c>
       <c r="C141" s="26" t="s">
-        <v>737</v>
+        <v>661</v>
       </c>
       <c r="D141" s="24" t="s">
         <v>734</v>
@@ -10853,7 +10917,7 @@
       </c>
       <c r="I141" s="26"/>
       <c r="J141" s="26" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="K141" s="14" t="s">
         <v>195</v>
@@ -10862,22 +10926,21 @@
         <v>195</v>
       </c>
       <c r="M141" s="58" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="N141" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="O141" s="16"/>
     </row>
     <row r="142" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A142" s="25" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B142" s="26" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="C142" s="26" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D142" s="24" t="s">
         <v>734</v>
@@ -10894,7 +10957,7 @@
       </c>
       <c r="I142" s="26"/>
       <c r="J142" s="26" t="s">
-        <v>699</v>
+        <v>711</v>
       </c>
       <c r="K142" s="14" t="s">
         <v>195</v>
@@ -10903,22 +10966,21 @@
         <v>195</v>
       </c>
       <c r="M142" s="58" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="N142" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="O142" s="16"/>
     </row>
     <row r="143" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A143" s="25" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B143" s="26" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="C143" s="26" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="D143" s="24" t="s">
         <v>734</v>
@@ -10935,7 +10997,7 @@
       </c>
       <c r="I143" s="26"/>
       <c r="J143" s="26" t="s">
-        <v>701</v>
+        <v>712</v>
       </c>
       <c r="K143" s="14" t="s">
         <v>195</v>
@@ -10944,22 +11006,21 @@
         <v>195</v>
       </c>
       <c r="M143" s="58" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="N143" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="O143" s="16"/>
     </row>
     <row r="144" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A144" s="25" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="B144" s="26" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="C144" s="26" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="D144" s="24" t="s">
         <v>734</v>
@@ -10976,7 +11037,7 @@
       </c>
       <c r="I144" s="26"/>
       <c r="J144" s="26" t="s">
-        <v>731</v>
+        <v>695</v>
       </c>
       <c r="K144" s="14" t="s">
         <v>195</v>
@@ -10985,7 +11046,7 @@
         <v>195</v>
       </c>
       <c r="M144" s="58" t="s">
-        <v>706</v>
+        <v>1</v>
       </c>
       <c r="N144" s="58" t="s">
         <v>1</v>
@@ -10994,13 +11055,13 @@
     </row>
     <row r="145" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A145" s="25" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B145" s="26" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="C145" s="26" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="D145" s="24" t="s">
         <v>734</v>
@@ -11009,7 +11070,7 @@
         <v>745</v>
       </c>
       <c r="F145" s="26" t="s">
-        <v>414</v>
+        <v>366</v>
       </c>
       <c r="G145" s="26"/>
       <c r="H145" s="26" t="s">
@@ -11017,7 +11078,7 @@
       </c>
       <c r="I145" s="26"/>
       <c r="J145" s="26" t="s">
-        <v>118</v>
+        <v>697</v>
       </c>
       <c r="K145" s="14" t="s">
         <v>195</v>
@@ -11026,24 +11087,22 @@
         <v>195</v>
       </c>
       <c r="M145" s="58" t="s">
-        <v>704</v>
+        <v>715</v>
       </c>
       <c r="N145" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="O145" s="16" t="s">
-        <v>1</v>
-      </c>
+      <c r="O145" s="16"/>
     </row>
     <row r="146" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A146" s="25" t="s">
-        <v>252</v>
+        <v>670</v>
       </c>
       <c r="B146" s="26" t="s">
-        <v>143</v>
+        <v>698</v>
       </c>
       <c r="C146" s="26" t="s">
-        <v>597</v>
+        <v>738</v>
       </c>
       <c r="D146" s="24" t="s">
         <v>734</v>
@@ -11052,7 +11111,7 @@
         <v>745</v>
       </c>
       <c r="F146" s="26" t="s">
-        <v>414</v>
+        <v>366</v>
       </c>
       <c r="G146" s="26"/>
       <c r="H146" s="26" t="s">
@@ -11060,7 +11119,7 @@
       </c>
       <c r="I146" s="26"/>
       <c r="J146" s="26" t="s">
-        <v>519</v>
+        <v>699</v>
       </c>
       <c r="K146" s="14" t="s">
         <v>195</v>
@@ -11069,24 +11128,22 @@
         <v>195</v>
       </c>
       <c r="M146" s="58" t="s">
-        <v>30</v>
+        <v>716</v>
       </c>
       <c r="N146" s="58" t="s">
-        <v>472</v>
-      </c>
-      <c r="O146" s="16" t="s">
-        <v>162</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="O146" s="16"/>
     </row>
     <row r="147" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A147" s="25" t="s">
-        <v>219</v>
+        <v>671</v>
       </c>
       <c r="B147" s="26" t="s">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="C147" s="26" t="s">
-        <v>344</v>
+        <v>739</v>
       </c>
       <c r="D147" s="24" t="s">
         <v>734</v>
@@ -11095,7 +11152,7 @@
         <v>745</v>
       </c>
       <c r="F147" s="26" t="s">
-        <v>414</v>
+        <v>366</v>
       </c>
       <c r="G147" s="26"/>
       <c r="H147" s="26" t="s">
@@ -11103,7 +11160,7 @@
       </c>
       <c r="I147" s="26"/>
       <c r="J147" s="26" t="s">
-        <v>581</v>
+        <v>701</v>
       </c>
       <c r="K147" s="14" t="s">
         <v>195</v>
@@ -11112,24 +11169,22 @@
         <v>195</v>
       </c>
       <c r="M147" s="58" t="s">
-        <v>1</v>
+        <v>717</v>
       </c>
       <c r="N147" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="O147" s="16" t="s">
-        <v>1</v>
-      </c>
+      <c r="O147" s="16"/>
     </row>
     <row r="148" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A148" s="25" t="s">
-        <v>285</v>
+        <v>674</v>
       </c>
       <c r="B148" s="26" t="s">
-        <v>178</v>
+        <v>705</v>
       </c>
       <c r="C148" s="26" t="s">
-        <v>435</v>
+        <v>740</v>
       </c>
       <c r="D148" s="24" t="s">
         <v>734</v>
@@ -11138,7 +11193,7 @@
         <v>745</v>
       </c>
       <c r="F148" s="26" t="s">
-        <v>414</v>
+        <v>366</v>
       </c>
       <c r="G148" s="26"/>
       <c r="H148" s="26" t="s">
@@ -11146,7 +11201,7 @@
       </c>
       <c r="I148" s="26"/>
       <c r="J148" s="26" t="s">
-        <v>581</v>
+        <v>731</v>
       </c>
       <c r="K148" s="14" t="s">
         <v>195</v>
@@ -11155,24 +11210,22 @@
         <v>195</v>
       </c>
       <c r="M148" s="58" t="s">
-        <v>51</v>
+        <v>706</v>
       </c>
       <c r="N148" s="58" t="s">
-        <v>472</v>
-      </c>
-      <c r="O148" s="16" t="s">
-        <v>118</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="O148" s="16"/>
     </row>
     <row r="149" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A149" s="25" t="s">
-        <v>264</v>
+        <v>673</v>
       </c>
       <c r="B149" s="26" t="s">
-        <v>167</v>
+        <v>703</v>
       </c>
       <c r="C149" s="26" t="s">
-        <v>596</v>
+        <v>742</v>
       </c>
       <c r="D149" s="24" t="s">
         <v>734</v>
@@ -11189,7 +11242,7 @@
       </c>
       <c r="I149" s="26"/>
       <c r="J149" s="26" t="s">
-        <v>520</v>
+        <v>118</v>
       </c>
       <c r="K149" s="14" t="s">
         <v>195</v>
@@ -11198,24 +11251,24 @@
         <v>195</v>
       </c>
       <c r="M149" s="58" t="s">
-        <v>46</v>
+        <v>704</v>
       </c>
       <c r="N149" s="58" t="s">
-        <v>472</v>
+        <v>1</v>
       </c>
       <c r="O149" s="16" t="s">
-        <v>164</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A150" s="25" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="B150" s="26" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="C150" s="26" t="s">
-        <v>346</v>
+        <v>597</v>
       </c>
       <c r="D150" s="24" t="s">
         <v>734</v>
@@ -11232,7 +11285,7 @@
       </c>
       <c r="I150" s="26"/>
       <c r="J150" s="26" t="s">
-        <v>581</v>
+        <v>519</v>
       </c>
       <c r="K150" s="14" t="s">
         <v>195</v>
@@ -11241,24 +11294,24 @@
         <v>195</v>
       </c>
       <c r="M150" s="58" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="N150" s="58" t="s">
-        <v>1</v>
+        <v>472</v>
       </c>
       <c r="O150" s="16" t="s">
-        <v>1</v>
+        <v>162</v>
       </c>
     </row>
     <row r="151" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A151" s="25" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="B151" s="26" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="C151" s="26" t="s">
-        <v>595</v>
+        <v>344</v>
       </c>
       <c r="D151" s="24" t="s">
         <v>734</v>
@@ -11275,7 +11328,7 @@
       </c>
       <c r="I151" s="26"/>
       <c r="J151" s="26" t="s">
-        <v>521</v>
+        <v>581</v>
       </c>
       <c r="K151" s="14" t="s">
         <v>195</v>
@@ -11284,24 +11337,24 @@
         <v>195</v>
       </c>
       <c r="M151" s="58" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="N151" s="58" t="s">
-        <v>472</v>
+        <v>1</v>
       </c>
       <c r="O151" s="16" t="s">
-        <v>149</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A152" s="25" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="B152" s="26" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="C152" s="26" t="s">
-        <v>594</v>
+        <v>435</v>
       </c>
       <c r="D152" s="24" t="s">
         <v>734</v>
@@ -11318,7 +11371,7 @@
       </c>
       <c r="I152" s="26"/>
       <c r="J152" s="26" t="s">
-        <v>522</v>
+        <v>581</v>
       </c>
       <c r="K152" s="14" t="s">
         <v>195</v>
@@ -11327,24 +11380,24 @@
         <v>195</v>
       </c>
       <c r="M152" s="58" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="N152" s="58" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="O152" s="16" t="s">
-        <v>813</v>
+        <v>118</v>
       </c>
     </row>
     <row r="153" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A153" s="25" t="s">
-        <v>672</v>
+        <v>264</v>
       </c>
       <c r="B153" s="26" t="s">
-        <v>702</v>
+        <v>167</v>
       </c>
       <c r="C153" s="26" t="s">
-        <v>741</v>
+        <v>596</v>
       </c>
       <c r="D153" s="24" t="s">
         <v>734</v>
@@ -11361,7 +11414,7 @@
       </c>
       <c r="I153" s="26"/>
       <c r="J153" s="26" t="s">
-        <v>730</v>
+        <v>520</v>
       </c>
       <c r="K153" s="14" t="s">
         <v>195</v>
@@ -11370,210 +11423,196 @@
         <v>195</v>
       </c>
       <c r="M153" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="N153" s="58" t="s">
+        <v>472</v>
+      </c>
+      <c r="O153" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A154" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="B154" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C154" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="D154" s="24" t="s">
+        <v>734</v>
+      </c>
+      <c r="E154" s="24" t="s">
+        <v>745</v>
+      </c>
+      <c r="F154" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="G154" s="26"/>
+      <c r="H154" s="26" t="s">
+        <v>817</v>
+      </c>
+      <c r="I154" s="26"/>
+      <c r="J154" s="26" t="s">
+        <v>581</v>
+      </c>
+      <c r="K154" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="L154" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="M154" s="58" t="s">
         <v>1</v>
-      </c>
-      <c r="N153" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="O153" s="16" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A154" s="44" t="s">
-        <v>801</v>
-      </c>
-      <c r="B154" s="45" t="s">
-        <v>567</v>
-      </c>
-      <c r="C154" s="45" t="s">
-        <v>801</v>
-      </c>
-      <c r="D154" s="45" t="s">
-        <v>662</v>
-      </c>
-      <c r="E154" s="45" t="s">
-        <v>659</v>
-      </c>
-      <c r="F154" s="45" t="s">
-        <v>662</v>
-      </c>
-      <c r="G154" s="45" t="s">
-        <v>662</v>
-      </c>
-      <c r="H154" s="45" t="s">
-        <v>817</v>
-      </c>
-      <c r="I154" s="45"/>
-      <c r="J154" s="45" t="s">
-        <v>515</v>
-      </c>
-      <c r="K154" s="14" t="s">
-        <v>638</v>
-      </c>
-      <c r="L154" s="14" t="s">
-        <v>621</v>
-      </c>
-      <c r="M154" s="58" t="s">
-        <v>655</v>
       </c>
       <c r="N154" s="58" t="s">
         <v>1</v>
       </c>
       <c r="O154" s="16" t="s">
-        <v>578</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A155" s="44" t="s">
-        <v>566</v>
-      </c>
-      <c r="B155" s="45" t="s">
-        <v>571</v>
-      </c>
-      <c r="C155" s="45" t="s">
-        <v>811</v>
-      </c>
-      <c r="D155" s="45" t="s">
-        <v>662</v>
-      </c>
-      <c r="E155" s="45" t="s">
-        <v>659</v>
-      </c>
-      <c r="F155" s="45" t="s">
-        <v>662</v>
-      </c>
-      <c r="G155" s="45" t="s">
-        <v>662</v>
-      </c>
-      <c r="H155" s="45" t="s">
-        <v>817</v>
-      </c>
-      <c r="I155" s="45">
+      <c r="A155" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="B155" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C155" s="26" t="s">
+        <v>595</v>
+      </c>
+      <c r="D155" s="24" t="s">
+        <v>734</v>
+      </c>
+      <c r="E155" s="24" t="s">
+        <v>745</v>
+      </c>
+      <c r="F155" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="G155" s="26"/>
+      <c r="H155" s="26" t="s">
+        <v>817</v>
+      </c>
+      <c r="I155" s="26"/>
+      <c r="J155" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="K155" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="L155" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="M155" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="N155" s="58" t="s">
+        <v>472</v>
+      </c>
+      <c r="O155" s="16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A156" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="B156" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="C156" s="26" t="s">
+        <v>594</v>
+      </c>
+      <c r="D156" s="24" t="s">
+        <v>734</v>
+      </c>
+      <c r="E156" s="24" t="s">
+        <v>745</v>
+      </c>
+      <c r="F156" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="G156" s="26"/>
+      <c r="H156" s="26" t="s">
+        <v>817</v>
+      </c>
+      <c r="I156" s="26"/>
+      <c r="J156" s="26" t="s">
+        <v>522</v>
+      </c>
+      <c r="K156" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="L156" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="M156" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="N156" s="58" t="s">
+        <v>474</v>
+      </c>
+      <c r="O156" s="16" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A157" s="25" t="s">
+        <v>672</v>
+      </c>
+      <c r="B157" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="C157" s="26" t="s">
+        <v>741</v>
+      </c>
+      <c r="D157" s="24" t="s">
+        <v>734</v>
+      </c>
+      <c r="E157" s="24" t="s">
+        <v>745</v>
+      </c>
+      <c r="F157" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="G157" s="26"/>
+      <c r="H157" s="26" t="s">
+        <v>817</v>
+      </c>
+      <c r="I157" s="26"/>
+      <c r="J157" s="26" t="s">
+        <v>730</v>
+      </c>
+      <c r="K157" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="L157" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="M157" s="58" t="s">
         <v>1</v>
-      </c>
-      <c r="J155" s="45" t="s">
-        <v>515</v>
-      </c>
-      <c r="K155" s="14" t="s">
-        <v>638</v>
-      </c>
-      <c r="L155" s="14" t="s">
-        <v>621</v>
-      </c>
-      <c r="M155" s="58" t="s">
-        <v>655</v>
-      </c>
-      <c r="N155" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="O155" s="16" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A156" s="44" t="s">
-        <v>564</v>
-      </c>
-      <c r="B156" s="45" t="s">
-        <v>569</v>
-      </c>
-      <c r="C156" s="45" t="s">
-        <v>810</v>
-      </c>
-      <c r="D156" s="45" t="s">
-        <v>662</v>
-      </c>
-      <c r="E156" s="45" t="s">
-        <v>659</v>
-      </c>
-      <c r="F156" s="45" t="s">
-        <v>662</v>
-      </c>
-      <c r="G156" s="45" t="s">
-        <v>662</v>
-      </c>
-      <c r="H156" s="45" t="s">
-        <v>817</v>
-      </c>
-      <c r="I156" s="45">
-        <v>1</v>
-      </c>
-      <c r="J156" s="45" t="s">
-        <v>573</v>
-      </c>
-      <c r="K156" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="L156" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="M156" s="58" t="s">
-        <v>654</v>
-      </c>
-      <c r="N156" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="O156" s="16" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A157" s="44" t="s">
-        <v>563</v>
-      </c>
-      <c r="B157" s="45" t="s">
-        <v>568</v>
-      </c>
-      <c r="C157" s="45" t="s">
-        <v>812</v>
-      </c>
-      <c r="D157" s="45" t="s">
-        <v>662</v>
-      </c>
-      <c r="E157" s="45" t="s">
-        <v>659</v>
-      </c>
-      <c r="F157" s="45" t="s">
-        <v>662</v>
-      </c>
-      <c r="G157" s="45" t="s">
-        <v>662</v>
-      </c>
-      <c r="H157" s="45" t="s">
-        <v>817</v>
-      </c>
-      <c r="I157" s="45">
-        <v>1</v>
-      </c>
-      <c r="J157" s="45" t="s">
-        <v>401</v>
-      </c>
-      <c r="K157" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="L157" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="M157" s="58" t="s">
-        <v>653</v>
       </c>
       <c r="N157" s="58" t="s">
         <v>1</v>
       </c>
       <c r="O157" s="16" t="s">
-        <v>572</v>
+        <v>730</v>
       </c>
     </row>
     <row r="158" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A158" s="44" t="s">
-        <v>650</v>
+        <v>801</v>
       </c>
       <c r="B158" s="45" t="s">
         <v>567</v>
       </c>
       <c r="C158" s="45" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D158" s="45" t="s">
         <v>662</v>
@@ -11590,11 +11629,9 @@
       <c r="H158" s="45" t="s">
         <v>817</v>
       </c>
-      <c r="I158" s="45">
-        <v>1</v>
-      </c>
+      <c r="I158" s="45"/>
       <c r="J158" s="45" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K158" s="14" t="s">
         <v>638</v>
@@ -11603,24 +11640,24 @@
         <v>621</v>
       </c>
       <c r="M158" s="58" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="N158" s="58" t="s">
         <v>1</v>
       </c>
       <c r="O158" s="16" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="159" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A159" s="44" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B159" s="45" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C159" s="45" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="D159" s="45" t="s">
         <v>662</v>
@@ -11641,33 +11678,33 @@
         <v>1</v>
       </c>
       <c r="J159" s="45" t="s">
-        <v>575</v>
+        <v>515</v>
       </c>
       <c r="K159" s="14" t="s">
-        <v>195</v>
+        <v>638</v>
       </c>
       <c r="L159" s="14" t="s">
-        <v>195</v>
+        <v>621</v>
       </c>
       <c r="M159" s="58" t="s">
-        <v>1</v>
+        <v>655</v>
       </c>
       <c r="N159" s="58" t="s">
         <v>1</v>
       </c>
       <c r="O159" s="16" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="160" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A160" s="44" t="s">
-        <v>629</v>
+        <v>564</v>
       </c>
       <c r="B160" s="45" t="s">
-        <v>628</v>
+        <v>569</v>
       </c>
       <c r="C160" s="45" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="D160" s="45" t="s">
         <v>662</v>
@@ -11688,7 +11725,7 @@
         <v>1</v>
       </c>
       <c r="J160" s="45" t="s">
-        <v>664</v>
+        <v>573</v>
       </c>
       <c r="K160" s="14" t="s">
         <v>195</v>
@@ -11697,24 +11734,24 @@
         <v>195</v>
       </c>
       <c r="M160" s="58" t="s">
-        <v>1</v>
+        <v>654</v>
       </c>
       <c r="N160" s="58" t="s">
         <v>1</v>
       </c>
       <c r="O160" s="16" t="s">
-        <v>1</v>
+        <v>577</v>
       </c>
     </row>
     <row r="161" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A161" s="44" t="s">
-        <v>651</v>
+        <v>563</v>
       </c>
       <c r="B161" s="45" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C161" s="45" t="s">
-        <v>803</v>
+        <v>812</v>
       </c>
       <c r="D161" s="45" t="s">
         <v>662</v>
@@ -11732,36 +11769,36 @@
         <v>817</v>
       </c>
       <c r="I161" s="45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J161" s="45" t="s">
-        <v>516</v>
+        <v>401</v>
       </c>
       <c r="K161" s="14" t="s">
-        <v>638</v>
+        <v>195</v>
       </c>
       <c r="L161" s="14" t="s">
-        <v>621</v>
+        <v>195</v>
       </c>
       <c r="M161" s="58" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="N161" s="58" t="s">
         <v>1</v>
       </c>
       <c r="O161" s="16" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
     </row>
     <row r="162" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A162" s="44" t="s">
-        <v>798</v>
+        <v>650</v>
       </c>
       <c r="B162" s="45" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C162" s="45" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D162" s="45" t="s">
         <v>662</v>
@@ -11779,34 +11816,36 @@
         <v>817</v>
       </c>
       <c r="I162" s="45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J162" s="45" t="s">
-        <v>573</v>
+        <v>516</v>
       </c>
       <c r="K162" s="14" t="s">
-        <v>195</v>
+        <v>638</v>
       </c>
       <c r="L162" s="14" t="s">
-        <v>195</v>
+        <v>621</v>
       </c>
       <c r="M162" s="58" t="s">
-        <v>654</v>
-      </c>
-      <c r="N162" s="58"/>
+        <v>652</v>
+      </c>
+      <c r="N162" s="58" t="s">
+        <v>1</v>
+      </c>
       <c r="O162" s="16" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="163" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A163" s="44" t="s">
-        <v>799</v>
+        <v>565</v>
       </c>
       <c r="B163" s="45" t="s">
         <v>570</v>
       </c>
       <c r="C163" s="45" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="D163" s="45" t="s">
         <v>662</v>
@@ -11824,7 +11863,7 @@
         <v>817</v>
       </c>
       <c r="I163" s="45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J163" s="45" t="s">
         <v>575</v>
@@ -11838,20 +11877,22 @@
       <c r="M163" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="N163" s="58"/>
+      <c r="N163" s="58" t="s">
+        <v>1</v>
+      </c>
       <c r="O163" s="16" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="164" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A164" s="44" t="s">
-        <v>800</v>
+        <v>629</v>
       </c>
       <c r="B164" s="45" t="s">
-        <v>568</v>
+        <v>628</v>
       </c>
       <c r="C164" s="45" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="D164" s="45" t="s">
         <v>662</v>
@@ -11869,34 +11910,218 @@
         <v>817</v>
       </c>
       <c r="I164" s="45">
+        <v>1</v>
+      </c>
+      <c r="J164" s="45" t="s">
+        <v>664</v>
+      </c>
+      <c r="K164" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="L164" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="M164" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="N164" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="O164" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A165" s="44" t="s">
+        <v>651</v>
+      </c>
+      <c r="B165" s="45" t="s">
+        <v>567</v>
+      </c>
+      <c r="C165" s="45" t="s">
+        <v>803</v>
+      </c>
+      <c r="D165" s="45" t="s">
+        <v>662</v>
+      </c>
+      <c r="E165" s="45" t="s">
+        <v>659</v>
+      </c>
+      <c r="F165" s="45" t="s">
+        <v>662</v>
+      </c>
+      <c r="G165" s="45" t="s">
+        <v>662</v>
+      </c>
+      <c r="H165" s="45" t="s">
+        <v>817</v>
+      </c>
+      <c r="I165" s="45">
         <v>3</v>
       </c>
-      <c r="J164" s="45" t="s">
+      <c r="J165" s="45" t="s">
+        <v>516</v>
+      </c>
+      <c r="K165" s="14" t="s">
+        <v>638</v>
+      </c>
+      <c r="L165" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="M165" s="58" t="s">
+        <v>652</v>
+      </c>
+      <c r="N165" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="O165" s="16" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A166" s="44" t="s">
+        <v>798</v>
+      </c>
+      <c r="B166" s="45" t="s">
+        <v>569</v>
+      </c>
+      <c r="C166" s="45" t="s">
+        <v>804</v>
+      </c>
+      <c r="D166" s="45" t="s">
+        <v>662</v>
+      </c>
+      <c r="E166" s="45" t="s">
+        <v>659</v>
+      </c>
+      <c r="F166" s="45" t="s">
+        <v>662</v>
+      </c>
+      <c r="G166" s="45" t="s">
+        <v>662</v>
+      </c>
+      <c r="H166" s="45" t="s">
+        <v>817</v>
+      </c>
+      <c r="I166" s="45">
+        <v>3</v>
+      </c>
+      <c r="J166" s="45" t="s">
+        <v>573</v>
+      </c>
+      <c r="K166" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="L166" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="M166" s="58" t="s">
+        <v>654</v>
+      </c>
+      <c r="N166" s="58"/>
+      <c r="O166" s="16" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A167" s="44" t="s">
+        <v>799</v>
+      </c>
+      <c r="B167" s="45" t="s">
+        <v>570</v>
+      </c>
+      <c r="C167" s="45" t="s">
+        <v>806</v>
+      </c>
+      <c r="D167" s="45" t="s">
+        <v>662</v>
+      </c>
+      <c r="E167" s="45" t="s">
+        <v>659</v>
+      </c>
+      <c r="F167" s="45" t="s">
+        <v>662</v>
+      </c>
+      <c r="G167" s="45" t="s">
+        <v>662</v>
+      </c>
+      <c r="H167" s="45" t="s">
+        <v>817</v>
+      </c>
+      <c r="I167" s="45">
+        <v>3</v>
+      </c>
+      <c r="J167" s="45" t="s">
+        <v>575</v>
+      </c>
+      <c r="K167" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="L167" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="M167" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="N167" s="58"/>
+      <c r="O167" s="16" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A168" s="44" t="s">
+        <v>800</v>
+      </c>
+      <c r="B168" s="45" t="s">
+        <v>568</v>
+      </c>
+      <c r="C168" s="45" t="s">
+        <v>805</v>
+      </c>
+      <c r="D168" s="45" t="s">
+        <v>662</v>
+      </c>
+      <c r="E168" s="45" t="s">
+        <v>659</v>
+      </c>
+      <c r="F168" s="45" t="s">
+        <v>662</v>
+      </c>
+      <c r="G168" s="45" t="s">
+        <v>662</v>
+      </c>
+      <c r="H168" s="45" t="s">
+        <v>817</v>
+      </c>
+      <c r="I168" s="45">
+        <v>3</v>
+      </c>
+      <c r="J168" s="45" t="s">
         <v>401</v>
       </c>
-      <c r="K164" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="L164" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="M164" s="58" t="s">
+      <c r="K168" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="L168" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="M168" s="58" t="s">
         <v>653</v>
       </c>
-      <c r="N164" s="58"/>
-      <c r="O164" s="16" t="s">
+      <c r="N168" s="58"/>
+      <c r="O168" s="16" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A165" s="1"/>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A169" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O164">
-    <sortCondition ref="D2:D164"/>
-    <sortCondition ref="E2:E164"/>
-    <sortCondition ref="F2:F164"/>
-    <sortCondition ref="G2:G164"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O168">
+    <sortCondition ref="D2:D168"/>
+    <sortCondition ref="E2:E168"/>
+    <sortCondition ref="F2:F168"/>
+    <sortCondition ref="G2:G168"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="B60" r:id="rId1" display="https://it.wikipedia.org/wiki/Baiyangdian_virus" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5505F332-3964-7949-8674-8B93C9CF48E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D7069A-52F4-0E45-839E-07ECCC51F05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17640" yWindow="520" windowWidth="23260" windowHeight="24280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23120" yWindow="940" windowWidth="23260" windowHeight="24280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flavi.txt" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2306" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2306" uniqueCount="842">
   <si>
     <t>AY632538</t>
   </si>
@@ -1475,9 +1475,6 @@
   </si>
   <si>
     <t>NC_020252</t>
-  </si>
-  <si>
-    <t>Pesti-like</t>
   </si>
   <si>
     <t>Soybean cyst nematode virus</t>
@@ -4715,9 +4712,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I131" sqref="I131"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E144" sqref="A1:O168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4748,81 +4745,81 @@
         <v>62</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>64</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J1" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>610</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>580</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>611</v>
-      </c>
       <c r="M1" s="52" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N1" s="53" t="s">
         <v>470</v>
       </c>
       <c r="O1" s="53" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="57" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B2" s="56" t="s">
+        <v>782</v>
+      </c>
+      <c r="C2" s="56" t="s">
         <v>783</v>
       </c>
-      <c r="C2" s="56" t="s">
-        <v>784</v>
-      </c>
       <c r="D2" s="56" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E2" s="56" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F2" s="56" t="s">
         <v>189</v>
       </c>
       <c r="G2" s="56" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H2" s="56" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I2" s="56"/>
       <c r="J2" s="56" t="s">
+        <v>785</v>
+      </c>
+      <c r="K2" s="56" t="s">
         <v>786</v>
       </c>
-      <c r="K2" s="56" t="s">
-        <v>787</v>
-      </c>
       <c r="L2" s="56" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
       <c r="O2" s="16" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4836,10 +4833,10 @@
         <v>408</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>189</v>
@@ -4848,11 +4845,11 @@
         <v>466</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K3" s="14" t="s">
         <v>195</v>
@@ -4881,10 +4878,10 @@
         <v>340</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>189</v>
@@ -4893,11 +4890,11 @@
         <v>466</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K4" s="14" t="s">
         <v>195</v>
@@ -4926,10 +4923,10 @@
         <v>382</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>189</v>
@@ -4938,7 +4935,7 @@
         <v>466</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12" t="s">
@@ -4971,10 +4968,10 @@
         <v>312</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>189</v>
@@ -4983,7 +4980,7 @@
         <v>466</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="12" t="s">
@@ -5016,10 +5013,10 @@
         <v>314</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>189</v>
@@ -5028,11 +5025,11 @@
         <v>466</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K7" s="14" t="s">
         <v>195</v>
@@ -5061,10 +5058,10 @@
         <v>207</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>189</v>
@@ -5073,11 +5070,11 @@
         <v>466</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>195</v>
@@ -5106,10 +5103,10 @@
         <v>434</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>189</v>
@@ -5118,7 +5115,7 @@
         <v>466</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="12" t="s">
@@ -5148,13 +5145,13 @@
         <v>144</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>189</v>
@@ -5163,7 +5160,7 @@
         <v>466</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12" t="s">
@@ -5187,7 +5184,7 @@
     </row>
     <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>74</v>
@@ -5196,10 +5193,10 @@
         <v>309</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>189</v>
@@ -5208,11 +5205,11 @@
         <v>466</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K11" s="14" t="s">
         <v>195</v>
@@ -5241,10 +5238,10 @@
         <v>421</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>189</v>
@@ -5253,7 +5250,7 @@
         <v>466</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="12" t="s">
@@ -5286,10 +5283,10 @@
         <v>317</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>189</v>
@@ -5298,11 +5295,11 @@
         <v>466</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K13" s="14" t="s">
         <v>195</v>
@@ -5331,10 +5328,10 @@
         <v>432</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>189</v>
@@ -5343,11 +5340,11 @@
         <v>466</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K14" s="14" t="s">
         <v>195</v>
@@ -5376,10 +5373,10 @@
         <v>403</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>189</v>
@@ -5388,7 +5385,7 @@
         <v>466</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="12" t="s">
@@ -5412,19 +5409,19 @@
     </row>
     <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>631</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>632</v>
-      </c>
       <c r="C16" s="12" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>189</v>
@@ -5433,11 +5430,11 @@
         <v>466</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K16" s="14" t="s">
         <v>195</v>
@@ -5457,35 +5454,35 @@
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="54" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E17" s="55" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F17" s="55" t="s">
         <v>189</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H17" s="55" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I17" s="55"/>
       <c r="J17" s="55" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="K17" s="55" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="L17" s="55"/>
       <c r="M17" s="15" t="s">
@@ -5495,40 +5492,40 @@
         <v>1</v>
       </c>
       <c r="O17" s="16" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="54" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E18" s="55" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F18" s="55" t="s">
         <v>189</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H18" s="55" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I18" s="55"/>
       <c r="J18" s="55" t="s">
+        <v>762</v>
+      </c>
+      <c r="K18" s="55" t="s">
         <v>763</v>
-      </c>
-      <c r="K18" s="55" t="s">
-        <v>764</v>
       </c>
       <c r="L18" s="55"/>
       <c r="M18" s="15" t="s">
@@ -5538,40 +5535,40 @@
         <v>1</v>
       </c>
       <c r="O18" s="16" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="54" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E19" s="55" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F19" s="55" t="s">
         <v>189</v>
       </c>
       <c r="G19" s="55" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H19" s="55" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I19" s="55"/>
       <c r="J19" s="55" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="K19" s="55" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="L19" s="55"/>
       <c r="M19" s="15" t="s">
@@ -5581,7 +5578,7 @@
         <v>1</v>
       </c>
       <c r="O19" s="16" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5595,23 +5592,23 @@
         <v>326</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F20" s="20" t="s">
         <v>189</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I20" s="20"/>
       <c r="J20" s="20" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K20" s="14" t="s">
         <v>195</v>
@@ -5640,23 +5637,23 @@
         <v>324</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F21" s="20" t="s">
         <v>189</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I21" s="20"/>
       <c r="J21" s="20" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K21" s="14" t="s">
         <v>195</v>
@@ -5685,19 +5682,19 @@
         <v>316</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F22" s="20" t="s">
         <v>189</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I22" s="20"/>
       <c r="J22" s="20" t="s">
@@ -5730,19 +5727,19 @@
         <v>418</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F23" s="23" t="s">
         <v>189</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I23" s="23"/>
       <c r="J23" s="23" t="s">
@@ -5775,23 +5772,23 @@
         <v>412</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F24" s="23" t="s">
         <v>189</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I24" s="23"/>
       <c r="J24" s="23" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K24" s="14" t="s">
         <v>195</v>
@@ -5806,7 +5803,7 @@
         <v>471</v>
       </c>
       <c r="O24" s="16" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5817,26 +5814,26 @@
         <v>139</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F25" s="23" t="s">
         <v>189</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I25" s="20"/>
       <c r="J25" s="23" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K25" s="14" t="s">
         <v>195</v>
@@ -5859,29 +5856,29 @@
         <v>39</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C26" s="23" t="s">
         <v>422</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F26" s="23" t="s">
         <v>189</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I26" s="23"/>
       <c r="J26" s="23" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K26" s="14" t="s">
         <v>195</v>
@@ -5896,7 +5893,7 @@
         <v>473</v>
       </c>
       <c r="O26" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5910,23 +5907,23 @@
         <v>423</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F27" s="23" t="s">
         <v>189</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I27" s="23"/>
       <c r="J27" s="23" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K27" s="14" t="s">
         <v>195</v>
@@ -5941,7 +5938,7 @@
         <v>473</v>
       </c>
       <c r="O27" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5955,23 +5952,23 @@
         <v>327</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F28" s="23" t="s">
         <v>189</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I28" s="23"/>
       <c r="J28" s="23" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K28" s="14" t="s">
         <v>195</v>
@@ -6000,16 +5997,16 @@
         <v>291</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>189</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>401</v>
@@ -6022,7 +6019,7 @@
         <v>79</v>
       </c>
       <c r="L29" s="29" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="M29" s="15" t="s">
         <v>293</v>
@@ -6045,16 +6042,16 @@
         <v>400</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>189</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>401</v>
@@ -6067,7 +6064,7 @@
         <v>79</v>
       </c>
       <c r="L30" s="29" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="M30" s="15" t="s">
         <v>402</v>
@@ -6084,35 +6081,35 @@
         <v>15</v>
       </c>
       <c r="B31" s="28" t="s">
+        <v>581</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>583</v>
-      </c>
       <c r="D31" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>189</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I31" s="7"/>
       <c r="J31" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K31" s="32" t="s">
         <v>79</v>
       </c>
       <c r="L31" s="32" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="M31" s="15" t="s">
         <v>321</v>
@@ -6135,16 +6132,16 @@
         <v>391</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>189</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>401</v>
@@ -6157,7 +6154,7 @@
         <v>79</v>
       </c>
       <c r="L32" s="29" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="M32" s="15" t="s">
         <v>24</v>
@@ -6180,16 +6177,16 @@
         <v>426</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>189</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>401</v>
@@ -6202,7 +6199,7 @@
         <v>79</v>
       </c>
       <c r="L33" s="29" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="M33" s="15" t="s">
         <v>427</v>
@@ -6225,29 +6222,29 @@
         <v>337</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>189</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I34" s="7"/>
       <c r="J34" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K34" s="29" t="s">
         <v>79</v>
       </c>
       <c r="L34" s="29" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="M34" s="15" t="s">
         <v>338</v>
@@ -6270,29 +6267,29 @@
         <v>334</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>189</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I35" s="7"/>
       <c r="J35" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K35" s="29" t="s">
         <v>79</v>
       </c>
       <c r="L35" s="29" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="M35" s="15">
         <v>16681</v>
@@ -6315,29 +6312,29 @@
         <v>335</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>189</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K36" s="29" t="s">
         <v>79</v>
       </c>
       <c r="L36" s="29" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="M36" s="15" t="s">
         <v>336</v>
@@ -6360,29 +6357,29 @@
         <v>204</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>189</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K37" s="29" t="s">
         <v>79</v>
       </c>
       <c r="L37" s="29" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="M37" s="15" t="s">
         <v>1</v>
@@ -6405,16 +6402,16 @@
         <v>287</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>189</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>401</v>
@@ -6427,7 +6424,7 @@
         <v>79</v>
       </c>
       <c r="L38" s="29" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M38" s="15" t="s">
         <v>288</v>
@@ -6436,7 +6433,7 @@
         <v>472</v>
       </c>
       <c r="O38" s="16" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6450,16 +6447,16 @@
         <v>393</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>189</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>401</v>
@@ -6472,7 +6469,7 @@
         <v>79</v>
       </c>
       <c r="L39" s="29" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="M39" s="15" t="s">
         <v>1</v>
@@ -6495,16 +6492,16 @@
         <v>469</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>189</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>401</v>
@@ -6517,7 +6514,7 @@
         <v>79</v>
       </c>
       <c r="L40" s="29" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M40" s="15"/>
       <c r="N40" s="13" t="s">
@@ -6538,29 +6535,29 @@
         <v>397</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>189</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K41" s="29" t="s">
         <v>79</v>
       </c>
       <c r="L41" s="29" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M41" s="15" t="s">
         <v>399</v>
@@ -6583,16 +6580,16 @@
         <v>304</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>189</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>401</v>
@@ -6605,7 +6602,7 @@
         <v>79</v>
       </c>
       <c r="L42" s="29" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="M42" s="15" t="s">
         <v>306</v>
@@ -6628,16 +6625,16 @@
         <v>329</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>189</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>401</v>
@@ -6650,7 +6647,7 @@
         <v>79</v>
       </c>
       <c r="L43" s="29" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="M43" s="15" t="s">
         <v>331</v>
@@ -6673,16 +6670,16 @@
         <v>443</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>189</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>401</v>
@@ -6695,7 +6692,7 @@
         <v>79</v>
       </c>
       <c r="L44" s="29" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M44" s="15" t="s">
         <v>444</v>
@@ -6718,29 +6715,29 @@
         <v>307</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F45" s="28" t="s">
         <v>189</v>
       </c>
       <c r="G45" s="28" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I45" s="28"/>
       <c r="J45" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K45" s="32" t="s">
         <v>79</v>
       </c>
       <c r="L45" s="32" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M45" s="15" t="s">
         <v>308</v>
@@ -6763,16 +6760,16 @@
         <v>413</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>189</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>401</v>
@@ -6785,7 +6782,7 @@
         <v>79</v>
       </c>
       <c r="L46" s="29" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M46" s="15" t="s">
         <v>29</v>
@@ -6808,16 +6805,16 @@
         <v>289</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>189</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>401</v>
@@ -6830,7 +6827,7 @@
         <v>79</v>
       </c>
       <c r="L47" s="32" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="M47" s="15" t="s">
         <v>290</v>
@@ -6853,29 +6850,29 @@
         <v>437</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>189</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I48" s="7"/>
       <c r="J48" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K48" s="29" t="s">
         <v>79</v>
       </c>
       <c r="L48" s="29" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M48" s="15" t="s">
         <v>439</v>
@@ -6898,16 +6895,16 @@
         <v>381</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>189</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>401</v>
@@ -6920,7 +6917,7 @@
         <v>79</v>
       </c>
       <c r="L49" s="29" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="M49" s="15" t="s">
         <v>1</v>
@@ -6943,16 +6940,16 @@
         <v>318</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>189</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>401</v>
@@ -6965,7 +6962,7 @@
         <v>79</v>
       </c>
       <c r="L50" s="32" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="M50" s="15" t="s">
         <v>320</v>
@@ -6988,16 +6985,16 @@
         <v>410</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>189</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>401</v>
@@ -7010,7 +7007,7 @@
         <v>79</v>
       </c>
       <c r="L51" s="29" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="M51" s="15" t="s">
         <v>411</v>
@@ -7019,7 +7016,7 @@
         <v>471</v>
       </c>
       <c r="O51" s="16" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7030,19 +7027,19 @@
         <v>86</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>189</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H52" s="7" t="s">
         <v>401</v>
@@ -7055,7 +7052,7 @@
         <v>79</v>
       </c>
       <c r="L52" s="32" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="M52" s="15" t="s">
         <v>322</v>
@@ -7078,16 +7075,16 @@
         <v>375</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>189</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>401</v>
@@ -7100,7 +7097,7 @@
         <v>79</v>
       </c>
       <c r="L53" s="32" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="M53" s="15" t="s">
         <v>377</v>
@@ -7123,16 +7120,16 @@
         <v>201</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>189</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>401</v>
@@ -7145,7 +7142,7 @@
         <v>79</v>
       </c>
       <c r="L54" s="32" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="M54" s="15" t="s">
         <v>339</v>
@@ -7168,16 +7165,16 @@
         <v>301</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>189</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>401</v>
@@ -7190,7 +7187,7 @@
         <v>79</v>
       </c>
       <c r="L55" s="32" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="M55" s="15" t="s">
         <v>303</v>
@@ -7213,29 +7210,29 @@
         <v>395</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>189</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I56" s="7"/>
       <c r="J56" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K56" s="29" t="s">
         <v>79</v>
       </c>
       <c r="L56" s="29" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="M56" s="15" t="s">
         <v>396</v>
@@ -7249,25 +7246,25 @@
     </row>
     <row r="57" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="30" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B57" s="31" t="s">
+        <v>683</v>
+      </c>
+      <c r="C57" s="31" t="s">
         <v>684</v>
       </c>
-      <c r="C57" s="31" t="s">
-        <v>685</v>
-      </c>
       <c r="D57" s="31" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F57" s="31" t="s">
         <v>189</v>
       </c>
       <c r="G57" s="31" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H57" s="31" t="s">
         <v>401</v>
@@ -7280,10 +7277,10 @@
         <v>79</v>
       </c>
       <c r="L57" s="50" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="M57" s="50" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="N57" s="13" t="s">
         <v>1</v>
@@ -7294,25 +7291,25 @@
     </row>
     <row r="58" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="30" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B58" s="31" t="s">
+        <v>685</v>
+      </c>
+      <c r="C58" s="31" t="s">
         <v>686</v>
       </c>
-      <c r="C58" s="31" t="s">
-        <v>687</v>
-      </c>
       <c r="D58" s="31" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F58" s="31" t="s">
         <v>189</v>
       </c>
       <c r="G58" s="31" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H58" s="31" t="s">
         <v>401</v>
@@ -7325,39 +7322,39 @@
         <v>79</v>
       </c>
       <c r="L58" s="50" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="M58" s="50" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="N58" s="13" t="s">
         <v>1</v>
       </c>
       <c r="O58" s="50" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="30" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B59" s="31" t="s">
+        <v>687</v>
+      </c>
+      <c r="C59" s="31" t="s">
         <v>688</v>
       </c>
-      <c r="C59" s="31" t="s">
-        <v>689</v>
-      </c>
       <c r="D59" s="31" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F59" s="31" t="s">
         <v>189</v>
       </c>
       <c r="G59" s="31" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H59" s="31" t="s">
         <v>401</v>
@@ -7370,7 +7367,7 @@
         <v>79</v>
       </c>
       <c r="L59" s="50" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="M59" s="50" t="s">
         <v>1</v>
@@ -7384,25 +7381,25 @@
     </row>
     <row r="60" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="30" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B60" s="31" t="s">
+        <v>719</v>
+      </c>
+      <c r="C60" s="31" t="s">
         <v>720</v>
       </c>
-      <c r="C60" s="31" t="s">
-        <v>721</v>
-      </c>
       <c r="D60" s="31" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F60" s="31" t="s">
         <v>189</v>
       </c>
       <c r="G60" s="31" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H60" s="31" t="s">
         <v>401</v>
@@ -7415,7 +7412,7 @@
         <v>79</v>
       </c>
       <c r="L60" s="50" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="M60" s="50" t="s">
         <v>1</v>
@@ -7424,30 +7421,30 @@
         <v>1</v>
       </c>
       <c r="O60" s="50" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="30" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B61" s="31" t="s">
+        <v>689</v>
+      </c>
+      <c r="C61" s="31" t="s">
         <v>690</v>
       </c>
-      <c r="C61" s="31" t="s">
-        <v>691</v>
-      </c>
       <c r="D61" s="31" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F61" s="31" t="s">
         <v>189</v>
       </c>
       <c r="G61" s="31" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H61" s="31" t="s">
         <v>401</v>
@@ -7460,7 +7457,7 @@
         <v>79</v>
       </c>
       <c r="L61" s="50" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="M61" s="51">
         <v>25008</v>
@@ -7469,30 +7466,30 @@
         <v>1</v>
       </c>
       <c r="O61" s="50" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="30" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B62" s="31" t="s">
+        <v>691</v>
+      </c>
+      <c r="C62" s="31" t="s">
         <v>692</v>
       </c>
-      <c r="C62" s="31" t="s">
-        <v>693</v>
-      </c>
       <c r="D62" s="31" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F62" s="31" t="s">
         <v>189</v>
       </c>
       <c r="G62" s="31" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H62" s="31" t="s">
         <v>401</v>
@@ -7505,10 +7502,10 @@
         <v>79</v>
       </c>
       <c r="L62" s="50" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="M62" s="50" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="N62" s="13" t="s">
         <v>1</v>
@@ -7519,25 +7516,25 @@
     </row>
     <row r="63" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="30" t="s">
+        <v>681</v>
+      </c>
+      <c r="B63" s="31" t="s">
         <v>682</v>
       </c>
-      <c r="B63" s="31" t="s">
-        <v>683</v>
-      </c>
       <c r="C63" s="31" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D63" s="31" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E63" s="31" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F63" s="31" t="s">
         <v>189</v>
       </c>
       <c r="G63" s="31" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H63" s="31" t="s">
         <v>401</v>
@@ -7550,10 +7547,10 @@
         <v>79</v>
       </c>
       <c r="L63" s="50" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="M63" s="50" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="N63" s="13" t="s">
         <v>1</v>
@@ -7573,23 +7570,23 @@
         <v>436</v>
       </c>
       <c r="D64" s="34" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E64" s="34" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F64" s="34" t="s">
         <v>189</v>
       </c>
       <c r="G64" s="34" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H64" s="34" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I64" s="34"/>
       <c r="J64" s="24" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K64" s="14" t="s">
         <v>195</v>
@@ -7618,29 +7615,29 @@
         <v>299</v>
       </c>
       <c r="D65" s="34" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E65" s="34" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F65" s="34" t="s">
         <v>189</v>
       </c>
       <c r="G65" s="34" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H65" s="34" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I65" s="34"/>
       <c r="J65" s="34" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K65" s="29" t="s">
         <v>79</v>
       </c>
       <c r="L65" s="29" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="M65" s="15" t="s">
         <v>300</v>
@@ -7663,29 +7660,29 @@
         <v>446</v>
       </c>
       <c r="D66" s="34" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E66" s="34" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F66" s="34" t="s">
         <v>189</v>
       </c>
       <c r="G66" s="34" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H66" s="34" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I66" s="34"/>
       <c r="J66" s="34" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K66" s="29" t="s">
         <v>79</v>
       </c>
       <c r="L66" s="29" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M66" s="15" t="s">
         <v>448</v>
@@ -7708,29 +7705,29 @@
         <v>440</v>
       </c>
       <c r="D67" s="34" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E67" s="34" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F67" s="34" t="s">
         <v>189</v>
       </c>
       <c r="G67" s="34" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H67" s="34" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I67" s="34"/>
       <c r="J67" s="34" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K67" s="32" t="s">
         <v>79</v>
       </c>
       <c r="L67" s="29" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="M67" s="15" t="s">
         <v>441</v>
@@ -7753,29 +7750,29 @@
         <v>453</v>
       </c>
       <c r="D68" s="34" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E68" s="34" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F68" s="34" t="s">
         <v>189</v>
       </c>
       <c r="G68" s="34" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H68" s="34" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I68" s="34"/>
       <c r="J68" s="34" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K68" s="29" t="s">
         <v>79</v>
       </c>
       <c r="L68" s="29" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="M68" s="15" t="s">
         <v>455</v>
@@ -7798,29 +7795,29 @@
         <v>449</v>
       </c>
       <c r="D69" s="34" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E69" s="34" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F69" s="34" t="s">
         <v>189</v>
       </c>
       <c r="G69" s="34" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H69" s="34" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I69" s="34"/>
       <c r="J69" s="34" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K69" s="29" t="s">
         <v>79</v>
       </c>
       <c r="L69" s="29" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="M69" s="15" t="s">
         <v>450</v>
@@ -7843,29 +7840,29 @@
         <v>387</v>
       </c>
       <c r="D70" s="34" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E70" s="34" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F70" s="34" t="s">
         <v>189</v>
       </c>
       <c r="G70" s="34" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H70" s="34" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I70" s="34"/>
       <c r="J70" s="34" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K70" s="29" t="s">
         <v>79</v>
       </c>
       <c r="L70" s="29" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M70" s="15" t="s">
         <v>389</v>
@@ -7888,29 +7885,29 @@
         <v>451</v>
       </c>
       <c r="D71" s="34" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E71" s="34" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F71" s="34" t="s">
         <v>189</v>
       </c>
       <c r="G71" s="34" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H71" s="34" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I71" s="34"/>
       <c r="J71" s="34" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K71" s="29" t="s">
         <v>79</v>
       </c>
       <c r="L71" s="29" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M71" s="15" t="s">
         <v>1</v>
@@ -7933,29 +7930,29 @@
         <v>404</v>
       </c>
       <c r="D72" s="34" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E72" s="34" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F72" s="34" t="s">
         <v>189</v>
       </c>
       <c r="G72" s="34" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H72" s="34" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I72" s="34"/>
       <c r="J72" s="34" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K72" s="29" t="s">
         <v>79</v>
       </c>
       <c r="L72" s="29" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="M72" s="15" t="s">
         <v>406</v>
@@ -7978,29 +7975,29 @@
         <v>203</v>
       </c>
       <c r="D73" s="34" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E73" s="34" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F73" s="34" t="s">
         <v>189</v>
       </c>
       <c r="G73" s="34" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H73" s="34" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I73" s="34"/>
       <c r="J73" s="34" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K73" s="29" t="s">
         <v>79</v>
       </c>
       <c r="L73" s="29" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="M73" s="15" t="s">
         <v>1</v>
@@ -8009,7 +8006,7 @@
         <v>477</v>
       </c>
       <c r="O73" s="16" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8023,10 +8020,10 @@
         <v>356</v>
       </c>
       <c r="D74" s="36" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E74" s="36" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F74" s="36" t="s">
         <v>189</v>
@@ -8035,17 +8032,17 @@
         <v>467</v>
       </c>
       <c r="H74" s="36" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I74" s="36"/>
       <c r="J74" s="36" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K74" s="36" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="L74" s="36" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="M74" s="15" t="s">
         <v>1</v>
@@ -8068,10 +8065,10 @@
         <v>424</v>
       </c>
       <c r="D75" s="36" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E75" s="36" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F75" s="36" t="s">
         <v>189</v>
@@ -8080,17 +8077,17 @@
         <v>467</v>
       </c>
       <c r="H75" s="36" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I75" s="36"/>
       <c r="J75" s="36" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K75" s="36" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="L75" s="36" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="M75" s="15" t="s">
         <v>425</v>
@@ -8113,10 +8110,10 @@
         <v>351</v>
       </c>
       <c r="D76" s="36" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E76" s="36" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F76" s="36" t="s">
         <v>189</v>
@@ -8125,17 +8122,17 @@
         <v>467</v>
       </c>
       <c r="H76" s="36" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I76" s="36"/>
       <c r="J76" s="36" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K76" s="36" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="L76" s="36" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="M76" s="15" t="s">
         <v>352</v>
@@ -8158,10 +8155,10 @@
         <v>367</v>
       </c>
       <c r="D77" s="36" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E77" s="36" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F77" s="36" t="s">
         <v>189</v>
@@ -8170,17 +8167,17 @@
         <v>467</v>
       </c>
       <c r="H77" s="36" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I77" s="36"/>
       <c r="J77" s="36" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K77" s="36" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="L77" s="36" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="M77" s="15" t="s">
         <v>1</v>
@@ -8203,10 +8200,10 @@
         <v>353</v>
       </c>
       <c r="D78" s="36" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E78" s="36" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F78" s="36" t="s">
         <v>189</v>
@@ -8215,17 +8212,17 @@
         <v>467</v>
       </c>
       <c r="H78" s="36" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I78" s="36"/>
       <c r="J78" s="36" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K78" s="36" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="L78" s="36" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="M78" s="15" t="s">
         <v>355</v>
@@ -8239,19 +8236,19 @@
     </row>
     <row r="79" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="35" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B79" s="36" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C79" s="36" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D79" s="36" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E79" s="36" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F79" s="36" t="s">
         <v>189</v>
@@ -8260,17 +8257,17 @@
         <v>467</v>
       </c>
       <c r="H79" s="36" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I79" s="36"/>
       <c r="J79" s="36" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K79" s="36" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="L79" s="36" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M79" s="15" t="s">
         <v>1</v>
@@ -8293,10 +8290,10 @@
         <v>384</v>
       </c>
       <c r="D80" s="38" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E80" s="38" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F80" s="38" t="s">
         <v>189</v>
@@ -8305,17 +8302,17 @@
         <v>468</v>
       </c>
       <c r="H80" s="38" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I80" s="38"/>
       <c r="J80" s="38" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K80" s="38" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="L80" s="38" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="M80" s="15" t="s">
         <v>386</v>
@@ -8338,10 +8335,10 @@
         <v>429</v>
       </c>
       <c r="D81" s="38" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E81" s="38" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F81" s="38" t="s">
         <v>189</v>
@@ -8350,17 +8347,17 @@
         <v>468</v>
       </c>
       <c r="H81" s="38" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I81" s="38"/>
       <c r="J81" s="38" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K81" s="38" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="L81" s="38" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="M81" s="15" t="s">
         <v>430</v>
@@ -8383,10 +8380,10 @@
         <v>370</v>
       </c>
       <c r="D82" s="38" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E82" s="38" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F82" s="38" t="s">
         <v>189</v>
@@ -8395,17 +8392,17 @@
         <v>468</v>
       </c>
       <c r="H82" s="38" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I82" s="38"/>
       <c r="J82" s="38" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K82" s="38" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="L82" s="38" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="M82" s="15" t="s">
         <v>371</v>
@@ -8414,52 +8411,52 @@
         <v>471</v>
       </c>
       <c r="O82" s="16" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="37" t="s">
+        <v>818</v>
+      </c>
+      <c r="B83" s="38" t="s">
         <v>819</v>
       </c>
-      <c r="B83" s="38" t="s">
+      <c r="C83" s="38" t="s">
         <v>820</v>
       </c>
-      <c r="C83" s="38" t="s">
-        <v>821</v>
-      </c>
       <c r="D83" s="38" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E83" s="38" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F83" s="38" t="s">
         <v>189</v>
       </c>
       <c r="G83" s="38" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H83" s="38" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I83" s="38"/>
       <c r="J83" s="38" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K83" s="38" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="L83" s="38" t="s">
+        <v>821</v>
+      </c>
+      <c r="M83" s="15" t="s">
         <v>822</v>
-      </c>
-      <c r="M83" s="15" t="s">
-        <v>823</v>
       </c>
       <c r="N83" s="13" t="s">
         <v>474</v>
       </c>
       <c r="O83" s="16" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -8473,29 +8470,29 @@
         <v>459</v>
       </c>
       <c r="D84" s="40" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E84" s="40" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F84" s="40" t="s">
         <v>189</v>
       </c>
       <c r="G84" s="40" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H84" s="40" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I84" s="40"/>
       <c r="J84" s="40" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K84" s="40" t="s">
         <v>190</v>
       </c>
       <c r="L84" s="40" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="M84" s="16" t="s">
         <v>460</v>
@@ -8518,29 +8515,29 @@
         <v>461</v>
       </c>
       <c r="D85" s="40" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E85" s="40" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F85" s="40" t="s">
         <v>189</v>
       </c>
       <c r="G85" s="40" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H85" s="40" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I85" s="40"/>
       <c r="J85" s="40" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K85" s="40" t="s">
         <v>190</v>
       </c>
       <c r="L85" s="40" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="M85" s="15" t="s">
         <v>463</v>
@@ -8563,29 +8560,29 @@
         <v>417</v>
       </c>
       <c r="D86" s="40" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E86" s="40" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F86" s="40" t="s">
         <v>189</v>
       </c>
       <c r="G86" s="40" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H86" s="40" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I86" s="40"/>
       <c r="J86" s="40" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K86" s="40" t="s">
         <v>190</v>
       </c>
       <c r="L86" s="40" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="M86" s="15" t="s">
         <v>1</v>
@@ -8608,29 +8605,29 @@
         <v>313</v>
       </c>
       <c r="D87" s="40" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E87" s="40" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F87" s="40" t="s">
         <v>189</v>
       </c>
       <c r="G87" s="40" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H87" s="40" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I87" s="40"/>
       <c r="J87" s="40" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="K87" s="40" t="s">
         <v>190</v>
       </c>
       <c r="L87" s="40" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="M87" s="15" t="s">
         <v>1</v>
@@ -8653,29 +8650,29 @@
         <v>361</v>
       </c>
       <c r="D88" s="40" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E88" s="40" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F88" s="40" t="s">
         <v>189</v>
       </c>
       <c r="G88" s="40" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H88" s="40" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I88" s="40"/>
       <c r="J88" s="40" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K88" s="40" t="s">
         <v>190</v>
       </c>
       <c r="L88" s="40" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="M88" s="15" t="s">
         <v>363</v>
@@ -8698,29 +8695,29 @@
         <v>202</v>
       </c>
       <c r="D89" s="40" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E89" s="40" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F89" s="40" t="s">
         <v>189</v>
       </c>
       <c r="G89" s="40" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H89" s="40" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I89" s="40"/>
       <c r="J89" s="40" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K89" s="40" t="s">
         <v>190</v>
       </c>
       <c r="L89" s="40" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="M89" s="15" t="s">
         <v>1</v>
@@ -8743,29 +8740,29 @@
         <v>456</v>
       </c>
       <c r="D90" s="40" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E90" s="40" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F90" s="40" t="s">
         <v>189</v>
       </c>
       <c r="G90" s="40" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H90" s="40" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I90" s="40"/>
       <c r="J90" s="40" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="K90" s="40" t="s">
         <v>190</v>
       </c>
       <c r="L90" s="40" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="M90" s="15" t="s">
         <v>458</v>
@@ -8788,29 +8785,29 @@
         <v>372</v>
       </c>
       <c r="D91" s="40" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E91" s="40" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F91" s="40" t="s">
         <v>189</v>
       </c>
       <c r="G91" s="40" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H91" s="40" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I91" s="40"/>
       <c r="J91" s="40" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="K91" s="40" t="s">
         <v>190</v>
       </c>
       <c r="L91" s="40" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="M91" s="15" t="s">
         <v>373</v>
@@ -8833,29 +8830,29 @@
         <v>359</v>
       </c>
       <c r="D92" s="40" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E92" s="40" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F92" s="40" t="s">
         <v>189</v>
       </c>
       <c r="G92" s="40" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H92" s="40" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I92" s="40"/>
       <c r="J92" s="40" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K92" s="40" t="s">
         <v>190</v>
       </c>
       <c r="L92" s="40" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="M92" s="15" t="s">
         <v>360</v>
@@ -8878,29 +8875,29 @@
         <v>294</v>
       </c>
       <c r="D93" s="40" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E93" s="40" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F93" s="40" t="s">
         <v>189</v>
       </c>
       <c r="G93" s="40" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H93" s="40" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I93" s="40"/>
       <c r="J93" s="40" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K93" s="40" t="s">
         <v>190</v>
       </c>
       <c r="L93" s="40" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="M93" s="15" t="s">
         <v>296</v>
@@ -8923,29 +8920,29 @@
         <v>464</v>
       </c>
       <c r="D94" s="40" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E94" s="40" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F94" s="40" t="s">
         <v>189</v>
       </c>
       <c r="G94" s="40" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H94" s="40" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I94" s="40"/>
       <c r="J94" s="40" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="K94" s="40" t="s">
         <v>190</v>
       </c>
       <c r="L94" s="40" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="M94" s="15" t="s">
         <v>465</v>
@@ -8968,29 +8965,29 @@
         <v>431</v>
       </c>
       <c r="D95" s="40" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E95" s="40" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F95" s="40" t="s">
         <v>189</v>
       </c>
       <c r="G95" s="40" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H95" s="40" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I95" s="40"/>
       <c r="J95" s="40" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K95" s="40" t="s">
         <v>190</v>
       </c>
       <c r="L95" s="40" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="M95" s="15" t="s">
         <v>48</v>
@@ -9013,29 +9010,29 @@
         <v>342</v>
       </c>
       <c r="D96" s="40" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E96" s="40" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F96" s="40" t="s">
         <v>189</v>
       </c>
       <c r="G96" s="40" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H96" s="40" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I96" s="40"/>
       <c r="J96" s="40" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K96" s="40" t="s">
         <v>190</v>
       </c>
       <c r="L96" s="40" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="M96" s="15" t="s">
         <v>343</v>
@@ -9058,29 +9055,29 @@
         <v>297</v>
       </c>
       <c r="D97" s="40" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E97" s="40" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F97" s="40" t="s">
         <v>189</v>
       </c>
       <c r="G97" s="40" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H97" s="40" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I97" s="40"/>
       <c r="J97" s="40" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K97" s="40" t="s">
         <v>190</v>
       </c>
       <c r="L97" s="40" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="M97" s="15" t="s">
         <v>298</v>
@@ -9103,29 +9100,29 @@
         <v>415</v>
       </c>
       <c r="D98" s="40" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E98" s="40" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F98" s="40" t="s">
         <v>189</v>
       </c>
       <c r="G98" s="40" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H98" s="40" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I98" s="40"/>
       <c r="J98" s="40" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K98" s="40" t="s">
         <v>190</v>
       </c>
       <c r="L98" s="40" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="M98" s="15" t="s">
         <v>416</v>
@@ -9139,32 +9136,32 @@
     </row>
     <row r="99" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A99" s="47" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B99" s="48" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C99" s="49" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D99" s="49" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E99" s="49" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F99" s="49" t="s">
-        <v>479</v>
+        <v>778</v>
       </c>
       <c r="G99" s="49" t="s">
-        <v>779</v>
+        <v>816</v>
       </c>
       <c r="H99" s="49" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I99" s="49"/>
       <c r="J99" s="49" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="K99" s="14" t="s">
         <v>195</v>
@@ -9179,7 +9176,7 @@
         <v>1</v>
       </c>
       <c r="O99" s="16" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -9187,29 +9184,29 @@
         <v>478</v>
       </c>
       <c r="B100" s="48" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C100" s="49" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D100" s="49" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E100" s="49" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F100" s="49" t="s">
-        <v>479</v>
+        <v>778</v>
       </c>
       <c r="G100" s="49" t="s">
-        <v>779</v>
+        <v>816</v>
       </c>
       <c r="H100" s="49" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I100" s="49"/>
       <c r="J100" s="49" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K100" s="14" t="s">
         <v>195</v>
@@ -9224,37 +9221,37 @@
         <v>1</v>
       </c>
       <c r="O100" s="46" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A101" s="47" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B101" s="48" t="s">
+        <v>479</v>
+      </c>
+      <c r="C101" s="49" t="s">
         <v>480</v>
       </c>
-      <c r="C101" s="49" t="s">
-        <v>481</v>
-      </c>
       <c r="D101" s="49" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E101" s="49" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F101" s="49" t="s">
-        <v>479</v>
+        <v>778</v>
       </c>
       <c r="G101" s="49" t="s">
-        <v>779</v>
+        <v>816</v>
       </c>
       <c r="H101" s="49" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I101" s="49"/>
       <c r="J101" s="49" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K101" s="14" t="s">
         <v>195</v>
@@ -9269,37 +9266,37 @@
         <v>1</v>
       </c>
       <c r="O101" s="46" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A102" s="47" t="s">
+        <v>621</v>
+      </c>
+      <c r="B102" s="48" t="s">
         <v>622</v>
       </c>
-      <c r="B102" s="48" t="s">
-        <v>623</v>
-      </c>
       <c r="C102" s="49" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D102" s="49" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E102" s="49" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F102" s="49" t="s">
-        <v>479</v>
+        <v>778</v>
       </c>
       <c r="G102" s="49" t="s">
-        <v>779</v>
+        <v>816</v>
       </c>
       <c r="H102" s="49" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I102" s="49"/>
       <c r="J102" s="49" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K102" s="14" t="s">
         <v>195</v>
@@ -9317,28 +9314,28 @@
     </row>
     <row r="103" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A103" s="47" t="s">
+        <v>768</v>
+      </c>
+      <c r="B103" s="48" t="s">
         <v>769</v>
       </c>
-      <c r="B103" s="48" t="s">
-        <v>770</v>
-      </c>
       <c r="C103" s="49" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D103" s="49" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E103" s="49" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F103" s="49" t="s">
-        <v>479</v>
+        <v>778</v>
       </c>
       <c r="G103" s="49" t="s">
-        <v>779</v>
+        <v>816</v>
       </c>
       <c r="H103" s="49" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I103" s="49"/>
       <c r="J103" s="49"/>
@@ -9351,28 +9348,28 @@
     </row>
     <row r="104" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A104" s="47" t="s">
+        <v>770</v>
+      </c>
+      <c r="B104" s="48" t="s">
         <v>771</v>
       </c>
-      <c r="B104" s="48" t="s">
-        <v>772</v>
-      </c>
       <c r="C104" s="49" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D104" s="49" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E104" s="49" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F104" s="49" t="s">
-        <v>479</v>
+        <v>778</v>
       </c>
       <c r="G104" s="49" t="s">
-        <v>779</v>
+        <v>816</v>
       </c>
       <c r="H104" s="49" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I104" s="49"/>
       <c r="J104" s="49"/>
@@ -9385,28 +9382,28 @@
     </row>
     <row r="105" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A105" s="47" t="s">
+        <v>774</v>
+      </c>
+      <c r="B105" s="48" t="s">
         <v>775</v>
       </c>
-      <c r="B105" s="48" t="s">
-        <v>776</v>
-      </c>
       <c r="C105" s="49" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D105" s="49" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E105" s="49" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F105" s="49" t="s">
-        <v>479</v>
+        <v>778</v>
       </c>
       <c r="G105" s="49" t="s">
-        <v>779</v>
+        <v>816</v>
       </c>
       <c r="H105" s="49" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I105" s="49"/>
       <c r="J105" s="49"/>
@@ -9419,28 +9416,28 @@
     </row>
     <row r="106" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A106" s="47" t="s">
+        <v>776</v>
+      </c>
+      <c r="B106" s="48" t="s">
         <v>777</v>
       </c>
-      <c r="B106" s="48" t="s">
+      <c r="C106" s="49" t="s">
+        <v>796</v>
+      </c>
+      <c r="D106" s="49" t="s">
+        <v>733</v>
+      </c>
+      <c r="E106" s="49" t="s">
+        <v>658</v>
+      </c>
+      <c r="F106" s="49" t="s">
         <v>778</v>
       </c>
-      <c r="C106" s="49" t="s">
-        <v>797</v>
-      </c>
-      <c r="D106" s="49" t="s">
-        <v>734</v>
-      </c>
-      <c r="E106" s="49" t="s">
-        <v>659</v>
-      </c>
-      <c r="F106" s="49" t="s">
-        <v>479</v>
-      </c>
       <c r="G106" s="49" t="s">
-        <v>779</v>
+        <v>816</v>
       </c>
       <c r="H106" s="49" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I106" s="49"/>
       <c r="J106" s="49"/>
@@ -9451,37 +9448,37 @@
         <v>195</v>
       </c>
       <c r="O106" s="46" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A107" s="47" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B107" s="48" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C107" s="49" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D107" s="49" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E107" s="49" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F107" s="49" t="s">
-        <v>479</v>
+        <v>779</v>
       </c>
       <c r="G107" s="49" t="s">
-        <v>780</v>
+        <v>816</v>
       </c>
       <c r="H107" s="49" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I107" s="49"/>
       <c r="J107" s="49" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="K107" s="14" t="s">
         <v>195</v>
@@ -9496,37 +9493,37 @@
         <v>1</v>
       </c>
       <c r="O107" s="46" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A108" s="47" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B108" s="48" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C108" s="49" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D108" s="49" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E108" s="49" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F108" s="49" t="s">
-        <v>479</v>
+        <v>779</v>
       </c>
       <c r="G108" s="49" t="s">
-        <v>780</v>
+        <v>816</v>
       </c>
       <c r="H108" s="49" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I108" s="49"/>
       <c r="J108" s="49" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K108" s="14" t="s">
         <v>195</v>
@@ -9541,33 +9538,33 @@
         <v>1</v>
       </c>
       <c r="O108" s="46" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A109" s="47" t="s">
+        <v>772</v>
+      </c>
+      <c r="B109" s="48" t="s">
         <v>773</v>
       </c>
-      <c r="B109" s="48" t="s">
-        <v>774</v>
-      </c>
       <c r="C109" s="49" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D109" s="49" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E109" s="49" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F109" s="49" t="s">
-        <v>479</v>
+        <v>779</v>
       </c>
       <c r="G109" s="49" t="s">
-        <v>780</v>
+        <v>816</v>
       </c>
       <c r="H109" s="49" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I109" s="49"/>
       <c r="J109" s="49"/>
@@ -9580,32 +9577,32 @@
     </row>
     <row r="110" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A110" s="47" t="s">
+        <v>550</v>
+      </c>
+      <c r="B110" s="48" t="s">
         <v>551</v>
       </c>
-      <c r="B110" s="48" t="s">
-        <v>552</v>
-      </c>
       <c r="C110" s="49" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D110" s="49" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E110" s="49" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F110" s="49" t="s">
-        <v>479</v>
+        <v>780</v>
       </c>
       <c r="G110" s="49" t="s">
-        <v>781</v>
+        <v>816</v>
       </c>
       <c r="H110" s="49" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I110" s="49"/>
       <c r="J110" s="49" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K110" s="14" t="s">
         <v>195</v>
@@ -9620,37 +9617,37 @@
         <v>1</v>
       </c>
       <c r="O110" s="16" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A111" s="47" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B111" s="48" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C111" s="49" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D111" s="49" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E111" s="49" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F111" s="49" t="s">
-        <v>479</v>
+        <v>780</v>
       </c>
       <c r="G111" s="49" t="s">
-        <v>781</v>
+        <v>816</v>
       </c>
       <c r="H111" s="49" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I111" s="49"/>
       <c r="J111" s="49" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K111" s="14" t="s">
         <v>195</v>
@@ -9665,7 +9662,7 @@
         <v>1</v>
       </c>
       <c r="O111" s="16" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -9679,23 +9676,23 @@
         <v>333</v>
       </c>
       <c r="D112" s="49" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E112" s="49" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F112" s="49" t="s">
         <v>323</v>
       </c>
       <c r="G112" s="49" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H112" s="49" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I112" s="49"/>
       <c r="J112" s="49" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K112" s="14" t="s">
         <v>195</v>
@@ -9724,23 +9721,23 @@
         <v>347</v>
       </c>
       <c r="D113" s="49" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E113" s="49" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F113" s="49" t="s">
         <v>323</v>
       </c>
       <c r="G113" s="49" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H113" s="49" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I113" s="49"/>
       <c r="J113" s="49" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K113" s="14" t="s">
         <v>195</v>
@@ -9769,23 +9766,23 @@
         <v>349</v>
       </c>
       <c r="D114" s="49" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E114" s="49" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F114" s="49" t="s">
         <v>323</v>
       </c>
       <c r="G114" s="49" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H114" s="49" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I114" s="49"/>
       <c r="J114" s="49" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K114" s="14" t="s">
         <v>195</v>
@@ -9800,7 +9797,7 @@
         <v>1</v>
       </c>
       <c r="O114" s="16" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="115" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -9811,26 +9808,26 @@
         <v>111</v>
       </c>
       <c r="C115" s="49" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D115" s="49" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E115" s="49" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F115" s="49" t="s">
         <v>323</v>
       </c>
       <c r="G115" s="49" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H115" s="49" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I115" s="49"/>
       <c r="J115" s="49" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K115" s="14" t="s">
         <v>195</v>
@@ -9859,23 +9856,23 @@
         <v>420</v>
       </c>
       <c r="D116" s="49" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E116" s="49" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F116" s="49" t="s">
         <v>323</v>
       </c>
       <c r="G116" s="49" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H116" s="49" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I116" s="49"/>
       <c r="J116" s="49" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K116" s="14" t="s">
         <v>195</v>
@@ -9890,7 +9887,7 @@
         <v>472</v>
       </c>
       <c r="O116" s="16" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="117" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -9901,26 +9898,26 @@
         <v>150</v>
       </c>
       <c r="C117" s="49" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D117" s="49" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E117" s="49" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F117" s="49" t="s">
         <v>323</v>
       </c>
       <c r="G117" s="49" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H117" s="49" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I117" s="49"/>
       <c r="J117" s="49" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K117" s="14" t="s">
         <v>195</v>
@@ -9935,7 +9932,7 @@
         <v>475</v>
       </c>
       <c r="O117" s="16" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="118" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -9946,26 +9943,26 @@
         <v>196</v>
       </c>
       <c r="C118" s="49" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D118" s="49" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E118" s="49" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F118" s="49" t="s">
         <v>323</v>
       </c>
       <c r="G118" s="49" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H118" s="49" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I118" s="49"/>
       <c r="J118" s="49" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K118" s="14" t="s">
         <v>195</v>
@@ -9994,23 +9991,23 @@
         <v>407</v>
       </c>
       <c r="D119" s="49" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E119" s="49" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F119" s="49" t="s">
         <v>323</v>
       </c>
       <c r="G119" s="49" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H119" s="49" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I119" s="49"/>
       <c r="J119" s="49" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K119" s="14" t="s">
         <v>195</v>
@@ -10036,26 +10033,26 @@
         <v>142</v>
       </c>
       <c r="C120" s="49" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D120" s="49" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E120" s="49" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F120" s="49" t="s">
         <v>323</v>
       </c>
       <c r="G120" s="49" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H120" s="49" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I120" s="49"/>
       <c r="J120" s="49" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K120" s="14" t="s">
         <v>195</v>
@@ -10081,26 +10078,26 @@
         <v>166</v>
       </c>
       <c r="C121" s="49" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D121" s="49" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E121" s="49" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F121" s="49" t="s">
         <v>323</v>
       </c>
       <c r="G121" s="49" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H121" s="49" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I121" s="49"/>
       <c r="J121" s="49" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K121" s="14" t="s">
         <v>195</v>
@@ -10120,32 +10117,32 @@
     </row>
     <row r="122" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A122" s="47" t="s">
+        <v>643</v>
+      </c>
+      <c r="B122" s="49" t="s">
         <v>644</v>
       </c>
-      <c r="B122" s="49" t="s">
+      <c r="C122" s="49" t="s">
         <v>645</v>
       </c>
-      <c r="C122" s="49" t="s">
-        <v>646</v>
-      </c>
       <c r="D122" s="49" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E122" s="49" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F122" s="49" t="s">
         <v>323</v>
       </c>
       <c r="G122" s="49" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H122" s="49" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I122" s="49"/>
       <c r="J122" s="49" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K122" s="14" t="s">
         <v>195</v>
@@ -10165,30 +10162,30 @@
     </row>
     <row r="123" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A123" s="47" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B123" s="49" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C123" s="49" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D123" s="49" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E123" s="49" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F123" s="49" t="s">
         <v>323</v>
       </c>
       <c r="G123" s="49"/>
       <c r="H123" s="49" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I123" s="49"/>
       <c r="J123" s="49" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K123" s="14" t="s">
         <v>195</v>
@@ -10208,28 +10205,28 @@
     </row>
     <row r="124" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A124" s="59" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B124" s="43" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C124" s="43" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D124" s="43" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E124" s="43" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F124" s="43" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G124" s="43" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H124" s="43" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I124" s="43"/>
       <c r="J124" s="43"/>
@@ -10243,28 +10240,28 @@
     </row>
     <row r="125" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A125" s="59" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B125" s="43" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C125" s="43" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D125" s="43" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E125" s="43" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F125" s="43" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G125" s="43" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H125" s="43" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I125" s="43"/>
       <c r="J125" s="43"/>
@@ -10286,23 +10283,23 @@
         <v>364</v>
       </c>
       <c r="D126" s="43" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E126" s="43" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F126" s="43" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G126" s="43" t="s">
         <v>364</v>
       </c>
       <c r="H126" s="43" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I126" s="43"/>
       <c r="J126" s="43" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K126" s="14" t="s">
         <v>195</v>
@@ -10322,30 +10319,30 @@
     </row>
     <row r="127" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A127" s="59" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B127" s="43" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C127" s="43" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D127" s="43" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E127" s="43" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F127" s="43" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G127" s="43"/>
       <c r="H127" s="43" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I127" s="43"/>
       <c r="J127" s="43" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K127" s="14" t="s">
         <v>195</v>
@@ -10360,31 +10357,31 @@
         <v>1</v>
       </c>
       <c r="O127" s="16" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="128" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A128" s="59" t="s">
+        <v>823</v>
+      </c>
+      <c r="B128" s="43" t="s">
         <v>824</v>
       </c>
-      <c r="B128" s="43" t="s">
+      <c r="C128" s="43" t="s">
         <v>825</v>
       </c>
-      <c r="C128" s="43" t="s">
-        <v>826</v>
-      </c>
       <c r="D128" s="43" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E128" s="43" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F128" s="43" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G128" s="43"/>
       <c r="H128" s="43" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I128" s="43"/>
       <c r="J128" s="43"/>
@@ -10397,31 +10394,31 @@
       <c r="M128" s="15"/>
       <c r="N128" s="13"/>
       <c r="O128" s="16" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="129" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A129" s="59" t="s">
+        <v>827</v>
+      </c>
+      <c r="B129" s="43" t="s">
         <v>828</v>
       </c>
-      <c r="B129" s="43" t="s">
-        <v>829</v>
-      </c>
       <c r="C129" s="43" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D129" s="43" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E129" s="43" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F129" s="43" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G129" s="43"/>
       <c r="H129" s="43" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I129" s="43"/>
       <c r="J129" s="43"/>
@@ -10434,31 +10431,31 @@
       <c r="M129" s="15"/>
       <c r="N129" s="13"/>
       <c r="O129" s="16" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="130" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A130" s="59" t="s">
+        <v>830</v>
+      </c>
+      <c r="B130" s="43" t="s">
         <v>831</v>
       </c>
-      <c r="B130" s="43" t="s">
+      <c r="C130" s="43" t="s">
         <v>832</v>
       </c>
-      <c r="C130" s="43" t="s">
-        <v>833</v>
-      </c>
       <c r="D130" s="43" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E130" s="43" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F130" s="43" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G130" s="43"/>
       <c r="H130" s="43" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I130" s="43"/>
       <c r="J130" s="43"/>
@@ -10471,31 +10468,31 @@
       <c r="M130" s="15"/>
       <c r="N130" s="13"/>
       <c r="O130" s="16" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="131" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A131" s="59" t="s">
+        <v>837</v>
+      </c>
+      <c r="B131" s="43" t="s">
+        <v>836</v>
+      </c>
+      <c r="C131" s="43" t="s">
         <v>838</v>
       </c>
-      <c r="B131" s="43" t="s">
-        <v>837</v>
-      </c>
-      <c r="C131" s="43" t="s">
-        <v>839</v>
-      </c>
       <c r="D131" s="43" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E131" s="43" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F131" s="43" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G131" s="43"/>
       <c r="H131" s="43" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I131" s="43"/>
       <c r="J131" s="43"/>
@@ -10508,31 +10505,31 @@
       <c r="M131" s="15"/>
       <c r="N131" s="13"/>
       <c r="O131" s="16" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="132" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A132" s="59" t="s">
+        <v>833</v>
+      </c>
+      <c r="B132" s="43" t="s">
         <v>834</v>
       </c>
-      <c r="B132" s="43" t="s">
+      <c r="C132" s="43" t="s">
         <v>835</v>
       </c>
-      <c r="C132" s="43" t="s">
-        <v>836</v>
-      </c>
       <c r="D132" s="43" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E132" s="43" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F132" s="43" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G132" s="43"/>
       <c r="H132" s="43" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I132" s="43"/>
       <c r="J132" s="43"/>
@@ -10545,35 +10542,35 @@
       <c r="M132" s="15"/>
       <c r="N132" s="13"/>
       <c r="O132" s="16" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="133" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A133" s="59" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B133" s="43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C133" s="43" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D133" s="43" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E133" s="43" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F133" s="43" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G133" s="43"/>
       <c r="H133" s="43" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I133" s="43"/>
       <c r="J133" s="43" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K133" s="14" t="s">
         <v>195</v>
@@ -10588,35 +10585,35 @@
         <v>1</v>
       </c>
       <c r="O133" s="16" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="134" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A134" s="59" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B134" s="43" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C134" s="43" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D134" s="43" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E134" s="43" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F134" s="43" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G134" s="43"/>
       <c r="H134" s="43" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I134" s="43"/>
       <c r="J134" s="43" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K134" s="14" t="s">
         <v>195</v>
@@ -10631,7 +10628,7 @@
         <v>1</v>
       </c>
       <c r="O134" s="16" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="135" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -10645,10 +10642,10 @@
         <v>205</v>
       </c>
       <c r="D135" s="24" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E135" s="24" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F135" s="24" t="s">
         <v>366</v>
@@ -10657,11 +10654,11 @@
         <v>206</v>
       </c>
       <c r="H135" s="24" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I135" s="24"/>
       <c r="J135" s="24" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K135" s="14" t="s">
         <v>195</v>
@@ -10685,24 +10682,24 @@
         <v>173</v>
       </c>
       <c r="C136" s="24" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D136" s="24" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E136" s="24" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F136" s="24" t="s">
         <v>366</v>
       </c>
       <c r="G136" s="24"/>
       <c r="H136" s="24" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I136" s="24"/>
       <c r="J136" s="24" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K136" s="14" t="s">
         <v>195</v>
@@ -10725,27 +10722,27 @@
         <v>260</v>
       </c>
       <c r="B137" s="26" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C137" s="24" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D137" s="24" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E137" s="24" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F137" s="24" t="s">
         <v>366</v>
       </c>
       <c r="G137" s="24"/>
       <c r="H137" s="24" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I137" s="24"/>
       <c r="J137" s="24" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K137" s="14" t="s">
         <v>195</v>
@@ -10771,24 +10768,24 @@
         <v>163</v>
       </c>
       <c r="C138" s="24" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D138" s="24" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E138" s="24" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F138" s="24" t="s">
         <v>366</v>
       </c>
       <c r="G138" s="24"/>
       <c r="H138" s="24" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I138" s="24"/>
       <c r="J138" s="24" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K138" s="14" t="s">
         <v>195</v>
@@ -10814,24 +10811,24 @@
         <v>165</v>
       </c>
       <c r="C139" s="24" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D139" s="24" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E139" s="24" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F139" s="24" t="s">
         <v>366</v>
       </c>
       <c r="G139" s="24"/>
       <c r="H139" s="24" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I139" s="24"/>
       <c r="J139" s="24" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K139" s="14" t="s">
         <v>195</v>
@@ -10860,21 +10857,21 @@
         <v>32</v>
       </c>
       <c r="D140" s="24" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E140" s="24" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F140" s="24" t="s">
         <v>366</v>
       </c>
       <c r="G140" s="24"/>
       <c r="H140" s="24" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I140" s="24"/>
       <c r="J140" s="24" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K140" s="14" t="s">
         <v>195</v>
@@ -10894,30 +10891,30 @@
     </row>
     <row r="141" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A141" s="25" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B141" s="26" t="s">
         <v>146</v>
       </c>
       <c r="C141" s="26" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D141" s="24" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E141" s="24" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F141" s="26" t="s">
         <v>366</v>
       </c>
       <c r="G141" s="26"/>
       <c r="H141" s="26" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I141" s="26"/>
       <c r="J141" s="26" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K141" s="14" t="s">
         <v>195</v>
@@ -10926,7 +10923,7 @@
         <v>195</v>
       </c>
       <c r="M141" s="58" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="N141" s="58" t="s">
         <v>1</v>
@@ -10934,30 +10931,30 @@
     </row>
     <row r="142" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A142" s="25" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B142" s="26" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C142" s="26" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D142" s="24" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E142" s="24" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F142" s="26" t="s">
         <v>366</v>
       </c>
       <c r="G142" s="26"/>
       <c r="H142" s="26" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I142" s="26"/>
       <c r="J142" s="26" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K142" s="14" t="s">
         <v>195</v>
@@ -10966,7 +10963,7 @@
         <v>195</v>
       </c>
       <c r="M142" s="58" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="N142" s="58" t="s">
         <v>1</v>
@@ -10974,39 +10971,39 @@
     </row>
     <row r="143" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A143" s="25" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B143" s="26" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C143" s="26" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D143" s="24" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E143" s="24" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F143" s="26" t="s">
         <v>366</v>
       </c>
       <c r="G143" s="26"/>
       <c r="H143" s="26" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I143" s="26"/>
       <c r="J143" s="26" t="s">
+        <v>711</v>
+      </c>
+      <c r="K143" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="L143" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="M143" s="58" t="s">
         <v>712</v>
-      </c>
-      <c r="K143" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="L143" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="M143" s="58" t="s">
-        <v>713</v>
       </c>
       <c r="N143" s="58" t="s">
         <v>1</v>
@@ -11014,30 +11011,30 @@
     </row>
     <row r="144" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A144" s="25" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B144" s="26" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C144" s="26" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D144" s="24" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E144" s="24" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F144" s="26" t="s">
         <v>366</v>
       </c>
       <c r="G144" s="26"/>
       <c r="H144" s="26" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I144" s="26"/>
       <c r="J144" s="26" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="K144" s="14" t="s">
         <v>195</v>
@@ -11055,30 +11052,30 @@
     </row>
     <row r="145" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A145" s="25" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B145" s="26" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C145" s="26" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D145" s="24" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E145" s="24" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F145" s="26" t="s">
         <v>366</v>
       </c>
       <c r="G145" s="26"/>
       <c r="H145" s="26" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I145" s="26"/>
       <c r="J145" s="26" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="K145" s="14" t="s">
         <v>195</v>
@@ -11087,7 +11084,7 @@
         <v>195</v>
       </c>
       <c r="M145" s="58" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="N145" s="58" t="s">
         <v>1</v>
@@ -11096,30 +11093,30 @@
     </row>
     <row r="146" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A146" s="25" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B146" s="26" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C146" s="26" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D146" s="24" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E146" s="24" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F146" s="26" t="s">
         <v>366</v>
       </c>
       <c r="G146" s="26"/>
       <c r="H146" s="26" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I146" s="26"/>
       <c r="J146" s="26" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="K146" s="14" t="s">
         <v>195</v>
@@ -11128,7 +11125,7 @@
         <v>195</v>
       </c>
       <c r="M146" s="58" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="N146" s="58" t="s">
         <v>1</v>
@@ -11137,30 +11134,30 @@
     </row>
     <row r="147" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A147" s="25" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B147" s="26" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C147" s="26" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D147" s="24" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E147" s="24" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F147" s="26" t="s">
         <v>366</v>
       </c>
       <c r="G147" s="26"/>
       <c r="H147" s="26" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I147" s="26"/>
       <c r="J147" s="26" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="K147" s="14" t="s">
         <v>195</v>
@@ -11169,7 +11166,7 @@
         <v>195</v>
       </c>
       <c r="M147" s="58" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="N147" s="58" t="s">
         <v>1</v>
@@ -11178,30 +11175,30 @@
     </row>
     <row r="148" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A148" s="25" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B148" s="26" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C148" s="26" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D148" s="24" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E148" s="24" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F148" s="26" t="s">
         <v>366</v>
       </c>
       <c r="G148" s="26"/>
       <c r="H148" s="26" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I148" s="26"/>
       <c r="J148" s="26" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="K148" s="14" t="s">
         <v>195</v>
@@ -11210,7 +11207,7 @@
         <v>195</v>
       </c>
       <c r="M148" s="58" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="N148" s="58" t="s">
         <v>1</v>
@@ -11219,26 +11216,26 @@
     </row>
     <row r="149" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A149" s="25" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B149" s="26" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C149" s="26" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D149" s="24" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E149" s="24" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F149" s="26" t="s">
         <v>414</v>
       </c>
       <c r="G149" s="26"/>
       <c r="H149" s="26" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I149" s="26"/>
       <c r="J149" s="26" t="s">
@@ -11251,7 +11248,7 @@
         <v>195</v>
       </c>
       <c r="M149" s="58" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="N149" s="58" t="s">
         <v>1</v>
@@ -11268,24 +11265,24 @@
         <v>143</v>
       </c>
       <c r="C150" s="26" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D150" s="24" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E150" s="24" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F150" s="26" t="s">
         <v>414</v>
       </c>
       <c r="G150" s="26"/>
       <c r="H150" s="26" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I150" s="26"/>
       <c r="J150" s="26" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K150" s="14" t="s">
         <v>195</v>
@@ -11314,21 +11311,21 @@
         <v>344</v>
       </c>
       <c r="D151" s="24" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E151" s="24" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F151" s="26" t="s">
         <v>414</v>
       </c>
       <c r="G151" s="26"/>
       <c r="H151" s="26" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I151" s="26"/>
       <c r="J151" s="26" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="K151" s="14" t="s">
         <v>195</v>
@@ -11357,21 +11354,21 @@
         <v>435</v>
       </c>
       <c r="D152" s="24" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E152" s="24" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F152" s="26" t="s">
         <v>414</v>
       </c>
       <c r="G152" s="26"/>
       <c r="H152" s="26" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I152" s="26"/>
       <c r="J152" s="26" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="K152" s="14" t="s">
         <v>195</v>
@@ -11397,24 +11394,24 @@
         <v>167</v>
       </c>
       <c r="C153" s="26" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D153" s="24" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E153" s="24" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F153" s="26" t="s">
         <v>414</v>
       </c>
       <c r="G153" s="26"/>
       <c r="H153" s="26" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I153" s="26"/>
       <c r="J153" s="26" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K153" s="14" t="s">
         <v>195</v>
@@ -11443,21 +11440,21 @@
         <v>346</v>
       </c>
       <c r="D154" s="24" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E154" s="24" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F154" s="26" t="s">
         <v>414</v>
       </c>
       <c r="G154" s="26"/>
       <c r="H154" s="26" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I154" s="26"/>
       <c r="J154" s="26" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="K154" s="14" t="s">
         <v>195</v>
@@ -11483,24 +11480,24 @@
         <v>148</v>
       </c>
       <c r="C155" s="26" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D155" s="24" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E155" s="24" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F155" s="26" t="s">
         <v>414</v>
       </c>
       <c r="G155" s="26"/>
       <c r="H155" s="26" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I155" s="26"/>
       <c r="J155" s="26" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K155" s="14" t="s">
         <v>195</v>
@@ -11526,24 +11523,24 @@
         <v>160</v>
       </c>
       <c r="C156" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D156" s="24" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E156" s="24" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F156" s="26" t="s">
         <v>414</v>
       </c>
       <c r="G156" s="26"/>
       <c r="H156" s="26" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I156" s="26"/>
       <c r="J156" s="26" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K156" s="14" t="s">
         <v>195</v>
@@ -11558,35 +11555,35 @@
         <v>474</v>
       </c>
       <c r="O156" s="16" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="157" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A157" s="25" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B157" s="26" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C157" s="26" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D157" s="24" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E157" s="24" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F157" s="26" t="s">
         <v>414</v>
       </c>
       <c r="G157" s="26"/>
       <c r="H157" s="26" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I157" s="26"/>
       <c r="J157" s="26" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="K157" s="14" t="s">
         <v>195</v>
@@ -11601,131 +11598,131 @@
         <v>1</v>
       </c>
       <c r="O157" s="16" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="158" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A158" s="44" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B158" s="45" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C158" s="45" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D158" s="45" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E158" s="45" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F158" s="45" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G158" s="45" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H158" s="45" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I158" s="45"/>
       <c r="J158" s="45" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K158" s="14" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="L158" s="14" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="M158" s="58" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="N158" s="58" t="s">
         <v>1</v>
       </c>
       <c r="O158" s="16" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="159" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A159" s="44" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B159" s="45" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C159" s="45" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D159" s="45" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E159" s="45" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F159" s="45" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G159" s="45" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H159" s="45" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I159" s="45">
         <v>1</v>
       </c>
       <c r="J159" s="45" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K159" s="14" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="L159" s="14" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="M159" s="58" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="N159" s="58" t="s">
         <v>1</v>
       </c>
       <c r="O159" s="16" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="160" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A160" s="44" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B160" s="45" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C160" s="45" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D160" s="45" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E160" s="45" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F160" s="45" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G160" s="45" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H160" s="45" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I160" s="45">
         <v>1</v>
       </c>
       <c r="J160" s="45" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K160" s="14" t="s">
         <v>195</v>
@@ -11734,39 +11731,39 @@
         <v>195</v>
       </c>
       <c r="M160" s="58" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="N160" s="58" t="s">
         <v>1</v>
       </c>
       <c r="O160" s="16" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="161" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A161" s="44" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B161" s="45" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C161" s="45" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D161" s="45" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E161" s="45" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F161" s="45" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G161" s="45" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H161" s="45" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I161" s="45">
         <v>1</v>
@@ -11781,92 +11778,92 @@
         <v>195</v>
       </c>
       <c r="M161" s="58" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="N161" s="58" t="s">
         <v>1</v>
       </c>
       <c r="O161" s="16" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="162" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A162" s="44" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B162" s="45" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C162" s="45" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D162" s="45" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E162" s="45" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F162" s="45" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G162" s="45" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H162" s="45" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I162" s="45">
         <v>1</v>
       </c>
       <c r="J162" s="45" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K162" s="14" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="L162" s="14" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="M162" s="58" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="N162" s="58" t="s">
         <v>1</v>
       </c>
       <c r="O162" s="16" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="163" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A163" s="44" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B163" s="45" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C163" s="45" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D163" s="45" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E163" s="45" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F163" s="45" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G163" s="45" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H163" s="45" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I163" s="45">
         <v>1</v>
       </c>
       <c r="J163" s="45" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K163" s="14" t="s">
         <v>195</v>
@@ -11881,39 +11878,39 @@
         <v>1</v>
       </c>
       <c r="O163" s="16" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="164" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A164" s="44" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B164" s="45" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C164" s="45" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D164" s="45" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E164" s="45" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F164" s="45" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G164" s="45" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H164" s="45" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I164" s="45">
         <v>1</v>
       </c>
       <c r="J164" s="45" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="K164" s="14" t="s">
         <v>195</v>
@@ -11933,81 +11930,81 @@
     </row>
     <row r="165" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A165" s="44" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B165" s="45" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C165" s="45" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D165" s="45" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E165" s="45" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F165" s="45" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G165" s="45" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H165" s="45" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I165" s="45">
         <v>3</v>
       </c>
       <c r="J165" s="45" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K165" s="14" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="L165" s="14" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="M165" s="58" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="N165" s="58" t="s">
         <v>1</v>
       </c>
       <c r="O165" s="16" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="166" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A166" s="44" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B166" s="45" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C166" s="45" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D166" s="45" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E166" s="45" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F166" s="45" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G166" s="45" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H166" s="45" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I166" s="45">
         <v>3</v>
       </c>
       <c r="J166" s="45" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K166" s="14" t="s">
         <v>195</v>
@@ -12016,43 +12013,43 @@
         <v>195</v>
       </c>
       <c r="M166" s="58" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="N166" s="58"/>
       <c r="O166" s="16" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="167" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A167" s="44" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B167" s="45" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C167" s="45" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D167" s="45" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E167" s="45" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F167" s="45" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G167" s="45" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H167" s="45" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I167" s="45">
         <v>3</v>
       </c>
       <c r="J167" s="45" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K167" s="14" t="s">
         <v>195</v>
@@ -12065,33 +12062,33 @@
       </c>
       <c r="N167" s="58"/>
       <c r="O167" s="16" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="168" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A168" s="44" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B168" s="45" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C168" s="45" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D168" s="45" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E168" s="45" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F168" s="45" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G168" s="45" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H168" s="45" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I168" s="45">
         <v>3</v>
@@ -12106,11 +12103,11 @@
         <v>195</v>
       </c>
       <c r="M168" s="58" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="N168" s="58"/>
       <c r="O168" s="16" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.2">
@@ -12148,7 +12145,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>117</v>
@@ -12160,7 +12157,7 @@
         <v>189</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>118</v>
@@ -12175,7 +12172,7 @@
         <v>471</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -12189,26 +12186,26 @@
         <v>378</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F2" s="40" t="s">
         <v>189</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H2" s="40"/>
       <c r="I2" s="40" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J2" s="41" t="s">
         <v>190</v>
       </c>
       <c r="K2" s="41" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>380</v>
@@ -12222,31 +12219,31 @@
     </row>
     <row r="7" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
+        <v>625</v>
+      </c>
+      <c r="B7" s="45" t="s">
         <v>626</v>
       </c>
-      <c r="B7" s="45" t="s">
-        <v>627</v>
-      </c>
       <c r="C7" s="45" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G7" s="45" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H7" s="45">
         <v>1</v>
       </c>
       <c r="I7" s="45" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J7" s="14" t="s">
         <v>195</v>
@@ -12266,41 +12263,41 @@
     </row>
     <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F8" s="34" t="s">
         <v>189</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I8" s="34"/>
       <c r="J8" s="34" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K8" s="29" t="s">
         <v>79</v>
       </c>
       <c r="L8" s="29" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="M8" s="50" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="N8" s="13" t="s">
         <v>1</v>

--- a/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B348C4-D420-1149-B5D0-A409E135AAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB917C21-47FD-D34F-907F-B414BC3D909D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23120" yWindow="940" windowWidth="23260" windowHeight="24280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4740,8 +4740,8 @@
   <dimension ref="A1:P169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G141" sqref="G141"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F145" sqref="F145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB917C21-47FD-D34F-907F-B414BC3D909D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3317A397-50A5-4A4E-B41E-34C92A9636BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23120" yWindow="940" windowWidth="23260" windowHeight="24280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4740,8 +4740,8 @@
   <dimension ref="A1:P169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F145" sqref="F145"/>
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B133" sqref="A1:P168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/core/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3317A397-50A5-4A4E-B41E-34C92A9636BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45167AB6-678F-684C-A84D-F3068019D589}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23120" yWindow="940" windowWidth="23260" windowHeight="24280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flavi.txt" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">flavi.txt!$A$1:$O$120</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="140001"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -38,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2475" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3016" uniqueCount="1050">
   <si>
     <t>AY632538</t>
   </si>
@@ -2576,19 +2567,630 @@
   </si>
   <si>
     <t>Chondricthyes</t>
+  </si>
+  <si>
+    <t>Guereza hepacivirus</t>
+  </si>
+  <si>
+    <t>NC_031950</t>
+  </si>
+  <si>
+    <t>Hepacivirus I</t>
+  </si>
+  <si>
+    <t>NC_038428</t>
+  </si>
+  <si>
+    <t>GuHV</t>
+  </si>
+  <si>
+    <t>HVI</t>
+  </si>
+  <si>
+    <t>Rodent (Rhabdomys pumilio)</t>
+  </si>
+  <si>
+    <t>Hepacivirus F</t>
+  </si>
+  <si>
+    <t>NC_038427</t>
+  </si>
+  <si>
+    <t>Rodent (Myodes glareolus)</t>
+  </si>
+  <si>
+    <t>HVF</t>
+  </si>
+  <si>
+    <t>Hepacivirus J</t>
+  </si>
+  <si>
+    <t>NC_038429</t>
+  </si>
+  <si>
+    <t>HVJ</t>
+  </si>
+  <si>
+    <t>NC_040815</t>
+  </si>
+  <si>
+    <t>Hepacivirus P</t>
+  </si>
+  <si>
+    <t>HVP</t>
+  </si>
+  <si>
+    <t>Rodent (Citellus dauricus Brandt)</t>
+  </si>
+  <si>
+    <t>NC_031947</t>
+  </si>
+  <si>
+    <t>Bat Hepacivirus</t>
+  </si>
+  <si>
+    <t>BHV</t>
+  </si>
+  <si>
+    <t>Bat (Otomops martiensseni)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC_038432 </t>
+  </si>
+  <si>
+    <t>Hepacivirus N</t>
+  </si>
+  <si>
+    <t>HVN</t>
+  </si>
+  <si>
+    <t>Hepacivirus K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC_038430 </t>
+  </si>
+  <si>
+    <t>HVK</t>
+  </si>
+  <si>
+    <t>Bat (Hipposideros vittatus)</t>
+  </si>
+  <si>
+    <t>NC_038426</t>
+  </si>
+  <si>
+    <t>Hepacivirus B</t>
+  </si>
+  <si>
+    <t>Primate (Tamarin)</t>
+  </si>
+  <si>
+    <t>HVB</t>
+  </si>
+  <si>
+    <t>NC_031916</t>
+  </si>
+  <si>
+    <t>Hepacivirus L</t>
+  </si>
+  <si>
+    <t>HVL</t>
+  </si>
+  <si>
+    <t>Hepacivirus M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC_038431 </t>
+  </si>
+  <si>
+    <t>HVM</t>
+  </si>
+  <si>
+    <t>GBVB</t>
+  </si>
+  <si>
+    <t>Hepatitis GB virus B</t>
+  </si>
+  <si>
+    <t>NC_001655</t>
+  </si>
+  <si>
+    <t>BK013349</t>
+  </si>
+  <si>
+    <t>Bat Hepacivirus PM_01</t>
+  </si>
+  <si>
+    <t>BHV-PM_01</t>
+  </si>
+  <si>
+    <t>Bat (Peropteryx_macrotis)</t>
+  </si>
+  <si>
+    <t>Sloths (Bradypus variegatus)</t>
+  </si>
+  <si>
+    <t>MH844500</t>
+  </si>
+  <si>
+    <t>Sloth hepacivirus</t>
+  </si>
+  <si>
+    <t>SHV</t>
+  </si>
+  <si>
+    <t>MZ393518</t>
+  </si>
+  <si>
+    <t>Ringtail Racoon Hepacivirus</t>
+  </si>
+  <si>
+    <t>RRHV</t>
+  </si>
+  <si>
+    <t>Racoon (Bassariscus astutus)</t>
+  </si>
+  <si>
+    <t>Jogalong Hepacivirus</t>
+  </si>
+  <si>
+    <t>JHV</t>
+  </si>
+  <si>
+    <t>MN133813</t>
+  </si>
+  <si>
+    <t>Sifaka Hepacivirus</t>
+  </si>
+  <si>
+    <t>Primate (Lemur)</t>
+  </si>
+  <si>
+    <t>MK026585</t>
+  </si>
+  <si>
+    <t>Collins Beach Virus</t>
+  </si>
+  <si>
+    <t>CBV</t>
+  </si>
+  <si>
+    <t>Insect (Ixodes holocyclus)?</t>
+  </si>
+  <si>
+    <t>Insect (culex annulirostris)?</t>
+  </si>
+  <si>
+    <t>Canine Hepacivirus</t>
+  </si>
+  <si>
+    <t>CHV</t>
+  </si>
+  <si>
+    <t>Dog</t>
+  </si>
+  <si>
+    <t>Sigmodontinae hepacivirus</t>
+  </si>
+  <si>
+    <t>Rodent (oligoryzomys nigripes)</t>
+  </si>
+  <si>
+    <t>Chinese softshell turtle hepacivirus</t>
+  </si>
+  <si>
+    <t>MG599999</t>
+  </si>
+  <si>
+    <t>STHV</t>
+  </si>
+  <si>
+    <t>Turtle (Pelodiscus sinensis)</t>
+  </si>
+  <si>
+    <t>Guangxi houndshark hepacivirus</t>
+  </si>
+  <si>
+    <t>GHHV</t>
+  </si>
+  <si>
+    <t>Shark (Mustelus manazo)</t>
+  </si>
+  <si>
+    <t>Xiamen sepia Stingray hepacivirus</t>
+  </si>
+  <si>
+    <t>XSSHV</t>
+  </si>
+  <si>
+    <t>Ray (Urolophus aurantiacus)</t>
+  </si>
+  <si>
+    <t>Bald Eagle Hepacivirus</t>
+  </si>
+  <si>
+    <t>Eagle (Haliaeetus leucocephalus)</t>
+  </si>
+  <si>
+    <t>Duck Hepacivirus</t>
+  </si>
+  <si>
+    <t>Duck</t>
+  </si>
+  <si>
+    <t>African Lungfish Hepacivirus</t>
+  </si>
+  <si>
+    <t>BEHV</t>
+  </si>
+  <si>
+    <t>DHV</t>
+  </si>
+  <si>
+    <t>ALHV</t>
+  </si>
+  <si>
+    <t>Lung Fish</t>
+  </si>
+  <si>
+    <t>Nanhai dogfish shark hepacivirus</t>
+  </si>
+  <si>
+    <t>NDSHV</t>
+  </si>
+  <si>
+    <t>Dogfish Shark</t>
+  </si>
+  <si>
+    <t>Guangxi chinese leopard gecko hepacivirus</t>
+  </si>
+  <si>
+    <t>LPHV</t>
+  </si>
+  <si>
+    <t>Leopard Gecko</t>
+  </si>
+  <si>
+    <t>Gecko (Teratoscincus roborowskii)</t>
+  </si>
+  <si>
+    <t>YTRHV</t>
+  </si>
+  <si>
+    <t>MT371443</t>
+  </si>
+  <si>
+    <t>Koala Hepacivirus</t>
+  </si>
+  <si>
+    <t>MT371442</t>
+  </si>
+  <si>
+    <t>Pelican Hepacivirus</t>
+  </si>
+  <si>
+    <t>MT371441</t>
+  </si>
+  <si>
+    <t>Magpie Hepacivirus</t>
+  </si>
+  <si>
+    <t>MT371440</t>
+  </si>
+  <si>
+    <t>Bandicoot Hepacivirus</t>
+  </si>
+  <si>
+    <t>MT371439</t>
+  </si>
+  <si>
+    <t>Gecko Hepacivirus</t>
+  </si>
+  <si>
+    <t>MT371437</t>
+  </si>
+  <si>
+    <t>Marmoset Hepacivirus</t>
+  </si>
+  <si>
+    <t>MT371436</t>
+  </si>
+  <si>
+    <t>Blue Tit Hepacivirus</t>
+  </si>
+  <si>
+    <t>MT371434</t>
+  </si>
+  <si>
+    <t>Bush Baby Hepacivirus</t>
+  </si>
+  <si>
+    <t>KHV</t>
+  </si>
+  <si>
+    <t>PHV</t>
+  </si>
+  <si>
+    <t>MHV</t>
+  </si>
+  <si>
+    <t>GHV</t>
+  </si>
+  <si>
+    <t>MpHV</t>
+  </si>
+  <si>
+    <t>BcHV</t>
+  </si>
+  <si>
+    <t>BTHV</t>
+  </si>
+  <si>
+    <t>BBHV</t>
+  </si>
+  <si>
+    <t>Koala</t>
+  </si>
+  <si>
+    <t>Pelican</t>
+  </si>
+  <si>
+    <t>Magpie</t>
+  </si>
+  <si>
+    <t>Bandicoot</t>
+  </si>
+  <si>
+    <t>Gecko</t>
+  </si>
+  <si>
+    <t>Marmoset</t>
+  </si>
+  <si>
+    <t>Blue Tit</t>
+  </si>
+  <si>
+    <t>Bush Baby</t>
+  </si>
+  <si>
+    <t>Bat Pegivirus</t>
+  </si>
+  <si>
+    <t>BPV</t>
+  </si>
+  <si>
+    <t>Bat</t>
+  </si>
+  <si>
+    <t>Pegivirus B/GB-Virus D</t>
+  </si>
+  <si>
+    <t>GBVD</t>
+  </si>
+  <si>
+    <t>Pegivirus I</t>
+  </si>
+  <si>
+    <t>PVI</t>
+  </si>
+  <si>
+    <t>Bat (sturnira lilium)</t>
+  </si>
+  <si>
+    <t>Porcine Pegivirus</t>
+  </si>
+  <si>
+    <t>PPV</t>
+  </si>
+  <si>
+    <t>Pegivirus K</t>
+  </si>
+  <si>
+    <t>PVK</t>
+  </si>
+  <si>
+    <t>Dophin Pegivirus</t>
+  </si>
+  <si>
+    <t>DPV</t>
+  </si>
+  <si>
+    <t>Dolphin</t>
+  </si>
+  <si>
+    <t>NC_038434</t>
+  </si>
+  <si>
+    <t>Pegivirus F</t>
+  </si>
+  <si>
+    <t>Bat (Carollia perspicillata)</t>
+  </si>
+  <si>
+    <t>PVF</t>
+  </si>
+  <si>
+    <t>Pegivirus G</t>
+  </si>
+  <si>
+    <t>PVG</t>
+  </si>
+  <si>
+    <t>Bat (Scotophilus dinganii)</t>
+  </si>
+  <si>
+    <t>Goose Pegivirus</t>
+  </si>
+  <si>
+    <t>GPV</t>
+  </si>
+  <si>
+    <t>Geese (Anser cygnoides)</t>
+  </si>
+  <si>
+    <t>Bat Pestivirus V4</t>
+  </si>
+  <si>
+    <t>BPVV4</t>
+  </si>
+  <si>
+    <t>Bat Pestivirus V3</t>
+  </si>
+  <si>
+    <t>BPVV3</t>
+  </si>
+  <si>
+    <t>Bat Pestivirus V1</t>
+  </si>
+  <si>
+    <t>BPVV1</t>
+  </si>
+  <si>
+    <t>Rodent Pestivirus Nn</t>
+  </si>
+  <si>
+    <t>RPVNn</t>
+  </si>
+  <si>
+    <t>Rodent Pestivirus Ad</t>
+  </si>
+  <si>
+    <t>RPVAd</t>
+  </si>
+  <si>
+    <t>Rodent Pestivirus Ap</t>
+  </si>
+  <si>
+    <t>RPVAp</t>
+  </si>
+  <si>
+    <t>Rodent Pestivirus Ne</t>
+  </si>
+  <si>
+    <t>RPVNe</t>
+  </si>
+  <si>
+    <t>Rodent</t>
+  </si>
+  <si>
+    <t>Giraffe Pestivirus</t>
+  </si>
+  <si>
+    <t>Giraffe</t>
+  </si>
+  <si>
+    <t>NC_035432</t>
+  </si>
+  <si>
+    <t>Linda Virus</t>
+  </si>
+  <si>
+    <t>LPV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC_018713 </t>
+  </si>
+  <si>
+    <t>Aydin Virus</t>
+  </si>
+  <si>
+    <t>APV</t>
+  </si>
+  <si>
+    <t>MT513216</t>
+  </si>
+  <si>
+    <t>Southwest bike trail virus</t>
+  </si>
+  <si>
+    <t>SOBV</t>
+  </si>
+  <si>
+    <t>primate (Aotus trivirgatus)</t>
+  </si>
+  <si>
+    <t>NC_038435</t>
+  </si>
+  <si>
+    <t>MW091548</t>
+  </si>
+  <si>
+    <t>MH282911</t>
+  </si>
+  <si>
+    <t>MH282910</t>
+  </si>
+  <si>
+    <t>MH282908</t>
+  </si>
+  <si>
+    <t>KY370103</t>
+  </si>
+  <si>
+    <t>KY370102</t>
+  </si>
+  <si>
+    <t>KY370100</t>
+  </si>
+  <si>
+    <t>KY370099</t>
+  </si>
+  <si>
+    <t>MG599995</t>
+  </si>
+  <si>
+    <t>MG599988</t>
+  </si>
+  <si>
+    <t>MG599994</t>
+  </si>
+  <si>
+    <t>MG599992</t>
+  </si>
+  <si>
+    <t>KU351670</t>
+  </si>
+  <si>
+    <t>MK059751</t>
+  </si>
+  <si>
+    <t>MH824541</t>
+  </si>
+  <si>
+    <t>JQ181558</t>
+  </si>
+  <si>
+    <t>MH370348</t>
+  </si>
+  <si>
+    <t>MN062427</t>
+  </si>
+  <si>
+    <t>MK737641</t>
+  </si>
+  <si>
+    <t>KC796073</t>
+  </si>
+  <si>
+    <t>NC_030291</t>
+  </si>
+  <si>
+    <t>KC796088</t>
+  </si>
+  <si>
+    <t>NC_034442</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2660,6 +3262,36 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF575757"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="25">
@@ -2817,7 +3449,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="725">
+  <cellStyleXfs count="776">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3543,8 +4175,59 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3674,8 +4357,29 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="725">
+  <cellStyles count="776">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4090,6 +4794,57 @@
     <cellStyle name="Followed Hyperlink" xfId="722" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="723" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="724" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="725" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="726" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="727" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="728" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="729" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="730" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="731" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="732" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="733" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="734" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="735" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="736" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="737" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="738" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="739" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="740" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="741" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="742" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="743" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="744" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="745" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="746" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="747" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="748" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="749" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="750" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="751" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="752" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="753" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="754" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="755" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="756" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="757" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="758" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="759" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="760" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="761" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="762" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="763" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="764" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="765" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="766" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="767" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="768" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="769" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="770" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="771" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="772" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="773" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="774" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="775" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4737,11 +5492,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P169"/>
+  <dimension ref="A1:P225"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B133" sqref="A1:P168"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B197" sqref="A1:P225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12665,8 +13420,1859 @@
         <v>729</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A169" s="1"/>
+    <row r="169" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C169" s="26" t="s">
+        <v>850</v>
+      </c>
+      <c r="D169" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="E169" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="F169" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="G169" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="H169" s="26"/>
+      <c r="I169" s="26" t="s">
+        <v>815</v>
+      </c>
+      <c r="K169" s="26" t="s">
+        <v>580</v>
+      </c>
+      <c r="L169" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="M169" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A170" s="65" t="s">
+        <v>849</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="C170" s="26" t="s">
+        <v>851</v>
+      </c>
+      <c r="D170" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="E170" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="F170" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="G170" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="H170" s="26"/>
+      <c r="I170" s="26" t="s">
+        <v>815</v>
+      </c>
+      <c r="K170" s="26" t="s">
+        <v>852</v>
+      </c>
+      <c r="L170" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="M170" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A171" s="65" t="s">
+        <v>854</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="C171" s="26" t="s">
+        <v>856</v>
+      </c>
+      <c r="D171" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="E171" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="F171" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="G171" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="H171" s="26"/>
+      <c r="I171" s="26" t="s">
+        <v>815</v>
+      </c>
+      <c r="K171" s="26" t="s">
+        <v>855</v>
+      </c>
+      <c r="L171" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="M171" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A172" s="65" t="s">
+        <v>858</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="C172" s="26" t="s">
+        <v>859</v>
+      </c>
+      <c r="D172" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="E172" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="F172" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="G172" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="H172" s="26"/>
+      <c r="I172" s="26" t="s">
+        <v>815</v>
+      </c>
+      <c r="K172" s="26" t="s">
+        <v>855</v>
+      </c>
+      <c r="L172" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="M172" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A173" s="65" t="s">
+        <v>860</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C173" s="26" t="s">
+        <v>862</v>
+      </c>
+      <c r="D173" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="E173" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="F173" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="G173" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="H173" s="26"/>
+      <c r="I173" s="26" t="s">
+        <v>815</v>
+      </c>
+      <c r="K173" s="26" t="s">
+        <v>863</v>
+      </c>
+      <c r="L173" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="M173" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A174" s="65" t="s">
+        <v>864</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="C174" s="26" t="s">
+        <v>866</v>
+      </c>
+      <c r="D174" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="E174" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="F174" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="G174" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="H174" s="26"/>
+      <c r="I174" s="26" t="s">
+        <v>815</v>
+      </c>
+      <c r="K174" s="26" t="s">
+        <v>867</v>
+      </c>
+      <c r="L174" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="M174" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A175" s="65" t="s">
+        <v>868</v>
+      </c>
+      <c r="B175" s="65" t="s">
+        <v>869</v>
+      </c>
+      <c r="C175" s="26" t="s">
+        <v>870</v>
+      </c>
+      <c r="D175" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="E175" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="F175" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="G175" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="H175" s="26"/>
+      <c r="I175" s="26" t="s">
+        <v>815</v>
+      </c>
+      <c r="K175" s="26" t="s">
+        <v>517</v>
+      </c>
+      <c r="L175" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="M175" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A176" s="65" t="s">
+        <v>872</v>
+      </c>
+      <c r="B176" s="65" t="s">
+        <v>871</v>
+      </c>
+      <c r="C176" s="26" t="s">
+        <v>873</v>
+      </c>
+      <c r="D176" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="E176" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="F176" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="G176" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="H176" s="26"/>
+      <c r="I176" s="26" t="s">
+        <v>815</v>
+      </c>
+      <c r="K176" s="26" t="s">
+        <v>874</v>
+      </c>
+      <c r="L176" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="M176" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A177" s="65" t="s">
+        <v>875</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="C177" s="26" t="s">
+        <v>878</v>
+      </c>
+      <c r="D177" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="E177" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="F177" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="G177" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="H177" s="26"/>
+      <c r="I177" s="26" t="s">
+        <v>815</v>
+      </c>
+      <c r="K177" s="26" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A178" s="65" t="s">
+        <v>879</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="C178" s="26" t="s">
+        <v>881</v>
+      </c>
+      <c r="D178" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="E178" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="F178" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="G178" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="H178" s="26"/>
+      <c r="I178" s="26" t="s">
+        <v>815</v>
+      </c>
+      <c r="K178" s="26" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A179" s="65" t="s">
+        <v>883</v>
+      </c>
+      <c r="B179" s="65" t="s">
+        <v>882</v>
+      </c>
+      <c r="C179" s="26" t="s">
+        <v>884</v>
+      </c>
+      <c r="D179" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="E179" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="F179" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="G179" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="H179" s="26"/>
+      <c r="I179" s="26" t="s">
+        <v>815</v>
+      </c>
+      <c r="K179" s="26" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A180" s="65" t="s">
+        <v>887</v>
+      </c>
+      <c r="B180" s="65" t="s">
+        <v>886</v>
+      </c>
+      <c r="C180" s="26" t="s">
+        <v>885</v>
+      </c>
+      <c r="D180" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="E180" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="F180" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="G180" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="H180" s="26"/>
+      <c r="I180" s="26" t="s">
+        <v>815</v>
+      </c>
+      <c r="K180" s="26" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A181" s="65" t="s">
+        <v>888</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="C181" s="26" t="s">
+        <v>890</v>
+      </c>
+      <c r="D181" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="E181" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="F181" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="G181" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="H181" s="26"/>
+      <c r="I181" s="26" t="s">
+        <v>815</v>
+      </c>
+      <c r="K181" s="26" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A182" s="65" t="s">
+        <v>893</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="C182" s="26" t="s">
+        <v>895</v>
+      </c>
+      <c r="D182" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="E182" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="F182" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="G182" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="H182" s="26"/>
+      <c r="I182" s="26" t="s">
+        <v>815</v>
+      </c>
+      <c r="K182" s="26" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A183" s="65" t="s">
+        <v>896</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="C183" s="26" t="s">
+        <v>898</v>
+      </c>
+      <c r="D183" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="E183" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="F183" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="G183" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="H183" s="26"/>
+      <c r="I183" s="26" t="s">
+        <v>815</v>
+      </c>
+      <c r="K183" s="65" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A184" s="65" t="s">
+        <v>902</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="C184" s="26" t="s">
+        <v>901</v>
+      </c>
+      <c r="D184" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="E184" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="F184" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="G184" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="H184" s="26"/>
+      <c r="I184" s="26" t="s">
+        <v>815</v>
+      </c>
+      <c r="K184" s="26" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" s="69" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A185" s="73" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B185" s="70" t="s">
+        <v>903</v>
+      </c>
+      <c r="C185" s="71" t="s">
+        <v>895</v>
+      </c>
+      <c r="D185" s="72" t="s">
+        <v>733</v>
+      </c>
+      <c r="E185" s="72" t="s">
+        <v>744</v>
+      </c>
+      <c r="F185" s="72" t="s">
+        <v>744</v>
+      </c>
+      <c r="G185" s="71" t="s">
+        <v>366</v>
+      </c>
+      <c r="H185" s="71"/>
+      <c r="I185" s="71" t="s">
+        <v>815</v>
+      </c>
+      <c r="K185" s="71" t="s">
+        <v>904</v>
+      </c>
+      <c r="L185" s="70"/>
+      <c r="M185" s="70"/>
+      <c r="N185" s="70"/>
+    </row>
+    <row r="186" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A186" s="65" t="s">
+        <v>905</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="C186" s="26" t="s">
+        <v>907</v>
+      </c>
+      <c r="D186" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="E186" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="F186" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="G186" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="H186" s="26"/>
+      <c r="I186" s="26" t="s">
+        <v>815</v>
+      </c>
+      <c r="K186" s="26" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" s="69" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A187" s="73" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B187" s="70" t="s">
+        <v>910</v>
+      </c>
+      <c r="C187" s="71" t="s">
+        <v>911</v>
+      </c>
+      <c r="D187" s="72" t="s">
+        <v>733</v>
+      </c>
+      <c r="E187" s="72" t="s">
+        <v>744</v>
+      </c>
+      <c r="F187" s="72" t="s">
+        <v>744</v>
+      </c>
+      <c r="G187" s="71" t="s">
+        <v>366</v>
+      </c>
+      <c r="H187" s="71"/>
+      <c r="I187" s="71" t="s">
+        <v>815</v>
+      </c>
+      <c r="K187" s="71" t="s">
+        <v>912</v>
+      </c>
+      <c r="L187" s="70"/>
+      <c r="M187" s="70"/>
+      <c r="N187" s="70"/>
+    </row>
+    <row r="188" spans="1:14" s="69" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A188" s="73" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B188" s="73" t="s">
+        <v>913</v>
+      </c>
+      <c r="C188" s="71" t="s">
+        <v>895</v>
+      </c>
+      <c r="D188" s="72" t="s">
+        <v>733</v>
+      </c>
+      <c r="E188" s="72" t="s">
+        <v>744</v>
+      </c>
+      <c r="F188" s="72" t="s">
+        <v>744</v>
+      </c>
+      <c r="G188" s="71" t="s">
+        <v>366</v>
+      </c>
+      <c r="H188" s="71"/>
+      <c r="I188" s="71" t="s">
+        <v>815</v>
+      </c>
+      <c r="K188" s="71" t="s">
+        <v>914</v>
+      </c>
+      <c r="L188" s="70"/>
+      <c r="M188" s="70"/>
+      <c r="N188" s="70"/>
+    </row>
+    <row r="189" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A189" s="66" t="s">
+        <v>916</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="C189" s="26" t="s">
+        <v>917</v>
+      </c>
+      <c r="D189" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="E189" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="F189" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="G189" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="H189" s="26"/>
+      <c r="I189" s="26" t="s">
+        <v>815</v>
+      </c>
+      <c r="K189" s="26" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" s="69" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A190" s="69" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B190" s="70" t="s">
+        <v>919</v>
+      </c>
+      <c r="C190" s="71" t="s">
+        <v>920</v>
+      </c>
+      <c r="D190" s="72" t="s">
+        <v>733</v>
+      </c>
+      <c r="E190" s="72" t="s">
+        <v>744</v>
+      </c>
+      <c r="F190" s="72" t="s">
+        <v>744</v>
+      </c>
+      <c r="G190" s="71" t="s">
+        <v>366</v>
+      </c>
+      <c r="H190" s="71"/>
+      <c r="I190" s="71" t="s">
+        <v>815</v>
+      </c>
+      <c r="K190" s="71" t="s">
+        <v>921</v>
+      </c>
+      <c r="L190" s="70"/>
+      <c r="M190" s="70"/>
+      <c r="N190" s="70"/>
+    </row>
+    <row r="191" spans="1:14" s="69" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A191" s="69" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B191" s="70" t="s">
+        <v>922</v>
+      </c>
+      <c r="C191" s="71" t="s">
+        <v>923</v>
+      </c>
+      <c r="D191" s="72" t="s">
+        <v>733</v>
+      </c>
+      <c r="E191" s="72" t="s">
+        <v>744</v>
+      </c>
+      <c r="F191" s="72" t="s">
+        <v>744</v>
+      </c>
+      <c r="G191" s="71" t="s">
+        <v>366</v>
+      </c>
+      <c r="H191" s="71"/>
+      <c r="I191" s="71" t="s">
+        <v>815</v>
+      </c>
+      <c r="K191" s="71" t="s">
+        <v>924</v>
+      </c>
+      <c r="L191" s="70"/>
+      <c r="M191" s="70"/>
+      <c r="N191" s="70"/>
+    </row>
+    <row r="192" spans="1:14" s="69" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A192" s="73" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B192" s="70" t="s">
+        <v>925</v>
+      </c>
+      <c r="C192" s="71" t="s">
+        <v>930</v>
+      </c>
+      <c r="D192" s="72" t="s">
+        <v>733</v>
+      </c>
+      <c r="E192" s="72" t="s">
+        <v>744</v>
+      </c>
+      <c r="F192" s="72" t="s">
+        <v>744</v>
+      </c>
+      <c r="G192" s="71" t="s">
+        <v>366</v>
+      </c>
+      <c r="H192" s="71"/>
+      <c r="I192" s="71" t="s">
+        <v>815</v>
+      </c>
+      <c r="K192" s="71" t="s">
+        <v>926</v>
+      </c>
+      <c r="L192" s="70"/>
+      <c r="M192" s="70"/>
+      <c r="N192" s="70"/>
+    </row>
+    <row r="193" spans="1:16" s="69" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A193" s="73" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B193" s="70" t="s">
+        <v>927</v>
+      </c>
+      <c r="C193" s="71" t="s">
+        <v>931</v>
+      </c>
+      <c r="D193" s="72" t="s">
+        <v>733</v>
+      </c>
+      <c r="E193" s="72" t="s">
+        <v>744</v>
+      </c>
+      <c r="F193" s="72" t="s">
+        <v>744</v>
+      </c>
+      <c r="G193" s="71" t="s">
+        <v>366</v>
+      </c>
+      <c r="H193" s="71"/>
+      <c r="I193" s="71" t="s">
+        <v>815</v>
+      </c>
+      <c r="K193" s="71" t="s">
+        <v>928</v>
+      </c>
+      <c r="L193" s="70"/>
+      <c r="M193" s="70"/>
+      <c r="N193" s="70"/>
+    </row>
+    <row r="194" spans="1:16" s="69" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A194" s="69" t="s">
+        <v>669</v>
+      </c>
+      <c r="B194" s="70" t="s">
+        <v>929</v>
+      </c>
+      <c r="C194" s="71" t="s">
+        <v>932</v>
+      </c>
+      <c r="D194" s="72" t="s">
+        <v>733</v>
+      </c>
+      <c r="E194" s="72" t="s">
+        <v>744</v>
+      </c>
+      <c r="F194" s="72" t="s">
+        <v>744</v>
+      </c>
+      <c r="G194" s="71" t="s">
+        <v>366</v>
+      </c>
+      <c r="H194" s="71"/>
+      <c r="I194" s="71" t="s">
+        <v>815</v>
+      </c>
+      <c r="K194" s="71" t="s">
+        <v>933</v>
+      </c>
+      <c r="L194" s="70"/>
+      <c r="M194" s="70"/>
+      <c r="N194" s="70"/>
+    </row>
+    <row r="195" spans="1:16" s="69" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A195" s="69" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B195" s="73" t="s">
+        <v>934</v>
+      </c>
+      <c r="C195" s="71" t="s">
+        <v>935</v>
+      </c>
+      <c r="D195" s="72" t="s">
+        <v>733</v>
+      </c>
+      <c r="E195" s="72" t="s">
+        <v>744</v>
+      </c>
+      <c r="F195" s="72" t="s">
+        <v>744</v>
+      </c>
+      <c r="G195" s="71" t="s">
+        <v>366</v>
+      </c>
+      <c r="H195" s="71"/>
+      <c r="I195" s="71" t="s">
+        <v>815</v>
+      </c>
+      <c r="K195" s="71" t="s">
+        <v>936</v>
+      </c>
+      <c r="L195" s="70"/>
+      <c r="M195" s="70"/>
+      <c r="N195" s="70"/>
+    </row>
+    <row r="196" spans="1:16" s="69" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A196" s="69" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B196" s="73" t="s">
+        <v>937</v>
+      </c>
+      <c r="C196" s="71" t="s">
+        <v>938</v>
+      </c>
+      <c r="D196" s="72" t="s">
+        <v>733</v>
+      </c>
+      <c r="E196" s="72" t="s">
+        <v>744</v>
+      </c>
+      <c r="F196" s="72" t="s">
+        <v>744</v>
+      </c>
+      <c r="G196" s="71" t="s">
+        <v>366</v>
+      </c>
+      <c r="H196" s="71"/>
+      <c r="I196" s="71" t="s">
+        <v>815</v>
+      </c>
+      <c r="K196" s="71" t="s">
+        <v>939</v>
+      </c>
+      <c r="L196" s="70"/>
+      <c r="M196" s="70"/>
+      <c r="N196" s="70"/>
+    </row>
+    <row r="197" spans="1:16" s="69" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A197" s="69" t="s">
+        <v>665</v>
+      </c>
+      <c r="B197" s="73" t="s">
+        <v>706</v>
+      </c>
+      <c r="C197" s="71" t="s">
+        <v>941</v>
+      </c>
+      <c r="D197" s="72" t="s">
+        <v>733</v>
+      </c>
+      <c r="E197" s="72" t="s">
+        <v>744</v>
+      </c>
+      <c r="F197" s="72" t="s">
+        <v>744</v>
+      </c>
+      <c r="G197" s="71" t="s">
+        <v>366</v>
+      </c>
+      <c r="H197" s="71"/>
+      <c r="I197" s="71" t="s">
+        <v>815</v>
+      </c>
+      <c r="K197" s="71" t="s">
+        <v>940</v>
+      </c>
+      <c r="L197" s="70"/>
+      <c r="M197" s="70"/>
+      <c r="N197" s="70"/>
+    </row>
+    <row r="198" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A198" s="67" t="s">
+        <v>942</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="C198" s="26" t="s">
+        <v>958</v>
+      </c>
+      <c r="D198" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="E198" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="F198" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="G198" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="H198" s="26"/>
+      <c r="I198" s="26" t="s">
+        <v>815</v>
+      </c>
+      <c r="K198" s="26" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A199" s="67" t="s">
+        <v>944</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C199" s="26" t="s">
+        <v>959</v>
+      </c>
+      <c r="D199" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="E199" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="F199" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="G199" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="H199" s="26"/>
+      <c r="I199" s="26" t="s">
+        <v>815</v>
+      </c>
+      <c r="K199" s="26" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A200" s="67" t="s">
+        <v>946</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C200" s="26" t="s">
+        <v>962</v>
+      </c>
+      <c r="D200" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="E200" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="F200" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="G200" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="H200" s="26"/>
+      <c r="I200" s="26" t="s">
+        <v>815</v>
+      </c>
+      <c r="K200" s="26" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A201" s="67" t="s">
+        <v>948</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C201" s="26" t="s">
+        <v>963</v>
+      </c>
+      <c r="D201" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="E201" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="F201" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="G201" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="H201" s="26"/>
+      <c r="I201" s="26" t="s">
+        <v>815</v>
+      </c>
+      <c r="K201" s="26" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A202" s="67" t="s">
+        <v>950</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C202" s="26" t="s">
+        <v>961</v>
+      </c>
+      <c r="D202" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="E202" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="F202" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="G202" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="H202" s="26"/>
+      <c r="I202" s="26" t="s">
+        <v>815</v>
+      </c>
+      <c r="K202" s="26" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A203" s="67" t="s">
+        <v>952</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="C203" s="26" t="s">
+        <v>960</v>
+      </c>
+      <c r="D203" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="E203" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="F203" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="G203" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="H203" s="26"/>
+      <c r="I203" s="26" t="s">
+        <v>815</v>
+      </c>
+      <c r="K203" s="26" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A204" s="67" t="s">
+        <v>954</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C204" s="26" t="s">
+        <v>964</v>
+      </c>
+      <c r="D204" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="E204" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="F204" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="G204" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="H204" s="26"/>
+      <c r="I204" s="26" t="s">
+        <v>815</v>
+      </c>
+      <c r="K204" s="26" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A205" s="67" t="s">
+        <v>956</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C205" s="26" t="s">
+        <v>965</v>
+      </c>
+      <c r="D205" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="E205" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="F205" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="G205" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="H205" s="26"/>
+      <c r="I205" s="26" t="s">
+        <v>815</v>
+      </c>
+      <c r="K205" s="26" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" s="69" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A206" s="74" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B206" s="71" t="s">
+        <v>974</v>
+      </c>
+      <c r="C206" s="71" t="s">
+        <v>975</v>
+      </c>
+      <c r="D206" s="72" t="s">
+        <v>733</v>
+      </c>
+      <c r="E206" s="72" t="s">
+        <v>744</v>
+      </c>
+      <c r="F206" s="72" t="s">
+        <v>744</v>
+      </c>
+      <c r="G206" s="71" t="s">
+        <v>414</v>
+      </c>
+      <c r="H206" s="71"/>
+      <c r="I206" s="71" t="s">
+        <v>815</v>
+      </c>
+      <c r="J206" s="71"/>
+      <c r="K206" s="71" t="s">
+        <v>976</v>
+      </c>
+      <c r="L206" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="M206" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="N206" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="O206" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="P206" s="77" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" s="69" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A207" s="73" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B207" s="70" t="s">
+        <v>977</v>
+      </c>
+      <c r="C207" s="71" t="s">
+        <v>978</v>
+      </c>
+      <c r="D207" s="72" t="s">
+        <v>733</v>
+      </c>
+      <c r="E207" s="72" t="s">
+        <v>744</v>
+      </c>
+      <c r="F207" s="72" t="s">
+        <v>744</v>
+      </c>
+      <c r="G207" s="71" t="s">
+        <v>414</v>
+      </c>
+      <c r="H207" s="71"/>
+      <c r="I207" s="71" t="s">
+        <v>815</v>
+      </c>
+      <c r="J207" s="71"/>
+      <c r="K207" s="71" t="s">
+        <v>976</v>
+      </c>
+      <c r="L207" s="70"/>
+      <c r="M207" s="70"/>
+      <c r="N207" s="70"/>
+    </row>
+    <row r="208" spans="1:16" s="69" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A208" s="73" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B208" s="70" t="s">
+        <v>979</v>
+      </c>
+      <c r="C208" s="71" t="s">
+        <v>980</v>
+      </c>
+      <c r="D208" s="72" t="s">
+        <v>733</v>
+      </c>
+      <c r="E208" s="72" t="s">
+        <v>744</v>
+      </c>
+      <c r="F208" s="72" t="s">
+        <v>744</v>
+      </c>
+      <c r="G208" s="71" t="s">
+        <v>414</v>
+      </c>
+      <c r="H208" s="71"/>
+      <c r="I208" s="71" t="s">
+        <v>815</v>
+      </c>
+      <c r="K208" s="71" t="s">
+        <v>981</v>
+      </c>
+      <c r="L208" s="70"/>
+      <c r="M208" s="70"/>
+      <c r="N208" s="70"/>
+    </row>
+    <row r="209" spans="1:16" s="69" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A209" s="69" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B209" s="70" t="s">
+        <v>982</v>
+      </c>
+      <c r="C209" s="71" t="s">
+        <v>983</v>
+      </c>
+      <c r="D209" s="72" t="s">
+        <v>733</v>
+      </c>
+      <c r="E209" s="72" t="s">
+        <v>744</v>
+      </c>
+      <c r="F209" s="72" t="s">
+        <v>744</v>
+      </c>
+      <c r="G209" s="71" t="s">
+        <v>414</v>
+      </c>
+      <c r="H209" s="71"/>
+      <c r="I209" s="71" t="s">
+        <v>815</v>
+      </c>
+      <c r="K209" s="71" t="s">
+        <v>522</v>
+      </c>
+      <c r="L209" s="70"/>
+      <c r="M209" s="70"/>
+      <c r="N209" s="70"/>
+    </row>
+    <row r="210" spans="1:16" s="69" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A210" s="73" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B210" s="70" t="s">
+        <v>984</v>
+      </c>
+      <c r="C210" s="71" t="s">
+        <v>985</v>
+      </c>
+      <c r="D210" s="72" t="s">
+        <v>733</v>
+      </c>
+      <c r="E210" s="72" t="s">
+        <v>744</v>
+      </c>
+      <c r="F210" s="72" t="s">
+        <v>744</v>
+      </c>
+      <c r="G210" s="71" t="s">
+        <v>414</v>
+      </c>
+      <c r="H210" s="71"/>
+      <c r="I210" s="71" t="s">
+        <v>815</v>
+      </c>
+      <c r="K210" s="71" t="s">
+        <v>522</v>
+      </c>
+      <c r="L210" s="70"/>
+      <c r="M210" s="70"/>
+      <c r="N210" s="70"/>
+    </row>
+    <row r="211" spans="1:16" s="69" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A211" s="69" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B211" s="70" t="s">
+        <v>986</v>
+      </c>
+      <c r="C211" s="71" t="s">
+        <v>987</v>
+      </c>
+      <c r="D211" s="72" t="s">
+        <v>733</v>
+      </c>
+      <c r="E211" s="72" t="s">
+        <v>744</v>
+      </c>
+      <c r="F211" s="72" t="s">
+        <v>744</v>
+      </c>
+      <c r="G211" s="71" t="s">
+        <v>414</v>
+      </c>
+      <c r="H211" s="71"/>
+      <c r="I211" s="71" t="s">
+        <v>815</v>
+      </c>
+      <c r="K211" s="71" t="s">
+        <v>988</v>
+      </c>
+      <c r="L211" s="70"/>
+      <c r="M211" s="70"/>
+      <c r="N211" s="70"/>
+    </row>
+    <row r="212" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A212" s="68" t="s">
+        <v>989</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="C212" s="26" t="s">
+        <v>992</v>
+      </c>
+      <c r="D212" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="E212" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="F212" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="G212" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="H212" s="26"/>
+      <c r="I212" s="26" t="s">
+        <v>815</v>
+      </c>
+      <c r="K212" s="26" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A213" s="66" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="C213" s="26" t="s">
+        <v>994</v>
+      </c>
+      <c r="D213" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="E213" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="F213" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="G213" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="H213" s="26"/>
+      <c r="I213" s="26" t="s">
+        <v>815</v>
+      </c>
+      <c r="K213" s="26" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A214" s="66" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="C214" s="26" t="s">
+        <v>997</v>
+      </c>
+      <c r="D214" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="E214" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="F214" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="G214" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="H214" s="26"/>
+      <c r="I214" s="26" t="s">
+        <v>815</v>
+      </c>
+      <c r="K214" s="26" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A215" s="45" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B215" s="47" t="s">
+        <v>999</v>
+      </c>
+      <c r="C215" s="47" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D215" s="47" t="s">
+        <v>733</v>
+      </c>
+      <c r="E215" s="47" t="s">
+        <v>658</v>
+      </c>
+      <c r="F215" s="47" t="s">
+        <v>844</v>
+      </c>
+      <c r="G215" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="H215" s="47"/>
+      <c r="I215" s="47" t="s">
+        <v>815</v>
+      </c>
+      <c r="J215" s="47"/>
+      <c r="K215" s="47" t="s">
+        <v>976</v>
+      </c>
+      <c r="L215" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="M215" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="N215" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="O215" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="P215" s="58" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A216" s="67" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B216" s="47" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C216" s="47" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D216" s="47" t="s">
+        <v>733</v>
+      </c>
+      <c r="E216" s="47" t="s">
+        <v>658</v>
+      </c>
+      <c r="F216" s="47" t="s">
+        <v>844</v>
+      </c>
+      <c r="G216" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="H216" s="47"/>
+      <c r="I216" s="47" t="s">
+        <v>815</v>
+      </c>
+      <c r="J216" s="47"/>
+      <c r="K216" s="47" t="s">
+        <v>976</v>
+      </c>
+      <c r="L216" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A217" s="67" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B217" s="47" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C217" s="47" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D217" s="47" t="s">
+        <v>733</v>
+      </c>
+      <c r="E217" s="47" t="s">
+        <v>658</v>
+      </c>
+      <c r="F217" s="47" t="s">
+        <v>844</v>
+      </c>
+      <c r="G217" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="H217" s="47"/>
+      <c r="I217" s="47" t="s">
+        <v>815</v>
+      </c>
+      <c r="J217" s="47"/>
+      <c r="K217" s="47" t="s">
+        <v>976</v>
+      </c>
+      <c r="L217" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A218" s="67" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C218" s="47" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D218" s="47" t="s">
+        <v>733</v>
+      </c>
+      <c r="E218" s="47" t="s">
+        <v>658</v>
+      </c>
+      <c r="F218" s="47" t="s">
+        <v>844</v>
+      </c>
+      <c r="G218" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="H218" s="47"/>
+      <c r="I218" s="47" t="s">
+        <v>815</v>
+      </c>
+      <c r="J218" s="47"/>
+      <c r="K218" s="47" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A219" s="67" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C219" s="47" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D219" s="47" t="s">
+        <v>733</v>
+      </c>
+      <c r="E219" s="47" t="s">
+        <v>658</v>
+      </c>
+      <c r="F219" s="47" t="s">
+        <v>844</v>
+      </c>
+      <c r="G219" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="H219" s="47"/>
+      <c r="I219" s="47" t="s">
+        <v>815</v>
+      </c>
+      <c r="J219" s="47"/>
+      <c r="K219" s="47" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A220" s="67" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C220" s="47" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D220" s="47" t="s">
+        <v>733</v>
+      </c>
+      <c r="E220" s="47" t="s">
+        <v>658</v>
+      </c>
+      <c r="F220" s="47" t="s">
+        <v>844</v>
+      </c>
+      <c r="G220" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="H220" s="47"/>
+      <c r="I220" s="47" t="s">
+        <v>815</v>
+      </c>
+      <c r="J220" s="47"/>
+      <c r="K220" s="47" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A221" s="67" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C221" s="47" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D221" s="47" t="s">
+        <v>733</v>
+      </c>
+      <c r="E221" s="47" t="s">
+        <v>658</v>
+      </c>
+      <c r="F221" s="47" t="s">
+        <v>844</v>
+      </c>
+      <c r="G221" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="H221" s="47"/>
+      <c r="I221" s="47" t="s">
+        <v>815</v>
+      </c>
+      <c r="J221" s="47"/>
+      <c r="K221" s="47" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A222" s="66" t="s">
+        <v>229</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C222" s="47" t="s">
+        <v>997</v>
+      </c>
+      <c r="D222" s="47" t="s">
+        <v>733</v>
+      </c>
+      <c r="E222" s="47" t="s">
+        <v>658</v>
+      </c>
+      <c r="F222" s="47" t="s">
+        <v>844</v>
+      </c>
+      <c r="G222" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="H222" s="47"/>
+      <c r="I222" s="47" t="s">
+        <v>815</v>
+      </c>
+      <c r="J222" s="47"/>
+      <c r="K222" s="47" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A223" s="65" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C223" s="47" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D223" s="47" t="s">
+        <v>733</v>
+      </c>
+      <c r="E223" s="47" t="s">
+        <v>658</v>
+      </c>
+      <c r="F223" s="47" t="s">
+        <v>844</v>
+      </c>
+      <c r="G223" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="H223" s="47"/>
+      <c r="I223" s="47" t="s">
+        <v>815</v>
+      </c>
+      <c r="J223" s="47"/>
+      <c r="K223" s="47" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A224" s="65" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C224" s="47" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D224" s="47" t="s">
+        <v>733</v>
+      </c>
+      <c r="E224" s="47" t="s">
+        <v>658</v>
+      </c>
+      <c r="F224" s="47" t="s">
+        <v>844</v>
+      </c>
+      <c r="G224" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="H224" s="47"/>
+      <c r="I224" s="47" t="s">
+        <v>815</v>
+      </c>
+      <c r="J224" s="47"/>
+      <c r="K224" s="47" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A225" s="66" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C225" s="26" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D225" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="E225" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="F225" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="G225" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="H225" s="26"/>
+      <c r="I225" s="26" t="s">
+        <v>815</v>
+      </c>
+      <c r="K225" s="26" t="s">
+        <v>1025</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P168">

--- a/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C9ADE7-24E0-3947-8EEC-4237C567CEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A6D1B8-99F4-CD45-81D7-B8FFC8D8AFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3500" yWindow="500" windowWidth="45720" windowHeight="25040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3392" uniqueCount="1099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3585" uniqueCount="1100">
   <si>
     <t>AY632538</t>
   </si>
@@ -2701,9 +2701,6 @@
     <t>BHV-PM_01</t>
   </si>
   <si>
-    <t>Bat (Peropteryx_macrotis)</t>
-  </si>
-  <si>
     <t>Sloths (Bradypus variegatus)</t>
   </si>
   <si>
@@ -2740,9 +2737,6 @@
     <t>Sifaka Hepacivirus</t>
   </si>
   <si>
-    <t>Primate (Lemur)</t>
-  </si>
-  <si>
     <t>MK026585</t>
   </si>
   <si>
@@ -2752,9 +2746,6 @@
     <t>CBV</t>
   </si>
   <si>
-    <t>Insect (Ixodes holocyclus)?</t>
-  </si>
-  <si>
     <t>Insect (culex annulirostris)?</t>
   </si>
   <si>
@@ -2782,18 +2773,12 @@
     <t>STHV</t>
   </si>
   <si>
-    <t>Turtle (Pelodiscus sinensis)</t>
-  </si>
-  <si>
     <t>Guangxi houndshark hepacivirus</t>
   </si>
   <si>
     <t>GHHV</t>
   </si>
   <si>
-    <t>Shark (Mustelus manazo)</t>
-  </si>
-  <si>
     <t>Xiamen sepia Stingray hepacivirus</t>
   </si>
   <si>
@@ -3326,13 +3311,31 @@
   </si>
   <si>
     <t>Cephalopoda</t>
+  </si>
+  <si>
+    <t>Pelecaniformes</t>
+  </si>
+  <si>
+    <t>Accipitriformes</t>
+  </si>
+  <si>
+    <t>Lemur</t>
+  </si>
+  <si>
+    <t>Arthropods</t>
+  </si>
+  <si>
+    <t>Insecta</t>
+  </si>
+  <si>
+    <t>Teleostii</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3409,12 +3412,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF444444"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="27">
@@ -4362,7 +4359,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4505,11 +4502,63 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="776">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -5631,9 +5680,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M100" sqref="A1:R225"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G180" sqref="A1:R225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5644,7 +5693,7 @@
     <col min="5" max="6" width="18.6640625" customWidth="1"/>
     <col min="7" max="7" width="21.1640625" customWidth="1"/>
     <col min="8" max="9" width="14.5" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" style="90" customWidth="1"/>
     <col min="11" max="12" width="23.6640625" customWidth="1"/>
     <col min="13" max="13" width="28.1640625" customWidth="1"/>
     <col min="14" max="14" width="16.6640625" style="1" customWidth="1"/>
@@ -5682,17 +5731,17 @@
       <c r="I1" s="9" t="s">
         <v>813</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="72" t="s">
         <v>647</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>579</v>
@@ -5738,8 +5787,10 @@
       <c r="I2" s="53" t="s">
         <v>814</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="53" t="s">
+        <v>1097</v>
+      </c>
       <c r="L2" s="53"/>
       <c r="M2" s="53" t="s">
         <v>783</v>
@@ -5784,9 +5835,13 @@
       <c r="I3" s="12" t="s">
         <v>814</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="12" t="s">
+        <v>1097</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>1045</v>
+      </c>
       <c r="M3" s="12" t="s">
         <v>500</v>
       </c>
@@ -5834,9 +5889,13 @@
       <c r="I4" s="12" t="s">
         <v>814</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="12" t="s">
+        <v>1097</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>1045</v>
+      </c>
       <c r="M4" s="12" t="s">
         <v>500</v>
       </c>
@@ -5884,9 +5943,13 @@
       <c r="I5" s="12" t="s">
         <v>814</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="12" t="s">
+        <v>1097</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>1045</v>
+      </c>
       <c r="M5" s="12" t="s">
         <v>401</v>
       </c>
@@ -5934,9 +5997,13 @@
       <c r="I6" s="12" t="s">
         <v>814</v>
       </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="12" t="s">
+        <v>1097</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>1045</v>
+      </c>
       <c r="M6" s="12" t="s">
         <v>401</v>
       </c>
@@ -5984,9 +6051,13 @@
       <c r="I7" s="12" t="s">
         <v>814</v>
       </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="12" t="s">
+        <v>1097</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>1045</v>
+      </c>
       <c r="M7" s="12" t="s">
         <v>501</v>
       </c>
@@ -6034,9 +6105,13 @@
       <c r="I8" s="12" t="s">
         <v>814</v>
       </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="12" t="s">
+        <v>1097</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>1045</v>
+      </c>
       <c r="M8" s="12" t="s">
         <v>500</v>
       </c>
@@ -6084,11 +6159,13 @@
       <c r="I9" s="12" t="s">
         <v>814</v>
       </c>
-      <c r="J9" s="12"/>
+      <c r="J9" s="74"/>
       <c r="K9" s="12" t="s">
-        <v>1050</v>
-      </c>
-      <c r="L9" s="12"/>
+        <v>1097</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>1045</v>
+      </c>
       <c r="M9" s="12" t="s">
         <v>401</v>
       </c>
@@ -6136,11 +6213,13 @@
       <c r="I10" s="12" t="s">
         <v>814</v>
       </c>
-      <c r="J10" s="12"/>
+      <c r="J10" s="74"/>
       <c r="K10" s="12" t="s">
-        <v>1050</v>
-      </c>
-      <c r="L10" s="12"/>
+        <v>1097</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>1045</v>
+      </c>
       <c r="M10" s="12" t="s">
         <v>401</v>
       </c>
@@ -6188,11 +6267,13 @@
       <c r="I11" s="12" t="s">
         <v>814</v>
       </c>
-      <c r="J11" s="12"/>
+      <c r="J11" s="74"/>
       <c r="K11" s="12" t="s">
-        <v>1050</v>
-      </c>
-      <c r="L11" s="12"/>
+        <v>1097</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>1045</v>
+      </c>
       <c r="M11" s="12" t="s">
         <v>503</v>
       </c>
@@ -6240,11 +6321,13 @@
       <c r="I12" s="12" t="s">
         <v>814</v>
       </c>
-      <c r="J12" s="12"/>
+      <c r="J12" s="74"/>
       <c r="K12" s="12" t="s">
-        <v>1050</v>
-      </c>
-      <c r="L12" s="12"/>
+        <v>1097</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>1045</v>
+      </c>
       <c r="M12" s="12" t="s">
         <v>401</v>
       </c>
@@ -6292,11 +6375,13 @@
       <c r="I13" s="12" t="s">
         <v>814</v>
       </c>
-      <c r="J13" s="12"/>
+      <c r="J13" s="74"/>
       <c r="K13" s="12" t="s">
-        <v>1050</v>
-      </c>
-      <c r="L13" s="12"/>
+        <v>1097</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>1045</v>
+      </c>
       <c r="M13" s="12" t="s">
         <v>502</v>
       </c>
@@ -6344,11 +6429,13 @@
       <c r="I14" s="12" t="s">
         <v>814</v>
       </c>
-      <c r="J14" s="12"/>
+      <c r="J14" s="74"/>
       <c r="K14" s="12" t="s">
-        <v>1050</v>
-      </c>
-      <c r="L14" s="12"/>
+        <v>1097</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>1045</v>
+      </c>
       <c r="M14" s="12" t="s">
         <v>500</v>
       </c>
@@ -6396,11 +6483,13 @@
       <c r="I15" s="12" t="s">
         <v>814</v>
       </c>
-      <c r="J15" s="12"/>
+      <c r="J15" s="74"/>
       <c r="K15" s="12" t="s">
-        <v>1050</v>
-      </c>
-      <c r="L15" s="12"/>
+        <v>1097</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>1045</v>
+      </c>
       <c r="M15" s="12" t="s">
         <v>401</v>
       </c>
@@ -6448,11 +6537,13 @@
       <c r="I16" s="12" t="s">
         <v>814</v>
       </c>
-      <c r="J16" s="12"/>
+      <c r="J16" s="74"/>
       <c r="K16" s="12" t="s">
-        <v>1050</v>
-      </c>
-      <c r="L16" s="12"/>
+        <v>1097</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>1045</v>
+      </c>
       <c r="M16" s="12" t="s">
         <v>612</v>
       </c>
@@ -6500,11 +6591,13 @@
       <c r="I17" s="52" t="s">
         <v>814</v>
       </c>
-      <c r="J17" s="52"/>
+      <c r="J17" s="75"/>
       <c r="K17" s="52" t="s">
-        <v>1051</v>
-      </c>
-      <c r="L17" s="52"/>
+        <v>1097</v>
+      </c>
+      <c r="L17" s="52" t="s">
+        <v>1046</v>
+      </c>
       <c r="M17" s="52" t="s">
         <v>760</v>
       </c>
@@ -6550,11 +6643,13 @@
       <c r="I18" s="52" t="s">
         <v>814</v>
       </c>
-      <c r="J18" s="52"/>
+      <c r="J18" s="75"/>
       <c r="K18" s="52" t="s">
-        <v>1051</v>
-      </c>
-      <c r="L18" s="52"/>
+        <v>1097</v>
+      </c>
+      <c r="L18" s="52" t="s">
+        <v>1046</v>
+      </c>
       <c r="M18" s="52" t="s">
         <v>761</v>
       </c>
@@ -6600,11 +6695,13 @@
       <c r="I19" s="52" t="s">
         <v>814</v>
       </c>
-      <c r="J19" s="52"/>
+      <c r="J19" s="75"/>
       <c r="K19" s="52" t="s">
-        <v>1051</v>
-      </c>
-      <c r="L19" s="52"/>
+        <v>1097</v>
+      </c>
+      <c r="L19" s="52" t="s">
+        <v>1046</v>
+      </c>
       <c r="M19" s="52" t="s">
         <v>760</v>
       </c>
@@ -6650,11 +6747,13 @@
       <c r="I20" s="20" t="s">
         <v>814</v>
       </c>
-      <c r="J20" s="20"/>
+      <c r="J20" s="76"/>
       <c r="K20" s="20" t="s">
-        <v>1050</v>
-      </c>
-      <c r="L20" s="20"/>
+        <v>1097</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>1045</v>
+      </c>
       <c r="M20" s="20" t="s">
         <v>501</v>
       </c>
@@ -6702,11 +6801,13 @@
       <c r="I21" s="20" t="s">
         <v>814</v>
       </c>
-      <c r="J21" s="20"/>
+      <c r="J21" s="76"/>
       <c r="K21" s="20" t="s">
-        <v>1050</v>
-      </c>
-      <c r="L21" s="20"/>
+        <v>1097</v>
+      </c>
+      <c r="L21" s="20" t="s">
+        <v>1045</v>
+      </c>
       <c r="M21" s="20" t="s">
         <v>501</v>
       </c>
@@ -6754,11 +6855,13 @@
       <c r="I22" s="20" t="s">
         <v>814</v>
       </c>
-      <c r="J22" s="20"/>
+      <c r="J22" s="76"/>
       <c r="K22" s="20" t="s">
-        <v>1050</v>
-      </c>
-      <c r="L22" s="20"/>
+        <v>1097</v>
+      </c>
+      <c r="L22" s="20" t="s">
+        <v>1045</v>
+      </c>
       <c r="M22" s="20" t="s">
         <v>401</v>
       </c>
@@ -6806,11 +6909,13 @@
       <c r="I23" s="20" t="s">
         <v>814</v>
       </c>
-      <c r="J23" s="23"/>
+      <c r="J23" s="76"/>
       <c r="K23" s="20" t="s">
-        <v>1050</v>
-      </c>
-      <c r="L23" s="20"/>
+        <v>1097</v>
+      </c>
+      <c r="L23" s="20" t="s">
+        <v>1045</v>
+      </c>
       <c r="M23" s="23" t="s">
         <v>401</v>
       </c>
@@ -6858,11 +6963,13 @@
       <c r="I24" s="20" t="s">
         <v>814</v>
       </c>
-      <c r="J24" s="23"/>
+      <c r="J24" s="76"/>
       <c r="K24" s="20" t="s">
-        <v>1050</v>
-      </c>
-      <c r="L24" s="20"/>
+        <v>1097</v>
+      </c>
+      <c r="L24" s="20" t="s">
+        <v>1045</v>
+      </c>
       <c r="M24" s="23" t="s">
         <v>500</v>
       </c>
@@ -6910,11 +7017,13 @@
       <c r="I25" s="20" t="s">
         <v>814</v>
       </c>
-      <c r="J25" s="20"/>
+      <c r="J25" s="76"/>
       <c r="K25" s="20" t="s">
-        <v>1050</v>
-      </c>
-      <c r="L25" s="20"/>
+        <v>1097</v>
+      </c>
+      <c r="L25" s="20" t="s">
+        <v>1045</v>
+      </c>
       <c r="M25" s="23" t="s">
         <v>500</v>
       </c>
@@ -6962,11 +7071,13 @@
       <c r="I26" s="20" t="s">
         <v>814</v>
       </c>
-      <c r="J26" s="23"/>
+      <c r="J26" s="76"/>
       <c r="K26" s="20" t="s">
-        <v>1050</v>
-      </c>
-      <c r="L26" s="20"/>
+        <v>1097</v>
+      </c>
+      <c r="L26" s="20" t="s">
+        <v>1045</v>
+      </c>
       <c r="M26" s="23" t="s">
         <v>500</v>
       </c>
@@ -7014,11 +7125,13 @@
       <c r="I27" s="20" t="s">
         <v>814</v>
       </c>
-      <c r="J27" s="23"/>
+      <c r="J27" s="76"/>
       <c r="K27" s="20" t="s">
-        <v>1050</v>
-      </c>
-      <c r="L27" s="20"/>
+        <v>1097</v>
+      </c>
+      <c r="L27" s="20" t="s">
+        <v>1045</v>
+      </c>
       <c r="M27" s="23" t="s">
         <v>500</v>
       </c>
@@ -7066,11 +7179,13 @@
       <c r="I28" s="20" t="s">
         <v>814</v>
       </c>
-      <c r="J28" s="23"/>
+      <c r="J28" s="76"/>
       <c r="K28" s="20" t="s">
-        <v>1050</v>
-      </c>
-      <c r="L28" s="20"/>
+        <v>1097</v>
+      </c>
+      <c r="L28" s="20" t="s">
+        <v>1045</v>
+      </c>
       <c r="M28" s="23" t="s">
         <v>500</v>
       </c>
@@ -7118,9 +7233,9 @@
       <c r="I29" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="J29" s="7"/>
+      <c r="J29" s="77"/>
       <c r="K29" s="7" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="L29" s="7"/>
       <c r="M29" s="7" t="s">
@@ -7170,9 +7285,9 @@
       <c r="I30" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="J30" s="7"/>
+      <c r="J30" s="77"/>
       <c r="K30" s="7" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="L30" s="7"/>
       <c r="M30" s="7" t="s">
@@ -7222,9 +7337,9 @@
       <c r="I31" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="J31" s="7"/>
+      <c r="J31" s="77"/>
       <c r="K31" s="7" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L31" s="7"/>
       <c r="M31" s="7" t="s">
@@ -7274,9 +7389,9 @@
       <c r="I32" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="J32" s="7"/>
+      <c r="J32" s="77"/>
       <c r="K32" s="7" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L32" s="7"/>
       <c r="M32" s="7" t="s">
@@ -7326,9 +7441,9 @@
       <c r="I33" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="J33" s="7"/>
+      <c r="J33" s="77"/>
       <c r="K33" s="7" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="L33" s="7"/>
       <c r="M33" s="7" t="s">
@@ -7378,9 +7493,9 @@
       <c r="I34" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="J34" s="7"/>
+      <c r="J34" s="77"/>
       <c r="K34" s="7" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L34" s="7"/>
       <c r="M34" s="7" t="s">
@@ -7430,9 +7545,9 @@
       <c r="I35" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="J35" s="7"/>
+      <c r="J35" s="77"/>
       <c r="K35" s="7" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L35" s="7"/>
       <c r="M35" s="7" t="s">
@@ -7482,9 +7597,9 @@
       <c r="I36" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="J36" s="7"/>
+      <c r="J36" s="77"/>
       <c r="K36" s="7" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L36" s="7"/>
       <c r="M36" s="7" t="s">
@@ -7534,9 +7649,9 @@
       <c r="I37" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="J37" s="7"/>
+      <c r="J37" s="77"/>
       <c r="K37" s="7" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L37" s="7"/>
       <c r="M37" s="7" t="s">
@@ -7586,9 +7701,9 @@
       <c r="I38" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="J38" s="7"/>
+      <c r="J38" s="77"/>
       <c r="K38" s="7" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="L38" s="7"/>
       <c r="M38" s="7" t="s">
@@ -7638,9 +7753,9 @@
       <c r="I39" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="J39" s="7"/>
+      <c r="J39" s="77"/>
       <c r="K39" s="7" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="L39" s="7"/>
       <c r="M39" s="7" t="s">
@@ -7690,9 +7805,9 @@
       <c r="I40" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="J40" s="7"/>
+      <c r="J40" s="77"/>
       <c r="K40" s="7" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="L40" s="7"/>
       <c r="M40" s="7" t="s">
@@ -7740,7 +7855,7 @@
       <c r="I41" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="J41" s="7"/>
+      <c r="J41" s="77"/>
       <c r="K41" s="7" t="s">
         <v>784</v>
       </c>
@@ -7792,9 +7907,9 @@
       <c r="I42" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="J42" s="7"/>
+      <c r="J42" s="77"/>
       <c r="K42" s="7" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="L42" s="7"/>
       <c r="M42" s="7" t="s">
@@ -7844,9 +7959,9 @@
       <c r="I43" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="J43" s="7"/>
+      <c r="J43" s="77"/>
       <c r="K43" s="7" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="L43" s="7"/>
       <c r="M43" s="7" t="s">
@@ -7896,7 +8011,7 @@
       <c r="I44" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="J44" s="7"/>
+      <c r="J44" s="77"/>
       <c r="K44" s="7" t="s">
         <v>784</v>
       </c>
@@ -7948,7 +8063,7 @@
       <c r="I45" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="J45" s="28"/>
+      <c r="J45" s="77"/>
       <c r="K45" s="7" t="s">
         <v>784</v>
       </c>
@@ -8000,7 +8115,7 @@
       <c r="I46" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="J46" s="7"/>
+      <c r="J46" s="77"/>
       <c r="K46" s="7" t="s">
         <v>784</v>
       </c>
@@ -8052,9 +8167,9 @@
       <c r="I47" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="J47" s="7"/>
+      <c r="J47" s="77"/>
       <c r="K47" s="7" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="L47" s="7"/>
       <c r="M47" s="7" t="s">
@@ -8104,7 +8219,7 @@
       <c r="I48" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="J48" s="7"/>
+      <c r="J48" s="77"/>
       <c r="K48" s="7" t="s">
         <v>784</v>
       </c>
@@ -8156,9 +8271,9 @@
       <c r="I49" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="J49" s="7"/>
+      <c r="J49" s="77"/>
       <c r="K49" s="7" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="L49" s="7"/>
       <c r="M49" s="7" t="s">
@@ -8208,9 +8323,9 @@
       <c r="I50" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="J50" s="7"/>
+      <c r="J50" s="77"/>
       <c r="K50" s="7" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L50" s="7"/>
       <c r="M50" s="7" t="s">
@@ -8260,9 +8375,9 @@
       <c r="I51" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="J51" s="7"/>
+      <c r="J51" s="77"/>
       <c r="K51" s="7" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="L51" s="7"/>
       <c r="M51" s="7" t="s">
@@ -8312,9 +8427,9 @@
       <c r="I52" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="J52" s="7"/>
+      <c r="J52" s="77"/>
       <c r="K52" s="7" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="L52" s="7"/>
       <c r="M52" s="7" t="s">
@@ -8364,9 +8479,9 @@
       <c r="I53" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="J53" s="7"/>
+      <c r="J53" s="77"/>
       <c r="K53" s="7" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="L53" s="7"/>
       <c r="M53" s="7" t="s">
@@ -8416,9 +8531,9 @@
       <c r="I54" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="J54" s="7"/>
+      <c r="J54" s="77"/>
       <c r="K54" s="7" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="L54" s="7"/>
       <c r="M54" s="7" t="s">
@@ -8468,9 +8583,9 @@
       <c r="I55" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="J55" s="7"/>
+      <c r="J55" s="77"/>
       <c r="K55" s="7" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="L55" s="7"/>
       <c r="M55" s="7" t="s">
@@ -8520,9 +8635,9 @@
       <c r="I56" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="J56" s="7"/>
+      <c r="J56" s="77"/>
       <c r="K56" s="7" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L56" s="7"/>
       <c r="M56" s="7" t="s">
@@ -8572,18 +8687,18 @@
       <c r="I57" s="31" t="s">
         <v>401</v>
       </c>
-      <c r="J57" s="31"/>
+      <c r="J57" s="78"/>
       <c r="K57" s="7" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="L57" s="7"/>
       <c r="M57" s="31" t="s">
         <v>401</v>
       </c>
-      <c r="N57" s="48" t="s">
+      <c r="N57" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="O57" s="48" t="s">
+      <c r="O57" s="32" t="s">
         <v>618</v>
       </c>
       <c r="P57" s="55" t="s">
@@ -8624,18 +8739,18 @@
       <c r="I58" s="31" t="s">
         <v>401</v>
       </c>
-      <c r="J58" s="31"/>
+      <c r="J58" s="78"/>
       <c r="K58" s="7" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="L58" s="7"/>
       <c r="M58" s="31" t="s">
         <v>401</v>
       </c>
-      <c r="N58" s="48" t="s">
+      <c r="N58" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="O58" s="48" t="s">
+      <c r="O58" s="32" t="s">
         <v>618</v>
       </c>
       <c r="P58" s="55" t="s">
@@ -8676,18 +8791,18 @@
       <c r="I59" s="31" t="s">
         <v>401</v>
       </c>
-      <c r="J59" s="31"/>
+      <c r="J59" s="78"/>
       <c r="K59" s="7" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="L59" s="7"/>
       <c r="M59" s="31" t="s">
         <v>401</v>
       </c>
-      <c r="N59" s="48" t="s">
+      <c r="N59" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="O59" s="48" t="s">
+      <c r="O59" s="32" t="s">
         <v>618</v>
       </c>
       <c r="P59" s="55" t="s">
@@ -8728,18 +8843,18 @@
       <c r="I60" s="31" t="s">
         <v>401</v>
       </c>
-      <c r="J60" s="31"/>
+      <c r="J60" s="78"/>
       <c r="K60" s="7" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="L60" s="7"/>
       <c r="M60" s="31" t="s">
         <v>401</v>
       </c>
-      <c r="N60" s="48" t="s">
+      <c r="N60" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="O60" s="48" t="s">
+      <c r="O60" s="32" t="s">
         <v>618</v>
       </c>
       <c r="P60" s="55" t="s">
@@ -8780,18 +8895,18 @@
       <c r="I61" s="31" t="s">
         <v>401</v>
       </c>
-      <c r="J61" s="31"/>
+      <c r="J61" s="78"/>
       <c r="K61" s="7" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L61" s="7"/>
       <c r="M61" s="31" t="s">
         <v>401</v>
       </c>
-      <c r="N61" s="48" t="s">
+      <c r="N61" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="O61" s="48" t="s">
+      <c r="O61" s="32" t="s">
         <v>619</v>
       </c>
       <c r="P61" s="60">
@@ -8832,18 +8947,18 @@
       <c r="I62" s="31" t="s">
         <v>401</v>
       </c>
-      <c r="J62" s="31"/>
+      <c r="J62" s="78"/>
       <c r="K62" s="7" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L62" s="7"/>
       <c r="M62" s="31" t="s">
         <v>401</v>
       </c>
-      <c r="N62" s="48" t="s">
+      <c r="N62" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="O62" s="48" t="s">
+      <c r="O62" s="32" t="s">
         <v>619</v>
       </c>
       <c r="P62" s="55" t="s">
@@ -8884,18 +8999,18 @@
       <c r="I63" s="31" t="s">
         <v>401</v>
       </c>
-      <c r="J63" s="31"/>
+      <c r="J63" s="78"/>
       <c r="K63" s="7" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="L63" s="7"/>
       <c r="M63" s="31" t="s">
         <v>401</v>
       </c>
-      <c r="N63" s="48" t="s">
+      <c r="N63" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="O63" s="48" t="s">
+      <c r="O63" s="32" t="s">
         <v>618</v>
       </c>
       <c r="P63" s="55" t="s">
@@ -8936,11 +9051,13 @@
       <c r="I64" s="34" t="s">
         <v>814</v>
       </c>
-      <c r="J64" s="34"/>
+      <c r="J64" s="79"/>
       <c r="K64" s="34" t="s">
-        <v>1050</v>
-      </c>
-      <c r="L64" s="34"/>
+        <v>1097</v>
+      </c>
+      <c r="L64" s="34" t="s">
+        <v>1045</v>
+      </c>
       <c r="M64" s="24" t="s">
         <v>504</v>
       </c>
@@ -8988,9 +9105,9 @@
       <c r="I65" s="34" t="s">
         <v>814</v>
       </c>
-      <c r="J65" s="34"/>
+      <c r="J65" s="79"/>
       <c r="K65" s="34" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L65" s="34"/>
       <c r="M65" s="34" t="s">
@@ -9040,11 +9157,13 @@
       <c r="I66" s="34" t="s">
         <v>814</v>
       </c>
-      <c r="J66" s="34"/>
+      <c r="J66" s="79"/>
       <c r="K66" s="7" t="s">
         <v>784</v>
       </c>
-      <c r="L66" s="7"/>
+      <c r="L66" s="7" t="s">
+        <v>784</v>
+      </c>
       <c r="M66" s="34" t="s">
         <v>500</v>
       </c>
@@ -9092,11 +9211,13 @@
       <c r="I67" s="34" t="s">
         <v>814</v>
       </c>
-      <c r="J67" s="34"/>
+      <c r="J67" s="79"/>
       <c r="K67" s="34" t="s">
-        <v>1053</v>
-      </c>
-      <c r="L67" s="34"/>
+        <v>1048</v>
+      </c>
+      <c r="L67" s="34" t="s">
+        <v>580</v>
+      </c>
       <c r="M67" s="34" t="s">
         <v>500</v>
       </c>
@@ -9144,9 +9265,9 @@
       <c r="I68" s="34" t="s">
         <v>814</v>
       </c>
-      <c r="J68" s="34"/>
+      <c r="J68" s="79"/>
       <c r="K68" s="34" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L68" s="34"/>
       <c r="M68" s="34" t="s">
@@ -9196,11 +9317,13 @@
       <c r="I69" s="34" t="s">
         <v>814</v>
       </c>
-      <c r="J69" s="34"/>
+      <c r="J69" s="79"/>
       <c r="K69" s="34" t="s">
-        <v>1053</v>
-      </c>
-      <c r="L69" s="34"/>
+        <v>1048</v>
+      </c>
+      <c r="L69" s="34" t="s">
+        <v>1082</v>
+      </c>
       <c r="M69" s="34" t="s">
         <v>500</v>
       </c>
@@ -9248,11 +9371,13 @@
       <c r="I70" s="34" t="s">
         <v>814</v>
       </c>
-      <c r="J70" s="34"/>
+      <c r="J70" s="79"/>
       <c r="K70" s="7" t="s">
         <v>784</v>
       </c>
-      <c r="L70" s="7"/>
+      <c r="L70" s="7" t="s">
+        <v>784</v>
+      </c>
       <c r="M70" s="34" t="s">
         <v>500</v>
       </c>
@@ -9300,11 +9425,13 @@
       <c r="I71" s="34" t="s">
         <v>814</v>
       </c>
-      <c r="J71" s="34"/>
+      <c r="J71" s="79"/>
       <c r="K71" s="7" t="s">
         <v>784</v>
       </c>
-      <c r="L71" s="7"/>
+      <c r="L71" s="7" t="s">
+        <v>784</v>
+      </c>
       <c r="M71" s="34" t="s">
         <v>500</v>
       </c>
@@ -9352,9 +9479,9 @@
       <c r="I72" s="34" t="s">
         <v>814</v>
       </c>
-      <c r="J72" s="34"/>
+      <c r="J72" s="79"/>
       <c r="K72" s="34" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L72" s="34"/>
       <c r="M72" s="34" t="s">
@@ -9404,11 +9531,13 @@
       <c r="I73" s="34" t="s">
         <v>814</v>
       </c>
-      <c r="J73" s="34"/>
+      <c r="J73" s="79"/>
       <c r="K73" s="34" t="s">
-        <v>1053</v>
-      </c>
-      <c r="L73" s="34"/>
+        <v>1048</v>
+      </c>
+      <c r="L73" s="34" t="s">
+        <v>580</v>
+      </c>
       <c r="M73" s="34" t="s">
         <v>500</v>
       </c>
@@ -9456,11 +9585,13 @@
       <c r="I74" s="38" t="s">
         <v>814</v>
       </c>
-      <c r="J74" s="38"/>
+      <c r="J74" s="80"/>
       <c r="K74" s="7" t="s">
         <v>784</v>
       </c>
-      <c r="L74" s="7"/>
+      <c r="L74" s="7" t="s">
+        <v>784</v>
+      </c>
       <c r="M74" s="38" t="s">
         <v>615</v>
       </c>
@@ -9508,11 +9639,13 @@
       <c r="I75" s="36" t="s">
         <v>814</v>
       </c>
-      <c r="J75" s="36"/>
+      <c r="J75" s="81"/>
       <c r="K75" s="36" t="s">
-        <v>1053</v>
-      </c>
-      <c r="L75" s="36"/>
+        <v>1048</v>
+      </c>
+      <c r="L75" s="36" t="s">
+        <v>1082</v>
+      </c>
       <c r="M75" s="36" t="s">
         <v>505</v>
       </c>
@@ -9560,11 +9693,13 @@
       <c r="I76" s="36" t="s">
         <v>814</v>
       </c>
-      <c r="J76" s="36"/>
+      <c r="J76" s="81"/>
       <c r="K76" s="36" t="s">
-        <v>1053</v>
-      </c>
-      <c r="L76" s="36"/>
+        <v>1048</v>
+      </c>
+      <c r="L76" s="36" t="s">
+        <v>1082</v>
+      </c>
       <c r="M76" s="36" t="s">
         <v>506</v>
       </c>
@@ -9612,11 +9747,13 @@
       <c r="I77" s="36" t="s">
         <v>814</v>
       </c>
-      <c r="J77" s="36"/>
+      <c r="J77" s="81"/>
       <c r="K77" s="36" t="s">
-        <v>1053</v>
-      </c>
-      <c r="L77" s="36"/>
+        <v>1048</v>
+      </c>
+      <c r="L77" s="36" t="s">
+        <v>1082</v>
+      </c>
       <c r="M77" s="36" t="s">
         <v>507</v>
       </c>
@@ -9664,11 +9801,13 @@
       <c r="I78" s="36" t="s">
         <v>814</v>
       </c>
-      <c r="J78" s="36"/>
+      <c r="J78" s="81"/>
       <c r="K78" s="36" t="s">
-        <v>1053</v>
-      </c>
-      <c r="L78" s="36"/>
+        <v>1048</v>
+      </c>
+      <c r="L78" s="36" t="s">
+        <v>1081</v>
+      </c>
       <c r="M78" s="36" t="s">
         <v>508</v>
       </c>
@@ -9716,11 +9855,13 @@
       <c r="I79" s="36" t="s">
         <v>814</v>
       </c>
-      <c r="J79" s="36"/>
+      <c r="J79" s="81"/>
       <c r="K79" s="36" t="s">
-        <v>1053</v>
-      </c>
-      <c r="L79" s="36"/>
+        <v>1048</v>
+      </c>
+      <c r="L79" s="36" t="s">
+        <v>1081</v>
+      </c>
       <c r="M79" s="36" t="s">
         <v>509</v>
       </c>
@@ -9768,11 +9909,13 @@
       <c r="I80" s="36" t="s">
         <v>814</v>
       </c>
-      <c r="J80" s="36"/>
+      <c r="J80" s="81"/>
       <c r="K80" s="36" t="s">
-        <v>1053</v>
-      </c>
-      <c r="L80" s="36"/>
+        <v>1048</v>
+      </c>
+      <c r="L80" s="36" t="s">
+        <v>1082</v>
+      </c>
       <c r="M80" s="36" t="s">
         <v>615</v>
       </c>
@@ -9820,11 +9963,13 @@
       <c r="I81" s="38" t="s">
         <v>814</v>
       </c>
-      <c r="J81" s="38"/>
+      <c r="J81" s="80"/>
       <c r="K81" s="38" t="s">
-        <v>1053</v>
-      </c>
-      <c r="L81" s="38"/>
+        <v>1048</v>
+      </c>
+      <c r="L81" s="38" t="s">
+        <v>1081</v>
+      </c>
       <c r="M81" s="38" t="s">
         <v>615</v>
       </c>
@@ -9872,11 +10017,13 @@
       <c r="I82" s="38" t="s">
         <v>814</v>
       </c>
-      <c r="J82" s="38"/>
+      <c r="J82" s="80"/>
       <c r="K82" s="38" t="s">
-        <v>1053</v>
-      </c>
-      <c r="L82" s="38"/>
+        <v>1048</v>
+      </c>
+      <c r="L82" s="38" t="s">
+        <v>1081</v>
+      </c>
       <c r="M82" s="38" t="s">
         <v>615</v>
       </c>
@@ -9924,11 +10071,13 @@
       <c r="I83" s="38" t="s">
         <v>814</v>
       </c>
-      <c r="J83" s="38"/>
+      <c r="J83" s="80"/>
       <c r="K83" s="38" t="s">
-        <v>1053</v>
-      </c>
-      <c r="L83" s="38"/>
+        <v>1048</v>
+      </c>
+      <c r="L83" s="38" t="s">
+        <v>1081</v>
+      </c>
       <c r="M83" s="38" t="s">
         <v>615</v>
       </c>
@@ -9976,9 +10125,9 @@
       <c r="I84" s="40" t="s">
         <v>814</v>
       </c>
-      <c r="J84" s="40"/>
+      <c r="J84" s="82"/>
       <c r="K84" s="40" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="L84" s="40"/>
       <c r="M84" s="40" t="s">
@@ -10028,9 +10177,9 @@
       <c r="I85" s="40" t="s">
         <v>814</v>
       </c>
-      <c r="J85" s="40"/>
+      <c r="J85" s="82"/>
       <c r="K85" s="40" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L85" s="40"/>
       <c r="M85" s="40" t="s">
@@ -10080,9 +10229,9 @@
       <c r="I86" s="40" t="s">
         <v>814</v>
       </c>
-      <c r="J86" s="40"/>
+      <c r="J86" s="82"/>
       <c r="K86" s="40" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="L86" s="40"/>
       <c r="M86" s="40" t="s">
@@ -10132,9 +10281,9 @@
       <c r="I87" s="40" t="s">
         <v>814</v>
       </c>
-      <c r="J87" s="40"/>
+      <c r="J87" s="82"/>
       <c r="K87" s="40" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L87" s="40"/>
       <c r="M87" s="40" t="s">
@@ -10184,9 +10333,9 @@
       <c r="I88" s="40" t="s">
         <v>814</v>
       </c>
-      <c r="J88" s="40"/>
+      <c r="J88" s="82"/>
       <c r="K88" s="40" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L88" s="40"/>
       <c r="M88" s="40" t="s">
@@ -10236,11 +10385,13 @@
       <c r="I89" s="40" t="s">
         <v>814</v>
       </c>
-      <c r="J89" s="40"/>
+      <c r="J89" s="82"/>
       <c r="K89" s="40" t="s">
-        <v>1053</v>
-      </c>
-      <c r="L89" s="40"/>
+        <v>1048</v>
+      </c>
+      <c r="L89" s="40" t="s">
+        <v>1083</v>
+      </c>
       <c r="M89" s="40" t="s">
         <v>514</v>
       </c>
@@ -10288,9 +10439,9 @@
       <c r="I90" s="40" t="s">
         <v>814</v>
       </c>
-      <c r="J90" s="40"/>
+      <c r="J90" s="82"/>
       <c r="K90" s="40" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="L90" s="40"/>
       <c r="M90" s="40" t="s">
@@ -10340,11 +10491,13 @@
       <c r="I91" s="40" t="s">
         <v>814</v>
       </c>
-      <c r="J91" s="40"/>
+      <c r="J91" s="82"/>
       <c r="K91" s="40" t="s">
-        <v>1053</v>
-      </c>
-      <c r="L91" s="40"/>
+        <v>1048</v>
+      </c>
+      <c r="L91" s="40" t="s">
+        <v>580</v>
+      </c>
       <c r="M91" s="40" t="s">
         <v>557</v>
       </c>
@@ -10392,11 +10545,13 @@
       <c r="I92" s="40" t="s">
         <v>814</v>
       </c>
-      <c r="J92" s="40"/>
+      <c r="J92" s="82"/>
       <c r="K92" s="40" t="s">
-        <v>1053</v>
-      </c>
-      <c r="L92" s="40"/>
+        <v>1048</v>
+      </c>
+      <c r="L92" s="40" t="s">
+        <v>580</v>
+      </c>
       <c r="M92" s="40" t="s">
         <v>514</v>
       </c>
@@ -10444,9 +10599,9 @@
       <c r="I93" s="40" t="s">
         <v>814</v>
       </c>
-      <c r="J93" s="40"/>
+      <c r="J93" s="82"/>
       <c r="K93" s="40" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L93" s="40"/>
       <c r="M93" s="40" t="s">
@@ -10496,9 +10651,9 @@
       <c r="I94" s="40" t="s">
         <v>814</v>
       </c>
-      <c r="J94" s="40"/>
+      <c r="J94" s="82"/>
       <c r="K94" s="40" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="L94" s="40"/>
       <c r="M94" s="40" t="s">
@@ -10548,9 +10703,9 @@
       <c r="I95" s="40" t="s">
         <v>814</v>
       </c>
-      <c r="J95" s="40"/>
+      <c r="J95" s="82"/>
       <c r="K95" s="40" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L95" s="40"/>
       <c r="M95" s="40" t="s">
@@ -10600,9 +10755,9 @@
       <c r="I96" s="40" t="s">
         <v>814</v>
       </c>
-      <c r="J96" s="40"/>
+      <c r="J96" s="82"/>
       <c r="K96" s="40" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L96" s="40"/>
       <c r="M96" s="40" t="s">
@@ -10652,9 +10807,9 @@
       <c r="I97" s="40" t="s">
         <v>814</v>
       </c>
-      <c r="J97" s="40"/>
+      <c r="J97" s="82"/>
       <c r="K97" s="40" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L97" s="40"/>
       <c r="M97" s="40" t="s">
@@ -10704,9 +10859,9 @@
       <c r="I98" s="40" t="s">
         <v>814</v>
       </c>
-      <c r="J98" s="40"/>
+      <c r="J98" s="82"/>
       <c r="K98" s="40" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="L98" s="40"/>
       <c r="M98" s="40" t="s">
@@ -10756,13 +10911,15 @@
       <c r="I99" s="44" t="s">
         <v>814</v>
       </c>
-      <c r="J99" s="44" t="s">
-        <v>1055</v>
+      <c r="J99" s="83" t="s">
+        <v>1050</v>
       </c>
       <c r="K99" s="44" t="s">
-        <v>1056</v>
-      </c>
-      <c r="L99" s="44"/>
+        <v>1097</v>
+      </c>
+      <c r="L99" s="44" t="s">
+        <v>1051</v>
+      </c>
       <c r="M99" s="44" t="s">
         <v>514</v>
       </c>
@@ -10810,13 +10967,15 @@
       <c r="I100" s="44" t="s">
         <v>814</v>
       </c>
-      <c r="J100" s="44">
+      <c r="J100" s="83">
         <v>1</v>
       </c>
       <c r="K100" s="44" t="s">
-        <v>1056</v>
-      </c>
-      <c r="L100" s="44"/>
+        <v>1097</v>
+      </c>
+      <c r="L100" s="44" t="s">
+        <v>1051</v>
+      </c>
       <c r="M100" s="44" t="s">
         <v>514</v>
       </c>
@@ -10864,13 +11023,15 @@
       <c r="I101" s="44" t="s">
         <v>814</v>
       </c>
-      <c r="J101" s="44">
+      <c r="J101" s="83">
         <v>1</v>
       </c>
       <c r="K101" s="44" t="s">
-        <v>1051</v>
-      </c>
-      <c r="L101" s="44"/>
+        <v>1097</v>
+      </c>
+      <c r="L101" s="44" t="s">
+        <v>1046</v>
+      </c>
       <c r="M101" s="44" t="s">
         <v>572</v>
       </c>
@@ -10918,13 +11079,15 @@
       <c r="I102" s="44" t="s">
         <v>814</v>
       </c>
-      <c r="J102" s="44">
+      <c r="J102" s="83">
         <v>1</v>
       </c>
       <c r="K102" s="44" t="s">
-        <v>1050</v>
-      </c>
-      <c r="L102" s="44"/>
+        <v>1097</v>
+      </c>
+      <c r="L102" s="44" t="s">
+        <v>1045</v>
+      </c>
       <c r="M102" s="44" t="s">
         <v>401</v>
       </c>
@@ -10972,13 +11135,15 @@
       <c r="I103" s="44" t="s">
         <v>814</v>
       </c>
-      <c r="J103" s="44">
+      <c r="J103" s="83">
         <v>1</v>
       </c>
       <c r="K103" s="44" t="s">
-        <v>1056</v>
-      </c>
-      <c r="L103" s="44"/>
+        <v>1097</v>
+      </c>
+      <c r="L103" s="44" t="s">
+        <v>1051</v>
+      </c>
       <c r="M103" s="44" t="s">
         <v>515</v>
       </c>
@@ -11026,13 +11191,15 @@
       <c r="I104" s="44" t="s">
         <v>814</v>
       </c>
-      <c r="J104" s="44">
+      <c r="J104" s="83">
         <v>1</v>
       </c>
       <c r="K104" s="44" t="s">
-        <v>1050</v>
-      </c>
-      <c r="L104" s="44"/>
+        <v>1097</v>
+      </c>
+      <c r="L104" s="44" t="s">
+        <v>1045</v>
+      </c>
       <c r="M104" s="44" t="s">
         <v>574</v>
       </c>
@@ -11080,13 +11247,15 @@
       <c r="I105" s="44" t="s">
         <v>814</v>
       </c>
-      <c r="J105" s="44">
+      <c r="J105" s="83">
         <v>1</v>
       </c>
       <c r="K105" s="44" t="s">
-        <v>1050</v>
-      </c>
-      <c r="L105" s="44"/>
+        <v>1097</v>
+      </c>
+      <c r="L105" s="44" t="s">
+        <v>1045</v>
+      </c>
       <c r="M105" s="44" t="s">
         <v>662</v>
       </c>
@@ -11134,13 +11303,15 @@
       <c r="I106" s="44" t="s">
         <v>814</v>
       </c>
-      <c r="J106" s="44">
+      <c r="J106" s="83">
         <v>3</v>
       </c>
       <c r="K106" s="44" t="s">
-        <v>1056</v>
-      </c>
-      <c r="L106" s="44"/>
+        <v>1097</v>
+      </c>
+      <c r="L106" s="44" t="s">
+        <v>1051</v>
+      </c>
       <c r="M106" s="44" t="s">
         <v>515</v>
       </c>
@@ -11188,13 +11359,15 @@
       <c r="I107" s="44" t="s">
         <v>814</v>
       </c>
-      <c r="J107" s="44">
+      <c r="J107" s="83">
         <v>3</v>
       </c>
       <c r="K107" s="44" t="s">
-        <v>1051</v>
-      </c>
-      <c r="L107" s="44"/>
+        <v>1097</v>
+      </c>
+      <c r="L107" s="44" t="s">
+        <v>1046</v>
+      </c>
       <c r="M107" s="44" t="s">
         <v>572</v>
       </c>
@@ -11240,13 +11413,15 @@
       <c r="I108" s="44" t="s">
         <v>814</v>
       </c>
-      <c r="J108" s="44">
+      <c r="J108" s="83">
         <v>3</v>
       </c>
       <c r="K108" s="44" t="s">
-        <v>1050</v>
-      </c>
-      <c r="L108" s="44"/>
+        <v>1097</v>
+      </c>
+      <c r="L108" s="44" t="s">
+        <v>1045</v>
+      </c>
       <c r="M108" s="44" t="s">
         <v>574</v>
       </c>
@@ -11292,13 +11467,15 @@
       <c r="I109" s="44" t="s">
         <v>814</v>
       </c>
-      <c r="J109" s="44">
+      <c r="J109" s="83">
         <v>3</v>
       </c>
       <c r="K109" s="44" t="s">
-        <v>1050</v>
-      </c>
-      <c r="L109" s="44"/>
+        <v>1097</v>
+      </c>
+      <c r="L109" s="44" t="s">
+        <v>1045</v>
+      </c>
       <c r="M109" s="44" t="s">
         <v>401</v>
       </c>
@@ -11344,13 +11521,15 @@
       <c r="I110" s="42" t="s">
         <v>814</v>
       </c>
-      <c r="J110" s="42"/>
+      <c r="J110" s="84"/>
       <c r="K110" s="42" t="s">
-        <v>1057</v>
-      </c>
-      <c r="L110" s="42"/>
+        <v>1052</v>
+      </c>
+      <c r="L110" s="42" t="s">
+        <v>1093</v>
+      </c>
       <c r="M110" s="42" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="N110" s="14" t="s">
         <v>195</v>
@@ -11390,13 +11569,15 @@
       <c r="I111" s="42" t="s">
         <v>814</v>
       </c>
-      <c r="J111" s="42"/>
+      <c r="J111" s="84"/>
       <c r="K111" s="42" t="s">
-        <v>1057</v>
-      </c>
-      <c r="L111" s="42"/>
+        <v>1052</v>
+      </c>
+      <c r="L111" s="42" t="s">
+        <v>1093</v>
+      </c>
       <c r="M111" s="42" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="N111" s="14" t="s">
         <v>195</v>
@@ -11436,11 +11617,13 @@
       <c r="I112" s="42" t="s">
         <v>814</v>
       </c>
-      <c r="J112" s="42"/>
+      <c r="J112" s="84"/>
       <c r="K112" s="42" t="s">
-        <v>1053</v>
-      </c>
-      <c r="L112" s="42"/>
+        <v>1048</v>
+      </c>
+      <c r="L112" s="42" t="s">
+        <v>1081</v>
+      </c>
       <c r="M112" s="42" t="s">
         <v>510</v>
       </c>
@@ -11486,11 +11669,13 @@
       <c r="I113" s="42" t="s">
         <v>814</v>
       </c>
-      <c r="J113" s="42"/>
+      <c r="J113" s="84"/>
       <c r="K113" s="42" t="s">
-        <v>1058</v>
-      </c>
-      <c r="L113" s="42"/>
+        <v>1053</v>
+      </c>
+      <c r="L113" s="42" t="s">
+        <v>1099</v>
+      </c>
       <c r="M113" s="42" t="s">
         <v>513</v>
       </c>
@@ -11536,11 +11721,13 @@
       <c r="I114" s="42" t="s">
         <v>814</v>
       </c>
-      <c r="J114" s="42"/>
+      <c r="J114" s="84"/>
       <c r="K114" s="42" t="s">
-        <v>1058</v>
-      </c>
-      <c r="L114" s="42"/>
+        <v>1053</v>
+      </c>
+      <c r="L114" s="42" t="s">
+        <v>1099</v>
+      </c>
       <c r="M114" s="42"/>
       <c r="N114" s="14" t="s">
         <v>195</v>
@@ -11584,13 +11771,15 @@
       <c r="I115" s="42" t="s">
         <v>814</v>
       </c>
-      <c r="J115" s="42"/>
+      <c r="J115" s="84"/>
       <c r="K115" s="42" t="s">
-        <v>1050</v>
-      </c>
-      <c r="L115" s="42"/>
+        <v>1097</v>
+      </c>
+      <c r="L115" s="42" t="s">
+        <v>1045</v>
+      </c>
       <c r="M115" s="42" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="N115" s="14" t="s">
         <v>195</v>
@@ -11634,13 +11823,15 @@
       <c r="I116" s="42" t="s">
         <v>814</v>
       </c>
-      <c r="J116" s="42"/>
+      <c r="J116" s="84"/>
       <c r="K116" s="42" t="s">
-        <v>1050</v>
-      </c>
-      <c r="L116" s="42"/>
+        <v>1097</v>
+      </c>
+      <c r="L116" s="42" t="s">
+        <v>1045</v>
+      </c>
       <c r="M116" s="42" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="N116" s="14" t="s">
         <v>195</v>
@@ -11684,13 +11875,15 @@
       <c r="I117" s="42" t="s">
         <v>814</v>
       </c>
-      <c r="J117" s="42"/>
+      <c r="J117" s="84"/>
       <c r="K117" s="42" t="s">
-        <v>1050</v>
-      </c>
-      <c r="L117" s="42"/>
+        <v>1097</v>
+      </c>
+      <c r="L117" s="42" t="s">
+        <v>1045</v>
+      </c>
       <c r="M117" s="42" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="N117" s="14" t="s">
         <v>195</v>
@@ -11734,11 +11927,13 @@
       <c r="I118" s="42" t="s">
         <v>814</v>
       </c>
-      <c r="J118" s="42"/>
+      <c r="J118" s="84"/>
       <c r="K118" s="42" t="s">
-        <v>1050</v>
-      </c>
-      <c r="L118" s="42"/>
+        <v>1097</v>
+      </c>
+      <c r="L118" s="42" t="s">
+        <v>1045</v>
+      </c>
       <c r="M118" s="42"/>
       <c r="N118" s="14" t="s">
         <v>195</v>
@@ -11782,11 +11977,13 @@
       <c r="I119" s="42" t="s">
         <v>814</v>
       </c>
-      <c r="J119" s="42"/>
+      <c r="J119" s="84"/>
       <c r="K119" s="42" t="s">
-        <v>1058</v>
-      </c>
-      <c r="L119" s="42"/>
+        <v>1053</v>
+      </c>
+      <c r="L119" s="42" t="s">
+        <v>1099</v>
+      </c>
       <c r="M119" s="42" t="s">
         <v>511</v>
       </c>
@@ -11832,11 +12029,13 @@
       <c r="I120" s="42" t="s">
         <v>814</v>
       </c>
-      <c r="J120" s="42"/>
+      <c r="J120" s="84"/>
       <c r="K120" s="42" t="s">
-        <v>1059</v>
-      </c>
-      <c r="L120" s="42"/>
+        <v>1054</v>
+      </c>
+      <c r="L120" s="42" t="s">
+        <v>1054</v>
+      </c>
       <c r="M120" s="42" t="s">
         <v>512</v>
       </c>
@@ -11884,11 +12083,13 @@
       <c r="I121" s="47" t="s">
         <v>814</v>
       </c>
-      <c r="J121" s="47"/>
+      <c r="J121" s="85"/>
       <c r="K121" s="47" t="s">
-        <v>1050</v>
-      </c>
-      <c r="L121" s="47"/>
+        <v>1097</v>
+      </c>
+      <c r="L121" s="47" t="s">
+        <v>1045</v>
+      </c>
       <c r="M121" s="47" t="s">
         <v>559</v>
       </c>
@@ -11936,11 +12137,13 @@
       <c r="I122" s="47" t="s">
         <v>814</v>
       </c>
-      <c r="J122" s="47"/>
+      <c r="J122" s="85"/>
       <c r="K122" s="47" t="s">
-        <v>1050</v>
-      </c>
-      <c r="L122" s="47"/>
+        <v>1097</v>
+      </c>
+      <c r="L122" s="47" t="s">
+        <v>1045</v>
+      </c>
       <c r="M122" s="47" t="s">
         <v>555</v>
       </c>
@@ -11988,11 +12191,13 @@
       <c r="I123" s="47" t="s">
         <v>814</v>
       </c>
-      <c r="J123" s="47"/>
+      <c r="J123" s="85"/>
       <c r="K123" s="47" t="s">
-        <v>1056</v>
-      </c>
-      <c r="L123" s="47"/>
+        <v>1097</v>
+      </c>
+      <c r="L123" s="47" t="s">
+        <v>1051</v>
+      </c>
       <c r="M123" s="47" t="s">
         <v>557</v>
       </c>
@@ -12040,11 +12245,13 @@
       <c r="I124" s="47" t="s">
         <v>814</v>
       </c>
-      <c r="J124" s="47"/>
+      <c r="J124" s="85"/>
       <c r="K124" s="47" t="s">
-        <v>1063</v>
-      </c>
-      <c r="L124" s="47"/>
+        <v>1058</v>
+      </c>
+      <c r="L124" s="47" t="s">
+        <v>1058</v>
+      </c>
       <c r="M124" s="47" t="s">
         <v>536</v>
       </c>
@@ -12092,11 +12299,13 @@
       <c r="I125" s="47" t="s">
         <v>814</v>
       </c>
-      <c r="J125" s="47"/>
+      <c r="J125" s="85"/>
       <c r="K125" s="47" t="s">
-        <v>1063</v>
-      </c>
-      <c r="L125" s="47"/>
+        <v>1058</v>
+      </c>
+      <c r="L125" s="47" t="s">
+        <v>1058</v>
+      </c>
       <c r="M125" s="47" t="s">
         <v>534</v>
       </c>
@@ -12144,11 +12353,13 @@
       <c r="I126" s="47" t="s">
         <v>814</v>
       </c>
-      <c r="J126" s="47"/>
+      <c r="J126" s="85"/>
       <c r="K126" s="47" t="s">
-        <v>1050</v>
-      </c>
-      <c r="L126" s="47"/>
+        <v>1097</v>
+      </c>
+      <c r="L126" s="47" t="s">
+        <v>1045</v>
+      </c>
       <c r="M126" s="47" t="s">
         <v>622</v>
       </c>
@@ -12194,11 +12405,13 @@
       <c r="I127" s="47" t="s">
         <v>814</v>
       </c>
-      <c r="J127" s="47"/>
+      <c r="J127" s="85"/>
       <c r="K127" s="47" t="s">
-        <v>1064</v>
-      </c>
-      <c r="L127" s="47"/>
+        <v>1097</v>
+      </c>
+      <c r="L127" s="47" t="s">
+        <v>1059</v>
+      </c>
       <c r="M127" s="47"/>
       <c r="N127" s="14" t="s">
         <v>195</v>
@@ -12242,11 +12455,13 @@
       <c r="I128" s="47" t="s">
         <v>814</v>
       </c>
-      <c r="J128" s="47"/>
+      <c r="J128" s="85"/>
       <c r="K128" s="47" t="s">
-        <v>1065</v>
-      </c>
-      <c r="L128" s="47"/>
+        <v>1097</v>
+      </c>
+      <c r="L128" s="47" t="s">
+        <v>1060</v>
+      </c>
       <c r="M128" s="47"/>
       <c r="N128" s="14" t="s">
         <v>195</v>
@@ -12290,11 +12505,13 @@
       <c r="I129" s="47" t="s">
         <v>814</v>
       </c>
-      <c r="J129" s="47"/>
+      <c r="J129" s="85"/>
       <c r="K129" s="47" t="s">
-        <v>1050</v>
-      </c>
-      <c r="L129" s="47"/>
+        <v>1097</v>
+      </c>
+      <c r="L129" s="47" t="s">
+        <v>1045</v>
+      </c>
       <c r="M129" s="47" t="s">
         <v>640</v>
       </c>
@@ -12342,11 +12559,13 @@
       <c r="I130" s="47" t="s">
         <v>814</v>
       </c>
-      <c r="J130" s="47"/>
+      <c r="J130" s="85"/>
       <c r="K130" s="47" t="s">
-        <v>1050</v>
-      </c>
-      <c r="L130" s="47"/>
+        <v>1097</v>
+      </c>
+      <c r="L130" s="47" t="s">
+        <v>1045</v>
+      </c>
       <c r="M130" s="47"/>
       <c r="N130" s="14" t="s">
         <v>195</v>
@@ -12392,11 +12611,13 @@
       <c r="I131" s="47" t="s">
         <v>814</v>
       </c>
-      <c r="J131" s="47"/>
+      <c r="J131" s="85"/>
       <c r="K131" s="47" t="s">
-        <v>1050</v>
-      </c>
-      <c r="L131" s="47"/>
+        <v>1097</v>
+      </c>
+      <c r="L131" s="47" t="s">
+        <v>1045</v>
+      </c>
       <c r="M131" s="47" t="s">
         <v>525</v>
       </c>
@@ -12444,11 +12665,13 @@
       <c r="I132" s="47" t="s">
         <v>814</v>
       </c>
-      <c r="J132" s="47"/>
+      <c r="J132" s="85"/>
       <c r="K132" s="47" t="s">
-        <v>1050</v>
-      </c>
-      <c r="L132" s="47"/>
+        <v>1097</v>
+      </c>
+      <c r="L132" s="47" t="s">
+        <v>1045</v>
+      </c>
       <c r="M132" s="47" t="s">
         <v>526</v>
       </c>
@@ -12496,11 +12719,13 @@
       <c r="I133" s="47" t="s">
         <v>814</v>
       </c>
-      <c r="J133" s="47"/>
+      <c r="J133" s="85"/>
       <c r="K133" s="47" t="s">
-        <v>1050</v>
-      </c>
-      <c r="L133" s="47"/>
+        <v>1097</v>
+      </c>
+      <c r="L133" s="47" t="s">
+        <v>1045</v>
+      </c>
       <c r="M133" s="47"/>
       <c r="N133" s="14" t="s">
         <v>195</v>
@@ -12544,11 +12769,13 @@
       <c r="I134" s="47" t="s">
         <v>814</v>
       </c>
-      <c r="J134" s="47"/>
+      <c r="J134" s="85"/>
       <c r="K134" s="47" t="s">
-        <v>1053</v>
-      </c>
-      <c r="L134" s="47"/>
+        <v>1048</v>
+      </c>
+      <c r="L134" s="47" t="s">
+        <v>1083</v>
+      </c>
       <c r="M134" s="47" t="s">
         <v>517</v>
       </c>
@@ -12596,12 +12823,12 @@
       <c r="I135" s="47" t="s">
         <v>814</v>
       </c>
-      <c r="J135" s="47"/>
+      <c r="J135" s="85"/>
       <c r="K135" s="47" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L135" s="47" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="M135" s="47" t="s">
         <v>517</v>
@@ -12650,12 +12877,12 @@
       <c r="I136" s="47" t="s">
         <v>814</v>
       </c>
-      <c r="J136" s="47"/>
+      <c r="J136" s="85"/>
       <c r="K136" s="47" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L136" s="47" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="M136" s="47" t="s">
         <v>522</v>
@@ -12704,15 +12931,15 @@
       <c r="I137" s="47" t="s">
         <v>814</v>
       </c>
-      <c r="J137" s="47"/>
+      <c r="J137" s="85"/>
       <c r="K137" s="47" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="L137" s="47" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="M137" s="47" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="N137" s="14" t="s">
         <v>195</v>
@@ -12727,7 +12954,7 @@
         <v>1</v>
       </c>
       <c r="R137" s="58" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="138" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -12758,12 +12985,12 @@
       <c r="I138" s="47" t="s">
         <v>814</v>
       </c>
-      <c r="J138" s="47"/>
+      <c r="J138" s="85"/>
       <c r="K138" s="47" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L138" s="47" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="M138" s="47" t="s">
         <v>516</v>
@@ -12812,12 +13039,12 @@
       <c r="I139" s="47" t="s">
         <v>814</v>
       </c>
-      <c r="J139" s="47"/>
+      <c r="J139" s="85"/>
       <c r="K139" s="47" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L139" s="47" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="M139" s="47" t="s">
         <v>524</v>
@@ -12866,12 +13093,12 @@
       <c r="I140" s="47" t="s">
         <v>814</v>
       </c>
-      <c r="J140" s="47"/>
+      <c r="J140" s="85"/>
       <c r="K140" s="47" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L140" s="47" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="M140" s="47" t="s">
         <v>522</v>
@@ -12920,12 +13147,12 @@
       <c r="I141" s="47" t="s">
         <v>814</v>
       </c>
-      <c r="J141" s="47"/>
+      <c r="J141" s="85"/>
       <c r="K141" s="47" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L141" s="47" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="M141" s="47" t="s">
         <v>523</v>
@@ -12974,12 +13201,12 @@
       <c r="I142" s="47" t="s">
         <v>814</v>
       </c>
-      <c r="J142" s="47"/>
+      <c r="J142" s="85"/>
       <c r="K142" s="47" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L142" s="47" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="M142" s="47" t="s">
         <v>517</v>
@@ -13028,12 +13255,12 @@
       <c r="I143" s="47" t="s">
         <v>814</v>
       </c>
-      <c r="J143" s="47"/>
+      <c r="J143" s="85"/>
       <c r="K143" s="47" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L143" s="47" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="M143" s="47" t="s">
         <v>516</v>
@@ -13082,12 +13309,12 @@
       <c r="I144" s="47" t="s">
         <v>814</v>
       </c>
-      <c r="J144" s="47"/>
+      <c r="J144" s="85"/>
       <c r="K144" s="47" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L144" s="47" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="M144" s="47" t="s">
         <v>519</v>
@@ -13136,12 +13363,12 @@
       <c r="I145" s="47" t="s">
         <v>814</v>
       </c>
-      <c r="J145" s="47"/>
+      <c r="J145" s="85"/>
       <c r="K145" s="47" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L145" s="47" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="M145" s="47" t="s">
         <v>522</v>
@@ -13164,13 +13391,13 @@
     </row>
     <row r="146" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A146" s="45" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="B146" s="47" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="C146" s="47" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="D146" s="47" t="s">
         <v>732</v>
@@ -13188,15 +13415,15 @@
       <c r="I146" s="47" t="s">
         <v>814</v>
       </c>
-      <c r="J146" s="47"/>
+      <c r="J146" s="85"/>
       <c r="K146" s="47" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L146" s="47" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="M146" s="47" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="N146" s="14" t="s">
         <v>195</v>
@@ -13216,13 +13443,13 @@
     </row>
     <row r="147" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A147" s="45" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="B147" s="47" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="C147" s="47" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="D147" s="47" t="s">
         <v>732</v>
@@ -13240,20 +13467,22 @@
       <c r="I147" s="47" t="s">
         <v>814</v>
       </c>
-      <c r="J147" s="47"/>
+      <c r="J147" s="85"/>
       <c r="K147" s="47" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L147" s="47" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="M147" s="47" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="N147" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="O147" s="14"/>
+      <c r="O147" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="P147" s="57" t="s">
         <v>1</v>
       </c>
@@ -13266,13 +13495,13 @@
     </row>
     <row r="148" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A148" s="45" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="B148" s="47" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="C148" s="47" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="D148" s="47" t="s">
         <v>732</v>
@@ -13290,20 +13519,22 @@
       <c r="I148" s="47" t="s">
         <v>814</v>
       </c>
-      <c r="J148" s="47"/>
+      <c r="J148" s="85"/>
       <c r="K148" s="47" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L148" s="47" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="M148" s="47" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="N148" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="O148" s="14"/>
+      <c r="O148" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="P148" s="57" t="s">
         <v>1</v>
       </c>
@@ -13316,13 +13547,13 @@
     </row>
     <row r="149" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A149" s="45" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="B149" s="47" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="C149" s="47" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="D149" s="47" t="s">
         <v>732</v>
@@ -13340,18 +13571,22 @@
       <c r="I149" s="47" t="s">
         <v>814</v>
       </c>
-      <c r="J149" s="47"/>
+      <c r="J149" s="85"/>
       <c r="K149" s="47" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L149" s="47" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="M149" s="47" t="s">
-        <v>1012</v>
-      </c>
-      <c r="N149" s="14"/>
-      <c r="O149" s="14"/>
+        <v>1007</v>
+      </c>
+      <c r="N149" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O149" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="P149" s="57" t="s">
         <v>1</v>
       </c>
@@ -13364,13 +13599,13 @@
     </row>
     <row r="150" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A150" s="45" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="B150" s="47" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="C150" s="47" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="D150" s="47" t="s">
         <v>732</v>
@@ -13388,18 +13623,22 @@
       <c r="I150" s="47" t="s">
         <v>814</v>
       </c>
-      <c r="J150" s="47"/>
+      <c r="J150" s="85"/>
       <c r="K150" s="47" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L150" s="47" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="M150" s="47" t="s">
-        <v>1012</v>
-      </c>
-      <c r="N150" s="14"/>
-      <c r="O150" s="14"/>
+        <v>1007</v>
+      </c>
+      <c r="N150" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O150" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="P150" s="57" t="s">
         <v>1</v>
       </c>
@@ -13407,18 +13646,18 @@
         <v>1</v>
       </c>
       <c r="R150" s="58" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="151" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A151" s="45" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="B151" s="47" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="C151" s="47" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="D151" s="47" t="s">
         <v>732</v>
@@ -13436,18 +13675,22 @@
       <c r="I151" s="47" t="s">
         <v>814</v>
       </c>
-      <c r="J151" s="47"/>
+      <c r="J151" s="85"/>
       <c r="K151" s="47" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L151" s="47" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="M151" s="47" t="s">
-        <v>1012</v>
-      </c>
-      <c r="N151" s="14"/>
-      <c r="O151" s="14"/>
+        <v>1007</v>
+      </c>
+      <c r="N151" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O151" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="P151" s="57" t="s">
         <v>1</v>
       </c>
@@ -13455,18 +13698,18 @@
         <v>1</v>
       </c>
       <c r="R151" s="58" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="152" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A152" s="45" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="B152" s="47" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="C152" s="47" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="D152" s="47" t="s">
         <v>732</v>
@@ -13484,18 +13727,22 @@
       <c r="I152" s="47" t="s">
         <v>814</v>
       </c>
-      <c r="J152" s="47"/>
+      <c r="J152" s="85"/>
       <c r="K152" s="47" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L152" s="47" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="M152" s="47" t="s">
-        <v>1012</v>
-      </c>
-      <c r="N152" s="14"/>
-      <c r="O152" s="14"/>
+        <v>1007</v>
+      </c>
+      <c r="N152" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O152" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="P152" s="57" t="s">
         <v>1</v>
       </c>
@@ -13503,7 +13750,7 @@
         <v>1</v>
       </c>
       <c r="R152" s="58" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="153" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -13511,10 +13758,10 @@
         <v>229</v>
       </c>
       <c r="B153" s="47" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="C153" s="47" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="D153" s="47" t="s">
         <v>732</v>
@@ -13532,18 +13779,22 @@
       <c r="I153" s="47" t="s">
         <v>814</v>
       </c>
-      <c r="J153" s="47"/>
+      <c r="J153" s="85"/>
       <c r="K153" s="47" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L153" s="47" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="M153" s="47" t="s">
-        <v>1014</v>
-      </c>
-      <c r="N153" s="14"/>
-      <c r="O153" s="14"/>
+        <v>1009</v>
+      </c>
+      <c r="N153" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O153" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="P153" s="57" t="s">
         <v>1</v>
       </c>
@@ -13556,13 +13807,13 @@
     </row>
     <row r="154" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A154" s="45" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="B154" s="47" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="C154" s="47" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="D154" s="47" t="s">
         <v>732</v>
@@ -13580,18 +13831,22 @@
       <c r="I154" s="47" t="s">
         <v>814</v>
       </c>
-      <c r="J154" s="47"/>
+      <c r="J154" s="85"/>
       <c r="K154" s="47" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L154" s="47" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="M154" s="47" t="s">
         <v>522</v>
       </c>
-      <c r="N154" s="14"/>
-      <c r="O154" s="14"/>
+      <c r="N154" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O154" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="P154" s="57" t="s">
         <v>1</v>
       </c>
@@ -13604,13 +13859,13 @@
     </row>
     <row r="155" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A155" s="45" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="B155" s="47" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="C155" s="47" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="D155" s="47" t="s">
         <v>732</v>
@@ -13628,18 +13883,22 @@
       <c r="I155" s="47" t="s">
         <v>814</v>
       </c>
-      <c r="J155" s="47"/>
+      <c r="J155" s="85"/>
       <c r="K155" s="47" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L155" s="47" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="M155" s="47" t="s">
         <v>516</v>
       </c>
-      <c r="N155" s="14"/>
-      <c r="O155" s="14"/>
+      <c r="N155" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O155" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="P155" s="57" t="s">
         <v>1</v>
       </c>
@@ -13678,9 +13937,9 @@
       <c r="I156" s="24" t="s">
         <v>814</v>
       </c>
-      <c r="J156" s="24"/>
+      <c r="J156" s="86"/>
       <c r="K156" s="24" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L156" s="24" t="s">
         <v>580</v>
@@ -13728,12 +13987,12 @@
       <c r="I157" s="24" t="s">
         <v>814</v>
       </c>
-      <c r="J157" s="24"/>
+      <c r="J157" s="86"/>
       <c r="K157" s="24" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L157" s="24" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="M157" s="24" t="s">
         <v>517</v>
@@ -13780,12 +14039,12 @@
       <c r="I158" s="24" t="s">
         <v>814</v>
       </c>
-      <c r="J158" s="24"/>
+      <c r="J158" s="86"/>
       <c r="K158" s="24" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L158" s="24" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="M158" s="24" t="s">
         <v>518</v>
@@ -13832,12 +14091,12 @@
       <c r="I159" s="24" t="s">
         <v>814</v>
       </c>
-      <c r="J159" s="24"/>
+      <c r="J159" s="86"/>
       <c r="K159" s="24" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L159" s="24" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="M159" s="24" t="s">
         <v>519</v>
@@ -13884,12 +14143,12 @@
       <c r="I160" s="24" t="s">
         <v>814</v>
       </c>
-      <c r="J160" s="24"/>
+      <c r="J160" s="86"/>
       <c r="K160" s="24" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L160" s="24" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="M160" s="24" t="s">
         <v>519</v>
@@ -13936,12 +14195,12 @@
       <c r="I161" s="24" t="s">
         <v>814</v>
       </c>
-      <c r="J161" s="24"/>
+      <c r="J161" s="86"/>
       <c r="K161" s="24" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L161" s="24" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="M161" s="24" t="s">
         <v>507</v>
@@ -13988,12 +14247,12 @@
       <c r="I162" s="26" t="s">
         <v>814</v>
       </c>
-      <c r="J162" s="26"/>
+      <c r="J162" s="87"/>
       <c r="K162" s="24" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L162" s="24" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="M162" s="26" t="s">
         <v>708</v>
@@ -14040,12 +14299,12 @@
       <c r="I163" s="26" t="s">
         <v>814</v>
       </c>
-      <c r="J163" s="26"/>
+      <c r="J163" s="87"/>
       <c r="K163" s="26" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="L163" s="26" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="M163" s="26" t="s">
         <v>709</v>
@@ -14092,12 +14351,12 @@
       <c r="I164" s="26" t="s">
         <v>814</v>
       </c>
-      <c r="J164" s="26"/>
+      <c r="J164" s="87"/>
       <c r="K164" s="26" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="L164" s="26" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="M164" s="26" t="s">
         <v>710</v>
@@ -14144,12 +14403,12 @@
       <c r="I165" s="26" t="s">
         <v>814</v>
       </c>
-      <c r="J165" s="26"/>
+      <c r="J165" s="87"/>
       <c r="K165" s="24" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L165" s="24" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="M165" s="26" t="s">
         <v>693</v>
@@ -14196,12 +14455,12 @@
       <c r="I166" s="26" t="s">
         <v>814</v>
       </c>
-      <c r="J166" s="26"/>
+      <c r="J166" s="87"/>
       <c r="K166" s="26" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="L166" s="26" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="M166" s="26" t="s">
         <v>695</v>
@@ -14246,11 +14505,13 @@
       <c r="I167" s="26" t="s">
         <v>814</v>
       </c>
-      <c r="J167" s="26"/>
+      <c r="J167" s="87"/>
       <c r="K167" s="26" t="s">
-        <v>1061</v>
-      </c>
-      <c r="L167" s="26"/>
+        <v>1056</v>
+      </c>
+      <c r="L167" s="26" t="s">
+        <v>1056</v>
+      </c>
       <c r="M167" s="26" t="s">
         <v>697</v>
       </c>
@@ -14296,12 +14557,12 @@
       <c r="I168" s="26" t="s">
         <v>814</v>
       </c>
-      <c r="J168" s="26"/>
+      <c r="J168" s="87"/>
       <c r="K168" s="26" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="L168" s="26" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="M168" s="26" t="s">
         <v>699</v>
@@ -14348,12 +14609,12 @@
       <c r="I169" s="26" t="s">
         <v>814</v>
       </c>
-      <c r="J169" s="26"/>
+      <c r="J169" s="87"/>
       <c r="K169" s="26" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="L169" s="26" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="M169" s="26" t="s">
         <v>729</v>
@@ -14398,9 +14659,9 @@
       <c r="I170" s="26" t="s">
         <v>814</v>
       </c>
-      <c r="J170" s="26"/>
+      <c r="J170" s="87"/>
       <c r="K170" s="24" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L170" s="26" t="s">
         <v>580</v>
@@ -14442,12 +14703,12 @@
       <c r="I171" s="26" t="s">
         <v>814</v>
       </c>
-      <c r="J171" s="26"/>
+      <c r="J171" s="87"/>
       <c r="K171" s="24" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L171" s="24" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="M171" s="26" t="s">
         <v>851</v>
@@ -14459,7 +14720,7 @@
         <v>195</v>
       </c>
       <c r="R171" s="58" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="172" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -14488,12 +14749,12 @@
       <c r="I172" s="26" t="s">
         <v>814</v>
       </c>
-      <c r="J172" s="26"/>
+      <c r="J172" s="87"/>
       <c r="K172" s="24" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L172" s="24" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="M172" s="26" t="s">
         <v>854</v>
@@ -14505,7 +14766,7 @@
         <v>195</v>
       </c>
       <c r="R172" s="58" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="173" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -14534,12 +14795,12 @@
       <c r="I173" s="26" t="s">
         <v>814</v>
       </c>
-      <c r="J173" s="26"/>
+      <c r="J173" s="87"/>
       <c r="K173" s="24" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L173" s="24" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="M173" s="26" t="s">
         <v>854</v>
@@ -14551,7 +14812,7 @@
         <v>195</v>
       </c>
       <c r="R173" s="58" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="174" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -14580,12 +14841,12 @@
       <c r="I174" s="26" t="s">
         <v>814</v>
       </c>
-      <c r="J174" s="26"/>
+      <c r="J174" s="87"/>
       <c r="K174" s="24" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L174" s="24" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="M174" s="26" t="s">
         <v>862</v>
@@ -14624,12 +14885,12 @@
       <c r="I175" s="26" t="s">
         <v>814</v>
       </c>
-      <c r="J175" s="26"/>
+      <c r="J175" s="87"/>
       <c r="K175" s="24" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L175" s="24" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="M175" s="26" t="s">
         <v>866</v>
@@ -14668,12 +14929,12 @@
       <c r="I176" s="26" t="s">
         <v>814</v>
       </c>
-      <c r="J176" s="26"/>
+      <c r="J176" s="87"/>
       <c r="K176" s="24" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L176" s="24" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="M176" s="26" t="s">
         <v>517</v>
@@ -14712,12 +14973,12 @@
       <c r="I177" s="26" t="s">
         <v>814</v>
       </c>
-      <c r="J177" s="26"/>
+      <c r="J177" s="87"/>
       <c r="K177" s="24" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L177" s="24" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="M177" s="26" t="s">
         <v>873</v>
@@ -14756,9 +15017,9 @@
       <c r="I178" s="26" t="s">
         <v>814</v>
       </c>
-      <c r="J178" s="26"/>
+      <c r="J178" s="87"/>
       <c r="K178" s="24" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L178" s="24" t="s">
         <v>580</v>
@@ -14766,8 +15027,12 @@
       <c r="M178" s="26" t="s">
         <v>876</v>
       </c>
-      <c r="N178" s="14"/>
-      <c r="O178" s="14"/>
+      <c r="N178" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O178" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="R178" s="58"/>
     </row>
     <row r="179" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -14796,20 +15061,24 @@
       <c r="I179" s="26" t="s">
         <v>814</v>
       </c>
-      <c r="J179" s="26"/>
+      <c r="J179" s="87"/>
       <c r="K179" s="24" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L179" s="24" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="M179" s="26" t="s">
         <v>873</v>
       </c>
-      <c r="N179" s="14"/>
-      <c r="O179" s="14"/>
+      <c r="N179" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O179" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="R179" s="58" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="180" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -14838,20 +15107,24 @@
       <c r="I180" s="26" t="s">
         <v>814</v>
       </c>
-      <c r="J180" s="26"/>
+      <c r="J180" s="87"/>
       <c r="K180" s="24" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L180" s="24" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="M180" s="26" t="s">
         <v>866</v>
       </c>
-      <c r="N180" s="14"/>
-      <c r="O180" s="14"/>
+      <c r="N180" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O180" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="R180" s="58" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="181" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -14880,9 +15153,9 @@
       <c r="I181" s="26" t="s">
         <v>814</v>
       </c>
-      <c r="J181" s="26"/>
+      <c r="J181" s="87"/>
       <c r="K181" s="24" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L181" s="24" t="s">
         <v>580</v>
@@ -14890,8 +15163,12 @@
       <c r="M181" s="26" t="s">
         <v>876</v>
       </c>
-      <c r="N181" s="14"/>
-      <c r="O181" s="14"/>
+      <c r="N181" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O181" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="R181" s="58"/>
     </row>
     <row r="182" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -14920,31 +15197,35 @@
       <c r="I182" s="26" t="s">
         <v>814</v>
       </c>
-      <c r="J182" s="26"/>
+      <c r="J182" s="87"/>
       <c r="K182" s="24" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L182" s="24" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="M182" s="26" t="s">
-        <v>890</v>
-      </c>
-      <c r="N182" s="14"/>
-      <c r="O182" s="14"/>
+        <v>1074</v>
+      </c>
+      <c r="N182" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O182" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="R182" s="58" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="183" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A183" s="25" t="s">
+        <v>891</v>
+      </c>
+      <c r="B183" s="26" t="s">
         <v>892</v>
       </c>
-      <c r="B183" s="26" t="s">
+      <c r="C183" s="26" t="s">
         <v>893</v>
-      </c>
-      <c r="C183" s="26" t="s">
-        <v>894</v>
       </c>
       <c r="D183" s="24" t="s">
         <v>732</v>
@@ -14962,31 +15243,35 @@
       <c r="I183" s="26" t="s">
         <v>814</v>
       </c>
-      <c r="J183" s="26"/>
+      <c r="J183" s="87"/>
       <c r="K183" s="24" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L183" s="24" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="M183" s="26" t="s">
-        <v>891</v>
-      </c>
-      <c r="N183" s="14"/>
-      <c r="O183" s="14"/>
+        <v>890</v>
+      </c>
+      <c r="N183" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O183" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="R183" s="58" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="184" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A184" s="25" t="s">
+        <v>894</v>
+      </c>
+      <c r="B184" s="26" t="s">
         <v>895</v>
       </c>
-      <c r="B184" s="26" t="s">
+      <c r="C184" s="26" t="s">
         <v>896</v>
-      </c>
-      <c r="C184" s="26" t="s">
-        <v>897</v>
       </c>
       <c r="D184" s="24" t="s">
         <v>732</v>
@@ -15004,31 +15289,35 @@
       <c r="I184" s="26" t="s">
         <v>814</v>
       </c>
-      <c r="J184" s="26"/>
+      <c r="J184" s="87"/>
       <c r="K184" s="24" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L184" s="24" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="M184" s="26" t="s">
-        <v>898</v>
-      </c>
-      <c r="N184" s="14"/>
-      <c r="O184" s="14"/>
+        <v>897</v>
+      </c>
+      <c r="N184" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O184" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="R184" s="58" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="185" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A185" s="25" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B185" s="26" t="s">
+        <v>898</v>
+      </c>
+      <c r="C185" s="26" t="s">
         <v>899</v>
-      </c>
-      <c r="C185" s="26" t="s">
-        <v>900</v>
       </c>
       <c r="D185" s="24" t="s">
         <v>732</v>
@@ -15046,16 +15335,22 @@
       <c r="I185" s="26" t="s">
         <v>814</v>
       </c>
-      <c r="J185" s="26"/>
-      <c r="K185" s="26" t="s">
-        <v>1050</v>
-      </c>
-      <c r="L185" s="26"/>
+      <c r="J185" s="87"/>
+      <c r="K185" s="24" t="s">
+        <v>1097</v>
+      </c>
+      <c r="L185" s="24" t="s">
+        <v>1098</v>
+      </c>
       <c r="M185" s="26" t="s">
-        <v>908</v>
-      </c>
-      <c r="N185" s="14"/>
-      <c r="O185" s="14"/>
+        <v>905</v>
+      </c>
+      <c r="N185" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O185" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="P185" s="1"/>
       <c r="Q185"/>
       <c r="R185" s="58" t="s">
@@ -15064,13 +15359,13 @@
     </row>
     <row r="186" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A186" s="25" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="B186" s="26" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C186" s="26" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D186" s="24" t="s">
         <v>732</v>
@@ -15088,31 +15383,35 @@
       <c r="I186" s="26" t="s">
         <v>814</v>
       </c>
-      <c r="J186" s="26"/>
+      <c r="J186" s="87"/>
       <c r="K186" s="24" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L186" s="24" t="s">
         <v>580</v>
       </c>
       <c r="M186" s="26" t="s">
-        <v>903</v>
-      </c>
-      <c r="N186" s="14"/>
-      <c r="O186" s="14"/>
+        <v>1096</v>
+      </c>
+      <c r="N186" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O186" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="P186" s="66"/>
       <c r="Q186" s="65"/>
       <c r="R186" s="58"/>
     </row>
     <row r="187" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A187" s="25" t="s">
+        <v>902</v>
+      </c>
+      <c r="B187" s="26" t="s">
+        <v>903</v>
+      </c>
+      <c r="C187" s="26" t="s">
         <v>904</v>
-      </c>
-      <c r="B187" s="26" t="s">
-        <v>905</v>
-      </c>
-      <c r="C187" s="26" t="s">
-        <v>906</v>
       </c>
       <c r="D187" s="24" t="s">
         <v>732</v>
@@ -15130,31 +15429,37 @@
       <c r="I187" s="26" t="s">
         <v>814</v>
       </c>
-      <c r="J187" s="26"/>
-      <c r="K187" s="26" t="s">
-        <v>1050</v>
-      </c>
-      <c r="L187" s="26"/>
+      <c r="J187" s="87"/>
+      <c r="K187" s="24" t="s">
+        <v>1097</v>
+      </c>
+      <c r="L187" s="24" t="s">
+        <v>1051</v>
+      </c>
       <c r="M187" s="26" t="s">
-        <v>907</v>
-      </c>
-      <c r="N187" s="14"/>
-      <c r="O187" s="14"/>
+        <v>1077</v>
+      </c>
+      <c r="N187" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O187" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="P187" s="1"/>
       <c r="Q187"/>
       <c r="R187" s="58" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="188" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A188" s="25" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="B188" s="26" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C188" s="26" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="D188" s="24" t="s">
         <v>732</v>
@@ -15172,28 +15477,34 @@
       <c r="I188" s="26" t="s">
         <v>814</v>
       </c>
-      <c r="J188" s="26"/>
-      <c r="K188" s="26" t="s">
-        <v>1053</v>
-      </c>
-      <c r="L188" s="26"/>
+      <c r="J188" s="87"/>
+      <c r="K188" s="24" t="s">
+        <v>1048</v>
+      </c>
+      <c r="L188" s="24" t="s">
+        <v>1089</v>
+      </c>
       <c r="M188" s="26" t="s">
-        <v>911</v>
-      </c>
-      <c r="N188" s="14"/>
-      <c r="O188" s="14"/>
+        <v>908</v>
+      </c>
+      <c r="N188" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O188" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="P188" s="66"/>
       <c r="R188" s="58"/>
     </row>
     <row r="189" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A189" s="25" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="B189" s="26" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C189" s="26" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D189" s="24" t="s">
         <v>732</v>
@@ -15211,33 +15522,37 @@
       <c r="I189" s="26" t="s">
         <v>814</v>
       </c>
-      <c r="J189" s="26"/>
-      <c r="K189" s="26" t="s">
-        <v>1053</v>
-      </c>
-      <c r="L189" s="26" t="s">
-        <v>1087</v>
+      <c r="J189" s="87"/>
+      <c r="K189" s="24" t="s">
+        <v>1048</v>
+      </c>
+      <c r="L189" s="24" t="s">
+        <v>1082</v>
       </c>
       <c r="M189" s="26" t="s">
-        <v>913</v>
-      </c>
-      <c r="N189" s="14"/>
-      <c r="O189" s="14"/>
+        <v>910</v>
+      </c>
+      <c r="N189" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O189" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="P189" s="66"/>
       <c r="Q189" s="65"/>
       <c r="R189" s="58" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="190" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A190" s="25" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="B190" s="26" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="C190" s="26" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="D190" s="24" t="s">
         <v>732</v>
@@ -15255,33 +15570,37 @@
       <c r="I190" s="26" t="s">
         <v>814</v>
       </c>
-      <c r="J190" s="26"/>
-      <c r="K190" s="26" t="s">
-        <v>1060</v>
-      </c>
-      <c r="L190" s="26" t="s">
-        <v>1062</v>
+      <c r="J190" s="87"/>
+      <c r="K190" s="24" t="s">
+        <v>1055</v>
+      </c>
+      <c r="L190" s="24" t="s">
+        <v>1057</v>
       </c>
       <c r="M190" s="26" t="s">
-        <v>917</v>
-      </c>
-      <c r="N190" s="14"/>
-      <c r="O190" s="14"/>
+        <v>1063</v>
+      </c>
+      <c r="N190" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O190" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="P190" s="1"/>
       <c r="Q190"/>
       <c r="R190" s="58" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="191" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A191" s="25" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="B191" s="26" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="C191" s="26" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="D191" s="24" t="s">
         <v>732</v>
@@ -15299,32 +15618,36 @@
       <c r="I191" s="26" t="s">
         <v>814</v>
       </c>
-      <c r="J191" s="26"/>
-      <c r="K191" s="26" t="s">
-        <v>1059</v>
-      </c>
-      <c r="L191" s="26" t="s">
-        <v>1059</v>
+      <c r="J191" s="87"/>
+      <c r="K191" s="24" t="s">
+        <v>1054</v>
+      </c>
+      <c r="L191" s="24" t="s">
+        <v>1054</v>
       </c>
       <c r="M191" s="26" t="s">
-        <v>920</v>
-      </c>
-      <c r="N191" s="14"/>
-      <c r="O191" s="14"/>
+        <v>1064</v>
+      </c>
+      <c r="N191" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O191" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="P191" s="66"/>
       <c r="R191" s="58" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="192" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A192" s="25" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="B192" s="26" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="C192" s="26" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="D192" s="24" t="s">
         <v>732</v>
@@ -15342,32 +15665,36 @@
       <c r="I192" s="26" t="s">
         <v>814</v>
       </c>
-      <c r="J192" s="26"/>
+      <c r="J192" s="87"/>
       <c r="K192" s="26" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="L192" s="26" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="M192" s="26" t="s">
-        <v>923</v>
-      </c>
-      <c r="N192" s="14"/>
-      <c r="O192" s="14"/>
+        <v>918</v>
+      </c>
+      <c r="N192" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O192" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="P192" s="66"/>
       <c r="R192" s="58" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="193" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A193" s="25" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="B193" s="26" t="s">
+        <v>919</v>
+      </c>
+      <c r="C193" s="26" t="s">
         <v>924</v>
-      </c>
-      <c r="C193" s="26" t="s">
-        <v>929</v>
       </c>
       <c r="D193" s="24" t="s">
         <v>732</v>
@@ -15385,30 +15712,36 @@
       <c r="I193" s="26" t="s">
         <v>814</v>
       </c>
-      <c r="J193" s="26"/>
+      <c r="J193" s="87"/>
       <c r="K193" s="26" t="s">
-        <v>1052</v>
-      </c>
-      <c r="L193" s="26"/>
+        <v>1047</v>
+      </c>
+      <c r="L193" s="26" t="s">
+        <v>1095</v>
+      </c>
       <c r="M193" s="26" t="s">
-        <v>925</v>
-      </c>
-      <c r="N193" s="14"/>
-      <c r="O193" s="14"/>
+        <v>920</v>
+      </c>
+      <c r="N193" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O193" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="P193" s="66"/>
       <c r="R193" s="58" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="194" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A194" s="25" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="B194" s="26" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="C194" s="26" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="D194" s="24" t="s">
         <v>732</v>
@@ -15426,18 +15759,22 @@
       <c r="I194" s="26" t="s">
         <v>814</v>
       </c>
-      <c r="J194" s="26"/>
+      <c r="J194" s="87"/>
       <c r="K194" s="26" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="L194" s="26" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="M194" s="26" t="s">
-        <v>927</v>
-      </c>
-      <c r="N194" s="14"/>
-      <c r="O194" s="14"/>
+        <v>922</v>
+      </c>
+      <c r="N194" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O194" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="P194" s="66"/>
       <c r="R194" s="58"/>
     </row>
@@ -15446,10 +15783,10 @@
         <v>668</v>
       </c>
       <c r="B195" s="26" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="C195" s="26" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="D195" s="24" t="s">
         <v>732</v>
@@ -15467,28 +15804,34 @@
       <c r="I195" s="26" t="s">
         <v>814</v>
       </c>
-      <c r="J195" s="26"/>
+      <c r="J195" s="87"/>
       <c r="K195" s="26" t="s">
-        <v>1061</v>
-      </c>
-      <c r="L195" s="26"/>
+        <v>1056</v>
+      </c>
+      <c r="L195" s="26" t="s">
+        <v>1056</v>
+      </c>
       <c r="M195" s="26" t="s">
-        <v>932</v>
-      </c>
-      <c r="N195" s="14"/>
-      <c r="O195" s="14"/>
+        <v>927</v>
+      </c>
+      <c r="N195" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O195" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="P195" s="66"/>
       <c r="R195" s="58"/>
     </row>
     <row r="196" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A196" s="25" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="B196" s="26" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="C196" s="26" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="D196" s="24" t="s">
         <v>732</v>
@@ -15506,28 +15849,34 @@
       <c r="I196" s="26" t="s">
         <v>814</v>
       </c>
-      <c r="J196" s="26"/>
+      <c r="J196" s="87"/>
       <c r="K196" s="26" t="s">
-        <v>1059</v>
-      </c>
-      <c r="L196" s="26"/>
+        <v>1054</v>
+      </c>
+      <c r="L196" s="26" t="s">
+        <v>1054</v>
+      </c>
       <c r="M196" s="26" t="s">
-        <v>935</v>
-      </c>
-      <c r="N196" s="14"/>
-      <c r="O196" s="14"/>
+        <v>930</v>
+      </c>
+      <c r="N196" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O196" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="P196" s="66"/>
       <c r="R196" s="58"/>
     </row>
     <row r="197" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A197" s="25" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="B197" s="26" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="C197" s="26" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="D197" s="24" t="s">
         <v>732</v>
@@ -15545,16 +15894,22 @@
       <c r="I197" s="26" t="s">
         <v>814</v>
       </c>
-      <c r="J197" s="26"/>
+      <c r="J197" s="87"/>
       <c r="K197" s="26" t="s">
-        <v>1060</v>
-      </c>
-      <c r="L197" s="26"/>
+        <v>1055</v>
+      </c>
+      <c r="L197" s="26" t="s">
+        <v>1086</v>
+      </c>
       <c r="M197" s="26" t="s">
-        <v>938</v>
-      </c>
-      <c r="N197" s="14"/>
-      <c r="O197" s="14"/>
+        <v>933</v>
+      </c>
+      <c r="N197" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O197" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="P197" s="66"/>
       <c r="R197" s="58"/>
     </row>
@@ -15566,7 +15921,7 @@
         <v>705</v>
       </c>
       <c r="C198" s="26" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="D198" s="24" t="s">
         <v>732</v>
@@ -15584,16 +15939,22 @@
       <c r="I198" s="26" t="s">
         <v>814</v>
       </c>
-      <c r="J198" s="26"/>
+      <c r="J198" s="87"/>
       <c r="K198" s="26" t="s">
-        <v>1060</v>
-      </c>
-      <c r="L198" s="26"/>
+        <v>1055</v>
+      </c>
+      <c r="L198" s="26" t="s">
+        <v>1086</v>
+      </c>
       <c r="M198" s="26" t="s">
-        <v>939</v>
-      </c>
-      <c r="N198" s="14"/>
-      <c r="O198" s="14"/>
+        <v>934</v>
+      </c>
+      <c r="N198" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O198" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="P198" s="66"/>
       <c r="Q198" s="65"/>
       <c r="R198" s="58" t="s">
@@ -15602,13 +15963,13 @@
     </row>
     <row r="199" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A199" s="25" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="B199" s="26" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="C199" s="26" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="D199" s="24" t="s">
         <v>732</v>
@@ -15626,31 +15987,35 @@
       <c r="I199" s="26" t="s">
         <v>814</v>
       </c>
-      <c r="J199" s="26"/>
+      <c r="J199" s="87"/>
       <c r="K199" s="24" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L199" s="24" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="M199" s="26" t="s">
-        <v>965</v>
-      </c>
-      <c r="N199" s="14"/>
-      <c r="O199" s="14"/>
+        <v>960</v>
+      </c>
+      <c r="N199" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O199" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="R199" s="58" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="200" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A200" s="25" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="B200" s="26" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="C200" s="26" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="D200" s="24" t="s">
         <v>732</v>
@@ -15668,27 +16033,33 @@
       <c r="I200" s="26" t="s">
         <v>814</v>
       </c>
-      <c r="J200" s="26"/>
+      <c r="J200" s="87"/>
       <c r="K200" s="26" t="s">
-        <v>1052</v>
-      </c>
-      <c r="L200" s="26"/>
+        <v>1047</v>
+      </c>
+      <c r="L200" s="26" t="s">
+        <v>1094</v>
+      </c>
       <c r="M200" s="26" t="s">
-        <v>966</v>
-      </c>
-      <c r="N200" s="14"/>
-      <c r="O200" s="14"/>
+        <v>961</v>
+      </c>
+      <c r="N200" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O200" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="R200" s="58"/>
     </row>
     <row r="201" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A201" s="25" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="B201" s="26" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="C201" s="26" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="D201" s="24" t="s">
         <v>732</v>
@@ -15706,27 +16077,33 @@
       <c r="I201" s="26" t="s">
         <v>814</v>
       </c>
-      <c r="J201" s="26"/>
+      <c r="J201" s="87"/>
       <c r="K201" s="26" t="s">
-        <v>1052</v>
-      </c>
-      <c r="L201" s="26"/>
+        <v>1047</v>
+      </c>
+      <c r="L201" s="26" t="s">
+        <v>1085</v>
+      </c>
       <c r="M201" s="26" t="s">
-        <v>967</v>
-      </c>
-      <c r="N201" s="14"/>
-      <c r="O201" s="14"/>
+        <v>962</v>
+      </c>
+      <c r="N201" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O201" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="R201" s="58"/>
     </row>
     <row r="202" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A202" s="25" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="B202" s="26" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="C202" s="26" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D202" s="24" t="s">
         <v>732</v>
@@ -15744,27 +16121,33 @@
       <c r="I202" s="26" t="s">
         <v>814</v>
       </c>
-      <c r="J202" s="26"/>
+      <c r="J202" s="87"/>
       <c r="K202" s="24" t="s">
-        <v>1053</v>
-      </c>
-      <c r="L202" s="24"/>
+        <v>1048</v>
+      </c>
+      <c r="L202" s="24" t="s">
+        <v>1087</v>
+      </c>
       <c r="M202" s="26" t="s">
-        <v>968</v>
-      </c>
-      <c r="N202" s="14"/>
-      <c r="O202" s="14"/>
+        <v>963</v>
+      </c>
+      <c r="N202" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O202" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="R202" s="58"/>
     </row>
     <row r="203" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A203" s="25" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="B203" s="26" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="C203" s="26" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="D203" s="24" t="s">
         <v>732</v>
@@ -15782,29 +16165,33 @@
       <c r="I203" s="26" t="s">
         <v>814</v>
       </c>
-      <c r="J203" s="26"/>
+      <c r="J203" s="87"/>
       <c r="K203" s="26" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="L203" s="26" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="M203" s="26" t="s">
-        <v>969</v>
-      </c>
-      <c r="N203" s="14"/>
-      <c r="O203" s="14"/>
+        <v>964</v>
+      </c>
+      <c r="N203" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O203" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="R203" s="58"/>
     </row>
     <row r="204" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A204" s="25" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="B204" s="26" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="C204" s="26" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="D204" s="24" t="s">
         <v>732</v>
@@ -15822,29 +16209,33 @@
       <c r="I204" s="26" t="s">
         <v>814</v>
       </c>
-      <c r="J204" s="26"/>
+      <c r="J204" s="87"/>
       <c r="K204" s="24" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L204" s="24" t="s">
         <v>580</v>
       </c>
       <c r="M204" s="26" t="s">
-        <v>970</v>
-      </c>
-      <c r="N204" s="14"/>
-      <c r="O204" s="14"/>
+        <v>965</v>
+      </c>
+      <c r="N204" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O204" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="R204" s="58"/>
     </row>
     <row r="205" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A205" s="25" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="B205" s="26" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="C205" s="26" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="D205" s="24" t="s">
         <v>732</v>
@@ -15862,29 +16253,33 @@
       <c r="I205" s="26" t="s">
         <v>814</v>
       </c>
-      <c r="J205" s="26"/>
+      <c r="J205" s="87"/>
       <c r="K205" s="26" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="L205" s="26" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="M205" s="26" t="s">
-        <v>971</v>
-      </c>
-      <c r="N205" s="14"/>
-      <c r="O205" s="14"/>
+        <v>966</v>
+      </c>
+      <c r="N205" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O205" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="R205" s="58"/>
     </row>
     <row r="206" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A206" s="25" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="B206" s="26" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="C206" s="26" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="D206" s="24" t="s">
         <v>732</v>
@@ -15902,18 +16297,22 @@
       <c r="I206" s="26" t="s">
         <v>814</v>
       </c>
-      <c r="J206" s="26"/>
+      <c r="J206" s="87"/>
       <c r="K206" s="26" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L206" s="26" t="s">
         <v>580</v>
       </c>
       <c r="M206" s="26" t="s">
-        <v>972</v>
-      </c>
-      <c r="N206" s="14"/>
-      <c r="O206" s="14"/>
+        <v>967</v>
+      </c>
+      <c r="N206" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O206" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="P206" s="1"/>
       <c r="Q206"/>
       <c r="R206" s="58"/>
@@ -15944,9 +16343,9 @@
       <c r="I207" s="70" t="s">
         <v>814</v>
       </c>
-      <c r="J207" s="70"/>
+      <c r="J207" s="88"/>
       <c r="K207" s="71" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L207" s="71" t="s">
         <v>580</v>
@@ -15996,12 +16395,12 @@
       <c r="I208" s="70" t="s">
         <v>814</v>
       </c>
-      <c r="J208" s="70"/>
+      <c r="J208" s="88"/>
       <c r="K208" s="71" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L208" s="71" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="M208" s="70" t="s">
         <v>518</v>
@@ -16048,9 +16447,9 @@
       <c r="I209" s="70" t="s">
         <v>814</v>
       </c>
-      <c r="J209" s="70"/>
+      <c r="J209" s="88"/>
       <c r="K209" s="71" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L209" s="71" t="s">
         <v>580</v>
@@ -16100,9 +16499,9 @@
       <c r="I210" s="70" t="s">
         <v>814</v>
       </c>
-      <c r="J210" s="70"/>
+      <c r="J210" s="88"/>
       <c r="K210" s="71" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L210" s="71" t="s">
         <v>580</v>
@@ -16152,12 +16551,12 @@
       <c r="I211" s="70" t="s">
         <v>814</v>
       </c>
-      <c r="J211" s="70"/>
+      <c r="J211" s="88"/>
       <c r="K211" s="71" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L211" s="71" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="M211" s="70" t="s">
         <v>519</v>
@@ -16204,15 +16603,15 @@
       <c r="I212" s="70" t="s">
         <v>814</v>
       </c>
-      <c r="J212" s="70"/>
+      <c r="J212" s="88"/>
       <c r="K212" s="71" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L212" s="71" t="s">
         <v>580</v>
       </c>
       <c r="M212" s="70" t="s">
-        <v>580</v>
+        <v>118</v>
       </c>
       <c r="N212" s="14" t="s">
         <v>195</v>
@@ -16256,12 +16655,12 @@
       <c r="I213" s="70" t="s">
         <v>814</v>
       </c>
-      <c r="J213" s="70"/>
+      <c r="J213" s="88"/>
       <c r="K213" s="71" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L213" s="71" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="M213" s="70" t="s">
         <v>520</v>
@@ -16308,9 +16707,9 @@
       <c r="I214" s="70" t="s">
         <v>814</v>
       </c>
-      <c r="J214" s="70"/>
+      <c r="J214" s="88"/>
       <c r="K214" s="71" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L214" s="71" t="s">
         <v>580</v>
@@ -16360,9 +16759,9 @@
       <c r="I215" s="70" t="s">
         <v>814</v>
       </c>
-      <c r="J215" s="70"/>
+      <c r="J215" s="88"/>
       <c r="K215" s="71" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L215" s="71" t="s">
         <v>580</v>
@@ -16388,13 +16787,13 @@
     </row>
     <row r="216" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A216" s="69" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="B216" s="70" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="C216" s="70" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="D216" s="71" t="s">
         <v>732</v>
@@ -16412,15 +16811,15 @@
       <c r="I216" s="70" t="s">
         <v>814</v>
       </c>
-      <c r="J216" s="70"/>
+      <c r="J216" s="88"/>
       <c r="K216" s="71" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L216" s="71" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="M216" s="70" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="N216" s="14" t="s">
         <v>195</v>
@@ -16440,13 +16839,13 @@
     </row>
     <row r="217" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A217" s="69" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="B217" s="70" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="C217" s="70" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="D217" s="71" t="s">
         <v>732</v>
@@ -16464,31 +16863,35 @@
       <c r="I217" s="70" t="s">
         <v>814</v>
       </c>
-      <c r="J217" s="70"/>
+      <c r="J217" s="88"/>
       <c r="K217" s="71" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L217" s="71" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="M217" s="70" t="s">
-        <v>975</v>
-      </c>
-      <c r="N217" s="14"/>
-      <c r="O217" s="14"/>
+        <v>970</v>
+      </c>
+      <c r="N217" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O217" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="P217" s="66"/>
       <c r="Q217" s="65"/>
       <c r="R217" s="65"/>
     </row>
     <row r="218" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A218" s="69" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="B218" s="70" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="C218" s="70" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="D218" s="71" t="s">
         <v>732</v>
@@ -16506,31 +16909,35 @@
       <c r="I218" s="70" t="s">
         <v>814</v>
       </c>
-      <c r="J218" s="70"/>
+      <c r="J218" s="88"/>
       <c r="K218" s="71" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L218" s="71" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="M218" s="70" t="s">
-        <v>980</v>
-      </c>
-      <c r="N218" s="14"/>
-      <c r="O218" s="14"/>
+        <v>975</v>
+      </c>
+      <c r="N218" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O218" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="P218" s="66"/>
       <c r="Q218" s="65"/>
       <c r="R218" s="65"/>
     </row>
     <row r="219" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A219" s="69" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="B219" s="70" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="C219" s="70" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="D219" s="71" t="s">
         <v>732</v>
@@ -16548,31 +16955,35 @@
       <c r="I219" s="70" t="s">
         <v>814</v>
       </c>
-      <c r="J219" s="70"/>
+      <c r="J219" s="88"/>
       <c r="K219" s="71" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L219" s="71" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="M219" s="70" t="s">
         <v>522</v>
       </c>
-      <c r="N219" s="14"/>
-      <c r="O219" s="14"/>
+      <c r="N219" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O219" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="P219" s="66"/>
       <c r="Q219" s="65"/>
       <c r="R219" s="65"/>
     </row>
     <row r="220" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A220" s="69" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="B220" s="70" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="C220" s="70" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="D220" s="71" t="s">
         <v>732</v>
@@ -16590,31 +17001,35 @@
       <c r="I220" s="70" t="s">
         <v>814</v>
       </c>
-      <c r="J220" s="70"/>
+      <c r="J220" s="88"/>
       <c r="K220" s="71" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L220" s="71" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="M220" s="70" t="s">
         <v>522</v>
       </c>
-      <c r="N220" s="14"/>
-      <c r="O220" s="14"/>
+      <c r="N220" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O220" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="P220" s="66"/>
       <c r="Q220" s="65"/>
       <c r="R220" s="65"/>
     </row>
     <row r="221" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A221" s="69" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="B221" s="70" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="C221" s="70" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="D221" s="71" t="s">
         <v>732</v>
@@ -16632,31 +17047,35 @@
       <c r="I221" s="70" t="s">
         <v>814</v>
       </c>
-      <c r="J221" s="70"/>
+      <c r="J221" s="88"/>
       <c r="K221" s="71" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L221" s="71" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="M221" s="70" t="s">
-        <v>987</v>
-      </c>
-      <c r="N221" s="14"/>
-      <c r="O221" s="14"/>
+        <v>982</v>
+      </c>
+      <c r="N221" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O221" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="P221" s="66"/>
       <c r="Q221" s="65"/>
       <c r="R221" s="65"/>
     </row>
     <row r="222" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A222" s="69" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="B222" s="70" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="C222" s="70" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="D222" s="71" t="s">
         <v>732</v>
@@ -16674,28 +17093,32 @@
       <c r="I222" s="70" t="s">
         <v>814</v>
       </c>
-      <c r="J222" s="70"/>
+      <c r="J222" s="88"/>
       <c r="K222" s="71" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L222" s="71" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="M222" s="70" t="s">
-        <v>990</v>
-      </c>
-      <c r="N222" s="14"/>
-      <c r="O222" s="14"/>
+        <v>985</v>
+      </c>
+      <c r="N222" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O222" s="14" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="223" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A223" s="69" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="B223" s="70" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="C223" s="70" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="D223" s="71" t="s">
         <v>732</v>
@@ -16713,28 +17136,32 @@
       <c r="I223" s="70" t="s">
         <v>814</v>
       </c>
-      <c r="J223" s="70"/>
+      <c r="J223" s="88"/>
       <c r="K223" s="71" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L223" s="71" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="M223" s="70" t="s">
-        <v>994</v>
-      </c>
-      <c r="N223" s="14"/>
-      <c r="O223" s="14"/>
+        <v>989</v>
+      </c>
+      <c r="N223" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O223" s="14" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="224" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A224" s="69" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="B224" s="70" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="C224" s="70" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="D224" s="71" t="s">
         <v>732</v>
@@ -16752,28 +17179,32 @@
       <c r="I224" s="70" t="s">
         <v>814</v>
       </c>
-      <c r="J224" s="70"/>
+      <c r="J224" s="88"/>
       <c r="K224" s="70" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="L224" s="70" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="M224" s="70" t="s">
-        <v>997</v>
-      </c>
-      <c r="N224" s="14"/>
-      <c r="O224" s="14"/>
+        <v>992</v>
+      </c>
+      <c r="N224" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O224" s="14" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="225" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A225" s="72" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B225" s="73" t="s">
-        <v>1022</v>
+      <c r="A225" s="69" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B225" s="70" t="s">
+        <v>1017</v>
       </c>
       <c r="C225" s="70" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="D225" s="71" t="s">
         <v>732</v>
@@ -16791,18 +17222,22 @@
       <c r="I225" s="70" t="s">
         <v>814</v>
       </c>
-      <c r="J225" s="74"/>
+      <c r="J225" s="89"/>
       <c r="K225" s="71" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="L225" s="71" t="s">
         <v>580</v>
       </c>
       <c r="M225" s="70" t="s">
-        <v>1024</v>
-      </c>
-      <c r="N225" s="14"/>
-      <c r="O225" s="14"/>
+        <v>1019</v>
+      </c>
+      <c r="N225" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O225" s="14" t="s">
+        <v>195</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R225">

--- a/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A6D1B8-99F4-CD45-81D7-B8FFC8D8AFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCA094A-9CC2-224E-92A5-1025FF751AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3500" yWindow="500" windowWidth="45720" windowHeight="25040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2746,9 +2746,6 @@
     <t>CBV</t>
   </si>
   <si>
-    <t>Insect (culex annulirostris)?</t>
-  </si>
-  <si>
     <t>Canine Hepacivirus</t>
   </si>
   <si>
@@ -3325,10 +3322,13 @@
     <t>Arthropods</t>
   </si>
   <si>
-    <t>Insecta</t>
-  </si>
-  <si>
     <t>Teleostii</t>
+  </si>
+  <si>
+    <t>Podargus strigoides</t>
+  </si>
+  <si>
+    <t>Podargiformes</t>
   </si>
 </sst>
 </file>
@@ -5680,9 +5680,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R225"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G180" sqref="A1:R225"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A216" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D197" sqref="D197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,13 +5735,13 @@
         <v>647</v>
       </c>
       <c r="K1" s="9" t="s">
+        <v>1078</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>1079</v>
       </c>
-      <c r="L1" s="9" t="s">
-        <v>1080</v>
-      </c>
       <c r="M1" s="9" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>579</v>
@@ -5789,7 +5789,7 @@
       </c>
       <c r="J2" s="73"/>
       <c r="K2" s="53" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L2" s="53"/>
       <c r="M2" s="53" t="s">
@@ -5837,10 +5837,10 @@
       </c>
       <c r="J3" s="74"/>
       <c r="K3" s="12" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M3" s="12" t="s">
         <v>500</v>
@@ -5891,10 +5891,10 @@
       </c>
       <c r="J4" s="74"/>
       <c r="K4" s="12" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M4" s="12" t="s">
         <v>500</v>
@@ -5945,10 +5945,10 @@
       </c>
       <c r="J5" s="74"/>
       <c r="K5" s="12" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M5" s="12" t="s">
         <v>401</v>
@@ -5999,10 +5999,10 @@
       </c>
       <c r="J6" s="74"/>
       <c r="K6" s="12" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M6" s="12" t="s">
         <v>401</v>
@@ -6053,10 +6053,10 @@
       </c>
       <c r="J7" s="74"/>
       <c r="K7" s="12" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M7" s="12" t="s">
         <v>501</v>
@@ -6107,10 +6107,10 @@
       </c>
       <c r="J8" s="74"/>
       <c r="K8" s="12" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M8" s="12" t="s">
         <v>500</v>
@@ -6161,10 +6161,10 @@
       </c>
       <c r="J9" s="74"/>
       <c r="K9" s="12" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M9" s="12" t="s">
         <v>401</v>
@@ -6215,10 +6215,10 @@
       </c>
       <c r="J10" s="74"/>
       <c r="K10" s="12" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M10" s="12" t="s">
         <v>401</v>
@@ -6269,10 +6269,10 @@
       </c>
       <c r="J11" s="74"/>
       <c r="K11" s="12" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M11" s="12" t="s">
         <v>503</v>
@@ -6323,10 +6323,10 @@
       </c>
       <c r="J12" s="74"/>
       <c r="K12" s="12" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M12" s="12" t="s">
         <v>401</v>
@@ -6377,10 +6377,10 @@
       </c>
       <c r="J13" s="74"/>
       <c r="K13" s="12" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M13" s="12" t="s">
         <v>502</v>
@@ -6431,10 +6431,10 @@
       </c>
       <c r="J14" s="74"/>
       <c r="K14" s="12" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M14" s="12" t="s">
         <v>500</v>
@@ -6485,10 +6485,10 @@
       </c>
       <c r="J15" s="74"/>
       <c r="K15" s="12" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M15" s="12" t="s">
         <v>401</v>
@@ -6539,10 +6539,10 @@
       </c>
       <c r="J16" s="74"/>
       <c r="K16" s="12" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M16" s="12" t="s">
         <v>612</v>
@@ -6593,10 +6593,10 @@
       </c>
       <c r="J17" s="75"/>
       <c r="K17" s="52" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L17" s="52" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="M17" s="52" t="s">
         <v>760</v>
@@ -6645,10 +6645,10 @@
       </c>
       <c r="J18" s="75"/>
       <c r="K18" s="52" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L18" s="52" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="M18" s="52" t="s">
         <v>761</v>
@@ -6697,10 +6697,10 @@
       </c>
       <c r="J19" s="75"/>
       <c r="K19" s="52" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L19" s="52" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="M19" s="52" t="s">
         <v>760</v>
@@ -6749,10 +6749,10 @@
       </c>
       <c r="J20" s="76"/>
       <c r="K20" s="20" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L20" s="20" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M20" s="20" t="s">
         <v>501</v>
@@ -6803,10 +6803,10 @@
       </c>
       <c r="J21" s="76"/>
       <c r="K21" s="20" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L21" s="20" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M21" s="20" t="s">
         <v>501</v>
@@ -6857,10 +6857,10 @@
       </c>
       <c r="J22" s="76"/>
       <c r="K22" s="20" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L22" s="20" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M22" s="20" t="s">
         <v>401</v>
@@ -6911,10 +6911,10 @@
       </c>
       <c r="J23" s="76"/>
       <c r="K23" s="20" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L23" s="20" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M23" s="23" t="s">
         <v>401</v>
@@ -6965,10 +6965,10 @@
       </c>
       <c r="J24" s="76"/>
       <c r="K24" s="20" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L24" s="20" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M24" s="23" t="s">
         <v>500</v>
@@ -7019,10 +7019,10 @@
       </c>
       <c r="J25" s="76"/>
       <c r="K25" s="20" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L25" s="20" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M25" s="23" t="s">
         <v>500</v>
@@ -7073,10 +7073,10 @@
       </c>
       <c r="J26" s="76"/>
       <c r="K26" s="20" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L26" s="20" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M26" s="23" t="s">
         <v>500</v>
@@ -7127,10 +7127,10 @@
       </c>
       <c r="J27" s="76"/>
       <c r="K27" s="20" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L27" s="20" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M27" s="23" t="s">
         <v>500</v>
@@ -7181,10 +7181,10 @@
       </c>
       <c r="J28" s="76"/>
       <c r="K28" s="20" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L28" s="20" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M28" s="23" t="s">
         <v>500</v>
@@ -7235,7 +7235,7 @@
       </c>
       <c r="J29" s="77"/>
       <c r="K29" s="7" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="L29" s="7"/>
       <c r="M29" s="7" t="s">
@@ -7287,7 +7287,7 @@
       </c>
       <c r="J30" s="77"/>
       <c r="K30" s="7" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="L30" s="7"/>
       <c r="M30" s="7" t="s">
@@ -7339,7 +7339,7 @@
       </c>
       <c r="J31" s="77"/>
       <c r="K31" s="7" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L31" s="7"/>
       <c r="M31" s="7" t="s">
@@ -7391,7 +7391,7 @@
       </c>
       <c r="J32" s="77"/>
       <c r="K32" s="7" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L32" s="7"/>
       <c r="M32" s="7" t="s">
@@ -7443,7 +7443,7 @@
       </c>
       <c r="J33" s="77"/>
       <c r="K33" s="7" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="L33" s="7"/>
       <c r="M33" s="7" t="s">
@@ -7495,7 +7495,7 @@
       </c>
       <c r="J34" s="77"/>
       <c r="K34" s="7" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L34" s="7"/>
       <c r="M34" s="7" t="s">
@@ -7547,7 +7547,7 @@
       </c>
       <c r="J35" s="77"/>
       <c r="K35" s="7" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L35" s="7"/>
       <c r="M35" s="7" t="s">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="J36" s="77"/>
       <c r="K36" s="7" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L36" s="7"/>
       <c r="M36" s="7" t="s">
@@ -7651,7 +7651,7 @@
       </c>
       <c r="J37" s="77"/>
       <c r="K37" s="7" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L37" s="7"/>
       <c r="M37" s="7" t="s">
@@ -7703,7 +7703,7 @@
       </c>
       <c r="J38" s="77"/>
       <c r="K38" s="7" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="L38" s="7"/>
       <c r="M38" s="7" t="s">
@@ -7755,7 +7755,7 @@
       </c>
       <c r="J39" s="77"/>
       <c r="K39" s="7" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="L39" s="7"/>
       <c r="M39" s="7" t="s">
@@ -7807,7 +7807,7 @@
       </c>
       <c r="J40" s="77"/>
       <c r="K40" s="7" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="L40" s="7"/>
       <c r="M40" s="7" t="s">
@@ -7909,7 +7909,7 @@
       </c>
       <c r="J42" s="77"/>
       <c r="K42" s="7" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="L42" s="7"/>
       <c r="M42" s="7" t="s">
@@ -7961,7 +7961,7 @@
       </c>
       <c r="J43" s="77"/>
       <c r="K43" s="7" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="L43" s="7"/>
       <c r="M43" s="7" t="s">
@@ -8169,7 +8169,7 @@
       </c>
       <c r="J47" s="77"/>
       <c r="K47" s="7" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="L47" s="7"/>
       <c r="M47" s="7" t="s">
@@ -8273,7 +8273,7 @@
       </c>
       <c r="J49" s="77"/>
       <c r="K49" s="7" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="L49" s="7"/>
       <c r="M49" s="7" t="s">
@@ -8325,7 +8325,7 @@
       </c>
       <c r="J50" s="77"/>
       <c r="K50" s="7" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L50" s="7"/>
       <c r="M50" s="7" t="s">
@@ -8377,7 +8377,7 @@
       </c>
       <c r="J51" s="77"/>
       <c r="K51" s="7" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="L51" s="7"/>
       <c r="M51" s="7" t="s">
@@ -8429,7 +8429,7 @@
       </c>
       <c r="J52" s="77"/>
       <c r="K52" s="7" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="L52" s="7"/>
       <c r="M52" s="7" t="s">
@@ -8481,7 +8481,7 @@
       </c>
       <c r="J53" s="77"/>
       <c r="K53" s="7" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="L53" s="7"/>
       <c r="M53" s="7" t="s">
@@ -8533,7 +8533,7 @@
       </c>
       <c r="J54" s="77"/>
       <c r="K54" s="7" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="L54" s="7"/>
       <c r="M54" s="7" t="s">
@@ -8585,7 +8585,7 @@
       </c>
       <c r="J55" s="77"/>
       <c r="K55" s="7" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="L55" s="7"/>
       <c r="M55" s="7" t="s">
@@ -8637,7 +8637,7 @@
       </c>
       <c r="J56" s="77"/>
       <c r="K56" s="7" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L56" s="7"/>
       <c r="M56" s="7" t="s">
@@ -8689,7 +8689,7 @@
       </c>
       <c r="J57" s="78"/>
       <c r="K57" s="7" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="L57" s="7"/>
       <c r="M57" s="31" t="s">
@@ -8741,7 +8741,7 @@
       </c>
       <c r="J58" s="78"/>
       <c r="K58" s="7" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="L58" s="7"/>
       <c r="M58" s="31" t="s">
@@ -8793,7 +8793,7 @@
       </c>
       <c r="J59" s="78"/>
       <c r="K59" s="7" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="L59" s="7"/>
       <c r="M59" s="31" t="s">
@@ -8845,7 +8845,7 @@
       </c>
       <c r="J60" s="78"/>
       <c r="K60" s="7" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="L60" s="7"/>
       <c r="M60" s="31" t="s">
@@ -8897,7 +8897,7 @@
       </c>
       <c r="J61" s="78"/>
       <c r="K61" s="7" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L61" s="7"/>
       <c r="M61" s="31" t="s">
@@ -8949,7 +8949,7 @@
       </c>
       <c r="J62" s="78"/>
       <c r="K62" s="7" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L62" s="7"/>
       <c r="M62" s="31" t="s">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="J63" s="78"/>
       <c r="K63" s="7" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="L63" s="7"/>
       <c r="M63" s="31" t="s">
@@ -9053,10 +9053,10 @@
       </c>
       <c r="J64" s="79"/>
       <c r="K64" s="34" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L64" s="34" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M64" s="24" t="s">
         <v>504</v>
@@ -9107,7 +9107,7 @@
       </c>
       <c r="J65" s="79"/>
       <c r="K65" s="34" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L65" s="34"/>
       <c r="M65" s="34" t="s">
@@ -9213,7 +9213,7 @@
       </c>
       <c r="J67" s="79"/>
       <c r="K67" s="34" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L67" s="34" t="s">
         <v>580</v>
@@ -9267,7 +9267,7 @@
       </c>
       <c r="J68" s="79"/>
       <c r="K68" s="34" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L68" s="34"/>
       <c r="M68" s="34" t="s">
@@ -9319,10 +9319,10 @@
       </c>
       <c r="J69" s="79"/>
       <c r="K69" s="34" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L69" s="34" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="M69" s="34" t="s">
         <v>500</v>
@@ -9481,7 +9481,7 @@
       </c>
       <c r="J72" s="79"/>
       <c r="K72" s="34" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L72" s="34"/>
       <c r="M72" s="34" t="s">
@@ -9533,7 +9533,7 @@
       </c>
       <c r="J73" s="79"/>
       <c r="K73" s="34" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L73" s="34" t="s">
         <v>580</v>
@@ -9641,10 +9641,10 @@
       </c>
       <c r="J75" s="81"/>
       <c r="K75" s="36" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L75" s="36" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="M75" s="36" t="s">
         <v>505</v>
@@ -9695,10 +9695,10 @@
       </c>
       <c r="J76" s="81"/>
       <c r="K76" s="36" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L76" s="36" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="M76" s="36" t="s">
         <v>506</v>
@@ -9749,10 +9749,10 @@
       </c>
       <c r="J77" s="81"/>
       <c r="K77" s="36" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L77" s="36" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="M77" s="36" t="s">
         <v>507</v>
@@ -9803,10 +9803,10 @@
       </c>
       <c r="J78" s="81"/>
       <c r="K78" s="36" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L78" s="36" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="M78" s="36" t="s">
         <v>508</v>
@@ -9857,10 +9857,10 @@
       </c>
       <c r="J79" s="81"/>
       <c r="K79" s="36" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L79" s="36" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="M79" s="36" t="s">
         <v>509</v>
@@ -9911,10 +9911,10 @@
       </c>
       <c r="J80" s="81"/>
       <c r="K80" s="36" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L80" s="36" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="M80" s="36" t="s">
         <v>615</v>
@@ -9965,10 +9965,10 @@
       </c>
       <c r="J81" s="80"/>
       <c r="K81" s="38" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L81" s="38" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="M81" s="38" t="s">
         <v>615</v>
@@ -10019,10 +10019,10 @@
       </c>
       <c r="J82" s="80"/>
       <c r="K82" s="38" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L82" s="38" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="M82" s="38" t="s">
         <v>615</v>
@@ -10073,10 +10073,10 @@
       </c>
       <c r="J83" s="80"/>
       <c r="K83" s="38" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L83" s="38" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="M83" s="38" t="s">
         <v>615</v>
@@ -10127,7 +10127,7 @@
       </c>
       <c r="J84" s="82"/>
       <c r="K84" s="40" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="L84" s="40"/>
       <c r="M84" s="40" t="s">
@@ -10179,7 +10179,7 @@
       </c>
       <c r="J85" s="82"/>
       <c r="K85" s="40" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L85" s="40"/>
       <c r="M85" s="40" t="s">
@@ -10231,7 +10231,7 @@
       </c>
       <c r="J86" s="82"/>
       <c r="K86" s="40" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="L86" s="40"/>
       <c r="M86" s="40" t="s">
@@ -10283,7 +10283,7 @@
       </c>
       <c r="J87" s="82"/>
       <c r="K87" s="40" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L87" s="40"/>
       <c r="M87" s="40" t="s">
@@ -10335,7 +10335,7 @@
       </c>
       <c r="J88" s="82"/>
       <c r="K88" s="40" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L88" s="40"/>
       <c r="M88" s="40" t="s">
@@ -10387,10 +10387,10 @@
       </c>
       <c r="J89" s="82"/>
       <c r="K89" s="40" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L89" s="40" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="M89" s="40" t="s">
         <v>514</v>
@@ -10441,7 +10441,7 @@
       </c>
       <c r="J90" s="82"/>
       <c r="K90" s="40" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="L90" s="40"/>
       <c r="M90" s="40" t="s">
@@ -10493,7 +10493,7 @@
       </c>
       <c r="J91" s="82"/>
       <c r="K91" s="40" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L91" s="40" t="s">
         <v>580</v>
@@ -10547,7 +10547,7 @@
       </c>
       <c r="J92" s="82"/>
       <c r="K92" s="40" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L92" s="40" t="s">
         <v>580</v>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="J93" s="82"/>
       <c r="K93" s="40" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L93" s="40"/>
       <c r="M93" s="40" t="s">
@@ -10653,7 +10653,7 @@
       </c>
       <c r="J94" s="82"/>
       <c r="K94" s="40" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="L94" s="40"/>
       <c r="M94" s="40" t="s">
@@ -10705,7 +10705,7 @@
       </c>
       <c r="J95" s="82"/>
       <c r="K95" s="40" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L95" s="40"/>
       <c r="M95" s="40" t="s">
@@ -10757,7 +10757,7 @@
       </c>
       <c r="J96" s="82"/>
       <c r="K96" s="40" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L96" s="40"/>
       <c r="M96" s="40" t="s">
@@ -10809,7 +10809,7 @@
       </c>
       <c r="J97" s="82"/>
       <c r="K97" s="40" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L97" s="40"/>
       <c r="M97" s="40" t="s">
@@ -10861,7 +10861,7 @@
       </c>
       <c r="J98" s="82"/>
       <c r="K98" s="40" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="L98" s="40"/>
       <c r="M98" s="40" t="s">
@@ -10912,13 +10912,13 @@
         <v>814</v>
       </c>
       <c r="J99" s="83" t="s">
+        <v>1049</v>
+      </c>
+      <c r="K99" s="44" t="s">
+        <v>1096</v>
+      </c>
+      <c r="L99" s="44" t="s">
         <v>1050</v>
-      </c>
-      <c r="K99" s="44" t="s">
-        <v>1097</v>
-      </c>
-      <c r="L99" s="44" t="s">
-        <v>1051</v>
       </c>
       <c r="M99" s="44" t="s">
         <v>514</v>
@@ -10971,10 +10971,10 @@
         <v>1</v>
       </c>
       <c r="K100" s="44" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L100" s="44" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="M100" s="44" t="s">
         <v>514</v>
@@ -11027,10 +11027,10 @@
         <v>1</v>
       </c>
       <c r="K101" s="44" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L101" s="44" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="M101" s="44" t="s">
         <v>572</v>
@@ -11083,10 +11083,10 @@
         <v>1</v>
       </c>
       <c r="K102" s="44" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L102" s="44" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M102" s="44" t="s">
         <v>401</v>
@@ -11139,10 +11139,10 @@
         <v>1</v>
       </c>
       <c r="K103" s="44" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L103" s="44" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="M103" s="44" t="s">
         <v>515</v>
@@ -11195,10 +11195,10 @@
         <v>1</v>
       </c>
       <c r="K104" s="44" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L104" s="44" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M104" s="44" t="s">
         <v>574</v>
@@ -11251,10 +11251,10 @@
         <v>1</v>
       </c>
       <c r="K105" s="44" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L105" s="44" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M105" s="44" t="s">
         <v>662</v>
@@ -11307,10 +11307,10 @@
         <v>3</v>
       </c>
       <c r="K106" s="44" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L106" s="44" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="M106" s="44" t="s">
         <v>515</v>
@@ -11363,10 +11363,10 @@
         <v>3</v>
       </c>
       <c r="K107" s="44" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L107" s="44" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="M107" s="44" t="s">
         <v>572</v>
@@ -11417,10 +11417,10 @@
         <v>3</v>
       </c>
       <c r="K108" s="44" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L108" s="44" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M108" s="44" t="s">
         <v>574</v>
@@ -11471,10 +11471,10 @@
         <v>3</v>
       </c>
       <c r="K109" s="44" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L109" s="44" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M109" s="44" t="s">
         <v>401</v>
@@ -11523,13 +11523,13 @@
       </c>
       <c r="J110" s="84"/>
       <c r="K110" s="42" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="L110" s="42" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="M110" s="42" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="N110" s="14" t="s">
         <v>195</v>
@@ -11571,13 +11571,13 @@
       </c>
       <c r="J111" s="84"/>
       <c r="K111" s="42" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="L111" s="42" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="M111" s="42" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="N111" s="14" t="s">
         <v>195</v>
@@ -11619,10 +11619,10 @@
       </c>
       <c r="J112" s="84"/>
       <c r="K112" s="42" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L112" s="42" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="M112" s="42" t="s">
         <v>510</v>
@@ -11671,10 +11671,10 @@
       </c>
       <c r="J113" s="84"/>
       <c r="K113" s="42" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="L113" s="42" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="M113" s="42" t="s">
         <v>513</v>
@@ -11723,10 +11723,10 @@
       </c>
       <c r="J114" s="84"/>
       <c r="K114" s="42" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="L114" s="42" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="M114" s="42"/>
       <c r="N114" s="14" t="s">
@@ -11773,13 +11773,13 @@
       </c>
       <c r="J115" s="84"/>
       <c r="K115" s="42" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L115" s="42" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M115" s="42" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="N115" s="14" t="s">
         <v>195</v>
@@ -11825,13 +11825,13 @@
       </c>
       <c r="J116" s="84"/>
       <c r="K116" s="42" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L116" s="42" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M116" s="42" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="N116" s="14" t="s">
         <v>195</v>
@@ -11877,13 +11877,13 @@
       </c>
       <c r="J117" s="84"/>
       <c r="K117" s="42" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L117" s="42" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M117" s="42" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="N117" s="14" t="s">
         <v>195</v>
@@ -11929,10 +11929,10 @@
       </c>
       <c r="J118" s="84"/>
       <c r="K118" s="42" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L118" s="42" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M118" s="42"/>
       <c r="N118" s="14" t="s">
@@ -11979,10 +11979,10 @@
       </c>
       <c r="J119" s="84"/>
       <c r="K119" s="42" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="L119" s="42" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="M119" s="42" t="s">
         <v>511</v>
@@ -12031,10 +12031,10 @@
       </c>
       <c r="J120" s="84"/>
       <c r="K120" s="42" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="L120" s="42" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="M120" s="42" t="s">
         <v>512</v>
@@ -12085,10 +12085,10 @@
       </c>
       <c r="J121" s="85"/>
       <c r="K121" s="47" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L121" s="47" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M121" s="47" t="s">
         <v>559</v>
@@ -12139,10 +12139,10 @@
       </c>
       <c r="J122" s="85"/>
       <c r="K122" s="47" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L122" s="47" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M122" s="47" t="s">
         <v>555</v>
@@ -12193,10 +12193,10 @@
       </c>
       <c r="J123" s="85"/>
       <c r="K123" s="47" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L123" s="47" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="M123" s="47" t="s">
         <v>557</v>
@@ -12247,10 +12247,10 @@
       </c>
       <c r="J124" s="85"/>
       <c r="K124" s="47" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="L124" s="47" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="M124" s="47" t="s">
         <v>536</v>
@@ -12301,10 +12301,10 @@
       </c>
       <c r="J125" s="85"/>
       <c r="K125" s="47" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="L125" s="47" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="M125" s="47" t="s">
         <v>534</v>
@@ -12355,10 +12355,10 @@
       </c>
       <c r="J126" s="85"/>
       <c r="K126" s="47" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L126" s="47" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M126" s="47" t="s">
         <v>622</v>
@@ -12407,10 +12407,10 @@
       </c>
       <c r="J127" s="85"/>
       <c r="K127" s="47" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L127" s="47" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="M127" s="47"/>
       <c r="N127" s="14" t="s">
@@ -12457,10 +12457,10 @@
       </c>
       <c r="J128" s="85"/>
       <c r="K128" s="47" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L128" s="47" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="M128" s="47"/>
       <c r="N128" s="14" t="s">
@@ -12507,10 +12507,10 @@
       </c>
       <c r="J129" s="85"/>
       <c r="K129" s="47" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L129" s="47" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M129" s="47" t="s">
         <v>640</v>
@@ -12561,10 +12561,10 @@
       </c>
       <c r="J130" s="85"/>
       <c r="K130" s="47" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L130" s="47" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M130" s="47"/>
       <c r="N130" s="14" t="s">
@@ -12613,10 +12613,10 @@
       </c>
       <c r="J131" s="85"/>
       <c r="K131" s="47" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L131" s="47" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M131" s="47" t="s">
         <v>525</v>
@@ -12667,10 +12667,10 @@
       </c>
       <c r="J132" s="85"/>
       <c r="K132" s="47" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L132" s="47" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M132" s="47" t="s">
         <v>526</v>
@@ -12721,10 +12721,10 @@
       </c>
       <c r="J133" s="85"/>
       <c r="K133" s="47" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L133" s="47" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M133" s="47"/>
       <c r="N133" s="14" t="s">
@@ -12771,10 +12771,10 @@
       </c>
       <c r="J134" s="85"/>
       <c r="K134" s="47" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L134" s="47" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="M134" s="47" t="s">
         <v>517</v>
@@ -12825,10 +12825,10 @@
       </c>
       <c r="J135" s="85"/>
       <c r="K135" s="47" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L135" s="47" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="M135" s="47" t="s">
         <v>517</v>
@@ -12879,10 +12879,10 @@
       </c>
       <c r="J136" s="85"/>
       <c r="K136" s="47" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L136" s="47" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="M136" s="47" t="s">
         <v>522</v>
@@ -12933,13 +12933,13 @@
       </c>
       <c r="J137" s="85"/>
       <c r="K137" s="47" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="L137" s="47" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="M137" s="47" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="N137" s="14" t="s">
         <v>195</v>
@@ -12954,7 +12954,7 @@
         <v>1</v>
       </c>
       <c r="R137" s="58" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="138" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -12987,10 +12987,10 @@
       </c>
       <c r="J138" s="85"/>
       <c r="K138" s="47" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L138" s="47" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="M138" s="47" t="s">
         <v>516</v>
@@ -13041,10 +13041,10 @@
       </c>
       <c r="J139" s="85"/>
       <c r="K139" s="47" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L139" s="47" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="M139" s="47" t="s">
         <v>524</v>
@@ -13095,10 +13095,10 @@
       </c>
       <c r="J140" s="85"/>
       <c r="K140" s="47" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L140" s="47" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="M140" s="47" t="s">
         <v>522</v>
@@ -13149,10 +13149,10 @@
       </c>
       <c r="J141" s="85"/>
       <c r="K141" s="47" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L141" s="47" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="M141" s="47" t="s">
         <v>523</v>
@@ -13203,10 +13203,10 @@
       </c>
       <c r="J142" s="85"/>
       <c r="K142" s="47" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L142" s="47" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="M142" s="47" t="s">
         <v>517</v>
@@ -13257,10 +13257,10 @@
       </c>
       <c r="J143" s="85"/>
       <c r="K143" s="47" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L143" s="47" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="M143" s="47" t="s">
         <v>516</v>
@@ -13311,10 +13311,10 @@
       </c>
       <c r="J144" s="85"/>
       <c r="K144" s="47" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L144" s="47" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="M144" s="47" t="s">
         <v>519</v>
@@ -13365,10 +13365,10 @@
       </c>
       <c r="J145" s="85"/>
       <c r="K145" s="47" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L145" s="47" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="M145" s="47" t="s">
         <v>522</v>
@@ -13391,13 +13391,13 @@
     </row>
     <row r="146" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A146" s="45" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B146" s="47" t="s">
+        <v>992</v>
+      </c>
+      <c r="C146" s="47" t="s">
         <v>993</v>
-      </c>
-      <c r="C146" s="47" t="s">
-        <v>994</v>
       </c>
       <c r="D146" s="47" t="s">
         <v>732</v>
@@ -13417,13 +13417,13 @@
       </c>
       <c r="J146" s="85"/>
       <c r="K146" s="47" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L146" s="47" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="M146" s="47" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="N146" s="14" t="s">
         <v>195</v>
@@ -13443,13 +13443,13 @@
     </row>
     <row r="147" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A147" s="45" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B147" s="47" t="s">
+        <v>994</v>
+      </c>
+      <c r="C147" s="47" t="s">
         <v>995</v>
-      </c>
-      <c r="C147" s="47" t="s">
-        <v>996</v>
       </c>
       <c r="D147" s="47" t="s">
         <v>732</v>
@@ -13469,13 +13469,13 @@
       </c>
       <c r="J147" s="85"/>
       <c r="K147" s="47" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L147" s="47" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="M147" s="47" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="N147" s="14" t="s">
         <v>195</v>
@@ -13495,13 +13495,13 @@
     </row>
     <row r="148" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A148" s="45" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B148" s="47" t="s">
+        <v>996</v>
+      </c>
+      <c r="C148" s="47" t="s">
         <v>997</v>
-      </c>
-      <c r="C148" s="47" t="s">
-        <v>998</v>
       </c>
       <c r="D148" s="47" t="s">
         <v>732</v>
@@ -13521,13 +13521,13 @@
       </c>
       <c r="J148" s="85"/>
       <c r="K148" s="47" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L148" s="47" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="M148" s="47" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="N148" s="14" t="s">
         <v>195</v>
@@ -13547,13 +13547,13 @@
     </row>
     <row r="149" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A149" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B149" s="47" t="s">
+        <v>998</v>
+      </c>
+      <c r="C149" s="47" t="s">
         <v>999</v>
-      </c>
-      <c r="C149" s="47" t="s">
-        <v>1000</v>
       </c>
       <c r="D149" s="47" t="s">
         <v>732</v>
@@ -13573,13 +13573,13 @@
       </c>
       <c r="J149" s="85"/>
       <c r="K149" s="47" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L149" s="47" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="M149" s="47" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="N149" s="14" t="s">
         <v>195</v>
@@ -13599,13 +13599,13 @@
     </row>
     <row r="150" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A150" s="45" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B150" s="47" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C150" s="47" t="s">
         <v>1001</v>
-      </c>
-      <c r="C150" s="47" t="s">
-        <v>1002</v>
       </c>
       <c r="D150" s="47" t="s">
         <v>732</v>
@@ -13625,13 +13625,13 @@
       </c>
       <c r="J150" s="85"/>
       <c r="K150" s="47" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L150" s="47" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="M150" s="47" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="N150" s="14" t="s">
         <v>195</v>
@@ -13646,18 +13646,18 @@
         <v>1</v>
       </c>
       <c r="R150" s="58" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="151" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A151" s="45" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B151" s="47" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C151" s="47" t="s">
         <v>1003</v>
-      </c>
-      <c r="C151" s="47" t="s">
-        <v>1004</v>
       </c>
       <c r="D151" s="47" t="s">
         <v>732</v>
@@ -13677,13 +13677,13 @@
       </c>
       <c r="J151" s="85"/>
       <c r="K151" s="47" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L151" s="47" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="M151" s="47" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="N151" s="14" t="s">
         <v>195</v>
@@ -13698,18 +13698,18 @@
         <v>1</v>
       </c>
       <c r="R151" s="58" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="152" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A152" s="45" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B152" s="47" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C152" s="47" t="s">
         <v>1005</v>
-      </c>
-      <c r="C152" s="47" t="s">
-        <v>1006</v>
       </c>
       <c r="D152" s="47" t="s">
         <v>732</v>
@@ -13729,13 +13729,13 @@
       </c>
       <c r="J152" s="85"/>
       <c r="K152" s="47" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L152" s="47" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="M152" s="47" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="N152" s="14" t="s">
         <v>195</v>
@@ -13750,7 +13750,7 @@
         <v>1</v>
       </c>
       <c r="R152" s="58" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="153" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -13758,10 +13758,10 @@
         <v>229</v>
       </c>
       <c r="B153" s="47" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C153" s="47" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D153" s="47" t="s">
         <v>732</v>
@@ -13781,13 +13781,13 @@
       </c>
       <c r="J153" s="85"/>
       <c r="K153" s="47" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L153" s="47" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="M153" s="47" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="N153" s="14" t="s">
         <v>195</v>
@@ -13807,13 +13807,13 @@
     </row>
     <row r="154" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A154" s="45" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B154" s="47" t="s">
         <v>1010</v>
       </c>
-      <c r="B154" s="47" t="s">
+      <c r="C154" s="47" t="s">
         <v>1011</v>
-      </c>
-      <c r="C154" s="47" t="s">
-        <v>1012</v>
       </c>
       <c r="D154" s="47" t="s">
         <v>732</v>
@@ -13833,10 +13833,10 @@
       </c>
       <c r="J154" s="85"/>
       <c r="K154" s="47" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L154" s="47" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="M154" s="47" t="s">
         <v>522</v>
@@ -13859,13 +13859,13 @@
     </row>
     <row r="155" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A155" s="45" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B155" s="47" t="s">
         <v>1013</v>
       </c>
-      <c r="B155" s="47" t="s">
+      <c r="C155" s="47" t="s">
         <v>1014</v>
-      </c>
-      <c r="C155" s="47" t="s">
-        <v>1015</v>
       </c>
       <c r="D155" s="47" t="s">
         <v>732</v>
@@ -13885,10 +13885,10 @@
       </c>
       <c r="J155" s="85"/>
       <c r="K155" s="47" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L155" s="47" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="M155" s="47" t="s">
         <v>516</v>
@@ -13939,7 +13939,7 @@
       </c>
       <c r="J156" s="86"/>
       <c r="K156" s="24" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L156" s="24" t="s">
         <v>580</v>
@@ -13989,10 +13989,10 @@
       </c>
       <c r="J157" s="86"/>
       <c r="K157" s="24" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L157" s="24" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="M157" s="24" t="s">
         <v>517</v>
@@ -14041,10 +14041,10 @@
       </c>
       <c r="J158" s="86"/>
       <c r="K158" s="24" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L158" s="24" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="M158" s="24" t="s">
         <v>518</v>
@@ -14093,10 +14093,10 @@
       </c>
       <c r="J159" s="86"/>
       <c r="K159" s="24" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L159" s="24" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="M159" s="24" t="s">
         <v>519</v>
@@ -14145,10 +14145,10 @@
       </c>
       <c r="J160" s="86"/>
       <c r="K160" s="24" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L160" s="24" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="M160" s="24" t="s">
         <v>519</v>
@@ -14197,10 +14197,10 @@
       </c>
       <c r="J161" s="86"/>
       <c r="K161" s="24" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L161" s="24" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="M161" s="24" t="s">
         <v>507</v>
@@ -14249,10 +14249,10 @@
       </c>
       <c r="J162" s="87"/>
       <c r="K162" s="24" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L162" s="24" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="M162" s="26" t="s">
         <v>708</v>
@@ -14301,10 +14301,10 @@
       </c>
       <c r="J163" s="87"/>
       <c r="K163" s="26" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="L163" s="26" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="M163" s="26" t="s">
         <v>709</v>
@@ -14353,10 +14353,10 @@
       </c>
       <c r="J164" s="87"/>
       <c r="K164" s="26" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="L164" s="26" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="M164" s="26" t="s">
         <v>710</v>
@@ -14405,10 +14405,10 @@
       </c>
       <c r="J165" s="87"/>
       <c r="K165" s="24" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L165" s="24" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="M165" s="26" t="s">
         <v>693</v>
@@ -14457,10 +14457,10 @@
       </c>
       <c r="J166" s="87"/>
       <c r="K166" s="26" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="L166" s="26" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="M166" s="26" t="s">
         <v>695</v>
@@ -14507,10 +14507,10 @@
       </c>
       <c r="J167" s="87"/>
       <c r="K167" s="26" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="L167" s="26" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="M167" s="26" t="s">
         <v>697</v>
@@ -14559,10 +14559,10 @@
       </c>
       <c r="J168" s="87"/>
       <c r="K168" s="26" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="L168" s="26" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="M168" s="26" t="s">
         <v>699</v>
@@ -14611,10 +14611,10 @@
       </c>
       <c r="J169" s="87"/>
       <c r="K169" s="26" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="L169" s="26" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="M169" s="26" t="s">
         <v>729</v>
@@ -14661,7 +14661,7 @@
       </c>
       <c r="J170" s="87"/>
       <c r="K170" s="24" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L170" s="26" t="s">
         <v>580</v>
@@ -14705,10 +14705,10 @@
       </c>
       <c r="J171" s="87"/>
       <c r="K171" s="24" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L171" s="24" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="M171" s="26" t="s">
         <v>851</v>
@@ -14720,7 +14720,7 @@
         <v>195</v>
       </c>
       <c r="R171" s="58" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="172" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -14751,10 +14751,10 @@
       </c>
       <c r="J172" s="87"/>
       <c r="K172" s="24" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L172" s="24" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="M172" s="26" t="s">
         <v>854</v>
@@ -14766,7 +14766,7 @@
         <v>195</v>
       </c>
       <c r="R172" s="58" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="173" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -14797,10 +14797,10 @@
       </c>
       <c r="J173" s="87"/>
       <c r="K173" s="24" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L173" s="24" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="M173" s="26" t="s">
         <v>854</v>
@@ -14812,7 +14812,7 @@
         <v>195</v>
       </c>
       <c r="R173" s="58" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="174" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -14843,10 +14843,10 @@
       </c>
       <c r="J174" s="87"/>
       <c r="K174" s="24" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L174" s="24" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="M174" s="26" t="s">
         <v>862</v>
@@ -14887,10 +14887,10 @@
       </c>
       <c r="J175" s="87"/>
       <c r="K175" s="24" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L175" s="24" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="M175" s="26" t="s">
         <v>866</v>
@@ -14931,10 +14931,10 @@
       </c>
       <c r="J176" s="87"/>
       <c r="K176" s="24" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L176" s="24" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="M176" s="26" t="s">
         <v>517</v>
@@ -14975,10 +14975,10 @@
       </c>
       <c r="J177" s="87"/>
       <c r="K177" s="24" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L177" s="24" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="M177" s="26" t="s">
         <v>873</v>
@@ -15019,7 +15019,7 @@
       </c>
       <c r="J178" s="87"/>
       <c r="K178" s="24" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L178" s="24" t="s">
         <v>580</v>
@@ -15063,10 +15063,10 @@
       </c>
       <c r="J179" s="87"/>
       <c r="K179" s="24" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L179" s="24" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="M179" s="26" t="s">
         <v>873</v>
@@ -15078,7 +15078,7 @@
         <v>195</v>
       </c>
       <c r="R179" s="58" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="180" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -15109,10 +15109,10 @@
       </c>
       <c r="J180" s="87"/>
       <c r="K180" s="24" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L180" s="24" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="M180" s="26" t="s">
         <v>866</v>
@@ -15124,7 +15124,7 @@
         <v>195</v>
       </c>
       <c r="R180" s="58" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="181" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -15155,7 +15155,7 @@
       </c>
       <c r="J181" s="87"/>
       <c r="K181" s="24" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L181" s="24" t="s">
         <v>580</v>
@@ -15199,13 +15199,13 @@
       </c>
       <c r="J182" s="87"/>
       <c r="K182" s="24" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L182" s="24" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="M182" s="26" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="N182" s="14" t="s">
         <v>195</v>
@@ -15214,7 +15214,7 @@
         <v>195</v>
       </c>
       <c r="R182" s="58" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="183" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -15245,10 +15245,10 @@
       </c>
       <c r="J183" s="87"/>
       <c r="K183" s="24" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L183" s="24" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="M183" s="26" t="s">
         <v>890</v>
@@ -15260,7 +15260,7 @@
         <v>195</v>
       </c>
       <c r="R183" s="58" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="184" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -15291,10 +15291,10 @@
       </c>
       <c r="J184" s="87"/>
       <c r="K184" s="24" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L184" s="24" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="M184" s="26" t="s">
         <v>897</v>
@@ -15306,7 +15306,7 @@
         <v>195</v>
       </c>
       <c r="R184" s="58" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="185" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
@@ -15336,14 +15336,14 @@
         <v>814</v>
       </c>
       <c r="J185" s="87"/>
-      <c r="K185" s="24" t="s">
-        <v>1097</v>
+      <c r="K185" s="26" t="s">
+        <v>1046</v>
       </c>
       <c r="L185" s="24" t="s">
+        <v>1099</v>
+      </c>
+      <c r="M185" s="26" t="s">
         <v>1098</v>
-      </c>
-      <c r="M185" s="26" t="s">
-        <v>905</v>
       </c>
       <c r="N185" s="14" t="s">
         <v>195</v>
@@ -15359,7 +15359,7 @@
     </row>
     <row r="186" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A186" s="25" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B186" s="26" t="s">
         <v>901</v>
@@ -15385,13 +15385,13 @@
       </c>
       <c r="J186" s="87"/>
       <c r="K186" s="24" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L186" s="24" t="s">
         <v>580</v>
       </c>
       <c r="M186" s="26" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="N186" s="14" t="s">
         <v>195</v>
@@ -15431,13 +15431,13 @@
       </c>
       <c r="J187" s="87"/>
       <c r="K187" s="24" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L187" s="24" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="M187" s="26" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="N187" s="14" t="s">
         <v>195</v>
@@ -15448,18 +15448,18 @@
       <c r="P187" s="1"/>
       <c r="Q187"/>
       <c r="R187" s="58" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="188" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A188" s="25" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B188" s="26" t="s">
+        <v>905</v>
+      </c>
+      <c r="C188" s="26" t="s">
         <v>906</v>
-      </c>
-      <c r="C188" s="26" t="s">
-        <v>907</v>
       </c>
       <c r="D188" s="24" t="s">
         <v>732</v>
@@ -15479,13 +15479,13 @@
       </c>
       <c r="J188" s="87"/>
       <c r="K188" s="24" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L188" s="24" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="M188" s="26" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="N188" s="14" t="s">
         <v>195</v>
@@ -15498,10 +15498,10 @@
     </row>
     <row r="189" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A189" s="25" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B189" s="26" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C189" s="26" t="s">
         <v>893</v>
@@ -15524,13 +15524,13 @@
       </c>
       <c r="J189" s="87"/>
       <c r="K189" s="24" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L189" s="24" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="M189" s="26" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="N189" s="14" t="s">
         <v>195</v>
@@ -15541,18 +15541,18 @@
       <c r="P189" s="66"/>
       <c r="Q189" s="65"/>
       <c r="R189" s="58" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="190" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A190" s="25" t="s">
+        <v>911</v>
+      </c>
+      <c r="B190" s="26" t="s">
+        <v>910</v>
+      </c>
+      <c r="C190" s="26" t="s">
         <v>912</v>
-      </c>
-      <c r="B190" s="26" t="s">
-        <v>911</v>
-      </c>
-      <c r="C190" s="26" t="s">
-        <v>913</v>
       </c>
       <c r="D190" s="24" t="s">
         <v>732</v>
@@ -15572,13 +15572,13 @@
       </c>
       <c r="J190" s="87"/>
       <c r="K190" s="24" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="L190" s="24" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="M190" s="26" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="N190" s="14" t="s">
         <v>195</v>
@@ -15589,18 +15589,18 @@
       <c r="P190" s="1"/>
       <c r="Q190"/>
       <c r="R190" s="58" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="191" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A191" s="25" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B191" s="26" t="s">
+        <v>913</v>
+      </c>
+      <c r="C191" s="26" t="s">
         <v>914</v>
-      </c>
-      <c r="C191" s="26" t="s">
-        <v>915</v>
       </c>
       <c r="D191" s="24" t="s">
         <v>732</v>
@@ -15620,13 +15620,13 @@
       </c>
       <c r="J191" s="87"/>
       <c r="K191" s="24" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="L191" s="24" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="M191" s="26" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="N191" s="14" t="s">
         <v>195</v>
@@ -15636,18 +15636,18 @@
       </c>
       <c r="P191" s="66"/>
       <c r="R191" s="58" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="192" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A192" s="25" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B192" s="26" t="s">
+        <v>915</v>
+      </c>
+      <c r="C192" s="26" t="s">
         <v>916</v>
-      </c>
-      <c r="C192" s="26" t="s">
-        <v>917</v>
       </c>
       <c r="D192" s="24" t="s">
         <v>732</v>
@@ -15667,13 +15667,13 @@
       </c>
       <c r="J192" s="87"/>
       <c r="K192" s="26" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="L192" s="26" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="M192" s="26" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="N192" s="14" t="s">
         <v>195</v>
@@ -15683,18 +15683,18 @@
       </c>
       <c r="P192" s="66"/>
       <c r="R192" s="58" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="193" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A193" s="25" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B193" s="26" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C193" s="26" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D193" s="24" t="s">
         <v>732</v>
@@ -15714,13 +15714,13 @@
       </c>
       <c r="J193" s="87"/>
       <c r="K193" s="26" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="L193" s="26" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="M193" s="26" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="N193" s="14" t="s">
         <v>195</v>
@@ -15730,18 +15730,18 @@
       </c>
       <c r="P193" s="66"/>
       <c r="R193" s="58" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="194" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A194" s="25" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B194" s="26" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C194" s="26" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D194" s="24" t="s">
         <v>732</v>
@@ -15761,13 +15761,13 @@
       </c>
       <c r="J194" s="87"/>
       <c r="K194" s="26" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="L194" s="26" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="M194" s="26" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="N194" s="14" t="s">
         <v>195</v>
@@ -15783,10 +15783,10 @@
         <v>668</v>
       </c>
       <c r="B195" s="26" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C195" s="26" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D195" s="24" t="s">
         <v>732</v>
@@ -15806,13 +15806,13 @@
       </c>
       <c r="J195" s="87"/>
       <c r="K195" s="26" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="L195" s="26" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="M195" s="26" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="N195" s="14" t="s">
         <v>195</v>
@@ -15825,13 +15825,13 @@
     </row>
     <row r="196" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A196" s="25" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B196" s="26" t="s">
+        <v>927</v>
+      </c>
+      <c r="C196" s="26" t="s">
         <v>928</v>
-      </c>
-      <c r="C196" s="26" t="s">
-        <v>929</v>
       </c>
       <c r="D196" s="24" t="s">
         <v>732</v>
@@ -15851,13 +15851,13 @@
       </c>
       <c r="J196" s="87"/>
       <c r="K196" s="26" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="L196" s="26" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="M196" s="26" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="N196" s="14" t="s">
         <v>195</v>
@@ -15870,13 +15870,13 @@
     </row>
     <row r="197" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A197" s="25" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B197" s="26" t="s">
+        <v>930</v>
+      </c>
+      <c r="C197" s="26" t="s">
         <v>931</v>
-      </c>
-      <c r="C197" s="26" t="s">
-        <v>932</v>
       </c>
       <c r="D197" s="24" t="s">
         <v>732</v>
@@ -15896,13 +15896,13 @@
       </c>
       <c r="J197" s="87"/>
       <c r="K197" s="26" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="L197" s="26" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="M197" s="26" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="N197" s="14" t="s">
         <v>195</v>
@@ -15921,7 +15921,7 @@
         <v>705</v>
       </c>
       <c r="C198" s="26" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D198" s="24" t="s">
         <v>732</v>
@@ -15941,13 +15941,13 @@
       </c>
       <c r="J198" s="87"/>
       <c r="K198" s="26" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="L198" s="26" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="M198" s="26" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="N198" s="14" t="s">
         <v>195</v>
@@ -15963,13 +15963,13 @@
     </row>
     <row r="199" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A199" s="25" t="s">
+        <v>935</v>
+      </c>
+      <c r="B199" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="B199" s="26" t="s">
-        <v>937</v>
-      </c>
       <c r="C199" s="26" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D199" s="24" t="s">
         <v>732</v>
@@ -15989,13 +15989,13 @@
       </c>
       <c r="J199" s="87"/>
       <c r="K199" s="24" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L199" s="24" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="M199" s="26" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="N199" s="14" t="s">
         <v>195</v>
@@ -16004,18 +16004,18 @@
         <v>195</v>
       </c>
       <c r="R199" s="58" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="200" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A200" s="25" t="s">
+        <v>937</v>
+      </c>
+      <c r="B200" s="26" t="s">
         <v>938</v>
       </c>
-      <c r="B200" s="26" t="s">
-        <v>939</v>
-      </c>
       <c r="C200" s="26" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D200" s="24" t="s">
         <v>732</v>
@@ -16035,13 +16035,13 @@
       </c>
       <c r="J200" s="87"/>
       <c r="K200" s="26" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="L200" s="26" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="M200" s="26" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="N200" s="14" t="s">
         <v>195</v>
@@ -16053,13 +16053,13 @@
     </row>
     <row r="201" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A201" s="25" t="s">
+        <v>939</v>
+      </c>
+      <c r="B201" s="26" t="s">
         <v>940</v>
       </c>
-      <c r="B201" s="26" t="s">
-        <v>941</v>
-      </c>
       <c r="C201" s="26" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D201" s="24" t="s">
         <v>732</v>
@@ -16079,13 +16079,13 @@
       </c>
       <c r="J201" s="87"/>
       <c r="K201" s="26" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="L201" s="26" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="M201" s="26" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="N201" s="14" t="s">
         <v>195</v>
@@ -16097,13 +16097,13 @@
     </row>
     <row r="202" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A202" s="25" t="s">
+        <v>941</v>
+      </c>
+      <c r="B202" s="26" t="s">
         <v>942</v>
       </c>
-      <c r="B202" s="26" t="s">
-        <v>943</v>
-      </c>
       <c r="C202" s="26" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D202" s="24" t="s">
         <v>732</v>
@@ -16123,13 +16123,13 @@
       </c>
       <c r="J202" s="87"/>
       <c r="K202" s="24" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L202" s="24" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="M202" s="26" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="N202" s="14" t="s">
         <v>195</v>
@@ -16141,13 +16141,13 @@
     </row>
     <row r="203" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A203" s="25" t="s">
+        <v>943</v>
+      </c>
+      <c r="B203" s="26" t="s">
         <v>944</v>
       </c>
-      <c r="B203" s="26" t="s">
-        <v>945</v>
-      </c>
       <c r="C203" s="26" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D203" s="24" t="s">
         <v>732</v>
@@ -16167,13 +16167,13 @@
       </c>
       <c r="J203" s="87"/>
       <c r="K203" s="26" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="L203" s="26" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="M203" s="26" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="N203" s="14" t="s">
         <v>195</v>
@@ -16185,13 +16185,13 @@
     </row>
     <row r="204" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A204" s="25" t="s">
+        <v>945</v>
+      </c>
+      <c r="B204" s="26" t="s">
         <v>946</v>
       </c>
-      <c r="B204" s="26" t="s">
-        <v>947</v>
-      </c>
       <c r="C204" s="26" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D204" s="24" t="s">
         <v>732</v>
@@ -16211,13 +16211,13 @@
       </c>
       <c r="J204" s="87"/>
       <c r="K204" s="24" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L204" s="24" t="s">
         <v>580</v>
       </c>
       <c r="M204" s="26" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="N204" s="14" t="s">
         <v>195</v>
@@ -16229,13 +16229,13 @@
     </row>
     <row r="205" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A205" s="25" t="s">
+        <v>947</v>
+      </c>
+      <c r="B205" s="26" t="s">
         <v>948</v>
       </c>
-      <c r="B205" s="26" t="s">
-        <v>949</v>
-      </c>
       <c r="C205" s="26" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D205" s="24" t="s">
         <v>732</v>
@@ -16255,13 +16255,13 @@
       </c>
       <c r="J205" s="87"/>
       <c r="K205" s="26" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="L205" s="26" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="M205" s="26" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="N205" s="14" t="s">
         <v>195</v>
@@ -16273,13 +16273,13 @@
     </row>
     <row r="206" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A206" s="25" t="s">
+        <v>949</v>
+      </c>
+      <c r="B206" s="26" t="s">
         <v>950</v>
       </c>
-      <c r="B206" s="26" t="s">
-        <v>951</v>
-      </c>
       <c r="C206" s="26" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D206" s="24" t="s">
         <v>732</v>
@@ -16299,13 +16299,13 @@
       </c>
       <c r="J206" s="87"/>
       <c r="K206" s="26" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L206" s="26" t="s">
         <v>580</v>
       </c>
       <c r="M206" s="26" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="N206" s="14" t="s">
         <v>195</v>
@@ -16345,7 +16345,7 @@
       </c>
       <c r="J207" s="88"/>
       <c r="K207" s="71" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L207" s="71" t="s">
         <v>580</v>
@@ -16397,10 +16397,10 @@
       </c>
       <c r="J208" s="88"/>
       <c r="K208" s="71" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L208" s="71" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="M208" s="70" t="s">
         <v>518</v>
@@ -16449,7 +16449,7 @@
       </c>
       <c r="J209" s="88"/>
       <c r="K209" s="71" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L209" s="71" t="s">
         <v>580</v>
@@ -16501,7 +16501,7 @@
       </c>
       <c r="J210" s="88"/>
       <c r="K210" s="71" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L210" s="71" t="s">
         <v>580</v>
@@ -16553,10 +16553,10 @@
       </c>
       <c r="J211" s="88"/>
       <c r="K211" s="71" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L211" s="71" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="M211" s="70" t="s">
         <v>519</v>
@@ -16605,7 +16605,7 @@
       </c>
       <c r="J212" s="88"/>
       <c r="K212" s="71" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L212" s="71" t="s">
         <v>580</v>
@@ -16657,10 +16657,10 @@
       </c>
       <c r="J213" s="88"/>
       <c r="K213" s="71" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L213" s="71" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="M213" s="70" t="s">
         <v>520</v>
@@ -16709,7 +16709,7 @@
       </c>
       <c r="J214" s="88"/>
       <c r="K214" s="71" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L214" s="71" t="s">
         <v>580</v>
@@ -16761,7 +16761,7 @@
       </c>
       <c r="J215" s="88"/>
       <c r="K215" s="71" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L215" s="71" t="s">
         <v>580</v>
@@ -16787,13 +16787,13 @@
     </row>
     <row r="216" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A216" s="69" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B216" s="70" t="s">
+        <v>967</v>
+      </c>
+      <c r="C216" s="70" t="s">
         <v>968</v>
-      </c>
-      <c r="C216" s="70" t="s">
-        <v>969</v>
       </c>
       <c r="D216" s="71" t="s">
         <v>732</v>
@@ -16813,13 +16813,13 @@
       </c>
       <c r="J216" s="88"/>
       <c r="K216" s="71" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L216" s="71" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="M216" s="70" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="N216" s="14" t="s">
         <v>195</v>
@@ -16839,13 +16839,13 @@
     </row>
     <row r="217" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A217" s="69" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B217" s="70" t="s">
+        <v>970</v>
+      </c>
+      <c r="C217" s="70" t="s">
         <v>971</v>
-      </c>
-      <c r="C217" s="70" t="s">
-        <v>972</v>
       </c>
       <c r="D217" s="71" t="s">
         <v>732</v>
@@ -16865,13 +16865,13 @@
       </c>
       <c r="J217" s="88"/>
       <c r="K217" s="71" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L217" s="71" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="M217" s="70" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="N217" s="14" t="s">
         <v>195</v>
@@ -16885,13 +16885,13 @@
     </row>
     <row r="218" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A218" s="69" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B218" s="70" t="s">
+        <v>972</v>
+      </c>
+      <c r="C218" s="70" t="s">
         <v>973</v>
-      </c>
-      <c r="C218" s="70" t="s">
-        <v>974</v>
       </c>
       <c r="D218" s="71" t="s">
         <v>732</v>
@@ -16911,13 +16911,13 @@
       </c>
       <c r="J218" s="88"/>
       <c r="K218" s="71" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L218" s="71" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="M218" s="70" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="N218" s="14" t="s">
         <v>195</v>
@@ -16931,13 +16931,13 @@
     </row>
     <row r="219" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A219" s="69" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B219" s="70" t="s">
+        <v>975</v>
+      </c>
+      <c r="C219" s="70" t="s">
         <v>976</v>
-      </c>
-      <c r="C219" s="70" t="s">
-        <v>977</v>
       </c>
       <c r="D219" s="71" t="s">
         <v>732</v>
@@ -16957,10 +16957,10 @@
       </c>
       <c r="J219" s="88"/>
       <c r="K219" s="71" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L219" s="71" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="M219" s="70" t="s">
         <v>522</v>
@@ -16977,13 +16977,13 @@
     </row>
     <row r="220" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A220" s="69" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B220" s="70" t="s">
+        <v>977</v>
+      </c>
+      <c r="C220" s="70" t="s">
         <v>978</v>
-      </c>
-      <c r="C220" s="70" t="s">
-        <v>979</v>
       </c>
       <c r="D220" s="71" t="s">
         <v>732</v>
@@ -17003,10 +17003,10 @@
       </c>
       <c r="J220" s="88"/>
       <c r="K220" s="71" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L220" s="71" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="M220" s="70" t="s">
         <v>522</v>
@@ -17023,13 +17023,13 @@
     </row>
     <row r="221" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A221" s="69" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B221" s="70" t="s">
+        <v>979</v>
+      </c>
+      <c r="C221" s="70" t="s">
         <v>980</v>
-      </c>
-      <c r="C221" s="70" t="s">
-        <v>981</v>
       </c>
       <c r="D221" s="71" t="s">
         <v>732</v>
@@ -17049,13 +17049,13 @@
       </c>
       <c r="J221" s="88"/>
       <c r="K221" s="71" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L221" s="71" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="M221" s="70" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="N221" s="14" t="s">
         <v>195</v>
@@ -17069,13 +17069,13 @@
     </row>
     <row r="222" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A222" s="69" t="s">
+        <v>982</v>
+      </c>
+      <c r="B222" s="70" t="s">
         <v>983</v>
       </c>
-      <c r="B222" s="70" t="s">
-        <v>984</v>
-      </c>
       <c r="C222" s="70" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D222" s="71" t="s">
         <v>732</v>
@@ -17095,13 +17095,13 @@
       </c>
       <c r="J222" s="88"/>
       <c r="K222" s="71" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L222" s="71" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="M222" s="70" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="N222" s="14" t="s">
         <v>195</v>
@@ -17112,13 +17112,13 @@
     </row>
     <row r="223" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A223" s="69" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B223" s="70" t="s">
+        <v>986</v>
+      </c>
+      <c r="C223" s="70" t="s">
         <v>987</v>
-      </c>
-      <c r="C223" s="70" t="s">
-        <v>988</v>
       </c>
       <c r="D223" s="71" t="s">
         <v>732</v>
@@ -17138,13 +17138,13 @@
       </c>
       <c r="J223" s="88"/>
       <c r="K223" s="71" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L223" s="71" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="M223" s="70" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="N223" s="14" t="s">
         <v>195</v>
@@ -17155,13 +17155,13 @@
     </row>
     <row r="224" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A224" s="69" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B224" s="70" t="s">
+        <v>989</v>
+      </c>
+      <c r="C224" s="70" t="s">
         <v>990</v>
-      </c>
-      <c r="C224" s="70" t="s">
-        <v>991</v>
       </c>
       <c r="D224" s="71" t="s">
         <v>732</v>
@@ -17181,13 +17181,13 @@
       </c>
       <c r="J224" s="88"/>
       <c r="K224" s="70" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="L224" s="70" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="M224" s="70" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="N224" s="14" t="s">
         <v>195</v>
@@ -17198,13 +17198,13 @@
     </row>
     <row r="225" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A225" s="69" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B225" s="70" t="s">
         <v>1016</v>
       </c>
-      <c r="B225" s="70" t="s">
+      <c r="C225" s="70" t="s">
         <v>1017</v>
-      </c>
-      <c r="C225" s="70" t="s">
-        <v>1018</v>
       </c>
       <c r="D225" s="71" t="s">
         <v>732</v>
@@ -17224,13 +17224,13 @@
       </c>
       <c r="J225" s="89"/>
       <c r="K225" s="71" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L225" s="71" t="s">
         <v>580</v>
       </c>
       <c r="M225" s="70" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="N225" s="14" t="s">
         <v>195</v>

--- a/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/core/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A6D1B8-99F4-CD45-81D7-B8FFC8D8AFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29F0036-CD68-E144-8ED5-1BB8C336AD36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="500" windowWidth="45720" windowHeight="25040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flavi.txt" sheetId="1" r:id="rId1"/>
@@ -5681,8 +5681,8 @@
   <dimension ref="A1:R225"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G180" sqref="A1:R225"/>
+      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A215" sqref="A215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/core/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCA094A-9CC2-224E-92A5-1025FF751AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B695016-851E-BF44-93B2-346F93963024}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="500" windowWidth="45720" windowHeight="25040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flavi.txt" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3585" uniqueCount="1100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3585" uniqueCount="1101">
   <si>
     <t>AY632538</t>
   </si>
@@ -3329,6 +3329,9 @@
   </si>
   <si>
     <t>Podargiformes</t>
+  </si>
+  <si>
+    <t>Perissodactyla</t>
   </si>
 </sst>
 </file>
@@ -5680,9 +5683,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A216" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D197" sqref="D197"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L219" sqref="A1:R225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16764,10 +16767,10 @@
         <v>1047</v>
       </c>
       <c r="L215" s="71" t="s">
-        <v>580</v>
+        <v>1100</v>
       </c>
       <c r="M215" s="70" t="s">
-        <v>728</v>
+        <v>518</v>
       </c>
       <c r="N215" s="14" t="s">
         <v>195</v>
@@ -16782,7 +16785,7 @@
         <v>1</v>
       </c>
       <c r="R215" s="58" t="s">
-        <v>728</v>
+        <v>162</v>
       </c>
     </row>
     <row r="216" spans="1:18" ht="19" x14ac:dyDescent="0.25">

--- a/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/core/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCA094A-9CC2-224E-92A5-1025FF751AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2DAE12-670C-5B43-BE5F-46AB5796CC77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="500" windowWidth="45720" windowHeight="25040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flavi.txt" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3585" uniqueCount="1100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3604" uniqueCount="1102">
   <si>
     <t>AY632538</t>
   </si>
@@ -3329,6 +3329,12 @@
   </si>
   <si>
     <t>Podargiformes</t>
+  </si>
+  <si>
+    <t>Pegi1</t>
+  </si>
+  <si>
+    <t>Pegi2</t>
   </si>
 </sst>
 </file>
@@ -5680,9 +5686,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A216" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D197" sqref="D197"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E219" sqref="A1:R225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16339,7 +16345,9 @@
       <c r="G207" s="70" t="s">
         <v>414</v>
       </c>
-      <c r="H207" s="70"/>
+      <c r="H207" s="70" t="s">
+        <v>1100</v>
+      </c>
       <c r="I207" s="70" t="s">
         <v>814</v>
       </c>
@@ -16391,7 +16399,9 @@
       <c r="G208" s="70" t="s">
         <v>414</v>
       </c>
-      <c r="H208" s="70"/>
+      <c r="H208" s="70" t="s">
+        <v>1101</v>
+      </c>
       <c r="I208" s="70" t="s">
         <v>814</v>
       </c>
@@ -16443,7 +16453,9 @@
       <c r="G209" s="70" t="s">
         <v>414</v>
       </c>
-      <c r="H209" s="70"/>
+      <c r="H209" s="70" t="s">
+        <v>1101</v>
+      </c>
       <c r="I209" s="70" t="s">
         <v>814</v>
       </c>
@@ -16495,7 +16507,9 @@
       <c r="G210" s="70" t="s">
         <v>414</v>
       </c>
-      <c r="H210" s="70"/>
+      <c r="H210" s="70" t="s">
+        <v>1100</v>
+      </c>
       <c r="I210" s="70" t="s">
         <v>814</v>
       </c>
@@ -16547,7 +16561,9 @@
       <c r="G211" s="70" t="s">
         <v>414</v>
       </c>
-      <c r="H211" s="70"/>
+      <c r="H211" s="70" t="s">
+        <v>1100</v>
+      </c>
       <c r="I211" s="70" t="s">
         <v>814</v>
       </c>
@@ -16599,7 +16615,9 @@
       <c r="G212" s="70" t="s">
         <v>414</v>
       </c>
-      <c r="H212" s="70"/>
+      <c r="H212" s="70" t="s">
+        <v>1101</v>
+      </c>
       <c r="I212" s="70" t="s">
         <v>814</v>
       </c>
@@ -16651,7 +16669,9 @@
       <c r="G213" s="70" t="s">
         <v>414</v>
       </c>
-      <c r="H213" s="70"/>
+      <c r="H213" s="70" t="s">
+        <v>1100</v>
+      </c>
       <c r="I213" s="70" t="s">
         <v>814</v>
       </c>
@@ -16703,7 +16723,9 @@
       <c r="G214" s="70" t="s">
         <v>414</v>
       </c>
-      <c r="H214" s="70"/>
+      <c r="H214" s="70" t="s">
+        <v>1101</v>
+      </c>
       <c r="I214" s="70" t="s">
         <v>814</v>
       </c>
@@ -16755,7 +16777,9 @@
       <c r="G215" s="70" t="s">
         <v>414</v>
       </c>
-      <c r="H215" s="70"/>
+      <c r="H215" s="70" t="s">
+        <v>1101</v>
+      </c>
       <c r="I215" s="70" t="s">
         <v>814</v>
       </c>
@@ -16807,7 +16831,9 @@
       <c r="G216" s="70" t="s">
         <v>414</v>
       </c>
-      <c r="H216" s="70"/>
+      <c r="H216" s="70" t="s">
+        <v>1101</v>
+      </c>
       <c r="I216" s="70" t="s">
         <v>814</v>
       </c>
@@ -16859,7 +16885,9 @@
       <c r="G217" s="70" t="s">
         <v>414</v>
       </c>
-      <c r="H217" s="70"/>
+      <c r="H217" s="70" t="s">
+        <v>1101</v>
+      </c>
       <c r="I217" s="70" t="s">
         <v>814</v>
       </c>
@@ -16905,7 +16933,9 @@
       <c r="G218" s="70" t="s">
         <v>414</v>
       </c>
-      <c r="H218" s="70"/>
+      <c r="H218" s="70" t="s">
+        <v>1101</v>
+      </c>
       <c r="I218" s="70" t="s">
         <v>814</v>
       </c>
@@ -16951,7 +16981,9 @@
       <c r="G219" s="70" t="s">
         <v>414</v>
       </c>
-      <c r="H219" s="70"/>
+      <c r="H219" s="70" t="s">
+        <v>1101</v>
+      </c>
       <c r="I219" s="70" t="s">
         <v>814</v>
       </c>
@@ -16997,7 +17029,9 @@
       <c r="G220" s="70" t="s">
         <v>414</v>
       </c>
-      <c r="H220" s="70"/>
+      <c r="H220" s="70" t="s">
+        <v>1101</v>
+      </c>
       <c r="I220" s="70" t="s">
         <v>814</v>
       </c>
@@ -17043,7 +17077,9 @@
       <c r="G221" s="70" t="s">
         <v>414</v>
       </c>
-      <c r="H221" s="70"/>
+      <c r="H221" s="70" t="s">
+        <v>1101</v>
+      </c>
       <c r="I221" s="70" t="s">
         <v>814</v>
       </c>
@@ -17089,7 +17125,9 @@
       <c r="G222" s="70" t="s">
         <v>414</v>
       </c>
-      <c r="H222" s="70"/>
+      <c r="H222" s="70" t="s">
+        <v>1100</v>
+      </c>
       <c r="I222" s="70" t="s">
         <v>814</v>
       </c>
@@ -17132,7 +17170,9 @@
       <c r="G223" s="70" t="s">
         <v>414</v>
       </c>
-      <c r="H223" s="70"/>
+      <c r="H223" s="70" t="s">
+        <v>1100</v>
+      </c>
       <c r="I223" s="70" t="s">
         <v>814</v>
       </c>
@@ -17175,7 +17215,9 @@
       <c r="G224" s="70" t="s">
         <v>414</v>
       </c>
-      <c r="H224" s="70"/>
+      <c r="H224" s="70" t="s">
+        <v>1101</v>
+      </c>
       <c r="I224" s="70" t="s">
         <v>814</v>
       </c>
@@ -17218,7 +17260,9 @@
       <c r="G225" s="70" t="s">
         <v>414</v>
       </c>
-      <c r="H225" s="70"/>
+      <c r="H225" s="70" t="s">
+        <v>1101</v>
+      </c>
       <c r="I225" s="70" t="s">
         <v>814</v>
       </c>

--- a/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9BFE16-EECF-A243-905C-BF73403A1B1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA386DB5-A6A5-3447-BA7B-B6B8516914D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3663" uniqueCount="1099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3663" uniqueCount="1100">
   <si>
     <t>AY632538</t>
   </si>
@@ -3326,6 +3326,9 @@
   </si>
   <si>
     <t>Pesti2</t>
+  </si>
+  <si>
+    <t>Hepaci3</t>
   </si>
 </sst>
 </file>
@@ -5678,8 +5681,8 @@
   <dimension ref="A1:R225"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C150" sqref="A1:R225"/>
+      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G181" sqref="A1:R225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14933,7 +14936,7 @@
         <v>365</v>
       </c>
       <c r="H175" s="24" t="s">
-        <v>1091</v>
+        <v>1099</v>
       </c>
       <c r="I175" s="26" t="s">
         <v>802</v>
@@ -15025,7 +15028,7 @@
         <v>365</v>
       </c>
       <c r="H177" s="24" t="s">
-        <v>1091</v>
+        <v>1099</v>
       </c>
       <c r="I177" s="26" t="s">
         <v>802</v>
@@ -15165,7 +15168,7 @@
         <v>365</v>
       </c>
       <c r="H180" s="24" t="s">
-        <v>1091</v>
+        <v>1099</v>
       </c>
       <c r="I180" s="26" t="s">
         <v>802</v>

--- a/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA386DB5-A6A5-3447-BA7B-B6B8516914D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1D2C9E-58A0-4345-9EA8-44BC0107A064}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3663" uniqueCount="1100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3663" uniqueCount="1101">
   <si>
     <t>AY632538</t>
   </si>
@@ -3329,6 +3329,9 @@
   </si>
   <si>
     <t>Hepaci3</t>
+  </si>
+  <si>
+    <t>Pesti3</t>
   </si>
 </sst>
 </file>
@@ -5681,8 +5684,8 @@
   <dimension ref="A1:R225"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G181" sqref="A1:R225"/>
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H143" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13358,7 +13361,7 @@
         <v>322</v>
       </c>
       <c r="H145" s="47" t="s">
-        <v>1096</v>
+        <v>1100</v>
       </c>
       <c r="I145" s="47" t="s">
         <v>802</v>
@@ -13520,7 +13523,7 @@
         <v>322</v>
       </c>
       <c r="H148" s="47" t="s">
-        <v>1096</v>
+        <v>1100</v>
       </c>
       <c r="I148" s="47" t="s">
         <v>802</v>

--- a/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/core/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1D2C9E-58A0-4345-9EA8-44BC0107A064}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F8F5D5-65EA-2241-B748-59667A819DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flavi.txt" sheetId="1" r:id="rId1"/>
@@ -5684,8 +5684,8 @@
   <dimension ref="A1:R225"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H143" sqref="A1:XFD1048576"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H151" sqref="H151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13415,7 +13415,7 @@
         <v>322</v>
       </c>
       <c r="H146" s="47" t="s">
-        <v>1096</v>
+        <v>1100</v>
       </c>
       <c r="I146" s="47" t="s">
         <v>802</v>
@@ -13469,7 +13469,7 @@
         <v>322</v>
       </c>
       <c r="H147" s="47" t="s">
-        <v>1096</v>
+        <v>1100</v>
       </c>
       <c r="I147" s="47" t="s">
         <v>802</v>

--- a/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1D2C9E-58A0-4345-9EA8-44BC0107A064}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72717DE-BFCA-C542-B628-97AC3F8B2FB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="16620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flavi.txt" sheetId="1" r:id="rId1"/>
@@ -5684,8 +5684,8 @@
   <dimension ref="A1:R225"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H143" sqref="A1:XFD1048576"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G145" sqref="A1:R225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13307,7 +13307,7 @@
         <v>322</v>
       </c>
       <c r="H144" s="47" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="I144" s="47" t="s">
         <v>802</v>

--- a/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/core/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72717DE-BFCA-C542-B628-97AC3F8B2FB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDBFDE5-0132-3A4E-89B8-E1868A075D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="16620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="16620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flavi.txt" sheetId="1" r:id="rId1"/>
@@ -5681,11 +5681,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R225"/>
+  <dimension ref="A1:R224"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G145" sqref="A1:R225"/>
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C140" sqref="A1:R224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12800,13 +12800,13 @@
     </row>
     <row r="135" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A135" s="45" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B135" s="46" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C135" s="47" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D135" s="47" t="s">
         <v>720</v>
@@ -12834,7 +12834,7 @@
         <v>1069</v>
       </c>
       <c r="M135" s="47" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="N135" s="14" t="s">
         <v>195</v>
@@ -12843,24 +12843,24 @@
         <v>195</v>
       </c>
       <c r="P135" s="57" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q135" s="59" t="s">
-        <v>471</v>
+        <v>1</v>
       </c>
       <c r="R135" s="58" t="s">
-        <v>135</v>
+        <v>488</v>
       </c>
     </row>
     <row r="136" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A136" s="45" t="s">
-        <v>224</v>
-      </c>
-      <c r="B136" s="46" t="s">
-        <v>106</v>
+        <v>642</v>
+      </c>
+      <c r="B136" s="47" t="s">
+        <v>613</v>
       </c>
       <c r="C136" s="47" t="s">
-        <v>348</v>
+        <v>634</v>
       </c>
       <c r="D136" s="47" t="s">
         <v>720</v>
@@ -12875,20 +12875,20 @@
         <v>322</v>
       </c>
       <c r="H136" s="47" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="I136" s="47" t="s">
         <v>802</v>
       </c>
       <c r="J136" s="85"/>
       <c r="K136" s="47" t="s">
-        <v>1034</v>
+        <v>1040</v>
       </c>
       <c r="L136" s="47" t="s">
-        <v>1069</v>
+        <v>1040</v>
       </c>
       <c r="M136" s="47" t="s">
-        <v>521</v>
+        <v>1047</v>
       </c>
       <c r="N136" s="14" t="s">
         <v>195</v>
@@ -12897,24 +12897,24 @@
         <v>195</v>
       </c>
       <c r="P136" s="57" t="s">
-        <v>349</v>
+        <v>1</v>
       </c>
       <c r="Q136" s="59" t="s">
         <v>1</v>
       </c>
       <c r="R136" s="58" t="s">
-        <v>488</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="137" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A137" s="45" t="s">
-        <v>642</v>
-      </c>
-      <c r="B137" s="47" t="s">
-        <v>613</v>
+        <v>229</v>
+      </c>
+      <c r="B137" s="46" t="s">
+        <v>111</v>
       </c>
       <c r="C137" s="47" t="s">
-        <v>634</v>
+        <v>578</v>
       </c>
       <c r="D137" s="47" t="s">
         <v>720</v>
@@ -12929,20 +12929,20 @@
         <v>322</v>
       </c>
       <c r="H137" s="47" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="I137" s="47" t="s">
         <v>802</v>
       </c>
       <c r="J137" s="85"/>
       <c r="K137" s="47" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="L137" s="47" t="s">
-        <v>1040</v>
+        <v>1069</v>
       </c>
       <c r="M137" s="47" t="s">
-        <v>1047</v>
+        <v>515</v>
       </c>
       <c r="N137" s="14" t="s">
         <v>195</v>
@@ -12951,24 +12951,24 @@
         <v>195</v>
       </c>
       <c r="P137" s="57" t="s">
-        <v>1</v>
+        <v>357</v>
       </c>
       <c r="Q137" s="59" t="s">
         <v>1</v>
       </c>
       <c r="R137" s="58" t="s">
-        <v>1047</v>
+        <v>209</v>
       </c>
     </row>
     <row r="138" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A138" s="45" t="s">
-        <v>229</v>
+        <v>283</v>
       </c>
       <c r="B138" s="46" t="s">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="C138" s="47" t="s">
-        <v>578</v>
+        <v>419</v>
       </c>
       <c r="D138" s="47" t="s">
         <v>720</v>
@@ -12996,7 +12996,7 @@
         <v>1069</v>
       </c>
       <c r="M138" s="47" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="N138" s="14" t="s">
         <v>195</v>
@@ -13005,24 +13005,24 @@
         <v>195</v>
       </c>
       <c r="P138" s="57" t="s">
-        <v>357</v>
+        <v>1</v>
       </c>
       <c r="Q138" s="59" t="s">
-        <v>1</v>
+        <v>471</v>
       </c>
       <c r="R138" s="58" t="s">
-        <v>209</v>
+        <v>487</v>
       </c>
     </row>
     <row r="139" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A139" s="45" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="B139" s="46" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C139" s="47" t="s">
-        <v>419</v>
+        <v>579</v>
       </c>
       <c r="D139" s="47" t="s">
         <v>720</v>
@@ -13050,7 +13050,7 @@
         <v>1069</v>
       </c>
       <c r="M139" s="47" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="N139" s="14" t="s">
         <v>195</v>
@@ -13059,24 +13059,24 @@
         <v>195</v>
       </c>
       <c r="P139" s="57" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="Q139" s="59" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="R139" s="58" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="140" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A140" s="45" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="B140" s="46" t="s">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="C140" s="47" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="D140" s="47" t="s">
         <v>720</v>
@@ -13104,7 +13104,7 @@
         <v>1069</v>
       </c>
       <c r="M140" s="47" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N140" s="14" t="s">
         <v>195</v>
@@ -13113,24 +13113,24 @@
         <v>195</v>
       </c>
       <c r="P140" s="57" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="Q140" s="59" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="R140" s="58" t="s">
-        <v>488</v>
+        <v>110</v>
       </c>
     </row>
     <row r="141" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A141" s="45" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="B141" s="46" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C141" s="47" t="s">
-        <v>582</v>
+        <v>406</v>
       </c>
       <c r="D141" s="47" t="s">
         <v>720</v>
@@ -13158,7 +13158,7 @@
         <v>1069</v>
       </c>
       <c r="M141" s="47" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="N141" s="14" t="s">
         <v>195</v>
@@ -13167,24 +13167,24 @@
         <v>195</v>
       </c>
       <c r="P141" s="57" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="Q141" s="59" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="R141" s="58" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
     </row>
     <row r="142" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A142" s="45" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B142" s="46" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="C142" s="47" t="s">
-        <v>406</v>
+        <v>580</v>
       </c>
       <c r="D142" s="47" t="s">
         <v>720</v>
@@ -13212,7 +13212,7 @@
         <v>1069</v>
       </c>
       <c r="M142" s="47" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N142" s="14" t="s">
         <v>195</v>
@@ -13227,18 +13227,18 @@
         <v>470</v>
       </c>
       <c r="R142" s="58" t="s">
-        <v>135</v>
+        <v>209</v>
       </c>
     </row>
     <row r="143" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A143" s="45" t="s">
-        <v>250</v>
-      </c>
-      <c r="B143" s="46" t="s">
-        <v>142</v>
+        <v>262</v>
+      </c>
+      <c r="B143" s="47" t="s">
+        <v>166</v>
       </c>
       <c r="C143" s="47" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D143" s="47" t="s">
         <v>720</v>
@@ -13253,7 +13253,7 @@
         <v>322</v>
       </c>
       <c r="H143" s="47" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="I143" s="47" t="s">
         <v>802</v>
@@ -13263,10 +13263,10 @@
         <v>1034</v>
       </c>
       <c r="L143" s="47" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="M143" s="47" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="N143" s="14" t="s">
         <v>195</v>
@@ -13275,24 +13275,24 @@
         <v>195</v>
       </c>
       <c r="P143" s="57" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="Q143" s="59" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="R143" s="58" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
     </row>
     <row r="144" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A144" s="45" t="s">
-        <v>262</v>
+        <v>631</v>
       </c>
       <c r="B144" s="47" t="s">
-        <v>166</v>
+        <v>632</v>
       </c>
       <c r="C144" s="47" t="s">
-        <v>581</v>
+        <v>633</v>
       </c>
       <c r="D144" s="47" t="s">
         <v>720</v>
@@ -13307,7 +13307,7 @@
         <v>322</v>
       </c>
       <c r="H144" s="47" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="I144" s="47" t="s">
         <v>802</v>
@@ -13317,10 +13317,10 @@
         <v>1034</v>
       </c>
       <c r="L144" s="47" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="M144" s="47" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="N144" s="14" t="s">
         <v>195</v>
@@ -13329,24 +13329,24 @@
         <v>195</v>
       </c>
       <c r="P144" s="57" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="Q144" s="59" t="s">
-        <v>471</v>
+        <v>1</v>
       </c>
       <c r="R144" s="58" t="s">
-        <v>164</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A145" s="45" t="s">
-        <v>631</v>
+        <v>1008</v>
       </c>
       <c r="B145" s="47" t="s">
-        <v>632</v>
+        <v>979</v>
       </c>
       <c r="C145" s="47" t="s">
-        <v>633</v>
+        <v>980</v>
       </c>
       <c r="D145" s="47" t="s">
         <v>720</v>
@@ -13361,7 +13361,7 @@
         <v>322</v>
       </c>
       <c r="H145" s="47" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="I145" s="47" t="s">
         <v>802</v>
@@ -13371,10 +13371,10 @@
         <v>1034</v>
       </c>
       <c r="L145" s="47" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="M145" s="47" t="s">
-        <v>521</v>
+        <v>956</v>
       </c>
       <c r="N145" s="14" t="s">
         <v>195</v>
@@ -13394,13 +13394,13 @@
     </row>
     <row r="146" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A146" s="45" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B146" s="47" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="C146" s="47" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="D146" s="47" t="s">
         <v>720</v>
@@ -13448,13 +13448,13 @@
     </row>
     <row r="147" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A147" s="45" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B147" s="47" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="C147" s="47" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="D147" s="47" t="s">
         <v>720</v>
@@ -13469,7 +13469,7 @@
         <v>322</v>
       </c>
       <c r="H147" s="47" t="s">
-        <v>1096</v>
+        <v>1100</v>
       </c>
       <c r="I147" s="47" t="s">
         <v>802</v>
@@ -13502,13 +13502,13 @@
     </row>
     <row r="148" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A148" s="45" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B148" s="47" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="C148" s="47" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="D148" s="47" t="s">
         <v>720</v>
@@ -13523,7 +13523,7 @@
         <v>322</v>
       </c>
       <c r="H148" s="47" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="I148" s="47" t="s">
         <v>802</v>
@@ -13533,10 +13533,10 @@
         <v>1034</v>
       </c>
       <c r="L148" s="47" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="M148" s="47" t="s">
-        <v>956</v>
+        <v>993</v>
       </c>
       <c r="N148" s="14" t="s">
         <v>195</v>
@@ -13556,13 +13556,13 @@
     </row>
     <row r="149" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A149" s="45" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B149" s="47" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="C149" s="47" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="D149" s="47" t="s">
         <v>720</v>
@@ -13605,18 +13605,18 @@
         <v>1</v>
       </c>
       <c r="R149" s="58" t="s">
-        <v>1</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="150" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A150" s="45" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B150" s="47" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="C150" s="47" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="D150" s="47" t="s">
         <v>720</v>
@@ -13659,18 +13659,18 @@
         <v>1</v>
       </c>
       <c r="R150" s="58" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="151" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A151" s="45" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B151" s="47" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="C151" s="47" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="D151" s="47" t="s">
         <v>720</v>
@@ -13713,18 +13713,18 @@
         <v>1</v>
       </c>
       <c r="R151" s="58" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="152" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A152" s="45" t="s">
-        <v>1014</v>
+        <v>228</v>
       </c>
       <c r="B152" s="47" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="C152" s="47" t="s">
-        <v>992</v>
+        <v>977</v>
       </c>
       <c r="D152" s="47" t="s">
         <v>720</v>
@@ -13749,10 +13749,10 @@
         <v>1034</v>
       </c>
       <c r="L152" s="47" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="M152" s="47" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="N152" s="14" t="s">
         <v>195</v>
@@ -13767,18 +13767,18 @@
         <v>1</v>
       </c>
       <c r="R152" s="58" t="s">
-        <v>1057</v>
+        <v>110</v>
       </c>
     </row>
     <row r="153" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A153" s="45" t="s">
-        <v>228</v>
+        <v>996</v>
       </c>
       <c r="B153" s="47" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="C153" s="47" t="s">
-        <v>977</v>
+        <v>998</v>
       </c>
       <c r="D153" s="47" t="s">
         <v>720</v>
@@ -13806,7 +13806,7 @@
         <v>1069</v>
       </c>
       <c r="M153" s="47" t="s">
-        <v>995</v>
+        <v>521</v>
       </c>
       <c r="N153" s="14" t="s">
         <v>195</v>
@@ -13821,18 +13821,18 @@
         <v>1</v>
       </c>
       <c r="R153" s="58" t="s">
-        <v>110</v>
+        <v>488</v>
       </c>
     </row>
     <row r="154" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A154" s="45" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="B154" s="47" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="C154" s="47" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="D154" s="47" t="s">
         <v>720</v>
@@ -13860,7 +13860,7 @@
         <v>1069</v>
       </c>
       <c r="M154" s="47" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="N154" s="14" t="s">
         <v>195</v>
@@ -13875,46 +13875,46 @@
         <v>1</v>
       </c>
       <c r="R154" s="58" t="s">
-        <v>488</v>
+        <v>209</v>
       </c>
     </row>
     <row r="155" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A155" s="45" t="s">
-        <v>999</v>
-      </c>
-      <c r="B155" s="47" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C155" s="47" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D155" s="47" t="s">
-        <v>720</v>
-      </c>
-      <c r="E155" s="47" t="s">
-        <v>645</v>
-      </c>
-      <c r="F155" s="47" t="s">
-        <v>831</v>
-      </c>
-      <c r="G155" s="47" t="s">
-        <v>322</v>
-      </c>
-      <c r="H155" s="47" t="s">
-        <v>1098</v>
-      </c>
-      <c r="I155" s="47" t="s">
-        <v>802</v>
-      </c>
-      <c r="J155" s="85"/>
-      <c r="K155" s="47" t="s">
+      <c r="A155" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="B155" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C155" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="D155" s="24" t="s">
+        <v>720</v>
+      </c>
+      <c r="E155" s="24" t="s">
+        <v>731</v>
+      </c>
+      <c r="F155" s="24" t="s">
+        <v>731</v>
+      </c>
+      <c r="G155" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="H155" s="24" t="s">
+        <v>1089</v>
+      </c>
+      <c r="I155" s="24" t="s">
+        <v>802</v>
+      </c>
+      <c r="J155" s="86"/>
+      <c r="K155" s="24" t="s">
         <v>1034</v>
       </c>
-      <c r="L155" s="47" t="s">
-        <v>1069</v>
-      </c>
-      <c r="M155" s="47" t="s">
-        <v>515</v>
+      <c r="L155" s="24" t="s">
+        <v>570</v>
+      </c>
+      <c r="M155" s="24" t="s">
+        <v>601</v>
       </c>
       <c r="N155" s="14" t="s">
         <v>195</v>
@@ -13923,24 +13923,22 @@
         <v>195</v>
       </c>
       <c r="P155" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q155" s="59" t="s">
-        <v>1</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="Q155" s="59"/>
       <c r="R155" s="58" t="s">
-        <v>209</v>
+        <v>118</v>
       </c>
     </row>
     <row r="156" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A156" s="25" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="B156" s="26" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="C156" s="24" t="s">
-        <v>205</v>
+        <v>574</v>
       </c>
       <c r="D156" s="24" t="s">
         <v>720</v>
@@ -13955,7 +13953,7 @@
         <v>365</v>
       </c>
       <c r="H156" s="24" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="I156" s="24" t="s">
         <v>802</v>
@@ -13965,10 +13963,10 @@
         <v>1034</v>
       </c>
       <c r="L156" s="24" t="s">
-        <v>570</v>
+        <v>1069</v>
       </c>
       <c r="M156" s="24" t="s">
-        <v>601</v>
+        <v>516</v>
       </c>
       <c r="N156" s="14" t="s">
         <v>195</v>
@@ -13977,22 +13975,24 @@
         <v>195</v>
       </c>
       <c r="P156" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q156" s="59"/>
+        <v>47</v>
+      </c>
+      <c r="Q156" s="59" t="s">
+        <v>473</v>
+      </c>
       <c r="R156" s="58" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
     </row>
     <row r="157" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A157" s="25" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B157" s="26" t="s">
-        <v>173</v>
+        <v>593</v>
       </c>
       <c r="C157" s="24" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D157" s="24" t="s">
         <v>720</v>
@@ -14007,7 +14007,7 @@
         <v>365</v>
       </c>
       <c r="H157" s="24" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="I157" s="24" t="s">
         <v>802</v>
@@ -14020,7 +14020,7 @@
         <v>1069</v>
       </c>
       <c r="M157" s="24" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N157" s="14" t="s">
         <v>195</v>
@@ -14028,25 +14028,25 @@
       <c r="O157" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="P157" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q157" s="59" t="s">
-        <v>473</v>
+      <c r="P157" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q157" s="55" t="s">
+        <v>470</v>
       </c>
       <c r="R157" s="58" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
     </row>
     <row r="158" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A158" s="25" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B158" s="26" t="s">
-        <v>593</v>
+        <v>163</v>
       </c>
       <c r="C158" s="24" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D158" s="24" t="s">
         <v>720</v>
@@ -14061,7 +14061,7 @@
         <v>365</v>
       </c>
       <c r="H158" s="24" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="I158" s="24" t="s">
         <v>802</v>
@@ -14071,10 +14071,10 @@
         <v>1034</v>
       </c>
       <c r="L158" s="24" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="M158" s="24" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N158" s="14" t="s">
         <v>195</v>
@@ -14083,24 +14083,24 @@
         <v>195</v>
       </c>
       <c r="P158" s="55" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="Q158" s="55" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="R158" s="58" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="159" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A159" s="25" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B159" s="26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C159" s="24" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D159" s="24" t="s">
         <v>720</v>
@@ -14137,7 +14137,7 @@
         <v>195</v>
       </c>
       <c r="P159" s="55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q159" s="55" t="s">
         <v>471</v>
@@ -14148,13 +14148,13 @@
     </row>
     <row r="160" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A160" s="25" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B160" s="26" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="C160" s="24" t="s">
-        <v>577</v>
+        <v>32</v>
       </c>
       <c r="D160" s="24" t="s">
         <v>720</v>
@@ -14182,7 +14182,7 @@
         <v>1068</v>
       </c>
       <c r="M160" s="24" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="N160" s="14" t="s">
         <v>195</v>
@@ -14191,24 +14191,24 @@
         <v>195</v>
       </c>
       <c r="P160" s="55" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="Q160" s="55" t="s">
         <v>471</v>
       </c>
       <c r="R160" s="58" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="161" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A161" s="25" t="s">
-        <v>253</v>
+        <v>651</v>
       </c>
       <c r="B161" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="C161" s="24" t="s">
-        <v>32</v>
+      <c r="C161" s="26" t="s">
+        <v>647</v>
       </c>
       <c r="D161" s="24" t="s">
         <v>720</v>
@@ -14219,24 +14219,24 @@
       <c r="F161" s="24" t="s">
         <v>731</v>
       </c>
-      <c r="G161" s="24" t="s">
+      <c r="G161" s="26" t="s">
         <v>365</v>
       </c>
       <c r="H161" s="24" t="s">
         <v>1091</v>
       </c>
-      <c r="I161" s="24" t="s">
-        <v>802</v>
-      </c>
-      <c r="J161" s="86"/>
+      <c r="I161" s="26" t="s">
+        <v>802</v>
+      </c>
+      <c r="J161" s="87"/>
       <c r="K161" s="24" t="s">
         <v>1034</v>
       </c>
       <c r="L161" s="24" t="s">
         <v>1068</v>
       </c>
-      <c r="M161" s="24" t="s">
-        <v>506</v>
+      <c r="M161" s="26" t="s">
+        <v>696</v>
       </c>
       <c r="N161" s="14" t="s">
         <v>195</v>
@@ -14245,24 +14245,24 @@
         <v>195</v>
       </c>
       <c r="P161" s="55" t="s">
-        <v>32</v>
+        <v>695</v>
       </c>
       <c r="Q161" s="55" t="s">
-        <v>471</v>
+        <v>1</v>
       </c>
       <c r="R161" s="58" t="s">
-        <v>147</v>
+        <v>696</v>
       </c>
     </row>
     <row r="162" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A162" s="25" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B162" s="26" t="s">
-        <v>146</v>
+        <v>693</v>
       </c>
       <c r="C162" s="26" t="s">
-        <v>647</v>
+        <v>721</v>
       </c>
       <c r="D162" s="24" t="s">
         <v>720</v>
@@ -14277,20 +14277,20 @@
         <v>365</v>
       </c>
       <c r="H162" s="24" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="I162" s="26" t="s">
         <v>802</v>
       </c>
       <c r="J162" s="87"/>
-      <c r="K162" s="24" t="s">
-        <v>1034</v>
-      </c>
-      <c r="L162" s="24" t="s">
-        <v>1068</v>
+      <c r="K162" s="26" t="s">
+        <v>1041</v>
+      </c>
+      <c r="L162" s="26" t="s">
+        <v>1072</v>
       </c>
       <c r="M162" s="26" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="N162" s="14" t="s">
         <v>195</v>
@@ -14299,24 +14299,24 @@
         <v>195</v>
       </c>
       <c r="P162" s="55" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="Q162" s="55" t="s">
         <v>1</v>
       </c>
       <c r="R162" s="58" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="163" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A163" s="25" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B163" s="26" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="C163" s="26" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="D163" s="24" t="s">
         <v>720</v>
@@ -14331,20 +14331,20 @@
         <v>365</v>
       </c>
       <c r="H163" s="24" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="I163" s="26" t="s">
         <v>802</v>
       </c>
       <c r="J163" s="87"/>
       <c r="K163" s="26" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="L163" s="26" t="s">
-        <v>1072</v>
+        <v>1040</v>
       </c>
       <c r="M163" s="26" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="N163" s="14" t="s">
         <v>195</v>
@@ -14353,24 +14353,24 @@
         <v>195</v>
       </c>
       <c r="P163" s="55" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="Q163" s="55" t="s">
         <v>1</v>
       </c>
       <c r="R163" s="58" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="164" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A164" s="25" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B164" s="26" t="s">
-        <v>680</v>
+        <v>700</v>
       </c>
       <c r="C164" s="26" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="D164" s="24" t="s">
         <v>720</v>
@@ -14385,20 +14385,20 @@
         <v>365</v>
       </c>
       <c r="H164" s="24" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="I164" s="26" t="s">
         <v>802</v>
       </c>
       <c r="J164" s="87"/>
-      <c r="K164" s="26" t="s">
-        <v>1040</v>
-      </c>
-      <c r="L164" s="26" t="s">
-        <v>1040</v>
+      <c r="K164" s="24" t="s">
+        <v>1034</v>
+      </c>
+      <c r="L164" s="24" t="s">
+        <v>1068</v>
       </c>
       <c r="M164" s="26" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="N164" s="14" t="s">
         <v>195</v>
@@ -14407,24 +14407,24 @@
         <v>195</v>
       </c>
       <c r="P164" s="55" t="s">
-        <v>699</v>
+        <v>1</v>
       </c>
       <c r="Q164" s="55" t="s">
         <v>1</v>
       </c>
       <c r="R164" s="58" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
     </row>
     <row r="165" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A165" s="25" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B165" s="26" t="s">
-        <v>700</v>
+        <v>682</v>
       </c>
       <c r="C165" s="26" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D165" s="24" t="s">
         <v>720</v>
@@ -14439,20 +14439,20 @@
         <v>365</v>
       </c>
       <c r="H165" s="24" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="I165" s="26" t="s">
         <v>802</v>
       </c>
       <c r="J165" s="87"/>
-      <c r="K165" s="24" t="s">
-        <v>1034</v>
-      </c>
-      <c r="L165" s="24" t="s">
-        <v>1068</v>
+      <c r="K165" s="26" t="s">
+        <v>1040</v>
+      </c>
+      <c r="L165" s="26" t="s">
+        <v>1040</v>
       </c>
       <c r="M165" s="26" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="N165" s="14" t="s">
         <v>195</v>
@@ -14461,24 +14461,22 @@
         <v>195</v>
       </c>
       <c r="P165" s="55" t="s">
-        <v>1</v>
+        <v>701</v>
       </c>
       <c r="Q165" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="R165" s="58" t="s">
-        <v>681</v>
-      </c>
+      <c r="R165" s="58"/>
     </row>
     <row r="166" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A166" s="25" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B166" s="26" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C166" s="26" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D166" s="24" t="s">
         <v>720</v>
@@ -14492,21 +14490,21 @@
       <c r="G166" s="26" t="s">
         <v>365</v>
       </c>
-      <c r="H166" s="24" t="s">
-        <v>1093</v>
+      <c r="H166" s="26" t="s">
+        <v>1094</v>
       </c>
       <c r="I166" s="26" t="s">
         <v>802</v>
       </c>
       <c r="J166" s="87"/>
       <c r="K166" s="26" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="L166" s="26" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="M166" s="26" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="N166" s="14" t="s">
         <v>195</v>
@@ -14515,22 +14513,24 @@
         <v>195</v>
       </c>
       <c r="P166" s="55" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="Q166" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="R166" s="58"/>
+      <c r="R166" s="58" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="167" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A167" s="25" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B167" s="26" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C167" s="26" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D167" s="24" t="s">
         <v>720</v>
@@ -14544,21 +14544,21 @@
       <c r="G167" s="26" t="s">
         <v>365</v>
       </c>
-      <c r="H167" s="26" t="s">
-        <v>1094</v>
+      <c r="H167" s="24" t="s">
+        <v>1093</v>
       </c>
       <c r="I167" s="26" t="s">
         <v>802</v>
       </c>
       <c r="J167" s="87"/>
       <c r="K167" s="26" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="L167" s="26" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="M167" s="26" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="N167" s="14" t="s">
         <v>195</v>
@@ -14567,24 +14567,24 @@
         <v>195</v>
       </c>
       <c r="P167" s="55" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="Q167" s="55" t="s">
         <v>1</v>
       </c>
       <c r="R167" s="58" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="168" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A168" s="25" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="B168" s="26" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="C168" s="26" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D168" s="24" t="s">
         <v>720</v>
@@ -14598,21 +14598,19 @@
       <c r="G168" s="26" t="s">
         <v>365</v>
       </c>
-      <c r="H168" s="24" t="s">
-        <v>1093</v>
-      </c>
+      <c r="H168" s="26"/>
       <c r="I168" s="26" t="s">
         <v>802</v>
       </c>
       <c r="J168" s="87"/>
       <c r="K168" s="26" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="L168" s="26" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="M168" s="26" t="s">
-        <v>687</v>
+        <v>717</v>
       </c>
       <c r="N168" s="14" t="s">
         <v>195</v>
@@ -14621,24 +14619,22 @@
         <v>195</v>
       </c>
       <c r="P168" s="55" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="Q168" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="R168" s="58" t="s">
-        <v>687</v>
-      </c>
+      <c r="R168" s="58"/>
     </row>
     <row r="169" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A169" s="25" t="s">
-        <v>660</v>
+        <v>833</v>
       </c>
       <c r="B169" s="26" t="s">
-        <v>691</v>
+        <v>832</v>
       </c>
       <c r="C169" s="26" t="s">
-        <v>726</v>
+        <v>836</v>
       </c>
       <c r="D169" s="24" t="s">
         <v>720</v>
@@ -14652,43 +14648,39 @@
       <c r="G169" s="26" t="s">
         <v>365</v>
       </c>
-      <c r="H169" s="26"/>
+      <c r="H169" s="24" t="s">
+        <v>1091</v>
+      </c>
       <c r="I169" s="26" t="s">
         <v>802</v>
       </c>
       <c r="J169" s="87"/>
-      <c r="K169" s="26" t="s">
-        <v>1039</v>
+      <c r="K169" s="24" t="s">
+        <v>1034</v>
       </c>
       <c r="L169" s="26" t="s">
-        <v>1039</v>
+        <v>570</v>
       </c>
       <c r="M169" s="26" t="s">
-        <v>717</v>
+        <v>570</v>
       </c>
       <c r="N169" s="14" t="s">
         <v>195</v>
       </c>
       <c r="O169" s="14" t="s">
         <v>195</v>
-      </c>
-      <c r="P169" s="55" t="s">
-        <v>692</v>
-      </c>
-      <c r="Q169" s="55" t="s">
-        <v>1</v>
       </c>
       <c r="R169" s="58"/>
     </row>
     <row r="170" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A170" s="25" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B170" s="26" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="C170" s="26" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="D170" s="24" t="s">
         <v>720</v>
@@ -14712,11 +14704,11 @@
       <c r="K170" s="24" t="s">
         <v>1034</v>
       </c>
-      <c r="L170" s="26" t="s">
-        <v>570</v>
+      <c r="L170" s="24" t="s">
+        <v>1068</v>
       </c>
       <c r="M170" s="26" t="s">
-        <v>570</v>
+        <v>838</v>
       </c>
       <c r="N170" s="14" t="s">
         <v>195</v>
@@ -14724,17 +14716,19 @@
       <c r="O170" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="R170" s="58"/>
+      <c r="R170" s="58" t="s">
+        <v>1053</v>
+      </c>
     </row>
     <row r="171" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A171" s="25" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="B171" s="26" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="C171" s="26" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="D171" s="24" t="s">
         <v>720</v>
@@ -14762,7 +14756,7 @@
         <v>1068</v>
       </c>
       <c r="M171" s="26" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="N171" s="14" t="s">
         <v>195</v>
@@ -14771,18 +14765,18 @@
         <v>195</v>
       </c>
       <c r="R171" s="58" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="172" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A172" s="25" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="B172" s="26" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="C172" s="26" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="D172" s="24" t="s">
         <v>720</v>
@@ -14797,7 +14791,7 @@
         <v>365</v>
       </c>
       <c r="H172" s="24" t="s">
-        <v>1091</v>
+        <v>1095</v>
       </c>
       <c r="I172" s="26" t="s">
         <v>802</v>
@@ -14824,13 +14818,13 @@
     </row>
     <row r="173" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A173" s="25" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="B173" s="26" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="C173" s="26" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="D173" s="24" t="s">
         <v>720</v>
@@ -14845,7 +14839,7 @@
         <v>365</v>
       </c>
       <c r="H173" s="24" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="I173" s="26" t="s">
         <v>802</v>
@@ -14858,7 +14852,7 @@
         <v>1068</v>
       </c>
       <c r="M173" s="26" t="s">
-        <v>841</v>
+        <v>849</v>
       </c>
       <c r="N173" s="14" t="s">
         <v>195</v>
@@ -14866,19 +14860,17 @@
       <c r="O173" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="R173" s="58" t="s">
-        <v>1054</v>
-      </c>
+      <c r="R173" s="58"/>
     </row>
     <row r="174" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A174" s="25" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="B174" s="26" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="C174" s="26" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="D174" s="24" t="s">
         <v>720</v>
@@ -14893,7 +14885,7 @@
         <v>365</v>
       </c>
       <c r="H174" s="24" t="s">
-        <v>1091</v>
+        <v>1099</v>
       </c>
       <c r="I174" s="26" t="s">
         <v>802</v>
@@ -14903,10 +14895,10 @@
         <v>1034</v>
       </c>
       <c r="L174" s="24" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="M174" s="26" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="N174" s="14" t="s">
         <v>195</v>
@@ -14918,13 +14910,13 @@
     </row>
     <row r="175" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A175" s="25" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="B175" s="26" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="C175" s="26" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="D175" s="24" t="s">
         <v>720</v>
@@ -14939,7 +14931,7 @@
         <v>365</v>
       </c>
       <c r="H175" s="24" t="s">
-        <v>1099</v>
+        <v>1091</v>
       </c>
       <c r="I175" s="26" t="s">
         <v>802</v>
@@ -14949,10 +14941,10 @@
         <v>1034</v>
       </c>
       <c r="L175" s="24" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="M175" s="26" t="s">
-        <v>853</v>
+        <v>516</v>
       </c>
       <c r="N175" s="14" t="s">
         <v>195</v>
@@ -14964,13 +14956,13 @@
     </row>
     <row r="176" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A176" s="25" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="B176" s="26" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="C176" s="26" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="D176" s="24" t="s">
         <v>720</v>
@@ -14985,7 +14977,7 @@
         <v>365</v>
       </c>
       <c r="H176" s="24" t="s">
-        <v>1091</v>
+        <v>1099</v>
       </c>
       <c r="I176" s="26" t="s">
         <v>802</v>
@@ -14995,10 +14987,10 @@
         <v>1034</v>
       </c>
       <c r="L176" s="24" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="M176" s="26" t="s">
-        <v>516</v>
+        <v>860</v>
       </c>
       <c r="N176" s="14" t="s">
         <v>195</v>
@@ -15010,13 +15002,13 @@
     </row>
     <row r="177" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A177" s="25" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="B177" s="26" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="C177" s="26" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="D177" s="24" t="s">
         <v>720</v>
@@ -15031,7 +15023,7 @@
         <v>365</v>
       </c>
       <c r="H177" s="24" t="s">
-        <v>1099</v>
+        <v>1091</v>
       </c>
       <c r="I177" s="26" t="s">
         <v>802</v>
@@ -15041,10 +15033,10 @@
         <v>1034</v>
       </c>
       <c r="L177" s="24" t="s">
-        <v>1067</v>
+        <v>570</v>
       </c>
       <c r="M177" s="26" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="N177" s="14" t="s">
         <v>195</v>
@@ -15056,13 +15048,13 @@
     </row>
     <row r="178" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A178" s="25" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="B178" s="26" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="C178" s="26" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="D178" s="24" t="s">
         <v>720</v>
@@ -15087,10 +15079,10 @@
         <v>1034</v>
       </c>
       <c r="L178" s="24" t="s">
-        <v>570</v>
+        <v>1067</v>
       </c>
       <c r="M178" s="26" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="N178" s="14" t="s">
         <v>195</v>
@@ -15098,17 +15090,19 @@
       <c r="O178" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="R178" s="58"/>
+      <c r="R178" s="58" t="s">
+        <v>1058</v>
+      </c>
     </row>
     <row r="179" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A179" s="25" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="B179" s="26" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="C179" s="26" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="D179" s="24" t="s">
         <v>720</v>
@@ -15123,7 +15117,7 @@
         <v>365</v>
       </c>
       <c r="H179" s="24" t="s">
-        <v>1091</v>
+        <v>1099</v>
       </c>
       <c r="I179" s="26" t="s">
         <v>802</v>
@@ -15136,7 +15130,7 @@
         <v>1067</v>
       </c>
       <c r="M179" s="26" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="N179" s="14" t="s">
         <v>195</v>
@@ -15145,18 +15139,18 @@
         <v>195</v>
       </c>
       <c r="R179" s="58" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="180" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A180" s="25" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="B180" s="26" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="C180" s="26" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D180" s="24" t="s">
         <v>720</v>
@@ -15171,7 +15165,7 @@
         <v>365</v>
       </c>
       <c r="H180" s="24" t="s">
-        <v>1099</v>
+        <v>1091</v>
       </c>
       <c r="I180" s="26" t="s">
         <v>802</v>
@@ -15181,10 +15175,10 @@
         <v>1034</v>
       </c>
       <c r="L180" s="24" t="s">
-        <v>1067</v>
+        <v>570</v>
       </c>
       <c r="M180" s="26" t="s">
-        <v>853</v>
+        <v>863</v>
       </c>
       <c r="N180" s="14" t="s">
         <v>195</v>
@@ -15192,19 +15186,17 @@
       <c r="O180" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="R180" s="58" t="s">
-        <v>1059</v>
-      </c>
+      <c r="R180" s="58"/>
     </row>
     <row r="181" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A181" s="25" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B181" s="26" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="C181" s="26" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="D181" s="24" t="s">
         <v>720</v>
@@ -15229,10 +15221,10 @@
         <v>1034</v>
       </c>
       <c r="L181" s="24" t="s">
-        <v>570</v>
+        <v>1067</v>
       </c>
       <c r="M181" s="26" t="s">
-        <v>863</v>
+        <v>1060</v>
       </c>
       <c r="N181" s="14" t="s">
         <v>195</v>
@@ -15240,17 +15232,19 @@
       <c r="O181" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="R181" s="58"/>
+      <c r="R181" s="58" t="s">
+        <v>1060</v>
+      </c>
     </row>
     <row r="182" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A182" s="25" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="B182" s="26" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="C182" s="26" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="D182" s="24" t="s">
         <v>720</v>
@@ -15275,10 +15269,10 @@
         <v>1034</v>
       </c>
       <c r="L182" s="24" t="s">
-        <v>1067</v>
+        <v>1074</v>
       </c>
       <c r="M182" s="26" t="s">
-        <v>1060</v>
+        <v>877</v>
       </c>
       <c r="N182" s="14" t="s">
         <v>195</v>
@@ -15287,18 +15281,18 @@
         <v>195</v>
       </c>
       <c r="R182" s="58" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="183" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A183" s="25" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="B183" s="26" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="C183" s="26" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="D183" s="24" t="s">
         <v>720</v>
@@ -15323,10 +15317,10 @@
         <v>1034</v>
       </c>
       <c r="L183" s="24" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="M183" s="26" t="s">
-        <v>877</v>
+        <v>884</v>
       </c>
       <c r="N183" s="14" t="s">
         <v>195</v>
@@ -15335,18 +15329,18 @@
         <v>195</v>
       </c>
       <c r="R183" s="58" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="184" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A184" s="25" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="B184" s="26" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="C184" s="26" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="D184" s="24" t="s">
         <v>720</v>
@@ -15360,21 +15354,21 @@
       <c r="G184" s="26" t="s">
         <v>365</v>
       </c>
-      <c r="H184" s="24" t="s">
-        <v>1091</v>
+      <c r="H184" s="26" t="s">
+        <v>1090</v>
       </c>
       <c r="I184" s="26" t="s">
         <v>802</v>
       </c>
       <c r="J184" s="87"/>
-      <c r="K184" s="24" t="s">
-        <v>1034</v>
+      <c r="K184" s="26" t="s">
+        <v>1033</v>
       </c>
       <c r="L184" s="24" t="s">
-        <v>1075</v>
+        <v>1086</v>
       </c>
       <c r="M184" s="26" t="s">
-        <v>884</v>
+        <v>1085</v>
       </c>
       <c r="N184" s="14" t="s">
         <v>195</v>
@@ -15382,19 +15376,21 @@
       <c r="O184" s="14" t="s">
         <v>195</v>
       </c>
+      <c r="P184" s="1"/>
+      <c r="Q184"/>
       <c r="R184" s="58" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="185" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A185" s="25" t="s">
-        <v>887</v>
+        <v>1021</v>
       </c>
       <c r="B185" s="26" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="C185" s="26" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="D185" s="24" t="s">
         <v>720</v>
@@ -15408,21 +15404,21 @@
       <c r="G185" s="26" t="s">
         <v>365</v>
       </c>
-      <c r="H185" s="26" t="s">
-        <v>1090</v>
+      <c r="H185" s="24" t="s">
+        <v>1091</v>
       </c>
       <c r="I185" s="26" t="s">
         <v>802</v>
       </c>
       <c r="J185" s="87"/>
-      <c r="K185" s="26" t="s">
-        <v>1033</v>
+      <c r="K185" s="24" t="s">
+        <v>1034</v>
       </c>
       <c r="L185" s="24" t="s">
-        <v>1086</v>
+        <v>570</v>
       </c>
       <c r="M185" s="26" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="N185" s="14" t="s">
         <v>195</v>
@@ -15430,21 +15426,19 @@
       <c r="O185" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="P185" s="1"/>
-      <c r="Q185"/>
-      <c r="R185" s="58" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="186" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="P185" s="66"/>
+      <c r="Q185" s="65"/>
+      <c r="R185" s="58"/>
+    </row>
+    <row r="186" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A186" s="25" t="s">
-        <v>1021</v>
+        <v>889</v>
       </c>
       <c r="B186" s="26" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="C186" s="26" t="s">
-        <v>880</v>
+        <v>891</v>
       </c>
       <c r="D186" s="24" t="s">
         <v>720</v>
@@ -15466,13 +15460,13 @@
       </c>
       <c r="J186" s="87"/>
       <c r="K186" s="24" t="s">
-        <v>1034</v>
+        <v>1083</v>
       </c>
       <c r="L186" s="24" t="s">
-        <v>570</v>
+        <v>1037</v>
       </c>
       <c r="M186" s="26" t="s">
-        <v>1082</v>
+        <v>1063</v>
       </c>
       <c r="N186" s="14" t="s">
         <v>195</v>
@@ -15480,19 +15474,21 @@
       <c r="O186" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="P186" s="66"/>
-      <c r="Q186" s="65"/>
-      <c r="R186" s="58"/>
+      <c r="P186" s="1"/>
+      <c r="Q186"/>
+      <c r="R186" s="58" t="s">
+        <v>1063</v>
+      </c>
     </row>
     <row r="187" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A187" s="25" t="s">
-        <v>889</v>
+        <v>1022</v>
       </c>
       <c r="B187" s="26" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="C187" s="26" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="D187" s="24" t="s">
         <v>720</v>
@@ -15514,13 +15510,13 @@
       </c>
       <c r="J187" s="87"/>
       <c r="K187" s="24" t="s">
-        <v>1083</v>
+        <v>1034</v>
       </c>
       <c r="L187" s="24" t="s">
-        <v>1037</v>
+        <v>1075</v>
       </c>
       <c r="M187" s="26" t="s">
-        <v>1063</v>
+        <v>894</v>
       </c>
       <c r="N187" s="14" t="s">
         <v>195</v>
@@ -15528,21 +15524,18 @@
       <c r="O187" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="P187" s="1"/>
-      <c r="Q187"/>
-      <c r="R187" s="58" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="188" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="P187" s="66"/>
+      <c r="R187" s="58"/>
+    </row>
+    <row r="188" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A188" s="25" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B188" s="26" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="C188" s="26" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="D188" s="24" t="s">
         <v>720</v>
@@ -15567,10 +15560,10 @@
         <v>1034</v>
       </c>
       <c r="L188" s="24" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
       <c r="M188" s="26" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="N188" s="14" t="s">
         <v>195</v>
@@ -15579,17 +15572,20 @@
         <v>195</v>
       </c>
       <c r="P188" s="66"/>
-      <c r="R188" s="58"/>
-    </row>
-    <row r="189" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="Q188" s="65"/>
+      <c r="R188" s="58" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A189" s="25" t="s">
-        <v>1023</v>
+        <v>898</v>
       </c>
       <c r="B189" s="26" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="C189" s="26" t="s">
-        <v>880</v>
+        <v>899</v>
       </c>
       <c r="D189" s="24" t="s">
         <v>720</v>
@@ -15604,20 +15600,20 @@
         <v>365</v>
       </c>
       <c r="H189" s="24" t="s">
-        <v>1091</v>
+        <v>1095</v>
       </c>
       <c r="I189" s="26" t="s">
         <v>802</v>
       </c>
       <c r="J189" s="87"/>
       <c r="K189" s="24" t="s">
-        <v>1034</v>
+        <v>1041</v>
       </c>
       <c r="L189" s="24" t="s">
-        <v>1068</v>
+        <v>1043</v>
       </c>
       <c r="M189" s="26" t="s">
-        <v>896</v>
+        <v>1049</v>
       </c>
       <c r="N189" s="14" t="s">
         <v>195</v>
@@ -15625,21 +15621,21 @@
       <c r="O189" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="P189" s="66"/>
-      <c r="Q189" s="65"/>
+      <c r="P189" s="1"/>
+      <c r="Q189"/>
       <c r="R189" s="58" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="190" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A190" s="25" t="s">
-        <v>898</v>
+        <v>1017</v>
       </c>
       <c r="B190" s="26" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="C190" s="26" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="D190" s="24" t="s">
         <v>720</v>
@@ -15654,20 +15650,20 @@
         <v>365</v>
       </c>
       <c r="H190" s="24" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="I190" s="26" t="s">
         <v>802</v>
       </c>
       <c r="J190" s="87"/>
       <c r="K190" s="24" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="L190" s="24" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="M190" s="26" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="N190" s="14" t="s">
         <v>195</v>
@@ -15675,21 +15671,20 @@
       <c r="O190" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="P190" s="1"/>
-      <c r="Q190"/>
+      <c r="P190" s="66"/>
       <c r="R190" s="58" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="191" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A191" s="25" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B191" s="26" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="C191" s="26" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="D191" s="24" t="s">
         <v>720</v>
@@ -15710,14 +15705,14 @@
         <v>802</v>
       </c>
       <c r="J191" s="87"/>
-      <c r="K191" s="24" t="s">
+      <c r="K191" s="26" t="s">
         <v>1040</v>
       </c>
-      <c r="L191" s="24" t="s">
+      <c r="L191" s="26" t="s">
         <v>1040</v>
       </c>
       <c r="M191" s="26" t="s">
-        <v>1050</v>
+        <v>904</v>
       </c>
       <c r="N191" s="14" t="s">
         <v>195</v>
@@ -15727,18 +15722,18 @@
       </c>
       <c r="P191" s="66"/>
       <c r="R191" s="58" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="192" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A192" s="25" t="s">
-        <v>1018</v>
+        <v>1024</v>
       </c>
       <c r="B192" s="26" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="C192" s="26" t="s">
-        <v>903</v>
+        <v>910</v>
       </c>
       <c r="D192" s="24" t="s">
         <v>720</v>
@@ -15752,21 +15747,21 @@
       <c r="G192" s="26" t="s">
         <v>365</v>
       </c>
-      <c r="H192" s="24" t="s">
-        <v>1093</v>
+      <c r="H192" s="26" t="s">
+        <v>1090</v>
       </c>
       <c r="I192" s="26" t="s">
         <v>802</v>
       </c>
       <c r="J192" s="87"/>
       <c r="K192" s="26" t="s">
-        <v>1040</v>
+        <v>1033</v>
       </c>
       <c r="L192" s="26" t="s">
-        <v>1040</v>
+        <v>1081</v>
       </c>
       <c r="M192" s="26" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="N192" s="14" t="s">
         <v>195</v>
@@ -15776,18 +15771,18 @@
       </c>
       <c r="P192" s="66"/>
       <c r="R192" s="58" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="193" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A193" s="25" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B193" s="26" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="C193" s="26" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="D193" s="24" t="s">
         <v>720</v>
@@ -15812,10 +15807,10 @@
         <v>1033</v>
       </c>
       <c r="L193" s="26" t="s">
-        <v>1081</v>
+        <v>1070</v>
       </c>
       <c r="M193" s="26" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="N193" s="14" t="s">
         <v>195</v>
@@ -15824,19 +15819,17 @@
         <v>195</v>
       </c>
       <c r="P193" s="66"/>
-      <c r="R193" s="58" t="s">
-        <v>1052</v>
-      </c>
+      <c r="R193" s="58"/>
     </row>
     <row r="194" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A194" s="25" t="s">
-        <v>1025</v>
+        <v>656</v>
       </c>
       <c r="B194" s="26" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="C194" s="26" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="D194" s="24" t="s">
         <v>720</v>
@@ -15851,20 +15844,20 @@
         <v>365</v>
       </c>
       <c r="H194" s="26" t="s">
-        <v>1090</v>
+        <v>1094</v>
       </c>
       <c r="I194" s="26" t="s">
         <v>802</v>
       </c>
       <c r="J194" s="87"/>
       <c r="K194" s="26" t="s">
-        <v>1033</v>
+        <v>1042</v>
       </c>
       <c r="L194" s="26" t="s">
-        <v>1070</v>
+        <v>1042</v>
       </c>
       <c r="M194" s="26" t="s">
-        <v>908</v>
+        <v>913</v>
       </c>
       <c r="N194" s="14" t="s">
         <v>195</v>
@@ -15877,13 +15870,13 @@
     </row>
     <row r="195" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A195" s="25" t="s">
-        <v>656</v>
+        <v>1015</v>
       </c>
       <c r="B195" s="26" t="s">
-        <v>909</v>
+        <v>914</v>
       </c>
       <c r="C195" s="26" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="D195" s="24" t="s">
         <v>720</v>
@@ -15897,21 +15890,21 @@
       <c r="G195" s="26" t="s">
         <v>365</v>
       </c>
-      <c r="H195" s="26" t="s">
-        <v>1094</v>
+      <c r="H195" s="24" t="s">
+        <v>1093</v>
       </c>
       <c r="I195" s="26" t="s">
         <v>802</v>
       </c>
       <c r="J195" s="87"/>
       <c r="K195" s="26" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="L195" s="26" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="M195" s="26" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="N195" s="14" t="s">
         <v>195</v>
@@ -15924,13 +15917,13 @@
     </row>
     <row r="196" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A196" s="25" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B196" s="26" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="C196" s="26" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="D196" s="24" t="s">
         <v>720</v>
@@ -15945,20 +15938,20 @@
         <v>365</v>
       </c>
       <c r="H196" s="24" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="I196" s="26" t="s">
         <v>802</v>
       </c>
       <c r="J196" s="87"/>
       <c r="K196" s="26" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="L196" s="26" t="s">
-        <v>1040</v>
+        <v>1072</v>
       </c>
       <c r="M196" s="26" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="N196" s="14" t="s">
         <v>195</v>
@@ -15969,15 +15962,15 @@
       <c r="P196" s="66"/>
       <c r="R196" s="58"/>
     </row>
-    <row r="197" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A197" s="25" t="s">
-        <v>1016</v>
+        <v>652</v>
       </c>
       <c r="B197" s="26" t="s">
-        <v>917</v>
+        <v>693</v>
       </c>
       <c r="C197" s="26" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="D197" s="24" t="s">
         <v>720</v>
@@ -16005,7 +15998,7 @@
         <v>1072</v>
       </c>
       <c r="M197" s="26" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="N197" s="14" t="s">
         <v>195</v>
@@ -16014,17 +16007,20 @@
         <v>195</v>
       </c>
       <c r="P197" s="66"/>
-      <c r="R197" s="58"/>
+      <c r="Q197" s="65"/>
+      <c r="R197" s="58" t="s">
+        <v>697</v>
+      </c>
     </row>
     <row r="198" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A198" s="25" t="s">
-        <v>652</v>
+        <v>922</v>
       </c>
       <c r="B198" s="26" t="s">
-        <v>693</v>
+        <v>923</v>
       </c>
       <c r="C198" s="26" t="s">
-        <v>921</v>
+        <v>938</v>
       </c>
       <c r="D198" s="24" t="s">
         <v>720</v>
@@ -16039,20 +16035,20 @@
         <v>365</v>
       </c>
       <c r="H198" s="24" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="I198" s="26" t="s">
         <v>802</v>
       </c>
       <c r="J198" s="87"/>
-      <c r="K198" s="26" t="s">
-        <v>1041</v>
-      </c>
-      <c r="L198" s="26" t="s">
-        <v>1072</v>
+      <c r="K198" s="24" t="s">
+        <v>1034</v>
+      </c>
+      <c r="L198" s="24" t="s">
+        <v>1073</v>
       </c>
       <c r="M198" s="26" t="s">
-        <v>920</v>
+        <v>946</v>
       </c>
       <c r="N198" s="14" t="s">
         <v>195</v>
@@ -16060,21 +16056,19 @@
       <c r="O198" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="P198" s="66"/>
-      <c r="Q198" s="65"/>
       <c r="R198" s="58" t="s">
-        <v>697</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="199" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A199" s="25" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="B199" s="26" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="C199" s="26" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="D199" s="24" t="s">
         <v>720</v>
@@ -16088,21 +16082,21 @@
       <c r="G199" s="26" t="s">
         <v>365</v>
       </c>
-      <c r="H199" s="24" t="s">
-        <v>1091</v>
+      <c r="H199" s="26" t="s">
+        <v>1090</v>
       </c>
       <c r="I199" s="26" t="s">
         <v>802</v>
       </c>
       <c r="J199" s="87"/>
-      <c r="K199" s="24" t="s">
-        <v>1034</v>
-      </c>
-      <c r="L199" s="24" t="s">
-        <v>1073</v>
+      <c r="K199" s="26" t="s">
+        <v>1033</v>
+      </c>
+      <c r="L199" s="26" t="s">
+        <v>1080</v>
       </c>
       <c r="M199" s="26" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="N199" s="14" t="s">
         <v>195</v>
@@ -16110,19 +16104,17 @@
       <c r="O199" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="R199" s="58" t="s">
-        <v>1064</v>
-      </c>
+      <c r="R199" s="58"/>
     </row>
     <row r="200" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A200" s="25" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="B200" s="26" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="C200" s="26" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="D200" s="24" t="s">
         <v>720</v>
@@ -16147,10 +16139,10 @@
         <v>1033</v>
       </c>
       <c r="L200" s="26" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="M200" s="26" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="N200" s="14" t="s">
         <v>195</v>
@@ -16162,13 +16154,13 @@
     </row>
     <row r="201" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A201" s="25" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="B201" s="26" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="C201" s="26" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="D201" s="24" t="s">
         <v>720</v>
@@ -16182,21 +16174,21 @@
       <c r="G201" s="26" t="s">
         <v>365</v>
       </c>
-      <c r="H201" s="26" t="s">
-        <v>1090</v>
+      <c r="H201" s="24" t="s">
+        <v>1091</v>
       </c>
       <c r="I201" s="26" t="s">
         <v>802</v>
       </c>
       <c r="J201" s="87"/>
-      <c r="K201" s="26" t="s">
-        <v>1033</v>
-      </c>
-      <c r="L201" s="26" t="s">
-        <v>1071</v>
+      <c r="K201" s="24" t="s">
+        <v>1034</v>
+      </c>
+      <c r="L201" s="24" t="s">
+        <v>1073</v>
       </c>
       <c r="M201" s="26" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="N201" s="14" t="s">
         <v>195</v>
@@ -16208,13 +16200,13 @@
     </row>
     <row r="202" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A202" s="25" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="B202" s="26" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="C202" s="26" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="D202" s="24" t="s">
         <v>720</v>
@@ -16229,20 +16221,20 @@
         <v>365</v>
       </c>
       <c r="H202" s="24" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="I202" s="26" t="s">
         <v>802</v>
       </c>
       <c r="J202" s="87"/>
-      <c r="K202" s="24" t="s">
-        <v>1034</v>
-      </c>
-      <c r="L202" s="24" t="s">
-        <v>1073</v>
+      <c r="K202" s="26" t="s">
+        <v>1041</v>
+      </c>
+      <c r="L202" s="26" t="s">
+        <v>1072</v>
       </c>
       <c r="M202" s="26" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="N202" s="14" t="s">
         <v>195</v>
@@ -16254,13 +16246,13 @@
     </row>
     <row r="203" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A203" s="25" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="B203" s="26" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="C203" s="26" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D203" s="24" t="s">
         <v>720</v>
@@ -16275,20 +16267,20 @@
         <v>365</v>
       </c>
       <c r="H203" s="24" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="I203" s="26" t="s">
         <v>802</v>
       </c>
       <c r="J203" s="87"/>
-      <c r="K203" s="26" t="s">
-        <v>1041</v>
-      </c>
-      <c r="L203" s="26" t="s">
-        <v>1072</v>
+      <c r="K203" s="24" t="s">
+        <v>1034</v>
+      </c>
+      <c r="L203" s="24" t="s">
+        <v>570</v>
       </c>
       <c r="M203" s="26" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="N203" s="14" t="s">
         <v>195</v>
@@ -16300,13 +16292,13 @@
     </row>
     <row r="204" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A204" s="25" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="B204" s="26" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="C204" s="26" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="D204" s="24" t="s">
         <v>720</v>
@@ -16320,21 +16312,21 @@
       <c r="G204" s="26" t="s">
         <v>365</v>
       </c>
-      <c r="H204" s="24" t="s">
-        <v>1091</v>
+      <c r="H204" s="26" t="s">
+        <v>1090</v>
       </c>
       <c r="I204" s="26" t="s">
         <v>802</v>
       </c>
       <c r="J204" s="87"/>
-      <c r="K204" s="24" t="s">
-        <v>1034</v>
-      </c>
-      <c r="L204" s="24" t="s">
-        <v>570</v>
+      <c r="K204" s="26" t="s">
+        <v>1033</v>
+      </c>
+      <c r="L204" s="26" t="s">
+        <v>1071</v>
       </c>
       <c r="M204" s="26" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="N204" s="14" t="s">
         <v>195</v>
@@ -16344,15 +16336,15 @@
       </c>
       <c r="R204" s="58"/>
     </row>
-    <row r="205" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A205" s="25" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="B205" s="26" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="C205" s="26" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="D205" s="24" t="s">
         <v>720</v>
@@ -16366,21 +16358,21 @@
       <c r="G205" s="26" t="s">
         <v>365</v>
       </c>
-      <c r="H205" s="26" t="s">
-        <v>1090</v>
+      <c r="H205" s="24" t="s">
+        <v>1089</v>
       </c>
       <c r="I205" s="26" t="s">
         <v>802</v>
       </c>
       <c r="J205" s="87"/>
       <c r="K205" s="26" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="L205" s="26" t="s">
-        <v>1071</v>
+        <v>570</v>
       </c>
       <c r="M205" s="26" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="N205" s="14" t="s">
         <v>195</v>
@@ -16388,45 +16380,47 @@
       <c r="O205" s="14" t="s">
         <v>195</v>
       </c>
+      <c r="P205" s="1"/>
+      <c r="Q205"/>
       <c r="R205" s="58"/>
     </row>
     <row r="206" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A206" s="25" t="s">
-        <v>936</v>
-      </c>
-      <c r="B206" s="26" t="s">
-        <v>937</v>
-      </c>
-      <c r="C206" s="26" t="s">
-        <v>945</v>
-      </c>
-      <c r="D206" s="24" t="s">
-        <v>720</v>
-      </c>
-      <c r="E206" s="24" t="s">
+      <c r="A206" s="69" t="s">
+        <v>659</v>
+      </c>
+      <c r="B206" s="70" t="s">
+        <v>689</v>
+      </c>
+      <c r="C206" s="70" t="s">
+        <v>728</v>
+      </c>
+      <c r="D206" s="71" t="s">
+        <v>720</v>
+      </c>
+      <c r="E206" s="71" t="s">
         <v>731</v>
       </c>
-      <c r="F206" s="24" t="s">
+      <c r="F206" s="71" t="s">
         <v>731</v>
       </c>
-      <c r="G206" s="26" t="s">
-        <v>365</v>
-      </c>
-      <c r="H206" s="24" t="s">
-        <v>1089</v>
-      </c>
-      <c r="I206" s="26" t="s">
-        <v>802</v>
-      </c>
-      <c r="J206" s="87"/>
-      <c r="K206" s="26" t="s">
+      <c r="G206" s="70" t="s">
+        <v>413</v>
+      </c>
+      <c r="H206" s="70" t="s">
+        <v>1087</v>
+      </c>
+      <c r="I206" s="70" t="s">
+        <v>802</v>
+      </c>
+      <c r="J206" s="88"/>
+      <c r="K206" s="71" t="s">
         <v>1034</v>
       </c>
-      <c r="L206" s="26" t="s">
+      <c r="L206" s="71" t="s">
         <v>570</v>
       </c>
-      <c r="M206" s="26" t="s">
-        <v>953</v>
+      <c r="M206" s="70" t="s">
+        <v>118</v>
       </c>
       <c r="N206" s="14" t="s">
         <v>195</v>
@@ -16434,19 +16428,25 @@
       <c r="O206" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="P206" s="1"/>
-      <c r="Q206"/>
-      <c r="R206" s="58"/>
+      <c r="P206" s="55" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q206" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="R206" s="58" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="207" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A207" s="69" t="s">
-        <v>659</v>
+        <v>251</v>
       </c>
       <c r="B207" s="70" t="s">
-        <v>689</v>
+        <v>143</v>
       </c>
       <c r="C207" s="70" t="s">
-        <v>728</v>
+        <v>586</v>
       </c>
       <c r="D207" s="71" t="s">
         <v>720</v>
@@ -16461,7 +16461,7 @@
         <v>413</v>
       </c>
       <c r="H207" s="70" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I207" s="70" t="s">
         <v>802</v>
@@ -16471,10 +16471,10 @@
         <v>1034</v>
       </c>
       <c r="L207" s="71" t="s">
-        <v>570</v>
+        <v>1069</v>
       </c>
       <c r="M207" s="70" t="s">
-        <v>118</v>
+        <v>517</v>
       </c>
       <c r="N207" s="14" t="s">
         <v>195</v>
@@ -16483,24 +16483,24 @@
         <v>195</v>
       </c>
       <c r="P207" s="55" t="s">
-        <v>690</v>
+        <v>30</v>
       </c>
       <c r="Q207" s="55" t="s">
-        <v>1</v>
+        <v>471</v>
       </c>
       <c r="R207" s="58" t="s">
-        <v>1</v>
+        <v>162</v>
       </c>
     </row>
     <row r="208" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A208" s="69" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="B208" s="70" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="C208" s="70" t="s">
-        <v>586</v>
+        <v>343</v>
       </c>
       <c r="D208" s="71" t="s">
         <v>720</v>
@@ -16525,10 +16525,10 @@
         <v>1034</v>
       </c>
       <c r="L208" s="71" t="s">
-        <v>1069</v>
+        <v>570</v>
       </c>
       <c r="M208" s="70" t="s">
-        <v>517</v>
+        <v>570</v>
       </c>
       <c r="N208" s="14" t="s">
         <v>195</v>
@@ -16537,24 +16537,24 @@
         <v>195</v>
       </c>
       <c r="P208" s="55" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="Q208" s="55" t="s">
-        <v>471</v>
+        <v>1</v>
       </c>
       <c r="R208" s="58" t="s">
-        <v>162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A209" s="69" t="s">
-        <v>218</v>
+        <v>284</v>
       </c>
       <c r="B209" s="70" t="s">
-        <v>100</v>
+        <v>178</v>
       </c>
       <c r="C209" s="70" t="s">
-        <v>343</v>
+        <v>434</v>
       </c>
       <c r="D209" s="71" t="s">
         <v>720</v>
@@ -16569,7 +16569,7 @@
         <v>413</v>
       </c>
       <c r="H209" s="70" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="I209" s="70" t="s">
         <v>802</v>
@@ -16591,24 +16591,24 @@
         <v>195</v>
       </c>
       <c r="P209" s="55" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="Q209" s="55" t="s">
-        <v>1</v>
+        <v>471</v>
       </c>
       <c r="R209" s="58" t="s">
-        <v>1</v>
+        <v>118</v>
       </c>
     </row>
     <row r="210" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A210" s="69" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="B210" s="70" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C210" s="70" t="s">
-        <v>434</v>
+        <v>585</v>
       </c>
       <c r="D210" s="71" t="s">
         <v>720</v>
@@ -16633,10 +16633,10 @@
         <v>1034</v>
       </c>
       <c r="L210" s="71" t="s">
-        <v>570</v>
+        <v>1068</v>
       </c>
       <c r="M210" s="70" t="s">
-        <v>570</v>
+        <v>518</v>
       </c>
       <c r="N210" s="14" t="s">
         <v>195</v>
@@ -16645,24 +16645,24 @@
         <v>195</v>
       </c>
       <c r="P210" s="55" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q210" s="55" t="s">
         <v>471</v>
       </c>
       <c r="R210" s="58" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="211" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A211" s="69" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="B211" s="70" t="s">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="C211" s="70" t="s">
-        <v>585</v>
+        <v>345</v>
       </c>
       <c r="D211" s="71" t="s">
         <v>720</v>
@@ -16677,7 +16677,7 @@
         <v>413</v>
       </c>
       <c r="H211" s="70" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I211" s="70" t="s">
         <v>802</v>
@@ -16687,10 +16687,10 @@
         <v>1034</v>
       </c>
       <c r="L211" s="71" t="s">
-        <v>1068</v>
+        <v>570</v>
       </c>
       <c r="M211" s="70" t="s">
-        <v>518</v>
+        <v>118</v>
       </c>
       <c r="N211" s="14" t="s">
         <v>195</v>
@@ -16699,24 +16699,24 @@
         <v>195</v>
       </c>
       <c r="P211" s="55" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="Q211" s="55" t="s">
-        <v>471</v>
+        <v>1</v>
       </c>
       <c r="R211" s="58" t="s">
-        <v>164</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A212" s="69" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="B212" s="70" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="C212" s="70" t="s">
-        <v>345</v>
+        <v>584</v>
       </c>
       <c r="D212" s="71" t="s">
         <v>720</v>
@@ -16731,7 +16731,7 @@
         <v>413</v>
       </c>
       <c r="H212" s="70" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="I212" s="70" t="s">
         <v>802</v>
@@ -16741,10 +16741,10 @@
         <v>1034</v>
       </c>
       <c r="L212" s="71" t="s">
-        <v>570</v>
+        <v>1068</v>
       </c>
       <c r="M212" s="70" t="s">
-        <v>118</v>
+        <v>519</v>
       </c>
       <c r="N212" s="14" t="s">
         <v>195</v>
@@ -16753,24 +16753,24 @@
         <v>195</v>
       </c>
       <c r="P212" s="55" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="Q212" s="55" t="s">
-        <v>1</v>
+        <v>471</v>
       </c>
       <c r="R212" s="58" t="s">
-        <v>1</v>
+        <v>149</v>
       </c>
     </row>
     <row r="213" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A213" s="69" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B213" s="70" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C213" s="70" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D213" s="71" t="s">
         <v>720</v>
@@ -16785,7 +16785,7 @@
         <v>413</v>
       </c>
       <c r="H213" s="70" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I213" s="70" t="s">
         <v>802</v>
@@ -16795,10 +16795,10 @@
         <v>1034</v>
       </c>
       <c r="L213" s="71" t="s">
-        <v>1068</v>
+        <v>570</v>
       </c>
       <c r="M213" s="70" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N213" s="14" t="s">
         <v>195</v>
@@ -16807,24 +16807,24 @@
         <v>195</v>
       </c>
       <c r="P213" s="55" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="Q213" s="55" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="R213" s="58" t="s">
-        <v>149</v>
+        <v>798</v>
       </c>
     </row>
     <row r="214" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A214" s="69" t="s">
-        <v>258</v>
+        <v>658</v>
       </c>
       <c r="B214" s="70" t="s">
-        <v>160</v>
+        <v>688</v>
       </c>
       <c r="C214" s="70" t="s">
-        <v>583</v>
+        <v>727</v>
       </c>
       <c r="D214" s="71" t="s">
         <v>720</v>
@@ -16852,7 +16852,7 @@
         <v>570</v>
       </c>
       <c r="M214" s="70" t="s">
-        <v>520</v>
+        <v>716</v>
       </c>
       <c r="N214" s="14" t="s">
         <v>195</v>
@@ -16861,24 +16861,24 @@
         <v>195</v>
       </c>
       <c r="P214" s="55" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="Q214" s="55" t="s">
-        <v>473</v>
+        <v>1</v>
       </c>
       <c r="R214" s="58" t="s">
-        <v>798</v>
+        <v>716</v>
       </c>
     </row>
     <row r="215" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A215" s="69" t="s">
-        <v>658</v>
+        <v>1026</v>
       </c>
       <c r="B215" s="70" t="s">
-        <v>688</v>
+        <v>954</v>
       </c>
       <c r="C215" s="70" t="s">
-        <v>727</v>
+        <v>955</v>
       </c>
       <c r="D215" s="71" t="s">
         <v>720</v>
@@ -16903,10 +16903,10 @@
         <v>1034</v>
       </c>
       <c r="L215" s="71" t="s">
-        <v>570</v>
+        <v>1067</v>
       </c>
       <c r="M215" s="70" t="s">
-        <v>716</v>
+        <v>956</v>
       </c>
       <c r="N215" s="14" t="s">
         <v>195</v>
@@ -16914,25 +16914,25 @@
       <c r="O215" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="P215" s="55" t="s">
+      <c r="P215" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="Q215" s="55" t="s">
+      <c r="Q215" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="R215" s="58" t="s">
+      <c r="R215" s="68" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="216" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A216" s="69" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B216" s="70" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="C216" s="70" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="D216" s="71" t="s">
         <v>720</v>
@@ -16968,25 +16968,19 @@
       <c r="O216" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="P216" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q216" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="R216" s="68" t="s">
-        <v>716</v>
-      </c>
+      <c r="P216" s="66"/>
+      <c r="Q216" s="65"/>
+      <c r="R216" s="65"/>
     </row>
     <row r="217" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A217" s="69" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B217" s="70" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="C217" s="70" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="D217" s="71" t="s">
         <v>720</v>
@@ -17014,7 +17008,7 @@
         <v>1067</v>
       </c>
       <c r="M217" s="70" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
       <c r="N217" s="14" t="s">
         <v>195</v>
@@ -17028,13 +17022,13 @@
     </row>
     <row r="218" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A218" s="69" t="s">
-        <v>1028</v>
+        <v>1019</v>
       </c>
       <c r="B218" s="70" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="C218" s="70" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="D218" s="71" t="s">
         <v>720</v>
@@ -17059,10 +17053,10 @@
         <v>1034</v>
       </c>
       <c r="L218" s="71" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="M218" s="70" t="s">
-        <v>961</v>
+        <v>521</v>
       </c>
       <c r="N218" s="14" t="s">
         <v>195</v>
@@ -17076,13 +17070,13 @@
     </row>
     <row r="219" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A219" s="69" t="s">
-        <v>1019</v>
+        <v>1029</v>
       </c>
       <c r="B219" s="70" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="C219" s="70" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="D219" s="71" t="s">
         <v>720</v>
@@ -17124,13 +17118,13 @@
     </row>
     <row r="220" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A220" s="69" t="s">
-        <v>1029</v>
+        <v>1020</v>
       </c>
       <c r="B220" s="70" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="C220" s="70" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="D220" s="71" t="s">
         <v>720</v>
@@ -17158,7 +17152,7 @@
         <v>1069</v>
       </c>
       <c r="M220" s="70" t="s">
-        <v>521</v>
+        <v>968</v>
       </c>
       <c r="N220" s="14" t="s">
         <v>195</v>
@@ -17172,13 +17166,13 @@
     </row>
     <row r="221" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A221" s="69" t="s">
-        <v>1020</v>
+        <v>969</v>
       </c>
       <c r="B221" s="70" t="s">
-        <v>966</v>
+        <v>970</v>
       </c>
       <c r="C221" s="70" t="s">
-        <v>967</v>
+        <v>972</v>
       </c>
       <c r="D221" s="71" t="s">
         <v>720</v>
@@ -17193,7 +17187,7 @@
         <v>413</v>
       </c>
       <c r="H221" s="70" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="I221" s="70" t="s">
         <v>802</v>
@@ -17203,10 +17197,10 @@
         <v>1034</v>
       </c>
       <c r="L221" s="71" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="M221" s="70" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="N221" s="14" t="s">
         <v>195</v>
@@ -17214,19 +17208,16 @@
       <c r="O221" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="P221" s="66"/>
-      <c r="Q221" s="65"/>
-      <c r="R221" s="65"/>
     </row>
     <row r="222" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A222" s="69" t="s">
-        <v>969</v>
+        <v>1006</v>
       </c>
       <c r="B222" s="70" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="C222" s="70" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="D222" s="71" t="s">
         <v>720</v>
@@ -17254,7 +17245,7 @@
         <v>1067</v>
       </c>
       <c r="M222" s="70" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="N222" s="14" t="s">
         <v>195</v>
@@ -17265,13 +17256,13 @@
     </row>
     <row r="223" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A223" s="69" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B223" s="70" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="C223" s="70" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="D223" s="71" t="s">
         <v>720</v>
@@ -17286,20 +17277,20 @@
         <v>413</v>
       </c>
       <c r="H223" s="70" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I223" s="70" t="s">
         <v>802</v>
       </c>
       <c r="J223" s="88"/>
-      <c r="K223" s="71" t="s">
-        <v>1034</v>
-      </c>
-      <c r="L223" s="71" t="s">
-        <v>1067</v>
+      <c r="K223" s="70" t="s">
+        <v>1033</v>
+      </c>
+      <c r="L223" s="70" t="s">
+        <v>1070</v>
       </c>
       <c r="M223" s="70" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="N223" s="14" t="s">
         <v>195</v>
@@ -17310,13 +17301,13 @@
     </row>
     <row r="224" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A224" s="69" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="B224" s="70" t="s">
-        <v>976</v>
+        <v>1003</v>
       </c>
       <c r="C224" s="70" t="s">
-        <v>977</v>
+        <v>1004</v>
       </c>
       <c r="D224" s="71" t="s">
         <v>720</v>
@@ -17336,15 +17327,15 @@
       <c r="I224" s="70" t="s">
         <v>802</v>
       </c>
-      <c r="J224" s="88"/>
-      <c r="K224" s="70" t="s">
-        <v>1033</v>
-      </c>
-      <c r="L224" s="70" t="s">
-        <v>1070</v>
+      <c r="J224" s="89"/>
+      <c r="K224" s="71" t="s">
+        <v>1034</v>
+      </c>
+      <c r="L224" s="71" t="s">
+        <v>570</v>
       </c>
       <c r="M224" s="70" t="s">
-        <v>978</v>
+        <v>1005</v>
       </c>
       <c r="N224" s="14" t="s">
         <v>195</v>
@@ -17353,57 +17344,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="225" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A225" s="69" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B225" s="70" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C225" s="70" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D225" s="71" t="s">
-        <v>720</v>
-      </c>
-      <c r="E225" s="71" t="s">
-        <v>731</v>
-      </c>
-      <c r="F225" s="71" t="s">
-        <v>731</v>
-      </c>
-      <c r="G225" s="70" t="s">
-        <v>413</v>
-      </c>
-      <c r="H225" s="70" t="s">
-        <v>1088</v>
-      </c>
-      <c r="I225" s="70" t="s">
-        <v>802</v>
-      </c>
-      <c r="J225" s="89"/>
-      <c r="K225" s="71" t="s">
-        <v>1034</v>
-      </c>
-      <c r="L225" s="71" t="s">
-        <v>570</v>
-      </c>
-      <c r="M225" s="70" t="s">
-        <v>1005</v>
-      </c>
-      <c r="N225" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="O225" s="14" t="s">
-        <v>195</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R225">
-    <sortCondition ref="E2:E225"/>
-    <sortCondition ref="F2:F225"/>
-    <sortCondition ref="G2:G225"/>
-    <sortCondition ref="H2:H225"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R224">
+    <sortCondition ref="E2:E224"/>
+    <sortCondition ref="F2:F224"/>
+    <sortCondition ref="G2:G224"/>
+    <sortCondition ref="H2:H224"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="B60" r:id="rId1" display="https://it.wikipedia.org/wiki/Baiyangdian_virus" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -17420,15 +17366,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>597</v>
       </c>
@@ -17460,7 +17406,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>239</v>
       </c>
@@ -17502,7 +17448,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
         <v>614</v>
       </c>
@@ -17546,7 +17492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>667</v>
       </c>
@@ -17589,6 +17535,60 @@
       </c>
       <c r="O8" s="48" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>346</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>720</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>645</v>
+      </c>
+      <c r="F9" s="47" t="s">
+        <v>831</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="H9" s="47" t="s">
+        <v>1096</v>
+      </c>
+      <c r="I9" s="47" t="s">
+        <v>802</v>
+      </c>
+      <c r="J9" s="85"/>
+      <c r="K9" s="47" t="s">
+        <v>1034</v>
+      </c>
+      <c r="L9" s="47" t="s">
+        <v>1069</v>
+      </c>
+      <c r="M9" s="47" t="s">
+        <v>516</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="P9" s="57" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q9" s="59" t="s">
+        <v>471</v>
+      </c>
+      <c r="R9" s="58" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDBFDE5-0132-3A4E-89B8-E1868A075D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC0D90B-A174-0246-8A90-31FA92EED1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="16620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="39020" windowHeight="27100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flavi.txt" sheetId="1" r:id="rId1"/>
     <sheet name="removed" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">flavi.txt!$A$1:$Q$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">flavi.txt!$A$1:$Q$121</definedName>
   </definedNames>
   <calcPr calcId="140001"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3663" uniqueCount="1101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3686" uniqueCount="1107">
   <si>
     <t>AY632538</t>
   </si>
@@ -2293,9 +2293,6 @@
     <t>Gammarus pulex</t>
   </si>
   <si>
-    <t>Squid</t>
-  </si>
-  <si>
     <t>KR902737</t>
   </si>
   <si>
@@ -2929,9 +2926,6 @@
     <t>PVK</t>
   </si>
   <si>
-    <t>Dophin Pegivirus</t>
-  </si>
-  <si>
     <t>DPV</t>
   </si>
   <si>
@@ -3332,6 +3326,30 @@
   </si>
   <si>
     <t>Pesti3</t>
+  </si>
+  <si>
+    <t>Dolphin Pegivirus</t>
+  </si>
+  <si>
+    <t>Tamana2</t>
+  </si>
+  <si>
+    <t>Tamana1</t>
+  </si>
+  <si>
+    <t>Tamana3</t>
+  </si>
+  <si>
+    <t>RanaTamana</t>
+  </si>
+  <si>
+    <t>Rana Tamanavirus Mitcham</t>
+  </si>
+  <si>
+    <t>Amphibia</t>
+  </si>
+  <si>
+    <t>Rana</t>
   </si>
 </sst>
 </file>
@@ -5681,11 +5699,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R224"/>
+  <dimension ref="A1:R225"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C140" sqref="A1:R224"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G117" sqref="A1:R225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5723,28 +5741,28 @@
         <v>643</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>64</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="J1" s="72" t="s">
         <v>635</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>569</v>
@@ -5764,13 +5782,13 @@
     </row>
     <row r="2" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B2" s="53" t="s">
+        <v>767</v>
+      </c>
+      <c r="C2" s="53" t="s">
         <v>768</v>
-      </c>
-      <c r="C2" s="53" t="s">
-        <v>769</v>
       </c>
       <c r="D2" s="53" t="s">
         <v>720</v>
@@ -5779,35 +5797,35 @@
         <v>645</v>
       </c>
       <c r="F2" s="53" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G2" s="53" t="s">
         <v>189</v>
       </c>
       <c r="H2" s="53" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I2" s="53" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J2" s="73"/>
       <c r="K2" s="53" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L2" s="53"/>
       <c r="M2" s="53" t="s">
+        <v>770</v>
+      </c>
+      <c r="N2" s="53" t="s">
         <v>771</v>
       </c>
-      <c r="N2" s="53" t="s">
-        <v>772</v>
-      </c>
       <c r="O2" s="53" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="P2" s="57"/>
       <c r="Q2" s="57"/>
       <c r="R2" s="58" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5827,7 +5845,7 @@
         <v>645</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>189</v>
@@ -5836,14 +5854,14 @@
         <v>465</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J3" s="74"/>
       <c r="K3" s="12" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="M3" s="12" t="s">
         <v>499</v>
@@ -5881,7 +5899,7 @@
         <v>645</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>189</v>
@@ -5890,14 +5908,14 @@
         <v>465</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J4" s="74"/>
       <c r="K4" s="12" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="M4" s="12" t="s">
         <v>499</v>
@@ -5935,7 +5953,7 @@
         <v>645</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>189</v>
@@ -5944,14 +5962,14 @@
         <v>465</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J5" s="74"/>
       <c r="K5" s="12" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="M5" s="12" t="s">
         <v>400</v>
@@ -5989,7 +6007,7 @@
         <v>645</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>189</v>
@@ -5998,14 +6016,14 @@
         <v>465</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J6" s="74"/>
       <c r="K6" s="12" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="M6" s="12" t="s">
         <v>400</v>
@@ -6043,7 +6061,7 @@
         <v>645</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>189</v>
@@ -6052,14 +6070,14 @@
         <v>465</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J7" s="74"/>
       <c r="K7" s="12" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="M7" s="12" t="s">
         <v>500</v>
@@ -6097,7 +6115,7 @@
         <v>645</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>189</v>
@@ -6106,14 +6124,14 @@
         <v>465</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J8" s="74"/>
       <c r="K8" s="12" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="M8" s="12" t="s">
         <v>499</v>
@@ -6151,7 +6169,7 @@
         <v>645</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>189</v>
@@ -6160,14 +6178,14 @@
         <v>465</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J9" s="74"/>
       <c r="K9" s="12" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="M9" s="12" t="s">
         <v>400</v>
@@ -6205,7 +6223,7 @@
         <v>645</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>189</v>
@@ -6214,14 +6232,14 @@
         <v>465</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J10" s="74"/>
       <c r="K10" s="12" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="M10" s="12" t="s">
         <v>400</v>
@@ -6259,7 +6277,7 @@
         <v>645</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>189</v>
@@ -6268,14 +6286,14 @@
         <v>465</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J11" s="74"/>
       <c r="K11" s="12" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="M11" s="12" t="s">
         <v>502</v>
@@ -6313,7 +6331,7 @@
         <v>645</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>189</v>
@@ -6322,14 +6340,14 @@
         <v>465</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J12" s="74"/>
       <c r="K12" s="12" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="M12" s="12" t="s">
         <v>400</v>
@@ -6367,7 +6385,7 @@
         <v>645</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>189</v>
@@ -6376,14 +6394,14 @@
         <v>465</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J13" s="74"/>
       <c r="K13" s="12" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="M13" s="12" t="s">
         <v>501</v>
@@ -6421,7 +6439,7 @@
         <v>645</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>189</v>
@@ -6430,14 +6448,14 @@
         <v>465</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J14" s="74"/>
       <c r="K14" s="12" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="M14" s="12" t="s">
         <v>499</v>
@@ -6475,7 +6493,7 @@
         <v>645</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>189</v>
@@ -6484,14 +6502,14 @@
         <v>465</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J15" s="74"/>
       <c r="K15" s="12" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="M15" s="12" t="s">
         <v>400</v>
@@ -6529,7 +6547,7 @@
         <v>645</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>189</v>
@@ -6538,14 +6556,14 @@
         <v>465</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J16" s="74"/>
       <c r="K16" s="12" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="M16" s="12" t="s">
         <v>602</v>
@@ -6583,7 +6601,7 @@
         <v>645</v>
       </c>
       <c r="F17" s="52" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G17" s="52" t="s">
         <v>189</v>
@@ -6592,14 +6610,14 @@
         <v>747</v>
       </c>
       <c r="I17" s="52" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J17" s="75"/>
       <c r="K17" s="52" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L17" s="52" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="M17" s="52" t="s">
         <v>748</v>
@@ -6635,7 +6653,7 @@
         <v>645</v>
       </c>
       <c r="F18" s="52" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G18" s="52" t="s">
         <v>189</v>
@@ -6644,14 +6662,14 @@
         <v>747</v>
       </c>
       <c r="I18" s="52" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J18" s="75"/>
       <c r="K18" s="52" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L18" s="52" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="M18" s="52" t="s">
         <v>749</v>
@@ -6687,7 +6705,7 @@
         <v>645</v>
       </c>
       <c r="F19" s="52" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G19" s="52" t="s">
         <v>189</v>
@@ -6696,14 +6714,14 @@
         <v>747</v>
       </c>
       <c r="I19" s="52" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J19" s="75"/>
       <c r="K19" s="52" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L19" s="52" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="M19" s="52" t="s">
         <v>748</v>
@@ -6739,23 +6757,23 @@
         <v>645</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G20" s="20" t="s">
         <v>189</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="I20" s="20" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J20" s="76"/>
       <c r="K20" s="20" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L20" s="20" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="M20" s="20" t="s">
         <v>500</v>
@@ -6793,23 +6811,23 @@
         <v>645</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G21" s="20" t="s">
         <v>189</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J21" s="76"/>
       <c r="K21" s="20" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L21" s="20" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="M21" s="20" t="s">
         <v>500</v>
@@ -6847,23 +6865,23 @@
         <v>645</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G22" s="20" t="s">
         <v>189</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="I22" s="20" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J22" s="76"/>
       <c r="K22" s="20" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L22" s="20" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="M22" s="20" t="s">
         <v>400</v>
@@ -6901,23 +6919,23 @@
         <v>645</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G23" s="23" t="s">
         <v>189</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="I23" s="20" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J23" s="76"/>
       <c r="K23" s="20" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L23" s="20" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="M23" s="23" t="s">
         <v>400</v>
@@ -6955,23 +6973,23 @@
         <v>645</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G24" s="23" t="s">
         <v>189</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="I24" s="20" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J24" s="76"/>
       <c r="K24" s="20" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L24" s="20" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="M24" s="23" t="s">
         <v>499</v>
@@ -7009,23 +7027,23 @@
         <v>645</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G25" s="23" t="s">
         <v>189</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="I25" s="20" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J25" s="76"/>
       <c r="K25" s="20" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L25" s="20" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="M25" s="23" t="s">
         <v>499</v>
@@ -7063,23 +7081,23 @@
         <v>645</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G26" s="23" t="s">
         <v>189</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="I26" s="20" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J26" s="76"/>
       <c r="K26" s="20" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L26" s="20" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="M26" s="23" t="s">
         <v>499</v>
@@ -7117,23 +7135,23 @@
         <v>645</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G27" s="23" t="s">
         <v>189</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="I27" s="20" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J27" s="76"/>
       <c r="K27" s="20" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L27" s="20" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="M27" s="23" t="s">
         <v>499</v>
@@ -7171,23 +7189,23 @@
         <v>645</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G28" s="23" t="s">
         <v>189</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="I28" s="20" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J28" s="76"/>
       <c r="K28" s="20" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L28" s="20" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="M28" s="23" t="s">
         <v>499</v>
@@ -7225,7 +7243,7 @@
         <v>645</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>189</v>
@@ -7238,7 +7256,7 @@
       </c>
       <c r="J29" s="77"/>
       <c r="K29" s="7" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="L29" s="7"/>
       <c r="M29" s="7" t="s">
@@ -7277,7 +7295,7 @@
         <v>645</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>189</v>
@@ -7290,7 +7308,7 @@
       </c>
       <c r="J30" s="77"/>
       <c r="K30" s="7" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="L30" s="7"/>
       <c r="M30" s="7" t="s">
@@ -7329,7 +7347,7 @@
         <v>645</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>189</v>
@@ -7342,7 +7360,7 @@
       </c>
       <c r="J31" s="77"/>
       <c r="K31" s="7" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L31" s="7"/>
       <c r="M31" s="7" t="s">
@@ -7381,7 +7399,7 @@
         <v>645</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>189</v>
@@ -7394,7 +7412,7 @@
       </c>
       <c r="J32" s="77"/>
       <c r="K32" s="7" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L32" s="7"/>
       <c r="M32" s="7" t="s">
@@ -7433,7 +7451,7 @@
         <v>645</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>189</v>
@@ -7446,7 +7464,7 @@
       </c>
       <c r="J33" s="77"/>
       <c r="K33" s="7" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="L33" s="7"/>
       <c r="M33" s="7" t="s">
@@ -7485,7 +7503,7 @@
         <v>645</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>189</v>
@@ -7498,7 +7516,7 @@
       </c>
       <c r="J34" s="77"/>
       <c r="K34" s="7" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L34" s="7"/>
       <c r="M34" s="7" t="s">
@@ -7537,7 +7555,7 @@
         <v>645</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>189</v>
@@ -7550,7 +7568,7 @@
       </c>
       <c r="J35" s="77"/>
       <c r="K35" s="7" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L35" s="7"/>
       <c r="M35" s="7" t="s">
@@ -7589,7 +7607,7 @@
         <v>645</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>189</v>
@@ -7602,7 +7620,7 @@
       </c>
       <c r="J36" s="77"/>
       <c r="K36" s="7" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L36" s="7"/>
       <c r="M36" s="7" t="s">
@@ -7641,7 +7659,7 @@
         <v>645</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>189</v>
@@ -7654,7 +7672,7 @@
       </c>
       <c r="J37" s="77"/>
       <c r="K37" s="7" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L37" s="7"/>
       <c r="M37" s="7" t="s">
@@ -7693,7 +7711,7 @@
         <v>645</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>189</v>
@@ -7706,7 +7724,7 @@
       </c>
       <c r="J38" s="77"/>
       <c r="K38" s="7" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="L38" s="7"/>
       <c r="M38" s="7" t="s">
@@ -7745,7 +7763,7 @@
         <v>645</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>189</v>
@@ -7758,7 +7776,7 @@
       </c>
       <c r="J39" s="77"/>
       <c r="K39" s="7" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="L39" s="7"/>
       <c r="M39" s="7" t="s">
@@ -7797,7 +7815,7 @@
         <v>645</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>189</v>
@@ -7810,7 +7828,7 @@
       </c>
       <c r="J40" s="77"/>
       <c r="K40" s="7" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="L40" s="7"/>
       <c r="M40" s="7" t="s">
@@ -7847,7 +7865,7 @@
         <v>645</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>189</v>
@@ -7860,7 +7878,7 @@
       </c>
       <c r="J41" s="77"/>
       <c r="K41" s="7" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L41" s="7"/>
       <c r="M41" s="7" t="s">
@@ -7899,7 +7917,7 @@
         <v>645</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>189</v>
@@ -7912,7 +7930,7 @@
       </c>
       <c r="J42" s="77"/>
       <c r="K42" s="7" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="L42" s="7"/>
       <c r="M42" s="7" t="s">
@@ -7951,7 +7969,7 @@
         <v>645</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>189</v>
@@ -7964,7 +7982,7 @@
       </c>
       <c r="J43" s="77"/>
       <c r="K43" s="7" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="L43" s="7"/>
       <c r="M43" s="7" t="s">
@@ -8003,7 +8021,7 @@
         <v>645</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>189</v>
@@ -8016,7 +8034,7 @@
       </c>
       <c r="J44" s="77"/>
       <c r="K44" s="7" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L44" s="7"/>
       <c r="M44" s="7" t="s">
@@ -8055,7 +8073,7 @@
         <v>645</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G45" s="28" t="s">
         <v>189</v>
@@ -8068,7 +8086,7 @@
       </c>
       <c r="J45" s="77"/>
       <c r="K45" s="7" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L45" s="7"/>
       <c r="M45" s="7" t="s">
@@ -8107,7 +8125,7 @@
         <v>645</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>189</v>
@@ -8120,7 +8138,7 @@
       </c>
       <c r="J46" s="77"/>
       <c r="K46" s="7" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L46" s="7"/>
       <c r="M46" s="7" t="s">
@@ -8159,7 +8177,7 @@
         <v>645</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>189</v>
@@ -8172,7 +8190,7 @@
       </c>
       <c r="J47" s="77"/>
       <c r="K47" s="7" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="L47" s="7"/>
       <c r="M47" s="7" t="s">
@@ -8211,7 +8229,7 @@
         <v>645</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>189</v>
@@ -8224,7 +8242,7 @@
       </c>
       <c r="J48" s="77"/>
       <c r="K48" s="7" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L48" s="7"/>
       <c r="M48" s="7" t="s">
@@ -8263,7 +8281,7 @@
         <v>645</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>189</v>
@@ -8276,7 +8294,7 @@
       </c>
       <c r="J49" s="77"/>
       <c r="K49" s="7" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="L49" s="7"/>
       <c r="M49" s="7" t="s">
@@ -8315,7 +8333,7 @@
         <v>645</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>189</v>
@@ -8328,7 +8346,7 @@
       </c>
       <c r="J50" s="77"/>
       <c r="K50" s="7" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L50" s="7"/>
       <c r="M50" s="7" t="s">
@@ -8367,7 +8385,7 @@
         <v>645</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>189</v>
@@ -8380,7 +8398,7 @@
       </c>
       <c r="J51" s="77"/>
       <c r="K51" s="7" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="L51" s="7"/>
       <c r="M51" s="7" t="s">
@@ -8419,7 +8437,7 @@
         <v>645</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>189</v>
@@ -8432,7 +8450,7 @@
       </c>
       <c r="J52" s="77"/>
       <c r="K52" s="7" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="L52" s="7"/>
       <c r="M52" s="7" t="s">
@@ -8471,7 +8489,7 @@
         <v>645</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>189</v>
@@ -8484,7 +8502,7 @@
       </c>
       <c r="J53" s="77"/>
       <c r="K53" s="7" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="L53" s="7"/>
       <c r="M53" s="7" t="s">
@@ -8523,7 +8541,7 @@
         <v>645</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>189</v>
@@ -8536,7 +8554,7 @@
       </c>
       <c r="J54" s="77"/>
       <c r="K54" s="7" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="L54" s="7"/>
       <c r="M54" s="7" t="s">
@@ -8575,7 +8593,7 @@
         <v>645</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>189</v>
@@ -8588,7 +8606,7 @@
       </c>
       <c r="J55" s="77"/>
       <c r="K55" s="7" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="L55" s="7"/>
       <c r="M55" s="7" t="s">
@@ -8627,7 +8645,7 @@
         <v>645</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>189</v>
@@ -8640,7 +8658,7 @@
       </c>
       <c r="J56" s="77"/>
       <c r="K56" s="7" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L56" s="7"/>
       <c r="M56" s="7" t="s">
@@ -8679,7 +8697,7 @@
         <v>645</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G57" s="31" t="s">
         <v>189</v>
@@ -8692,7 +8710,7 @@
       </c>
       <c r="J57" s="78"/>
       <c r="K57" s="7" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="L57" s="7"/>
       <c r="M57" s="31" t="s">
@@ -8731,7 +8749,7 @@
         <v>645</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G58" s="31" t="s">
         <v>189</v>
@@ -8744,7 +8762,7 @@
       </c>
       <c r="J58" s="78"/>
       <c r="K58" s="7" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="L58" s="7"/>
       <c r="M58" s="31" t="s">
@@ -8783,7 +8801,7 @@
         <v>645</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G59" s="31" t="s">
         <v>189</v>
@@ -8796,7 +8814,7 @@
       </c>
       <c r="J59" s="78"/>
       <c r="K59" s="7" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="L59" s="7"/>
       <c r="M59" s="31" t="s">
@@ -8835,7 +8853,7 @@
         <v>645</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G60" s="31" t="s">
         <v>189</v>
@@ -8848,7 +8866,7 @@
       </c>
       <c r="J60" s="78"/>
       <c r="K60" s="7" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="L60" s="7"/>
       <c r="M60" s="31" t="s">
@@ -8887,7 +8905,7 @@
         <v>645</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G61" s="31" t="s">
         <v>189</v>
@@ -8900,7 +8918,7 @@
       </c>
       <c r="J61" s="78"/>
       <c r="K61" s="7" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L61" s="7"/>
       <c r="M61" s="31" t="s">
@@ -8939,7 +8957,7 @@
         <v>645</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G62" s="31" t="s">
         <v>189</v>
@@ -8952,7 +8970,7 @@
       </c>
       <c r="J62" s="78"/>
       <c r="K62" s="7" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L62" s="7"/>
       <c r="M62" s="31" t="s">
@@ -8991,7 +9009,7 @@
         <v>645</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G63" s="31" t="s">
         <v>189</v>
@@ -9004,7 +9022,7 @@
       </c>
       <c r="J63" s="78"/>
       <c r="K63" s="7" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="L63" s="7"/>
       <c r="M63" s="31" t="s">
@@ -9043,7 +9061,7 @@
         <v>645</v>
       </c>
       <c r="F64" s="34" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G64" s="34" t="s">
         <v>189</v>
@@ -9052,14 +9070,14 @@
         <v>537</v>
       </c>
       <c r="I64" s="34" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J64" s="79"/>
       <c r="K64" s="34" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L64" s="34" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="M64" s="24" t="s">
         <v>503</v>
@@ -9097,7 +9115,7 @@
         <v>645</v>
       </c>
       <c r="F65" s="34" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G65" s="34" t="s">
         <v>189</v>
@@ -9106,11 +9124,11 @@
         <v>537</v>
       </c>
       <c r="I65" s="34" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J65" s="79"/>
       <c r="K65" s="34" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L65" s="34"/>
       <c r="M65" s="34" t="s">
@@ -9149,7 +9167,7 @@
         <v>645</v>
       </c>
       <c r="F66" s="34" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G66" s="34" t="s">
         <v>189</v>
@@ -9158,14 +9176,14 @@
         <v>537</v>
       </c>
       <c r="I66" s="34" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J66" s="79"/>
       <c r="K66" s="7" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="M66" s="34" t="s">
         <v>499</v>
@@ -9203,7 +9221,7 @@
         <v>645</v>
       </c>
       <c r="F67" s="34" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G67" s="34" t="s">
         <v>189</v>
@@ -9212,11 +9230,11 @@
         <v>537</v>
       </c>
       <c r="I67" s="34" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J67" s="79"/>
       <c r="K67" s="34" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L67" s="34" t="s">
         <v>570</v>
@@ -9257,7 +9275,7 @@
         <v>645</v>
       </c>
       <c r="F68" s="34" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G68" s="34" t="s">
         <v>189</v>
@@ -9266,11 +9284,11 @@
         <v>537</v>
       </c>
       <c r="I68" s="34" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J68" s="79"/>
       <c r="K68" s="34" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L68" s="34"/>
       <c r="M68" s="34" t="s">
@@ -9309,7 +9327,7 @@
         <v>645</v>
       </c>
       <c r="F69" s="34" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G69" s="34" t="s">
         <v>189</v>
@@ -9318,14 +9336,14 @@
         <v>537</v>
       </c>
       <c r="I69" s="34" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J69" s="79"/>
       <c r="K69" s="34" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L69" s="34" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="M69" s="34" t="s">
         <v>499</v>
@@ -9363,7 +9381,7 @@
         <v>645</v>
       </c>
       <c r="F70" s="34" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G70" s="34" t="s">
         <v>189</v>
@@ -9372,14 +9390,14 @@
         <v>537</v>
       </c>
       <c r="I70" s="34" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J70" s="79"/>
       <c r="K70" s="7" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="M70" s="34" t="s">
         <v>499</v>
@@ -9417,7 +9435,7 @@
         <v>645</v>
       </c>
       <c r="F71" s="34" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G71" s="34" t="s">
         <v>189</v>
@@ -9426,14 +9444,14 @@
         <v>537</v>
       </c>
       <c r="I71" s="34" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J71" s="79"/>
       <c r="K71" s="7" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="M71" s="34" t="s">
         <v>499</v>
@@ -9471,7 +9489,7 @@
         <v>645</v>
       </c>
       <c r="F72" s="34" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G72" s="34" t="s">
         <v>189</v>
@@ -9480,11 +9498,11 @@
         <v>537</v>
       </c>
       <c r="I72" s="34" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J72" s="79"/>
       <c r="K72" s="34" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L72" s="34"/>
       <c r="M72" s="34" t="s">
@@ -9523,7 +9541,7 @@
         <v>645</v>
       </c>
       <c r="F73" s="34" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G73" s="34" t="s">
         <v>189</v>
@@ -9532,11 +9550,11 @@
         <v>537</v>
       </c>
       <c r="I73" s="34" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J73" s="79"/>
       <c r="K73" s="34" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L73" s="34" t="s">
         <v>570</v>
@@ -9562,13 +9580,13 @@
     </row>
     <row r="74" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="37" t="s">
+        <v>803</v>
+      </c>
+      <c r="B74" s="38" t="s">
         <v>804</v>
       </c>
-      <c r="B74" s="38" t="s">
+      <c r="C74" s="38" t="s">
         <v>805</v>
-      </c>
-      <c r="C74" s="38" t="s">
-        <v>806</v>
       </c>
       <c r="D74" s="38" t="s">
         <v>720</v>
@@ -9577,23 +9595,23 @@
         <v>645</v>
       </c>
       <c r="F74" s="38" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G74" s="38" t="s">
         <v>189</v>
       </c>
       <c r="H74" s="38" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I74" s="38" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J74" s="80"/>
       <c r="K74" s="7" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="M74" s="38" t="s">
         <v>605</v>
@@ -9602,16 +9620,16 @@
         <v>605</v>
       </c>
       <c r="O74" s="38" t="s">
+        <v>806</v>
+      </c>
+      <c r="P74" s="57" t="s">
         <v>807</v>
-      </c>
-      <c r="P74" s="57" t="s">
-        <v>808</v>
       </c>
       <c r="Q74" s="59" t="s">
         <v>473</v>
       </c>
       <c r="R74" s="58" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="75" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9631,7 +9649,7 @@
         <v>645</v>
       </c>
       <c r="F75" s="36" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G75" s="36" t="s">
         <v>189</v>
@@ -9640,14 +9658,14 @@
         <v>466</v>
       </c>
       <c r="I75" s="36" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J75" s="81"/>
       <c r="K75" s="36" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L75" s="36" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="M75" s="36" t="s">
         <v>504</v>
@@ -9685,7 +9703,7 @@
         <v>645</v>
       </c>
       <c r="F76" s="36" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G76" s="36" t="s">
         <v>189</v>
@@ -9694,14 +9712,14 @@
         <v>466</v>
       </c>
       <c r="I76" s="36" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J76" s="81"/>
       <c r="K76" s="36" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L76" s="36" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="M76" s="36" t="s">
         <v>505</v>
@@ -9739,7 +9757,7 @@
         <v>645</v>
       </c>
       <c r="F77" s="36" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G77" s="36" t="s">
         <v>189</v>
@@ -9748,14 +9766,14 @@
         <v>466</v>
       </c>
       <c r="I77" s="36" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J77" s="81"/>
       <c r="K77" s="36" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L77" s="36" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="M77" s="36" t="s">
         <v>506</v>
@@ -9793,7 +9811,7 @@
         <v>645</v>
       </c>
       <c r="F78" s="36" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G78" s="36" t="s">
         <v>189</v>
@@ -9802,14 +9820,14 @@
         <v>466</v>
       </c>
       <c r="I78" s="36" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J78" s="81"/>
       <c r="K78" s="36" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L78" s="36" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="M78" s="36" t="s">
         <v>507</v>
@@ -9847,7 +9865,7 @@
         <v>645</v>
       </c>
       <c r="F79" s="36" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G79" s="36" t="s">
         <v>189</v>
@@ -9856,14 +9874,14 @@
         <v>466</v>
       </c>
       <c r="I79" s="36" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J79" s="81"/>
       <c r="K79" s="36" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L79" s="36" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="M79" s="36" t="s">
         <v>508</v>
@@ -9901,7 +9919,7 @@
         <v>645</v>
       </c>
       <c r="F80" s="36" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G80" s="36" t="s">
         <v>189</v>
@@ -9910,14 +9928,14 @@
         <v>466</v>
       </c>
       <c r="I80" s="36" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J80" s="81"/>
       <c r="K80" s="36" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L80" s="36" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="M80" s="36" t="s">
         <v>605</v>
@@ -9955,7 +9973,7 @@
         <v>645</v>
       </c>
       <c r="F81" s="38" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G81" s="38" t="s">
         <v>189</v>
@@ -9964,14 +9982,14 @@
         <v>467</v>
       </c>
       <c r="I81" s="38" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J81" s="80"/>
       <c r="K81" s="38" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L81" s="38" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="M81" s="38" t="s">
         <v>605</v>
@@ -10009,7 +10027,7 @@
         <v>645</v>
       </c>
       <c r="F82" s="38" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G82" s="38" t="s">
         <v>189</v>
@@ -10018,14 +10036,14 @@
         <v>467</v>
       </c>
       <c r="I82" s="38" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J82" s="80"/>
       <c r="K82" s="38" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L82" s="38" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="M82" s="38" t="s">
         <v>605</v>
@@ -10063,7 +10081,7 @@
         <v>645</v>
       </c>
       <c r="F83" s="38" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G83" s="38" t="s">
         <v>189</v>
@@ -10072,14 +10090,14 @@
         <v>467</v>
       </c>
       <c r="I83" s="38" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J83" s="80"/>
       <c r="K83" s="38" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L83" s="38" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="M83" s="38" t="s">
         <v>605</v>
@@ -10117,20 +10135,20 @@
         <v>645</v>
       </c>
       <c r="F84" s="40" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G84" s="40" t="s">
         <v>189</v>
       </c>
       <c r="H84" s="40" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="I84" s="40" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J84" s="82"/>
       <c r="K84" s="40" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="L84" s="40"/>
       <c r="M84" s="40" t="s">
@@ -10169,20 +10187,20 @@
         <v>645</v>
       </c>
       <c r="F85" s="40" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G85" s="40" t="s">
         <v>189</v>
       </c>
       <c r="H85" s="40" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="I85" s="40" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J85" s="82"/>
       <c r="K85" s="40" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L85" s="40"/>
       <c r="M85" s="40" t="s">
@@ -10221,20 +10239,20 @@
         <v>645</v>
       </c>
       <c r="F86" s="40" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G86" s="40" t="s">
         <v>189</v>
       </c>
       <c r="H86" s="40" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="I86" s="40" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J86" s="82"/>
       <c r="K86" s="40" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="L86" s="40"/>
       <c r="M86" s="40" t="s">
@@ -10273,20 +10291,20 @@
         <v>645</v>
       </c>
       <c r="F87" s="40" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G87" s="40" t="s">
         <v>189</v>
       </c>
       <c r="H87" s="40" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="I87" s="40" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J87" s="82"/>
       <c r="K87" s="40" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L87" s="40"/>
       <c r="M87" s="40" t="s">
@@ -10325,20 +10343,20 @@
         <v>645</v>
       </c>
       <c r="F88" s="40" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G88" s="40" t="s">
         <v>189</v>
       </c>
       <c r="H88" s="40" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="I88" s="40" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J88" s="82"/>
       <c r="K88" s="40" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L88" s="40"/>
       <c r="M88" s="40" t="s">
@@ -10377,23 +10395,23 @@
         <v>645</v>
       </c>
       <c r="F89" s="40" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G89" s="40" t="s">
         <v>189</v>
       </c>
       <c r="H89" s="40" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="I89" s="40" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J89" s="82"/>
       <c r="K89" s="40" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L89" s="40" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="M89" s="40" t="s">
         <v>513</v>
@@ -10431,20 +10449,20 @@
         <v>645</v>
       </c>
       <c r="F90" s="40" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G90" s="40" t="s">
         <v>189</v>
       </c>
       <c r="H90" s="40" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="I90" s="40" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J90" s="82"/>
       <c r="K90" s="40" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="L90" s="40"/>
       <c r="M90" s="40" t="s">
@@ -10483,20 +10501,20 @@
         <v>645</v>
       </c>
       <c r="F91" s="40" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G91" s="40" t="s">
         <v>189</v>
       </c>
       <c r="H91" s="40" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="I91" s="40" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J91" s="82"/>
       <c r="K91" s="40" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L91" s="40" t="s">
         <v>570</v>
@@ -10537,20 +10555,20 @@
         <v>645</v>
       </c>
       <c r="F92" s="40" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G92" s="40" t="s">
         <v>189</v>
       </c>
       <c r="H92" s="40" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="I92" s="40" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J92" s="82"/>
       <c r="K92" s="40" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L92" s="40" t="s">
         <v>570</v>
@@ -10591,20 +10609,20 @@
         <v>645</v>
       </c>
       <c r="F93" s="40" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G93" s="40" t="s">
         <v>189</v>
       </c>
       <c r="H93" s="40" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="I93" s="40" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J93" s="82"/>
       <c r="K93" s="40" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L93" s="40"/>
       <c r="M93" s="40" t="s">
@@ -10643,20 +10661,20 @@
         <v>645</v>
       </c>
       <c r="F94" s="40" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G94" s="40" t="s">
         <v>189</v>
       </c>
       <c r="H94" s="40" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="I94" s="40" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J94" s="82"/>
       <c r="K94" s="40" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="L94" s="40"/>
       <c r="M94" s="40" t="s">
@@ -10695,20 +10713,20 @@
         <v>645</v>
       </c>
       <c r="F95" s="40" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G95" s="40" t="s">
         <v>189</v>
       </c>
       <c r="H95" s="40" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="I95" s="40" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J95" s="82"/>
       <c r="K95" s="40" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L95" s="40"/>
       <c r="M95" s="40" t="s">
@@ -10747,20 +10765,20 @@
         <v>645</v>
       </c>
       <c r="F96" s="40" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G96" s="40" t="s">
         <v>189</v>
       </c>
       <c r="H96" s="40" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="I96" s="40" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J96" s="82"/>
       <c r="K96" s="40" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L96" s="40"/>
       <c r="M96" s="40" t="s">
@@ -10799,20 +10817,20 @@
         <v>645</v>
       </c>
       <c r="F97" s="40" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G97" s="40" t="s">
         <v>189</v>
       </c>
       <c r="H97" s="40" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="I97" s="40" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J97" s="82"/>
       <c r="K97" s="40" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L97" s="40"/>
       <c r="M97" s="40" t="s">
@@ -10851,20 +10869,20 @@
         <v>645</v>
       </c>
       <c r="F98" s="40" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G98" s="40" t="s">
         <v>189</v>
       </c>
       <c r="H98" s="40" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="I98" s="40" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J98" s="82"/>
       <c r="K98" s="40" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="L98" s="40"/>
       <c r="M98" s="40" t="s">
@@ -10888,13 +10906,13 @@
     </row>
     <row r="99" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A99" s="43" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B99" s="44" t="s">
         <v>556</v>
       </c>
       <c r="C99" s="44" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D99" s="44" t="s">
         <v>648</v>
@@ -10903,7 +10921,7 @@
         <v>645</v>
       </c>
       <c r="F99" s="44" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G99" s="44" t="s">
         <v>648</v>
@@ -10912,16 +10930,16 @@
         <v>648</v>
       </c>
       <c r="I99" s="44" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J99" s="83" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="K99" s="44" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L99" s="44" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="M99" s="44" t="s">
         <v>513</v>
@@ -10950,7 +10968,7 @@
         <v>560</v>
       </c>
       <c r="C100" s="44" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D100" s="44" t="s">
         <v>648</v>
@@ -10959,7 +10977,7 @@
         <v>645</v>
       </c>
       <c r="F100" s="44" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G100" s="44" t="s">
         <v>648</v>
@@ -10968,16 +10986,16 @@
         <v>648</v>
       </c>
       <c r="I100" s="44" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J100" s="83">
         <v>1</v>
       </c>
       <c r="K100" s="44" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L100" s="44" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="M100" s="44" t="s">
         <v>513</v>
@@ -11006,7 +11024,7 @@
         <v>558</v>
       </c>
       <c r="C101" s="44" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D101" s="44" t="s">
         <v>648</v>
@@ -11015,7 +11033,7 @@
         <v>645</v>
       </c>
       <c r="F101" s="44" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G101" s="44" t="s">
         <v>648</v>
@@ -11024,16 +11042,16 @@
         <v>648</v>
       </c>
       <c r="I101" s="44" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J101" s="83">
         <v>1</v>
       </c>
       <c r="K101" s="44" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L101" s="44" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="M101" s="44" t="s">
         <v>562</v>
@@ -11062,7 +11080,7 @@
         <v>557</v>
       </c>
       <c r="C102" s="44" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D102" s="44" t="s">
         <v>648</v>
@@ -11071,7 +11089,7 @@
         <v>645</v>
       </c>
       <c r="F102" s="44" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G102" s="44" t="s">
         <v>648</v>
@@ -11080,16 +11098,16 @@
         <v>648</v>
       </c>
       <c r="I102" s="44" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J102" s="83">
         <v>1</v>
       </c>
       <c r="K102" s="44" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L102" s="44" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="M102" s="44" t="s">
         <v>400</v>
@@ -11118,7 +11136,7 @@
         <v>556</v>
       </c>
       <c r="C103" s="44" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D103" s="44" t="s">
         <v>648</v>
@@ -11127,7 +11145,7 @@
         <v>645</v>
       </c>
       <c r="F103" s="44" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G103" s="44" t="s">
         <v>648</v>
@@ -11136,16 +11154,16 @@
         <v>648</v>
       </c>
       <c r="I103" s="44" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J103" s="83">
         <v>1</v>
       </c>
       <c r="K103" s="44" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L103" s="44" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="M103" s="44" t="s">
         <v>514</v>
@@ -11174,7 +11192,7 @@
         <v>559</v>
       </c>
       <c r="C104" s="44" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D104" s="44" t="s">
         <v>648</v>
@@ -11183,7 +11201,7 @@
         <v>645</v>
       </c>
       <c r="F104" s="44" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G104" s="44" t="s">
         <v>648</v>
@@ -11192,16 +11210,16 @@
         <v>648</v>
       </c>
       <c r="I104" s="44" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J104" s="83">
         <v>1</v>
       </c>
       <c r="K104" s="44" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L104" s="44" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="M104" s="44" t="s">
         <v>564</v>
@@ -11230,7 +11248,7 @@
         <v>616</v>
       </c>
       <c r="C105" s="44" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D105" s="44" t="s">
         <v>648</v>
@@ -11239,7 +11257,7 @@
         <v>645</v>
       </c>
       <c r="F105" s="44" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G105" s="44" t="s">
         <v>648</v>
@@ -11248,16 +11266,16 @@
         <v>648</v>
       </c>
       <c r="I105" s="44" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J105" s="83">
         <v>1</v>
       </c>
       <c r="K105" s="44" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L105" s="44" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="M105" s="44" t="s">
         <v>650</v>
@@ -11286,7 +11304,7 @@
         <v>556</v>
       </c>
       <c r="C106" s="44" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D106" s="44" t="s">
         <v>648</v>
@@ -11295,7 +11313,7 @@
         <v>645</v>
       </c>
       <c r="F106" s="44" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G106" s="44" t="s">
         <v>648</v>
@@ -11304,16 +11322,16 @@
         <v>648</v>
       </c>
       <c r="I106" s="44" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J106" s="83">
         <v>3</v>
       </c>
       <c r="K106" s="44" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L106" s="44" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="M106" s="44" t="s">
         <v>514</v>
@@ -11336,13 +11354,13 @@
     </row>
     <row r="107" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A107" s="43" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B107" s="44" t="s">
         <v>558</v>
       </c>
       <c r="C107" s="44" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D107" s="44" t="s">
         <v>648</v>
@@ -11351,7 +11369,7 @@
         <v>645</v>
       </c>
       <c r="F107" s="44" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G107" s="44" t="s">
         <v>648</v>
@@ -11360,16 +11378,16 @@
         <v>648</v>
       </c>
       <c r="I107" s="44" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J107" s="83">
         <v>3</v>
       </c>
       <c r="K107" s="44" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L107" s="44" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="M107" s="44" t="s">
         <v>562</v>
@@ -11390,13 +11408,13 @@
     </row>
     <row r="108" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A108" s="43" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B108" s="44" t="s">
         <v>559</v>
       </c>
       <c r="C108" s="44" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D108" s="44" t="s">
         <v>648</v>
@@ -11405,7 +11423,7 @@
         <v>645</v>
       </c>
       <c r="F108" s="44" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G108" s="44" t="s">
         <v>648</v>
@@ -11414,16 +11432,16 @@
         <v>648</v>
       </c>
       <c r="I108" s="44" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J108" s="83">
         <v>3</v>
       </c>
       <c r="K108" s="44" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L108" s="44" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="M108" s="44" t="s">
         <v>564</v>
@@ -11444,13 +11462,13 @@
     </row>
     <row r="109" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A109" s="43" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B109" s="44" t="s">
         <v>557</v>
       </c>
       <c r="C109" s="44" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D109" s="44" t="s">
         <v>648</v>
@@ -11459,7 +11477,7 @@
         <v>645</v>
       </c>
       <c r="F109" s="44" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G109" s="44" t="s">
         <v>648</v>
@@ -11468,16 +11486,16 @@
         <v>648</v>
       </c>
       <c r="I109" s="44" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J109" s="83">
         <v>3</v>
       </c>
       <c r="K109" s="44" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L109" s="44" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="M109" s="44" t="s">
         <v>400</v>
@@ -11513,26 +11531,26 @@
         <v>645</v>
       </c>
       <c r="F110" s="42" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G110" s="42" t="s">
         <v>598</v>
       </c>
       <c r="H110" s="42" t="s">
-        <v>754</v>
+        <v>1100</v>
       </c>
       <c r="I110" s="42" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J110" s="84"/>
       <c r="K110" s="42" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="L110" s="42" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="M110" s="42" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="N110" s="14" t="s">
         <v>195</v>
@@ -11561,26 +11579,26 @@
         <v>645</v>
       </c>
       <c r="F111" s="42" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G111" s="42" t="s">
         <v>598</v>
       </c>
       <c r="H111" s="42" t="s">
-        <v>754</v>
+        <v>1100</v>
       </c>
       <c r="I111" s="42" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J111" s="84"/>
       <c r="K111" s="42" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="L111" s="42" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="M111" s="42" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="N111" s="14" t="s">
         <v>195</v>
@@ -11609,23 +11627,23 @@
         <v>645</v>
       </c>
       <c r="F112" s="42" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G112" s="42" t="s">
         <v>598</v>
       </c>
       <c r="H112" s="42" t="s">
-        <v>363</v>
+        <v>1101</v>
       </c>
       <c r="I112" s="42" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J112" s="84"/>
       <c r="K112" s="42" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L112" s="42" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="M112" s="42" t="s">
         <v>509</v>
@@ -11663,21 +11681,23 @@
         <v>645</v>
       </c>
       <c r="F113" s="42" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G113" s="42" t="s">
         <v>598</v>
       </c>
-      <c r="H113" s="42"/>
+      <c r="H113" s="42" t="s">
+        <v>1101</v>
+      </c>
       <c r="I113" s="42" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J113" s="84"/>
       <c r="K113" s="42" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="L113" s="42" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="M113" s="42" t="s">
         <v>512</v>
@@ -11700,13 +11720,13 @@
     </row>
     <row r="114" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A114" s="56" t="s">
+        <v>808</v>
+      </c>
+      <c r="B114" s="42" t="s">
         <v>809</v>
       </c>
-      <c r="B114" s="42" t="s">
+      <c r="C114" s="42" t="s">
         <v>810</v>
-      </c>
-      <c r="C114" s="42" t="s">
-        <v>811</v>
       </c>
       <c r="D114" s="42" t="s">
         <v>720</v>
@@ -11715,21 +11735,23 @@
         <v>645</v>
       </c>
       <c r="F114" s="42" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G114" s="42" t="s">
         <v>598</v>
       </c>
-      <c r="H114" s="42"/>
+      <c r="H114" s="42" t="s">
+        <v>1102</v>
+      </c>
       <c r="I114" s="42" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J114" s="84"/>
       <c r="K114" s="42" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="L114" s="42" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="M114" s="42"/>
       <c r="N114" s="14" t="s">
@@ -11745,18 +11767,18 @@
         <v>1</v>
       </c>
       <c r="R114" s="58" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="115" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A115" s="56" t="s">
+        <v>812</v>
+      </c>
+      <c r="B115" s="42" t="s">
         <v>813</v>
       </c>
-      <c r="B115" s="42" t="s">
-        <v>814</v>
-      </c>
       <c r="C115" s="42" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D115" s="42" t="s">
         <v>720</v>
@@ -11765,24 +11787,26 @@
         <v>645</v>
       </c>
       <c r="F115" s="42" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G115" s="42" t="s">
         <v>598</v>
       </c>
-      <c r="H115" s="42"/>
+      <c r="H115" s="42" t="s">
+        <v>1101</v>
+      </c>
       <c r="I115" s="42" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J115" s="84"/>
       <c r="K115" s="42" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L115" s="42" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="M115" s="42" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="N115" s="14" t="s">
         <v>195</v>
@@ -11797,18 +11821,18 @@
         <v>1</v>
       </c>
       <c r="R115" s="58" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="116" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A116" s="56" t="s">
-        <v>816</v>
+        <v>1103</v>
       </c>
       <c r="B116" s="42" t="s">
-        <v>817</v>
+        <v>1104</v>
       </c>
       <c r="C116" s="42" t="s">
-        <v>818</v>
+        <v>1103</v>
       </c>
       <c r="D116" s="42" t="s">
         <v>720</v>
@@ -11817,24 +11841,26 @@
         <v>645</v>
       </c>
       <c r="F116" s="42" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G116" s="42" t="s">
         <v>598</v>
       </c>
-      <c r="H116" s="42"/>
+      <c r="H116" s="42" t="s">
+        <v>1101</v>
+      </c>
       <c r="I116" s="42" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J116" s="84"/>
       <c r="K116" s="42" t="s">
-        <v>1083</v>
+        <v>1105</v>
       </c>
       <c r="L116" s="42" t="s">
-        <v>1031</v>
+        <v>1106</v>
       </c>
       <c r="M116" s="42" t="s">
-        <v>1077</v>
+        <v>1106</v>
       </c>
       <c r="N116" s="14" t="s">
         <v>195</v>
@@ -11842,25 +11868,21 @@
       <c r="O116" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="P116" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q116" s="59" t="s">
-        <v>1</v>
-      </c>
+      <c r="P116" s="57"/>
+      <c r="Q116" s="59"/>
       <c r="R116" s="58" t="s">
-        <v>827</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="117" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A117" s="56" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="B117" s="42" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="C117" s="42" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="D117" s="42" t="s">
         <v>720</v>
@@ -11869,24 +11891,26 @@
         <v>645</v>
       </c>
       <c r="F117" s="42" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G117" s="42" t="s">
         <v>598</v>
       </c>
-      <c r="H117" s="42"/>
+      <c r="H117" s="42" t="s">
+        <v>1101</v>
+      </c>
       <c r="I117" s="42" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J117" s="84"/>
       <c r="K117" s="42" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L117" s="42" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="M117" s="42" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="N117" s="14" t="s">
         <v>195</v>
@@ -11901,18 +11925,18 @@
         <v>1</v>
       </c>
       <c r="R117" s="58" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="118" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A118" s="56" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="B118" s="42" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C118" s="42" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="D118" s="42" t="s">
         <v>720</v>
@@ -11921,23 +11945,27 @@
         <v>645</v>
       </c>
       <c r="F118" s="42" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G118" s="42" t="s">
         <v>598</v>
       </c>
-      <c r="H118" s="42"/>
+      <c r="H118" s="42" t="s">
+        <v>1101</v>
+      </c>
       <c r="I118" s="42" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J118" s="84"/>
       <c r="K118" s="42" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L118" s="42" t="s">
-        <v>1031</v>
-      </c>
-      <c r="M118" s="42"/>
+        <v>1029</v>
+      </c>
+      <c r="M118" s="42" t="s">
+        <v>1076</v>
+      </c>
       <c r="N118" s="14" t="s">
         <v>195</v>
       </c>
@@ -11951,18 +11979,18 @@
         <v>1</v>
       </c>
       <c r="R118" s="58" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="119" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A119" s="56" t="s">
-        <v>489</v>
+        <v>818</v>
       </c>
       <c r="B119" s="42" t="s">
-        <v>492</v>
+        <v>819</v>
       </c>
       <c r="C119" s="42" t="s">
-        <v>776</v>
+        <v>820</v>
       </c>
       <c r="D119" s="42" t="s">
         <v>720</v>
@@ -11971,25 +11999,25 @@
         <v>645</v>
       </c>
       <c r="F119" s="42" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G119" s="42" t="s">
         <v>598</v>
       </c>
-      <c r="H119" s="42"/>
+      <c r="H119" s="42" t="s">
+        <v>1101</v>
+      </c>
       <c r="I119" s="42" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J119" s="84"/>
       <c r="K119" s="42" t="s">
-        <v>1039</v>
+        <v>1081</v>
       </c>
       <c r="L119" s="42" t="s">
-        <v>1084</v>
-      </c>
-      <c r="M119" s="42" t="s">
-        <v>510</v>
-      </c>
+        <v>1029</v>
+      </c>
+      <c r="M119" s="42"/>
       <c r="N119" s="14" t="s">
         <v>195</v>
       </c>
@@ -12003,15 +12031,15 @@
         <v>1</v>
       </c>
       <c r="R119" s="58" t="s">
-        <v>495</v>
+        <v>825</v>
       </c>
     </row>
     <row r="120" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A120" s="56" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B120" s="42" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C120" s="42" t="s">
         <v>775</v>
@@ -12023,24 +12051,26 @@
         <v>645</v>
       </c>
       <c r="F120" s="42" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G120" s="42" t="s">
         <v>598</v>
       </c>
-      <c r="H120" s="42"/>
+      <c r="H120" s="42" t="s">
+        <v>1101</v>
+      </c>
       <c r="I120" s="42" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J120" s="84"/>
       <c r="K120" s="42" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="L120" s="42" t="s">
-        <v>1040</v>
+        <v>1082</v>
       </c>
       <c r="M120" s="42" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="N120" s="14" t="s">
         <v>195</v>
@@ -12055,46 +12085,46 @@
         <v>1</v>
       </c>
       <c r="R120" s="58" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="121" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A121" s="45" t="s">
-        <v>540</v>
-      </c>
-      <c r="B121" s="46" t="s">
-        <v>541</v>
-      </c>
-      <c r="C121" s="47" t="s">
-        <v>591</v>
-      </c>
-      <c r="D121" s="47" t="s">
-        <v>720</v>
-      </c>
-      <c r="E121" s="47" t="s">
+      <c r="A121" s="56" t="s">
+        <v>490</v>
+      </c>
+      <c r="B121" s="42" t="s">
+        <v>493</v>
+      </c>
+      <c r="C121" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="D121" s="42" t="s">
+        <v>720</v>
+      </c>
+      <c r="E121" s="42" t="s">
         <v>645</v>
       </c>
-      <c r="F121" s="47" t="s">
-        <v>831</v>
-      </c>
-      <c r="G121" s="47" t="s">
-        <v>828</v>
-      </c>
-      <c r="H121" s="47" t="s">
-        <v>802</v>
-      </c>
-      <c r="I121" s="47" t="s">
-        <v>802</v>
-      </c>
-      <c r="J121" s="85"/>
-      <c r="K121" s="47" t="s">
-        <v>1083</v>
-      </c>
-      <c r="L121" s="47" t="s">
-        <v>1031</v>
-      </c>
-      <c r="M121" s="47" t="s">
-        <v>549</v>
+      <c r="F121" s="42" t="s">
+        <v>829</v>
+      </c>
+      <c r="G121" s="42" t="s">
+        <v>598</v>
+      </c>
+      <c r="H121" s="42" t="s">
+        <v>1101</v>
+      </c>
+      <c r="I121" s="42" t="s">
+        <v>801</v>
+      </c>
+      <c r="J121" s="84"/>
+      <c r="K121" s="42" t="s">
+        <v>1038</v>
+      </c>
+      <c r="L121" s="42" t="s">
+        <v>1038</v>
+      </c>
+      <c r="M121" s="42" t="s">
+        <v>511</v>
       </c>
       <c r="N121" s="14" t="s">
         <v>195</v>
@@ -12109,18 +12139,18 @@
         <v>1</v>
       </c>
       <c r="R121" s="58" t="s">
-        <v>548</v>
+        <v>494</v>
       </c>
     </row>
     <row r="122" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A122" s="45" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B122" s="46" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C122" s="47" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="D122" s="47" t="s">
         <v>720</v>
@@ -12129,26 +12159,26 @@
         <v>645</v>
       </c>
       <c r="F122" s="47" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G122" s="47" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H122" s="47" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="I122" s="47" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J122" s="85"/>
       <c r="K122" s="47" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L122" s="47" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="M122" s="47" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="N122" s="14" t="s">
         <v>195</v>
@@ -12163,18 +12193,18 @@
         <v>1</v>
       </c>
       <c r="R122" s="58" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="123" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A123" s="45" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B123" s="46" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C123" s="47" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D123" s="47" t="s">
         <v>720</v>
@@ -12183,26 +12213,26 @@
         <v>645</v>
       </c>
       <c r="F123" s="47" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G123" s="47" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H123" s="47" t="s">
-        <v>765</v>
+        <v>801</v>
       </c>
       <c r="I123" s="47" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J123" s="85"/>
       <c r="K123" s="47" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L123" s="47" t="s">
-        <v>1037</v>
+        <v>1029</v>
       </c>
       <c r="M123" s="47" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="N123" s="14" t="s">
         <v>195</v>
@@ -12217,18 +12247,18 @@
         <v>1</v>
       </c>
       <c r="R123" s="58" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="124" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A124" s="45" t="s">
-        <v>477</v>
+        <v>539</v>
       </c>
       <c r="B124" s="46" t="s">
-        <v>483</v>
+        <v>542</v>
       </c>
       <c r="C124" s="47" t="s">
-        <v>480</v>
+        <v>589</v>
       </c>
       <c r="D124" s="47" t="s">
         <v>720</v>
@@ -12237,26 +12267,26 @@
         <v>645</v>
       </c>
       <c r="F124" s="47" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G124" s="47" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H124" s="47" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I124" s="47" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J124" s="85"/>
       <c r="K124" s="47" t="s">
-        <v>1044</v>
+        <v>1081</v>
       </c>
       <c r="L124" s="47" t="s">
-        <v>1044</v>
+        <v>1035</v>
       </c>
       <c r="M124" s="47" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="N124" s="14" t="s">
         <v>195</v>
@@ -12270,19 +12300,19 @@
       <c r="Q124" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="R124" s="62" t="s">
-        <v>534</v>
+      <c r="R124" s="58" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="125" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A125" s="45" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B125" s="46" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="C125" s="47" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D125" s="47" t="s">
         <v>720</v>
@@ -12291,26 +12321,26 @@
         <v>645</v>
       </c>
       <c r="F125" s="47" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G125" s="47" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H125" s="47" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I125" s="47" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J125" s="85"/>
       <c r="K125" s="47" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="L125" s="47" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="M125" s="47" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="N125" s="14" t="s">
         <v>195</v>
@@ -12325,18 +12355,18 @@
         <v>1</v>
       </c>
       <c r="R125" s="62" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="126" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A126" s="45" t="s">
-        <v>610</v>
+        <v>481</v>
       </c>
       <c r="B126" s="46" t="s">
-        <v>611</v>
+        <v>478</v>
       </c>
       <c r="C126" s="47" t="s">
-        <v>779</v>
+        <v>479</v>
       </c>
       <c r="D126" s="47" t="s">
         <v>720</v>
@@ -12345,26 +12375,26 @@
         <v>645</v>
       </c>
       <c r="F126" s="47" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G126" s="47" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H126" s="47" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I126" s="47" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J126" s="85"/>
       <c r="K126" s="47" t="s">
-        <v>1083</v>
+        <v>1042</v>
       </c>
       <c r="L126" s="47" t="s">
-        <v>1031</v>
+        <v>1042</v>
       </c>
       <c r="M126" s="47" t="s">
-        <v>612</v>
+        <v>533</v>
       </c>
       <c r="N126" s="14" t="s">
         <v>195</v>
@@ -12378,17 +12408,19 @@
       <c r="Q126" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="R126" s="62"/>
+      <c r="R126" s="62" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="127" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A127" s="45" t="s">
-        <v>755</v>
+        <v>610</v>
       </c>
       <c r="B127" s="46" t="s">
-        <v>756</v>
+        <v>611</v>
       </c>
       <c r="C127" s="47" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D127" s="47" t="s">
         <v>720</v>
@@ -12397,25 +12429,27 @@
         <v>645</v>
       </c>
       <c r="F127" s="47" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G127" s="47" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H127" s="47" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I127" s="47" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J127" s="85"/>
       <c r="K127" s="47" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L127" s="47" t="s">
-        <v>1045</v>
-      </c>
-      <c r="M127" s="47"/>
+        <v>1029</v>
+      </c>
+      <c r="M127" s="47" t="s">
+        <v>612</v>
+      </c>
       <c r="N127" s="14" t="s">
         <v>195</v>
       </c>
@@ -12432,13 +12466,13 @@
     </row>
     <row r="128" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A128" s="45" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B128" s="46" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C128" s="47" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D128" s="47" t="s">
         <v>720</v>
@@ -12447,23 +12481,23 @@
         <v>645</v>
       </c>
       <c r="F128" s="47" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G128" s="47" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H128" s="47" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I128" s="47" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J128" s="85"/>
       <c r="K128" s="47" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L128" s="47" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="M128" s="47"/>
       <c r="N128" s="14" t="s">
@@ -12482,13 +12516,13 @@
     </row>
     <row r="129" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A129" s="45" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="B129" s="46" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="C129" s="47" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="D129" s="47" t="s">
         <v>720</v>
@@ -12497,27 +12531,25 @@
         <v>645</v>
       </c>
       <c r="F129" s="47" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G129" s="47" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H129" s="47" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I129" s="47" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J129" s="85"/>
       <c r="K129" s="47" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L129" s="47" t="s">
-        <v>1031</v>
-      </c>
-      <c r="M129" s="47" t="s">
-        <v>630</v>
-      </c>
+        <v>1044</v>
+      </c>
+      <c r="M129" s="47"/>
       <c r="N129" s="14" t="s">
         <v>195</v>
       </c>
@@ -12530,19 +12562,17 @@
       <c r="Q129" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="R129" s="62" t="s">
-        <v>630</v>
-      </c>
+      <c r="R129" s="62"/>
     </row>
     <row r="130" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A130" s="45" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="B130" s="46" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C130" s="47" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D130" s="47" t="s">
         <v>720</v>
@@ -12551,25 +12581,27 @@
         <v>645</v>
       </c>
       <c r="F130" s="47" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G130" s="47" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H130" s="47" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I130" s="47" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J130" s="85"/>
       <c r="K130" s="47" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L130" s="47" t="s">
-        <v>1031</v>
-      </c>
-      <c r="M130" s="47"/>
+        <v>1029</v>
+      </c>
+      <c r="M130" s="47" t="s">
+        <v>630</v>
+      </c>
       <c r="N130" s="14" t="s">
         <v>195</v>
       </c>
@@ -12583,18 +12615,18 @@
         <v>1</v>
       </c>
       <c r="R130" s="62" t="s">
-        <v>767</v>
+        <v>630</v>
       </c>
     </row>
     <row r="131" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A131" s="45" t="s">
-        <v>595</v>
+        <v>762</v>
       </c>
       <c r="B131" s="46" t="s">
-        <v>482</v>
+        <v>763</v>
       </c>
       <c r="C131" s="47" t="s">
-        <v>590</v>
+        <v>781</v>
       </c>
       <c r="D131" s="47" t="s">
         <v>720</v>
@@ -12603,27 +12635,25 @@
         <v>645</v>
       </c>
       <c r="F131" s="47" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G131" s="47" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H131" s="47" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="I131" s="47" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J131" s="85"/>
       <c r="K131" s="47" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L131" s="47" t="s">
-        <v>1031</v>
-      </c>
-      <c r="M131" s="47" t="s">
-        <v>524</v>
-      </c>
+        <v>1029</v>
+      </c>
+      <c r="M131" s="47"/>
       <c r="N131" s="14" t="s">
         <v>195</v>
       </c>
@@ -12637,18 +12667,18 @@
         <v>1</v>
       </c>
       <c r="R131" s="62" t="s">
-        <v>485</v>
+        <v>766</v>
       </c>
     </row>
     <row r="132" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A132" s="45" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B132" s="46" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C132" s="47" t="s">
-        <v>646</v>
+        <v>590</v>
       </c>
       <c r="D132" s="47" t="s">
         <v>720</v>
@@ -12657,26 +12687,26 @@
         <v>645</v>
       </c>
       <c r="F132" s="47" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G132" s="47" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H132" s="47" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="I132" s="47" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J132" s="85"/>
       <c r="K132" s="47" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L132" s="47" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="M132" s="47" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="N132" s="14" t="s">
         <v>195</v>
@@ -12691,18 +12721,18 @@
         <v>1</v>
       </c>
       <c r="R132" s="62" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="133" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A133" s="45" t="s">
-        <v>759</v>
+        <v>596</v>
       </c>
       <c r="B133" s="46" t="s">
-        <v>760</v>
+        <v>484</v>
       </c>
       <c r="C133" s="47" t="s">
-        <v>777</v>
+        <v>646</v>
       </c>
       <c r="D133" s="47" t="s">
         <v>720</v>
@@ -12711,25 +12741,27 @@
         <v>645</v>
       </c>
       <c r="F133" s="47" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G133" s="47" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H133" s="47" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="I133" s="47" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J133" s="85"/>
       <c r="K133" s="47" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L133" s="47" t="s">
-        <v>1031</v>
-      </c>
-      <c r="M133" s="47"/>
+        <v>1029</v>
+      </c>
+      <c r="M133" s="47" t="s">
+        <v>525</v>
+      </c>
       <c r="N133" s="14" t="s">
         <v>195</v>
       </c>
@@ -12742,17 +12774,19 @@
       <c r="Q133" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="R133" s="64"/>
+      <c r="R133" s="62" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="134" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A134" s="45" t="s">
-        <v>215</v>
+        <v>758</v>
       </c>
       <c r="B134" s="46" t="s">
-        <v>93</v>
+        <v>759</v>
       </c>
       <c r="C134" s="47" t="s">
-        <v>332</v>
+        <v>776</v>
       </c>
       <c r="D134" s="47" t="s">
         <v>720</v>
@@ -12761,27 +12795,25 @@
         <v>645</v>
       </c>
       <c r="F134" s="47" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G134" s="47" t="s">
-        <v>322</v>
+        <v>827</v>
       </c>
       <c r="H134" s="47" t="s">
-        <v>1096</v>
+        <v>765</v>
       </c>
       <c r="I134" s="47" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J134" s="85"/>
       <c r="K134" s="47" t="s">
-        <v>1034</v>
+        <v>1081</v>
       </c>
       <c r="L134" s="47" t="s">
-        <v>1069</v>
-      </c>
-      <c r="M134" s="47" t="s">
-        <v>516</v>
-      </c>
+        <v>1029</v>
+      </c>
+      <c r="M134" s="47"/>
       <c r="N134" s="14" t="s">
         <v>195</v>
       </c>
@@ -12791,22 +12823,20 @@
       <c r="P134" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="Q134" s="57" t="s">
+      <c r="Q134" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="R134" s="58" t="s">
-        <v>135</v>
-      </c>
+      <c r="R134" s="64"/>
     </row>
     <row r="135" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A135" s="45" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B135" s="46" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C135" s="47" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="D135" s="47" t="s">
         <v>720</v>
@@ -12815,26 +12845,26 @@
         <v>645</v>
       </c>
       <c r="F135" s="47" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G135" s="47" t="s">
         <v>322</v>
       </c>
       <c r="H135" s="47" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="I135" s="47" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J135" s="85"/>
       <c r="K135" s="47" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L135" s="47" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="M135" s="47" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="N135" s="14" t="s">
         <v>195</v>
@@ -12843,24 +12873,24 @@
         <v>195</v>
       </c>
       <c r="P135" s="57" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q135" s="59" t="s">
         <v>1</v>
       </c>
+      <c r="Q135" s="57" t="s">
+        <v>1</v>
+      </c>
       <c r="R135" s="58" t="s">
-        <v>488</v>
+        <v>135</v>
       </c>
     </row>
     <row r="136" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A136" s="45" t="s">
-        <v>642</v>
-      </c>
-      <c r="B136" s="47" t="s">
-        <v>613</v>
+        <v>224</v>
+      </c>
+      <c r="B136" s="46" t="s">
+        <v>106</v>
       </c>
       <c r="C136" s="47" t="s">
-        <v>634</v>
+        <v>348</v>
       </c>
       <c r="D136" s="47" t="s">
         <v>720</v>
@@ -12869,26 +12899,26 @@
         <v>645</v>
       </c>
       <c r="F136" s="47" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G136" s="47" t="s">
         <v>322</v>
       </c>
       <c r="H136" s="47" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="I136" s="47" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J136" s="85"/>
       <c r="K136" s="47" t="s">
-        <v>1040</v>
+        <v>1032</v>
       </c>
       <c r="L136" s="47" t="s">
-        <v>1040</v>
+        <v>1067</v>
       </c>
       <c r="M136" s="47" t="s">
-        <v>1047</v>
+        <v>521</v>
       </c>
       <c r="N136" s="14" t="s">
         <v>195</v>
@@ -12897,24 +12927,24 @@
         <v>195</v>
       </c>
       <c r="P136" s="57" t="s">
-        <v>1</v>
+        <v>349</v>
       </c>
       <c r="Q136" s="59" t="s">
         <v>1</v>
       </c>
       <c r="R136" s="58" t="s">
-        <v>1047</v>
+        <v>488</v>
       </c>
     </row>
     <row r="137" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A137" s="45" t="s">
-        <v>229</v>
-      </c>
-      <c r="B137" s="46" t="s">
-        <v>111</v>
+        <v>642</v>
+      </c>
+      <c r="B137" s="47" t="s">
+        <v>613</v>
       </c>
       <c r="C137" s="47" t="s">
-        <v>578</v>
+        <v>634</v>
       </c>
       <c r="D137" s="47" t="s">
         <v>720</v>
@@ -12923,26 +12953,26 @@
         <v>645</v>
       </c>
       <c r="F137" s="47" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G137" s="47" t="s">
         <v>322</v>
       </c>
       <c r="H137" s="47" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="I137" s="47" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J137" s="85"/>
       <c r="K137" s="47" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="L137" s="47" t="s">
-        <v>1069</v>
+        <v>1038</v>
       </c>
       <c r="M137" s="47" t="s">
-        <v>515</v>
+        <v>1045</v>
       </c>
       <c r="N137" s="14" t="s">
         <v>195</v>
@@ -12951,24 +12981,24 @@
         <v>195</v>
       </c>
       <c r="P137" s="57" t="s">
-        <v>357</v>
+        <v>1</v>
       </c>
       <c r="Q137" s="59" t="s">
         <v>1</v>
       </c>
       <c r="R137" s="58" t="s">
-        <v>209</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="138" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A138" s="45" t="s">
-        <v>283</v>
+        <v>229</v>
       </c>
       <c r="B138" s="46" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="C138" s="47" t="s">
-        <v>419</v>
+        <v>578</v>
       </c>
       <c r="D138" s="47" t="s">
         <v>720</v>
@@ -12977,26 +13007,26 @@
         <v>645</v>
       </c>
       <c r="F138" s="47" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G138" s="47" t="s">
         <v>322</v>
       </c>
       <c r="H138" s="47" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="I138" s="47" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J138" s="85"/>
       <c r="K138" s="47" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L138" s="47" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="M138" s="47" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="N138" s="14" t="s">
         <v>195</v>
@@ -13005,24 +13035,24 @@
         <v>195</v>
       </c>
       <c r="P138" s="57" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q138" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="Q138" s="59" t="s">
-        <v>471</v>
-      </c>
       <c r="R138" s="58" t="s">
-        <v>487</v>
+        <v>209</v>
       </c>
     </row>
     <row r="139" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A139" s="45" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="B139" s="46" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C139" s="47" t="s">
-        <v>579</v>
+        <v>419</v>
       </c>
       <c r="D139" s="47" t="s">
         <v>720</v>
@@ -13031,26 +13061,26 @@
         <v>645</v>
       </c>
       <c r="F139" s="47" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G139" s="47" t="s">
         <v>322</v>
       </c>
       <c r="H139" s="47" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="I139" s="47" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J139" s="85"/>
       <c r="K139" s="47" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L139" s="47" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="M139" s="47" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="N139" s="14" t="s">
         <v>195</v>
@@ -13059,24 +13089,24 @@
         <v>195</v>
       </c>
       <c r="P139" s="57" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="Q139" s="59" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="R139" s="58" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="140" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A140" s="45" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="B140" s="46" t="s">
-        <v>196</v>
+        <v>150</v>
       </c>
       <c r="C140" s="47" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D140" s="47" t="s">
         <v>720</v>
@@ -13085,26 +13115,26 @@
         <v>645</v>
       </c>
       <c r="F140" s="47" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G140" s="47" t="s">
         <v>322</v>
       </c>
       <c r="H140" s="47" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="I140" s="47" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J140" s="85"/>
       <c r="K140" s="47" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L140" s="47" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="M140" s="47" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N140" s="14" t="s">
         <v>195</v>
@@ -13113,24 +13143,24 @@
         <v>195</v>
       </c>
       <c r="P140" s="57" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="Q140" s="59" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="R140" s="58" t="s">
-        <v>110</v>
+        <v>488</v>
       </c>
     </row>
     <row r="141" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A141" s="45" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="B141" s="46" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C141" s="47" t="s">
-        <v>406</v>
+        <v>582</v>
       </c>
       <c r="D141" s="47" t="s">
         <v>720</v>
@@ -13139,26 +13169,26 @@
         <v>645</v>
       </c>
       <c r="F141" s="47" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G141" s="47" t="s">
         <v>322</v>
       </c>
       <c r="H141" s="47" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="I141" s="47" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J141" s="85"/>
       <c r="K141" s="47" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L141" s="47" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="M141" s="47" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="N141" s="14" t="s">
         <v>195</v>
@@ -13167,24 +13197,24 @@
         <v>195</v>
       </c>
       <c r="P141" s="57" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="Q141" s="59" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="R141" s="58" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
     </row>
     <row r="142" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A142" s="45" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B142" s="46" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="C142" s="47" t="s">
-        <v>580</v>
+        <v>406</v>
       </c>
       <c r="D142" s="47" t="s">
         <v>720</v>
@@ -13193,26 +13223,26 @@
         <v>645</v>
       </c>
       <c r="F142" s="47" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G142" s="47" t="s">
         <v>322</v>
       </c>
       <c r="H142" s="47" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="I142" s="47" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J142" s="85"/>
       <c r="K142" s="47" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L142" s="47" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="M142" s="47" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N142" s="14" t="s">
         <v>195</v>
@@ -13227,18 +13257,18 @@
         <v>470</v>
       </c>
       <c r="R142" s="58" t="s">
-        <v>209</v>
+        <v>135</v>
       </c>
     </row>
     <row r="143" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A143" s="45" t="s">
-        <v>262</v>
-      </c>
-      <c r="B143" s="47" t="s">
-        <v>166</v>
+        <v>250</v>
+      </c>
+      <c r="B143" s="46" t="s">
+        <v>142</v>
       </c>
       <c r="C143" s="47" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D143" s="47" t="s">
         <v>720</v>
@@ -13247,26 +13277,26 @@
         <v>645</v>
       </c>
       <c r="F143" s="47" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G143" s="47" t="s">
         <v>322</v>
       </c>
       <c r="H143" s="47" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="I143" s="47" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J143" s="85"/>
       <c r="K143" s="47" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L143" s="47" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="M143" s="47" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="N143" s="14" t="s">
         <v>195</v>
@@ -13275,24 +13305,24 @@
         <v>195</v>
       </c>
       <c r="P143" s="57" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="Q143" s="59" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="R143" s="58" t="s">
-        <v>164</v>
+        <v>209</v>
       </c>
     </row>
     <row r="144" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A144" s="45" t="s">
-        <v>631</v>
+        <v>262</v>
       </c>
       <c r="B144" s="47" t="s">
-        <v>632</v>
+        <v>166</v>
       </c>
       <c r="C144" s="47" t="s">
-        <v>633</v>
+        <v>581</v>
       </c>
       <c r="D144" s="47" t="s">
         <v>720</v>
@@ -13301,26 +13331,26 @@
         <v>645</v>
       </c>
       <c r="F144" s="47" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G144" s="47" t="s">
         <v>322</v>
       </c>
       <c r="H144" s="47" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="I144" s="47" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J144" s="85"/>
       <c r="K144" s="47" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L144" s="47" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="M144" s="47" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="N144" s="14" t="s">
         <v>195</v>
@@ -13329,24 +13359,24 @@
         <v>195</v>
       </c>
       <c r="P144" s="57" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="Q144" s="59" t="s">
-        <v>1</v>
+        <v>471</v>
       </c>
       <c r="R144" s="58" t="s">
-        <v>1</v>
+        <v>164</v>
       </c>
     </row>
     <row r="145" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A145" s="45" t="s">
-        <v>1008</v>
+        <v>631</v>
       </c>
       <c r="B145" s="47" t="s">
-        <v>979</v>
+        <v>632</v>
       </c>
       <c r="C145" s="47" t="s">
-        <v>980</v>
+        <v>633</v>
       </c>
       <c r="D145" s="47" t="s">
         <v>720</v>
@@ -13355,26 +13385,26 @@
         <v>645</v>
       </c>
       <c r="F145" s="47" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G145" s="47" t="s">
         <v>322</v>
       </c>
       <c r="H145" s="47" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="I145" s="47" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J145" s="85"/>
       <c r="K145" s="47" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L145" s="47" t="s">
         <v>1067</v>
       </c>
       <c r="M145" s="47" t="s">
-        <v>956</v>
+        <v>521</v>
       </c>
       <c r="N145" s="14" t="s">
         <v>195</v>
@@ -13394,13 +13424,13 @@
     </row>
     <row r="146" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A146" s="45" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="B146" s="47" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="C146" s="47" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="D146" s="47" t="s">
         <v>720</v>
@@ -13409,26 +13439,26 @@
         <v>645</v>
       </c>
       <c r="F146" s="47" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G146" s="47" t="s">
         <v>322</v>
       </c>
       <c r="H146" s="47" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="I146" s="47" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J146" s="85"/>
       <c r="K146" s="47" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L146" s="47" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="M146" s="47" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="N146" s="14" t="s">
         <v>195</v>
@@ -13448,13 +13478,13 @@
     </row>
     <row r="147" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A147" s="45" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="B147" s="47" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="C147" s="47" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="D147" s="47" t="s">
         <v>720</v>
@@ -13463,26 +13493,26 @@
         <v>645</v>
       </c>
       <c r="F147" s="47" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G147" s="47" t="s">
         <v>322</v>
       </c>
       <c r="H147" s="47" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="I147" s="47" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J147" s="85"/>
       <c r="K147" s="47" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L147" s="47" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="M147" s="47" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="N147" s="14" t="s">
         <v>195</v>
@@ -13502,13 +13532,13 @@
     </row>
     <row r="148" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A148" s="45" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="B148" s="47" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="C148" s="47" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="D148" s="47" t="s">
         <v>720</v>
@@ -13517,7 +13547,7 @@
         <v>645</v>
       </c>
       <c r="F148" s="47" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G148" s="47" t="s">
         <v>322</v>
@@ -13526,17 +13556,17 @@
         <v>1098</v>
       </c>
       <c r="I148" s="47" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J148" s="85"/>
       <c r="K148" s="47" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L148" s="47" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="M148" s="47" t="s">
-        <v>993</v>
+        <v>955</v>
       </c>
       <c r="N148" s="14" t="s">
         <v>195</v>
@@ -13556,13 +13586,13 @@
     </row>
     <row r="149" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A149" s="45" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="B149" s="47" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="C149" s="47" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="D149" s="47" t="s">
         <v>720</v>
@@ -13571,26 +13601,26 @@
         <v>645</v>
       </c>
       <c r="F149" s="47" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G149" s="47" t="s">
         <v>322</v>
       </c>
       <c r="H149" s="47" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="I149" s="47" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J149" s="85"/>
       <c r="K149" s="47" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L149" s="47" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="M149" s="47" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="N149" s="14" t="s">
         <v>195</v>
@@ -13605,18 +13635,18 @@
         <v>1</v>
       </c>
       <c r="R149" s="58" t="s">
-        <v>1055</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A150" s="45" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="B150" s="47" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="C150" s="47" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="D150" s="47" t="s">
         <v>720</v>
@@ -13625,26 +13655,26 @@
         <v>645</v>
       </c>
       <c r="F150" s="47" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G150" s="47" t="s">
         <v>322</v>
       </c>
       <c r="H150" s="47" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="I150" s="47" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J150" s="85"/>
       <c r="K150" s="47" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L150" s="47" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="M150" s="47" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="N150" s="14" t="s">
         <v>195</v>
@@ -13659,18 +13689,18 @@
         <v>1</v>
       </c>
       <c r="R150" s="58" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="151" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A151" s="45" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="B151" s="47" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="C151" s="47" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="D151" s="47" t="s">
         <v>720</v>
@@ -13679,26 +13709,26 @@
         <v>645</v>
       </c>
       <c r="F151" s="47" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G151" s="47" t="s">
         <v>322</v>
       </c>
       <c r="H151" s="47" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="I151" s="47" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J151" s="85"/>
       <c r="K151" s="47" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L151" s="47" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="M151" s="47" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="N151" s="14" t="s">
         <v>195</v>
@@ -13713,18 +13743,18 @@
         <v>1</v>
       </c>
       <c r="R151" s="58" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="152" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A152" s="45" t="s">
-        <v>228</v>
+        <v>1012</v>
       </c>
       <c r="B152" s="47" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="C152" s="47" t="s">
-        <v>977</v>
+        <v>990</v>
       </c>
       <c r="D152" s="47" t="s">
         <v>720</v>
@@ -13733,26 +13763,26 @@
         <v>645</v>
       </c>
       <c r="F152" s="47" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G152" s="47" t="s">
         <v>322</v>
       </c>
       <c r="H152" s="47" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="I152" s="47" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J152" s="85"/>
       <c r="K152" s="47" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L152" s="47" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="M152" s="47" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="N152" s="14" t="s">
         <v>195</v>
@@ -13767,18 +13797,18 @@
         <v>1</v>
       </c>
       <c r="R152" s="58" t="s">
-        <v>110</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="153" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A153" s="45" t="s">
-        <v>996</v>
+        <v>228</v>
       </c>
       <c r="B153" s="47" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="C153" s="47" t="s">
-        <v>998</v>
+        <v>975</v>
       </c>
       <c r="D153" s="47" t="s">
         <v>720</v>
@@ -13787,26 +13817,26 @@
         <v>645</v>
       </c>
       <c r="F153" s="47" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G153" s="47" t="s">
         <v>322</v>
       </c>
       <c r="H153" s="47" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="I153" s="47" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J153" s="85"/>
       <c r="K153" s="47" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L153" s="47" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="M153" s="47" t="s">
-        <v>521</v>
+        <v>993</v>
       </c>
       <c r="N153" s="14" t="s">
         <v>195</v>
@@ -13821,18 +13851,18 @@
         <v>1</v>
       </c>
       <c r="R153" s="58" t="s">
-        <v>488</v>
+        <v>110</v>
       </c>
     </row>
     <row r="154" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A154" s="45" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="B154" s="47" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="C154" s="47" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="D154" s="47" t="s">
         <v>720</v>
@@ -13841,26 +13871,26 @@
         <v>645</v>
       </c>
       <c r="F154" s="47" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G154" s="47" t="s">
         <v>322</v>
       </c>
       <c r="H154" s="47" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="I154" s="47" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J154" s="85"/>
       <c r="K154" s="47" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L154" s="47" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="M154" s="47" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="N154" s="14" t="s">
         <v>195</v>
@@ -13875,70 +13905,72 @@
         <v>1</v>
       </c>
       <c r="R154" s="58" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A155" s="45" t="s">
+        <v>997</v>
+      </c>
+      <c r="B155" s="47" t="s">
+        <v>998</v>
+      </c>
+      <c r="C155" s="47" t="s">
+        <v>999</v>
+      </c>
+      <c r="D155" s="47" t="s">
+        <v>720</v>
+      </c>
+      <c r="E155" s="47" t="s">
+        <v>645</v>
+      </c>
+      <c r="F155" s="47" t="s">
+        <v>830</v>
+      </c>
+      <c r="G155" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="H155" s="47" t="s">
+        <v>1096</v>
+      </c>
+      <c r="I155" s="47" t="s">
+        <v>801</v>
+      </c>
+      <c r="J155" s="85"/>
+      <c r="K155" s="47" t="s">
+        <v>1032</v>
+      </c>
+      <c r="L155" s="47" t="s">
+        <v>1067</v>
+      </c>
+      <c r="M155" s="47" t="s">
+        <v>515</v>
+      </c>
+      <c r="N155" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O155" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="P155" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q155" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="R155" s="58" t="s">
         <v>209</v>
-      </c>
-    </row>
-    <row r="155" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A155" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="B155" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="C155" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="D155" s="24" t="s">
-        <v>720</v>
-      </c>
-      <c r="E155" s="24" t="s">
-        <v>731</v>
-      </c>
-      <c r="F155" s="24" t="s">
-        <v>731</v>
-      </c>
-      <c r="G155" s="24" t="s">
-        <v>365</v>
-      </c>
-      <c r="H155" s="24" t="s">
-        <v>1089</v>
-      </c>
-      <c r="I155" s="24" t="s">
-        <v>802</v>
-      </c>
-      <c r="J155" s="86"/>
-      <c r="K155" s="24" t="s">
-        <v>1034</v>
-      </c>
-      <c r="L155" s="24" t="s">
-        <v>570</v>
-      </c>
-      <c r="M155" s="24" t="s">
-        <v>601</v>
-      </c>
-      <c r="N155" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="O155" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="P155" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q155" s="59"/>
-      <c r="R155" s="58" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="156" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A156" s="25" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="B156" s="26" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="C156" s="24" t="s">
-        <v>574</v>
+        <v>205</v>
       </c>
       <c r="D156" s="24" t="s">
         <v>720</v>
@@ -13953,20 +13985,20 @@
         <v>365</v>
       </c>
       <c r="H156" s="24" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="I156" s="24" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J156" s="86"/>
       <c r="K156" s="24" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L156" s="24" t="s">
-        <v>1069</v>
+        <v>570</v>
       </c>
       <c r="M156" s="24" t="s">
-        <v>516</v>
+        <v>601</v>
       </c>
       <c r="N156" s="14" t="s">
         <v>195</v>
@@ -13975,24 +14007,22 @@
         <v>195</v>
       </c>
       <c r="P156" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q156" s="59" t="s">
-        <v>473</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="Q156" s="59"/>
       <c r="R156" s="58" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
     </row>
     <row r="157" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A157" s="25" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B157" s="26" t="s">
-        <v>593</v>
+        <v>173</v>
       </c>
       <c r="C157" s="24" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D157" s="24" t="s">
         <v>720</v>
@@ -14010,17 +14040,17 @@
         <v>1089</v>
       </c>
       <c r="I157" s="24" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J157" s="86"/>
       <c r="K157" s="24" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L157" s="24" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="M157" s="24" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N157" s="14" t="s">
         <v>195</v>
@@ -14028,25 +14058,25 @@
       <c r="O157" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="P157" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q157" s="55" t="s">
-        <v>470</v>
+      <c r="P157" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q157" s="59" t="s">
+        <v>473</v>
       </c>
       <c r="R157" s="58" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
     </row>
     <row r="158" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A158" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B158" s="26" t="s">
-        <v>163</v>
+        <v>593</v>
       </c>
       <c r="C158" s="24" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D158" s="24" t="s">
         <v>720</v>
@@ -14061,20 +14091,20 @@
         <v>365</v>
       </c>
       <c r="H158" s="24" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="I158" s="24" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J158" s="86"/>
       <c r="K158" s="24" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L158" s="24" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="M158" s="24" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N158" s="14" t="s">
         <v>195</v>
@@ -14083,24 +14113,24 @@
         <v>195</v>
       </c>
       <c r="P158" s="55" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="Q158" s="55" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="R158" s="58" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="159" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A159" s="25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B159" s="26" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C159" s="24" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D159" s="24" t="s">
         <v>720</v>
@@ -14115,17 +14145,17 @@
         <v>365</v>
       </c>
       <c r="H159" s="24" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="I159" s="24" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J159" s="86"/>
       <c r="K159" s="24" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L159" s="24" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="M159" s="24" t="s">
         <v>518</v>
@@ -14137,7 +14167,7 @@
         <v>195</v>
       </c>
       <c r="P159" s="55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q159" s="55" t="s">
         <v>471</v>
@@ -14148,13 +14178,13 @@
     </row>
     <row r="160" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A160" s="25" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B160" s="26" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="C160" s="24" t="s">
-        <v>32</v>
+        <v>577</v>
       </c>
       <c r="D160" s="24" t="s">
         <v>720</v>
@@ -14169,20 +14199,20 @@
         <v>365</v>
       </c>
       <c r="H160" s="24" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="I160" s="24" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J160" s="86"/>
       <c r="K160" s="24" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L160" s="24" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="M160" s="24" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="N160" s="14" t="s">
         <v>195</v>
@@ -14191,24 +14221,24 @@
         <v>195</v>
       </c>
       <c r="P160" s="55" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="Q160" s="55" t="s">
         <v>471</v>
       </c>
       <c r="R160" s="58" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="161" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A161" s="25" t="s">
-        <v>651</v>
+        <v>253</v>
       </c>
       <c r="B161" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="C161" s="26" t="s">
-        <v>647</v>
+      <c r="C161" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="D161" s="24" t="s">
         <v>720</v>
@@ -14219,24 +14249,24 @@
       <c r="F161" s="24" t="s">
         <v>731</v>
       </c>
-      <c r="G161" s="26" t="s">
+      <c r="G161" s="24" t="s">
         <v>365</v>
       </c>
       <c r="H161" s="24" t="s">
-        <v>1091</v>
-      </c>
-      <c r="I161" s="26" t="s">
-        <v>802</v>
-      </c>
-      <c r="J161" s="87"/>
+        <v>1089</v>
+      </c>
+      <c r="I161" s="24" t="s">
+        <v>801</v>
+      </c>
+      <c r="J161" s="86"/>
       <c r="K161" s="24" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L161" s="24" t="s">
-        <v>1068</v>
-      </c>
-      <c r="M161" s="26" t="s">
-        <v>696</v>
+        <v>1066</v>
+      </c>
+      <c r="M161" s="24" t="s">
+        <v>506</v>
       </c>
       <c r="N161" s="14" t="s">
         <v>195</v>
@@ -14245,24 +14275,24 @@
         <v>195</v>
       </c>
       <c r="P161" s="55" t="s">
-        <v>695</v>
+        <v>32</v>
       </c>
       <c r="Q161" s="55" t="s">
-        <v>1</v>
+        <v>471</v>
       </c>
       <c r="R161" s="58" t="s">
-        <v>696</v>
+        <v>147</v>
       </c>
     </row>
     <row r="162" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A162" s="25" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B162" s="26" t="s">
-        <v>693</v>
+        <v>146</v>
       </c>
       <c r="C162" s="26" t="s">
-        <v>721</v>
+        <v>647</v>
       </c>
       <c r="D162" s="24" t="s">
         <v>720</v>
@@ -14277,20 +14307,20 @@
         <v>365</v>
       </c>
       <c r="H162" s="24" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="I162" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J162" s="87"/>
-      <c r="K162" s="26" t="s">
-        <v>1041</v>
-      </c>
-      <c r="L162" s="26" t="s">
-        <v>1072</v>
+      <c r="K162" s="24" t="s">
+        <v>1032</v>
+      </c>
+      <c r="L162" s="24" t="s">
+        <v>1066</v>
       </c>
       <c r="M162" s="26" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="N162" s="14" t="s">
         <v>195</v>
@@ -14299,24 +14329,24 @@
         <v>195</v>
       </c>
       <c r="P162" s="55" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="Q162" s="55" t="s">
         <v>1</v>
       </c>
       <c r="R162" s="58" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="163" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A163" s="25" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B163" s="26" t="s">
-        <v>680</v>
+        <v>693</v>
       </c>
       <c r="C163" s="26" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="D163" s="24" t="s">
         <v>720</v>
@@ -14331,20 +14361,20 @@
         <v>365</v>
       </c>
       <c r="H163" s="24" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="I163" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J163" s="87"/>
       <c r="K163" s="26" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="L163" s="26" t="s">
-        <v>1040</v>
+        <v>1070</v>
       </c>
       <c r="M163" s="26" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="N163" s="14" t="s">
         <v>195</v>
@@ -14353,24 +14383,24 @@
         <v>195</v>
       </c>
       <c r="P163" s="55" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="Q163" s="55" t="s">
         <v>1</v>
       </c>
       <c r="R163" s="58" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="164" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A164" s="25" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B164" s="26" t="s">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="C164" s="26" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="D164" s="24" t="s">
         <v>720</v>
@@ -14388,17 +14418,17 @@
         <v>1091</v>
       </c>
       <c r="I164" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J164" s="87"/>
-      <c r="K164" s="24" t="s">
-        <v>1034</v>
-      </c>
-      <c r="L164" s="24" t="s">
-        <v>1068</v>
+      <c r="K164" s="26" t="s">
+        <v>1038</v>
+      </c>
+      <c r="L164" s="26" t="s">
+        <v>1038</v>
       </c>
       <c r="M164" s="26" t="s">
-        <v>681</v>
+        <v>698</v>
       </c>
       <c r="N164" s="14" t="s">
         <v>195</v>
@@ -14407,24 +14437,24 @@
         <v>195</v>
       </c>
       <c r="P164" s="55" t="s">
-        <v>1</v>
+        <v>699</v>
       </c>
       <c r="Q164" s="55" t="s">
         <v>1</v>
       </c>
       <c r="R164" s="58" t="s">
-        <v>681</v>
+        <v>698</v>
       </c>
     </row>
     <row r="165" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A165" s="25" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B165" s="26" t="s">
-        <v>682</v>
+        <v>700</v>
       </c>
       <c r="C165" s="26" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D165" s="24" t="s">
         <v>720</v>
@@ -14439,20 +14469,20 @@
         <v>365</v>
       </c>
       <c r="H165" s="24" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="I165" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J165" s="87"/>
-      <c r="K165" s="26" t="s">
-        <v>1040</v>
-      </c>
-      <c r="L165" s="26" t="s">
-        <v>1040</v>
+      <c r="K165" s="24" t="s">
+        <v>1032</v>
+      </c>
+      <c r="L165" s="24" t="s">
+        <v>1066</v>
       </c>
       <c r="M165" s="26" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="N165" s="14" t="s">
         <v>195</v>
@@ -14461,22 +14491,24 @@
         <v>195</v>
       </c>
       <c r="P165" s="55" t="s">
-        <v>701</v>
+        <v>1</v>
       </c>
       <c r="Q165" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="R165" s="58"/>
+      <c r="R165" s="58" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="166" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A166" s="25" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B166" s="26" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C166" s="26" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D166" s="24" t="s">
         <v>720</v>
@@ -14490,21 +14522,21 @@
       <c r="G166" s="26" t="s">
         <v>365</v>
       </c>
-      <c r="H166" s="26" t="s">
-        <v>1094</v>
+      <c r="H166" s="24" t="s">
+        <v>1091</v>
       </c>
       <c r="I166" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J166" s="87"/>
       <c r="K166" s="26" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="L166" s="26" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="M166" s="26" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="N166" s="14" t="s">
         <v>195</v>
@@ -14513,24 +14545,22 @@
         <v>195</v>
       </c>
       <c r="P166" s="55" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="Q166" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="R166" s="58" t="s">
-        <v>685</v>
-      </c>
+      <c r="R166" s="58"/>
     </row>
     <row r="167" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A167" s="25" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B167" s="26" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C167" s="26" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D167" s="24" t="s">
         <v>720</v>
@@ -14544,11 +14574,11 @@
       <c r="G167" s="26" t="s">
         <v>365</v>
       </c>
-      <c r="H167" s="24" t="s">
-        <v>1093</v>
+      <c r="H167" s="26" t="s">
+        <v>1092</v>
       </c>
       <c r="I167" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J167" s="87"/>
       <c r="K167" s="26" t="s">
@@ -14558,7 +14588,7 @@
         <v>1040</v>
       </c>
       <c r="M167" s="26" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="N167" s="14" t="s">
         <v>195</v>
@@ -14567,24 +14597,24 @@
         <v>195</v>
       </c>
       <c r="P167" s="55" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="Q167" s="55" t="s">
         <v>1</v>
       </c>
       <c r="R167" s="58" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="168" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A168" s="25" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B168" s="26" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="C168" s="26" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D168" s="24" t="s">
         <v>720</v>
@@ -14598,19 +14628,21 @@
       <c r="G168" s="26" t="s">
         <v>365</v>
       </c>
-      <c r="H168" s="26"/>
+      <c r="H168" s="24" t="s">
+        <v>1091</v>
+      </c>
       <c r="I168" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J168" s="87"/>
       <c r="K168" s="26" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="L168" s="26" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="M168" s="26" t="s">
-        <v>717</v>
+        <v>687</v>
       </c>
       <c r="N168" s="14" t="s">
         <v>195</v>
@@ -14619,22 +14651,24 @@
         <v>195</v>
       </c>
       <c r="P168" s="55" t="s">
-        <v>692</v>
+        <v>703</v>
       </c>
       <c r="Q168" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="R168" s="58"/>
+      <c r="R168" s="58" t="s">
+        <v>687</v>
+      </c>
     </row>
     <row r="169" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A169" s="25" t="s">
-        <v>833</v>
+        <v>660</v>
       </c>
       <c r="B169" s="26" t="s">
-        <v>832</v>
+        <v>691</v>
       </c>
       <c r="C169" s="26" t="s">
-        <v>836</v>
+        <v>726</v>
       </c>
       <c r="D169" s="24" t="s">
         <v>720</v>
@@ -14648,39 +14682,43 @@
       <c r="G169" s="26" t="s">
         <v>365</v>
       </c>
-      <c r="H169" s="24" t="s">
-        <v>1091</v>
-      </c>
+      <c r="H169" s="26"/>
       <c r="I169" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J169" s="87"/>
-      <c r="K169" s="24" t="s">
-        <v>1034</v>
+      <c r="K169" s="26" t="s">
+        <v>1037</v>
       </c>
       <c r="L169" s="26" t="s">
-        <v>570</v>
+        <v>1037</v>
       </c>
       <c r="M169" s="26" t="s">
-        <v>570</v>
+        <v>717</v>
       </c>
       <c r="N169" s="14" t="s">
         <v>195</v>
       </c>
       <c r="O169" s="14" t="s">
         <v>195</v>
+      </c>
+      <c r="P169" s="55" t="s">
+        <v>692</v>
+      </c>
+      <c r="Q169" s="55" t="s">
+        <v>1</v>
       </c>
       <c r="R169" s="58"/>
     </row>
     <row r="170" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A170" s="25" t="s">
+        <v>832</v>
+      </c>
+      <c r="B170" s="26" t="s">
+        <v>831</v>
+      </c>
+      <c r="C170" s="26" t="s">
         <v>835</v>
-      </c>
-      <c r="B170" s="26" t="s">
-        <v>834</v>
-      </c>
-      <c r="C170" s="26" t="s">
-        <v>837</v>
       </c>
       <c r="D170" s="24" t="s">
         <v>720</v>
@@ -14695,20 +14733,20 @@
         <v>365</v>
       </c>
       <c r="H170" s="24" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="I170" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J170" s="87"/>
       <c r="K170" s="24" t="s">
-        <v>1034</v>
-      </c>
-      <c r="L170" s="24" t="s">
-        <v>1068</v>
+        <v>1032</v>
+      </c>
+      <c r="L170" s="26" t="s">
+        <v>570</v>
       </c>
       <c r="M170" s="26" t="s">
-        <v>838</v>
+        <v>570</v>
       </c>
       <c r="N170" s="14" t="s">
         <v>195</v>
@@ -14716,19 +14754,17 @@
       <c r="O170" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="R170" s="58" t="s">
-        <v>1053</v>
-      </c>
+      <c r="R170" s="58"/>
     </row>
     <row r="171" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A171" s="25" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="B171" s="26" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="C171" s="26" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="D171" s="24" t="s">
         <v>720</v>
@@ -14743,20 +14779,20 @@
         <v>365</v>
       </c>
       <c r="H171" s="24" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="I171" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J171" s="87"/>
       <c r="K171" s="24" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L171" s="24" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="M171" s="26" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="N171" s="14" t="s">
         <v>195</v>
@@ -14765,18 +14801,18 @@
         <v>195</v>
       </c>
       <c r="R171" s="58" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="172" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A172" s="25" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="B172" s="26" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="C172" s="26" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="D172" s="24" t="s">
         <v>720</v>
@@ -14791,20 +14827,20 @@
         <v>365</v>
       </c>
       <c r="H172" s="24" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="I172" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J172" s="87"/>
       <c r="K172" s="24" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L172" s="24" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="M172" s="26" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="N172" s="14" t="s">
         <v>195</v>
@@ -14813,18 +14849,18 @@
         <v>195</v>
       </c>
       <c r="R172" s="58" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="173" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A173" s="25" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B173" s="26" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="C173" s="26" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="D173" s="24" t="s">
         <v>720</v>
@@ -14839,20 +14875,20 @@
         <v>365</v>
       </c>
       <c r="H173" s="24" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="I173" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J173" s="87"/>
       <c r="K173" s="24" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L173" s="24" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="M173" s="26" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="N173" s="14" t="s">
         <v>195</v>
@@ -14860,17 +14896,19 @@
       <c r="O173" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="R173" s="58"/>
+      <c r="R173" s="58" t="s">
+        <v>1052</v>
+      </c>
     </row>
     <row r="174" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A174" s="25" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="B174" s="26" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="C174" s="26" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="D174" s="24" t="s">
         <v>720</v>
@@ -14885,20 +14923,20 @@
         <v>365</v>
       </c>
       <c r="H174" s="24" t="s">
-        <v>1099</v>
+        <v>1089</v>
       </c>
       <c r="I174" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J174" s="87"/>
       <c r="K174" s="24" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L174" s="24" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="M174" s="26" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="N174" s="14" t="s">
         <v>195</v>
@@ -14910,13 +14948,13 @@
     </row>
     <row r="175" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A175" s="25" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="B175" s="26" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="C175" s="26" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="D175" s="24" t="s">
         <v>720</v>
@@ -14931,20 +14969,20 @@
         <v>365</v>
       </c>
       <c r="H175" s="24" t="s">
-        <v>1091</v>
+        <v>1097</v>
       </c>
       <c r="I175" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J175" s="87"/>
       <c r="K175" s="24" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L175" s="24" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="M175" s="26" t="s">
-        <v>516</v>
+        <v>852</v>
       </c>
       <c r="N175" s="14" t="s">
         <v>195</v>
@@ -14956,13 +14994,13 @@
     </row>
     <row r="176" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A176" s="25" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="B176" s="26" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C176" s="26" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="D176" s="24" t="s">
         <v>720</v>
@@ -14977,20 +15015,20 @@
         <v>365</v>
       </c>
       <c r="H176" s="24" t="s">
-        <v>1099</v>
+        <v>1089</v>
       </c>
       <c r="I176" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J176" s="87"/>
       <c r="K176" s="24" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L176" s="24" t="s">
         <v>1067</v>
       </c>
       <c r="M176" s="26" t="s">
-        <v>860</v>
+        <v>516</v>
       </c>
       <c r="N176" s="14" t="s">
         <v>195</v>
@@ -15002,13 +15040,13 @@
     </row>
     <row r="177" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A177" s="25" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="B177" s="26" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="C177" s="26" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="D177" s="24" t="s">
         <v>720</v>
@@ -15023,20 +15061,20 @@
         <v>365</v>
       </c>
       <c r="H177" s="24" t="s">
-        <v>1091</v>
+        <v>1097</v>
       </c>
       <c r="I177" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J177" s="87"/>
       <c r="K177" s="24" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L177" s="24" t="s">
-        <v>570</v>
+        <v>1065</v>
       </c>
       <c r="M177" s="26" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="N177" s="14" t="s">
         <v>195</v>
@@ -15048,13 +15086,13 @@
     </row>
     <row r="178" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A178" s="25" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="B178" s="26" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="C178" s="26" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="D178" s="24" t="s">
         <v>720</v>
@@ -15069,20 +15107,20 @@
         <v>365</v>
       </c>
       <c r="H178" s="24" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="I178" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J178" s="87"/>
       <c r="K178" s="24" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L178" s="24" t="s">
-        <v>1067</v>
+        <v>570</v>
       </c>
       <c r="M178" s="26" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="N178" s="14" t="s">
         <v>195</v>
@@ -15090,19 +15128,17 @@
       <c r="O178" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="R178" s="58" t="s">
-        <v>1058</v>
-      </c>
+      <c r="R178" s="58"/>
     </row>
     <row r="179" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A179" s="25" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="B179" s="26" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C179" s="26" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="D179" s="24" t="s">
         <v>720</v>
@@ -15117,20 +15153,20 @@
         <v>365</v>
       </c>
       <c r="H179" s="24" t="s">
-        <v>1099</v>
+        <v>1089</v>
       </c>
       <c r="I179" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J179" s="87"/>
       <c r="K179" s="24" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L179" s="24" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="M179" s="26" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="N179" s="14" t="s">
         <v>195</v>
@@ -15139,18 +15175,18 @@
         <v>195</v>
       </c>
       <c r="R179" s="58" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="180" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A180" s="25" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="B180" s="26" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="C180" s="26" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D180" s="24" t="s">
         <v>720</v>
@@ -15165,20 +15201,20 @@
         <v>365</v>
       </c>
       <c r="H180" s="24" t="s">
-        <v>1091</v>
+        <v>1097</v>
       </c>
       <c r="I180" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J180" s="87"/>
       <c r="K180" s="24" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L180" s="24" t="s">
-        <v>570</v>
+        <v>1065</v>
       </c>
       <c r="M180" s="26" t="s">
-        <v>863</v>
+        <v>852</v>
       </c>
       <c r="N180" s="14" t="s">
         <v>195</v>
@@ -15186,17 +15222,19 @@
       <c r="O180" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="R180" s="58"/>
+      <c r="R180" s="58" t="s">
+        <v>1057</v>
+      </c>
     </row>
     <row r="181" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A181" s="25" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B181" s="26" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="C181" s="26" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="D181" s="24" t="s">
         <v>720</v>
@@ -15211,20 +15249,20 @@
         <v>365</v>
       </c>
       <c r="H181" s="24" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="I181" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J181" s="87"/>
       <c r="K181" s="24" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L181" s="24" t="s">
-        <v>1067</v>
+        <v>570</v>
       </c>
       <c r="M181" s="26" t="s">
-        <v>1060</v>
+        <v>862</v>
       </c>
       <c r="N181" s="14" t="s">
         <v>195</v>
@@ -15232,19 +15270,17 @@
       <c r="O181" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="R181" s="58" t="s">
-        <v>1060</v>
-      </c>
+      <c r="R181" s="58"/>
     </row>
     <row r="182" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A182" s="25" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="B182" s="26" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="C182" s="26" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="D182" s="24" t="s">
         <v>720</v>
@@ -15259,20 +15295,20 @@
         <v>365</v>
       </c>
       <c r="H182" s="24" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="I182" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J182" s="87"/>
       <c r="K182" s="24" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L182" s="24" t="s">
-        <v>1074</v>
+        <v>1065</v>
       </c>
       <c r="M182" s="26" t="s">
-        <v>877</v>
+        <v>1058</v>
       </c>
       <c r="N182" s="14" t="s">
         <v>195</v>
@@ -15281,18 +15317,18 @@
         <v>195</v>
       </c>
       <c r="R182" s="58" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="183" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A183" s="25" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="B183" s="26" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="C183" s="26" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="D183" s="24" t="s">
         <v>720</v>
@@ -15307,20 +15343,20 @@
         <v>365</v>
       </c>
       <c r="H183" s="24" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="I183" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J183" s="87"/>
       <c r="K183" s="24" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L183" s="24" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="M183" s="26" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="N183" s="14" t="s">
         <v>195</v>
@@ -15329,18 +15365,18 @@
         <v>195</v>
       </c>
       <c r="R183" s="58" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="184" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A184" s="25" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="B184" s="26" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="C184" s="26" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="D184" s="24" t="s">
         <v>720</v>
@@ -15354,21 +15390,21 @@
       <c r="G184" s="26" t="s">
         <v>365</v>
       </c>
-      <c r="H184" s="26" t="s">
-        <v>1090</v>
+      <c r="H184" s="24" t="s">
+        <v>1089</v>
       </c>
       <c r="I184" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J184" s="87"/>
-      <c r="K184" s="26" t="s">
-        <v>1033</v>
+      <c r="K184" s="24" t="s">
+        <v>1032</v>
       </c>
       <c r="L184" s="24" t="s">
-        <v>1086</v>
+        <v>1073</v>
       </c>
       <c r="M184" s="26" t="s">
-        <v>1085</v>
+        <v>883</v>
       </c>
       <c r="N184" s="14" t="s">
         <v>195</v>
@@ -15376,21 +15412,19 @@
       <c r="O184" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="P184" s="1"/>
-      <c r="Q184"/>
       <c r="R184" s="58" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="185" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A185" s="25" t="s">
-        <v>1021</v>
+        <v>886</v>
       </c>
       <c r="B185" s="26" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="C185" s="26" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="D185" s="24" t="s">
         <v>720</v>
@@ -15404,21 +15438,21 @@
       <c r="G185" s="26" t="s">
         <v>365</v>
       </c>
-      <c r="H185" s="24" t="s">
-        <v>1091</v>
+      <c r="H185" s="26" t="s">
+        <v>1088</v>
       </c>
       <c r="I185" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J185" s="87"/>
-      <c r="K185" s="24" t="s">
-        <v>1034</v>
+      <c r="K185" s="26" t="s">
+        <v>1031</v>
       </c>
       <c r="L185" s="24" t="s">
-        <v>570</v>
+        <v>1084</v>
       </c>
       <c r="M185" s="26" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="N185" s="14" t="s">
         <v>195</v>
@@ -15426,19 +15460,21 @@
       <c r="O185" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="P185" s="66"/>
-      <c r="Q185" s="65"/>
-      <c r="R185" s="58"/>
-    </row>
-    <row r="186" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="P185" s="1"/>
+      <c r="Q185"/>
+      <c r="R185" s="58" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A186" s="25" t="s">
-        <v>889</v>
+        <v>1019</v>
       </c>
       <c r="B186" s="26" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="C186" s="26" t="s">
-        <v>891</v>
+        <v>879</v>
       </c>
       <c r="D186" s="24" t="s">
         <v>720</v>
@@ -15453,20 +15489,20 @@
         <v>365</v>
       </c>
       <c r="H186" s="24" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="I186" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J186" s="87"/>
       <c r="K186" s="24" t="s">
-        <v>1083</v>
+        <v>1032</v>
       </c>
       <c r="L186" s="24" t="s">
-        <v>1037</v>
+        <v>570</v>
       </c>
       <c r="M186" s="26" t="s">
-        <v>1063</v>
+        <v>1080</v>
       </c>
       <c r="N186" s="14" t="s">
         <v>195</v>
@@ -15474,21 +15510,19 @@
       <c r="O186" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="P186" s="1"/>
-      <c r="Q186"/>
-      <c r="R186" s="58" t="s">
-        <v>1063</v>
-      </c>
+      <c r="P186" s="66"/>
+      <c r="Q186" s="65"/>
+      <c r="R186" s="58"/>
     </row>
     <row r="187" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A187" s="25" t="s">
-        <v>1022</v>
+        <v>888</v>
       </c>
       <c r="B187" s="26" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="C187" s="26" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="D187" s="24" t="s">
         <v>720</v>
@@ -15503,20 +15537,20 @@
         <v>365</v>
       </c>
       <c r="H187" s="24" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="I187" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J187" s="87"/>
       <c r="K187" s="24" t="s">
-        <v>1034</v>
+        <v>1081</v>
       </c>
       <c r="L187" s="24" t="s">
-        <v>1075</v>
+        <v>1035</v>
       </c>
       <c r="M187" s="26" t="s">
-        <v>894</v>
+        <v>1061</v>
       </c>
       <c r="N187" s="14" t="s">
         <v>195</v>
@@ -15524,18 +15558,21 @@
       <c r="O187" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="P187" s="66"/>
-      <c r="R187" s="58"/>
-    </row>
-    <row r="188" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="P187" s="1"/>
+      <c r="Q187"/>
+      <c r="R187" s="58" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A188" s="25" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="B188" s="26" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="C188" s="26" t="s">
-        <v>880</v>
+        <v>892</v>
       </c>
       <c r="D188" s="24" t="s">
         <v>720</v>
@@ -15550,20 +15587,20 @@
         <v>365</v>
       </c>
       <c r="H188" s="24" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="I188" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J188" s="87"/>
       <c r="K188" s="24" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L188" s="24" t="s">
-        <v>1068</v>
+        <v>1073</v>
       </c>
       <c r="M188" s="26" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="N188" s="14" t="s">
         <v>195</v>
@@ -15572,20 +15609,17 @@
         <v>195</v>
       </c>
       <c r="P188" s="66"/>
-      <c r="Q188" s="65"/>
-      <c r="R188" s="58" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="189" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="R188" s="58"/>
+    </row>
+    <row r="189" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A189" s="25" t="s">
-        <v>898</v>
+        <v>1021</v>
       </c>
       <c r="B189" s="26" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="C189" s="26" t="s">
-        <v>899</v>
+        <v>879</v>
       </c>
       <c r="D189" s="24" t="s">
         <v>720</v>
@@ -15600,20 +15634,20 @@
         <v>365</v>
       </c>
       <c r="H189" s="24" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="I189" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J189" s="87"/>
       <c r="K189" s="24" t="s">
-        <v>1041</v>
+        <v>1032</v>
       </c>
       <c r="L189" s="24" t="s">
-        <v>1043</v>
+        <v>1066</v>
       </c>
       <c r="M189" s="26" t="s">
-        <v>1049</v>
+        <v>895</v>
       </c>
       <c r="N189" s="14" t="s">
         <v>195</v>
@@ -15621,21 +15655,21 @@
       <c r="O189" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="P189" s="1"/>
-      <c r="Q189"/>
+      <c r="P189" s="66"/>
+      <c r="Q189" s="65"/>
       <c r="R189" s="58" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="190" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A190" s="25" t="s">
-        <v>1017</v>
+        <v>897</v>
       </c>
       <c r="B190" s="26" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="C190" s="26" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="D190" s="24" t="s">
         <v>720</v>
@@ -15653,17 +15687,17 @@
         <v>1093</v>
       </c>
       <c r="I190" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J190" s="87"/>
       <c r="K190" s="24" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="L190" s="24" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="M190" s="26" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="N190" s="14" t="s">
         <v>195</v>
@@ -15671,20 +15705,21 @@
       <c r="O190" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="P190" s="66"/>
+      <c r="P190" s="1"/>
+      <c r="Q190"/>
       <c r="R190" s="58" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="191" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A191" s="25" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="B191" s="26" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C191" s="26" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="D191" s="24" t="s">
         <v>720</v>
@@ -15699,20 +15734,20 @@
         <v>365</v>
       </c>
       <c r="H191" s="24" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="I191" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J191" s="87"/>
-      <c r="K191" s="26" t="s">
-        <v>1040</v>
-      </c>
-      <c r="L191" s="26" t="s">
-        <v>1040</v>
+      <c r="K191" s="24" t="s">
+        <v>1038</v>
+      </c>
+      <c r="L191" s="24" t="s">
+        <v>1038</v>
       </c>
       <c r="M191" s="26" t="s">
-        <v>904</v>
+        <v>1048</v>
       </c>
       <c r="N191" s="14" t="s">
         <v>195</v>
@@ -15722,18 +15757,18 @@
       </c>
       <c r="P191" s="66"/>
       <c r="R191" s="58" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="192" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A192" s="25" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="B192" s="26" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="C192" s="26" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="D192" s="24" t="s">
         <v>720</v>
@@ -15747,21 +15782,21 @@
       <c r="G192" s="26" t="s">
         <v>365</v>
       </c>
-      <c r="H192" s="26" t="s">
-        <v>1090</v>
+      <c r="H192" s="24" t="s">
+        <v>1091</v>
       </c>
       <c r="I192" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J192" s="87"/>
       <c r="K192" s="26" t="s">
-        <v>1033</v>
+        <v>1038</v>
       </c>
       <c r="L192" s="26" t="s">
-        <v>1081</v>
+        <v>1038</v>
       </c>
       <c r="M192" s="26" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="N192" s="14" t="s">
         <v>195</v>
@@ -15771,18 +15806,18 @@
       </c>
       <c r="P192" s="66"/>
       <c r="R192" s="58" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="193" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A193" s="25" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="B193" s="26" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C193" s="26" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D193" s="24" t="s">
         <v>720</v>
@@ -15797,20 +15832,20 @@
         <v>365</v>
       </c>
       <c r="H193" s="26" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="I193" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J193" s="87"/>
       <c r="K193" s="26" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="L193" s="26" t="s">
-        <v>1070</v>
+        <v>1079</v>
       </c>
       <c r="M193" s="26" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="N193" s="14" t="s">
         <v>195</v>
@@ -15819,17 +15854,19 @@
         <v>195</v>
       </c>
       <c r="P193" s="66"/>
-      <c r="R193" s="58"/>
+      <c r="R193" s="58" t="s">
+        <v>1050</v>
+      </c>
     </row>
     <row r="194" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A194" s="25" t="s">
-        <v>656</v>
+        <v>1023</v>
       </c>
       <c r="B194" s="26" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C194" s="26" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D194" s="24" t="s">
         <v>720</v>
@@ -15844,20 +15881,20 @@
         <v>365</v>
       </c>
       <c r="H194" s="26" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="I194" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J194" s="87"/>
       <c r="K194" s="26" t="s">
-        <v>1042</v>
+        <v>1031</v>
       </c>
       <c r="L194" s="26" t="s">
-        <v>1042</v>
+        <v>1068</v>
       </c>
       <c r="M194" s="26" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="N194" s="14" t="s">
         <v>195</v>
@@ -15870,13 +15907,13 @@
     </row>
     <row r="195" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A195" s="25" t="s">
-        <v>1015</v>
+        <v>656</v>
       </c>
       <c r="B195" s="26" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="C195" s="26" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="D195" s="24" t="s">
         <v>720</v>
@@ -15890,11 +15927,11 @@
       <c r="G195" s="26" t="s">
         <v>365</v>
       </c>
-      <c r="H195" s="24" t="s">
-        <v>1093</v>
+      <c r="H195" s="26" t="s">
+        <v>1092</v>
       </c>
       <c r="I195" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J195" s="87"/>
       <c r="K195" s="26" t="s">
@@ -15904,7 +15941,7 @@
         <v>1040</v>
       </c>
       <c r="M195" s="26" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="N195" s="14" t="s">
         <v>195</v>
@@ -15917,13 +15954,13 @@
     </row>
     <row r="196" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A196" s="25" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="B196" s="26" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="C196" s="26" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="D196" s="24" t="s">
         <v>720</v>
@@ -15938,20 +15975,20 @@
         <v>365</v>
       </c>
       <c r="H196" s="24" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="I196" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J196" s="87"/>
       <c r="K196" s="26" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="L196" s="26" t="s">
-        <v>1072</v>
+        <v>1038</v>
       </c>
       <c r="M196" s="26" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="N196" s="14" t="s">
         <v>195</v>
@@ -15962,15 +15999,15 @@
       <c r="P196" s="66"/>
       <c r="R196" s="58"/>
     </row>
-    <row r="197" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A197" s="25" t="s">
-        <v>652</v>
+        <v>1014</v>
       </c>
       <c r="B197" s="26" t="s">
-        <v>693</v>
+        <v>916</v>
       </c>
       <c r="C197" s="26" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="D197" s="24" t="s">
         <v>720</v>
@@ -15985,20 +16022,20 @@
         <v>365</v>
       </c>
       <c r="H197" s="24" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="I197" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J197" s="87"/>
       <c r="K197" s="26" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="L197" s="26" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="M197" s="26" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="N197" s="14" t="s">
         <v>195</v>
@@ -16007,20 +16044,17 @@
         <v>195</v>
       </c>
       <c r="P197" s="66"/>
-      <c r="Q197" s="65"/>
-      <c r="R197" s="58" t="s">
-        <v>697</v>
-      </c>
+      <c r="R197" s="58"/>
     </row>
     <row r="198" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A198" s="25" t="s">
-        <v>922</v>
+        <v>652</v>
       </c>
       <c r="B198" s="26" t="s">
-        <v>923</v>
+        <v>693</v>
       </c>
       <c r="C198" s="26" t="s">
-        <v>938</v>
+        <v>920</v>
       </c>
       <c r="D198" s="24" t="s">
         <v>720</v>
@@ -16035,20 +16069,20 @@
         <v>365</v>
       </c>
       <c r="H198" s="24" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I198" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J198" s="87"/>
-      <c r="K198" s="24" t="s">
-        <v>1034</v>
-      </c>
-      <c r="L198" s="24" t="s">
-        <v>1073</v>
+      <c r="K198" s="26" t="s">
+        <v>1039</v>
+      </c>
+      <c r="L198" s="26" t="s">
+        <v>1070</v>
       </c>
       <c r="M198" s="26" t="s">
-        <v>946</v>
+        <v>919</v>
       </c>
       <c r="N198" s="14" t="s">
         <v>195</v>
@@ -16056,19 +16090,21 @@
       <c r="O198" s="14" t="s">
         <v>195</v>
       </c>
+      <c r="P198" s="66"/>
+      <c r="Q198" s="65"/>
       <c r="R198" s="58" t="s">
-        <v>1064</v>
+        <v>697</v>
       </c>
     </row>
     <row r="199" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A199" s="25" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B199" s="26" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="C199" s="26" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D199" s="24" t="s">
         <v>720</v>
@@ -16082,21 +16118,21 @@
       <c r="G199" s="26" t="s">
         <v>365</v>
       </c>
-      <c r="H199" s="26" t="s">
-        <v>1090</v>
+      <c r="H199" s="24" t="s">
+        <v>1089</v>
       </c>
       <c r="I199" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J199" s="87"/>
-      <c r="K199" s="26" t="s">
-        <v>1033</v>
-      </c>
-      <c r="L199" s="26" t="s">
-        <v>1080</v>
+      <c r="K199" s="24" t="s">
+        <v>1032</v>
+      </c>
+      <c r="L199" s="24" t="s">
+        <v>1071</v>
       </c>
       <c r="M199" s="26" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="N199" s="14" t="s">
         <v>195</v>
@@ -16104,17 +16140,19 @@
       <c r="O199" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="R199" s="58"/>
+      <c r="R199" s="58" t="s">
+        <v>1062</v>
+      </c>
     </row>
     <row r="200" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A200" s="25" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="B200" s="26" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C200" s="26" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="D200" s="24" t="s">
         <v>720</v>
@@ -16129,20 +16167,20 @@
         <v>365</v>
       </c>
       <c r="H200" s="26" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="I200" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J200" s="87"/>
       <c r="K200" s="26" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="L200" s="26" t="s">
-        <v>1071</v>
+        <v>1078</v>
       </c>
       <c r="M200" s="26" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="N200" s="14" t="s">
         <v>195</v>
@@ -16154,13 +16192,13 @@
     </row>
     <row r="201" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A201" s="25" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="B201" s="26" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="C201" s="26" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="D201" s="24" t="s">
         <v>720</v>
@@ -16174,21 +16212,21 @@
       <c r="G201" s="26" t="s">
         <v>365</v>
       </c>
-      <c r="H201" s="24" t="s">
-        <v>1091</v>
+      <c r="H201" s="26" t="s">
+        <v>1088</v>
       </c>
       <c r="I201" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J201" s="87"/>
-      <c r="K201" s="24" t="s">
-        <v>1034</v>
-      </c>
-      <c r="L201" s="24" t="s">
-        <v>1073</v>
+      <c r="K201" s="26" t="s">
+        <v>1031</v>
+      </c>
+      <c r="L201" s="26" t="s">
+        <v>1069</v>
       </c>
       <c r="M201" s="26" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="N201" s="14" t="s">
         <v>195</v>
@@ -16200,13 +16238,13 @@
     </row>
     <row r="202" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A202" s="25" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="B202" s="26" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="C202" s="26" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="D202" s="24" t="s">
         <v>720</v>
@@ -16221,20 +16259,20 @@
         <v>365</v>
       </c>
       <c r="H202" s="24" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="I202" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J202" s="87"/>
-      <c r="K202" s="26" t="s">
-        <v>1041</v>
-      </c>
-      <c r="L202" s="26" t="s">
-        <v>1072</v>
+      <c r="K202" s="24" t="s">
+        <v>1032</v>
+      </c>
+      <c r="L202" s="24" t="s">
+        <v>1071</v>
       </c>
       <c r="M202" s="26" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="N202" s="14" t="s">
         <v>195</v>
@@ -16246,10 +16284,10 @@
     </row>
     <row r="203" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A203" s="25" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="B203" s="26" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="C203" s="26" t="s">
         <v>940</v>
@@ -16267,20 +16305,20 @@
         <v>365</v>
       </c>
       <c r="H203" s="24" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I203" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J203" s="87"/>
-      <c r="K203" s="24" t="s">
-        <v>1034</v>
-      </c>
-      <c r="L203" s="24" t="s">
-        <v>570</v>
+      <c r="K203" s="26" t="s">
+        <v>1039</v>
+      </c>
+      <c r="L203" s="26" t="s">
+        <v>1070</v>
       </c>
       <c r="M203" s="26" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="N203" s="14" t="s">
         <v>195</v>
@@ -16292,13 +16330,13 @@
     </row>
     <row r="204" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A204" s="25" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="B204" s="26" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C204" s="26" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="D204" s="24" t="s">
         <v>720</v>
@@ -16312,21 +16350,21 @@
       <c r="G204" s="26" t="s">
         <v>365</v>
       </c>
-      <c r="H204" s="26" t="s">
-        <v>1090</v>
+      <c r="H204" s="24" t="s">
+        <v>1089</v>
       </c>
       <c r="I204" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J204" s="87"/>
-      <c r="K204" s="26" t="s">
-        <v>1033</v>
-      </c>
-      <c r="L204" s="26" t="s">
-        <v>1071</v>
+      <c r="K204" s="24" t="s">
+        <v>1032</v>
+      </c>
+      <c r="L204" s="24" t="s">
+        <v>570</v>
       </c>
       <c r="M204" s="26" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="N204" s="14" t="s">
         <v>195</v>
@@ -16336,15 +16374,15 @@
       </c>
       <c r="R204" s="58"/>
     </row>
-    <row r="205" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A205" s="25" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="B205" s="26" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C205" s="26" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D205" s="24" t="s">
         <v>720</v>
@@ -16358,69 +16396,67 @@
       <c r="G205" s="26" t="s">
         <v>365</v>
       </c>
-      <c r="H205" s="24" t="s">
-        <v>1089</v>
+      <c r="H205" s="26" t="s">
+        <v>1088</v>
       </c>
       <c r="I205" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J205" s="87"/>
       <c r="K205" s="26" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="L205" s="26" t="s">
+        <v>1069</v>
+      </c>
+      <c r="M205" s="26" t="s">
+        <v>951</v>
+      </c>
+      <c r="N205" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O205" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="R205" s="58"/>
+    </row>
+    <row r="206" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A206" s="25" t="s">
+        <v>935</v>
+      </c>
+      <c r="B206" s="26" t="s">
+        <v>936</v>
+      </c>
+      <c r="C206" s="26" t="s">
+        <v>944</v>
+      </c>
+      <c r="D206" s="24" t="s">
+        <v>720</v>
+      </c>
+      <c r="E206" s="24" t="s">
+        <v>731</v>
+      </c>
+      <c r="F206" s="24" t="s">
+        <v>731</v>
+      </c>
+      <c r="G206" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="H206" s="24" t="s">
+        <v>1087</v>
+      </c>
+      <c r="I206" s="26" t="s">
+        <v>801</v>
+      </c>
+      <c r="J206" s="87"/>
+      <c r="K206" s="26" t="s">
+        <v>1032</v>
+      </c>
+      <c r="L206" s="26" t="s">
         <v>570</v>
       </c>
-      <c r="M205" s="26" t="s">
-        <v>953</v>
-      </c>
-      <c r="N205" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="O205" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="P205" s="1"/>
-      <c r="Q205"/>
-      <c r="R205" s="58"/>
-    </row>
-    <row r="206" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A206" s="69" t="s">
-        <v>659</v>
-      </c>
-      <c r="B206" s="70" t="s">
-        <v>689</v>
-      </c>
-      <c r="C206" s="70" t="s">
-        <v>728</v>
-      </c>
-      <c r="D206" s="71" t="s">
-        <v>720</v>
-      </c>
-      <c r="E206" s="71" t="s">
-        <v>731</v>
-      </c>
-      <c r="F206" s="71" t="s">
-        <v>731</v>
-      </c>
-      <c r="G206" s="70" t="s">
-        <v>413</v>
-      </c>
-      <c r="H206" s="70" t="s">
-        <v>1087</v>
-      </c>
-      <c r="I206" s="70" t="s">
-        <v>802</v>
-      </c>
-      <c r="J206" s="88"/>
-      <c r="K206" s="71" t="s">
-        <v>1034</v>
-      </c>
-      <c r="L206" s="71" t="s">
-        <v>570</v>
-      </c>
-      <c r="M206" s="70" t="s">
-        <v>118</v>
+      <c r="M206" s="26" t="s">
+        <v>952</v>
       </c>
       <c r="N206" s="14" t="s">
         <v>195</v>
@@ -16428,25 +16464,19 @@
       <c r="O206" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="P206" s="55" t="s">
-        <v>690</v>
-      </c>
-      <c r="Q206" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="R206" s="58" t="s">
-        <v>1</v>
-      </c>
+      <c r="P206" s="1"/>
+      <c r="Q206"/>
+      <c r="R206" s="58"/>
     </row>
     <row r="207" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A207" s="69" t="s">
-        <v>251</v>
+        <v>659</v>
       </c>
       <c r="B207" s="70" t="s">
-        <v>143</v>
+        <v>689</v>
       </c>
       <c r="C207" s="70" t="s">
-        <v>586</v>
+        <v>728</v>
       </c>
       <c r="D207" s="71" t="s">
         <v>720</v>
@@ -16461,20 +16491,20 @@
         <v>413</v>
       </c>
       <c r="H207" s="70" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="I207" s="70" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J207" s="88"/>
       <c r="K207" s="71" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L207" s="71" t="s">
-        <v>1069</v>
+        <v>570</v>
       </c>
       <c r="M207" s="70" t="s">
-        <v>517</v>
+        <v>118</v>
       </c>
       <c r="N207" s="14" t="s">
         <v>195</v>
@@ -16483,24 +16513,24 @@
         <v>195</v>
       </c>
       <c r="P207" s="55" t="s">
-        <v>30</v>
+        <v>690</v>
       </c>
       <c r="Q207" s="55" t="s">
-        <v>471</v>
+        <v>1</v>
       </c>
       <c r="R207" s="58" t="s">
-        <v>162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A208" s="69" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="B208" s="70" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="C208" s="70" t="s">
-        <v>343</v>
+        <v>586</v>
       </c>
       <c r="D208" s="71" t="s">
         <v>720</v>
@@ -16515,20 +16545,20 @@
         <v>413</v>
       </c>
       <c r="H208" s="70" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="I208" s="70" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J208" s="88"/>
       <c r="K208" s="71" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L208" s="71" t="s">
-        <v>570</v>
+        <v>1067</v>
       </c>
       <c r="M208" s="70" t="s">
-        <v>570</v>
+        <v>517</v>
       </c>
       <c r="N208" s="14" t="s">
         <v>195</v>
@@ -16537,24 +16567,24 @@
         <v>195</v>
       </c>
       <c r="P208" s="55" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="Q208" s="55" t="s">
-        <v>1</v>
+        <v>471</v>
       </c>
       <c r="R208" s="58" t="s">
-        <v>1</v>
+        <v>162</v>
       </c>
     </row>
     <row r="209" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A209" s="69" t="s">
-        <v>284</v>
+        <v>218</v>
       </c>
       <c r="B209" s="70" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="C209" s="70" t="s">
-        <v>434</v>
+        <v>343</v>
       </c>
       <c r="D209" s="71" t="s">
         <v>720</v>
@@ -16569,14 +16599,14 @@
         <v>413</v>
       </c>
       <c r="H209" s="70" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="I209" s="70" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J209" s="88"/>
       <c r="K209" s="71" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L209" s="71" t="s">
         <v>570</v>
@@ -16591,24 +16621,24 @@
         <v>195</v>
       </c>
       <c r="P209" s="55" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="Q209" s="55" t="s">
-        <v>471</v>
+        <v>1</v>
       </c>
       <c r="R209" s="58" t="s">
-        <v>118</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A210" s="69" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="B210" s="70" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C210" s="70" t="s">
-        <v>585</v>
+        <v>434</v>
       </c>
       <c r="D210" s="71" t="s">
         <v>720</v>
@@ -16623,20 +16653,20 @@
         <v>413</v>
       </c>
       <c r="H210" s="70" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="I210" s="70" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J210" s="88"/>
       <c r="K210" s="71" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L210" s="71" t="s">
-        <v>1068</v>
+        <v>570</v>
       </c>
       <c r="M210" s="70" t="s">
-        <v>518</v>
+        <v>570</v>
       </c>
       <c r="N210" s="14" t="s">
         <v>195</v>
@@ -16645,24 +16675,24 @@
         <v>195</v>
       </c>
       <c r="P210" s="55" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q210" s="55" t="s">
         <v>471</v>
       </c>
       <c r="R210" s="58" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="211" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18" s="65" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A211" s="69" t="s">
-        <v>220</v>
+        <v>263</v>
       </c>
       <c r="B211" s="70" t="s">
-        <v>102</v>
+        <v>167</v>
       </c>
       <c r="C211" s="70" t="s">
-        <v>345</v>
+        <v>585</v>
       </c>
       <c r="D211" s="71" t="s">
         <v>720</v>
@@ -16677,20 +16707,20 @@
         <v>413</v>
       </c>
       <c r="H211" s="70" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="I211" s="70" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J211" s="88"/>
       <c r="K211" s="71" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L211" s="71" t="s">
-        <v>570</v>
+        <v>1066</v>
       </c>
       <c r="M211" s="70" t="s">
-        <v>118</v>
+        <v>518</v>
       </c>
       <c r="N211" s="14" t="s">
         <v>195</v>
@@ -16699,24 +16729,24 @@
         <v>195</v>
       </c>
       <c r="P211" s="55" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="Q211" s="55" t="s">
-        <v>1</v>
+        <v>471</v>
       </c>
       <c r="R211" s="58" t="s">
-        <v>1</v>
+        <v>164</v>
       </c>
     </row>
     <row r="212" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A212" s="69" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="B212" s="70" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="C212" s="70" t="s">
-        <v>584</v>
+        <v>345</v>
       </c>
       <c r="D212" s="71" t="s">
         <v>720</v>
@@ -16731,20 +16761,20 @@
         <v>413</v>
       </c>
       <c r="H212" s="70" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="I212" s="70" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J212" s="88"/>
       <c r="K212" s="71" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L212" s="71" t="s">
-        <v>1068</v>
+        <v>570</v>
       </c>
       <c r="M212" s="70" t="s">
-        <v>519</v>
+        <v>118</v>
       </c>
       <c r="N212" s="14" t="s">
         <v>195</v>
@@ -16753,24 +16783,24 @@
         <v>195</v>
       </c>
       <c r="P212" s="55" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="Q212" s="55" t="s">
-        <v>471</v>
+        <v>1</v>
       </c>
       <c r="R212" s="58" t="s">
-        <v>149</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A213" s="69" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B213" s="70" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C213" s="70" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D213" s="71" t="s">
         <v>720</v>
@@ -16785,20 +16815,20 @@
         <v>413</v>
       </c>
       <c r="H213" s="70" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="I213" s="70" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J213" s="88"/>
       <c r="K213" s="71" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L213" s="71" t="s">
-        <v>570</v>
+        <v>1066</v>
       </c>
       <c r="M213" s="70" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N213" s="14" t="s">
         <v>195</v>
@@ -16807,24 +16837,24 @@
         <v>195</v>
       </c>
       <c r="P213" s="55" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Q213" s="55" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="R213" s="58" t="s">
-        <v>798</v>
+        <v>149</v>
       </c>
     </row>
     <row r="214" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A214" s="69" t="s">
-        <v>658</v>
+        <v>258</v>
       </c>
       <c r="B214" s="70" t="s">
-        <v>688</v>
+        <v>160</v>
       </c>
       <c r="C214" s="70" t="s">
-        <v>727</v>
+        <v>583</v>
       </c>
       <c r="D214" s="71" t="s">
         <v>720</v>
@@ -16839,20 +16869,20 @@
         <v>413</v>
       </c>
       <c r="H214" s="70" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="I214" s="70" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J214" s="88"/>
       <c r="K214" s="71" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L214" s="71" t="s">
         <v>570</v>
       </c>
       <c r="M214" s="70" t="s">
-        <v>716</v>
+        <v>520</v>
       </c>
       <c r="N214" s="14" t="s">
         <v>195</v>
@@ -16861,24 +16891,24 @@
         <v>195</v>
       </c>
       <c r="P214" s="55" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="Q214" s="55" t="s">
-        <v>1</v>
+        <v>473</v>
       </c>
       <c r="R214" s="58" t="s">
-        <v>716</v>
+        <v>797</v>
       </c>
     </row>
     <row r="215" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A215" s="69" t="s">
-        <v>1026</v>
+        <v>658</v>
       </c>
       <c r="B215" s="70" t="s">
-        <v>954</v>
+        <v>688</v>
       </c>
       <c r="C215" s="70" t="s">
-        <v>955</v>
+        <v>727</v>
       </c>
       <c r="D215" s="71" t="s">
         <v>720</v>
@@ -16893,20 +16923,20 @@
         <v>413</v>
       </c>
       <c r="H215" s="70" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="I215" s="70" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J215" s="88"/>
       <c r="K215" s="71" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L215" s="71" t="s">
-        <v>1067</v>
+        <v>570</v>
       </c>
       <c r="M215" s="70" t="s">
-        <v>956</v>
+        <v>716</v>
       </c>
       <c r="N215" s="14" t="s">
         <v>195</v>
@@ -16914,25 +16944,25 @@
       <c r="O215" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="P215" s="67" t="s">
+      <c r="P215" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="Q215" s="67" t="s">
+      <c r="Q215" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="R215" s="68" t="s">
+      <c r="R215" s="58" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="216" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A216" s="69" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="B216" s="70" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="C216" s="70" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="D216" s="71" t="s">
         <v>720</v>
@@ -16947,20 +16977,20 @@
         <v>413</v>
       </c>
       <c r="H216" s="70" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="I216" s="70" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J216" s="88"/>
       <c r="K216" s="71" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L216" s="71" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="M216" s="70" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="N216" s="14" t="s">
         <v>195</v>
@@ -16968,19 +16998,25 @@
       <c r="O216" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="P216" s="66"/>
-      <c r="Q216" s="65"/>
-      <c r="R216" s="65"/>
+      <c r="P216" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q216" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="R216" s="68" t="s">
+        <v>716</v>
+      </c>
     </row>
     <row r="217" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A217" s="69" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="B217" s="70" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C217" s="70" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="D217" s="71" t="s">
         <v>720</v>
@@ -16995,20 +17031,20 @@
         <v>413</v>
       </c>
       <c r="H217" s="70" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="I217" s="70" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J217" s="88"/>
       <c r="K217" s="71" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L217" s="71" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="M217" s="70" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="N217" s="14" t="s">
         <v>195</v>
@@ -17022,13 +17058,13 @@
     </row>
     <row r="218" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A218" s="69" t="s">
-        <v>1019</v>
+        <v>1026</v>
       </c>
       <c r="B218" s="70" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="C218" s="70" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="D218" s="71" t="s">
         <v>720</v>
@@ -17043,20 +17079,20 @@
         <v>413</v>
       </c>
       <c r="H218" s="70" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="I218" s="70" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J218" s="88"/>
       <c r="K218" s="71" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L218" s="71" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="M218" s="70" t="s">
-        <v>521</v>
+        <v>960</v>
       </c>
       <c r="N218" s="14" t="s">
         <v>195</v>
@@ -17070,13 +17106,13 @@
     </row>
     <row r="219" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A219" s="69" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
       <c r="B219" s="70" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="C219" s="70" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="D219" s="71" t="s">
         <v>720</v>
@@ -17091,17 +17127,17 @@
         <v>413</v>
       </c>
       <c r="H219" s="70" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="I219" s="70" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J219" s="88"/>
       <c r="K219" s="71" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L219" s="71" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="M219" s="70" t="s">
         <v>521</v>
@@ -17118,13 +17154,13 @@
     </row>
     <row r="220" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A220" s="69" t="s">
-        <v>1020</v>
+        <v>1027</v>
       </c>
       <c r="B220" s="70" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="C220" s="70" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="D220" s="71" t="s">
         <v>720</v>
@@ -17139,20 +17175,20 @@
         <v>413</v>
       </c>
       <c r="H220" s="70" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="I220" s="70" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J220" s="88"/>
       <c r="K220" s="71" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L220" s="71" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="M220" s="70" t="s">
-        <v>968</v>
+        <v>521</v>
       </c>
       <c r="N220" s="14" t="s">
         <v>195</v>
@@ -17166,13 +17202,13 @@
     </row>
     <row r="221" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A221" s="69" t="s">
-        <v>969</v>
+        <v>1018</v>
       </c>
       <c r="B221" s="70" t="s">
-        <v>970</v>
+        <v>1099</v>
       </c>
       <c r="C221" s="70" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="D221" s="71" t="s">
         <v>720</v>
@@ -17187,20 +17223,20 @@
         <v>413</v>
       </c>
       <c r="H221" s="70" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="I221" s="70" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J221" s="88"/>
       <c r="K221" s="71" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L221" s="71" t="s">
         <v>1067</v>
       </c>
       <c r="M221" s="70" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="N221" s="14" t="s">
         <v>195</v>
@@ -17208,16 +17244,19 @@
       <c r="O221" s="14" t="s">
         <v>195</v>
       </c>
+      <c r="P221" s="66"/>
+      <c r="Q221" s="65"/>
+      <c r="R221" s="65"/>
     </row>
     <row r="222" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A222" s="69" t="s">
-        <v>1006</v>
+        <v>967</v>
       </c>
       <c r="B222" s="70" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="C222" s="70" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="D222" s="71" t="s">
         <v>720</v>
@@ -17232,20 +17271,20 @@
         <v>413</v>
       </c>
       <c r="H222" s="70" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="I222" s="70" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J222" s="88"/>
       <c r="K222" s="71" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L222" s="71" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="M222" s="70" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="N222" s="14" t="s">
         <v>195</v>
@@ -17256,13 +17295,13 @@
     </row>
     <row r="223" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A223" s="69" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="B223" s="70" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="C223" s="70" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="D223" s="71" t="s">
         <v>720</v>
@@ -17277,20 +17316,20 @@
         <v>413</v>
       </c>
       <c r="H223" s="70" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="I223" s="70" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J223" s="88"/>
-      <c r="K223" s="70" t="s">
-        <v>1033</v>
-      </c>
-      <c r="L223" s="70" t="s">
-        <v>1070</v>
+      <c r="K223" s="71" t="s">
+        <v>1032</v>
+      </c>
+      <c r="L223" s="71" t="s">
+        <v>1065</v>
       </c>
       <c r="M223" s="70" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="N223" s="14" t="s">
         <v>195</v>
@@ -17301,13 +17340,13 @@
     </row>
     <row r="224" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A224" s="69" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="B224" s="70" t="s">
-        <v>1003</v>
+        <v>974</v>
       </c>
       <c r="C224" s="70" t="s">
-        <v>1004</v>
+        <v>975</v>
       </c>
       <c r="D224" s="71" t="s">
         <v>720</v>
@@ -17322,34 +17361,79 @@
         <v>413</v>
       </c>
       <c r="H224" s="70" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="I224" s="70" t="s">
-        <v>802</v>
-      </c>
-      <c r="J224" s="89"/>
-      <c r="K224" s="71" t="s">
-        <v>1034</v>
-      </c>
-      <c r="L224" s="71" t="s">
+        <v>801</v>
+      </c>
+      <c r="J224" s="88"/>
+      <c r="K224" s="70" t="s">
+        <v>1031</v>
+      </c>
+      <c r="L224" s="70" t="s">
+        <v>1068</v>
+      </c>
+      <c r="M224" s="70" t="s">
+        <v>976</v>
+      </c>
+      <c r="N224" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O224" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A225" s="69" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B225" s="70" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C225" s="70" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D225" s="71" t="s">
+        <v>720</v>
+      </c>
+      <c r="E225" s="71" t="s">
+        <v>731</v>
+      </c>
+      <c r="F225" s="71" t="s">
+        <v>731</v>
+      </c>
+      <c r="G225" s="70" t="s">
+        <v>413</v>
+      </c>
+      <c r="H225" s="70" t="s">
+        <v>1086</v>
+      </c>
+      <c r="I225" s="70" t="s">
+        <v>801</v>
+      </c>
+      <c r="J225" s="89"/>
+      <c r="K225" s="71" t="s">
+        <v>1032</v>
+      </c>
+      <c r="L225" s="71" t="s">
         <v>570</v>
       </c>
-      <c r="M224" s="70" t="s">
-        <v>1005</v>
-      </c>
-      <c r="N224" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="O224" s="14" t="s">
+      <c r="M225" s="70" t="s">
+        <v>1003</v>
+      </c>
+      <c r="N225" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O225" s="14" t="s">
         <v>195</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R224">
-    <sortCondition ref="E2:E224"/>
-    <sortCondition ref="F2:F224"/>
-    <sortCondition ref="G2:G224"/>
-    <sortCondition ref="H2:H224"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R225">
+    <sortCondition ref="E2:E225"/>
+    <sortCondition ref="F2:F225"/>
+    <sortCondition ref="G2:G225"/>
+    <sortCondition ref="H2:H225"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="B60" r:id="rId1" display="https://it.wikipedia.org/wiki/Baiyangdian_virus" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -17456,7 +17540,7 @@
         <v>615</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D7" s="44" t="s">
         <v>648</v>
@@ -17515,7 +17599,7 @@
         <v>537</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="I8" s="34"/>
       <c r="J8" s="34" t="s">
@@ -17554,23 +17638,23 @@
         <v>645</v>
       </c>
       <c r="F9" s="47" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G9" s="47" t="s">
         <v>322</v>
       </c>
       <c r="H9" s="47" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="I9" s="47" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J9" s="85"/>
       <c r="K9" s="47" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="L9" s="47" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="M9" s="47" t="s">
         <v>516</v>

--- a/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BF81E6-4D6D-764E-93DE-D783717A8FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F316D80-E5B1-C846-A132-2A14F79CB4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="47480" windowHeight="22740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="removed" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'reference species'!$A$1:$N$121</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'reference species'!$A$1:$N$119</definedName>
   </definedNames>
   <calcPr calcId="140001"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3496" uniqueCount="1017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3477" uniqueCount="1014">
   <si>
     <t>AY632538</t>
   </si>
@@ -2782,9 +2782,6 @@
     <t>Meleagris gallopavo</t>
   </si>
   <si>
-    <t>pubmed_id</t>
-  </si>
-  <si>
     <t>KJ152564</t>
   </si>
   <si>
@@ -2833,9 +2830,6 @@
     <t>MW208799</t>
   </si>
   <si>
-    <t>MW208800</t>
-  </si>
-  <si>
     <t>MW208802</t>
   </si>
   <si>
@@ -2999,9 +2993,6 @@
   </si>
   <si>
     <t>Neuropteran jingmenvirus (OKIAV339)</t>
-  </si>
-  <si>
-    <t>SJrV_Seg3</t>
   </si>
   <si>
     <t>HjrV1_Seg3</t>
@@ -4058,7 +4049,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4144,6 +4135,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="776">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -5264,11 +5256,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P253"/>
+  <dimension ref="A1:P251"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F57" sqref="A1:N253"/>
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8488,13 +8480,15 @@
       </c>
     </row>
     <row r="76" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="36" t="s">
-        <v>943</v>
+      <c r="A76" s="42" t="s">
+        <v>194</v>
       </c>
       <c r="B76" s="36" t="s">
-        <v>952</v>
-      </c>
-      <c r="C76" s="36"/>
+        <v>79</v>
+      </c>
+      <c r="C76" s="36" t="s">
+        <v>296</v>
+      </c>
       <c r="D76" s="36" t="s">
         <v>555</v>
       </c>
@@ -8507,37 +8501,37 @@
       <c r="G76" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="H76" s="20" t="s">
-        <v>602</v>
-      </c>
-      <c r="I76" s="20" t="s">
-        <v>632</v>
-      </c>
-      <c r="J76" s="25" t="s">
-        <v>869</v>
-      </c>
-      <c r="K76" s="25" t="s">
-        <v>823</v>
-      </c>
-      <c r="L76" t="s">
-        <v>953</v>
-      </c>
-      <c r="M76" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="N76" s="8" t="s">
-        <v>162</v>
+      <c r="H76" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="I76" s="19" t="s">
+        <v>632</v>
+      </c>
+      <c r="J76" s="19" t="s">
+        <v>826</v>
+      </c>
+      <c r="K76" s="19" t="s">
+        <v>858</v>
+      </c>
+      <c r="L76" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="M76" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="N76" s="19" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="42" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="B77" s="36" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="C77" s="36" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="D77" s="36" t="s">
         <v>555</v>
@@ -8564,7 +8558,7 @@
         <v>858</v>
       </c>
       <c r="L77" s="19" t="s">
-        <v>297</v>
+        <v>137</v>
       </c>
       <c r="M77" s="19" t="s">
         <v>467</v>
@@ -8575,13 +8569,13 @@
     </row>
     <row r="78" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="42" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="B78" s="36" t="s">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="C78" s="36" t="s">
-        <v>343</v>
+        <v>293</v>
       </c>
       <c r="D78" s="36" t="s">
         <v>555</v>
@@ -8608,7 +8602,7 @@
         <v>858</v>
       </c>
       <c r="L78" s="19" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="M78" s="19" t="s">
         <v>467</v>
@@ -8619,13 +8613,13 @@
     </row>
     <row r="79" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="42" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="B79" s="36" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C79" s="36" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="D79" s="36" t="s">
         <v>555</v>
@@ -8649,27 +8643,27 @@
         <v>826</v>
       </c>
       <c r="K79" s="19" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="L79" s="19" t="s">
-        <v>115</v>
+        <v>304</v>
       </c>
       <c r="M79" s="19" t="s">
         <v>467</v>
       </c>
       <c r="N79" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="42" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B80" s="36" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C80" s="36" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D80" s="36" t="s">
         <v>555</v>
@@ -8696,7 +8690,7 @@
         <v>857</v>
       </c>
       <c r="L80" s="19" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="M80" s="19" t="s">
         <v>467</v>
@@ -8707,13 +8701,13 @@
     </row>
     <row r="81" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A81" s="42" t="s">
-        <v>193</v>
+        <v>482</v>
       </c>
       <c r="B81" s="36" t="s">
-        <v>78</v>
+        <v>481</v>
       </c>
       <c r="C81" s="36" t="s">
-        <v>294</v>
+        <v>484</v>
       </c>
       <c r="D81" s="36" t="s">
         <v>555</v>
@@ -8737,27 +8731,27 @@
         <v>826</v>
       </c>
       <c r="K81" s="19" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="L81" s="19" t="s">
-        <v>295</v>
+        <v>602</v>
       </c>
       <c r="M81" s="19" t="s">
         <v>467</v>
       </c>
       <c r="N81" s="19" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="42" t="s">
-        <v>482</v>
+        <v>207</v>
       </c>
       <c r="B82" s="36" t="s">
-        <v>481</v>
+        <v>95</v>
       </c>
       <c r="C82" s="36" t="s">
-        <v>484</v>
+        <v>315</v>
       </c>
       <c r="D82" s="36" t="s">
         <v>555</v>
@@ -8771,37 +8765,37 @@
       <c r="G82" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="H82" s="19" t="s">
-        <v>372</v>
-      </c>
-      <c r="I82" s="19" t="s">
-        <v>632</v>
-      </c>
-      <c r="J82" s="19" t="s">
+      <c r="H82" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="I82" s="20" t="s">
+        <v>632</v>
+      </c>
+      <c r="J82" s="20" t="s">
         <v>826</v>
       </c>
-      <c r="K82" s="19" t="s">
-        <v>858</v>
-      </c>
-      <c r="L82" s="19" t="s">
-        <v>602</v>
-      </c>
-      <c r="M82" s="19" t="s">
+      <c r="K82" s="20" t="s">
+        <v>857</v>
+      </c>
+      <c r="L82" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="M82" s="20" t="s">
         <v>467</v>
       </c>
-      <c r="N82" s="19" t="s">
-        <v>467</v>
+      <c r="N82" s="20" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="42" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="B83" s="36" t="s">
-        <v>95</v>
+        <v>345</v>
       </c>
       <c r="C83" s="36" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="D83" s="36" t="s">
         <v>555</v>
@@ -8828,7 +8822,7 @@
         <v>857</v>
       </c>
       <c r="L83" s="20" t="s">
-        <v>316</v>
+        <v>140</v>
       </c>
       <c r="M83" s="20" t="s">
         <v>467</v>
@@ -8839,13 +8833,13 @@
     </row>
     <row r="84" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="42" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="B84" s="36" t="s">
-        <v>345</v>
+        <v>89</v>
       </c>
       <c r="C84" s="36" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="D84" s="36" t="s">
         <v>555</v>
@@ -8872,7 +8866,7 @@
         <v>857</v>
       </c>
       <c r="L84" s="20" t="s">
-        <v>140</v>
+        <v>404</v>
       </c>
       <c r="M84" s="20" t="s">
         <v>467</v>
@@ -8883,13 +8877,13 @@
     </row>
     <row r="85" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A85" s="42" t="s">
-        <v>202</v>
+        <v>30</v>
       </c>
       <c r="B85" s="36" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="C85" s="36" t="s">
-        <v>306</v>
+        <v>367</v>
       </c>
       <c r="D85" s="36" t="s">
         <v>555</v>
@@ -8903,37 +8897,35 @@
       <c r="G85" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="H85" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="I85" s="20" t="s">
-        <v>632</v>
-      </c>
-      <c r="J85" s="20" t="s">
-        <v>826</v>
-      </c>
-      <c r="K85" s="20" t="s">
-        <v>857</v>
-      </c>
-      <c r="L85" s="20" t="s">
-        <v>404</v>
-      </c>
-      <c r="M85" s="20" t="s">
-        <v>467</v>
-      </c>
-      <c r="N85" s="20" t="s">
-        <v>486</v>
+      <c r="H85" s="22" t="s">
+        <v>633</v>
+      </c>
+      <c r="I85" s="22" t="s">
+        <v>632</v>
+      </c>
+      <c r="J85" s="22" t="s">
+        <v>825</v>
+      </c>
+      <c r="K85" s="22"/>
+      <c r="L85" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="M85" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="N85" s="22" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A86" s="42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B86" s="36" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C86" s="36" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D86" s="36" t="s">
         <v>555</v>
@@ -8954,28 +8946,28 @@
         <v>632</v>
       </c>
       <c r="J86" s="22" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="K86" s="22"/>
       <c r="L86" s="22" t="s">
-        <v>120</v>
+        <v>369</v>
       </c>
       <c r="M86" s="22" t="s">
         <v>157</v>
       </c>
       <c r="N86" s="22" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="42" t="s">
-        <v>31</v>
+        <v>224</v>
       </c>
       <c r="B87" s="36" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="C87" s="36" t="s">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="D87" s="36" t="s">
         <v>555</v>
@@ -8996,28 +8988,28 @@
         <v>632</v>
       </c>
       <c r="J87" s="22" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="K87" s="22"/>
       <c r="L87" s="22" t="s">
-        <v>369</v>
+        <v>122</v>
       </c>
       <c r="M87" s="22" t="s">
         <v>157</v>
       </c>
       <c r="N87" s="22" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="42" t="s">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="B88" s="36" t="s">
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="C88" s="36" t="s">
-        <v>337</v>
+        <v>269</v>
       </c>
       <c r="D88" s="36" t="s">
         <v>555</v>
@@ -9038,28 +9030,28 @@
         <v>632</v>
       </c>
       <c r="J88" s="22" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="K88" s="22"/>
       <c r="L88" s="22" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="M88" s="22" t="s">
         <v>157</v>
       </c>
       <c r="N88" s="22" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="42" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="B89" s="36" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C89" s="36" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="D89" s="36" t="s">
         <v>555</v>
@@ -9084,7 +9076,7 @@
       </c>
       <c r="K89" s="22"/>
       <c r="L89" s="22" t="s">
-        <v>48</v>
+        <v>300</v>
       </c>
       <c r="M89" s="22" t="s">
         <v>157</v>
@@ -9095,13 +9087,13 @@
     </row>
     <row r="90" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="42" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="B90" s="36" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C90" s="36" t="s">
-        <v>299</v>
+        <v>169</v>
       </c>
       <c r="D90" s="36" t="s">
         <v>555</v>
@@ -9124,26 +9116,28 @@
       <c r="J90" s="22" t="s">
         <v>826</v>
       </c>
-      <c r="K90" s="22"/>
+      <c r="K90" s="22" t="s">
+        <v>859</v>
+      </c>
       <c r="L90" s="22" t="s">
-        <v>300</v>
+        <v>176</v>
       </c>
       <c r="M90" s="22" t="s">
         <v>157</v>
       </c>
       <c r="N90" s="22" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A91" s="42" t="s">
-        <v>186</v>
+        <v>29</v>
       </c>
       <c r="B91" s="36" t="s">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="C91" s="36" t="s">
-        <v>169</v>
+        <v>365</v>
       </c>
       <c r="D91" s="36" t="s">
         <v>555</v>
@@ -9164,30 +9158,28 @@
         <v>632</v>
       </c>
       <c r="J91" s="22" t="s">
-        <v>826</v>
-      </c>
-      <c r="K91" s="22" t="s">
-        <v>859</v>
-      </c>
+        <v>825</v>
+      </c>
+      <c r="K91" s="22"/>
       <c r="L91" s="22" t="s">
-        <v>176</v>
+        <v>366</v>
       </c>
       <c r="M91" s="22" t="s">
         <v>157</v>
       </c>
       <c r="N91" s="22" t="s">
-        <v>905</v>
+        <v>468</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A92" s="42" t="s">
-        <v>29</v>
+        <v>203</v>
       </c>
       <c r="B92" s="36" t="s">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="C92" s="36" t="s">
-        <v>365</v>
+        <v>307</v>
       </c>
       <c r="D92" s="36" t="s">
         <v>555</v>
@@ -9208,28 +9200,30 @@
         <v>632</v>
       </c>
       <c r="J92" s="22" t="s">
-        <v>825</v>
-      </c>
-      <c r="K92" s="22"/>
+        <v>826</v>
+      </c>
+      <c r="K92" s="22" t="s">
+        <v>434</v>
+      </c>
       <c r="L92" s="22" t="s">
-        <v>366</v>
+        <v>88</v>
       </c>
       <c r="M92" s="22" t="s">
         <v>157</v>
       </c>
       <c r="N92" s="22" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A93" s="42" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B93" s="36" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C93" s="36" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="D93" s="36" t="s">
         <v>555</v>
@@ -9267,13 +9261,13 @@
     </row>
     <row r="94" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A94" s="42" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="B94" s="36" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="C94" s="36" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="D94" s="36" t="s">
         <v>555</v>
@@ -9296,28 +9290,26 @@
       <c r="J94" s="22" t="s">
         <v>826</v>
       </c>
-      <c r="K94" s="22" t="s">
-        <v>434</v>
-      </c>
+      <c r="K94" s="22"/>
       <c r="L94" s="22" t="s">
-        <v>88</v>
+        <v>258</v>
       </c>
       <c r="M94" s="22" t="s">
         <v>157</v>
       </c>
       <c r="N94" s="22" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A95" s="42" t="s">
-        <v>178</v>
+        <v>32</v>
       </c>
       <c r="B95" s="36" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="C95" s="36" t="s">
-        <v>257</v>
+        <v>370</v>
       </c>
       <c r="D95" s="36" t="s">
         <v>555</v>
@@ -9338,28 +9330,28 @@
         <v>632</v>
       </c>
       <c r="J95" s="22" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="K95" s="22"/>
       <c r="L95" s="22" t="s">
-        <v>258</v>
+        <v>174</v>
       </c>
       <c r="M95" s="22" t="s">
         <v>157</v>
       </c>
       <c r="N95" s="22" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A96" s="42" t="s">
-        <v>32</v>
+        <v>235</v>
       </c>
       <c r="B96" s="36" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C96" s="36" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="D96" s="36" t="s">
         <v>555</v>
@@ -9380,28 +9372,26 @@
         <v>632</v>
       </c>
       <c r="J96" s="22" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="K96" s="22"/>
-      <c r="L96" s="22" t="s">
-        <v>174</v>
-      </c>
+      <c r="L96" s="22"/>
       <c r="M96" s="22" t="s">
         <v>157</v>
       </c>
       <c r="N96" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A97" s="42" t="s">
-        <v>235</v>
+        <v>184</v>
       </c>
       <c r="B97" s="36" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="C97" s="36" t="s">
-        <v>347</v>
+        <v>288</v>
       </c>
       <c r="D97" s="36" t="s">
         <v>555</v>
@@ -9425,23 +9415,25 @@
         <v>826</v>
       </c>
       <c r="K97" s="22"/>
-      <c r="L97" s="22"/>
+      <c r="L97" s="22" t="s">
+        <v>398</v>
+      </c>
       <c r="M97" s="22" t="s">
         <v>157</v>
       </c>
       <c r="N97" s="22" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A98" s="42" t="s">
-        <v>184</v>
+        <v>4</v>
       </c>
       <c r="B98" s="36" t="s">
-        <v>69</v>
+        <v>158</v>
       </c>
       <c r="C98" s="36" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="D98" s="36" t="s">
         <v>555</v>
@@ -9472,18 +9464,18 @@
         <v>157</v>
       </c>
       <c r="N98" s="22" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A99" s="42" t="s">
-        <v>4</v>
+        <v>223</v>
       </c>
       <c r="B99" s="36" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="C99" s="36" t="s">
-        <v>259</v>
+        <v>336</v>
       </c>
       <c r="D99" s="36" t="s">
         <v>555</v>
@@ -9504,70 +9496,72 @@
         <v>632</v>
       </c>
       <c r="J99" s="22" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="K99" s="22"/>
       <c r="L99" s="22" t="s">
-        <v>398</v>
+        <v>120</v>
       </c>
       <c r="M99" s="22" t="s">
         <v>157</v>
       </c>
       <c r="N99" s="22" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="100" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A100" s="42" t="s">
-        <v>223</v>
-      </c>
-      <c r="B100" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="C100" s="36" t="s">
-        <v>336</v>
-      </c>
-      <c r="D100" s="36" t="s">
-        <v>555</v>
-      </c>
-      <c r="E100" s="36" t="s">
-        <v>497</v>
-      </c>
-      <c r="F100" s="36" t="s">
+      <c r="A100" s="24" t="s">
+        <v>616</v>
+      </c>
+      <c r="B100" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="C100" s="25" t="s">
+        <v>616</v>
+      </c>
+      <c r="D100" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="E100" s="25" t="s">
+        <v>497</v>
+      </c>
+      <c r="F100" s="25" t="s">
         <v>659</v>
       </c>
-      <c r="G100" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="H100" s="22" t="s">
-        <v>633</v>
-      </c>
-      <c r="I100" s="22" t="s">
-        <v>632</v>
-      </c>
-      <c r="J100" s="22" t="s">
-        <v>825</v>
-      </c>
-      <c r="K100" s="22"/>
-      <c r="L100" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="M100" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="N100" s="22" t="s">
-        <v>468</v>
+      <c r="G100" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="H100" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="I100" s="25" t="s">
+        <v>632</v>
+      </c>
+      <c r="J100" s="25" t="s">
+        <v>869</v>
+      </c>
+      <c r="K100" s="25" t="s">
+        <v>828</v>
+      </c>
+      <c r="L100" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="M100" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="N100" s="8" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A101" s="24" t="s">
-        <v>616</v>
+        <v>422</v>
       </c>
       <c r="B101" s="25" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="D101" s="25" t="s">
         <v>500</v>
@@ -9605,13 +9599,13 @@
     </row>
     <row r="102" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A102" s="24" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B102" s="25" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D102" s="25" t="s">
         <v>500</v>
@@ -9635,27 +9629,27 @@
         <v>869</v>
       </c>
       <c r="K102" s="25" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="L102" s="25" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M102" s="8" t="s">
-        <v>485</v>
+        <v>162</v>
       </c>
       <c r="N102" s="8" t="s">
-        <v>469</v>
+        <v>162</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A103" s="24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B103" s="25" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D103" s="25" t="s">
         <v>500</v>
@@ -9679,10 +9673,10 @@
         <v>869</v>
       </c>
       <c r="K103" s="25" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="L103" s="25" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="M103" s="8" t="s">
         <v>162</v>
@@ -9693,13 +9687,13 @@
     </row>
     <row r="104" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A104" s="24" t="s">
-        <v>419</v>
+        <v>492</v>
       </c>
       <c r="B104" s="25" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="D104" s="25" t="s">
         <v>500</v>
@@ -9723,27 +9717,27 @@
         <v>869</v>
       </c>
       <c r="K104" s="25" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="L104" s="25" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M104" s="8" t="s">
-        <v>162</v>
+        <v>485</v>
       </c>
       <c r="N104" s="8" t="s">
-        <v>162</v>
+        <v>469</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A105" s="24" t="s">
-        <v>492</v>
+        <v>421</v>
       </c>
       <c r="B105" s="25" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="D105" s="25" t="s">
         <v>500</v>
@@ -9767,27 +9761,27 @@
         <v>869</v>
       </c>
       <c r="K105" s="25" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="L105" s="25" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M105" s="8" t="s">
-        <v>485</v>
+        <v>162</v>
       </c>
       <c r="N105" s="8" t="s">
-        <v>469</v>
+        <v>162</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A106" s="24" t="s">
-        <v>421</v>
+        <v>476</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D106" s="25" t="s">
         <v>500</v>
@@ -9814,7 +9808,7 @@
         <v>823</v>
       </c>
       <c r="L106" s="25" t="s">
-        <v>429</v>
+        <v>502</v>
       </c>
       <c r="M106" s="8" t="s">
         <v>162</v>
@@ -9825,13 +9819,13 @@
     </row>
     <row r="107" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A107" s="24" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="B107" s="25" t="s">
-        <v>475</v>
+        <v>423</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D107" s="25" t="s">
         <v>500</v>
@@ -9855,27 +9849,27 @@
         <v>869</v>
       </c>
       <c r="K107" s="25" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="L107" s="25" t="s">
-        <v>502</v>
+        <v>432</v>
       </c>
       <c r="M107" s="8" t="s">
-        <v>162</v>
+        <v>485</v>
       </c>
       <c r="N107" s="8" t="s">
-        <v>162</v>
+        <v>469</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A108" s="24" t="s">
-        <v>493</v>
+        <v>613</v>
       </c>
       <c r="B108" s="25" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D108" s="25" t="s">
         <v>500</v>
@@ -9899,27 +9893,27 @@
         <v>869</v>
       </c>
       <c r="K108" s="25" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="L108" s="25" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M108" s="8" t="s">
-        <v>485</v>
+        <v>162</v>
       </c>
       <c r="N108" s="8" t="s">
-        <v>469</v>
+        <v>162</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A109" s="24" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B109" s="25" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D109" s="25" t="s">
         <v>500</v>
@@ -9943,10 +9937,10 @@
         <v>869</v>
       </c>
       <c r="K109" s="25" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="L109" s="25" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="M109" s="8" t="s">
         <v>162</v>
@@ -9957,13 +9951,13 @@
     </row>
     <row r="110" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A110" s="24" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B110" s="25" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D110" s="25" t="s">
         <v>500</v>
@@ -9990,7 +9984,7 @@
         <v>823</v>
       </c>
       <c r="L110" s="25" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="M110" s="8" t="s">
         <v>162</v>
@@ -10000,14 +9994,14 @@
       </c>
     </row>
     <row r="111" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A111" s="24" t="s">
-        <v>615</v>
+      <c r="A111" s="25" t="s">
+        <v>928</v>
       </c>
       <c r="B111" s="25" t="s">
-        <v>424</v>
+        <v>986</v>
       </c>
       <c r="C111" s="25" t="s">
-        <v>620</v>
+        <v>947</v>
       </c>
       <c r="D111" s="25" t="s">
         <v>500</v>
@@ -10034,7 +10028,7 @@
         <v>823</v>
       </c>
       <c r="L111" s="25" t="s">
-        <v>428</v>
+        <v>981</v>
       </c>
       <c r="M111" s="8" t="s">
         <v>162</v>
@@ -10048,10 +10042,10 @@
         <v>929</v>
       </c>
       <c r="B112" s="25" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D112" s="25" t="s">
         <v>500</v>
@@ -10078,7 +10072,7 @@
         <v>823</v>
       </c>
       <c r="L112" s="25" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="M112" s="8" t="s">
         <v>162</v>
@@ -10092,10 +10086,10 @@
         <v>930</v>
       </c>
       <c r="B113" s="25" t="s">
-        <v>986</v>
+        <v>957</v>
       </c>
       <c r="C113" s="25" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D113" s="25" t="s">
         <v>500</v>
@@ -10122,7 +10116,7 @@
         <v>823</v>
       </c>
       <c r="L113" s="25" t="s">
-        <v>984</v>
+        <v>994</v>
       </c>
       <c r="M113" s="8" t="s">
         <v>162</v>
@@ -10136,10 +10130,10 @@
         <v>931</v>
       </c>
       <c r="B114" s="25" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C114" s="25" t="s">
-        <v>951</v>
+        <v>990</v>
       </c>
       <c r="D114" s="25" t="s">
         <v>500</v>
@@ -10166,7 +10160,7 @@
         <v>823</v>
       </c>
       <c r="L114" s="25" t="s">
-        <v>997</v>
+        <v>983</v>
       </c>
       <c r="M114" s="8" t="s">
         <v>162</v>
@@ -10180,10 +10174,10 @@
         <v>932</v>
       </c>
       <c r="B115" s="25" t="s">
-        <v>958</v>
+        <v>987</v>
       </c>
       <c r="C115" s="25" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="D115" s="25" t="s">
         <v>500</v>
@@ -10224,10 +10218,10 @@
         <v>933</v>
       </c>
       <c r="B116" s="25" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="D116" s="25" t="s">
         <v>500</v>
@@ -10254,7 +10248,7 @@
         <v>823</v>
       </c>
       <c r="L116" s="25" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="M116" s="8" t="s">
         <v>162</v>
@@ -10268,10 +10262,10 @@
         <v>934</v>
       </c>
       <c r="B117" s="25" t="s">
-        <v>988</v>
+        <v>957</v>
       </c>
       <c r="C117" s="25" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D117" s="25" t="s">
         <v>500</v>
@@ -10298,7 +10292,7 @@
         <v>823</v>
       </c>
       <c r="L117" s="25" t="s">
-        <v>983</v>
+        <v>994</v>
       </c>
       <c r="M117" s="8" t="s">
         <v>162</v>
@@ -10312,10 +10306,10 @@
         <v>935</v>
       </c>
       <c r="B118" s="25" t="s">
-        <v>986</v>
+        <v>956</v>
       </c>
       <c r="C118" s="25" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="D118" s="25" t="s">
         <v>500</v>
@@ -10342,7 +10336,7 @@
         <v>823</v>
       </c>
       <c r="L118" s="25" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="M118" s="8" t="s">
         <v>162</v>
@@ -10356,10 +10350,10 @@
         <v>936</v>
       </c>
       <c r="B119" s="25" t="s">
-        <v>959</v>
+        <v>987</v>
       </c>
       <c r="C119" s="25" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="D119" s="25" t="s">
         <v>500</v>
@@ -10386,7 +10380,7 @@
         <v>823</v>
       </c>
       <c r="L119" s="25" t="s">
-        <v>997</v>
+        <v>985</v>
       </c>
       <c r="M119" s="8" t="s">
         <v>162</v>
@@ -10397,13 +10391,13 @@
     </row>
     <row r="120" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A120" s="25" t="s">
-        <v>937</v>
+        <v>942</v>
       </c>
       <c r="B120" s="25" t="s">
-        <v>958</v>
+        <v>943</v>
       </c>
       <c r="C120" s="25" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="D120" s="25" t="s">
         <v>500</v>
@@ -10430,7 +10424,7 @@
         <v>823</v>
       </c>
       <c r="L120" s="25" t="s">
-        <v>985</v>
+        <v>995</v>
       </c>
       <c r="M120" s="8" t="s">
         <v>162</v>
@@ -10441,13 +10435,13 @@
     </row>
     <row r="121" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A121" s="25" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
       <c r="B121" s="25" t="s">
-        <v>989</v>
+        <v>943</v>
       </c>
       <c r="C121" s="25" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="D121" s="25" t="s">
         <v>500</v>
@@ -10474,7 +10468,7 @@
         <v>823</v>
       </c>
       <c r="L121" s="25" t="s">
-        <v>987</v>
+        <v>995</v>
       </c>
       <c r="M121" s="8" t="s">
         <v>162</v>
@@ -10485,13 +10479,13 @@
     </row>
     <row r="122" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A122" s="25" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B122" s="25" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C122" s="25" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D122" s="25" t="s">
         <v>500</v>
@@ -10518,7 +10512,7 @@
         <v>823</v>
       </c>
       <c r="L122" s="25" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="M122" s="8" t="s">
         <v>162</v>
@@ -10528,41 +10522,41 @@
       </c>
     </row>
     <row r="123" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A123" s="25" t="s">
-        <v>946</v>
-      </c>
-      <c r="B123" s="25" t="s">
-        <v>945</v>
-      </c>
-      <c r="C123" s="25" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D123" s="25" t="s">
-        <v>500</v>
-      </c>
-      <c r="E123" s="25" t="s">
-        <v>497</v>
-      </c>
-      <c r="F123" s="25" t="s">
+      <c r="A123" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="B123" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C123" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="D123" s="23" t="s">
+        <v>555</v>
+      </c>
+      <c r="E123" s="23" t="s">
+        <v>497</v>
+      </c>
+      <c r="F123" s="23" t="s">
         <v>659</v>
       </c>
-      <c r="G123" s="25" t="s">
-        <v>500</v>
-      </c>
-      <c r="H123" s="25" t="s">
-        <v>500</v>
-      </c>
-      <c r="I123" s="25" t="s">
-        <v>632</v>
-      </c>
-      <c r="J123" s="25" t="s">
-        <v>869</v>
-      </c>
-      <c r="K123" s="25" t="s">
-        <v>823</v>
-      </c>
-      <c r="L123" s="25" t="s">
-        <v>998</v>
+      <c r="G123" s="23" t="s">
+        <v>462</v>
+      </c>
+      <c r="H123" s="23" t="s">
+        <v>888</v>
+      </c>
+      <c r="I123" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="J123" s="23" t="s">
+        <v>826</v>
+      </c>
+      <c r="K123" s="23" t="s">
+        <v>857</v>
+      </c>
+      <c r="L123" s="23" t="s">
+        <v>85</v>
       </c>
       <c r="M123" s="8" t="s">
         <v>162</v>
@@ -10572,41 +10566,41 @@
       </c>
     </row>
     <row r="124" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A124" s="25" t="s">
-        <v>947</v>
-      </c>
-      <c r="B124" s="25" t="s">
-        <v>948</v>
-      </c>
-      <c r="C124" s="25" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D124" s="25" t="s">
-        <v>500</v>
-      </c>
-      <c r="E124" s="25" t="s">
-        <v>497</v>
-      </c>
-      <c r="F124" s="25" t="s">
+      <c r="A124" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="B124" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="C124" s="23" t="s">
+        <v>451</v>
+      </c>
+      <c r="D124" s="23" t="s">
+        <v>555</v>
+      </c>
+      <c r="E124" s="23" t="s">
+        <v>497</v>
+      </c>
+      <c r="F124" s="23" t="s">
         <v>659</v>
       </c>
-      <c r="G124" s="25" t="s">
-        <v>500</v>
-      </c>
-      <c r="H124" s="25" t="s">
-        <v>500</v>
-      </c>
-      <c r="I124" s="25" t="s">
-        <v>632</v>
-      </c>
-      <c r="J124" s="25" t="s">
-        <v>869</v>
-      </c>
-      <c r="K124" s="25" t="s">
-        <v>823</v>
-      </c>
-      <c r="L124" s="25" t="s">
-        <v>999</v>
+      <c r="G124" s="23" t="s">
+        <v>462</v>
+      </c>
+      <c r="H124" s="23" t="s">
+        <v>888</v>
+      </c>
+      <c r="I124" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="J124" s="23" t="s">
+        <v>830</v>
+      </c>
+      <c r="K124" s="23" t="s">
+        <v>870</v>
+      </c>
+      <c r="L124" s="23" t="s">
+        <v>395</v>
       </c>
       <c r="M124" s="8" t="s">
         <v>162</v>
@@ -10617,13 +10611,13 @@
     </row>
     <row r="125" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A125" s="32" t="s">
-        <v>199</v>
+        <v>642</v>
       </c>
       <c r="B125" s="23" t="s">
-        <v>84</v>
+        <v>643</v>
       </c>
       <c r="C125" s="23" t="s">
-        <v>301</v>
+        <v>642</v>
       </c>
       <c r="D125" s="23" t="s">
         <v>555</v>
@@ -10644,13 +10638,13 @@
         <v>632</v>
       </c>
       <c r="J125" s="23" t="s">
-        <v>826</v>
+        <v>869</v>
       </c>
       <c r="K125" s="23" t="s">
-        <v>857</v>
+        <v>823</v>
       </c>
       <c r="L125" s="23" t="s">
-        <v>85</v>
+        <v>644</v>
       </c>
       <c r="M125" s="8" t="s">
         <v>162</v>
@@ -10661,13 +10655,13 @@
     </row>
     <row r="126" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A126" s="32" t="s">
-        <v>389</v>
+        <v>890</v>
       </c>
       <c r="B126" s="23" t="s">
-        <v>394</v>
+        <v>891</v>
       </c>
       <c r="C126" s="23" t="s">
-        <v>451</v>
+        <v>890</v>
       </c>
       <c r="D126" s="23" t="s">
         <v>555</v>
@@ -10688,13 +10682,13 @@
         <v>632</v>
       </c>
       <c r="J126" s="23" t="s">
-        <v>830</v>
+        <v>892</v>
       </c>
       <c r="K126" s="23" t="s">
-        <v>870</v>
+        <v>893</v>
       </c>
       <c r="L126" s="23" t="s">
-        <v>395</v>
+        <v>893</v>
       </c>
       <c r="M126" s="8" t="s">
         <v>162</v>
@@ -10705,13 +10699,13 @@
     </row>
     <row r="127" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A127" s="32" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="B127" s="23" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="D127" s="23" t="s">
         <v>555</v>
@@ -10738,7 +10732,7 @@
         <v>823</v>
       </c>
       <c r="L127" s="23" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="M127" s="8" t="s">
         <v>162</v>
@@ -10749,13 +10743,13 @@
     </row>
     <row r="128" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A128" s="32" t="s">
-        <v>890</v>
+        <v>652</v>
       </c>
       <c r="B128" s="23" t="s">
-        <v>891</v>
+        <v>651</v>
       </c>
       <c r="C128" s="23" t="s">
-        <v>890</v>
+        <v>653</v>
       </c>
       <c r="D128" s="23" t="s">
         <v>555</v>
@@ -10776,13 +10770,13 @@
         <v>632</v>
       </c>
       <c r="J128" s="23" t="s">
-        <v>892</v>
+        <v>869</v>
       </c>
       <c r="K128" s="23" t="s">
-        <v>893</v>
+        <v>823</v>
       </c>
       <c r="L128" s="23" t="s">
-        <v>893</v>
+        <v>654</v>
       </c>
       <c r="M128" s="8" t="s">
         <v>162</v>
@@ -10793,13 +10787,13 @@
     </row>
     <row r="129" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A129" s="32" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="B129" s="23" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="C129" s="23" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="D129" s="23" t="s">
         <v>555</v>
@@ -10826,7 +10820,7 @@
         <v>823</v>
       </c>
       <c r="L129" s="23" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="M129" s="8" t="s">
         <v>162</v>
@@ -10837,13 +10831,13 @@
     </row>
     <row r="130" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A130" s="32" t="s">
-        <v>652</v>
+        <v>387</v>
       </c>
       <c r="B130" s="23" t="s">
-        <v>651</v>
+        <v>390</v>
       </c>
       <c r="C130" s="23" t="s">
-        <v>653</v>
+        <v>606</v>
       </c>
       <c r="D130" s="23" t="s">
         <v>555</v>
@@ -10864,13 +10858,13 @@
         <v>632</v>
       </c>
       <c r="J130" s="23" t="s">
-        <v>869</v>
+        <v>830</v>
       </c>
       <c r="K130" s="23" t="s">
-        <v>823</v>
+        <v>870</v>
       </c>
       <c r="L130" s="23" t="s">
-        <v>654</v>
+        <v>393</v>
       </c>
       <c r="M130" s="8" t="s">
         <v>162</v>
@@ -10881,13 +10875,13 @@
     </row>
     <row r="131" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A131" s="32" t="s">
-        <v>648</v>
+        <v>388</v>
       </c>
       <c r="B131" s="23" t="s">
-        <v>649</v>
+        <v>391</v>
       </c>
       <c r="C131" s="23" t="s">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="D131" s="23" t="s">
         <v>555</v>
@@ -10908,13 +10902,13 @@
         <v>632</v>
       </c>
       <c r="J131" s="23" t="s">
-        <v>869</v>
+        <v>831</v>
       </c>
       <c r="K131" s="23" t="s">
-        <v>823</v>
+        <v>831</v>
       </c>
       <c r="L131" s="23" t="s">
-        <v>655</v>
+        <v>392</v>
       </c>
       <c r="M131" s="8" t="s">
         <v>162</v>
@@ -10925,13 +10919,13 @@
     </row>
     <row r="132" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A132" s="32" t="s">
-        <v>387</v>
+        <v>568</v>
       </c>
       <c r="B132" s="23" t="s">
-        <v>390</v>
+        <v>573</v>
       </c>
       <c r="C132" s="23" t="s">
-        <v>606</v>
+        <v>577</v>
       </c>
       <c r="D132" s="23" t="s">
         <v>555</v>
@@ -10946,19 +10940,19 @@
         <v>462</v>
       </c>
       <c r="H132" s="23" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="I132" s="23" t="s">
         <v>632</v>
       </c>
       <c r="J132" s="23" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K132" s="23" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="L132" s="23" t="s">
-        <v>393</v>
+        <v>1000</v>
       </c>
       <c r="M132" s="8" t="s">
         <v>162</v>
@@ -10969,13 +10963,13 @@
     </row>
     <row r="133" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A133" s="32" t="s">
-        <v>388</v>
+        <v>571</v>
       </c>
       <c r="B133" s="23" t="s">
-        <v>391</v>
+        <v>575</v>
       </c>
       <c r="C133" s="23" t="s">
-        <v>605</v>
+        <v>578</v>
       </c>
       <c r="D133" s="23" t="s">
         <v>555</v>
@@ -10990,19 +10984,19 @@
         <v>462</v>
       </c>
       <c r="H133" s="23" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="I133" s="23" t="s">
         <v>632</v>
       </c>
       <c r="J133" s="23" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="K133" s="23" t="s">
-        <v>831</v>
+        <v>866</v>
       </c>
       <c r="L133" s="23" t="s">
-        <v>392</v>
+        <v>1001</v>
       </c>
       <c r="M133" s="8" t="s">
         <v>162</v>
@@ -11013,13 +11007,13 @@
     </row>
     <row r="134" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A134" s="32" t="s">
-        <v>568</v>
+        <v>638</v>
       </c>
       <c r="B134" s="23" t="s">
-        <v>573</v>
+        <v>639</v>
       </c>
       <c r="C134" s="23" t="s">
-        <v>577</v>
+        <v>640</v>
       </c>
       <c r="D134" s="23" t="s">
         <v>555</v>
@@ -11034,19 +11028,19 @@
         <v>462</v>
       </c>
       <c r="H134" s="23" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="I134" s="23" t="s">
         <v>632</v>
       </c>
       <c r="J134" s="23" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="K134" s="23" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="L134" s="23" t="s">
-        <v>1003</v>
+        <v>641</v>
       </c>
       <c r="M134" s="8" t="s">
         <v>162</v>
@@ -11056,41 +11050,41 @@
       </c>
     </row>
     <row r="135" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A135" s="32" t="s">
-        <v>571</v>
-      </c>
-      <c r="B135" s="23" t="s">
-        <v>575</v>
-      </c>
-      <c r="C135" s="23" t="s">
-        <v>578</v>
-      </c>
-      <c r="D135" s="23" t="s">
-        <v>555</v>
-      </c>
-      <c r="E135" s="23" t="s">
-        <v>497</v>
-      </c>
-      <c r="F135" s="23" t="s">
-        <v>659</v>
-      </c>
-      <c r="G135" s="23" t="s">
-        <v>462</v>
-      </c>
-      <c r="H135" s="23" t="s">
-        <v>887</v>
-      </c>
-      <c r="I135" s="23" t="s">
-        <v>632</v>
-      </c>
-      <c r="J135" s="23" t="s">
-        <v>829</v>
-      </c>
-      <c r="K135" s="23" t="s">
-        <v>866</v>
-      </c>
-      <c r="L135" s="23" t="s">
-        <v>1004</v>
+      <c r="A135" s="43" t="s">
+        <v>411</v>
+      </c>
+      <c r="B135" s="44" t="s">
+        <v>412</v>
+      </c>
+      <c r="C135" s="45" t="s">
+        <v>455</v>
+      </c>
+      <c r="D135" s="45" t="s">
+        <v>555</v>
+      </c>
+      <c r="E135" s="45" t="s">
+        <v>497</v>
+      </c>
+      <c r="F135" s="45" t="s">
+        <v>660</v>
+      </c>
+      <c r="G135" s="45" t="s">
+        <v>657</v>
+      </c>
+      <c r="H135" s="45" t="s">
+        <v>632</v>
+      </c>
+      <c r="I135" s="45" t="s">
+        <v>632</v>
+      </c>
+      <c r="J135" s="45" t="s">
+        <v>869</v>
+      </c>
+      <c r="K135" s="45" t="s">
+        <v>823</v>
+      </c>
+      <c r="L135" s="45" t="s">
+        <v>417</v>
       </c>
       <c r="M135" s="8" t="s">
         <v>162</v>
@@ -11100,41 +11094,41 @@
       </c>
     </row>
     <row r="136" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A136" s="32" t="s">
-        <v>638</v>
-      </c>
-      <c r="B136" s="23" t="s">
-        <v>639</v>
-      </c>
-      <c r="C136" s="23" t="s">
-        <v>640</v>
-      </c>
-      <c r="D136" s="23" t="s">
-        <v>555</v>
-      </c>
-      <c r="E136" s="23" t="s">
-        <v>497</v>
-      </c>
-      <c r="F136" s="23" t="s">
-        <v>659</v>
-      </c>
-      <c r="G136" s="23" t="s">
-        <v>462</v>
-      </c>
-      <c r="H136" s="23" t="s">
-        <v>889</v>
-      </c>
-      <c r="I136" s="23" t="s">
-        <v>632</v>
-      </c>
-      <c r="J136" s="23" t="s">
-        <v>830</v>
-      </c>
-      <c r="K136" s="23" t="s">
-        <v>870</v>
-      </c>
-      <c r="L136" s="23" t="s">
-        <v>641</v>
+      <c r="A136" s="43" t="s">
+        <v>409</v>
+      </c>
+      <c r="B136" s="44" t="s">
+        <v>414</v>
+      </c>
+      <c r="C136" s="45" t="s">
+        <v>452</v>
+      </c>
+      <c r="D136" s="45" t="s">
+        <v>555</v>
+      </c>
+      <c r="E136" s="45" t="s">
+        <v>497</v>
+      </c>
+      <c r="F136" s="45" t="s">
+        <v>660</v>
+      </c>
+      <c r="G136" s="45" t="s">
+        <v>657</v>
+      </c>
+      <c r="H136" s="45" t="s">
+        <v>632</v>
+      </c>
+      <c r="I136" s="45" t="s">
+        <v>632</v>
+      </c>
+      <c r="J136" s="45" t="s">
+        <v>869</v>
+      </c>
+      <c r="K136" s="45" t="s">
+        <v>823</v>
+      </c>
+      <c r="L136" s="45" t="s">
+        <v>415</v>
       </c>
       <c r="M136" s="8" t="s">
         <v>162</v>
@@ -11144,15 +11138,13 @@
       </c>
     </row>
     <row r="137" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A137" s="43" t="s">
-        <v>411</v>
-      </c>
-      <c r="B137" s="44" t="s">
-        <v>412</v>
-      </c>
-      <c r="C137" s="45" t="s">
-        <v>455</v>
-      </c>
+      <c r="A137" s="47" t="s">
+        <v>918</v>
+      </c>
+      <c r="B137" s="45" t="s">
+        <v>952</v>
+      </c>
+      <c r="C137" s="45"/>
       <c r="D137" s="45" t="s">
         <v>555</v>
       </c>
@@ -11166,7 +11158,7 @@
         <v>657</v>
       </c>
       <c r="H137" s="45" t="s">
-        <v>632</v>
+        <v>597</v>
       </c>
       <c r="I137" s="45" t="s">
         <v>632</v>
@@ -11178,7 +11170,7 @@
         <v>823</v>
       </c>
       <c r="L137" s="45" t="s">
-        <v>417</v>
+        <v>971</v>
       </c>
       <c r="M137" s="8" t="s">
         <v>162</v>
@@ -11188,15 +11180,13 @@
       </c>
     </row>
     <row r="138" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A138" s="43" t="s">
-        <v>409</v>
-      </c>
-      <c r="B138" s="44" t="s">
-        <v>414</v>
-      </c>
-      <c r="C138" s="45" t="s">
-        <v>452</v>
-      </c>
+      <c r="A138" s="47" t="s">
+        <v>919</v>
+      </c>
+      <c r="B138" s="45" t="s">
+        <v>953</v>
+      </c>
+      <c r="C138" s="45"/>
       <c r="D138" s="45" t="s">
         <v>555</v>
       </c>
@@ -11210,7 +11200,7 @@
         <v>657</v>
       </c>
       <c r="H138" s="45" t="s">
-        <v>632</v>
+        <v>597</v>
       </c>
       <c r="I138" s="45" t="s">
         <v>632</v>
@@ -11222,7 +11212,7 @@
         <v>823</v>
       </c>
       <c r="L138" s="45" t="s">
-        <v>415</v>
+        <v>972</v>
       </c>
       <c r="M138" s="8" t="s">
         <v>162</v>
@@ -11232,11 +11222,11 @@
       </c>
     </row>
     <row r="139" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A139" s="45" t="s">
-        <v>919</v>
+      <c r="A139" s="47" t="s">
+        <v>920</v>
       </c>
       <c r="B139" s="45" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="C139" s="45"/>
       <c r="D139" s="45" t="s">
@@ -11274,11 +11264,11 @@
       </c>
     </row>
     <row r="140" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A140" s="45" t="s">
-        <v>920</v>
+      <c r="A140" s="47" t="s">
+        <v>921</v>
       </c>
       <c r="B140" s="45" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="C140" s="45"/>
       <c r="D140" s="45" t="s">
@@ -11316,8 +11306,8 @@
       </c>
     </row>
     <row r="141" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A141" s="45" t="s">
-        <v>921</v>
+      <c r="A141" s="47" t="s">
+        <v>922</v>
       </c>
       <c r="B141" s="45" t="s">
         <v>960</v>
@@ -11358,8 +11348,8 @@
       </c>
     </row>
     <row r="142" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A142" s="45" t="s">
-        <v>922</v>
+      <c r="A142" s="47" t="s">
+        <v>923</v>
       </c>
       <c r="B142" s="45" t="s">
         <v>961</v>
@@ -11400,11 +11390,11 @@
       </c>
     </row>
     <row r="143" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A143" s="45" t="s">
-        <v>923</v>
+      <c r="A143" s="47" t="s">
+        <v>924</v>
       </c>
       <c r="B143" s="45" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="C143" s="45"/>
       <c r="D143" s="45" t="s">
@@ -11442,11 +11432,11 @@
       </c>
     </row>
     <row r="144" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A144" s="45" t="s">
-        <v>924</v>
+      <c r="A144" s="47" t="s">
+        <v>925</v>
       </c>
       <c r="B144" s="45" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="C144" s="45"/>
       <c r="D144" s="45" t="s">
@@ -11484,11 +11474,11 @@
       </c>
     </row>
     <row r="145" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A145" s="45" t="s">
-        <v>925</v>
+      <c r="A145" s="47" t="s">
+        <v>926</v>
       </c>
       <c r="B145" s="45" t="s">
-        <v>956</v>
+        <v>962</v>
       </c>
       <c r="C145" s="45"/>
       <c r="D145" s="45" t="s">
@@ -11504,7 +11494,7 @@
         <v>657</v>
       </c>
       <c r="H145" s="45" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I145" s="45" t="s">
         <v>632</v>
@@ -11526,11 +11516,11 @@
       </c>
     </row>
     <row r="146" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A146" s="45" t="s">
-        <v>926</v>
+      <c r="A146" s="47" t="s">
+        <v>927</v>
       </c>
       <c r="B146" s="45" t="s">
-        <v>957</v>
+        <v>963</v>
       </c>
       <c r="C146" s="45"/>
       <c r="D146" s="45" t="s">
@@ -11546,7 +11536,7 @@
         <v>657</v>
       </c>
       <c r="H146" s="45" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I146" s="45" t="s">
         <v>632</v>
@@ -11568,11 +11558,11 @@
       </c>
     </row>
     <row r="147" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A147" s="45" t="s">
-        <v>927</v>
+      <c r="A147" s="47" t="s">
+        <v>937</v>
       </c>
       <c r="B147" s="45" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="C147" s="45"/>
       <c r="D147" s="45" t="s">
@@ -11588,7 +11578,7 @@
         <v>657</v>
       </c>
       <c r="H147" s="45" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="I147" s="45" t="s">
         <v>632</v>
@@ -11600,7 +11590,7 @@
         <v>823</v>
       </c>
       <c r="L147" s="45" t="s">
-        <v>981</v>
+        <v>967</v>
       </c>
       <c r="M147" s="8" t="s">
         <v>162</v>
@@ -11610,8 +11600,8 @@
       </c>
     </row>
     <row r="148" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A148" s="45" t="s">
-        <v>928</v>
+      <c r="A148" s="47" t="s">
+        <v>938</v>
       </c>
       <c r="B148" s="45" t="s">
         <v>965</v>
@@ -11630,7 +11620,7 @@
         <v>657</v>
       </c>
       <c r="H148" s="45" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="I148" s="45" t="s">
         <v>632</v>
@@ -11642,7 +11632,7 @@
         <v>823</v>
       </c>
       <c r="L148" s="45" t="s">
-        <v>982</v>
+        <v>968</v>
       </c>
       <c r="M148" s="8" t="s">
         <v>162</v>
@@ -11652,11 +11642,11 @@
       </c>
     </row>
     <row r="149" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A149" s="45" t="s">
+      <c r="A149" s="47" t="s">
         <v>939</v>
       </c>
       <c r="B149" s="45" t="s">
-        <v>968</v>
+        <v>1002</v>
       </c>
       <c r="C149" s="45"/>
       <c r="D149" s="45" t="s">
@@ -11694,11 +11684,11 @@
       </c>
     </row>
     <row r="150" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A150" s="45" t="s">
+      <c r="A150" s="47" t="s">
         <v>940</v>
       </c>
       <c r="B150" s="45" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="C150" s="45"/>
       <c r="D150" s="45" t="s">
@@ -11714,7 +11704,7 @@
         <v>657</v>
       </c>
       <c r="H150" s="45" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I150" s="45" t="s">
         <v>632</v>
@@ -11736,13 +11726,15 @@
       </c>
     </row>
     <row r="151" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A151" s="45" t="s">
-        <v>941</v>
-      </c>
-      <c r="B151" s="45" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C151" s="45"/>
+      <c r="A151" s="43" t="s">
+        <v>410</v>
+      </c>
+      <c r="B151" s="44" t="s">
+        <v>413</v>
+      </c>
+      <c r="C151" s="45" t="s">
+        <v>453</v>
+      </c>
       <c r="D151" s="45" t="s">
         <v>555</v>
       </c>
@@ -11756,7 +11748,7 @@
         <v>657</v>
       </c>
       <c r="H151" s="45" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I151" s="45" t="s">
         <v>632</v>
@@ -11765,10 +11757,10 @@
         <v>869</v>
       </c>
       <c r="K151" s="45" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="L151" s="45" t="s">
-        <v>971</v>
+        <v>416</v>
       </c>
       <c r="M151" s="8" t="s">
         <v>162</v>
@@ -11778,13 +11770,15 @@
       </c>
     </row>
     <row r="152" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A152" s="45" t="s">
-        <v>942</v>
-      </c>
-      <c r="B152" s="45" t="s">
-        <v>966</v>
-      </c>
-      <c r="C152" s="45"/>
+      <c r="A152" s="43" t="s">
+        <v>375</v>
+      </c>
+      <c r="B152" s="44" t="s">
+        <v>381</v>
+      </c>
+      <c r="C152" s="45" t="s">
+        <v>378</v>
+      </c>
       <c r="D152" s="45" t="s">
         <v>555</v>
       </c>
@@ -11804,13 +11798,13 @@
         <v>632</v>
       </c>
       <c r="J152" s="45" t="s">
-        <v>869</v>
+        <v>835</v>
       </c>
       <c r="K152" s="45" t="s">
-        <v>823</v>
+        <v>835</v>
       </c>
       <c r="L152" s="45" t="s">
-        <v>972</v>
+        <v>406</v>
       </c>
       <c r="M152" s="8" t="s">
         <v>162</v>
@@ -11821,13 +11815,13 @@
     </row>
     <row r="153" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A153" s="43" t="s">
-        <v>410</v>
+        <v>379</v>
       </c>
       <c r="B153" s="44" t="s">
-        <v>413</v>
+        <v>376</v>
       </c>
       <c r="C153" s="45" t="s">
-        <v>453</v>
+        <v>377</v>
       </c>
       <c r="D153" s="45" t="s">
         <v>555</v>
@@ -11848,13 +11842,13 @@
         <v>632</v>
       </c>
       <c r="J153" s="45" t="s">
-        <v>869</v>
+        <v>835</v>
       </c>
       <c r="K153" s="45" t="s">
-        <v>828</v>
+        <v>835</v>
       </c>
       <c r="L153" s="45" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="M153" s="8" t="s">
         <v>162</v>
@@ -11865,13 +11859,13 @@
     </row>
     <row r="154" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A154" s="43" t="s">
-        <v>375</v>
+        <v>470</v>
       </c>
       <c r="B154" s="44" t="s">
-        <v>381</v>
+        <v>471</v>
       </c>
       <c r="C154" s="45" t="s">
-        <v>378</v>
+        <v>609</v>
       </c>
       <c r="D154" s="45" t="s">
         <v>555</v>
@@ -11892,13 +11886,13 @@
         <v>632</v>
       </c>
       <c r="J154" s="45" t="s">
-        <v>835</v>
+        <v>869</v>
       </c>
       <c r="K154" s="45" t="s">
-        <v>835</v>
+        <v>823</v>
       </c>
       <c r="L154" s="45" t="s">
-        <v>406</v>
+        <v>913</v>
       </c>
       <c r="M154" s="8" t="s">
         <v>162</v>
@@ -11909,13 +11903,13 @@
     </row>
     <row r="155" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A155" s="43" t="s">
-        <v>379</v>
+        <v>586</v>
       </c>
       <c r="B155" s="44" t="s">
-        <v>376</v>
+        <v>587</v>
       </c>
       <c r="C155" s="45" t="s">
-        <v>377</v>
+        <v>610</v>
       </c>
       <c r="D155" s="45" t="s">
         <v>555</v>
@@ -11936,13 +11930,13 @@
         <v>632</v>
       </c>
       <c r="J155" s="45" t="s">
-        <v>835</v>
+        <v>869</v>
       </c>
       <c r="K155" s="45" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="L155" s="45" t="s">
-        <v>405</v>
+        <v>1003</v>
       </c>
       <c r="M155" s="8" t="s">
         <v>162</v>
@@ -11953,13 +11947,13 @@
     </row>
     <row r="156" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A156" s="43" t="s">
-        <v>470</v>
+        <v>588</v>
       </c>
       <c r="B156" s="44" t="s">
-        <v>471</v>
+        <v>589</v>
       </c>
       <c r="C156" s="45" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D156" s="45" t="s">
         <v>555</v>
@@ -11983,10 +11977,10 @@
         <v>869</v>
       </c>
       <c r="K156" s="45" t="s">
-        <v>823</v>
+        <v>837</v>
       </c>
       <c r="L156" s="45" t="s">
-        <v>913</v>
+        <v>1004</v>
       </c>
       <c r="M156" s="8" t="s">
         <v>162</v>
@@ -11997,13 +11991,13 @@
     </row>
     <row r="157" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A157" s="43" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="B157" s="44" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="C157" s="45" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D157" s="45" t="s">
         <v>555</v>
@@ -12027,10 +12021,10 @@
         <v>869</v>
       </c>
       <c r="K157" s="45" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
       <c r="L157" s="45" t="s">
-        <v>1006</v>
+        <v>487</v>
       </c>
       <c r="M157" s="8" t="s">
         <v>162</v>
@@ -12041,13 +12035,13 @@
     </row>
     <row r="158" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A158" s="43" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="B158" s="44" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="C158" s="45" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="D158" s="45" t="s">
         <v>555</v>
@@ -12071,10 +12065,10 @@
         <v>869</v>
       </c>
       <c r="K158" s="45" t="s">
-        <v>837</v>
+        <v>823</v>
       </c>
       <c r="L158" s="45" t="s">
-        <v>1007</v>
+        <v>598</v>
       </c>
       <c r="M158" s="8" t="s">
         <v>162</v>
@@ -12085,13 +12079,13 @@
     </row>
     <row r="159" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A159" s="43" t="s">
-        <v>592</v>
+        <v>459</v>
       </c>
       <c r="B159" s="44" t="s">
-        <v>593</v>
+        <v>380</v>
       </c>
       <c r="C159" s="45" t="s">
-        <v>611</v>
+        <v>454</v>
       </c>
       <c r="D159" s="45" t="s">
         <v>555</v>
@@ -12106,7 +12100,7 @@
         <v>657</v>
       </c>
       <c r="H159" s="45" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="I159" s="45" t="s">
         <v>632</v>
@@ -12118,7 +12112,7 @@
         <v>823</v>
       </c>
       <c r="L159" s="45" t="s">
-        <v>487</v>
+        <v>383</v>
       </c>
       <c r="M159" s="8" t="s">
         <v>162</v>
@@ -12129,13 +12123,13 @@
     </row>
     <row r="160" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A160" s="43" t="s">
-        <v>594</v>
+        <v>460</v>
       </c>
       <c r="B160" s="44" t="s">
-        <v>595</v>
+        <v>382</v>
       </c>
       <c r="C160" s="45" t="s">
-        <v>612</v>
+        <v>498</v>
       </c>
       <c r="D160" s="45" t="s">
         <v>555</v>
@@ -12150,7 +12144,7 @@
         <v>657</v>
       </c>
       <c r="H160" s="45" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="I160" s="45" t="s">
         <v>632</v>
@@ -12162,7 +12156,7 @@
         <v>823</v>
       </c>
       <c r="L160" s="45" t="s">
-        <v>598</v>
+        <v>384</v>
       </c>
       <c r="M160" s="8" t="s">
         <v>162</v>
@@ -12173,13 +12167,13 @@
     </row>
     <row r="161" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A161" s="43" t="s">
-        <v>459</v>
+        <v>590</v>
       </c>
       <c r="B161" s="44" t="s">
-        <v>380</v>
+        <v>591</v>
       </c>
       <c r="C161" s="45" t="s">
-        <v>454</v>
+        <v>607</v>
       </c>
       <c r="D161" s="45" t="s">
         <v>555</v>
@@ -12206,7 +12200,7 @@
         <v>823</v>
       </c>
       <c r="L161" s="45" t="s">
-        <v>383</v>
+        <v>1005</v>
       </c>
       <c r="M161" s="8" t="s">
         <v>162</v>
@@ -12216,41 +12210,41 @@
       </c>
     </row>
     <row r="162" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A162" s="43" t="s">
-        <v>460</v>
-      </c>
-      <c r="B162" s="44" t="s">
-        <v>382</v>
-      </c>
-      <c r="C162" s="45" t="s">
-        <v>498</v>
-      </c>
-      <c r="D162" s="45" t="s">
-        <v>555</v>
-      </c>
-      <c r="E162" s="45" t="s">
-        <v>497</v>
-      </c>
-      <c r="F162" s="45" t="s">
+      <c r="A162" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="B162" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C162" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="D162" s="28" t="s">
+        <v>555</v>
+      </c>
+      <c r="E162" s="28" t="s">
+        <v>497</v>
+      </c>
+      <c r="F162" s="28" t="s">
         <v>660</v>
       </c>
-      <c r="G162" s="45" t="s">
-        <v>657</v>
-      </c>
-      <c r="H162" s="45" t="s">
-        <v>597</v>
-      </c>
-      <c r="I162" s="45" t="s">
-        <v>632</v>
-      </c>
-      <c r="J162" s="45" t="s">
-        <v>869</v>
-      </c>
-      <c r="K162" s="45" t="s">
-        <v>823</v>
-      </c>
-      <c r="L162" s="45" t="s">
-        <v>384</v>
+      <c r="G162" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="H162" s="28" t="s">
+        <v>881</v>
+      </c>
+      <c r="I162" s="28" t="s">
+        <v>632</v>
+      </c>
+      <c r="J162" s="28" t="s">
+        <v>826</v>
+      </c>
+      <c r="K162" s="28" t="s">
+        <v>859</v>
+      </c>
+      <c r="L162" s="28" t="s">
+        <v>103</v>
       </c>
       <c r="M162" s="8" t="s">
         <v>162</v>
@@ -12260,41 +12254,41 @@
       </c>
     </row>
     <row r="163" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A163" s="43" t="s">
-        <v>590</v>
-      </c>
-      <c r="B163" s="44" t="s">
-        <v>591</v>
-      </c>
-      <c r="C163" s="45" t="s">
-        <v>607</v>
-      </c>
-      <c r="D163" s="45" t="s">
-        <v>555</v>
-      </c>
-      <c r="E163" s="45" t="s">
-        <v>497</v>
-      </c>
-      <c r="F163" s="45" t="s">
+      <c r="A163" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="B163" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C163" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="D163" s="28" t="s">
+        <v>555</v>
+      </c>
+      <c r="E163" s="28" t="s">
+        <v>497</v>
+      </c>
+      <c r="F163" s="28" t="s">
         <v>660</v>
       </c>
-      <c r="G163" s="45" t="s">
-        <v>657</v>
-      </c>
-      <c r="H163" s="45" t="s">
-        <v>597</v>
-      </c>
-      <c r="I163" s="45" t="s">
-        <v>632</v>
-      </c>
-      <c r="J163" s="45" t="s">
-        <v>869</v>
-      </c>
-      <c r="K163" s="45" t="s">
-        <v>823</v>
-      </c>
-      <c r="L163" s="45" t="s">
-        <v>1008</v>
+      <c r="G163" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="H163" s="28" t="s">
+        <v>881</v>
+      </c>
+      <c r="I163" s="28" t="s">
+        <v>632</v>
+      </c>
+      <c r="J163" s="28" t="s">
+        <v>826</v>
+      </c>
+      <c r="K163" s="28" t="s">
+        <v>859</v>
+      </c>
+      <c r="L163" s="28" t="s">
+        <v>386</v>
       </c>
       <c r="M163" s="8" t="s">
         <v>162</v>
@@ -12305,13 +12299,13 @@
     </row>
     <row r="164" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A164" s="26" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="B164" s="27" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="C164" s="28" t="s">
-        <v>283</v>
+        <v>442</v>
       </c>
       <c r="D164" s="28" t="s">
         <v>555</v>
@@ -12338,7 +12332,7 @@
         <v>859</v>
       </c>
       <c r="L164" s="28" t="s">
-        <v>103</v>
+        <v>176</v>
       </c>
       <c r="M164" s="8" t="s">
         <v>162</v>
@@ -12349,13 +12343,13 @@
     </row>
     <row r="165" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A165" s="26" t="s">
-        <v>191</v>
+        <v>250</v>
       </c>
       <c r="B165" s="27" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="C165" s="28" t="s">
-        <v>292</v>
+        <v>339</v>
       </c>
       <c r="D165" s="28" t="s">
         <v>555</v>
@@ -12382,7 +12376,7 @@
         <v>859</v>
       </c>
       <c r="L165" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M165" s="8" t="s">
         <v>162</v>
@@ -12393,13 +12387,13 @@
     </row>
     <row r="166" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A166" s="26" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="B166" s="27" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="C166" s="28" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D166" s="28" t="s">
         <v>555</v>
@@ -12426,7 +12420,7 @@
         <v>859</v>
       </c>
       <c r="L166" s="28" t="s">
-        <v>176</v>
+        <v>386</v>
       </c>
       <c r="M166" s="8" t="s">
         <v>162</v>
@@ -12437,13 +12431,13 @@
     </row>
     <row r="167" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A167" s="26" t="s">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="B167" s="27" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="C167" s="28" t="s">
-        <v>339</v>
+        <v>446</v>
       </c>
       <c r="D167" s="28" t="s">
         <v>555</v>
@@ -12470,7 +12464,7 @@
         <v>859</v>
       </c>
       <c r="L167" s="28" t="s">
-        <v>385</v>
+        <v>80</v>
       </c>
       <c r="M167" s="8" t="s">
         <v>162</v>
@@ -12481,13 +12475,13 @@
     </row>
     <row r="168" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A168" s="26" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B168" s="27" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="C168" s="28" t="s">
-        <v>443</v>
+        <v>330</v>
       </c>
       <c r="D168" s="28" t="s">
         <v>555</v>
@@ -12514,7 +12508,7 @@
         <v>859</v>
       </c>
       <c r="L168" s="28" t="s">
-        <v>386</v>
+        <v>103</v>
       </c>
       <c r="M168" s="8" t="s">
         <v>162</v>
@@ -12525,13 +12519,13 @@
     </row>
     <row r="169" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A169" s="26" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="B169" s="27" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="C169" s="28" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D169" s="28" t="s">
         <v>555</v>
@@ -12558,7 +12552,7 @@
         <v>859</v>
       </c>
       <c r="L169" s="28" t="s">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="M169" s="8" t="s">
         <v>162</v>
@@ -12569,13 +12563,13 @@
     </row>
     <row r="170" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A170" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="B170" s="27" t="s">
-        <v>166</v>
+        <v>801</v>
+      </c>
+      <c r="B170" s="28" t="s">
+        <v>775</v>
       </c>
       <c r="C170" s="28" t="s">
-        <v>330</v>
+        <v>776</v>
       </c>
       <c r="D170" s="28" t="s">
         <v>555</v>
@@ -12599,10 +12593,10 @@
         <v>826</v>
       </c>
       <c r="K170" s="28" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="L170" s="28" t="s">
-        <v>103</v>
+        <v>1006</v>
       </c>
       <c r="M170" s="8" t="s">
         <v>162</v>
@@ -12613,13 +12607,13 @@
     </row>
     <row r="171" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A171" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="B171" s="27" t="s">
-        <v>110</v>
+        <v>802</v>
+      </c>
+      <c r="B171" s="28" t="s">
+        <v>777</v>
       </c>
       <c r="C171" s="28" t="s">
-        <v>444</v>
+        <v>778</v>
       </c>
       <c r="D171" s="28" t="s">
         <v>555</v>
@@ -12643,10 +12637,10 @@
         <v>826</v>
       </c>
       <c r="K171" s="28" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="L171" s="28" t="s">
-        <v>176</v>
+        <v>1006</v>
       </c>
       <c r="M171" s="8" t="s">
         <v>162</v>
@@ -12657,13 +12651,13 @@
     </row>
     <row r="172" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A172" s="26" t="s">
-        <v>801</v>
+        <v>229</v>
       </c>
       <c r="B172" s="28" t="s">
-        <v>775</v>
+        <v>134</v>
       </c>
       <c r="C172" s="28" t="s">
-        <v>776</v>
+        <v>445</v>
       </c>
       <c r="D172" s="28" t="s">
         <v>555</v>
@@ -12678,7 +12672,7 @@
         <v>276</v>
       </c>
       <c r="H172" s="28" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="I172" s="28" t="s">
         <v>632</v>
@@ -12687,10 +12681,10 @@
         <v>826</v>
       </c>
       <c r="K172" s="28" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="L172" s="28" t="s">
-        <v>1009</v>
+        <v>132</v>
       </c>
       <c r="M172" s="8" t="s">
         <v>162</v>
@@ -12701,13 +12695,13 @@
     </row>
     <row r="173" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A173" s="26" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B173" s="28" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="C173" s="28" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="D173" s="28" t="s">
         <v>555</v>
@@ -12722,7 +12716,7 @@
         <v>276</v>
       </c>
       <c r="H173" s="28" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="I173" s="28" t="s">
         <v>632</v>
@@ -12731,10 +12725,10 @@
         <v>826</v>
       </c>
       <c r="K173" s="28" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="L173" s="28" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="M173" s="8" t="s">
         <v>162</v>
@@ -12745,13 +12739,13 @@
     </row>
     <row r="174" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A174" s="26" t="s">
-        <v>229</v>
+        <v>805</v>
       </c>
       <c r="B174" s="28" t="s">
-        <v>134</v>
+        <v>783</v>
       </c>
       <c r="C174" s="28" t="s">
-        <v>445</v>
+        <v>784</v>
       </c>
       <c r="D174" s="28" t="s">
         <v>555</v>
@@ -12778,7 +12772,7 @@
         <v>858</v>
       </c>
       <c r="L174" s="28" t="s">
-        <v>132</v>
+        <v>846</v>
       </c>
       <c r="M174" s="8" t="s">
         <v>162</v>
@@ -12789,13 +12783,13 @@
     </row>
     <row r="175" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A175" s="26" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B175" s="28" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="C175" s="28" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="D175" s="28" t="s">
         <v>555</v>
@@ -12822,7 +12816,7 @@
         <v>858</v>
       </c>
       <c r="L175" s="28" t="s">
-        <v>1010</v>
+        <v>847</v>
       </c>
       <c r="M175" s="8" t="s">
         <v>162</v>
@@ -12833,13 +12827,13 @@
     </row>
     <row r="176" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A176" s="26" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B176" s="28" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="C176" s="28" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="D176" s="28" t="s">
         <v>555</v>
@@ -12866,7 +12860,7 @@
         <v>858</v>
       </c>
       <c r="L176" s="28" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="M176" s="8" t="s">
         <v>162</v>
@@ -12877,13 +12871,13 @@
     </row>
     <row r="177" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A177" s="26" t="s">
-        <v>806</v>
+        <v>195</v>
       </c>
       <c r="B177" s="28" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="C177" s="28" t="s">
-        <v>786</v>
+        <v>774</v>
       </c>
       <c r="D177" s="28" t="s">
         <v>555</v>
@@ -12907,10 +12901,10 @@
         <v>826</v>
       </c>
       <c r="K177" s="28" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="L177" s="28" t="s">
-        <v>847</v>
+        <v>80</v>
       </c>
       <c r="M177" s="8" t="s">
         <v>162</v>
@@ -12921,13 +12915,13 @@
     </row>
     <row r="178" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A178" s="26" t="s">
-        <v>807</v>
+        <v>790</v>
       </c>
       <c r="B178" s="28" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="C178" s="28" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="D178" s="28" t="s">
         <v>555</v>
@@ -12951,10 +12945,10 @@
         <v>826</v>
       </c>
       <c r="K178" s="28" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="L178" s="28" t="s">
-        <v>848</v>
+        <v>386</v>
       </c>
       <c r="M178" s="8" t="s">
         <v>162</v>
@@ -12965,13 +12959,13 @@
     </row>
     <row r="179" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A179" s="26" t="s">
-        <v>195</v>
+        <v>793</v>
       </c>
       <c r="B179" s="28" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="C179" s="28" t="s">
-        <v>774</v>
+        <v>795</v>
       </c>
       <c r="D179" s="28" t="s">
         <v>555</v>
@@ -12998,7 +12992,7 @@
         <v>859</v>
       </c>
       <c r="L179" s="28" t="s">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="M179" s="8" t="s">
         <v>162</v>
@@ -13009,13 +13003,13 @@
     </row>
     <row r="180" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A180" s="26" t="s">
-        <v>790</v>
+        <v>488</v>
       </c>
       <c r="B180" s="28" t="s">
-        <v>791</v>
+        <v>489</v>
       </c>
       <c r="C180" s="28" t="s">
-        <v>792</v>
+        <v>490</v>
       </c>
       <c r="D180" s="28" t="s">
         <v>555</v>
@@ -13030,7 +13024,7 @@
         <v>276</v>
       </c>
       <c r="H180" s="28" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="I180" s="28" t="s">
         <v>632</v>
@@ -13053,13 +13047,13 @@
     </row>
     <row r="181" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A181" s="26" t="s">
-        <v>793</v>
+        <v>803</v>
       </c>
       <c r="B181" s="28" t="s">
-        <v>794</v>
+        <v>779</v>
       </c>
       <c r="C181" s="28" t="s">
-        <v>795</v>
+        <v>780</v>
       </c>
       <c r="D181" s="28" t="s">
         <v>555</v>
@@ -13074,7 +13068,7 @@
         <v>276</v>
       </c>
       <c r="H181" s="28" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="I181" s="28" t="s">
         <v>632</v>
@@ -13083,10 +13077,10 @@
         <v>826</v>
       </c>
       <c r="K181" s="28" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="L181" s="28" t="s">
-        <v>176</v>
+        <v>1006</v>
       </c>
       <c r="M181" s="8" t="s">
         <v>162</v>
@@ -13097,13 +13091,13 @@
     </row>
     <row r="182" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A182" s="26" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="B182" s="28" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="C182" s="28" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D182" s="28" t="s">
         <v>555</v>
@@ -13118,107 +13112,107 @@
         <v>276</v>
       </c>
       <c r="H182" s="28" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="I182" s="28" t="s">
         <v>632</v>
       </c>
       <c r="J182" s="28" t="s">
+        <v>831</v>
+      </c>
+      <c r="K182" s="28" t="s">
+        <v>831</v>
+      </c>
+      <c r="L182" s="28" t="s">
+        <v>838</v>
+      </c>
+      <c r="M182" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="N182" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A183" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B183" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C183" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D183" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="E183" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="F183" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="G183" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="H183" s="10" t="s">
+        <v>874</v>
+      </c>
+      <c r="I183" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="J183" s="10" t="s">
         <v>826</v>
       </c>
-      <c r="K182" s="28" t="s">
+      <c r="K183" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="L183" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M183" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="N183" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A184" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B184" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="C184" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="D184" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="E184" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="F184" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="G184" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="H184" s="10" t="s">
+        <v>874</v>
+      </c>
+      <c r="I184" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="J184" s="10" t="s">
+        <v>826</v>
+      </c>
+      <c r="K184" s="10" t="s">
         <v>859</v>
       </c>
-      <c r="L182" s="28" t="s">
-        <v>386</v>
-      </c>
-      <c r="M182" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="N182" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="183" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A183" s="26" t="s">
-        <v>803</v>
-      </c>
-      <c r="B183" s="28" t="s">
-        <v>779</v>
-      </c>
-      <c r="C183" s="28" t="s">
-        <v>780</v>
-      </c>
-      <c r="D183" s="28" t="s">
-        <v>555</v>
-      </c>
-      <c r="E183" s="28" t="s">
-        <v>497</v>
-      </c>
-      <c r="F183" s="28" t="s">
-        <v>660</v>
-      </c>
-      <c r="G183" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="H183" s="28" t="s">
-        <v>885</v>
-      </c>
-      <c r="I183" s="28" t="s">
-        <v>632</v>
-      </c>
-      <c r="J183" s="28" t="s">
-        <v>826</v>
-      </c>
-      <c r="K183" s="28" t="s">
-        <v>857</v>
-      </c>
-      <c r="L183" s="28" t="s">
-        <v>1009</v>
-      </c>
-      <c r="M183" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="N183" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="184" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A184" s="26" t="s">
-        <v>494</v>
-      </c>
-      <c r="B184" s="28" t="s">
-        <v>472</v>
-      </c>
-      <c r="C184" s="28" t="s">
-        <v>491</v>
-      </c>
-      <c r="D184" s="28" t="s">
-        <v>555</v>
-      </c>
-      <c r="E184" s="28" t="s">
-        <v>497</v>
-      </c>
-      <c r="F184" s="28" t="s">
-        <v>660</v>
-      </c>
-      <c r="G184" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="H184" s="28" t="s">
-        <v>882</v>
-      </c>
-      <c r="I184" s="28" t="s">
-        <v>632</v>
-      </c>
-      <c r="J184" s="28" t="s">
-        <v>831</v>
-      </c>
-      <c r="K184" s="28" t="s">
-        <v>831</v>
-      </c>
-      <c r="L184" s="28" t="s">
-        <v>838</v>
+      <c r="L184" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="M184" s="8" t="s">
         <v>162</v>
@@ -13229,13 +13223,13 @@
     </row>
     <row r="185" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A185" s="11" t="s">
-        <v>200</v>
+        <v>746</v>
       </c>
       <c r="B185" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C185" s="10" t="s">
-        <v>172</v>
+        <v>747</v>
+      </c>
+      <c r="C185" s="12" t="s">
+        <v>755</v>
       </c>
       <c r="D185" s="10" t="s">
         <v>555</v>
@@ -13246,23 +13240,23 @@
       <c r="F185" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="G185" s="10" t="s">
+      <c r="G185" s="12" t="s">
         <v>302</v>
       </c>
       <c r="H185" s="10" t="s">
         <v>874</v>
       </c>
-      <c r="I185" s="10" t="s">
-        <v>632</v>
-      </c>
-      <c r="J185" s="10" t="s">
+      <c r="I185" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="J185" s="12" t="s">
         <v>826</v>
       </c>
-      <c r="K185" s="10" t="s">
+      <c r="K185" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="L185" s="10" t="s">
-        <v>88</v>
+      <c r="L185" s="12" t="s">
+        <v>1008</v>
       </c>
       <c r="M185" s="8" t="s">
         <v>162</v>
@@ -13273,13 +13267,13 @@
     </row>
     <row r="186" spans="1:14" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A186" s="11" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B186" s="12" t="s">
-        <v>457</v>
+        <v>141</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D186" s="10" t="s">
         <v>555</v>
@@ -13294,7 +13288,7 @@
         <v>302</v>
       </c>
       <c r="H186" s="10" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="I186" s="10" t="s">
         <v>632</v>
@@ -13306,7 +13300,7 @@
         <v>859</v>
       </c>
       <c r="L186" s="10" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="M186" s="8" t="s">
         <v>162</v>
@@ -13315,15 +13309,15 @@
         <v>162</v>
       </c>
     </row>
-    <row r="187" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A187" s="11" t="s">
-        <v>746</v>
+        <v>227</v>
       </c>
       <c r="B187" s="12" t="s">
-        <v>747</v>
-      </c>
-      <c r="C187" s="12" t="s">
-        <v>755</v>
+        <v>131</v>
+      </c>
+      <c r="C187" s="10" t="s">
+        <v>440</v>
       </c>
       <c r="D187" s="10" t="s">
         <v>555</v>
@@ -13334,23 +13328,23 @@
       <c r="F187" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="G187" s="12" t="s">
+      <c r="G187" s="10" t="s">
         <v>302</v>
       </c>
       <c r="H187" s="10" t="s">
-        <v>874</v>
-      </c>
-      <c r="I187" s="12" t="s">
-        <v>632</v>
-      </c>
-      <c r="J187" s="12" t="s">
+        <v>876</v>
+      </c>
+      <c r="I187" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="J187" s="10" t="s">
         <v>826</v>
       </c>
-      <c r="K187" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="L187" s="12" t="s">
-        <v>1011</v>
+      <c r="K187" s="10" t="s">
+        <v>858</v>
+      </c>
+      <c r="L187" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="M187" s="8" t="s">
         <v>162</v>
@@ -13359,15 +13353,15 @@
         <v>162</v>
       </c>
     </row>
-    <row r="188" spans="1:14" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A188" s="11" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B188" s="12" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D188" s="10" t="s">
         <v>555</v>
@@ -13391,10 +13385,10 @@
         <v>826</v>
       </c>
       <c r="K188" s="10" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="L188" s="10" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="M188" s="8" t="s">
         <v>162</v>
@@ -13405,13 +13399,13 @@
     </row>
     <row r="189" spans="1:14" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A189" s="11" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B189" s="12" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>440</v>
+        <v>19</v>
       </c>
       <c r="D189" s="10" t="s">
         <v>555</v>
@@ -13438,7 +13432,7 @@
         <v>858</v>
       </c>
       <c r="L189" s="10" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="M189" s="8" t="s">
         <v>162</v>
@@ -13447,15 +13441,15 @@
         <v>162</v>
       </c>
     </row>
-    <row r="190" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A190" s="11" t="s">
-        <v>228</v>
+        <v>503</v>
       </c>
       <c r="B190" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C190" s="10" t="s">
-        <v>441</v>
+        <v>114</v>
+      </c>
+      <c r="C190" s="12" t="s">
+        <v>499</v>
       </c>
       <c r="D190" s="10" t="s">
         <v>555</v>
@@ -13466,13 +13460,13 @@
       <c r="F190" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="G190" s="10" t="s">
+      <c r="G190" s="12" t="s">
         <v>302</v>
       </c>
       <c r="H190" s="10" t="s">
         <v>876</v>
       </c>
-      <c r="I190" s="10" t="s">
+      <c r="I190" s="12" t="s">
         <v>632</v>
       </c>
       <c r="J190" s="10" t="s">
@@ -13482,7 +13476,7 @@
         <v>858</v>
       </c>
       <c r="L190" s="10" t="s">
-        <v>132</v>
+        <v>544</v>
       </c>
       <c r="M190" s="8" t="s">
         <v>162</v>
@@ -13493,13 +13487,13 @@
     </row>
     <row r="191" spans="1:14" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A191" s="11" t="s">
-        <v>220</v>
+        <v>506</v>
       </c>
       <c r="B191" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C191" s="10" t="s">
-        <v>19</v>
+        <v>547</v>
+      </c>
+      <c r="C191" s="12" t="s">
+        <v>557</v>
       </c>
       <c r="D191" s="10" t="s">
         <v>555</v>
@@ -13510,13 +13504,13 @@
       <c r="F191" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="G191" s="10" t="s">
+      <c r="G191" s="12" t="s">
         <v>302</v>
       </c>
       <c r="H191" s="10" t="s">
         <v>876</v>
       </c>
-      <c r="I191" s="10" t="s">
+      <c r="I191" s="12" t="s">
         <v>632</v>
       </c>
       <c r="J191" s="10" t="s">
@@ -13526,7 +13520,7 @@
         <v>858</v>
       </c>
       <c r="L191" s="10" t="s">
-        <v>115</v>
+        <v>533</v>
       </c>
       <c r="M191" s="8" t="s">
         <v>162</v>
@@ -13537,13 +13531,13 @@
     </row>
     <row r="192" spans="1:14" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A192" s="11" t="s">
-        <v>503</v>
+        <v>662</v>
       </c>
       <c r="B192" s="12" t="s">
-        <v>114</v>
+        <v>661</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>499</v>
+        <v>665</v>
       </c>
       <c r="D192" s="10" t="s">
         <v>555</v>
@@ -13566,11 +13560,11 @@
       <c r="J192" s="10" t="s">
         <v>826</v>
       </c>
-      <c r="K192" s="10" t="s">
-        <v>858</v>
-      </c>
-      <c r="L192" s="10" t="s">
-        <v>544</v>
+      <c r="K192" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="L192" s="12" t="s">
+        <v>1009</v>
       </c>
       <c r="M192" s="8" t="s">
         <v>162</v>
@@ -13581,13 +13575,13 @@
     </row>
     <row r="193" spans="1:14" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A193" s="11" t="s">
-        <v>506</v>
+        <v>664</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>547</v>
+        <v>663</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>557</v>
+        <v>666</v>
       </c>
       <c r="D193" s="10" t="s">
         <v>555</v>
@@ -13614,7 +13608,7 @@
         <v>858</v>
       </c>
       <c r="L193" s="10" t="s">
-        <v>533</v>
+        <v>844</v>
       </c>
       <c r="M193" s="8" t="s">
         <v>162</v>
@@ -13625,13 +13619,13 @@
     </row>
     <row r="194" spans="1:14" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A194" s="11" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="B194" s="12" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="C194" s="12" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="D194" s="10" t="s">
         <v>555</v>
@@ -13654,11 +13648,11 @@
       <c r="J194" s="10" t="s">
         <v>826</v>
       </c>
-      <c r="K194" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="L194" s="12" t="s">
-        <v>1012</v>
+      <c r="K194" s="10" t="s">
+        <v>858</v>
+      </c>
+      <c r="L194" s="10" t="s">
+        <v>845</v>
       </c>
       <c r="M194" s="8" t="s">
         <v>162</v>
@@ -13669,13 +13663,13 @@
     </row>
     <row r="195" spans="1:14" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A195" s="11" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="B195" s="12" t="s">
-        <v>663</v>
+        <v>674</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="D195" s="10" t="s">
         <v>555</v>
@@ -13702,7 +13696,7 @@
         <v>858</v>
       </c>
       <c r="L195" s="10" t="s">
-        <v>844</v>
+        <v>899</v>
       </c>
       <c r="M195" s="8" t="s">
         <v>162</v>
@@ -13713,13 +13707,13 @@
     </row>
     <row r="196" spans="1:14" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A196" s="11" t="s">
-        <v>668</v>
+        <v>679</v>
       </c>
       <c r="B196" s="12" t="s">
-        <v>667</v>
+        <v>680</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="D196" s="10" t="s">
         <v>555</v>
@@ -13743,10 +13737,10 @@
         <v>826</v>
       </c>
       <c r="K196" s="10" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="L196" s="10" t="s">
-        <v>845</v>
+        <v>103</v>
       </c>
       <c r="M196" s="8" t="s">
         <v>162</v>
@@ -13755,15 +13749,15 @@
         <v>162</v>
       </c>
     </row>
-    <row r="197" spans="1:14" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A197" s="11" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
       <c r="B197" s="12" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="D197" s="10" t="s">
         <v>555</v>
@@ -13787,10 +13781,10 @@
         <v>826</v>
       </c>
       <c r="K197" s="10" t="s">
-        <v>858</v>
+        <v>434</v>
       </c>
       <c r="L197" s="10" t="s">
-        <v>899</v>
+        <v>88</v>
       </c>
       <c r="M197" s="8" t="s">
         <v>162</v>
@@ -13799,15 +13793,15 @@
         <v>162</v>
       </c>
     </row>
-    <row r="198" spans="1:14" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A198" s="11" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="B198" s="12" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
       <c r="D198" s="10" t="s">
         <v>555</v>
@@ -13831,10 +13825,10 @@
         <v>826</v>
       </c>
       <c r="K198" s="10" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="L198" s="10" t="s">
-        <v>103</v>
+        <v>849</v>
       </c>
       <c r="M198" s="8" t="s">
         <v>162</v>
@@ -13845,13 +13839,13 @@
     </row>
     <row r="199" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A199" s="11" t="s">
-        <v>685</v>
+        <v>696</v>
       </c>
       <c r="B199" s="12" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="D199" s="10" t="s">
         <v>555</v>
@@ -13889,13 +13883,13 @@
     </row>
     <row r="200" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A200" s="11" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="B200" s="12" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="D200" s="10" t="s">
         <v>555</v>
@@ -13922,7 +13916,7 @@
         <v>857</v>
       </c>
       <c r="L200" s="10" t="s">
-        <v>849</v>
+        <v>906</v>
       </c>
       <c r="M200" s="8" t="s">
         <v>162</v>
@@ -13933,13 +13927,13 @@
     </row>
     <row r="201" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A201" s="11" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="B201" s="12" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="C201" s="12" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="D201" s="10" t="s">
         <v>555</v>
@@ -13963,10 +13957,10 @@
         <v>826</v>
       </c>
       <c r="K201" s="10" t="s">
-        <v>434</v>
+        <v>864</v>
       </c>
       <c r="L201" s="10" t="s">
-        <v>88</v>
+        <v>851</v>
       </c>
       <c r="M201" s="8" t="s">
         <v>162</v>
@@ -13977,13 +13971,13 @@
     </row>
     <row r="202" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A202" s="11" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="B202" s="12" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="C202" s="12" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="D202" s="10" t="s">
         <v>555</v>
@@ -14007,10 +14001,10 @@
         <v>826</v>
       </c>
       <c r="K202" s="10" t="s">
-        <v>857</v>
+        <v>865</v>
       </c>
       <c r="L202" s="10" t="s">
-        <v>906</v>
+        <v>852</v>
       </c>
       <c r="M202" s="8" t="s">
         <v>162</v>
@@ -14021,10 +14015,10 @@
     </row>
     <row r="203" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A203" s="11" t="s">
-        <v>700</v>
+        <v>814</v>
       </c>
       <c r="B203" s="12" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="C203" s="12" t="s">
         <v>702</v>
@@ -14051,10 +14045,10 @@
         <v>826</v>
       </c>
       <c r="K203" s="10" t="s">
-        <v>864</v>
+        <v>434</v>
       </c>
       <c r="L203" s="10" t="s">
-        <v>851</v>
+        <v>1010</v>
       </c>
       <c r="M203" s="8" t="s">
         <v>162</v>
@@ -14063,15 +14057,15 @@
         <v>162</v>
       </c>
     </row>
-    <row r="204" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A204" s="11" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="B204" s="12" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="D204" s="10" t="s">
         <v>555</v>
@@ -14092,13 +14086,13 @@
         <v>632</v>
       </c>
       <c r="J204" s="10" t="s">
-        <v>826</v>
+        <v>869</v>
       </c>
       <c r="K204" s="10" t="s">
-        <v>865</v>
+        <v>828</v>
       </c>
       <c r="L204" s="10" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="M204" s="8" t="s">
         <v>162</v>
@@ -14107,15 +14101,15 @@
         <v>162</v>
       </c>
     </row>
-    <row r="205" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A205" s="11" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B205" s="12" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="C205" s="12" t="s">
-        <v>702</v>
+        <v>714</v>
       </c>
       <c r="D205" s="10" t="s">
         <v>555</v>
@@ -14139,10 +14133,10 @@
         <v>826</v>
       </c>
       <c r="K205" s="10" t="s">
-        <v>434</v>
+        <v>865</v>
       </c>
       <c r="L205" s="10" t="s">
-        <v>1013</v>
+        <v>912</v>
       </c>
       <c r="M205" s="8" t="s">
         <v>162</v>
@@ -14153,13 +14147,13 @@
     </row>
     <row r="206" spans="1:14" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A206" s="11" t="s">
-        <v>710</v>
+        <v>816</v>
       </c>
       <c r="B206" s="12" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="C206" s="12" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="D206" s="10" t="s">
         <v>555</v>
@@ -14180,13 +14174,13 @@
         <v>632</v>
       </c>
       <c r="J206" s="10" t="s">
-        <v>869</v>
+        <v>826</v>
       </c>
       <c r="K206" s="10" t="s">
-        <v>828</v>
+        <v>858</v>
       </c>
       <c r="L206" s="10" t="s">
-        <v>853</v>
+        <v>839</v>
       </c>
       <c r="M206" s="8" t="s">
         <v>162</v>
@@ -14197,13 +14191,13 @@
     </row>
     <row r="207" spans="1:14" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A207" s="11" t="s">
-        <v>815</v>
+        <v>732</v>
       </c>
       <c r="B207" s="12" t="s">
-        <v>713</v>
+        <v>733</v>
       </c>
       <c r="C207" s="12" t="s">
-        <v>714</v>
+        <v>748</v>
       </c>
       <c r="D207" s="10" t="s">
         <v>555</v>
@@ -14227,10 +14221,10 @@
         <v>826</v>
       </c>
       <c r="K207" s="10" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="L207" s="10" t="s">
-        <v>912</v>
+        <v>854</v>
       </c>
       <c r="M207" s="8" t="s">
         <v>162</v>
@@ -14241,13 +14235,13 @@
     </row>
     <row r="208" spans="1:14" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A208" s="11" t="s">
-        <v>816</v>
+        <v>738</v>
       </c>
       <c r="B208" s="12" t="s">
-        <v>715</v>
+        <v>739</v>
       </c>
       <c r="C208" s="12" t="s">
-        <v>702</v>
+        <v>753</v>
       </c>
       <c r="D208" s="10" t="s">
         <v>555</v>
@@ -14271,10 +14265,10 @@
         <v>826</v>
       </c>
       <c r="K208" s="10" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="L208" s="10" t="s">
-        <v>839</v>
+        <v>853</v>
       </c>
       <c r="M208" s="8" t="s">
         <v>162</v>
@@ -14285,13 +14279,13 @@
     </row>
     <row r="209" spans="1:14" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A209" s="11" t="s">
-        <v>732</v>
+        <v>742</v>
       </c>
       <c r="B209" s="12" t="s">
-        <v>733</v>
+        <v>743</v>
       </c>
       <c r="C209" s="12" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D209" s="10" t="s">
         <v>555</v>
@@ -14315,10 +14309,10 @@
         <v>826</v>
       </c>
       <c r="K209" s="10" t="s">
-        <v>863</v>
+        <v>434</v>
       </c>
       <c r="L209" s="10" t="s">
-        <v>854</v>
+        <v>756</v>
       </c>
       <c r="M209" s="8" t="s">
         <v>162</v>
@@ -14327,15 +14321,15 @@
         <v>162</v>
       </c>
     </row>
-    <row r="210" spans="1:14" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A210" s="11" t="s">
-        <v>738</v>
+        <v>676</v>
       </c>
       <c r="B210" s="12" t="s">
-        <v>739</v>
+        <v>677</v>
       </c>
       <c r="C210" s="12" t="s">
-        <v>753</v>
+        <v>678</v>
       </c>
       <c r="D210" s="10" t="s">
         <v>555</v>
@@ -14350,7 +14344,7 @@
         <v>302</v>
       </c>
       <c r="H210" s="10" t="s">
-        <v>876</v>
+        <v>884</v>
       </c>
       <c r="I210" s="12" t="s">
         <v>632</v>
@@ -14359,10 +14353,10 @@
         <v>826</v>
       </c>
       <c r="K210" s="10" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="L210" s="10" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="M210" s="8" t="s">
         <v>162</v>
@@ -14371,15 +14365,15 @@
         <v>162</v>
       </c>
     </row>
-    <row r="211" spans="1:14" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A211" s="11" t="s">
-        <v>742</v>
+        <v>683</v>
       </c>
       <c r="B211" s="12" t="s">
-        <v>743</v>
+        <v>682</v>
       </c>
       <c r="C211" s="12" t="s">
-        <v>750</v>
+        <v>684</v>
       </c>
       <c r="D211" s="10" t="s">
         <v>555</v>
@@ -14394,7 +14388,7 @@
         <v>302</v>
       </c>
       <c r="H211" s="10" t="s">
-        <v>876</v>
+        <v>884</v>
       </c>
       <c r="I211" s="12" t="s">
         <v>632</v>
@@ -14403,10 +14397,10 @@
         <v>826</v>
       </c>
       <c r="K211" s="10" t="s">
-        <v>434</v>
+        <v>857</v>
       </c>
       <c r="L211" s="10" t="s">
-        <v>756</v>
+        <v>849</v>
       </c>
       <c r="M211" s="8" t="s">
         <v>162</v>
@@ -14417,13 +14411,13 @@
     </row>
     <row r="212" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A212" s="11" t="s">
-        <v>676</v>
+        <v>692</v>
       </c>
       <c r="B212" s="12" t="s">
-        <v>677</v>
+        <v>691</v>
       </c>
       <c r="C212" s="12" t="s">
-        <v>678</v>
+        <v>693</v>
       </c>
       <c r="D212" s="10" t="s">
         <v>555</v>
@@ -14461,13 +14455,13 @@
     </row>
     <row r="213" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A213" s="11" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="B213" s="12" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="C213" s="12" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="D213" s="10" t="s">
         <v>555</v>
@@ -14482,7 +14476,7 @@
         <v>302</v>
       </c>
       <c r="H213" s="10" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="I213" s="12" t="s">
         <v>632</v>
@@ -14491,10 +14485,10 @@
         <v>826</v>
       </c>
       <c r="K213" s="10" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="L213" s="10" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="M213" s="8" t="s">
         <v>162</v>
@@ -14505,13 +14499,13 @@
     </row>
     <row r="214" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A214" s="11" t="s">
-        <v>692</v>
+        <v>717</v>
       </c>
       <c r="B214" s="12" t="s">
-        <v>691</v>
+        <v>716</v>
       </c>
       <c r="C214" s="12" t="s">
-        <v>693</v>
+        <v>718</v>
       </c>
       <c r="D214" s="10" t="s">
         <v>555</v>
@@ -14526,19 +14520,19 @@
         <v>302</v>
       </c>
       <c r="H214" s="10" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="I214" s="12" t="s">
         <v>632</v>
       </c>
       <c r="J214" s="10" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="K214" s="10" t="s">
-        <v>857</v>
+        <v>834</v>
       </c>
       <c r="L214" s="10" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="M214" s="8" t="s">
         <v>162</v>
@@ -14549,13 +14543,13 @@
     </row>
     <row r="215" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A215" s="11" t="s">
-        <v>671</v>
+        <v>708</v>
       </c>
       <c r="B215" s="12" t="s">
-        <v>670</v>
+        <v>706</v>
       </c>
       <c r="C215" s="12" t="s">
-        <v>672</v>
+        <v>707</v>
       </c>
       <c r="D215" s="10" t="s">
         <v>555</v>
@@ -14569,20 +14563,20 @@
       <c r="G215" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="H215" s="10" t="s">
-        <v>880</v>
+      <c r="H215" s="12" t="s">
+        <v>875</v>
       </c>
       <c r="I215" s="12" t="s">
         <v>632</v>
       </c>
-      <c r="J215" s="10" t="s">
-        <v>826</v>
+      <c r="J215" s="12" t="s">
+        <v>825</v>
       </c>
       <c r="K215" s="10" t="s">
-        <v>858</v>
+        <v>871</v>
       </c>
       <c r="L215" s="10" t="s">
-        <v>845</v>
+        <v>282</v>
       </c>
       <c r="M215" s="8" t="s">
         <v>162</v>
@@ -14593,13 +14587,13 @@
     </row>
     <row r="216" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A216" s="11" t="s">
-        <v>717</v>
+        <v>817</v>
       </c>
       <c r="B216" s="12" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="C216" s="12" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="D216" s="10" t="s">
         <v>555</v>
@@ -14613,20 +14607,20 @@
       <c r="G216" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="H216" s="10" t="s">
-        <v>880</v>
+      <c r="H216" s="12" t="s">
+        <v>875</v>
       </c>
       <c r="I216" s="12" t="s">
         <v>632</v>
       </c>
-      <c r="J216" s="10" t="s">
-        <v>832</v>
-      </c>
-      <c r="K216" s="10" t="s">
-        <v>834</v>
-      </c>
-      <c r="L216" s="10" t="s">
-        <v>840</v>
+      <c r="J216" s="12" t="s">
+        <v>825</v>
+      </c>
+      <c r="K216" s="12" t="s">
+        <v>868</v>
+      </c>
+      <c r="L216" s="12" t="s">
+        <v>843</v>
       </c>
       <c r="M216" s="8" t="s">
         <v>162</v>
@@ -14637,13 +14631,13 @@
     </row>
     <row r="217" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A217" s="11" t="s">
-        <v>708</v>
+        <v>818</v>
       </c>
       <c r="B217" s="12" t="s">
-        <v>706</v>
+        <v>724</v>
       </c>
       <c r="C217" s="12" t="s">
-        <v>707</v>
+        <v>726</v>
       </c>
       <c r="D217" s="10" t="s">
         <v>555</v>
@@ -14666,11 +14660,11 @@
       <c r="J217" s="12" t="s">
         <v>825</v>
       </c>
-      <c r="K217" s="10" t="s">
-        <v>871</v>
-      </c>
-      <c r="L217" s="10" t="s">
-        <v>282</v>
+      <c r="K217" s="12" t="s">
+        <v>860</v>
+      </c>
+      <c r="L217" s="12" t="s">
+        <v>909</v>
       </c>
       <c r="M217" s="8" t="s">
         <v>162</v>
@@ -14681,13 +14675,13 @@
     </row>
     <row r="218" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A218" s="11" t="s">
-        <v>817</v>
+        <v>734</v>
       </c>
       <c r="B218" s="12" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
       <c r="C218" s="12" t="s">
-        <v>725</v>
+        <v>749</v>
       </c>
       <c r="D218" s="10" t="s">
         <v>555</v>
@@ -14711,10 +14705,10 @@
         <v>825</v>
       </c>
       <c r="K218" s="12" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="L218" s="12" t="s">
-        <v>843</v>
+        <v>910</v>
       </c>
       <c r="M218" s="8" t="s">
         <v>162</v>
@@ -14725,13 +14719,13 @@
     </row>
     <row r="219" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A219" s="11" t="s">
-        <v>818</v>
+        <v>736</v>
       </c>
       <c r="B219" s="12" t="s">
-        <v>724</v>
+        <v>737</v>
       </c>
       <c r="C219" s="12" t="s">
-        <v>726</v>
+        <v>752</v>
       </c>
       <c r="D219" s="10" t="s">
         <v>555</v>
@@ -14755,10 +14749,10 @@
         <v>825</v>
       </c>
       <c r="K219" s="12" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="L219" s="12" t="s">
-        <v>909</v>
+        <v>1011</v>
       </c>
       <c r="M219" s="8" t="s">
         <v>162</v>
@@ -14769,13 +14763,13 @@
     </row>
     <row r="220" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A220" s="11" t="s">
-        <v>734</v>
+        <v>744</v>
       </c>
       <c r="B220" s="12" t="s">
-        <v>735</v>
+        <v>745</v>
       </c>
       <c r="C220" s="12" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="D220" s="10" t="s">
         <v>555</v>
@@ -14799,10 +14793,10 @@
         <v>825</v>
       </c>
       <c r="K220" s="12" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="L220" s="12" t="s">
-        <v>910</v>
+        <v>1012</v>
       </c>
       <c r="M220" s="8" t="s">
         <v>162</v>
@@ -14813,13 +14807,13 @@
     </row>
     <row r="221" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A221" s="11" t="s">
-        <v>736</v>
+        <v>504</v>
       </c>
       <c r="B221" s="12" t="s">
-        <v>737</v>
+        <v>543</v>
       </c>
       <c r="C221" s="12" t="s">
-        <v>752</v>
+        <v>556</v>
       </c>
       <c r="D221" s="10" t="s">
         <v>555</v>
@@ -14833,20 +14827,20 @@
       <c r="G221" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="H221" s="12" t="s">
-        <v>875</v>
+      <c r="H221" s="10" t="s">
+        <v>877</v>
       </c>
       <c r="I221" s="12" t="s">
         <v>632</v>
       </c>
       <c r="J221" s="12" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="K221" s="12" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="L221" s="12" t="s">
-        <v>1014</v>
+        <v>545</v>
       </c>
       <c r="M221" s="8" t="s">
         <v>162</v>
@@ -14857,13 +14851,13 @@
     </row>
     <row r="222" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A222" s="11" t="s">
-        <v>744</v>
+        <v>809</v>
       </c>
       <c r="B222" s="12" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="C222" s="12" t="s">
-        <v>754</v>
+        <v>730</v>
       </c>
       <c r="D222" s="10" t="s">
         <v>555</v>
@@ -14877,20 +14871,20 @@
       <c r="G222" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="H222" s="12" t="s">
-        <v>875</v>
+      <c r="H222" s="10" t="s">
+        <v>877</v>
       </c>
       <c r="I222" s="12" t="s">
         <v>632</v>
       </c>
       <c r="J222" s="12" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="K222" s="12" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="L222" s="12" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="M222" s="8" t="s">
         <v>162</v>
@@ -14907,7 +14901,7 @@
         <v>543</v>
       </c>
       <c r="C223" s="12" t="s">
-        <v>556</v>
+        <v>731</v>
       </c>
       <c r="D223" s="10" t="s">
         <v>555</v>
@@ -14945,13 +14939,13 @@
     </row>
     <row r="224" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A224" s="11" t="s">
-        <v>809</v>
+        <v>740</v>
       </c>
       <c r="B224" s="12" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="C224" s="12" t="s">
-        <v>730</v>
+        <v>751</v>
       </c>
       <c r="D224" s="10" t="s">
         <v>555</v>
@@ -14978,7 +14972,7 @@
         <v>862</v>
       </c>
       <c r="L224" s="12" t="s">
-        <v>1016</v>
+        <v>911</v>
       </c>
       <c r="M224" s="8" t="s">
         <v>162</v>
@@ -14989,13 +14983,13 @@
     </row>
     <row r="225" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A225" s="11" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="B225" s="12" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="C225" s="12" t="s">
-        <v>731</v>
+        <v>559</v>
       </c>
       <c r="D225" s="10" t="s">
         <v>555</v>
@@ -15009,20 +15003,20 @@
       <c r="G225" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="H225" s="10" t="s">
-        <v>877</v>
+      <c r="H225" s="12" t="s">
+        <v>879</v>
       </c>
       <c r="I225" s="12" t="s">
         <v>632</v>
       </c>
       <c r="J225" s="12" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="K225" s="12" t="s">
-        <v>862</v>
+        <v>833</v>
       </c>
       <c r="L225" s="12" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="M225" s="8" t="s">
         <v>162</v>
@@ -15033,13 +15027,13 @@
     </row>
     <row r="226" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A226" s="11" t="s">
-        <v>740</v>
+        <v>505</v>
       </c>
       <c r="B226" s="12" t="s">
-        <v>741</v>
+        <v>532</v>
       </c>
       <c r="C226" s="12" t="s">
-        <v>751</v>
+        <v>564</v>
       </c>
       <c r="D226" s="10" t="s">
         <v>555</v>
@@ -15054,19 +15048,19 @@
         <v>302</v>
       </c>
       <c r="H226" s="10" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="I226" s="12" t="s">
         <v>632</v>
       </c>
       <c r="J226" s="12" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="K226" s="12" t="s">
-        <v>862</v>
+        <v>831</v>
       </c>
       <c r="L226" s="12" t="s">
-        <v>911</v>
+        <v>546</v>
       </c>
       <c r="M226" s="8" t="s">
         <v>162</v>
@@ -15077,13 +15071,13 @@
     </row>
     <row r="227" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A227" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B227" s="12" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C227" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D227" s="10" t="s">
         <v>555</v>
@@ -15097,20 +15091,20 @@
       <c r="G227" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="H227" s="12" t="s">
-        <v>879</v>
+      <c r="H227" s="10" t="s">
+        <v>878</v>
       </c>
       <c r="I227" s="12" t="s">
         <v>632</v>
       </c>
       <c r="J227" s="12" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="K227" s="12" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="L227" s="12" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="M227" s="8" t="s">
         <v>162</v>
@@ -15121,13 +15115,13 @@
     </row>
     <row r="228" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A228" s="11" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B228" s="12" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="C228" s="12" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D228" s="10" t="s">
         <v>555</v>
@@ -15154,7 +15148,7 @@
         <v>831</v>
       </c>
       <c r="L228" s="12" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="M228" s="8" t="s">
         <v>162</v>
@@ -15165,13 +15159,13 @@
     </row>
     <row r="229" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A229" s="11" t="s">
-        <v>507</v>
+        <v>810</v>
       </c>
       <c r="B229" s="12" t="s">
-        <v>534</v>
+        <v>719</v>
       </c>
       <c r="C229" s="12" t="s">
-        <v>558</v>
+        <v>720</v>
       </c>
       <c r="D229" s="10" t="s">
         <v>555</v>
@@ -15191,14 +15185,14 @@
       <c r="I229" s="12" t="s">
         <v>632</v>
       </c>
-      <c r="J229" s="12" t="s">
+      <c r="J229" s="10" t="s">
         <v>831</v>
       </c>
-      <c r="K229" s="12" t="s">
+      <c r="K229" s="10" t="s">
         <v>831</v>
       </c>
-      <c r="L229" s="12" t="s">
-        <v>535</v>
+      <c r="L229" s="10" t="s">
+        <v>841</v>
       </c>
       <c r="M229" s="8" t="s">
         <v>162</v>
@@ -15209,13 +15203,13 @@
     </row>
     <row r="230" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A230" s="11" t="s">
-        <v>509</v>
+        <v>811</v>
       </c>
       <c r="B230" s="12" t="s">
-        <v>538</v>
+        <v>721</v>
       </c>
       <c r="C230" s="12" t="s">
-        <v>560</v>
+        <v>722</v>
       </c>
       <c r="D230" s="10" t="s">
         <v>555</v>
@@ -15242,7 +15236,7 @@
         <v>831</v>
       </c>
       <c r="L230" s="12" t="s">
-        <v>539</v>
+        <v>842</v>
       </c>
       <c r="M230" s="8" t="s">
         <v>162</v>
@@ -15253,13 +15247,13 @@
     </row>
     <row r="231" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A231" s="11" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B231" s="12" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="C231" s="12" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="D231" s="10" t="s">
         <v>555</v>
@@ -15279,14 +15273,14 @@
       <c r="I231" s="12" t="s">
         <v>632</v>
       </c>
-      <c r="J231" s="10" t="s">
+      <c r="J231" s="12" t="s">
         <v>831</v>
       </c>
-      <c r="K231" s="10" t="s">
+      <c r="K231" s="12" t="s">
         <v>831</v>
       </c>
-      <c r="L231" s="10" t="s">
-        <v>841</v>
+      <c r="L231" s="12" t="s">
+        <v>838</v>
       </c>
       <c r="M231" s="8" t="s">
         <v>162</v>
@@ -15297,13 +15291,13 @@
     </row>
     <row r="232" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A232" s="11" t="s">
-        <v>811</v>
+        <v>512</v>
       </c>
       <c r="B232" s="12" t="s">
-        <v>721</v>
+        <v>542</v>
       </c>
       <c r="C232" s="12" t="s">
-        <v>722</v>
+        <v>561</v>
       </c>
       <c r="D232" s="10" t="s">
         <v>555</v>
@@ -15317,20 +15311,18 @@
       <c r="G232" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="H232" s="10" t="s">
-        <v>878</v>
-      </c>
+      <c r="H232" s="12"/>
       <c r="I232" s="12" t="s">
         <v>632</v>
       </c>
       <c r="J232" s="12" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K232" s="12" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L232" s="12" t="s">
-        <v>842</v>
+        <v>904</v>
       </c>
       <c r="M232" s="8" t="s">
         <v>162</v>
@@ -15340,41 +15332,41 @@
       </c>
     </row>
     <row r="233" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A233" s="11" t="s">
-        <v>808</v>
-      </c>
-      <c r="B233" s="12" t="s">
-        <v>727</v>
-      </c>
-      <c r="C233" s="12" t="s">
-        <v>728</v>
-      </c>
-      <c r="D233" s="10" t="s">
-        <v>555</v>
-      </c>
-      <c r="E233" s="10" t="s">
+      <c r="A233" s="34" t="s">
+        <v>511</v>
+      </c>
+      <c r="B233" s="35" t="s">
+        <v>541</v>
+      </c>
+      <c r="C233" s="35" t="s">
+        <v>563</v>
+      </c>
+      <c r="D233" s="36" t="s">
+        <v>555</v>
+      </c>
+      <c r="E233" s="36" t="s">
         <v>566</v>
       </c>
-      <c r="F233" s="10" t="s">
+      <c r="F233" s="36" t="s">
         <v>566</v>
       </c>
-      <c r="G233" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="H233" s="10" t="s">
-        <v>878</v>
-      </c>
-      <c r="I233" s="12" t="s">
-        <v>632</v>
-      </c>
-      <c r="J233" s="12" t="s">
-        <v>831</v>
-      </c>
-      <c r="K233" s="12" t="s">
-        <v>831</v>
-      </c>
-      <c r="L233" s="12" t="s">
-        <v>838</v>
+      <c r="G233" s="35" t="s">
+        <v>335</v>
+      </c>
+      <c r="H233" s="35" t="s">
+        <v>872</v>
+      </c>
+      <c r="I233" s="35" t="s">
+        <v>632</v>
+      </c>
+      <c r="J233" s="36" t="s">
+        <v>826</v>
+      </c>
+      <c r="K233" s="36" t="s">
+        <v>434</v>
+      </c>
+      <c r="L233" s="36" t="s">
+        <v>88</v>
       </c>
       <c r="M233" s="8" t="s">
         <v>162</v>
@@ -15384,39 +15376,41 @@
       </c>
     </row>
     <row r="234" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A234" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="B234" s="12" t="s">
-        <v>542</v>
-      </c>
-      <c r="C234" s="12" t="s">
-        <v>561</v>
-      </c>
-      <c r="D234" s="10" t="s">
-        <v>555</v>
-      </c>
-      <c r="E234" s="10" t="s">
+      <c r="A234" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="B234" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C234" s="35" t="s">
+        <v>351</v>
+      </c>
+      <c r="D234" s="36" t="s">
+        <v>555</v>
+      </c>
+      <c r="E234" s="36" t="s">
         <v>566</v>
       </c>
-      <c r="F234" s="10" t="s">
+      <c r="F234" s="36" t="s">
         <v>566</v>
       </c>
-      <c r="G234" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="H234" s="12"/>
-      <c r="I234" s="12" t="s">
-        <v>632</v>
-      </c>
-      <c r="J234" s="12" t="s">
-        <v>830</v>
-      </c>
-      <c r="K234" s="12" t="s">
-        <v>830</v>
-      </c>
-      <c r="L234" s="12" t="s">
-        <v>904</v>
+      <c r="G234" s="35" t="s">
+        <v>335</v>
+      </c>
+      <c r="H234" s="35" t="s">
+        <v>872</v>
+      </c>
+      <c r="I234" s="35" t="s">
+        <v>632</v>
+      </c>
+      <c r="J234" s="36" t="s">
+        <v>826</v>
+      </c>
+      <c r="K234" s="36" t="s">
+        <v>434</v>
+      </c>
+      <c r="L234" s="36" t="s">
+        <v>88</v>
       </c>
       <c r="M234" s="8" t="s">
         <v>162</v>
@@ -15427,13 +15421,13 @@
     </row>
     <row r="235" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A235" s="34" t="s">
-        <v>511</v>
+        <v>230</v>
       </c>
       <c r="B235" s="35" t="s">
-        <v>541</v>
+        <v>135</v>
       </c>
       <c r="C235" s="35" t="s">
-        <v>563</v>
+        <v>449</v>
       </c>
       <c r="D235" s="36" t="s">
         <v>555</v>
@@ -15457,10 +15451,10 @@
         <v>826</v>
       </c>
       <c r="K235" s="36" t="s">
-        <v>434</v>
+        <v>858</v>
       </c>
       <c r="L235" s="36" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="M235" s="8" t="s">
         <v>162</v>
@@ -15471,13 +15465,13 @@
     </row>
     <row r="236" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A236" s="34" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="B236" s="35" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="C236" s="35" t="s">
-        <v>351</v>
+        <v>448</v>
       </c>
       <c r="D236" s="36" t="s">
         <v>555</v>
@@ -15501,10 +15495,10 @@
         <v>826</v>
       </c>
       <c r="K236" s="36" t="s">
-        <v>434</v>
+        <v>858</v>
       </c>
       <c r="L236" s="36" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="M236" s="8" t="s">
         <v>162</v>
@@ -15515,13 +15509,13 @@
     </row>
     <row r="237" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A237" s="34" t="s">
-        <v>230</v>
+        <v>768</v>
       </c>
       <c r="B237" s="35" t="s">
-        <v>135</v>
+        <v>769</v>
       </c>
       <c r="C237" s="35" t="s">
-        <v>449</v>
+        <v>770</v>
       </c>
       <c r="D237" s="36" t="s">
         <v>555</v>
@@ -15545,10 +15539,10 @@
         <v>826</v>
       </c>
       <c r="K237" s="36" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="L237" s="36" t="s">
-        <v>132</v>
+        <v>903</v>
       </c>
       <c r="M237" s="8" t="s">
         <v>162</v>
@@ -15559,13 +15553,13 @@
     </row>
     <row r="238" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A238" s="34" t="s">
-        <v>221</v>
+        <v>799</v>
       </c>
       <c r="B238" s="35" t="s">
-        <v>116</v>
+        <v>771</v>
       </c>
       <c r="C238" s="35" t="s">
-        <v>448</v>
+        <v>772</v>
       </c>
       <c r="D238" s="36" t="s">
         <v>555</v>
@@ -15589,10 +15583,10 @@
         <v>826</v>
       </c>
       <c r="K238" s="36" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="L238" s="36" t="s">
-        <v>117</v>
+        <v>902</v>
       </c>
       <c r="M238" s="8" t="s">
         <v>162</v>
@@ -15603,13 +15597,13 @@
     </row>
     <row r="239" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A239" s="34" t="s">
-        <v>768</v>
+        <v>218</v>
       </c>
       <c r="B239" s="35" t="s">
-        <v>769</v>
+        <v>111</v>
       </c>
       <c r="C239" s="35" t="s">
-        <v>770</v>
+        <v>450</v>
       </c>
       <c r="D239" s="36" t="s">
         <v>555</v>
@@ -15624,7 +15618,7 @@
         <v>335</v>
       </c>
       <c r="H239" s="35" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="I239" s="35" t="s">
         <v>632</v>
@@ -15633,10 +15627,10 @@
         <v>826</v>
       </c>
       <c r="K239" s="36" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="L239" s="36" t="s">
-        <v>903</v>
+        <v>130</v>
       </c>
       <c r="M239" s="8" t="s">
         <v>162</v>
@@ -15647,13 +15641,13 @@
     </row>
     <row r="240" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A240" s="34" t="s">
-        <v>799</v>
+        <v>185</v>
       </c>
       <c r="B240" s="35" t="s">
-        <v>771</v>
+        <v>70</v>
       </c>
       <c r="C240" s="35" t="s">
-        <v>772</v>
+        <v>289</v>
       </c>
       <c r="D240" s="36" t="s">
         <v>555</v>
@@ -15668,7 +15662,7 @@
         <v>335</v>
       </c>
       <c r="H240" s="35" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="I240" s="35" t="s">
         <v>632</v>
@@ -15677,10 +15671,10 @@
         <v>826</v>
       </c>
       <c r="K240" s="36" t="s">
-        <v>857</v>
+        <v>434</v>
       </c>
       <c r="L240" s="36" t="s">
-        <v>902</v>
+        <v>88</v>
       </c>
       <c r="M240" s="8" t="s">
         <v>162</v>
@@ -15691,13 +15685,13 @@
     </row>
     <row r="241" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A241" s="34" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="B241" s="35" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="C241" s="35" t="s">
-        <v>450</v>
+        <v>290</v>
       </c>
       <c r="D241" s="36" t="s">
         <v>555</v>
@@ -15721,10 +15715,10 @@
         <v>826</v>
       </c>
       <c r="K241" s="36" t="s">
-        <v>859</v>
+        <v>434</v>
       </c>
       <c r="L241" s="36" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="M241" s="8" t="s">
         <v>162</v>
@@ -15735,13 +15729,13 @@
     </row>
     <row r="242" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A242" s="34" t="s">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="B242" s="35" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="C242" s="35" t="s">
-        <v>289</v>
+        <v>447</v>
       </c>
       <c r="D242" s="36" t="s">
         <v>555</v>
@@ -15768,7 +15762,7 @@
         <v>434</v>
       </c>
       <c r="L242" s="36" t="s">
-        <v>88</v>
+        <v>628</v>
       </c>
       <c r="M242" s="8" t="s">
         <v>162</v>
@@ -15779,13 +15773,13 @@
     </row>
     <row r="243" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A243" s="34" t="s">
-        <v>187</v>
+        <v>510</v>
       </c>
       <c r="B243" s="35" t="s">
-        <v>72</v>
+        <v>540</v>
       </c>
       <c r="C243" s="35" t="s">
-        <v>290</v>
+        <v>562</v>
       </c>
       <c r="D243" s="36" t="s">
         <v>555</v>
@@ -15812,7 +15806,7 @@
         <v>434</v>
       </c>
       <c r="L243" s="36" t="s">
-        <v>88</v>
+        <v>552</v>
       </c>
       <c r="M243" s="8" t="s">
         <v>162</v>
@@ -15823,13 +15817,13 @@
     </row>
     <row r="244" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A244" s="34" t="s">
-        <v>225</v>
+        <v>819</v>
       </c>
       <c r="B244" s="35" t="s">
-        <v>128</v>
+        <v>757</v>
       </c>
       <c r="C244" s="35" t="s">
-        <v>447</v>
+        <v>758</v>
       </c>
       <c r="D244" s="36" t="s">
         <v>555</v>
@@ -15853,10 +15847,10 @@
         <v>826</v>
       </c>
       <c r="K244" s="36" t="s">
-        <v>434</v>
+        <v>857</v>
       </c>
       <c r="L244" s="36" t="s">
-        <v>628</v>
+        <v>552</v>
       </c>
       <c r="M244" s="8" t="s">
         <v>162</v>
@@ -15867,13 +15861,13 @@
     </row>
     <row r="245" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A245" s="34" t="s">
-        <v>510</v>
+        <v>820</v>
       </c>
       <c r="B245" s="35" t="s">
-        <v>540</v>
+        <v>759</v>
       </c>
       <c r="C245" s="35" t="s">
-        <v>562</v>
+        <v>760</v>
       </c>
       <c r="D245" s="36" t="s">
         <v>555</v>
@@ -15897,10 +15891,10 @@
         <v>826</v>
       </c>
       <c r="K245" s="36" t="s">
-        <v>434</v>
+        <v>857</v>
       </c>
       <c r="L245" s="36" t="s">
-        <v>552</v>
+        <v>908</v>
       </c>
       <c r="M245" s="8" t="s">
         <v>162</v>
@@ -15911,13 +15905,13 @@
     </row>
     <row r="246" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A246" s="34" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B246" s="35" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="C246" s="35" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="D246" s="36" t="s">
         <v>555</v>
@@ -15944,7 +15938,7 @@
         <v>857</v>
       </c>
       <c r="L246" s="36" t="s">
-        <v>552</v>
+        <v>901</v>
       </c>
       <c r="M246" s="8" t="s">
         <v>162</v>
@@ -15955,13 +15949,13 @@
     </row>
     <row r="247" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A247" s="34" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="B247" s="35" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="C247" s="35" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="D247" s="36" t="s">
         <v>555</v>
@@ -15985,10 +15979,10 @@
         <v>826</v>
       </c>
       <c r="K247" s="36" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="L247" s="36" t="s">
-        <v>908</v>
+        <v>386</v>
       </c>
       <c r="M247" s="8" t="s">
         <v>162</v>
@@ -15999,13 +15993,13 @@
     </row>
     <row r="248" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A248" s="34" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B248" s="35" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="C248" s="35" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="D248" s="36" t="s">
         <v>555</v>
@@ -16029,10 +16023,10 @@
         <v>826</v>
       </c>
       <c r="K248" s="36" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="L248" s="36" t="s">
-        <v>901</v>
+        <v>386</v>
       </c>
       <c r="M248" s="8" t="s">
         <v>162</v>
@@ -16040,16 +16034,17 @@
       <c r="N248" s="8" t="s">
         <v>162</v>
       </c>
+      <c r="P248" s="46"/>
     </row>
     <row r="249" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A249" s="34" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B249" s="35" t="s">
-        <v>763</v>
+        <v>886</v>
       </c>
       <c r="C249" s="35" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="D249" s="36" t="s">
         <v>555</v>
@@ -16076,7 +16071,7 @@
         <v>859</v>
       </c>
       <c r="L249" s="36" t="s">
-        <v>386</v>
+        <v>907</v>
       </c>
       <c r="M249" s="8" t="s">
         <v>162</v>
@@ -16087,13 +16082,13 @@
     </row>
     <row r="250" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A250" s="34" t="s">
-        <v>822</v>
+        <v>800</v>
       </c>
       <c r="B250" s="35" t="s">
-        <v>765</v>
+        <v>773</v>
       </c>
       <c r="C250" s="35" t="s">
-        <v>766</v>
+        <v>774</v>
       </c>
       <c r="D250" s="36" t="s">
         <v>555</v>
@@ -16113,14 +16108,14 @@
       <c r="I250" s="35" t="s">
         <v>632</v>
       </c>
-      <c r="J250" s="36" t="s">
-        <v>826</v>
-      </c>
-      <c r="K250" s="36" t="s">
-        <v>859</v>
-      </c>
-      <c r="L250" s="36" t="s">
-        <v>386</v>
+      <c r="J250" s="35" t="s">
+        <v>825</v>
+      </c>
+      <c r="K250" s="35" t="s">
+        <v>860</v>
+      </c>
+      <c r="L250" s="35" t="s">
+        <v>403</v>
       </c>
       <c r="M250" s="8" t="s">
         <v>162</v>
@@ -16128,17 +16123,16 @@
       <c r="N250" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="P250" s="46"/>
     </row>
     <row r="251" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A251" s="34" t="s">
-        <v>813</v>
+        <v>796</v>
       </c>
       <c r="B251" s="35" t="s">
-        <v>886</v>
+        <v>797</v>
       </c>
       <c r="C251" s="35" t="s">
-        <v>767</v>
+        <v>798</v>
       </c>
       <c r="D251" s="36" t="s">
         <v>555</v>
@@ -16162,10 +16156,10 @@
         <v>826</v>
       </c>
       <c r="K251" s="36" t="s">
-        <v>859</v>
+        <v>434</v>
       </c>
       <c r="L251" s="36" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="M251" s="8" t="s">
         <v>162</v>
@@ -16174,100 +16168,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="252" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="A252" s="34" t="s">
-        <v>800</v>
-      </c>
-      <c r="B252" s="35" t="s">
-        <v>773</v>
-      </c>
-      <c r="C252" s="35" t="s">
-        <v>774</v>
-      </c>
-      <c r="D252" s="36" t="s">
-        <v>555</v>
-      </c>
-      <c r="E252" s="36" t="s">
-        <v>566</v>
-      </c>
-      <c r="F252" s="36" t="s">
-        <v>566</v>
-      </c>
-      <c r="G252" s="35" t="s">
-        <v>335</v>
-      </c>
-      <c r="H252" s="35" t="s">
-        <v>873</v>
-      </c>
-      <c r="I252" s="35" t="s">
-        <v>632</v>
-      </c>
-      <c r="J252" s="35" t="s">
-        <v>825</v>
-      </c>
-      <c r="K252" s="35" t="s">
-        <v>860</v>
-      </c>
-      <c r="L252" s="35" t="s">
-        <v>403</v>
-      </c>
-      <c r="M252" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="N252" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="253" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="A253" s="34" t="s">
-        <v>796</v>
-      </c>
-      <c r="B253" s="35" t="s">
-        <v>797</v>
-      </c>
-      <c r="C253" s="35" t="s">
-        <v>798</v>
-      </c>
-      <c r="D253" s="36" t="s">
-        <v>555</v>
-      </c>
-      <c r="E253" s="36" t="s">
-        <v>566</v>
-      </c>
-      <c r="F253" s="36" t="s">
-        <v>566</v>
-      </c>
-      <c r="G253" s="35" t="s">
-        <v>335</v>
-      </c>
-      <c r="H253" s="35" t="s">
-        <v>873</v>
-      </c>
-      <c r="I253" s="35" t="s">
-        <v>632</v>
-      </c>
-      <c r="J253" s="36" t="s">
-        <v>826</v>
-      </c>
-      <c r="K253" s="36" t="s">
-        <v>434</v>
-      </c>
-      <c r="L253" s="36" t="s">
-        <v>900</v>
-      </c>
-      <c r="M253" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="N253" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N253">
-    <sortCondition ref="E2:E253"/>
-    <sortCondition ref="F2:F253"/>
-    <sortCondition ref="G2:G253"/>
-    <sortCondition ref="H2:H253"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N251">
+    <sortCondition ref="E2:E251"/>
+    <sortCondition ref="F2:F251"/>
+    <sortCondition ref="G2:G251"/>
+    <sortCondition ref="H2:H251"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="B61" r:id="rId1" display="https://it.wikipedia.org/wiki/Baiyangdian_virus" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -16287,7 +16193,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16353,19 +16259,19 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>519</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>550</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>629</v>
-      </c>
-      <c r="F6" t="s">
-        <v>917</v>
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>19741066</v>
       </c>
       <c r="J6" s="37"/>
       <c r="N6" s="1"/>
@@ -16373,10 +16279,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>519</v>
+        <v>917</v>
       </c>
       <c r="B7" t="s">
-        <v>550</v>
+        <v>146</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -16385,7 +16291,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>19741066</v>
+        <v>26355096</v>
       </c>
       <c r="J7" s="37"/>
       <c r="N7" s="1"/>
@@ -16393,10 +16299,10 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>918</v>
+        <v>473</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>474</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -16405,31 +16311,53 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>26355096</v>
+        <v>26172158</v>
       </c>
       <c r="J8" s="37"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>473</v>
-      </c>
-      <c r="B9" t="s">
-        <v>474</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>26172158</v>
-      </c>
-      <c r="J9" s="37"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+    <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="42" t="s">
+        <v>941</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>950</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36" t="s">
+        <v>555</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>497</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>659</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>602</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>632</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>869</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>823</v>
+      </c>
+      <c r="L9" t="s">
+        <v>951</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>162</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F316D80-E5B1-C846-A132-2A14F79CB4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0D2DB1-7E7D-2B4D-9D5A-9FCD66A56E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="47480" windowHeight="22740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="2300" windowWidth="47480" windowHeight="22740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="reference species" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3477" uniqueCount="1014">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3491" uniqueCount="1015">
   <si>
     <t>AY632538</t>
   </si>
@@ -3071,6 +3071,9 @@
   </si>
   <si>
     <t>Goniurosaurus luii</t>
+  </si>
+  <si>
+    <t>DFlV_Seg1</t>
   </si>
 </sst>
 </file>
@@ -5256,11 +5259,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P251"/>
+  <dimension ref="A1:P252"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E105" sqref="A1:N252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9994,7 +9997,7 @@
       </c>
     </row>
     <row r="111" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A111" s="25" t="s">
+      <c r="A111" s="24" t="s">
         <v>928</v>
       </c>
       <c r="B111" s="25" t="s">
@@ -10038,7 +10041,7 @@
       </c>
     </row>
     <row r="112" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A112" s="25" t="s">
+      <c r="A112" s="24" t="s">
         <v>929</v>
       </c>
       <c r="B112" s="25" t="s">
@@ -10082,7 +10085,7 @@
       </c>
     </row>
     <row r="113" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A113" s="25" t="s">
+      <c r="A113" s="24" t="s">
         <v>930</v>
       </c>
       <c r="B113" s="25" t="s">
@@ -10126,7 +10129,7 @@
       </c>
     </row>
     <row r="114" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A114" s="25" t="s">
+      <c r="A114" s="24" t="s">
         <v>931</v>
       </c>
       <c r="B114" s="25" t="s">
@@ -10170,7 +10173,7 @@
       </c>
     </row>
     <row r="115" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A115" s="25" t="s">
+      <c r="A115" s="24" t="s">
         <v>932</v>
       </c>
       <c r="B115" s="25" t="s">
@@ -10214,7 +10217,7 @@
       </c>
     </row>
     <row r="116" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A116" s="25" t="s">
+      <c r="A116" s="24" t="s">
         <v>933</v>
       </c>
       <c r="B116" s="25" t="s">
@@ -10258,7 +10261,7 @@
       </c>
     </row>
     <row r="117" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A117" s="25" t="s">
+      <c r="A117" s="24" t="s">
         <v>934</v>
       </c>
       <c r="B117" s="25" t="s">
@@ -10302,7 +10305,7 @@
       </c>
     </row>
     <row r="118" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A118" s="25" t="s">
+      <c r="A118" s="24" t="s">
         <v>935</v>
       </c>
       <c r="B118" s="25" t="s">
@@ -10346,7 +10349,7 @@
       </c>
     </row>
     <row r="119" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A119" s="25" t="s">
+      <c r="A119" s="24" t="s">
         <v>936</v>
       </c>
       <c r="B119" s="25" t="s">
@@ -10390,7 +10393,7 @@
       </c>
     </row>
     <row r="120" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A120" s="25" t="s">
+      <c r="A120" s="24" t="s">
         <v>942</v>
       </c>
       <c r="B120" s="25" t="s">
@@ -10434,7 +10437,7 @@
       </c>
     </row>
     <row r="121" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A121" s="25" t="s">
+      <c r="A121" s="24" t="s">
         <v>944</v>
       </c>
       <c r="B121" s="25" t="s">
@@ -10478,14 +10481,14 @@
       </c>
     </row>
     <row r="122" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A122" s="25" t="s">
-        <v>945</v>
+      <c r="A122" s="24" t="s">
+        <v>473</v>
       </c>
       <c r="B122" s="25" t="s">
-        <v>946</v>
+        <v>474</v>
       </c>
       <c r="C122" s="25" t="s">
-        <v>999</v>
+        <v>1014</v>
       </c>
       <c r="D122" s="25" t="s">
         <v>500</v>
@@ -10512,51 +10515,51 @@
         <v>823</v>
       </c>
       <c r="L122" s="25" t="s">
+        <v>487</v>
+      </c>
+      <c r="M122" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="N122" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A123" s="24" t="s">
+        <v>945</v>
+      </c>
+      <c r="B123" s="25" t="s">
+        <v>946</v>
+      </c>
+      <c r="C123" s="25" t="s">
+        <v>999</v>
+      </c>
+      <c r="D123" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="E123" s="25" t="s">
+        <v>497</v>
+      </c>
+      <c r="F123" s="25" t="s">
+        <v>659</v>
+      </c>
+      <c r="G123" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="H123" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="I123" s="25" t="s">
+        <v>632</v>
+      </c>
+      <c r="J123" s="25" t="s">
+        <v>869</v>
+      </c>
+      <c r="K123" s="25" t="s">
+        <v>823</v>
+      </c>
+      <c r="L123" s="25" t="s">
         <v>996</v>
-      </c>
-      <c r="M122" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="N122" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A123" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="B123" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C123" s="23" t="s">
-        <v>301</v>
-      </c>
-      <c r="D123" s="23" t="s">
-        <v>555</v>
-      </c>
-      <c r="E123" s="23" t="s">
-        <v>497</v>
-      </c>
-      <c r="F123" s="23" t="s">
-        <v>659</v>
-      </c>
-      <c r="G123" s="23" t="s">
-        <v>462</v>
-      </c>
-      <c r="H123" s="23" t="s">
-        <v>888</v>
-      </c>
-      <c r="I123" s="23" t="s">
-        <v>632</v>
-      </c>
-      <c r="J123" s="23" t="s">
-        <v>826</v>
-      </c>
-      <c r="K123" s="23" t="s">
-        <v>857</v>
-      </c>
-      <c r="L123" s="23" t="s">
-        <v>85</v>
       </c>
       <c r="M123" s="8" t="s">
         <v>162</v>
@@ -10567,13 +10570,13 @@
     </row>
     <row r="124" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A124" s="32" t="s">
-        <v>389</v>
+        <v>199</v>
       </c>
       <c r="B124" s="23" t="s">
-        <v>394</v>
+        <v>84</v>
       </c>
       <c r="C124" s="23" t="s">
-        <v>451</v>
+        <v>301</v>
       </c>
       <c r="D124" s="23" t="s">
         <v>555</v>
@@ -10594,13 +10597,13 @@
         <v>632</v>
       </c>
       <c r="J124" s="23" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="K124" s="23" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="L124" s="23" t="s">
-        <v>395</v>
+        <v>85</v>
       </c>
       <c r="M124" s="8" t="s">
         <v>162</v>
@@ -10611,13 +10614,13 @@
     </row>
     <row r="125" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A125" s="32" t="s">
-        <v>642</v>
+        <v>389</v>
       </c>
       <c r="B125" s="23" t="s">
-        <v>643</v>
+        <v>394</v>
       </c>
       <c r="C125" s="23" t="s">
-        <v>642</v>
+        <v>451</v>
       </c>
       <c r="D125" s="23" t="s">
         <v>555</v>
@@ -10638,13 +10641,13 @@
         <v>632</v>
       </c>
       <c r="J125" s="23" t="s">
-        <v>869</v>
+        <v>830</v>
       </c>
       <c r="K125" s="23" t="s">
-        <v>823</v>
+        <v>870</v>
       </c>
       <c r="L125" s="23" t="s">
-        <v>644</v>
+        <v>395</v>
       </c>
       <c r="M125" s="8" t="s">
         <v>162</v>
@@ -10655,13 +10658,13 @@
     </row>
     <row r="126" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A126" s="32" t="s">
-        <v>890</v>
+        <v>642</v>
       </c>
       <c r="B126" s="23" t="s">
-        <v>891</v>
+        <v>643</v>
       </c>
       <c r="C126" s="23" t="s">
-        <v>890</v>
+        <v>642</v>
       </c>
       <c r="D126" s="23" t="s">
         <v>555</v>
@@ -10682,13 +10685,13 @@
         <v>632</v>
       </c>
       <c r="J126" s="23" t="s">
-        <v>892</v>
+        <v>869</v>
       </c>
       <c r="K126" s="23" t="s">
-        <v>893</v>
+        <v>823</v>
       </c>
       <c r="L126" s="23" t="s">
-        <v>893</v>
+        <v>644</v>
       </c>
       <c r="M126" s="8" t="s">
         <v>162</v>
@@ -10699,13 +10702,13 @@
     </row>
     <row r="127" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A127" s="32" t="s">
-        <v>645</v>
+        <v>890</v>
       </c>
       <c r="B127" s="23" t="s">
-        <v>646</v>
+        <v>891</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>647</v>
+        <v>890</v>
       </c>
       <c r="D127" s="23" t="s">
         <v>555</v>
@@ -10726,13 +10729,13 @@
         <v>632</v>
       </c>
       <c r="J127" s="23" t="s">
-        <v>869</v>
+        <v>892</v>
       </c>
       <c r="K127" s="23" t="s">
-        <v>823</v>
+        <v>893</v>
       </c>
       <c r="L127" s="23" t="s">
-        <v>656</v>
+        <v>893</v>
       </c>
       <c r="M127" s="8" t="s">
         <v>162</v>
@@ -10743,13 +10746,13 @@
     </row>
     <row r="128" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A128" s="32" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="B128" s="23" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="C128" s="23" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="D128" s="23" t="s">
         <v>555</v>
@@ -10776,7 +10779,7 @@
         <v>823</v>
       </c>
       <c r="L128" s="23" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="M128" s="8" t="s">
         <v>162</v>
@@ -10787,13 +10790,13 @@
     </row>
     <row r="129" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A129" s="32" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="B129" s="23" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C129" s="23" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="D129" s="23" t="s">
         <v>555</v>
@@ -10820,7 +10823,7 @@
         <v>823</v>
       </c>
       <c r="L129" s="23" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M129" s="8" t="s">
         <v>162</v>
@@ -10831,13 +10834,13 @@
     </row>
     <row r="130" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A130" s="32" t="s">
-        <v>387</v>
+        <v>648</v>
       </c>
       <c r="B130" s="23" t="s">
-        <v>390</v>
+        <v>649</v>
       </c>
       <c r="C130" s="23" t="s">
-        <v>606</v>
+        <v>650</v>
       </c>
       <c r="D130" s="23" t="s">
         <v>555</v>
@@ -10858,13 +10861,13 @@
         <v>632</v>
       </c>
       <c r="J130" s="23" t="s">
-        <v>830</v>
+        <v>869</v>
       </c>
       <c r="K130" s="23" t="s">
-        <v>870</v>
+        <v>823</v>
       </c>
       <c r="L130" s="23" t="s">
-        <v>393</v>
+        <v>655</v>
       </c>
       <c r="M130" s="8" t="s">
         <v>162</v>
@@ -10875,13 +10878,13 @@
     </row>
     <row r="131" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A131" s="32" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B131" s="23" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C131" s="23" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D131" s="23" t="s">
         <v>555</v>
@@ -10902,13 +10905,13 @@
         <v>632</v>
       </c>
       <c r="J131" s="23" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K131" s="23" t="s">
-        <v>831</v>
+        <v>870</v>
       </c>
       <c r="L131" s="23" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M131" s="8" t="s">
         <v>162</v>
@@ -10919,13 +10922,13 @@
     </row>
     <row r="132" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A132" s="32" t="s">
-        <v>568</v>
+        <v>388</v>
       </c>
       <c r="B132" s="23" t="s">
-        <v>573</v>
+        <v>391</v>
       </c>
       <c r="C132" s="23" t="s">
-        <v>577</v>
+        <v>605</v>
       </c>
       <c r="D132" s="23" t="s">
         <v>555</v>
@@ -10940,19 +10943,19 @@
         <v>462</v>
       </c>
       <c r="H132" s="23" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="I132" s="23" t="s">
         <v>632</v>
       </c>
       <c r="J132" s="23" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="K132" s="23" t="s">
-        <v>866</v>
+        <v>831</v>
       </c>
       <c r="L132" s="23" t="s">
-        <v>1000</v>
+        <v>392</v>
       </c>
       <c r="M132" s="8" t="s">
         <v>162</v>
@@ -10963,13 +10966,13 @@
     </row>
     <row r="133" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A133" s="32" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B133" s="23" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C133" s="23" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D133" s="23" t="s">
         <v>555</v>
@@ -10996,7 +10999,7 @@
         <v>866</v>
       </c>
       <c r="L133" s="23" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="M133" s="8" t="s">
         <v>162</v>
@@ -11007,13 +11010,13 @@
     </row>
     <row r="134" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A134" s="32" t="s">
-        <v>638</v>
+        <v>571</v>
       </c>
       <c r="B134" s="23" t="s">
-        <v>639</v>
+        <v>575</v>
       </c>
       <c r="C134" s="23" t="s">
-        <v>640</v>
+        <v>578</v>
       </c>
       <c r="D134" s="23" t="s">
         <v>555</v>
@@ -11028,63 +11031,63 @@
         <v>462</v>
       </c>
       <c r="H134" s="23" t="s">
+        <v>887</v>
+      </c>
+      <c r="I134" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="J134" s="23" t="s">
+        <v>829</v>
+      </c>
+      <c r="K134" s="23" t="s">
+        <v>866</v>
+      </c>
+      <c r="L134" s="23" t="s">
+        <v>1001</v>
+      </c>
+      <c r="M134" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="N134" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A135" s="32" t="s">
+        <v>638</v>
+      </c>
+      <c r="B135" s="23" t="s">
+        <v>639</v>
+      </c>
+      <c r="C135" s="23" t="s">
+        <v>640</v>
+      </c>
+      <c r="D135" s="23" t="s">
+        <v>555</v>
+      </c>
+      <c r="E135" s="23" t="s">
+        <v>497</v>
+      </c>
+      <c r="F135" s="23" t="s">
+        <v>659</v>
+      </c>
+      <c r="G135" s="23" t="s">
+        <v>462</v>
+      </c>
+      <c r="H135" s="23" t="s">
         <v>889</v>
       </c>
-      <c r="I134" s="23" t="s">
-        <v>632</v>
-      </c>
-      <c r="J134" s="23" t="s">
+      <c r="I135" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="J135" s="23" t="s">
         <v>830</v>
       </c>
-      <c r="K134" s="23" t="s">
+      <c r="K135" s="23" t="s">
         <v>870</v>
       </c>
-      <c r="L134" s="23" t="s">
+      <c r="L135" s="23" t="s">
         <v>641</v>
-      </c>
-      <c r="M134" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="N134" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A135" s="43" t="s">
-        <v>411</v>
-      </c>
-      <c r="B135" s="44" t="s">
-        <v>412</v>
-      </c>
-      <c r="C135" s="45" t="s">
-        <v>455</v>
-      </c>
-      <c r="D135" s="45" t="s">
-        <v>555</v>
-      </c>
-      <c r="E135" s="45" t="s">
-        <v>497</v>
-      </c>
-      <c r="F135" s="45" t="s">
-        <v>660</v>
-      </c>
-      <c r="G135" s="45" t="s">
-        <v>657</v>
-      </c>
-      <c r="H135" s="45" t="s">
-        <v>632</v>
-      </c>
-      <c r="I135" s="45" t="s">
-        <v>632</v>
-      </c>
-      <c r="J135" s="45" t="s">
-        <v>869</v>
-      </c>
-      <c r="K135" s="45" t="s">
-        <v>823</v>
-      </c>
-      <c r="L135" s="45" t="s">
-        <v>417</v>
       </c>
       <c r="M135" s="8" t="s">
         <v>162</v>
@@ -11095,13 +11098,13 @@
     </row>
     <row r="136" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A136" s="43" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B136" s="44" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C136" s="45" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D136" s="45" t="s">
         <v>555</v>
@@ -11128,7 +11131,7 @@
         <v>823</v>
       </c>
       <c r="L136" s="45" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="M136" s="8" t="s">
         <v>162</v>
@@ -11138,13 +11141,15 @@
       </c>
     </row>
     <row r="137" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A137" s="47" t="s">
-        <v>918</v>
-      </c>
-      <c r="B137" s="45" t="s">
-        <v>952</v>
-      </c>
-      <c r="C137" s="45"/>
+      <c r="A137" s="43" t="s">
+        <v>409</v>
+      </c>
+      <c r="B137" s="44" t="s">
+        <v>414</v>
+      </c>
+      <c r="C137" s="45" t="s">
+        <v>452</v>
+      </c>
       <c r="D137" s="45" t="s">
         <v>555</v>
       </c>
@@ -11158,7 +11163,7 @@
         <v>657</v>
       </c>
       <c r="H137" s="45" t="s">
-        <v>597</v>
+        <v>632</v>
       </c>
       <c r="I137" s="45" t="s">
         <v>632</v>
@@ -11170,7 +11175,7 @@
         <v>823</v>
       </c>
       <c r="L137" s="45" t="s">
-        <v>971</v>
+        <v>415</v>
       </c>
       <c r="M137" s="8" t="s">
         <v>162</v>
@@ -11181,10 +11186,10 @@
     </row>
     <row r="138" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A138" s="47" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B138" s="45" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C138" s="45"/>
       <c r="D138" s="45" t="s">
@@ -11212,7 +11217,7 @@
         <v>823</v>
       </c>
       <c r="L138" s="45" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="M138" s="8" t="s">
         <v>162</v>
@@ -11223,10 +11228,10 @@
     </row>
     <row r="139" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A139" s="47" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B139" s="45" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="C139" s="45"/>
       <c r="D139" s="45" t="s">
@@ -11254,7 +11259,7 @@
         <v>823</v>
       </c>
       <c r="L139" s="45" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M139" s="8" t="s">
         <v>162</v>
@@ -11265,10 +11270,10 @@
     </row>
     <row r="140" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A140" s="47" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B140" s="45" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C140" s="45"/>
       <c r="D140" s="45" t="s">
@@ -11296,7 +11301,7 @@
         <v>823</v>
       </c>
       <c r="L140" s="45" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="M140" s="8" t="s">
         <v>162</v>
@@ -11307,10 +11312,10 @@
     </row>
     <row r="141" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A141" s="47" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B141" s="45" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C141" s="45"/>
       <c r="D141" s="45" t="s">
@@ -11338,7 +11343,7 @@
         <v>823</v>
       </c>
       <c r="L141" s="45" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="M141" s="8" t="s">
         <v>162</v>
@@ -11349,10 +11354,10 @@
     </row>
     <row r="142" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A142" s="47" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B142" s="45" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C142" s="45"/>
       <c r="D142" s="45" t="s">
@@ -11380,7 +11385,7 @@
         <v>823</v>
       </c>
       <c r="L142" s="45" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="M142" s="8" t="s">
         <v>162</v>
@@ -11391,10 +11396,10 @@
     </row>
     <row r="143" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A143" s="47" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B143" s="45" t="s">
-        <v>954</v>
+        <v>961</v>
       </c>
       <c r="C143" s="45"/>
       <c r="D143" s="45" t="s">
@@ -11422,7 +11427,7 @@
         <v>823</v>
       </c>
       <c r="L143" s="45" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="M143" s="8" t="s">
         <v>162</v>
@@ -11433,10 +11438,10 @@
     </row>
     <row r="144" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A144" s="47" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B144" s="45" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C144" s="45"/>
       <c r="D144" s="45" t="s">
@@ -11464,7 +11469,7 @@
         <v>823</v>
       </c>
       <c r="L144" s="45" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="M144" s="8" t="s">
         <v>162</v>
@@ -11475,10 +11480,10 @@
     </row>
     <row r="145" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A145" s="47" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B145" s="45" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="C145" s="45"/>
       <c r="D145" s="45" t="s">
@@ -11494,7 +11499,7 @@
         <v>657</v>
       </c>
       <c r="H145" s="45" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="I145" s="45" t="s">
         <v>632</v>
@@ -11506,7 +11511,7 @@
         <v>823</v>
       </c>
       <c r="L145" s="45" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="M145" s="8" t="s">
         <v>162</v>
@@ -11517,10 +11522,10 @@
     </row>
     <row r="146" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A146" s="47" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B146" s="45" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C146" s="45"/>
       <c r="D146" s="45" t="s">
@@ -11548,7 +11553,7 @@
         <v>823</v>
       </c>
       <c r="L146" s="45" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="M146" s="8" t="s">
         <v>162</v>
@@ -11559,10 +11564,10 @@
     </row>
     <row r="147" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A147" s="47" t="s">
-        <v>937</v>
+        <v>927</v>
       </c>
       <c r="B147" s="45" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="C147" s="45"/>
       <c r="D147" s="45" t="s">
@@ -11578,7 +11583,7 @@
         <v>657</v>
       </c>
       <c r="H147" s="45" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I147" s="45" t="s">
         <v>632</v>
@@ -11590,7 +11595,7 @@
         <v>823</v>
       </c>
       <c r="L147" s="45" t="s">
-        <v>967</v>
+        <v>980</v>
       </c>
       <c r="M147" s="8" t="s">
         <v>162</v>
@@ -11601,10 +11606,10 @@
     </row>
     <row r="148" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A148" s="47" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B148" s="45" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="C148" s="45"/>
       <c r="D148" s="45" t="s">
@@ -11632,7 +11637,7 @@
         <v>823</v>
       </c>
       <c r="L148" s="45" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="M148" s="8" t="s">
         <v>162</v>
@@ -11643,10 +11648,10 @@
     </row>
     <row r="149" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A149" s="47" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B149" s="45" t="s">
-        <v>1002</v>
+        <v>965</v>
       </c>
       <c r="C149" s="45"/>
       <c r="D149" s="45" t="s">
@@ -11674,7 +11679,7 @@
         <v>823</v>
       </c>
       <c r="L149" s="45" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="M149" s="8" t="s">
         <v>162</v>
@@ -11685,10 +11690,10 @@
     </row>
     <row r="150" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A150" s="47" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B150" s="45" t="s">
-        <v>964</v>
+        <v>1002</v>
       </c>
       <c r="C150" s="45"/>
       <c r="D150" s="45" t="s">
@@ -11704,7 +11709,7 @@
         <v>657</v>
       </c>
       <c r="H150" s="45" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="I150" s="45" t="s">
         <v>632</v>
@@ -11716,7 +11721,7 @@
         <v>823</v>
       </c>
       <c r="L150" s="45" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="M150" s="8" t="s">
         <v>162</v>
@@ -11726,15 +11731,13 @@
       </c>
     </row>
     <row r="151" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A151" s="43" t="s">
-        <v>410</v>
-      </c>
-      <c r="B151" s="44" t="s">
-        <v>413</v>
-      </c>
-      <c r="C151" s="45" t="s">
-        <v>453</v>
-      </c>
+      <c r="A151" s="47" t="s">
+        <v>940</v>
+      </c>
+      <c r="B151" s="45" t="s">
+        <v>964</v>
+      </c>
+      <c r="C151" s="45"/>
       <c r="D151" s="45" t="s">
         <v>555</v>
       </c>
@@ -11757,10 +11760,10 @@
         <v>869</v>
       </c>
       <c r="K151" s="45" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="L151" s="45" t="s">
-        <v>416</v>
+        <v>970</v>
       </c>
       <c r="M151" s="8" t="s">
         <v>162</v>
@@ -11771,13 +11774,13 @@
     </row>
     <row r="152" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A152" s="43" t="s">
-        <v>375</v>
+        <v>410</v>
       </c>
       <c r="B152" s="44" t="s">
-        <v>381</v>
+        <v>413</v>
       </c>
       <c r="C152" s="45" t="s">
-        <v>378</v>
+        <v>453</v>
       </c>
       <c r="D152" s="45" t="s">
         <v>555</v>
@@ -11798,13 +11801,13 @@
         <v>632</v>
       </c>
       <c r="J152" s="45" t="s">
-        <v>835</v>
+        <v>869</v>
       </c>
       <c r="K152" s="45" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="L152" s="45" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="M152" s="8" t="s">
         <v>162</v>
@@ -11815,13 +11818,13 @@
     </row>
     <row r="153" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A153" s="43" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B153" s="44" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C153" s="45" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D153" s="45" t="s">
         <v>555</v>
@@ -11848,7 +11851,7 @@
         <v>835</v>
       </c>
       <c r="L153" s="45" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M153" s="8" t="s">
         <v>162</v>
@@ -11859,13 +11862,13 @@
     </row>
     <row r="154" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A154" s="43" t="s">
-        <v>470</v>
+        <v>379</v>
       </c>
       <c r="B154" s="44" t="s">
-        <v>471</v>
+        <v>376</v>
       </c>
       <c r="C154" s="45" t="s">
-        <v>609</v>
+        <v>377</v>
       </c>
       <c r="D154" s="45" t="s">
         <v>555</v>
@@ -11886,13 +11889,13 @@
         <v>632</v>
       </c>
       <c r="J154" s="45" t="s">
-        <v>869</v>
+        <v>835</v>
       </c>
       <c r="K154" s="45" t="s">
-        <v>823</v>
+        <v>835</v>
       </c>
       <c r="L154" s="45" t="s">
-        <v>913</v>
+        <v>405</v>
       </c>
       <c r="M154" s="8" t="s">
         <v>162</v>
@@ -11903,13 +11906,13 @@
     </row>
     <row r="155" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A155" s="43" t="s">
-        <v>586</v>
+        <v>470</v>
       </c>
       <c r="B155" s="44" t="s">
-        <v>587</v>
+        <v>471</v>
       </c>
       <c r="C155" s="45" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D155" s="45" t="s">
         <v>555</v>
@@ -11933,10 +11936,10 @@
         <v>869</v>
       </c>
       <c r="K155" s="45" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
       <c r="L155" s="45" t="s">
-        <v>1003</v>
+        <v>913</v>
       </c>
       <c r="M155" s="8" t="s">
         <v>162</v>
@@ -11947,13 +11950,13 @@
     </row>
     <row r="156" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A156" s="43" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B156" s="44" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C156" s="45" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D156" s="45" t="s">
         <v>555</v>
@@ -11977,10 +11980,10 @@
         <v>869</v>
       </c>
       <c r="K156" s="45" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="L156" s="45" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="M156" s="8" t="s">
         <v>162</v>
@@ -11991,13 +11994,13 @@
     </row>
     <row r="157" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A157" s="43" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B157" s="44" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C157" s="45" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D157" s="45" t="s">
         <v>555</v>
@@ -12021,10 +12024,10 @@
         <v>869</v>
       </c>
       <c r="K157" s="45" t="s">
-        <v>823</v>
+        <v>837</v>
       </c>
       <c r="L157" s="45" t="s">
-        <v>487</v>
+        <v>1004</v>
       </c>
       <c r="M157" s="8" t="s">
         <v>162</v>
@@ -12035,13 +12038,13 @@
     </row>
     <row r="158" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A158" s="43" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B158" s="44" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C158" s="45" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D158" s="45" t="s">
         <v>555</v>
@@ -12068,7 +12071,7 @@
         <v>823</v>
       </c>
       <c r="L158" s="45" t="s">
-        <v>598</v>
+        <v>487</v>
       </c>
       <c r="M158" s="8" t="s">
         <v>162</v>
@@ -12079,13 +12082,13 @@
     </row>
     <row r="159" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A159" s="43" t="s">
-        <v>459</v>
+        <v>594</v>
       </c>
       <c r="B159" s="44" t="s">
-        <v>380</v>
+        <v>595</v>
       </c>
       <c r="C159" s="45" t="s">
-        <v>454</v>
+        <v>612</v>
       </c>
       <c r="D159" s="45" t="s">
         <v>555</v>
@@ -12100,7 +12103,7 @@
         <v>657</v>
       </c>
       <c r="H159" s="45" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I159" s="45" t="s">
         <v>632</v>
@@ -12112,7 +12115,7 @@
         <v>823</v>
       </c>
       <c r="L159" s="45" t="s">
-        <v>383</v>
+        <v>598</v>
       </c>
       <c r="M159" s="8" t="s">
         <v>162</v>
@@ -12123,13 +12126,13 @@
     </row>
     <row r="160" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A160" s="43" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B160" s="44" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C160" s="45" t="s">
-        <v>498</v>
+        <v>454</v>
       </c>
       <c r="D160" s="45" t="s">
         <v>555</v>
@@ -12156,7 +12159,7 @@
         <v>823</v>
       </c>
       <c r="L160" s="45" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M160" s="8" t="s">
         <v>162</v>
@@ -12167,13 +12170,13 @@
     </row>
     <row r="161" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A161" s="43" t="s">
-        <v>590</v>
+        <v>460</v>
       </c>
       <c r="B161" s="44" t="s">
-        <v>591</v>
+        <v>382</v>
       </c>
       <c r="C161" s="45" t="s">
-        <v>607</v>
+        <v>498</v>
       </c>
       <c r="D161" s="45" t="s">
         <v>555</v>
@@ -12200,51 +12203,51 @@
         <v>823</v>
       </c>
       <c r="L161" s="45" t="s">
+        <v>384</v>
+      </c>
+      <c r="M161" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="N161" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A162" s="43" t="s">
+        <v>590</v>
+      </c>
+      <c r="B162" s="44" t="s">
+        <v>591</v>
+      </c>
+      <c r="C162" s="45" t="s">
+        <v>607</v>
+      </c>
+      <c r="D162" s="45" t="s">
+        <v>555</v>
+      </c>
+      <c r="E162" s="45" t="s">
+        <v>497</v>
+      </c>
+      <c r="F162" s="45" t="s">
+        <v>660</v>
+      </c>
+      <c r="G162" s="45" t="s">
+        <v>657</v>
+      </c>
+      <c r="H162" s="45" t="s">
+        <v>597</v>
+      </c>
+      <c r="I162" s="45" t="s">
+        <v>632</v>
+      </c>
+      <c r="J162" s="45" t="s">
+        <v>869</v>
+      </c>
+      <c r="K162" s="45" t="s">
+        <v>823</v>
+      </c>
+      <c r="L162" s="45" t="s">
         <v>1005</v>
-      </c>
-      <c r="M161" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="N161" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A162" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="B162" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C162" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="D162" s="28" t="s">
-        <v>555</v>
-      </c>
-      <c r="E162" s="28" t="s">
-        <v>497</v>
-      </c>
-      <c r="F162" s="28" t="s">
-        <v>660</v>
-      </c>
-      <c r="G162" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="H162" s="28" t="s">
-        <v>881</v>
-      </c>
-      <c r="I162" s="28" t="s">
-        <v>632</v>
-      </c>
-      <c r="J162" s="28" t="s">
-        <v>826</v>
-      </c>
-      <c r="K162" s="28" t="s">
-        <v>859</v>
-      </c>
-      <c r="L162" s="28" t="s">
-        <v>103</v>
       </c>
       <c r="M162" s="8" t="s">
         <v>162</v>
@@ -12255,13 +12258,13 @@
     </row>
     <row r="163" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A163" s="26" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B163" s="27" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C163" s="28" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D163" s="28" t="s">
         <v>555</v>
@@ -12288,7 +12291,7 @@
         <v>859</v>
       </c>
       <c r="L163" s="28" t="s">
-        <v>386</v>
+        <v>103</v>
       </c>
       <c r="M163" s="8" t="s">
         <v>162</v>
@@ -12299,13 +12302,13 @@
     </row>
     <row r="164" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A164" s="26" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B164" s="27" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C164" s="28" t="s">
-        <v>442</v>
+        <v>292</v>
       </c>
       <c r="D164" s="28" t="s">
         <v>555</v>
@@ -12332,7 +12335,7 @@
         <v>859</v>
       </c>
       <c r="L164" s="28" t="s">
-        <v>176</v>
+        <v>386</v>
       </c>
       <c r="M164" s="8" t="s">
         <v>162</v>
@@ -12343,13 +12346,13 @@
     </row>
     <row r="165" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A165" s="26" t="s">
-        <v>250</v>
+        <v>196</v>
       </c>
       <c r="B165" s="27" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="C165" s="28" t="s">
-        <v>339</v>
+        <v>442</v>
       </c>
       <c r="D165" s="28" t="s">
         <v>555</v>
@@ -12376,7 +12379,7 @@
         <v>859</v>
       </c>
       <c r="L165" s="28" t="s">
-        <v>385</v>
+        <v>176</v>
       </c>
       <c r="M165" s="8" t="s">
         <v>162</v>
@@ -12387,13 +12390,13 @@
     </row>
     <row r="166" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A166" s="26" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="B166" s="27" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C166" s="28" t="s">
-        <v>443</v>
+        <v>339</v>
       </c>
       <c r="D166" s="28" t="s">
         <v>555</v>
@@ -12420,7 +12423,7 @@
         <v>859</v>
       </c>
       <c r="L166" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M166" s="8" t="s">
         <v>162</v>
@@ -12431,13 +12434,13 @@
     </row>
     <row r="167" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A167" s="26" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="B167" s="27" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="C167" s="28" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D167" s="28" t="s">
         <v>555</v>
@@ -12464,7 +12467,7 @@
         <v>859</v>
       </c>
       <c r="L167" s="28" t="s">
-        <v>80</v>
+        <v>386</v>
       </c>
       <c r="M167" s="8" t="s">
         <v>162</v>
@@ -12475,13 +12478,13 @@
     </row>
     <row r="168" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A168" s="26" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="B168" s="27" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C168" s="28" t="s">
-        <v>330</v>
+        <v>446</v>
       </c>
       <c r="D168" s="28" t="s">
         <v>555</v>
@@ -12508,7 +12511,7 @@
         <v>859</v>
       </c>
       <c r="L168" s="28" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="M168" s="8" t="s">
         <v>162</v>
@@ -12519,13 +12522,13 @@
     </row>
     <row r="169" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A169" s="26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B169" s="27" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="C169" s="28" t="s">
-        <v>444</v>
+        <v>330</v>
       </c>
       <c r="D169" s="28" t="s">
         <v>555</v>
@@ -12552,7 +12555,7 @@
         <v>859</v>
       </c>
       <c r="L169" s="28" t="s">
-        <v>176</v>
+        <v>103</v>
       </c>
       <c r="M169" s="8" t="s">
         <v>162</v>
@@ -12563,13 +12566,13 @@
     </row>
     <row r="170" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A170" s="26" t="s">
-        <v>801</v>
-      </c>
-      <c r="B170" s="28" t="s">
-        <v>775</v>
+        <v>217</v>
+      </c>
+      <c r="B170" s="27" t="s">
+        <v>110</v>
       </c>
       <c r="C170" s="28" t="s">
-        <v>776</v>
+        <v>444</v>
       </c>
       <c r="D170" s="28" t="s">
         <v>555</v>
@@ -12593,10 +12596,10 @@
         <v>826</v>
       </c>
       <c r="K170" s="28" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="L170" s="28" t="s">
-        <v>1006</v>
+        <v>176</v>
       </c>
       <c r="M170" s="8" t="s">
         <v>162</v>
@@ -12607,13 +12610,13 @@
     </row>
     <row r="171" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A171" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B171" s="28" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C171" s="28" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D171" s="28" t="s">
         <v>555</v>
@@ -12651,13 +12654,13 @@
     </row>
     <row r="172" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A172" s="26" t="s">
-        <v>229</v>
+        <v>802</v>
       </c>
       <c r="B172" s="28" t="s">
-        <v>134</v>
+        <v>777</v>
       </c>
       <c r="C172" s="28" t="s">
-        <v>445</v>
+        <v>778</v>
       </c>
       <c r="D172" s="28" t="s">
         <v>555</v>
@@ -12672,7 +12675,7 @@
         <v>276</v>
       </c>
       <c r="H172" s="28" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="I172" s="28" t="s">
         <v>632</v>
@@ -12681,10 +12684,10 @@
         <v>826</v>
       </c>
       <c r="K172" s="28" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="L172" s="28" t="s">
-        <v>132</v>
+        <v>1006</v>
       </c>
       <c r="M172" s="8" t="s">
         <v>162</v>
@@ -12695,13 +12698,13 @@
     </row>
     <row r="173" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A173" s="26" t="s">
-        <v>804</v>
+        <v>229</v>
       </c>
       <c r="B173" s="28" t="s">
-        <v>781</v>
+        <v>134</v>
       </c>
       <c r="C173" s="28" t="s">
-        <v>782</v>
+        <v>445</v>
       </c>
       <c r="D173" s="28" t="s">
         <v>555</v>
@@ -12728,7 +12731,7 @@
         <v>858</v>
       </c>
       <c r="L173" s="28" t="s">
-        <v>1007</v>
+        <v>132</v>
       </c>
       <c r="M173" s="8" t="s">
         <v>162</v>
@@ -12739,13 +12742,13 @@
     </row>
     <row r="174" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A174" s="26" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B174" s="28" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C174" s="28" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D174" s="28" t="s">
         <v>555</v>
@@ -12772,7 +12775,7 @@
         <v>858</v>
       </c>
       <c r="L174" s="28" t="s">
-        <v>846</v>
+        <v>1007</v>
       </c>
       <c r="M174" s="8" t="s">
         <v>162</v>
@@ -12783,13 +12786,13 @@
     </row>
     <row r="175" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A175" s="26" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B175" s="28" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C175" s="28" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D175" s="28" t="s">
         <v>555</v>
@@ -12816,7 +12819,7 @@
         <v>858</v>
       </c>
       <c r="L175" s="28" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="M175" s="8" t="s">
         <v>162</v>
@@ -12827,13 +12830,13 @@
     </row>
     <row r="176" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A176" s="26" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B176" s="28" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C176" s="28" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D176" s="28" t="s">
         <v>555</v>
@@ -12860,7 +12863,7 @@
         <v>858</v>
       </c>
       <c r="L176" s="28" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="M176" s="8" t="s">
         <v>162</v>
@@ -12871,13 +12874,13 @@
     </row>
     <row r="177" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A177" s="26" t="s">
-        <v>195</v>
+        <v>807</v>
       </c>
       <c r="B177" s="28" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C177" s="28" t="s">
-        <v>774</v>
+        <v>788</v>
       </c>
       <c r="D177" s="28" t="s">
         <v>555</v>
@@ -12901,10 +12904,10 @@
         <v>826</v>
       </c>
       <c r="K177" s="28" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="L177" s="28" t="s">
-        <v>80</v>
+        <v>848</v>
       </c>
       <c r="M177" s="8" t="s">
         <v>162</v>
@@ -12915,13 +12918,13 @@
     </row>
     <row r="178" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A178" s="26" t="s">
-        <v>790</v>
+        <v>195</v>
       </c>
       <c r="B178" s="28" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C178" s="28" t="s">
-        <v>792</v>
+        <v>774</v>
       </c>
       <c r="D178" s="28" t="s">
         <v>555</v>
@@ -12948,7 +12951,7 @@
         <v>859</v>
       </c>
       <c r="L178" s="28" t="s">
-        <v>386</v>
+        <v>80</v>
       </c>
       <c r="M178" s="8" t="s">
         <v>162</v>
@@ -12959,13 +12962,13 @@
     </row>
     <row r="179" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A179" s="26" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B179" s="28" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C179" s="28" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D179" s="28" t="s">
         <v>555</v>
@@ -12992,7 +12995,7 @@
         <v>859</v>
       </c>
       <c r="L179" s="28" t="s">
-        <v>176</v>
+        <v>386</v>
       </c>
       <c r="M179" s="8" t="s">
         <v>162</v>
@@ -13003,13 +13006,13 @@
     </row>
     <row r="180" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A180" s="26" t="s">
-        <v>488</v>
+        <v>793</v>
       </c>
       <c r="B180" s="28" t="s">
-        <v>489</v>
+        <v>794</v>
       </c>
       <c r="C180" s="28" t="s">
-        <v>490</v>
+        <v>795</v>
       </c>
       <c r="D180" s="28" t="s">
         <v>555</v>
@@ -13024,7 +13027,7 @@
         <v>276</v>
       </c>
       <c r="H180" s="28" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="I180" s="28" t="s">
         <v>632</v>
@@ -13036,7 +13039,7 @@
         <v>859</v>
       </c>
       <c r="L180" s="28" t="s">
-        <v>386</v>
+        <v>176</v>
       </c>
       <c r="M180" s="8" t="s">
         <v>162</v>
@@ -13047,13 +13050,13 @@
     </row>
     <row r="181" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A181" s="26" t="s">
-        <v>803</v>
+        <v>488</v>
       </c>
       <c r="B181" s="28" t="s">
-        <v>779</v>
+        <v>489</v>
       </c>
       <c r="C181" s="28" t="s">
-        <v>780</v>
+        <v>490</v>
       </c>
       <c r="D181" s="28" t="s">
         <v>555</v>
@@ -13077,10 +13080,10 @@
         <v>826</v>
       </c>
       <c r="K181" s="28" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="L181" s="28" t="s">
-        <v>1006</v>
+        <v>386</v>
       </c>
       <c r="M181" s="8" t="s">
         <v>162</v>
@@ -13091,13 +13094,13 @@
     </row>
     <row r="182" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A182" s="26" t="s">
-        <v>494</v>
+        <v>803</v>
       </c>
       <c r="B182" s="28" t="s">
-        <v>472</v>
+        <v>779</v>
       </c>
       <c r="C182" s="28" t="s">
-        <v>491</v>
+        <v>780</v>
       </c>
       <c r="D182" s="28" t="s">
         <v>555</v>
@@ -13112,80 +13115,80 @@
         <v>276</v>
       </c>
       <c r="H182" s="28" t="s">
+        <v>885</v>
+      </c>
+      <c r="I182" s="28" t="s">
+        <v>632</v>
+      </c>
+      <c r="J182" s="28" t="s">
+        <v>826</v>
+      </c>
+      <c r="K182" s="28" t="s">
+        <v>857</v>
+      </c>
+      <c r="L182" s="28" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M182" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="N182" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A183" s="26" t="s">
+        <v>494</v>
+      </c>
+      <c r="B183" s="28" t="s">
+        <v>472</v>
+      </c>
+      <c r="C183" s="28" t="s">
+        <v>491</v>
+      </c>
+      <c r="D183" s="28" t="s">
+        <v>555</v>
+      </c>
+      <c r="E183" s="28" t="s">
+        <v>497</v>
+      </c>
+      <c r="F183" s="28" t="s">
+        <v>660</v>
+      </c>
+      <c r="G183" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="H183" s="28" t="s">
         <v>882</v>
       </c>
-      <c r="I182" s="28" t="s">
-        <v>632</v>
-      </c>
-      <c r="J182" s="28" t="s">
+      <c r="I183" s="28" t="s">
+        <v>632</v>
+      </c>
+      <c r="J183" s="28" t="s">
         <v>831</v>
       </c>
-      <c r="K182" s="28" t="s">
+      <c r="K183" s="28" t="s">
         <v>831</v>
       </c>
-      <c r="L182" s="28" t="s">
+      <c r="L183" s="28" t="s">
         <v>838</v>
       </c>
-      <c r="M182" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="N182" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="183" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A183" s="11" t="s">
+      <c r="M183" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="N183" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A184" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="B183" s="12" t="s">
+      <c r="B184" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="C183" s="10" t="s">
+      <c r="C184" s="10" t="s">
         <v>172</v>
-      </c>
-      <c r="D183" s="10" t="s">
-        <v>555</v>
-      </c>
-      <c r="E183" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="F183" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="G183" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="H183" s="10" t="s">
-        <v>874</v>
-      </c>
-      <c r="I183" s="10" t="s">
-        <v>632</v>
-      </c>
-      <c r="J183" s="10" t="s">
-        <v>826</v>
-      </c>
-      <c r="K183" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="L183" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="M183" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="N183" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="184" spans="1:14" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A184" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="B184" s="12" t="s">
-        <v>457</v>
-      </c>
-      <c r="C184" s="10" t="s">
-        <v>439</v>
       </c>
       <c r="D184" s="10" t="s">
         <v>555</v>
@@ -13209,10 +13212,10 @@
         <v>826</v>
       </c>
       <c r="K184" s="10" t="s">
-        <v>859</v>
+        <v>434</v>
       </c>
       <c r="L184" s="10" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="M184" s="8" t="s">
         <v>162</v>
@@ -13221,15 +13224,15 @@
         <v>162</v>
       </c>
     </row>
-    <row r="185" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A185" s="11" t="s">
-        <v>746</v>
+        <v>226</v>
       </c>
       <c r="B185" s="12" t="s">
-        <v>747</v>
-      </c>
-      <c r="C185" s="12" t="s">
-        <v>755</v>
+        <v>457</v>
+      </c>
+      <c r="C185" s="10" t="s">
+        <v>439</v>
       </c>
       <c r="D185" s="10" t="s">
         <v>555</v>
@@ -13240,23 +13243,23 @@
       <c r="F185" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="G185" s="12" t="s">
+      <c r="G185" s="10" t="s">
         <v>302</v>
       </c>
       <c r="H185" s="10" t="s">
         <v>874</v>
       </c>
-      <c r="I185" s="12" t="s">
-        <v>632</v>
-      </c>
-      <c r="J185" s="12" t="s">
+      <c r="I185" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="J185" s="10" t="s">
         <v>826</v>
       </c>
-      <c r="K185" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="L185" s="12" t="s">
-        <v>1008</v>
+      <c r="K185" s="10" t="s">
+        <v>859</v>
+      </c>
+      <c r="L185" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="M185" s="8" t="s">
         <v>162</v>
@@ -13265,15 +13268,15 @@
         <v>162</v>
       </c>
     </row>
-    <row r="186" spans="1:14" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A186" s="11" t="s">
-        <v>234</v>
+        <v>746</v>
       </c>
       <c r="B186" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="C186" s="10" t="s">
-        <v>438</v>
+        <v>747</v>
+      </c>
+      <c r="C186" s="12" t="s">
+        <v>755</v>
       </c>
       <c r="D186" s="10" t="s">
         <v>555</v>
@@ -13284,23 +13287,23 @@
       <c r="F186" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="G186" s="10" t="s">
+      <c r="G186" s="12" t="s">
         <v>302</v>
       </c>
       <c r="H186" s="10" t="s">
-        <v>876</v>
-      </c>
-      <c r="I186" s="10" t="s">
-        <v>632</v>
-      </c>
-      <c r="J186" s="10" t="s">
+        <v>874</v>
+      </c>
+      <c r="I186" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="J186" s="12" t="s">
         <v>826</v>
       </c>
-      <c r="K186" s="10" t="s">
-        <v>859</v>
-      </c>
-      <c r="L186" s="10" t="s">
-        <v>103</v>
+      <c r="K186" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="L186" s="12" t="s">
+        <v>1008</v>
       </c>
       <c r="M186" s="8" t="s">
         <v>162</v>
@@ -13311,13 +13314,13 @@
     </row>
     <row r="187" spans="1:14" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A187" s="11" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B187" s="12" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D187" s="10" t="s">
         <v>555</v>
@@ -13341,10 +13344,10 @@
         <v>826</v>
       </c>
       <c r="K187" s="10" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="L187" s="10" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="M187" s="8" t="s">
         <v>162</v>
@@ -13353,15 +13356,15 @@
         <v>162</v>
       </c>
     </row>
-    <row r="188" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A188" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B188" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D188" s="10" t="s">
         <v>555</v>
@@ -13397,15 +13400,15 @@
         <v>162</v>
       </c>
     </row>
-    <row r="189" spans="1:14" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A189" s="11" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B189" s="12" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>19</v>
+        <v>441</v>
       </c>
       <c r="D189" s="10" t="s">
         <v>555</v>
@@ -13432,7 +13435,7 @@
         <v>858</v>
       </c>
       <c r="L189" s="10" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="M189" s="8" t="s">
         <v>162</v>
@@ -13443,13 +13446,13 @@
     </row>
     <row r="190" spans="1:14" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A190" s="11" t="s">
-        <v>503</v>
+        <v>220</v>
       </c>
       <c r="B190" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C190" s="12" t="s">
-        <v>499</v>
+      <c r="C190" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="D190" s="10" t="s">
         <v>555</v>
@@ -13460,13 +13463,13 @@
       <c r="F190" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="G190" s="12" t="s">
+      <c r="G190" s="10" t="s">
         <v>302</v>
       </c>
       <c r="H190" s="10" t="s">
         <v>876</v>
       </c>
-      <c r="I190" s="12" t="s">
+      <c r="I190" s="10" t="s">
         <v>632</v>
       </c>
       <c r="J190" s="10" t="s">
@@ -13476,7 +13479,7 @@
         <v>858</v>
       </c>
       <c r="L190" s="10" t="s">
-        <v>544</v>
+        <v>115</v>
       </c>
       <c r="M190" s="8" t="s">
         <v>162</v>
@@ -13487,13 +13490,13 @@
     </row>
     <row r="191" spans="1:14" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A191" s="11" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B191" s="12" t="s">
-        <v>547</v>
+        <v>114</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>557</v>
+        <v>499</v>
       </c>
       <c r="D191" s="10" t="s">
         <v>555</v>
@@ -13520,7 +13523,7 @@
         <v>858</v>
       </c>
       <c r="L191" s="10" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="M191" s="8" t="s">
         <v>162</v>
@@ -13531,13 +13534,13 @@
     </row>
     <row r="192" spans="1:14" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A192" s="11" t="s">
-        <v>662</v>
+        <v>506</v>
       </c>
       <c r="B192" s="12" t="s">
-        <v>661</v>
+        <v>547</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>665</v>
+        <v>557</v>
       </c>
       <c r="D192" s="10" t="s">
         <v>555</v>
@@ -13560,11 +13563,11 @@
       <c r="J192" s="10" t="s">
         <v>826</v>
       </c>
-      <c r="K192" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="L192" s="12" t="s">
-        <v>1009</v>
+      <c r="K192" s="10" t="s">
+        <v>858</v>
+      </c>
+      <c r="L192" s="10" t="s">
+        <v>533</v>
       </c>
       <c r="M192" s="8" t="s">
         <v>162</v>
@@ -13575,13 +13578,13 @@
     </row>
     <row r="193" spans="1:14" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A193" s="11" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D193" s="10" t="s">
         <v>555</v>
@@ -13604,11 +13607,11 @@
       <c r="J193" s="10" t="s">
         <v>826</v>
       </c>
-      <c r="K193" s="10" t="s">
-        <v>858</v>
-      </c>
-      <c r="L193" s="10" t="s">
-        <v>844</v>
+      <c r="K193" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="L193" s="12" t="s">
+        <v>1009</v>
       </c>
       <c r="M193" s="8" t="s">
         <v>162</v>
@@ -13619,13 +13622,13 @@
     </row>
     <row r="194" spans="1:14" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A194" s="11" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B194" s="12" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C194" s="12" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D194" s="10" t="s">
         <v>555</v>
@@ -13652,7 +13655,7 @@
         <v>858</v>
       </c>
       <c r="L194" s="10" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="M194" s="8" t="s">
         <v>162</v>
@@ -13663,13 +13666,13 @@
     </row>
     <row r="195" spans="1:14" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A195" s="11" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="B195" s="12" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="D195" s="10" t="s">
         <v>555</v>
@@ -13696,7 +13699,7 @@
         <v>858</v>
       </c>
       <c r="L195" s="10" t="s">
-        <v>899</v>
+        <v>845</v>
       </c>
       <c r="M195" s="8" t="s">
         <v>162</v>
@@ -13707,13 +13710,13 @@
     </row>
     <row r="196" spans="1:14" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A196" s="11" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="B196" s="12" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="D196" s="10" t="s">
         <v>555</v>
@@ -13737,10 +13740,10 @@
         <v>826</v>
       </c>
       <c r="K196" s="10" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="L196" s="10" t="s">
-        <v>103</v>
+        <v>899</v>
       </c>
       <c r="M196" s="8" t="s">
         <v>162</v>
@@ -13749,15 +13752,15 @@
         <v>162</v>
       </c>
     </row>
-    <row r="197" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A197" s="11" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="B197" s="12" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="D197" s="10" t="s">
         <v>555</v>
@@ -13781,10 +13784,10 @@
         <v>826</v>
       </c>
       <c r="K197" s="10" t="s">
-        <v>434</v>
+        <v>859</v>
       </c>
       <c r="L197" s="10" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="M197" s="8" t="s">
         <v>162</v>
@@ -13795,13 +13798,13 @@
     </row>
     <row r="198" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A198" s="11" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B198" s="12" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="D198" s="10" t="s">
         <v>555</v>
@@ -13825,10 +13828,10 @@
         <v>826</v>
       </c>
       <c r="K198" s="10" t="s">
-        <v>857</v>
+        <v>434</v>
       </c>
       <c r="L198" s="10" t="s">
-        <v>849</v>
+        <v>88</v>
       </c>
       <c r="M198" s="8" t="s">
         <v>162</v>
@@ -13839,13 +13842,13 @@
     </row>
     <row r="199" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A199" s="11" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="B199" s="12" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="D199" s="10" t="s">
         <v>555</v>
@@ -13869,10 +13872,10 @@
         <v>826</v>
       </c>
       <c r="K199" s="10" t="s">
-        <v>434</v>
+        <v>857</v>
       </c>
       <c r="L199" s="10" t="s">
-        <v>88</v>
+        <v>849</v>
       </c>
       <c r="M199" s="8" t="s">
         <v>162</v>
@@ -13883,13 +13886,13 @@
     </row>
     <row r="200" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A200" s="11" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B200" s="12" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="D200" s="10" t="s">
         <v>555</v>
@@ -13913,10 +13916,10 @@
         <v>826</v>
       </c>
       <c r="K200" s="10" t="s">
-        <v>857</v>
+        <v>434</v>
       </c>
       <c r="L200" s="10" t="s">
-        <v>906</v>
+        <v>88</v>
       </c>
       <c r="M200" s="8" t="s">
         <v>162</v>
@@ -13927,13 +13930,13 @@
     </row>
     <row r="201" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A201" s="11" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B201" s="12" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C201" s="12" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D201" s="10" t="s">
         <v>555</v>
@@ -13957,10 +13960,10 @@
         <v>826</v>
       </c>
       <c r="K201" s="10" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="L201" s="10" t="s">
-        <v>851</v>
+        <v>906</v>
       </c>
       <c r="M201" s="8" t="s">
         <v>162</v>
@@ -13971,13 +13974,13 @@
     </row>
     <row r="202" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A202" s="11" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B202" s="12" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C202" s="12" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="D202" s="10" t="s">
         <v>555</v>
@@ -14001,10 +14004,10 @@
         <v>826</v>
       </c>
       <c r="K202" s="10" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="L202" s="10" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="M202" s="8" t="s">
         <v>162</v>
@@ -14015,13 +14018,13 @@
     </row>
     <row r="203" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A203" s="11" t="s">
-        <v>814</v>
+        <v>703</v>
       </c>
       <c r="B203" s="12" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="C203" s="12" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="D203" s="10" t="s">
         <v>555</v>
@@ -14045,10 +14048,10 @@
         <v>826</v>
       </c>
       <c r="K203" s="10" t="s">
-        <v>434</v>
+        <v>865</v>
       </c>
       <c r="L203" s="10" t="s">
-        <v>1010</v>
+        <v>852</v>
       </c>
       <c r="M203" s="8" t="s">
         <v>162</v>
@@ -14057,15 +14060,15 @@
         <v>162</v>
       </c>
     </row>
-    <row r="204" spans="1:14" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A204" s="11" t="s">
-        <v>710</v>
+        <v>814</v>
       </c>
       <c r="B204" s="12" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="D204" s="10" t="s">
         <v>555</v>
@@ -14086,13 +14089,13 @@
         <v>632</v>
       </c>
       <c r="J204" s="10" t="s">
-        <v>869</v>
+        <v>826</v>
       </c>
       <c r="K204" s="10" t="s">
-        <v>828</v>
+        <v>434</v>
       </c>
       <c r="L204" s="10" t="s">
-        <v>853</v>
+        <v>1010</v>
       </c>
       <c r="M204" s="8" t="s">
         <v>162</v>
@@ -14103,13 +14106,13 @@
     </row>
     <row r="205" spans="1:14" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A205" s="11" t="s">
-        <v>815</v>
+        <v>710</v>
       </c>
       <c r="B205" s="12" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C205" s="12" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D205" s="10" t="s">
         <v>555</v>
@@ -14130,13 +14133,13 @@
         <v>632</v>
       </c>
       <c r="J205" s="10" t="s">
-        <v>826</v>
+        <v>869</v>
       </c>
       <c r="K205" s="10" t="s">
-        <v>865</v>
+        <v>828</v>
       </c>
       <c r="L205" s="10" t="s">
-        <v>912</v>
+        <v>853</v>
       </c>
       <c r="M205" s="8" t="s">
         <v>162</v>
@@ -14147,13 +14150,13 @@
     </row>
     <row r="206" spans="1:14" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A206" s="11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B206" s="12" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C206" s="12" t="s">
-        <v>702</v>
+        <v>714</v>
       </c>
       <c r="D206" s="10" t="s">
         <v>555</v>
@@ -14177,10 +14180,10 @@
         <v>826</v>
       </c>
       <c r="K206" s="10" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
       <c r="L206" s="10" t="s">
-        <v>839</v>
+        <v>912</v>
       </c>
       <c r="M206" s="8" t="s">
         <v>162</v>
@@ -14191,13 +14194,13 @@
     </row>
     <row r="207" spans="1:14" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A207" s="11" t="s">
-        <v>732</v>
+        <v>816</v>
       </c>
       <c r="B207" s="12" t="s">
-        <v>733</v>
+        <v>715</v>
       </c>
       <c r="C207" s="12" t="s">
-        <v>748</v>
+        <v>702</v>
       </c>
       <c r="D207" s="10" t="s">
         <v>555</v>
@@ -14221,10 +14224,10 @@
         <v>826</v>
       </c>
       <c r="K207" s="10" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="L207" s="10" t="s">
-        <v>854</v>
+        <v>839</v>
       </c>
       <c r="M207" s="8" t="s">
         <v>162</v>
@@ -14235,13 +14238,13 @@
     </row>
     <row r="208" spans="1:14" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A208" s="11" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="B208" s="12" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="C208" s="12" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="D208" s="10" t="s">
         <v>555</v>
@@ -14268,7 +14271,7 @@
         <v>863</v>
       </c>
       <c r="L208" s="10" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="M208" s="8" t="s">
         <v>162</v>
@@ -14279,13 +14282,13 @@
     </row>
     <row r="209" spans="1:14" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A209" s="11" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="B209" s="12" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C209" s="12" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="D209" s="10" t="s">
         <v>555</v>
@@ -14309,10 +14312,10 @@
         <v>826</v>
       </c>
       <c r="K209" s="10" t="s">
-        <v>434</v>
+        <v>863</v>
       </c>
       <c r="L209" s="10" t="s">
-        <v>756</v>
+        <v>853</v>
       </c>
       <c r="M209" s="8" t="s">
         <v>162</v>
@@ -14321,15 +14324,15 @@
         <v>162</v>
       </c>
     </row>
-    <row r="210" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A210" s="11" t="s">
-        <v>676</v>
+        <v>742</v>
       </c>
       <c r="B210" s="12" t="s">
-        <v>677</v>
+        <v>743</v>
       </c>
       <c r="C210" s="12" t="s">
-        <v>678</v>
+        <v>750</v>
       </c>
       <c r="D210" s="10" t="s">
         <v>555</v>
@@ -14344,7 +14347,7 @@
         <v>302</v>
       </c>
       <c r="H210" s="10" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="I210" s="12" t="s">
         <v>632</v>
@@ -14353,10 +14356,10 @@
         <v>826</v>
       </c>
       <c r="K210" s="10" t="s">
-        <v>857</v>
+        <v>434</v>
       </c>
       <c r="L210" s="10" t="s">
-        <v>850</v>
+        <v>756</v>
       </c>
       <c r="M210" s="8" t="s">
         <v>162</v>
@@ -14367,13 +14370,13 @@
     </row>
     <row r="211" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A211" s="11" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="B211" s="12" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="C211" s="12" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="D211" s="10" t="s">
         <v>555</v>
@@ -14400,7 +14403,7 @@
         <v>857</v>
       </c>
       <c r="L211" s="10" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="M211" s="8" t="s">
         <v>162</v>
@@ -14411,13 +14414,13 @@
     </row>
     <row r="212" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A212" s="11" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="B212" s="12" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="C212" s="12" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="D212" s="10" t="s">
         <v>555</v>
@@ -14444,7 +14447,7 @@
         <v>857</v>
       </c>
       <c r="L212" s="10" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="M212" s="8" t="s">
         <v>162</v>
@@ -14455,13 +14458,13 @@
     </row>
     <row r="213" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A213" s="11" t="s">
-        <v>671</v>
+        <v>692</v>
       </c>
       <c r="B213" s="12" t="s">
-        <v>670</v>
+        <v>691</v>
       </c>
       <c r="C213" s="12" t="s">
-        <v>672</v>
+        <v>693</v>
       </c>
       <c r="D213" s="10" t="s">
         <v>555</v>
@@ -14476,7 +14479,7 @@
         <v>302</v>
       </c>
       <c r="H213" s="10" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="I213" s="12" t="s">
         <v>632</v>
@@ -14485,10 +14488,10 @@
         <v>826</v>
       </c>
       <c r="K213" s="10" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="L213" s="10" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="M213" s="8" t="s">
         <v>162</v>
@@ -14499,13 +14502,13 @@
     </row>
     <row r="214" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A214" s="11" t="s">
-        <v>717</v>
+        <v>671</v>
       </c>
       <c r="B214" s="12" t="s">
-        <v>716</v>
+        <v>670</v>
       </c>
       <c r="C214" s="12" t="s">
-        <v>718</v>
+        <v>672</v>
       </c>
       <c r="D214" s="10" t="s">
         <v>555</v>
@@ -14526,13 +14529,13 @@
         <v>632</v>
       </c>
       <c r="J214" s="10" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="K214" s="10" t="s">
-        <v>834</v>
+        <v>858</v>
       </c>
       <c r="L214" s="10" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="M214" s="8" t="s">
         <v>162</v>
@@ -14543,13 +14546,13 @@
     </row>
     <row r="215" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A215" s="11" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="B215" s="12" t="s">
-        <v>706</v>
+        <v>716</v>
       </c>
       <c r="C215" s="12" t="s">
-        <v>707</v>
+        <v>718</v>
       </c>
       <c r="D215" s="10" t="s">
         <v>555</v>
@@ -14563,20 +14566,20 @@
       <c r="G215" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="H215" s="12" t="s">
-        <v>875</v>
+      <c r="H215" s="10" t="s">
+        <v>880</v>
       </c>
       <c r="I215" s="12" t="s">
         <v>632</v>
       </c>
-      <c r="J215" s="12" t="s">
-        <v>825</v>
+      <c r="J215" s="10" t="s">
+        <v>832</v>
       </c>
       <c r="K215" s="10" t="s">
-        <v>871</v>
+        <v>834</v>
       </c>
       <c r="L215" s="10" t="s">
-        <v>282</v>
+        <v>840</v>
       </c>
       <c r="M215" s="8" t="s">
         <v>162</v>
@@ -14587,13 +14590,13 @@
     </row>
     <row r="216" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A216" s="11" t="s">
-        <v>817</v>
+        <v>708</v>
       </c>
       <c r="B216" s="12" t="s">
-        <v>723</v>
+        <v>706</v>
       </c>
       <c r="C216" s="12" t="s">
-        <v>725</v>
+        <v>707</v>
       </c>
       <c r="D216" s="10" t="s">
         <v>555</v>
@@ -14616,11 +14619,11 @@
       <c r="J216" s="12" t="s">
         <v>825</v>
       </c>
-      <c r="K216" s="12" t="s">
-        <v>868</v>
-      </c>
-      <c r="L216" s="12" t="s">
-        <v>843</v>
+      <c r="K216" s="10" t="s">
+        <v>871</v>
+      </c>
+      <c r="L216" s="10" t="s">
+        <v>282</v>
       </c>
       <c r="M216" s="8" t="s">
         <v>162</v>
@@ -14631,13 +14634,13 @@
     </row>
     <row r="217" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A217" s="11" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B217" s="12" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C217" s="12" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D217" s="10" t="s">
         <v>555</v>
@@ -14661,10 +14664,10 @@
         <v>825</v>
       </c>
       <c r="K217" s="12" t="s">
-        <v>860</v>
+        <v>868</v>
       </c>
       <c r="L217" s="12" t="s">
-        <v>909</v>
+        <v>843</v>
       </c>
       <c r="M217" s="8" t="s">
         <v>162</v>
@@ -14675,13 +14678,13 @@
     </row>
     <row r="218" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A218" s="11" t="s">
-        <v>734</v>
+        <v>818</v>
       </c>
       <c r="B218" s="12" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="C218" s="12" t="s">
-        <v>749</v>
+        <v>726</v>
       </c>
       <c r="D218" s="10" t="s">
         <v>555</v>
@@ -14705,10 +14708,10 @@
         <v>825</v>
       </c>
       <c r="K218" s="12" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="L218" s="12" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="M218" s="8" t="s">
         <v>162</v>
@@ -14719,13 +14722,13 @@
     </row>
     <row r="219" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A219" s="11" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B219" s="12" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C219" s="12" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="D219" s="10" t="s">
         <v>555</v>
@@ -14749,10 +14752,10 @@
         <v>825</v>
       </c>
       <c r="K219" s="12" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="L219" s="12" t="s">
-        <v>1011</v>
+        <v>910</v>
       </c>
       <c r="M219" s="8" t="s">
         <v>162</v>
@@ -14763,13 +14766,13 @@
     </row>
     <row r="220" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A220" s="11" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="B220" s="12" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="C220" s="12" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D220" s="10" t="s">
         <v>555</v>
@@ -14796,7 +14799,7 @@
         <v>861</v>
       </c>
       <c r="L220" s="12" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="M220" s="8" t="s">
         <v>162</v>
@@ -14807,13 +14810,13 @@
     </row>
     <row r="221" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A221" s="11" t="s">
-        <v>504</v>
+        <v>744</v>
       </c>
       <c r="B221" s="12" t="s">
-        <v>543</v>
+        <v>745</v>
       </c>
       <c r="C221" s="12" t="s">
-        <v>556</v>
+        <v>754</v>
       </c>
       <c r="D221" s="10" t="s">
         <v>555</v>
@@ -14827,20 +14830,20 @@
       <c r="G221" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="H221" s="10" t="s">
-        <v>877</v>
+      <c r="H221" s="12" t="s">
+        <v>875</v>
       </c>
       <c r="I221" s="12" t="s">
         <v>632</v>
       </c>
       <c r="J221" s="12" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="K221" s="12" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="L221" s="12" t="s">
-        <v>545</v>
+        <v>1012</v>
       </c>
       <c r="M221" s="8" t="s">
         <v>162</v>
@@ -14851,13 +14854,13 @@
     </row>
     <row r="222" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A222" s="11" t="s">
-        <v>809</v>
+        <v>504</v>
       </c>
       <c r="B222" s="12" t="s">
-        <v>729</v>
+        <v>543</v>
       </c>
       <c r="C222" s="12" t="s">
-        <v>730</v>
+        <v>556</v>
       </c>
       <c r="D222" s="10" t="s">
         <v>555</v>
@@ -14884,7 +14887,7 @@
         <v>862</v>
       </c>
       <c r="L222" s="12" t="s">
-        <v>1013</v>
+        <v>545</v>
       </c>
       <c r="M222" s="8" t="s">
         <v>162</v>
@@ -14895,13 +14898,13 @@
     </row>
     <row r="223" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A223" s="11" t="s">
-        <v>504</v>
+        <v>809</v>
       </c>
       <c r="B223" s="12" t="s">
-        <v>543</v>
+        <v>729</v>
       </c>
       <c r="C223" s="12" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D223" s="10" t="s">
         <v>555</v>
@@ -14928,7 +14931,7 @@
         <v>862</v>
       </c>
       <c r="L223" s="12" t="s">
-        <v>545</v>
+        <v>1013</v>
       </c>
       <c r="M223" s="8" t="s">
         <v>162</v>
@@ -14939,13 +14942,13 @@
     </row>
     <row r="224" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A224" s="11" t="s">
-        <v>740</v>
+        <v>504</v>
       </c>
       <c r="B224" s="12" t="s">
-        <v>741</v>
+        <v>543</v>
       </c>
       <c r="C224" s="12" t="s">
-        <v>751</v>
+        <v>731</v>
       </c>
       <c r="D224" s="10" t="s">
         <v>555</v>
@@ -14972,7 +14975,7 @@
         <v>862</v>
       </c>
       <c r="L224" s="12" t="s">
-        <v>911</v>
+        <v>545</v>
       </c>
       <c r="M224" s="8" t="s">
         <v>162</v>
@@ -14983,13 +14986,13 @@
     </row>
     <row r="225" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A225" s="11" t="s">
-        <v>508</v>
+        <v>740</v>
       </c>
       <c r="B225" s="12" t="s">
-        <v>536</v>
+        <v>741</v>
       </c>
       <c r="C225" s="12" t="s">
-        <v>559</v>
+        <v>751</v>
       </c>
       <c r="D225" s="10" t="s">
         <v>555</v>
@@ -15003,20 +15006,20 @@
       <c r="G225" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="H225" s="12" t="s">
-        <v>879</v>
+      <c r="H225" s="10" t="s">
+        <v>877</v>
       </c>
       <c r="I225" s="12" t="s">
         <v>632</v>
       </c>
       <c r="J225" s="12" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K225" s="12" t="s">
-        <v>833</v>
+        <v>862</v>
       </c>
       <c r="L225" s="12" t="s">
-        <v>537</v>
+        <v>911</v>
       </c>
       <c r="M225" s="8" t="s">
         <v>162</v>
@@ -15027,13 +15030,13 @@
     </row>
     <row r="226" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A226" s="11" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B226" s="12" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C226" s="12" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="D226" s="10" t="s">
         <v>555</v>
@@ -15047,20 +15050,20 @@
       <c r="G226" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="H226" s="10" t="s">
-        <v>878</v>
+      <c r="H226" s="12" t="s">
+        <v>879</v>
       </c>
       <c r="I226" s="12" t="s">
         <v>632</v>
       </c>
       <c r="J226" s="12" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="K226" s="12" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="L226" s="12" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="M226" s="8" t="s">
         <v>162</v>
@@ -15071,13 +15074,13 @@
     </row>
     <row r="227" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A227" s="11" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B227" s="12" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C227" s="12" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="D227" s="10" t="s">
         <v>555</v>
@@ -15104,7 +15107,7 @@
         <v>831</v>
       </c>
       <c r="L227" s="12" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="M227" s="8" t="s">
         <v>162</v>
@@ -15115,13 +15118,13 @@
     </row>
     <row r="228" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A228" s="11" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B228" s="12" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C228" s="12" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D228" s="10" t="s">
         <v>555</v>
@@ -15148,7 +15151,7 @@
         <v>831</v>
       </c>
       <c r="L228" s="12" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="M228" s="8" t="s">
         <v>162</v>
@@ -15159,13 +15162,13 @@
     </row>
     <row r="229" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A229" s="11" t="s">
-        <v>810</v>
+        <v>509</v>
       </c>
       <c r="B229" s="12" t="s">
-        <v>719</v>
+        <v>538</v>
       </c>
       <c r="C229" s="12" t="s">
-        <v>720</v>
+        <v>560</v>
       </c>
       <c r="D229" s="10" t="s">
         <v>555</v>
@@ -15185,14 +15188,14 @@
       <c r="I229" s="12" t="s">
         <v>632</v>
       </c>
-      <c r="J229" s="10" t="s">
+      <c r="J229" s="12" t="s">
         <v>831</v>
       </c>
-      <c r="K229" s="10" t="s">
+      <c r="K229" s="12" t="s">
         <v>831</v>
       </c>
-      <c r="L229" s="10" t="s">
-        <v>841</v>
+      <c r="L229" s="12" t="s">
+        <v>539</v>
       </c>
       <c r="M229" s="8" t="s">
         <v>162</v>
@@ -15203,13 +15206,13 @@
     </row>
     <row r="230" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A230" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B230" s="12" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C230" s="12" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D230" s="10" t="s">
         <v>555</v>
@@ -15229,14 +15232,14 @@
       <c r="I230" s="12" t="s">
         <v>632</v>
       </c>
-      <c r="J230" s="12" t="s">
+      <c r="J230" s="10" t="s">
         <v>831</v>
       </c>
-      <c r="K230" s="12" t="s">
+      <c r="K230" s="10" t="s">
         <v>831</v>
       </c>
-      <c r="L230" s="12" t="s">
-        <v>842</v>
+      <c r="L230" s="10" t="s">
+        <v>841</v>
       </c>
       <c r="M230" s="8" t="s">
         <v>162</v>
@@ -15247,13 +15250,13 @@
     </row>
     <row r="231" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A231" s="11" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="B231" s="12" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="C231" s="12" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="D231" s="10" t="s">
         <v>555</v>
@@ -15280,7 +15283,7 @@
         <v>831</v>
       </c>
       <c r="L231" s="12" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="M231" s="8" t="s">
         <v>162</v>
@@ -15291,13 +15294,13 @@
     </row>
     <row r="232" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A232" s="11" t="s">
-        <v>512</v>
+        <v>808</v>
       </c>
       <c r="B232" s="12" t="s">
-        <v>542</v>
+        <v>727</v>
       </c>
       <c r="C232" s="12" t="s">
-        <v>561</v>
+        <v>728</v>
       </c>
       <c r="D232" s="10" t="s">
         <v>555</v>
@@ -15311,62 +15314,62 @@
       <c r="G232" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="H232" s="12"/>
+      <c r="H232" s="10" t="s">
+        <v>878</v>
+      </c>
       <c r="I232" s="12" t="s">
         <v>632</v>
       </c>
       <c r="J232" s="12" t="s">
+        <v>831</v>
+      </c>
+      <c r="K232" s="12" t="s">
+        <v>831</v>
+      </c>
+      <c r="L232" s="12" t="s">
+        <v>838</v>
+      </c>
+      <c r="M232" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="N232" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A233" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="B233" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="C233" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="D233" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="E233" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="F233" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="G233" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="H233" s="12"/>
+      <c r="I233" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="J233" s="12" t="s">
         <v>830</v>
       </c>
-      <c r="K232" s="12" t="s">
+      <c r="K233" s="12" t="s">
         <v>830</v>
       </c>
-      <c r="L232" s="12" t="s">
+      <c r="L233" s="12" t="s">
         <v>904</v>
-      </c>
-      <c r="M232" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="N232" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="233" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A233" s="34" t="s">
-        <v>511</v>
-      </c>
-      <c r="B233" s="35" t="s">
-        <v>541</v>
-      </c>
-      <c r="C233" s="35" t="s">
-        <v>563</v>
-      </c>
-      <c r="D233" s="36" t="s">
-        <v>555</v>
-      </c>
-      <c r="E233" s="36" t="s">
-        <v>566</v>
-      </c>
-      <c r="F233" s="36" t="s">
-        <v>566</v>
-      </c>
-      <c r="G233" s="35" t="s">
-        <v>335</v>
-      </c>
-      <c r="H233" s="35" t="s">
-        <v>872</v>
-      </c>
-      <c r="I233" s="35" t="s">
-        <v>632</v>
-      </c>
-      <c r="J233" s="36" t="s">
-        <v>826</v>
-      </c>
-      <c r="K233" s="36" t="s">
-        <v>434</v>
-      </c>
-      <c r="L233" s="36" t="s">
-        <v>88</v>
       </c>
       <c r="M233" s="8" t="s">
         <v>162</v>
@@ -15377,13 +15380,13 @@
     </row>
     <row r="234" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A234" s="34" t="s">
-        <v>251</v>
+        <v>511</v>
       </c>
       <c r="B234" s="35" t="s">
-        <v>145</v>
+        <v>541</v>
       </c>
       <c r="C234" s="35" t="s">
-        <v>351</v>
+        <v>563</v>
       </c>
       <c r="D234" s="36" t="s">
         <v>555</v>
@@ -15421,13 +15424,13 @@
     </row>
     <row r="235" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A235" s="34" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="B235" s="35" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C235" s="35" t="s">
-        <v>449</v>
+        <v>351</v>
       </c>
       <c r="D235" s="36" t="s">
         <v>555</v>
@@ -15451,10 +15454,10 @@
         <v>826</v>
       </c>
       <c r="K235" s="36" t="s">
-        <v>858</v>
+        <v>434</v>
       </c>
       <c r="L235" s="36" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="M235" s="8" t="s">
         <v>162</v>
@@ -15465,13 +15468,13 @@
     </row>
     <row r="236" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A236" s="34" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="B236" s="35" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="C236" s="35" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D236" s="36" t="s">
         <v>555</v>
@@ -15498,7 +15501,7 @@
         <v>858</v>
       </c>
       <c r="L236" s="36" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="M236" s="8" t="s">
         <v>162</v>
@@ -15509,13 +15512,13 @@
     </row>
     <row r="237" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A237" s="34" t="s">
-        <v>768</v>
+        <v>221</v>
       </c>
       <c r="B237" s="35" t="s">
-        <v>769</v>
+        <v>116</v>
       </c>
       <c r="C237" s="35" t="s">
-        <v>770</v>
+        <v>448</v>
       </c>
       <c r="D237" s="36" t="s">
         <v>555</v>
@@ -15539,10 +15542,10 @@
         <v>826</v>
       </c>
       <c r="K237" s="36" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="L237" s="36" t="s">
-        <v>903</v>
+        <v>117</v>
       </c>
       <c r="M237" s="8" t="s">
         <v>162</v>
@@ -15553,13 +15556,13 @@
     </row>
     <row r="238" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A238" s="34" t="s">
-        <v>799</v>
+        <v>768</v>
       </c>
       <c r="B238" s="35" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C238" s="35" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D238" s="36" t="s">
         <v>555</v>
@@ -15586,7 +15589,7 @@
         <v>857</v>
       </c>
       <c r="L238" s="36" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="M238" s="8" t="s">
         <v>162</v>
@@ -15597,13 +15600,13 @@
     </row>
     <row r="239" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A239" s="34" t="s">
-        <v>218</v>
+        <v>799</v>
       </c>
       <c r="B239" s="35" t="s">
-        <v>111</v>
+        <v>771</v>
       </c>
       <c r="C239" s="35" t="s">
-        <v>450</v>
+        <v>772</v>
       </c>
       <c r="D239" s="36" t="s">
         <v>555</v>
@@ -15618,7 +15621,7 @@
         <v>335</v>
       </c>
       <c r="H239" s="35" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I239" s="35" t="s">
         <v>632</v>
@@ -15627,10 +15630,10 @@
         <v>826</v>
       </c>
       <c r="K239" s="36" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="L239" s="36" t="s">
-        <v>130</v>
+        <v>902</v>
       </c>
       <c r="M239" s="8" t="s">
         <v>162</v>
@@ -15641,13 +15644,13 @@
     </row>
     <row r="240" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A240" s="34" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="B240" s="35" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="C240" s="35" t="s">
-        <v>289</v>
+        <v>450</v>
       </c>
       <c r="D240" s="36" t="s">
         <v>555</v>
@@ -15671,10 +15674,10 @@
         <v>826</v>
       </c>
       <c r="K240" s="36" t="s">
-        <v>434</v>
+        <v>859</v>
       </c>
       <c r="L240" s="36" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="M240" s="8" t="s">
         <v>162</v>
@@ -15685,13 +15688,13 @@
     </row>
     <row r="241" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A241" s="34" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B241" s="35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C241" s="35" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D241" s="36" t="s">
         <v>555</v>
@@ -15729,13 +15732,13 @@
     </row>
     <row r="242" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A242" s="34" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="B242" s="35" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="C242" s="35" t="s">
-        <v>447</v>
+        <v>290</v>
       </c>
       <c r="D242" s="36" t="s">
         <v>555</v>
@@ -15762,7 +15765,7 @@
         <v>434</v>
       </c>
       <c r="L242" s="36" t="s">
-        <v>628</v>
+        <v>88</v>
       </c>
       <c r="M242" s="8" t="s">
         <v>162</v>
@@ -15773,13 +15776,13 @@
     </row>
     <row r="243" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A243" s="34" t="s">
-        <v>510</v>
+        <v>225</v>
       </c>
       <c r="B243" s="35" t="s">
-        <v>540</v>
+        <v>128</v>
       </c>
       <c r="C243" s="35" t="s">
-        <v>562</v>
+        <v>447</v>
       </c>
       <c r="D243" s="36" t="s">
         <v>555</v>
@@ -15806,7 +15809,7 @@
         <v>434</v>
       </c>
       <c r="L243" s="36" t="s">
-        <v>552</v>
+        <v>628</v>
       </c>
       <c r="M243" s="8" t="s">
         <v>162</v>
@@ -15817,13 +15820,13 @@
     </row>
     <row r="244" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A244" s="34" t="s">
-        <v>819</v>
+        <v>510</v>
       </c>
       <c r="B244" s="35" t="s">
-        <v>757</v>
+        <v>540</v>
       </c>
       <c r="C244" s="35" t="s">
-        <v>758</v>
+        <v>562</v>
       </c>
       <c r="D244" s="36" t="s">
         <v>555</v>
@@ -15847,7 +15850,7 @@
         <v>826</v>
       </c>
       <c r="K244" s="36" t="s">
-        <v>857</v>
+        <v>434</v>
       </c>
       <c r="L244" s="36" t="s">
         <v>552</v>
@@ -15861,13 +15864,13 @@
     </row>
     <row r="245" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A245" s="34" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B245" s="35" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C245" s="35" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D245" s="36" t="s">
         <v>555</v>
@@ -15894,7 +15897,7 @@
         <v>857</v>
       </c>
       <c r="L245" s="36" t="s">
-        <v>908</v>
+        <v>552</v>
       </c>
       <c r="M245" s="8" t="s">
         <v>162</v>
@@ -15905,13 +15908,13 @@
     </row>
     <row r="246" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A246" s="34" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B246" s="35" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C246" s="35" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D246" s="36" t="s">
         <v>555</v>
@@ -15938,7 +15941,7 @@
         <v>857</v>
       </c>
       <c r="L246" s="36" t="s">
-        <v>901</v>
+        <v>908</v>
       </c>
       <c r="M246" s="8" t="s">
         <v>162</v>
@@ -15949,13 +15952,13 @@
     </row>
     <row r="247" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A247" s="34" t="s">
-        <v>812</v>
+        <v>821</v>
       </c>
       <c r="B247" s="35" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C247" s="35" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D247" s="36" t="s">
         <v>555</v>
@@ -15979,10 +15982,10 @@
         <v>826</v>
       </c>
       <c r="K247" s="36" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="L247" s="36" t="s">
-        <v>386</v>
+        <v>901</v>
       </c>
       <c r="M247" s="8" t="s">
         <v>162</v>
@@ -15993,13 +15996,13 @@
     </row>
     <row r="248" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A248" s="34" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="B248" s="35" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C248" s="35" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D248" s="36" t="s">
         <v>555</v>
@@ -16034,17 +16037,16 @@
       <c r="N248" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="P248" s="46"/>
     </row>
     <row r="249" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A249" s="34" t="s">
-        <v>813</v>
+        <v>822</v>
       </c>
       <c r="B249" s="35" t="s">
-        <v>886</v>
+        <v>765</v>
       </c>
       <c r="C249" s="35" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D249" s="36" t="s">
         <v>555</v>
@@ -16071,7 +16073,7 @@
         <v>859</v>
       </c>
       <c r="L249" s="36" t="s">
-        <v>907</v>
+        <v>386</v>
       </c>
       <c r="M249" s="8" t="s">
         <v>162</v>
@@ -16079,16 +16081,17 @@
       <c r="N249" s="8" t="s">
         <v>162</v>
       </c>
+      <c r="P249" s="46"/>
     </row>
     <row r="250" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A250" s="34" t="s">
-        <v>800</v>
+        <v>813</v>
       </c>
       <c r="B250" s="35" t="s">
-        <v>773</v>
+        <v>886</v>
       </c>
       <c r="C250" s="35" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="D250" s="36" t="s">
         <v>555</v>
@@ -16108,14 +16111,14 @@
       <c r="I250" s="35" t="s">
         <v>632</v>
       </c>
-      <c r="J250" s="35" t="s">
-        <v>825</v>
-      </c>
-      <c r="K250" s="35" t="s">
-        <v>860</v>
-      </c>
-      <c r="L250" s="35" t="s">
-        <v>403</v>
+      <c r="J250" s="36" t="s">
+        <v>826</v>
+      </c>
+      <c r="K250" s="36" t="s">
+        <v>859</v>
+      </c>
+      <c r="L250" s="36" t="s">
+        <v>907</v>
       </c>
       <c r="M250" s="8" t="s">
         <v>162</v>
@@ -16126,13 +16129,13 @@
     </row>
     <row r="251" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A251" s="34" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="B251" s="35" t="s">
-        <v>797</v>
+        <v>773</v>
       </c>
       <c r="C251" s="35" t="s">
-        <v>798</v>
+        <v>774</v>
       </c>
       <c r="D251" s="36" t="s">
         <v>555</v>
@@ -16152,28 +16155,72 @@
       <c r="I251" s="35" t="s">
         <v>632</v>
       </c>
-      <c r="J251" s="36" t="s">
+      <c r="J251" s="35" t="s">
+        <v>825</v>
+      </c>
+      <c r="K251" s="35" t="s">
+        <v>860</v>
+      </c>
+      <c r="L251" s="35" t="s">
+        <v>403</v>
+      </c>
+      <c r="M251" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="N251" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A252" s="34" t="s">
+        <v>796</v>
+      </c>
+      <c r="B252" s="35" t="s">
+        <v>797</v>
+      </c>
+      <c r="C252" s="35" t="s">
+        <v>798</v>
+      </c>
+      <c r="D252" s="36" t="s">
+        <v>555</v>
+      </c>
+      <c r="E252" s="36" t="s">
+        <v>566</v>
+      </c>
+      <c r="F252" s="36" t="s">
+        <v>566</v>
+      </c>
+      <c r="G252" s="35" t="s">
+        <v>335</v>
+      </c>
+      <c r="H252" s="35" t="s">
+        <v>873</v>
+      </c>
+      <c r="I252" s="35" t="s">
+        <v>632</v>
+      </c>
+      <c r="J252" s="36" t="s">
         <v>826</v>
       </c>
-      <c r="K251" s="36" t="s">
+      <c r="K252" s="36" t="s">
         <v>434</v>
       </c>
-      <c r="L251" s="36" t="s">
+      <c r="L252" s="36" t="s">
         <v>900</v>
       </c>
-      <c r="M251" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="N251" s="8" t="s">
+      <c r="M252" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="N252" s="8" t="s">
         <v>162</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N251">
-    <sortCondition ref="E2:E251"/>
-    <sortCondition ref="F2:F251"/>
-    <sortCondition ref="G2:G251"/>
-    <sortCondition ref="H2:H251"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N252">
+    <sortCondition ref="E2:E252"/>
+    <sortCondition ref="F2:F252"/>
+    <sortCondition ref="G2:G252"/>
+    <sortCondition ref="H2:H252"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="B61" r:id="rId1" display="https://it.wikipedia.org/wiki/Baiyangdian_virus" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -16193,7 +16240,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE06E3B-CE21-0145-BE5A-AF1BF8B7F54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995ED76E-AEC9-DB4D-A5CB-90E1599D020A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4940" yWindow="1940" windowWidth="33480" windowHeight="24020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3553" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3553" uniqueCount="1017">
   <si>
     <t>AY632538</t>
   </si>
@@ -3077,6 +3077,9 @@
   </si>
   <si>
     <t>Chelicerata</t>
+  </si>
+  <si>
+    <t>PL3</t>
   </si>
 </sst>
 </file>
@@ -3140,7 +3143,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3273,6 +3276,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39994506668294322"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4061,7 +4070,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4149,6 +4158,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="776">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -5272,8 +5282,8 @@
   <dimension ref="A1:P252"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H147" sqref="A1:N252"/>
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L143" sqref="A1:N252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11252,8 +11262,8 @@
       <c r="G136" s="45" t="s">
         <v>651</v>
       </c>
-      <c r="H136" s="48" t="s">
-        <v>590</v>
+      <c r="H136" s="49" t="s">
+        <v>1016</v>
       </c>
       <c r="I136" s="45" t="s">
         <v>626</v>

--- a/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995ED76E-AEC9-DB4D-A5CB-90E1599D020A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDFE5CD-EBCB-4F44-8019-B74123CDF0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4940" yWindow="1940" windowWidth="33480" windowHeight="24020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3553" uniqueCount="1017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3553" uniqueCount="1018">
   <si>
     <t>AY632538</t>
   </si>
@@ -3080,6 +3080,9 @@
   </si>
   <si>
     <t>PL3</t>
+  </si>
+  <si>
+    <t>Scorpiones</t>
   </si>
 </sst>
 </file>
@@ -5282,8 +5285,8 @@
   <dimension ref="A1:P252"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L143" sqref="A1:N252"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L105" sqref="L105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10568,7 +10571,7 @@
         <v>862</v>
       </c>
       <c r="K120" s="25" t="s">
-        <v>817</v>
+        <v>1017</v>
       </c>
       <c r="L120" s="25" t="s">
         <v>988</v>
@@ -10612,7 +10615,7 @@
         <v>862</v>
       </c>
       <c r="K121" s="25" t="s">
-        <v>817</v>
+        <v>1017</v>
       </c>
       <c r="L121" s="25" t="s">
         <v>988</v>

--- a/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDFE5CD-EBCB-4F44-8019-B74123CDF0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9E4CE0-39DD-C545-88F7-9675EAE340FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4940" yWindow="1940" windowWidth="33480" windowHeight="24020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5286,7 +5286,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L105" sqref="L105"/>
+      <selection pane="bottomLeft" activeCell="L114" sqref="L114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DEE279-4330-0641-A398-6407AD64F10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DBFF61-2CB7-2040-98BE-32F3F9FB1F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2860" yWindow="680" windowWidth="44860" windowHeight="24800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4709,8 +4709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A233" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="F245" sqref="A1:T249"/>
+    <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4725,7 +4725,9 @@
     <col min="11" max="11" width="27.6640625" customWidth="1"/>
     <col min="12" max="13" width="20.1640625" style="43" customWidth="1"/>
     <col min="14" max="14" width="21.5" customWidth="1"/>
-    <col min="15" max="15" width="50.1640625" customWidth="1"/>
+    <col min="15" max="15" width="25.6640625" customWidth="1"/>
+    <col min="16" max="16" width="55.5" customWidth="1"/>
+    <col min="17" max="17" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="19" x14ac:dyDescent="0.25">

--- a/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DBFF61-2CB7-2040-98BE-32F3F9FB1F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993ACC27-948E-2144-BD4D-12E169321764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2860" yWindow="680" windowWidth="44860" windowHeight="24800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4709,8 +4709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T258"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="E138" sqref="E138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993ACC27-948E-2144-BD4D-12E169321764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C829B13-FA98-7148-B828-C1669A41F0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2860" yWindow="680" windowWidth="44860" windowHeight="24800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4271,7 +4271,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4352,6 +4352,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4709,8 +4710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="E138" sqref="E138"/>
+    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="A160" sqref="A160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15953,37 +15954,37 @@
       </c>
     </row>
     <row r="182" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A182" s="37" t="s">
+      <c r="A182" s="44" t="s">
         <v>327</v>
       </c>
-      <c r="B182" s="38" t="s">
+      <c r="B182" s="41" t="s">
         <v>328</v>
       </c>
-      <c r="C182" s="38" t="s">
+      <c r="C182" s="41" t="s">
         <v>329</v>
       </c>
-      <c r="D182" s="38" t="s">
+      <c r="D182" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="E182" s="38" t="s">
+      <c r="E182" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="F182" s="38" t="s">
+      <c r="F182" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="G182" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="H182" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="I182" s="38" t="s">
+      <c r="G182" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H182" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I182" s="41" t="s">
         <v>296</v>
       </c>
-      <c r="J182" s="38" t="s">
+      <c r="J182" s="41" t="s">
         <v>296</v>
       </c>
-      <c r="K182" s="38" t="s">
+      <c r="K182" s="41" t="s">
         <v>330</v>
       </c>
       <c r="L182" s="7" t="s">
@@ -16015,37 +16016,37 @@
       </c>
     </row>
     <row r="183" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A183" s="37" t="s">
+      <c r="A183" s="44" t="s">
         <v>483</v>
       </c>
-      <c r="B183" s="38" t="s">
+      <c r="B183" s="41" t="s">
         <v>484</v>
       </c>
-      <c r="C183" s="38" t="s">
+      <c r="C183" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="D183" s="38" t="s">
+      <c r="D183" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="E183" s="38" t="s">
+      <c r="E183" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="F183" s="38" t="s">
+      <c r="F183" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="G183" s="38" t="s">
+      <c r="G183" s="41" t="s">
         <v>486</v>
       </c>
-      <c r="H183" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="I183" s="38" t="s">
+      <c r="H183" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I183" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="J183" s="38" t="s">
+      <c r="J183" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="K183" s="38" t="s">
+      <c r="K183" s="41" t="s">
         <v>488</v>
       </c>
       <c r="L183" s="7" t="s">

--- a/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/flavi-ncbi-refseqs-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/core/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/diversity/Flavivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C829B13-FA98-7148-B828-C1669A41F0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8812DD-5BBE-444D-BA8F-B3F53A5B8267}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="680" windowWidth="44860" windowHeight="24800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flavi-data" sheetId="1" r:id="rId1"/>
@@ -4710,8 +4710,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="A160" sqref="A160"/>
+    <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="O1" sqref="O1"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
